--- a/datasets/form3.xlsx
+++ b/datasets/form3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="79">
   <si>
     <t>인수기관</t>
   </si>
@@ -52,9 +52,6 @@
     <t>인수비율</t>
   </si>
   <si>
-    <t>DB</t>
-  </si>
-  <si>
     <t>KB</t>
   </si>
   <si>
@@ -70,7 +67,7 @@
     <t>미래</t>
   </si>
   <si>
-    <t>삼성</t>
+    <t>상상인</t>
   </si>
   <si>
     <t>유안타</t>
@@ -97,9 +94,6 @@
     <t>현대차</t>
   </si>
   <si>
-    <t>2023-07-13</t>
-  </si>
-  <si>
     <t>2023-07-27</t>
   </si>
   <si>
@@ -109,12 +103,12 @@
     <t>2023-08-07</t>
   </si>
   <si>
-    <t>2023-07-11</t>
-  </si>
-  <si>
     <t>2023-08-01</t>
   </si>
   <si>
+    <t>2023-07-17</t>
+  </si>
+  <si>
     <t>2023-08-23</t>
   </si>
   <si>
@@ -127,18 +121,15 @@
     <t>2023-08-10</t>
   </si>
   <si>
-    <t>2023-07-17</t>
-  </si>
-  <si>
-    <t>2023-07-10</t>
+    <t>2023-09-04</t>
+  </si>
+  <si>
+    <t>2023-08-22</t>
   </si>
   <si>
     <t>2023-07-24</t>
   </si>
   <si>
-    <t>2023-08-22</t>
-  </si>
-  <si>
     <t>2023-08-09</t>
   </si>
   <si>
@@ -148,9 +139,6 @@
     <t>2023-08-29</t>
   </si>
   <si>
-    <t>뷰티스킨</t>
-  </si>
-  <si>
     <t>파두</t>
   </si>
   <si>
@@ -160,12 +148,12 @@
     <t>빅텐츠</t>
   </si>
   <si>
-    <t>SK증권제9호스팩</t>
-  </si>
-  <si>
     <t>SK증권제10호스팩</t>
   </si>
   <si>
+    <t>버넥트</t>
+  </si>
+  <si>
     <t>대신밸런스제16호스팩</t>
   </si>
   <si>
@@ -178,21 +166,18 @@
     <t>스마트레이더시스템</t>
   </si>
   <si>
-    <t>버넥트</t>
-  </si>
-  <si>
     <t>에이엘티</t>
   </si>
   <si>
-    <t>센서뷰</t>
+    <t>상상인제4호스팩</t>
+  </si>
+  <si>
+    <t>유안타제11호스팩</t>
   </si>
   <si>
     <t>시지트로닉스</t>
   </si>
   <si>
-    <t>유안타제11호스팩</t>
-  </si>
-  <si>
     <t>유안타제14호스팩</t>
   </si>
   <si>
@@ -214,9 +199,6 @@
     <t>엠아이큐브솔루션</t>
   </si>
   <si>
-    <t>와이랩</t>
-  </si>
-  <si>
     <t>파로스아이바이오</t>
   </si>
   <si>
@@ -229,18 +211,15 @@
     <t>한국, 하이</t>
   </si>
   <si>
-    <t>2023-07-18</t>
-  </si>
-  <si>
     <t>2023-08-03</t>
   </si>
   <si>
-    <t>2023-07-14</t>
-  </si>
-  <si>
     <t>2023-08-04</t>
   </si>
   <si>
+    <t>2023-07-20</t>
+  </si>
+  <si>
     <t>2023-08-28</t>
   </si>
   <si>
@@ -253,7 +232,7 @@
     <t>2023-08-16</t>
   </si>
   <si>
-    <t>2023-07-20</t>
+    <t>2023-09-07</t>
   </si>
   <si>
     <t>2023-08-25</t>
@@ -262,28 +241,16 @@
     <t>2023-09-01</t>
   </si>
   <si>
-    <t>2023-07-25</t>
-  </si>
-  <si>
     <t>2023-08-17</t>
   </si>
   <si>
-    <t>2023-07-21</t>
-  </si>
-  <si>
     <t>2023-08-11</t>
   </si>
   <si>
-    <t>2023-09-04</t>
-  </si>
-  <si>
     <t>2023-08-30</t>
   </si>
   <si>
-    <t>2023-07-19</t>
-  </si>
-  <si>
-    <t>2023-09-07</t>
+    <t>2023-09-14</t>
   </si>
 </sst>
 </file>
@@ -641,7 +608,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L32"/>
+  <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -690,75 +657,75 @@
         <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="F2" t="s">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>82</v>
+        <v>28</v>
       </c>
       <c r="H2">
-        <v>11440</v>
+        <v>3875</v>
       </c>
       <c r="I2">
-        <v>440000</v>
+        <v>6250000</v>
       </c>
       <c r="J2">
-        <v>26000</v>
+        <v>31000</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>100</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="G3" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H3">
-        <v>3875</v>
+        <v>10000</v>
       </c>
       <c r="I3">
-        <v>6250000</v>
+        <v>5000000</v>
       </c>
       <c r="J3">
-        <v>31000</v>
+        <v>2000</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>2</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -766,75 +733,75 @@
         <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D4" t="s">
         <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="F4" t="s">
-        <v>72</v>
+        <v>29</v>
       </c>
       <c r="G4" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="H4">
-        <v>10000</v>
+        <v>124000</v>
       </c>
       <c r="I4">
-        <v>5000000</v>
+        <v>6250000</v>
       </c>
       <c r="J4">
-        <v>2000</v>
+        <v>31000</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>100</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
         <v>28</v>
       </c>
       <c r="C5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="F5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G5" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="H5">
-        <v>124000</v>
+        <v>10768.6</v>
       </c>
       <c r="I5">
-        <v>6250000</v>
+        <v>468200</v>
       </c>
       <c r="J5">
-        <v>31000</v>
+        <v>23000</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>64</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -842,10 +809,10 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D6" t="s">
         <v>14</v>
@@ -854,19 +821,19 @@
         <v>14</v>
       </c>
       <c r="F6" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="G6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H6">
-        <v>10768.6</v>
+        <v>6000</v>
       </c>
       <c r="I6">
-        <v>468200</v>
+        <v>3000000</v>
       </c>
       <c r="J6">
-        <v>23000</v>
+        <v>2000</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -880,10 +847,10 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D7" t="s">
         <v>15</v>
@@ -892,19 +859,19 @@
         <v>15</v>
       </c>
       <c r="F7" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="G7" t="s">
-        <v>84</v>
+        <v>39</v>
       </c>
       <c r="H7">
-        <v>8000</v>
+        <v>30720</v>
       </c>
       <c r="I7">
-        <v>4000000</v>
+        <v>1920000</v>
       </c>
       <c r="J7">
-        <v>2000</v>
+        <v>16000</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -918,10 +885,10 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D8" t="s">
         <v>15</v>
@@ -930,16 +897,16 @@
         <v>15</v>
       </c>
       <c r="F8" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="G8" t="s">
-        <v>85</v>
+        <v>35</v>
       </c>
       <c r="H8">
-        <v>6000</v>
+        <v>13000</v>
       </c>
       <c r="I8">
-        <v>3000000</v>
+        <v>6500000</v>
       </c>
       <c r="J8">
         <v>2000</v>
@@ -953,25 +920,25 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C9" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F9" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="G9" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="H9">
         <v>13000</v>
@@ -991,34 +958,34 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C10" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F10" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="G10" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="H10">
-        <v>13000</v>
+        <v>16006.62</v>
       </c>
       <c r="I10">
-        <v>6500000</v>
+        <v>1333885</v>
       </c>
       <c r="J10">
-        <v>2000</v>
+        <v>12000</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1029,34 +996,34 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C11" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F11" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="G11" t="s">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="H11">
-        <v>16006.62</v>
+        <v>17760</v>
       </c>
       <c r="I11">
-        <v>1333885</v>
+        <v>2220000</v>
       </c>
       <c r="J11">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -1070,10 +1037,10 @@
         <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C12" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D12" t="s">
         <v>16</v>
@@ -1082,19 +1049,19 @@
         <v>16</v>
       </c>
       <c r="F12" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="G12" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="H12">
-        <v>17760</v>
+        <v>22500</v>
       </c>
       <c r="I12">
-        <v>2220000</v>
+        <v>900000</v>
       </c>
       <c r="J12">
-        <v>8000</v>
+        <v>25000</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -1105,34 +1072,34 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C13" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F13" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="G13" t="s">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="H13">
-        <v>30720</v>
+        <v>9000</v>
       </c>
       <c r="I13">
-        <v>1920000</v>
+        <v>4500000</v>
       </c>
       <c r="J13">
-        <v>16000</v>
+        <v>2000</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1143,34 +1110,34 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C14" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F14" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="G14" t="s">
-        <v>28</v>
+        <v>74</v>
       </c>
       <c r="H14">
-        <v>22500</v>
+        <v>10000</v>
       </c>
       <c r="I14">
-        <v>900000</v>
+        <v>5000000</v>
       </c>
       <c r="J14">
-        <v>25000</v>
+        <v>2000</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1184,10 +1151,10 @@
         <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C15" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D15" t="s">
         <v>18</v>
@@ -1196,19 +1163,19 @@
         <v>18</v>
       </c>
       <c r="F15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G15" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="H15">
-        <v>17550</v>
+        <v>22500</v>
       </c>
       <c r="I15">
-        <v>3900000</v>
+        <v>900000</v>
       </c>
       <c r="J15">
-        <v>4500</v>
+        <v>25000</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1219,34 +1186,34 @@
     </row>
     <row r="16" spans="1:12">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="C16" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F16" t="s">
-        <v>28</v>
+        <v>67</v>
       </c>
       <c r="G16" t="s">
-        <v>72</v>
+        <v>26</v>
       </c>
       <c r="H16">
-        <v>22500</v>
+        <v>8000</v>
       </c>
       <c r="I16">
-        <v>900000</v>
+        <v>4000000</v>
       </c>
       <c r="J16">
-        <v>25000</v>
+        <v>2000</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1260,69 +1227,69 @@
         <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="D17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E17" t="s">
-        <v>19</v>
+        <v>63</v>
       </c>
       <c r="F17" t="s">
-        <v>80</v>
+        <v>29</v>
       </c>
       <c r="G17" t="s">
-        <v>81</v>
+        <v>28</v>
       </c>
       <c r="H17">
-        <v>10000</v>
+        <v>3875</v>
       </c>
       <c r="I17">
-        <v>5000000</v>
+        <v>6250000</v>
       </c>
       <c r="J17">
-        <v>2000</v>
+        <v>31000</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>100</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:12">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C18" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D18" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E18" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F18" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="G18" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="H18">
-        <v>8000</v>
+        <v>18200</v>
       </c>
       <c r="I18">
-        <v>4000000</v>
+        <v>1400000</v>
       </c>
       <c r="J18">
-        <v>2000</v>
+        <v>13000</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1333,40 +1300,40 @@
     </row>
     <row r="19" spans="1:12">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C19" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="D19" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E19" t="s">
-        <v>69</v>
+        <v>21</v>
       </c>
       <c r="F19" t="s">
+        <v>33</v>
+      </c>
+      <c r="G19" t="s">
         <v>32</v>
       </c>
-      <c r="G19" t="s">
-        <v>30</v>
-      </c>
       <c r="H19">
-        <v>3875</v>
+        <v>80500</v>
       </c>
       <c r="I19">
-        <v>6250000</v>
+        <v>7000000</v>
       </c>
       <c r="J19">
-        <v>31000</v>
+        <v>11500</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>2</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1374,10 +1341,10 @@
         <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C20" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D20" t="s">
         <v>21</v>
@@ -1386,19 +1353,19 @@
         <v>21</v>
       </c>
       <c r="F20" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="G20" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H20">
-        <v>18200</v>
+        <v>13000</v>
       </c>
       <c r="I20">
-        <v>1400000</v>
+        <v>6500000</v>
       </c>
       <c r="J20">
-        <v>13000</v>
+        <v>2000</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1412,66 +1379,66 @@
         <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="C21" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D21" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E21" t="s">
-        <v>22</v>
+        <v>64</v>
       </c>
       <c r="F21" t="s">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="G21" t="s">
         <v>34</v>
       </c>
       <c r="H21">
-        <v>80500</v>
+        <v>650</v>
       </c>
       <c r="I21">
-        <v>7000000</v>
+        <v>1000000</v>
       </c>
       <c r="J21">
-        <v>11500</v>
+        <v>13000</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>100</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:12">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
         <v>32</v>
       </c>
       <c r="C22" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D22" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E22" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F22" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="G22" t="s">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="H22">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="I22">
-        <v>6500000</v>
+        <v>4000000</v>
       </c>
       <c r="J22">
         <v>2000</v>
@@ -1488,69 +1455,69 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
+        <v>41</v>
+      </c>
+      <c r="D23" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" t="s">
         <v>63</v>
       </c>
-      <c r="D23" t="s">
-        <v>24</v>
-      </c>
-      <c r="E23" t="s">
-        <v>70</v>
-      </c>
       <c r="F23" t="s">
-        <v>74</v>
+        <v>29</v>
       </c>
       <c r="G23" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="H23">
-        <v>650</v>
+        <v>54250</v>
       </c>
       <c r="I23">
-        <v>1000000</v>
+        <v>6250000</v>
       </c>
       <c r="J23">
-        <v>13000</v>
+        <v>31000</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>5</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:12">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C24" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F24" t="s">
-        <v>76</v>
+        <v>27</v>
       </c>
       <c r="G24" t="s">
-        <v>87</v>
+        <v>66</v>
       </c>
       <c r="H24">
-        <v>8000</v>
+        <v>14520</v>
       </c>
       <c r="I24">
-        <v>4000000</v>
+        <v>1210000</v>
       </c>
       <c r="J24">
-        <v>2000</v>
+        <v>12000</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1561,78 +1528,78 @@
     </row>
     <row r="25" spans="1:12">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C25" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E25" t="s">
-        <v>70</v>
+        <v>23</v>
       </c>
       <c r="F25" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="G25" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="H25">
-        <v>12350</v>
+        <v>19600</v>
       </c>
       <c r="I25">
-        <v>1000000</v>
+        <v>1400000</v>
       </c>
       <c r="J25">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>95</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26" spans="1:12">
       <c r="A26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B26" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="C26" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="D26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E26" t="s">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="F26" t="s">
-        <v>29</v>
+        <v>66</v>
       </c>
       <c r="G26" t="s">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="H26">
-        <v>14520</v>
+        <v>12350</v>
       </c>
       <c r="I26">
-        <v>1210000</v>
+        <v>1000000</v>
       </c>
       <c r="J26">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="K26">
         <v>0</v>
       </c>
       <c r="L26">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -1640,25 +1607,25 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>41</v>
+      </c>
+      <c r="D27" t="s">
+        <v>13</v>
+      </c>
+      <c r="E27" t="s">
+        <v>63</v>
+      </c>
+      <c r="F27" t="s">
+        <v>29</v>
+      </c>
+      <c r="G27" t="s">
         <v>28</v>
       </c>
-      <c r="C27" t="s">
-        <v>45</v>
-      </c>
-      <c r="D27" t="s">
-        <v>14</v>
-      </c>
-      <c r="E27" t="s">
-        <v>69</v>
-      </c>
-      <c r="F27" t="s">
-        <v>32</v>
-      </c>
-      <c r="G27" t="s">
-        <v>30</v>
-      </c>
       <c r="H27">
-        <v>54250</v>
+        <v>3875</v>
       </c>
       <c r="I27">
         <v>6250000</v>
@@ -1670,7 +1637,7 @@
         <v>0</v>
       </c>
       <c r="L27">
-        <v>28</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -1678,10 +1645,10 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C28" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D28" t="s">
         <v>24</v>
@@ -1690,19 +1657,19 @@
         <v>24</v>
       </c>
       <c r="F28" t="s">
-        <v>27</v>
+        <v>74</v>
       </c>
       <c r="G28" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="H28">
-        <v>27000</v>
+        <v>9500</v>
       </c>
       <c r="I28">
-        <v>3000000</v>
+        <v>4750000</v>
       </c>
       <c r="J28">
-        <v>9000</v>
+        <v>2000</v>
       </c>
       <c r="K28">
         <v>0</v>
@@ -1713,153 +1680,39 @@
     </row>
     <row r="29" spans="1:12">
       <c r="A29" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B29" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="C29" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="D29" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="E29" t="s">
-        <v>24</v>
+        <v>63</v>
       </c>
       <c r="F29" t="s">
-        <v>79</v>
+        <v>29</v>
       </c>
       <c r="G29" t="s">
         <v>28</v>
       </c>
       <c r="H29">
-        <v>19600</v>
+        <v>3875</v>
       </c>
       <c r="I29">
-        <v>1400000</v>
+        <v>6250000</v>
       </c>
       <c r="J29">
-        <v>14000</v>
+        <v>31000</v>
       </c>
       <c r="K29">
         <v>0</v>
       </c>
       <c r="L29">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12">
-      <c r="A30" t="s">
-        <v>25</v>
-      </c>
-      <c r="B30" t="s">
-        <v>28</v>
-      </c>
-      <c r="C30" t="s">
-        <v>45</v>
-      </c>
-      <c r="D30" t="s">
-        <v>14</v>
-      </c>
-      <c r="E30" t="s">
-        <v>69</v>
-      </c>
-      <c r="F30" t="s">
-        <v>32</v>
-      </c>
-      <c r="G30" t="s">
-        <v>30</v>
-      </c>
-      <c r="H30">
-        <v>3875</v>
-      </c>
-      <c r="I30">
-        <v>6250000</v>
-      </c>
-      <c r="J30">
-        <v>31000</v>
-      </c>
-      <c r="K30">
-        <v>0</v>
-      </c>
-      <c r="L30">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12">
-      <c r="A31" t="s">
-        <v>25</v>
-      </c>
-      <c r="B31" t="s">
-        <v>43</v>
-      </c>
-      <c r="C31" t="s">
-        <v>68</v>
-      </c>
-      <c r="D31" t="s">
-        <v>25</v>
-      </c>
-      <c r="E31" t="s">
-        <v>25</v>
-      </c>
-      <c r="F31" t="s">
-        <v>81</v>
-      </c>
-      <c r="G31" t="s">
-        <v>89</v>
-      </c>
-      <c r="H31">
-        <v>9500</v>
-      </c>
-      <c r="I31">
-        <v>4750000</v>
-      </c>
-      <c r="J31">
-        <v>2000</v>
-      </c>
-      <c r="K31">
-        <v>0</v>
-      </c>
-      <c r="L31">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12">
-      <c r="A32" t="s">
-        <v>26</v>
-      </c>
-      <c r="B32" t="s">
-        <v>28</v>
-      </c>
-      <c r="C32" t="s">
-        <v>45</v>
-      </c>
-      <c r="D32" t="s">
-        <v>14</v>
-      </c>
-      <c r="E32" t="s">
-        <v>69</v>
-      </c>
-      <c r="F32" t="s">
-        <v>32</v>
-      </c>
-      <c r="G32" t="s">
-        <v>30</v>
-      </c>
-      <c r="H32">
-        <v>3875</v>
-      </c>
-      <c r="I32">
-        <v>6250000</v>
-      </c>
-      <c r="J32">
-        <v>31000</v>
-      </c>
-      <c r="K32">
-        <v>0</v>
-      </c>
-      <c r="L32">
         <v>2</v>
       </c>
     </row>

--- a/datasets/form3.xlsx
+++ b/datasets/form3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="76">
   <si>
     <t>인수기관</t>
   </si>
@@ -100,24 +100,27 @@
     <t>한화</t>
   </si>
   <si>
+    <t>현대차</t>
+  </si>
+  <si>
     <t>2023-09-21</t>
   </si>
   <si>
     <t>2023-09-19</t>
   </si>
   <si>
+    <t>2023-08-10</t>
+  </si>
+  <si>
     <t>2023-08-21</t>
   </si>
   <si>
+    <t>2023-08-23</t>
+  </si>
+  <si>
     <t>2023-08-14</t>
   </si>
   <si>
-    <t>2023-08-23</t>
-  </si>
-  <si>
-    <t>2023-08-10</t>
-  </si>
-  <si>
     <t>2023-09-18</t>
   </si>
   <si>
@@ -130,30 +133,30 @@
     <t>2023-08-22</t>
   </si>
   <si>
-    <t>2023-08-09</t>
-  </si>
-  <si>
     <t>2023-08-29</t>
   </si>
   <si>
+    <t>2023-09-25</t>
+  </si>
+  <si>
     <t>두산로보틱스</t>
   </si>
   <si>
     <t>한싹</t>
   </si>
   <si>
+    <t>스마트레이더시스템</t>
+  </si>
+  <si>
     <t>대신밸런스제15호스팩</t>
   </si>
   <si>
+    <t>대신밸런스제16호스팩</t>
+  </si>
+  <si>
     <t>시큐레터</t>
   </si>
   <si>
-    <t>대신밸런스제16호스팩</t>
-  </si>
-  <si>
-    <t>스마트레이더시스템</t>
-  </si>
-  <si>
     <t>밀리의서재</t>
   </si>
   <si>
@@ -175,15 +178,15 @@
     <t>유안타제11호스팩</t>
   </si>
   <si>
-    <t>넥스틸</t>
-  </si>
-  <si>
     <t>한국제12호스팩</t>
   </si>
   <si>
     <t>한화플러스제4호스팩</t>
   </si>
   <si>
+    <t>에이치엠씨제6호스팩</t>
+  </si>
+  <si>
     <t>한국, 미래</t>
   </si>
   <si>
@@ -199,18 +202,18 @@
     <t>2023-09-22</t>
   </si>
   <si>
+    <t>2023-08-16</t>
+  </si>
+  <si>
     <t>2023-08-24</t>
   </si>
   <si>
+    <t>2023-08-28</t>
+  </si>
+  <si>
     <t>2023-08-18</t>
   </si>
   <si>
-    <t>2023-08-28</t>
-  </si>
-  <si>
-    <t>2023-08-16</t>
-  </si>
-  <si>
     <t>2023-09-07</t>
   </si>
   <si>
@@ -220,12 +223,12 @@
     <t>2023-09-01</t>
   </si>
   <si>
+    <t>2023-10-04</t>
+  </si>
+  <si>
     <t>2023-10-05</t>
   </si>
   <si>
-    <t>2023-10-04</t>
-  </si>
-  <si>
     <t>2023-08-30</t>
   </si>
   <si>
@@ -235,10 +238,10 @@
     <t>2023-10-06</t>
   </si>
   <si>
-    <t>2023-09-25</t>
-  </si>
-  <si>
     <t>2023-10-10</t>
+  </si>
+  <si>
+    <t>2023-10-13</t>
   </si>
 </sst>
 </file>
@@ -645,22 +648,22 @@
         <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H2">
         <v>42120</v>
@@ -683,22 +686,22 @@
         <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H3">
         <v>42120</v>
@@ -721,10 +724,10 @@
         <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D4" t="s">
         <v>13</v>
@@ -733,7 +736,7 @@
         <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G4" t="s">
         <v>69</v>
@@ -759,22 +762,22 @@
         <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H5">
         <v>42120</v>
@@ -797,10 +800,10 @@
         <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D6" t="s">
         <v>15</v>
@@ -809,19 +812,19 @@
         <v>15</v>
       </c>
       <c r="F6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G6" t="s">
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="H6">
-        <v>13000</v>
+        <v>17760</v>
       </c>
       <c r="I6">
-        <v>6500000</v>
+        <v>2220000</v>
       </c>
       <c r="J6">
-        <v>2000</v>
+        <v>8000</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -835,10 +838,10 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D7" t="s">
         <v>15</v>
@@ -847,19 +850,19 @@
         <v>15</v>
       </c>
       <c r="F7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G7" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="H7">
-        <v>16006.62</v>
+        <v>13000</v>
       </c>
       <c r="I7">
-        <v>1333885</v>
+        <v>6500000</v>
       </c>
       <c r="J7">
-        <v>12000</v>
+        <v>2000</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -873,10 +876,10 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D8" t="s">
         <v>15</v>
@@ -885,10 +888,10 @@
         <v>15</v>
       </c>
       <c r="F8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H8">
         <v>13000</v>
@@ -911,10 +914,10 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D9" t="s">
         <v>15</v>
@@ -923,19 +926,19 @@
         <v>15</v>
       </c>
       <c r="F9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G9" t="s">
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="H9">
-        <v>17760</v>
+        <v>16006.62</v>
       </c>
       <c r="I9">
-        <v>2220000</v>
+        <v>1333885</v>
       </c>
       <c r="J9">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -949,22 +952,22 @@
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G10" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H10">
         <v>126360</v>
@@ -987,10 +990,10 @@
         <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D11" t="s">
         <v>16</v>
@@ -999,10 +1002,10 @@
         <v>16</v>
       </c>
       <c r="F11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G11" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H11">
         <v>34500</v>
@@ -1025,10 +1028,10 @@
         <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D12" t="s">
         <v>17</v>
@@ -1037,10 +1040,10 @@
         <v>17</v>
       </c>
       <c r="F12" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G12" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H12">
         <v>33600</v>
@@ -1063,10 +1066,10 @@
         <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D13" t="s">
         <v>18</v>
@@ -1075,10 +1078,10 @@
         <v>18</v>
       </c>
       <c r="F13" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G13" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H13">
         <v>9000</v>
@@ -1101,22 +1104,22 @@
         <v>19</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D14" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E14" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G14" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H14">
         <v>12636</v>
@@ -1139,10 +1142,10 @@
         <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C15" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D15" t="s">
         <v>19</v>
@@ -1151,10 +1154,10 @@
         <v>19</v>
       </c>
       <c r="F15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G15" t="s">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="H15">
         <v>26400</v>
@@ -1177,10 +1180,10 @@
         <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C16" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D16" t="s">
         <v>20</v>
@@ -1189,7 +1192,7 @@
         <v>20</v>
       </c>
       <c r="F16" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G16" t="s">
         <v>69</v>
@@ -1215,22 +1218,22 @@
         <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C17" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E17" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F17" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G17" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H17">
         <v>4212</v>
@@ -1253,19 +1256,19 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C18" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D18" t="s">
         <v>22</v>
       </c>
       <c r="E18" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F18" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G18" t="s">
         <v>74</v>
@@ -1291,10 +1294,10 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D19" t="s">
         <v>22</v>
@@ -1303,10 +1306,10 @@
         <v>22</v>
       </c>
       <c r="F19" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G19" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H19">
         <v>10000</v>
@@ -1329,19 +1332,19 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C20" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D20" t="s">
         <v>22</v>
       </c>
       <c r="E20" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G20" t="s">
         <v>74</v>
@@ -1367,22 +1370,22 @@
         <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C21" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D21" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F21" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G21" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H21">
         <v>12636</v>
@@ -1405,75 +1408,75 @@
         <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C22" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="D22" t="s">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="E22" t="s">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="F22" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="G22" t="s">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="H22">
-        <v>80500</v>
+        <v>12636</v>
       </c>
       <c r="I22">
-        <v>7000000</v>
+        <v>16200000</v>
       </c>
       <c r="J22">
-        <v>11500</v>
+        <v>26000</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>100</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:12">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B23" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C23" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="D23" t="s">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="E23" t="s">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="F23" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="G23" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="H23">
-        <v>12636</v>
+        <v>8000</v>
       </c>
       <c r="I23">
-        <v>16200000</v>
+        <v>4000000</v>
       </c>
       <c r="J23">
-        <v>26000</v>
+        <v>2000</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>3</v>
+        <v>100</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1481,104 +1484,104 @@
         <v>26</v>
       </c>
       <c r="B24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C24" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="D24" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="E24" t="s">
-        <v>26</v>
+        <v>58</v>
       </c>
       <c r="F24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G24" t="s">
         <v>70</v>
       </c>
       <c r="H24">
-        <v>8000</v>
+        <v>126360</v>
       </c>
       <c r="I24">
-        <v>4000000</v>
+        <v>16200000</v>
       </c>
       <c r="J24">
-        <v>2000</v>
+        <v>26000</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>100</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:12">
       <c r="A25" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B25" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="C25" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="D25" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="E25" t="s">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="F25" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="G25" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H25">
-        <v>126360</v>
+        <v>9500</v>
       </c>
       <c r="I25">
-        <v>16200000</v>
+        <v>4750000</v>
       </c>
       <c r="J25">
-        <v>26000</v>
+        <v>2000</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>30</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26" spans="1:12">
       <c r="A26" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B26" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C26" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D26" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E26" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F26" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G26" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="H26">
-        <v>9500</v>
+        <v>8000</v>
       </c>
       <c r="I26">
-        <v>4750000</v>
+        <v>4000000</v>
       </c>
       <c r="J26">
         <v>2000</v>

--- a/datasets/form3.xlsx
+++ b/datasets/form3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="73">
   <si>
     <t>인수기관</t>
   </si>
@@ -109,15 +109,12 @@
     <t>2023-09-19</t>
   </si>
   <si>
-    <t>2023-08-10</t>
+    <t>2023-08-23</t>
   </si>
   <si>
     <t>2023-08-21</t>
   </si>
   <si>
-    <t>2023-08-23</t>
-  </si>
-  <si>
     <t>2023-08-14</t>
   </si>
   <si>
@@ -145,15 +142,12 @@
     <t>한싹</t>
   </si>
   <si>
-    <t>스마트레이더시스템</t>
+    <t>대신밸런스제16호스팩</t>
   </si>
   <si>
     <t>대신밸런스제15호스팩</t>
   </si>
   <si>
-    <t>대신밸런스제16호스팩</t>
-  </si>
-  <si>
     <t>시큐레터</t>
   </si>
   <si>
@@ -202,13 +196,10 @@
     <t>2023-09-22</t>
   </si>
   <si>
-    <t>2023-08-16</t>
+    <t>2023-08-28</t>
   </si>
   <si>
     <t>2023-08-24</t>
-  </si>
-  <si>
-    <t>2023-08-28</t>
   </si>
   <si>
     <t>2023-08-18</t>
@@ -599,7 +590,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L26"/>
+  <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -651,19 +642,19 @@
         <v>29</v>
       </c>
       <c r="C2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F2" t="s">
         <v>58</v>
       </c>
-      <c r="F2" t="s">
-        <v>60</v>
-      </c>
       <c r="G2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="H2">
         <v>42120</v>
@@ -686,37 +677,37 @@
         <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
         <v>41</v>
       </c>
       <c r="D3" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G3" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="H3">
-        <v>42120</v>
+        <v>18750</v>
       </c>
       <c r="I3">
-        <v>16200000</v>
+        <v>1500000</v>
       </c>
       <c r="J3">
-        <v>26000</v>
+        <v>12500</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -724,37 +715,37 @@
         <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="F4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H4">
-        <v>18750</v>
+        <v>42120</v>
       </c>
       <c r="I4">
-        <v>1500000</v>
+        <v>16200000</v>
       </c>
       <c r="J4">
-        <v>12500</v>
+        <v>26000</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>100</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -765,19 +756,19 @@
         <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F5" t="s">
         <v>58</v>
       </c>
-      <c r="F5" t="s">
-        <v>60</v>
-      </c>
       <c r="G5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="H5">
         <v>42120</v>
@@ -803,7 +794,7 @@
         <v>31</v>
       </c>
       <c r="C6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D6" t="s">
         <v>15</v>
@@ -812,19 +803,19 @@
         <v>15</v>
       </c>
       <c r="F6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H6">
-        <v>17760</v>
+        <v>13000</v>
       </c>
       <c r="I6">
-        <v>2220000</v>
+        <v>6500000</v>
       </c>
       <c r="J6">
-        <v>8000</v>
+        <v>2000</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -841,7 +832,7 @@
         <v>32</v>
       </c>
       <c r="C7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D7" t="s">
         <v>15</v>
@@ -850,10 +841,10 @@
         <v>15</v>
       </c>
       <c r="F7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G7" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H7">
         <v>13000</v>
@@ -879,7 +870,7 @@
         <v>33</v>
       </c>
       <c r="C8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D8" t="s">
         <v>15</v>
@@ -888,19 +879,19 @@
         <v>15</v>
       </c>
       <c r="F8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G8" t="s">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="H8">
-        <v>13000</v>
+        <v>16006.62</v>
       </c>
       <c r="I8">
-        <v>6500000</v>
+        <v>1333885</v>
       </c>
       <c r="J8">
-        <v>2000</v>
+        <v>12000</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -911,34 +902,34 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
       </c>
       <c r="C9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F9" t="s">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="G9" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="H9">
-        <v>16006.62</v>
+        <v>34500</v>
       </c>
       <c r="I9">
-        <v>1333885</v>
+        <v>1500000</v>
       </c>
       <c r="J9">
-        <v>12000</v>
+        <v>23000</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -955,19 +946,19 @@
         <v>29</v>
       </c>
       <c r="C10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E10" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10" t="s">
         <v>58</v>
       </c>
-      <c r="F10" t="s">
-        <v>60</v>
-      </c>
       <c r="G10" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="H10">
         <v>126360</v>
@@ -987,34 +978,34 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F11" t="s">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="G11" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H11">
-        <v>34500</v>
+        <v>33600</v>
       </c>
       <c r="I11">
-        <v>1500000</v>
+        <v>2240000</v>
       </c>
       <c r="J11">
-        <v>23000</v>
+        <v>15000</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -1025,34 +1016,34 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F12" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G12" t="s">
-        <v>73</v>
+        <v>36</v>
       </c>
       <c r="H12">
-        <v>33600</v>
+        <v>9000</v>
       </c>
       <c r="I12">
-        <v>2240000</v>
+        <v>4500000</v>
       </c>
       <c r="J12">
-        <v>15000</v>
+        <v>2000</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -1063,34 +1054,34 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B13" t="s">
         <v>36</v>
       </c>
       <c r="C13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F13" t="s">
-        <v>66</v>
+        <v>30</v>
       </c>
       <c r="G13" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H13">
-        <v>9000</v>
+        <v>26400</v>
       </c>
       <c r="I13">
-        <v>4500000</v>
+        <v>1100000</v>
       </c>
       <c r="J13">
-        <v>2000</v>
+        <v>24000</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1107,19 +1098,19 @@
         <v>29</v>
       </c>
       <c r="C14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D14" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E14" t="s">
+        <v>56</v>
+      </c>
+      <c r="F14" t="s">
         <v>58</v>
       </c>
-      <c r="F14" t="s">
-        <v>60</v>
-      </c>
       <c r="G14" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="H14">
         <v>12636</v>
@@ -1139,34 +1130,34 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B15" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D15" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E15" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F15" t="s">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="G15" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="H15">
-        <v>26400</v>
+        <v>36000</v>
       </c>
       <c r="I15">
-        <v>1100000</v>
+        <v>18000000</v>
       </c>
       <c r="J15">
-        <v>24000</v>
+        <v>2000</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1177,78 +1168,78 @@
     </row>
     <row r="16" spans="1:12">
       <c r="A16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C16" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="D16" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="E16" t="s">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="F16" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G16" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H16">
-        <v>36000</v>
+        <v>4212</v>
       </c>
       <c r="I16">
-        <v>18000000</v>
+        <v>16200000</v>
       </c>
       <c r="J16">
-        <v>2000</v>
+        <v>26000</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>100</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:12">
       <c r="A17" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" t="s">
+        <v>57</v>
+      </c>
+      <c r="F17" t="s">
         <v>29</v>
       </c>
-      <c r="C17" t="s">
-        <v>41</v>
-      </c>
-      <c r="D17" t="s">
-        <v>57</v>
-      </c>
-      <c r="E17" t="s">
-        <v>58</v>
-      </c>
-      <c r="F17" t="s">
-        <v>60</v>
-      </c>
       <c r="G17" t="s">
+        <v>71</v>
+      </c>
+      <c r="H17">
+        <v>15484</v>
+      </c>
+      <c r="I17">
+        <v>1580000</v>
+      </c>
+      <c r="J17">
+        <v>14000</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
         <v>70</v>
-      </c>
-      <c r="H17">
-        <v>4212</v>
-      </c>
-      <c r="I17">
-        <v>16200000</v>
-      </c>
-      <c r="J17">
-        <v>26000</v>
-      </c>
-      <c r="K17">
-        <v>0</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1256,136 +1247,136 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D18" t="s">
         <v>22</v>
       </c>
       <c r="E18" t="s">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="F18" t="s">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="G18" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="H18">
-        <v>15484</v>
+        <v>10000</v>
       </c>
       <c r="I18">
-        <v>1580000</v>
+        <v>5000000</v>
       </c>
       <c r="J18">
-        <v>14000</v>
+        <v>2000</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>70</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C19" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D19" t="s">
         <v>22</v>
       </c>
       <c r="E19" t="s">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="F19" t="s">
-        <v>67</v>
+        <v>29</v>
       </c>
       <c r="G19" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="H19">
-        <v>10000</v>
+        <v>6636</v>
       </c>
       <c r="I19">
-        <v>5000000</v>
+        <v>1580000</v>
       </c>
       <c r="J19">
-        <v>2000</v>
+        <v>14000</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>100</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B20" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C20" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="E20" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F20" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="G20" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="H20">
-        <v>6636</v>
+        <v>12636</v>
       </c>
       <c r="I20">
-        <v>1580000</v>
+        <v>16200000</v>
       </c>
       <c r="J20">
-        <v>14000</v>
+        <v>26000</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>30</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:12">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B21" t="s">
         <v>29</v>
       </c>
       <c r="C21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D21" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E21" t="s">
+        <v>56</v>
+      </c>
+      <c r="F21" t="s">
         <v>58</v>
       </c>
-      <c r="F21" t="s">
-        <v>60</v>
-      </c>
       <c r="G21" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="H21">
         <v>12636</v>
@@ -1405,28 +1396,28 @@
     </row>
     <row r="22" spans="1:12">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B22" t="s">
         <v>29</v>
       </c>
       <c r="C22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D22" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E22" t="s">
+        <v>56</v>
+      </c>
+      <c r="F22" t="s">
         <v>58</v>
       </c>
-      <c r="F22" t="s">
-        <v>60</v>
-      </c>
       <c r="G22" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="H22">
-        <v>12636</v>
+        <v>126360</v>
       </c>
       <c r="I22">
         <v>16200000</v>
@@ -1438,7 +1429,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>3</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1449,7 +1440,7 @@
         <v>32</v>
       </c>
       <c r="C23" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D23" t="s">
         <v>26</v>
@@ -1458,10 +1449,10 @@
         <v>26</v>
       </c>
       <c r="F23" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G23" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H23">
         <v>8000</v>
@@ -1481,69 +1472,69 @@
     </row>
     <row r="24" spans="1:12">
       <c r="A24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C24" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="D24" t="s">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="E24" t="s">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="F24" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="G24" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="H24">
-        <v>126360</v>
+        <v>9500</v>
       </c>
       <c r="I24">
-        <v>16200000</v>
+        <v>4750000</v>
       </c>
       <c r="J24">
-        <v>26000</v>
+        <v>2000</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>30</v>
+        <v>100</v>
       </c>
     </row>
     <row r="25" spans="1:12">
       <c r="A25" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B25" t="s">
         <v>39</v>
       </c>
       <c r="C25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D25" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E25" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F25" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G25" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="H25">
-        <v>9500</v>
+        <v>8000</v>
       </c>
       <c r="I25">
-        <v>4750000</v>
+        <v>4000000</v>
       </c>
       <c r="J25">
         <v>2000</v>
@@ -1552,44 +1543,6 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12">
-      <c r="A26" t="s">
-        <v>28</v>
-      </c>
-      <c r="B26" t="s">
-        <v>40</v>
-      </c>
-      <c r="C26" t="s">
-        <v>56</v>
-      </c>
-      <c r="D26" t="s">
-        <v>28</v>
-      </c>
-      <c r="E26" t="s">
-        <v>28</v>
-      </c>
-      <c r="F26" t="s">
-        <v>69</v>
-      </c>
-      <c r="G26" t="s">
-        <v>75</v>
-      </c>
-      <c r="H26">
-        <v>8000</v>
-      </c>
-      <c r="I26">
-        <v>4000000</v>
-      </c>
-      <c r="J26">
-        <v>2000</v>
-      </c>
-      <c r="K26">
-        <v>0</v>
-      </c>
-      <c r="L26">
         <v>100</v>
       </c>
     </row>

--- a/datasets/form3.xlsx
+++ b/datasets/form3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="70">
   <si>
     <t>인수기관</t>
   </si>
@@ -115,9 +115,6 @@
     <t>2023-08-21</t>
   </si>
   <si>
-    <t>2023-08-14</t>
-  </si>
-  <si>
     <t>2023-09-18</t>
   </si>
   <si>
@@ -148,9 +145,6 @@
     <t>대신밸런스제15호스팩</t>
   </si>
   <si>
-    <t>시큐레터</t>
-  </si>
-  <si>
     <t>밀리의서재</t>
   </si>
   <si>
@@ -166,12 +160,12 @@
     <t>신한제11호스팩</t>
   </si>
   <si>
+    <t>유안타제11호스팩</t>
+  </si>
+  <si>
     <t>아이엠티</t>
   </si>
   <si>
-    <t>유안타제11호스팩</t>
-  </si>
-  <si>
     <t>한국제12호스팩</t>
   </si>
   <si>
@@ -200,9 +194,6 @@
   </si>
   <si>
     <t>2023-08-24</t>
-  </si>
-  <si>
-    <t>2023-08-18</t>
   </si>
   <si>
     <t>2023-09-07</t>
@@ -590,7 +581,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -642,19 +633,19 @@
         <v>29</v>
       </c>
       <c r="C2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F2" t="s">
         <v>56</v>
       </c>
-      <c r="F2" t="s">
-        <v>58</v>
-      </c>
       <c r="G2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="H2">
         <v>42120</v>
@@ -680,7 +671,7 @@
         <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D3" t="s">
         <v>13</v>
@@ -689,10 +680,10 @@
         <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H3">
         <v>18750</v>
@@ -718,19 +709,19 @@
         <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F4" t="s">
         <v>56</v>
       </c>
-      <c r="F4" t="s">
-        <v>58</v>
-      </c>
       <c r="G4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="H4">
         <v>42120</v>
@@ -756,19 +747,19 @@
         <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F5" t="s">
         <v>56</v>
       </c>
-      <c r="F5" t="s">
-        <v>58</v>
-      </c>
       <c r="G5" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="H5">
         <v>42120</v>
@@ -794,7 +785,7 @@
         <v>31</v>
       </c>
       <c r="C6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D6" t="s">
         <v>15</v>
@@ -803,10 +794,10 @@
         <v>15</v>
       </c>
       <c r="F6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H6">
         <v>13000</v>
@@ -832,7 +823,7 @@
         <v>32</v>
       </c>
       <c r="C7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D7" t="s">
         <v>15</v>
@@ -841,10 +832,10 @@
         <v>15</v>
       </c>
       <c r="F7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H7">
         <v>13000</v>
@@ -864,40 +855,40 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C8" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="E8" t="s">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="F8" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="G8" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="H8">
-        <v>16006.62</v>
+        <v>126360</v>
       </c>
       <c r="I8">
-        <v>1333885</v>
+        <v>16200000</v>
       </c>
       <c r="J8">
-        <v>12000</v>
+        <v>26000</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>100</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -905,10 +896,10 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D9" t="s">
         <v>16</v>
@@ -920,7 +911,7 @@
         <v>29</v>
       </c>
       <c r="G9" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="H9">
         <v>34500</v>
@@ -940,72 +931,72 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C10" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D10" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="E10" t="s">
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="F10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G10" t="s">
         <v>67</v>
       </c>
       <c r="H10">
-        <v>126360</v>
+        <v>33600</v>
       </c>
       <c r="I10">
-        <v>16200000</v>
+        <v>2240000</v>
       </c>
       <c r="J10">
-        <v>26000</v>
+        <v>15000</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>30</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G11" t="s">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="H11">
-        <v>33600</v>
+        <v>9000</v>
       </c>
       <c r="I11">
-        <v>2240000</v>
+        <v>4500000</v>
       </c>
       <c r="J11">
-        <v>15000</v>
+        <v>2000</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -1016,40 +1007,40 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C12" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D12" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="E12" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="F12" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="G12" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="H12">
-        <v>9000</v>
+        <v>12636</v>
       </c>
       <c r="I12">
-        <v>4500000</v>
+        <v>16200000</v>
       </c>
       <c r="J12">
-        <v>2000</v>
+        <v>26000</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>100</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -1057,10 +1048,10 @@
         <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C13" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D13" t="s">
         <v>19</v>
@@ -1072,7 +1063,7 @@
         <v>30</v>
       </c>
       <c r="G13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H13">
         <v>26400</v>
@@ -1092,116 +1083,116 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C14" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="D14" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="E14" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="F14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G14" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="H14">
-        <v>12636</v>
+        <v>36000</v>
       </c>
       <c r="I14">
-        <v>16200000</v>
+        <v>18000000</v>
       </c>
       <c r="J14">
-        <v>26000</v>
+        <v>2000</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>3</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C15" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="D15" t="s">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="E15" t="s">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="F15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G15" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H15">
-        <v>36000</v>
+        <v>4212</v>
       </c>
       <c r="I15">
-        <v>18000000</v>
+        <v>16200000</v>
       </c>
       <c r="J15">
-        <v>2000</v>
+        <v>26000</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>100</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C16" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="D16" t="s">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="E16" t="s">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="F16" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G16" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="H16">
-        <v>4212</v>
+        <v>10000</v>
       </c>
       <c r="I16">
-        <v>16200000</v>
+        <v>5000000</v>
       </c>
       <c r="J16">
-        <v>26000</v>
+        <v>2000</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -1209,22 +1200,22 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D17" t="s">
         <v>22</v>
       </c>
       <c r="E17" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F17" t="s">
         <v>29</v>
       </c>
       <c r="G17" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H17">
         <v>15484</v>
@@ -1244,101 +1235,101 @@
     </row>
     <row r="18" spans="1:12">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C18" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D18" t="s">
         <v>22</v>
       </c>
       <c r="E18" t="s">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="F18" t="s">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="G18" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="H18">
-        <v>10000</v>
+        <v>6636</v>
       </c>
       <c r="I18">
-        <v>5000000</v>
+        <v>1580000</v>
       </c>
       <c r="J18">
-        <v>2000</v>
+        <v>14000</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>100</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C19" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="D19" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="E19" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F19" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="G19" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="H19">
-        <v>6636</v>
+        <v>12636</v>
       </c>
       <c r="I19">
-        <v>1580000</v>
+        <v>16200000</v>
       </c>
       <c r="J19">
-        <v>14000</v>
+        <v>26000</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>30</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B20" t="s">
         <v>29</v>
       </c>
       <c r="C20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D20" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E20" t="s">
+        <v>54</v>
+      </c>
+      <c r="F20" t="s">
         <v>56</v>
       </c>
-      <c r="F20" t="s">
-        <v>58</v>
-      </c>
       <c r="G20" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="H20">
         <v>12636</v>
@@ -1358,28 +1349,28 @@
     </row>
     <row r="21" spans="1:12">
       <c r="A21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B21" t="s">
         <v>29</v>
       </c>
       <c r="C21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D21" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E21" t="s">
+        <v>54</v>
+      </c>
+      <c r="F21" t="s">
         <v>56</v>
       </c>
-      <c r="F21" t="s">
-        <v>58</v>
-      </c>
       <c r="G21" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="H21">
-        <v>12636</v>
+        <v>126360</v>
       </c>
       <c r="I21">
         <v>16200000</v>
@@ -1391,7 +1382,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>3</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1399,66 +1390,66 @@
         <v>26</v>
       </c>
       <c r="B22" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C22" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D22" t="s">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="E22" t="s">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="F22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G22" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H22">
-        <v>126360</v>
+        <v>8000</v>
       </c>
       <c r="I22">
-        <v>16200000</v>
+        <v>4000000</v>
       </c>
       <c r="J22">
-        <v>26000</v>
+        <v>2000</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>30</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:12">
       <c r="A23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B23" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F23" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G23" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="H23">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="I23">
-        <v>4000000</v>
+        <v>4750000</v>
       </c>
       <c r="J23">
         <v>2000</v>
@@ -1472,31 +1463,31 @@
     </row>
     <row r="24" spans="1:12">
       <c r="A24" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B24" t="s">
         <v>38</v>
       </c>
       <c r="C24" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D24" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E24" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F24" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G24" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="H24">
-        <v>9500</v>
+        <v>8000</v>
       </c>
       <c r="I24">
-        <v>4750000</v>
+        <v>4000000</v>
       </c>
       <c r="J24">
         <v>2000</v>
@@ -1505,44 +1496,6 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
-      <c r="A25" t="s">
-        <v>28</v>
-      </c>
-      <c r="B25" t="s">
-        <v>39</v>
-      </c>
-      <c r="C25" t="s">
-        <v>54</v>
-      </c>
-      <c r="D25" t="s">
-        <v>28</v>
-      </c>
-      <c r="E25" t="s">
-        <v>28</v>
-      </c>
-      <c r="F25" t="s">
-        <v>66</v>
-      </c>
-      <c r="G25" t="s">
-        <v>72</v>
-      </c>
-      <c r="H25">
-        <v>8000</v>
-      </c>
-      <c r="I25">
-        <v>4000000</v>
-      </c>
-      <c r="J25">
-        <v>2000</v>
-      </c>
-      <c r="K25">
-        <v>0</v>
-      </c>
-      <c r="L25">
         <v>100</v>
       </c>
     </row>

--- a/datasets/form3.xlsx
+++ b/datasets/form3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="73">
   <si>
     <t>인수기관</t>
   </si>
@@ -109,15 +109,18 @@
     <t>2023-09-19</t>
   </si>
   <si>
+    <t>2023-08-21</t>
+  </si>
+  <si>
     <t>2023-08-23</t>
   </si>
   <si>
-    <t>2023-08-21</t>
-  </si>
-  <si>
     <t>2023-09-18</t>
   </si>
   <si>
+    <t>2023-10-05</t>
+  </si>
+  <si>
     <t>2023-09-04</t>
   </si>
   <si>
@@ -139,15 +142,18 @@
     <t>한싹</t>
   </si>
   <si>
+    <t>대신밸런스제15호스팩</t>
+  </si>
+  <si>
     <t>대신밸런스제16호스팩</t>
   </si>
   <si>
-    <t>대신밸런스제15호스팩</t>
-  </si>
-  <si>
     <t>밀리의서재</t>
   </si>
   <si>
+    <t>퓨릿</t>
+  </si>
+  <si>
     <t>레뷰코퍼레이션</t>
   </si>
   <si>
@@ -160,12 +166,12 @@
     <t>신한제11호스팩</t>
   </si>
   <si>
+    <t>아이엠티</t>
+  </si>
+  <si>
     <t>유안타제11호스팩</t>
   </si>
   <si>
-    <t>아이엠티</t>
-  </si>
-  <si>
     <t>한국제12호스팩</t>
   </si>
   <si>
@@ -190,10 +196,13 @@
     <t>2023-09-22</t>
   </si>
   <si>
+    <t>2023-08-24</t>
+  </si>
+  <si>
     <t>2023-08-28</t>
   </si>
   <si>
-    <t>2023-08-24</t>
+    <t>2023-10-11</t>
   </si>
   <si>
     <t>2023-09-07</t>
@@ -208,13 +217,13 @@
     <t>2023-10-04</t>
   </si>
   <si>
-    <t>2023-10-05</t>
-  </si>
-  <si>
     <t>2023-08-30</t>
   </si>
   <si>
     <t>2023-09-27</t>
+  </si>
+  <si>
+    <t>2023-10-18</t>
   </si>
   <si>
     <t>2023-10-06</t>
@@ -581,7 +590,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L24"/>
+  <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -633,19 +642,19 @@
         <v>29</v>
       </c>
       <c r="C2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G2" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="H2">
         <v>42120</v>
@@ -671,7 +680,7 @@
         <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D3" t="s">
         <v>13</v>
@@ -680,10 +689,10 @@
         <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G3" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="H3">
         <v>18750</v>
@@ -709,19 +718,19 @@
         <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G4" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="H4">
         <v>42120</v>
@@ -747,19 +756,19 @@
         <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G5" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="H5">
         <v>42120</v>
@@ -785,7 +794,7 @@
         <v>31</v>
       </c>
       <c r="C6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D6" t="s">
         <v>15</v>
@@ -794,10 +803,10 @@
         <v>15</v>
       </c>
       <c r="F6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G6" t="s">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="H6">
         <v>13000</v>
@@ -823,7 +832,7 @@
         <v>32</v>
       </c>
       <c r="C7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D7" t="s">
         <v>15</v>
@@ -832,10 +841,10 @@
         <v>15</v>
       </c>
       <c r="F7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G7" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="H7">
         <v>13000</v>
@@ -858,37 +867,37 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" t="s">
         <v>29</v>
       </c>
-      <c r="C8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D8" t="s">
-        <v>53</v>
-      </c>
-      <c r="E8" t="s">
-        <v>54</v>
-      </c>
-      <c r="F8" t="s">
-        <v>56</v>
-      </c>
       <c r="G8" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="H8">
-        <v>126360</v>
+        <v>34500</v>
       </c>
       <c r="I8">
-        <v>16200000</v>
+        <v>1500000</v>
       </c>
       <c r="J8">
-        <v>26000</v>
+        <v>23000</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>30</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -896,10 +905,10 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C9" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D9" t="s">
         <v>16</v>
@@ -908,19 +917,19 @@
         <v>16</v>
       </c>
       <c r="F9" t="s">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="G9" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="H9">
-        <v>34500</v>
+        <v>44265.9</v>
       </c>
       <c r="I9">
-        <v>1500000</v>
+        <v>4137000</v>
       </c>
       <c r="J9">
-        <v>23000</v>
+        <v>10700</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -931,72 +940,72 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10" t="s">
+        <v>58</v>
+      </c>
+      <c r="G10" t="s">
+        <v>34</v>
+      </c>
+      <c r="H10">
+        <v>126360</v>
+      </c>
+      <c r="I10">
+        <v>16200000</v>
+      </c>
+      <c r="J10">
+        <v>26000</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
         <v>30</v>
-      </c>
-      <c r="C10" t="s">
-        <v>44</v>
-      </c>
-      <c r="D10" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" t="s">
-        <v>57</v>
-      </c>
-      <c r="G10" t="s">
-        <v>67</v>
-      </c>
-      <c r="H10">
-        <v>33600</v>
-      </c>
-      <c r="I10">
-        <v>2240000</v>
-      </c>
-      <c r="J10">
-        <v>15000</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G11" t="s">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="H11">
-        <v>9000</v>
+        <v>33600</v>
       </c>
       <c r="I11">
-        <v>4500000</v>
+        <v>2240000</v>
       </c>
       <c r="J11">
-        <v>2000</v>
+        <v>15000</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -1007,40 +1016,40 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C12" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="D12" t="s">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="E12" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="F12" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="G12" t="s">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="H12">
-        <v>12636</v>
+        <v>9000</v>
       </c>
       <c r="I12">
-        <v>16200000</v>
+        <v>4500000</v>
       </c>
       <c r="J12">
-        <v>26000</v>
+        <v>2000</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>3</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -1048,69 +1057,69 @@
         <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C13" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D13" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="E13" t="s">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="F13" t="s">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="G13" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H13">
-        <v>26400</v>
+        <v>12636</v>
       </c>
       <c r="I13">
-        <v>1100000</v>
+        <v>16200000</v>
       </c>
       <c r="J13">
-        <v>24000</v>
+        <v>26000</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>100</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" t="s">
         <v>30</v>
       </c>
-      <c r="C14" t="s">
-        <v>47</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F14" t="s">
-        <v>57</v>
-      </c>
       <c r="G14" t="s">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="H14">
-        <v>36000</v>
+        <v>26400</v>
       </c>
       <c r="I14">
-        <v>18000000</v>
+        <v>1100000</v>
       </c>
       <c r="J14">
-        <v>2000</v>
+        <v>24000</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1121,78 +1130,78 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C15" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="D15" t="s">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="E15" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="F15" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="G15" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H15">
-        <v>4212</v>
+        <v>36000</v>
       </c>
       <c r="I15">
-        <v>16200000</v>
+        <v>18000000</v>
       </c>
       <c r="J15">
-        <v>26000</v>
+        <v>2000</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B16" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C16" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="D16" t="s">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="E16" t="s">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="F16" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G16" t="s">
-        <v>62</v>
+        <v>34</v>
       </c>
       <c r="H16">
-        <v>10000</v>
+        <v>4212</v>
       </c>
       <c r="I16">
-        <v>5000000</v>
+        <v>16200000</v>
       </c>
       <c r="J16">
-        <v>2000</v>
+        <v>26000</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>100</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -1203,19 +1212,19 @@
         <v>33</v>
       </c>
       <c r="C17" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D17" t="s">
         <v>22</v>
       </c>
       <c r="E17" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F17" t="s">
         <v>29</v>
       </c>
       <c r="G17" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="H17">
         <v>15484</v>
@@ -1235,101 +1244,101 @@
     </row>
     <row r="18" spans="1:12">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C18" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D18" t="s">
         <v>22</v>
       </c>
       <c r="E18" t="s">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="F18" t="s">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="G18" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H18">
-        <v>6636</v>
+        <v>10000</v>
       </c>
       <c r="I18">
-        <v>1580000</v>
+        <v>5000000</v>
       </c>
       <c r="J18">
-        <v>14000</v>
+        <v>2000</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>30</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19" t="s">
+        <v>57</v>
+      </c>
+      <c r="F19" t="s">
         <v>29</v>
       </c>
-      <c r="C19" t="s">
-        <v>39</v>
-      </c>
-      <c r="D19" t="s">
-        <v>53</v>
-      </c>
-      <c r="E19" t="s">
-        <v>54</v>
-      </c>
-      <c r="F19" t="s">
-        <v>56</v>
-      </c>
       <c r="G19" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="H19">
-        <v>12636</v>
+        <v>6636</v>
       </c>
       <c r="I19">
-        <v>16200000</v>
+        <v>1580000</v>
       </c>
       <c r="J19">
-        <v>26000</v>
+        <v>14000</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>3</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B20" t="s">
         <v>29</v>
       </c>
       <c r="C20" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D20" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E20" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F20" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G20" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="H20">
         <v>12636</v>
@@ -1349,28 +1358,28 @@
     </row>
     <row r="21" spans="1:12">
       <c r="A21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B21" t="s">
         <v>29</v>
       </c>
       <c r="C21" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D21" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E21" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F21" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G21" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="H21">
-        <v>126360</v>
+        <v>12636</v>
       </c>
       <c r="I21">
         <v>16200000</v>
@@ -1382,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>30</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1390,10 +1399,10 @@
         <v>26</v>
       </c>
       <c r="B22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C22" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D22" t="s">
         <v>26</v>
@@ -1402,10 +1411,10 @@
         <v>26</v>
       </c>
       <c r="F22" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G22" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H22">
         <v>8000</v>
@@ -1425,69 +1434,69 @@
     </row>
     <row r="23" spans="1:12">
       <c r="A23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B23" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C23" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="D23" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="E23" t="s">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="F23" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G23" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="H23">
-        <v>9500</v>
+        <v>126360</v>
       </c>
       <c r="I23">
-        <v>4750000</v>
+        <v>16200000</v>
       </c>
       <c r="J23">
-        <v>2000</v>
+        <v>26000</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>100</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:12">
       <c r="A24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B24" t="s">
         <v>38</v>
       </c>
       <c r="C24" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F24" t="s">
+        <v>65</v>
+      </c>
+      <c r="G24" t="s">
         <v>63</v>
       </c>
-      <c r="G24" t="s">
-        <v>69</v>
-      </c>
       <c r="H24">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="I24">
-        <v>4000000</v>
+        <v>4750000</v>
       </c>
       <c r="J24">
         <v>2000</v>
@@ -1496,6 +1505,44 @@
         <v>0</v>
       </c>
       <c r="L24">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" t="s">
+        <v>54</v>
+      </c>
+      <c r="D25" t="s">
+        <v>28</v>
+      </c>
+      <c r="E25" t="s">
+        <v>28</v>
+      </c>
+      <c r="F25" t="s">
+        <v>66</v>
+      </c>
+      <c r="G25" t="s">
+        <v>72</v>
+      </c>
+      <c r="H25">
+        <v>8000</v>
+      </c>
+      <c r="I25">
+        <v>4000000</v>
+      </c>
+      <c r="J25">
+        <v>2000</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
         <v>100</v>
       </c>
     </row>

--- a/datasets/form3.xlsx
+++ b/datasets/form3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="75">
   <si>
     <t>인수기관</t>
   </si>
@@ -118,6 +118,9 @@
     <t>2023-09-18</t>
   </si>
   <si>
+    <t>2023-10-10</t>
+  </si>
+  <si>
     <t>2023-10-05</t>
   </si>
   <si>
@@ -151,6 +154,9 @@
     <t>밀리의서재</t>
   </si>
   <si>
+    <t>신성에스티</t>
+  </si>
+  <si>
     <t>퓨릿</t>
   </si>
   <si>
@@ -166,12 +172,12 @@
     <t>신한제11호스팩</t>
   </si>
   <si>
+    <t>유안타제11호스팩</t>
+  </si>
+  <si>
     <t>아이엠티</t>
   </si>
   <si>
-    <t>유안타제11호스팩</t>
-  </si>
-  <si>
     <t>한국제12호스팩</t>
   </si>
   <si>
@@ -202,6 +208,9 @@
     <t>2023-08-28</t>
   </si>
   <si>
+    <t>2023-10-13</t>
+  </si>
+  <si>
     <t>2023-10-11</t>
   </si>
   <si>
@@ -223,16 +232,13 @@
     <t>2023-09-27</t>
   </si>
   <si>
+    <t>2023-10-19</t>
+  </si>
+  <si>
     <t>2023-10-18</t>
   </si>
   <si>
     <t>2023-10-06</t>
-  </si>
-  <si>
-    <t>2023-10-10</t>
-  </si>
-  <si>
-    <t>2023-10-13</t>
   </si>
 </sst>
 </file>
@@ -590,7 +596,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -642,19 +648,19 @@
         <v>29</v>
       </c>
       <c r="C2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H2">
         <v>42120</v>
@@ -680,7 +686,7 @@
         <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D3" t="s">
         <v>13</v>
@@ -689,10 +695,10 @@
         <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G3" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="H3">
         <v>18750</v>
@@ -718,19 +724,19 @@
         <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H4">
         <v>42120</v>
@@ -756,19 +762,19 @@
         <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H5">
         <v>42120</v>
@@ -794,7 +800,7 @@
         <v>31</v>
       </c>
       <c r="C6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D6" t="s">
         <v>15</v>
@@ -803,10 +809,10 @@
         <v>15</v>
       </c>
       <c r="F6" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G6" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="H6">
         <v>13000</v>
@@ -832,7 +838,7 @@
         <v>32</v>
       </c>
       <c r="C7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D7" t="s">
         <v>15</v>
@@ -841,10 +847,10 @@
         <v>15</v>
       </c>
       <c r="F7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H7">
         <v>13000</v>
@@ -870,7 +876,7 @@
         <v>33</v>
       </c>
       <c r="C8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D8" t="s">
         <v>16</v>
@@ -882,7 +888,7 @@
         <v>29</v>
       </c>
       <c r="G8" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="H8">
         <v>34500</v>
@@ -908,7 +914,7 @@
         <v>34</v>
       </c>
       <c r="C9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D9" t="s">
         <v>16</v>
@@ -917,19 +923,19 @@
         <v>16</v>
       </c>
       <c r="F9" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G9" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="H9">
-        <v>44265.9</v>
+        <v>52000</v>
       </c>
       <c r="I9">
-        <v>4137000</v>
+        <v>2000000</v>
       </c>
       <c r="J9">
-        <v>10700</v>
+        <v>26000</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -943,107 +949,107 @@
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C10" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="D10" t="s">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="E10" t="s">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="F10" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="G10" t="s">
-        <v>34</v>
+        <v>73</v>
       </c>
       <c r="H10">
-        <v>126360</v>
+        <v>44265.9</v>
       </c>
       <c r="I10">
-        <v>16200000</v>
+        <v>4137000</v>
       </c>
       <c r="J10">
-        <v>26000</v>
+        <v>10700</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>30</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" t="s">
+        <v>57</v>
+      </c>
+      <c r="E11" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" t="s">
+        <v>60</v>
+      </c>
+      <c r="G11" t="s">
+        <v>35</v>
+      </c>
+      <c r="H11">
+        <v>126360</v>
+      </c>
+      <c r="I11">
+        <v>16200000</v>
+      </c>
+      <c r="J11">
+        <v>26000</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
         <v>30</v>
-      </c>
-      <c r="C11" t="s">
-        <v>46</v>
-      </c>
-      <c r="D11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" t="s">
-        <v>59</v>
-      </c>
-      <c r="G11" t="s">
-        <v>70</v>
-      </c>
-      <c r="H11">
-        <v>33600</v>
-      </c>
-      <c r="I11">
-        <v>2240000</v>
-      </c>
-      <c r="J11">
-        <v>15000</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11">
-        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F12" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G12" t="s">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="H12">
-        <v>9000</v>
+        <v>33600</v>
       </c>
       <c r="I12">
-        <v>4500000</v>
+        <v>2240000</v>
       </c>
       <c r="J12">
-        <v>2000</v>
+        <v>15000</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -1054,40 +1060,40 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C13" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="D13" t="s">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="E13" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="F13" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="G13" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H13">
-        <v>12636</v>
+        <v>9000</v>
       </c>
       <c r="I13">
-        <v>16200000</v>
+        <v>4500000</v>
       </c>
       <c r="J13">
-        <v>26000</v>
+        <v>2000</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>3</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -1095,69 +1101,69 @@
         <v>19</v>
       </c>
       <c r="B14" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C14" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="D14" t="s">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="E14" t="s">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="F14" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="G14" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H14">
-        <v>26400</v>
+        <v>12636</v>
       </c>
       <c r="I14">
-        <v>1100000</v>
+        <v>16200000</v>
       </c>
       <c r="J14">
-        <v>24000</v>
+        <v>26000</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>100</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" t="s">
         <v>30</v>
       </c>
-      <c r="C15" t="s">
-        <v>49</v>
-      </c>
-      <c r="D15" t="s">
-        <v>20</v>
-      </c>
-      <c r="E15" t="s">
-        <v>20</v>
-      </c>
-      <c r="F15" t="s">
-        <v>59</v>
-      </c>
       <c r="G15" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="H15">
-        <v>36000</v>
+        <v>26400</v>
       </c>
       <c r="I15">
-        <v>18000000</v>
+        <v>1100000</v>
       </c>
       <c r="J15">
-        <v>2000</v>
+        <v>24000</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1168,78 +1174,78 @@
     </row>
     <row r="16" spans="1:12">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C16" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="D16" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="E16" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="F16" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G16" t="s">
-        <v>34</v>
+        <v>69</v>
       </c>
       <c r="H16">
-        <v>4212</v>
+        <v>36000</v>
       </c>
       <c r="I16">
-        <v>16200000</v>
+        <v>18000000</v>
       </c>
       <c r="J16">
-        <v>26000</v>
+        <v>2000</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:12">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C17" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="E17" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F17" t="s">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="G17" t="s">
-        <v>71</v>
+        <v>35</v>
       </c>
       <c r="H17">
-        <v>15484</v>
+        <v>4212</v>
       </c>
       <c r="I17">
-        <v>1580000</v>
+        <v>16200000</v>
       </c>
       <c r="J17">
-        <v>14000</v>
+        <v>26000</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>70</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1247,10 +1253,10 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C18" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D18" t="s">
         <v>22</v>
@@ -1259,10 +1265,10 @@
         <v>22</v>
       </c>
       <c r="F18" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="G18" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="H18">
         <v>10000</v>
@@ -1282,28 +1288,28 @@
     </row>
     <row r="19" spans="1:12">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
         <v>33</v>
       </c>
       <c r="C19" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D19" t="s">
         <v>22</v>
       </c>
       <c r="E19" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F19" t="s">
         <v>29</v>
       </c>
       <c r="G19" t="s">
-        <v>71</v>
+        <v>34</v>
       </c>
       <c r="H19">
-        <v>6636</v>
+        <v>15484</v>
       </c>
       <c r="I19">
         <v>1580000</v>
@@ -1315,68 +1321,68 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>30</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" t="s">
+        <v>53</v>
+      </c>
+      <c r="D20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20" t="s">
+        <v>59</v>
+      </c>
+      <c r="F20" t="s">
         <v>29</v>
-      </c>
-      <c r="C20" t="s">
-        <v>40</v>
-      </c>
-      <c r="D20" t="s">
-        <v>55</v>
-      </c>
-      <c r="E20" t="s">
-        <v>56</v>
-      </c>
-      <c r="F20" t="s">
-        <v>58</v>
       </c>
       <c r="G20" t="s">
         <v>34</v>
       </c>
       <c r="H20">
-        <v>12636</v>
+        <v>6636</v>
       </c>
       <c r="I20">
-        <v>16200000</v>
+        <v>1580000</v>
       </c>
       <c r="J20">
-        <v>26000</v>
+        <v>14000</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>3</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:12">
       <c r="A21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B21" t="s">
         <v>29</v>
       </c>
       <c r="C21" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D21" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E21" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F21" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H21">
         <v>12636</v>
@@ -1396,40 +1402,40 @@
     </row>
     <row r="22" spans="1:12">
       <c r="A22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C22" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="D22" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="E22" t="s">
-        <v>26</v>
+        <v>58</v>
       </c>
       <c r="F22" t="s">
         <v>60</v>
       </c>
       <c r="G22" t="s">
-        <v>67</v>
+        <v>35</v>
       </c>
       <c r="H22">
-        <v>8000</v>
+        <v>12636</v>
       </c>
       <c r="I22">
-        <v>4000000</v>
+        <v>16200000</v>
       </c>
       <c r="J22">
-        <v>2000</v>
+        <v>26000</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>100</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1440,19 +1446,19 @@
         <v>29</v>
       </c>
       <c r="C23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D23" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E23" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F23" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H23">
         <v>126360</v>
@@ -1472,31 +1478,31 @@
     </row>
     <row r="24" spans="1:12">
       <c r="A24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B24" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C24" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F24" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G24" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="H24">
-        <v>9500</v>
+        <v>8000</v>
       </c>
       <c r="I24">
-        <v>4750000</v>
+        <v>4000000</v>
       </c>
       <c r="J24">
         <v>2000</v>
@@ -1510,31 +1516,31 @@
     </row>
     <row r="25" spans="1:12">
       <c r="A25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B25" t="s">
         <v>39</v>
       </c>
       <c r="C25" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F25" t="s">
+        <v>68</v>
+      </c>
+      <c r="G25" t="s">
         <v>66</v>
       </c>
-      <c r="G25" t="s">
-        <v>72</v>
-      </c>
       <c r="H25">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="I25">
-        <v>4000000</v>
+        <v>4750000</v>
       </c>
       <c r="J25">
         <v>2000</v>
@@ -1543,6 +1549,44 @@
         <v>0</v>
       </c>
       <c r="L25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" t="s">
+        <v>56</v>
+      </c>
+      <c r="D26" t="s">
+        <v>28</v>
+      </c>
+      <c r="E26" t="s">
+        <v>28</v>
+      </c>
+      <c r="F26" t="s">
+        <v>69</v>
+      </c>
+      <c r="G26" t="s">
+        <v>64</v>
+      </c>
+      <c r="H26">
+        <v>8000</v>
+      </c>
+      <c r="I26">
+        <v>4000000</v>
+      </c>
+      <c r="J26">
+        <v>2000</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
         <v>100</v>
       </c>
     </row>

--- a/datasets/form3.xlsx
+++ b/datasets/form3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="77">
   <si>
     <t>인수기관</t>
   </si>
@@ -115,15 +115,15 @@
     <t>2023-08-23</t>
   </si>
   <si>
+    <t>2023-10-10</t>
+  </si>
+  <si>
+    <t>2023-10-05</t>
+  </si>
+  <si>
     <t>2023-09-18</t>
   </si>
   <si>
-    <t>2023-10-10</t>
-  </si>
-  <si>
-    <t>2023-10-05</t>
-  </si>
-  <si>
     <t>2023-09-04</t>
   </si>
   <si>
@@ -151,15 +151,15 @@
     <t>대신밸런스제16호스팩</t>
   </si>
   <si>
+    <t>신성에스티</t>
+  </si>
+  <si>
+    <t>퓨릿</t>
+  </si>
+  <si>
     <t>밀리의서재</t>
   </si>
   <si>
-    <t>신성에스티</t>
-  </si>
-  <si>
-    <t>퓨릿</t>
-  </si>
-  <si>
     <t>레뷰코퍼레이션</t>
   </si>
   <si>
@@ -172,10 +172,13 @@
     <t>신한제11호스팩</t>
   </si>
   <si>
+    <t>아이엠티</t>
+  </si>
+  <si>
     <t>유안타제11호스팩</t>
   </si>
   <si>
-    <t>아이엠티</t>
+    <t>에스엘에스바이오</t>
   </si>
   <si>
     <t>한국제12호스팩</t>
@@ -229,16 +232,19 @@
     <t>2023-08-30</t>
   </si>
   <si>
+    <t>2023-10-19</t>
+  </si>
+  <si>
+    <t>2023-10-18</t>
+  </si>
+  <si>
     <t>2023-09-27</t>
   </si>
   <si>
-    <t>2023-10-19</t>
-  </si>
-  <si>
-    <t>2023-10-18</t>
-  </si>
-  <si>
     <t>2023-10-06</t>
+  </si>
+  <si>
+    <t>2023-10-20</t>
   </si>
 </sst>
 </file>
@@ -596,7 +602,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L26"/>
+  <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -651,16 +657,16 @@
         <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H2">
         <v>42120</v>
@@ -683,37 +689,37 @@
         <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="F3" t="s">
         <v>61</v>
       </c>
       <c r="G3" t="s">
-        <v>69</v>
+        <v>34</v>
       </c>
       <c r="H3">
-        <v>18750</v>
+        <v>42120</v>
       </c>
       <c r="I3">
-        <v>1500000</v>
+        <v>16200000</v>
       </c>
       <c r="J3">
-        <v>12500</v>
+        <v>26000</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>100</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -721,37 +727,37 @@
         <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D4" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G4" t="s">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="H4">
-        <v>42120</v>
+        <v>18750</v>
       </c>
       <c r="I4">
-        <v>16200000</v>
+        <v>1500000</v>
       </c>
       <c r="J4">
-        <v>26000</v>
+        <v>12500</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -765,16 +771,16 @@
         <v>41</v>
       </c>
       <c r="D5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H5">
         <v>42120</v>
@@ -809,10 +815,10 @@
         <v>15</v>
       </c>
       <c r="F6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H6">
         <v>13000</v>
@@ -847,7 +853,7 @@
         <v>15</v>
       </c>
       <c r="F7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G7" t="s">
         <v>36</v>
@@ -885,19 +891,19 @@
         <v>16</v>
       </c>
       <c r="F8" t="s">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="G8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H8">
-        <v>34500</v>
+        <v>52000</v>
       </c>
       <c r="I8">
-        <v>1500000</v>
+        <v>2000000</v>
       </c>
       <c r="J8">
-        <v>23000</v>
+        <v>26000</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -923,19 +929,19 @@
         <v>16</v>
       </c>
       <c r="F9" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H9">
-        <v>52000</v>
+        <v>44265.9</v>
       </c>
       <c r="I9">
-        <v>2000000</v>
+        <v>4137000</v>
       </c>
       <c r="J9">
-        <v>26000</v>
+        <v>10700</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -949,37 +955,37 @@
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C10" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D10" t="s">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="E10" t="s">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="F10" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G10" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="H10">
-        <v>44265.9</v>
+        <v>126360</v>
       </c>
       <c r="I10">
-        <v>4137000</v>
+        <v>16200000</v>
       </c>
       <c r="J10">
-        <v>10700</v>
+        <v>26000</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>100</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -987,37 +993,37 @@
         <v>16</v>
       </c>
       <c r="B11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" t="s">
         <v>29</v>
       </c>
-      <c r="C11" t="s">
-        <v>41</v>
-      </c>
-      <c r="D11" t="s">
-        <v>57</v>
-      </c>
-      <c r="E11" t="s">
-        <v>58</v>
-      </c>
-      <c r="F11" t="s">
-        <v>60</v>
-      </c>
       <c r="G11" t="s">
-        <v>35</v>
+        <v>74</v>
       </c>
       <c r="H11">
-        <v>126360</v>
+        <v>34500</v>
       </c>
       <c r="I11">
-        <v>16200000</v>
+        <v>1500000</v>
       </c>
       <c r="J11">
-        <v>26000</v>
+        <v>23000</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>30</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -1037,10 +1043,10 @@
         <v>17</v>
       </c>
       <c r="F12" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G12" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H12">
         <v>33600</v>
@@ -1075,7 +1081,7 @@
         <v>18</v>
       </c>
       <c r="F13" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G13" t="s">
         <v>37</v>
@@ -1101,37 +1107,37 @@
         <v>19</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C14" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="D14" t="s">
-        <v>57</v>
+        <v>19</v>
       </c>
       <c r="E14" t="s">
-        <v>58</v>
+        <v>19</v>
       </c>
       <c r="F14" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="G14" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H14">
-        <v>12636</v>
+        <v>26400</v>
       </c>
       <c r="I14">
-        <v>16200000</v>
+        <v>1100000</v>
       </c>
       <c r="J14">
-        <v>26000</v>
+        <v>24000</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>3</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -1139,37 +1145,37 @@
         <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C15" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="D15" t="s">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="E15" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="F15" t="s">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="G15" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H15">
-        <v>26400</v>
+        <v>12636</v>
       </c>
       <c r="I15">
-        <v>1100000</v>
+        <v>16200000</v>
       </c>
       <c r="J15">
-        <v>24000</v>
+        <v>26000</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>100</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -1189,10 +1195,10 @@
         <v>20</v>
       </c>
       <c r="F16" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G16" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H16">
         <v>36000</v>
@@ -1221,16 +1227,16 @@
         <v>41</v>
       </c>
       <c r="D17" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E17" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F17" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H17">
         <v>4212</v>
@@ -1253,7 +1259,7 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C18" t="s">
         <v>52</v>
@@ -1262,28 +1268,28 @@
         <v>22</v>
       </c>
       <c r="E18" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="F18" t="s">
-        <v>67</v>
+        <v>29</v>
       </c>
       <c r="G18" t="s">
-        <v>68</v>
+        <v>33</v>
       </c>
       <c r="H18">
-        <v>10000</v>
+        <v>15484</v>
       </c>
       <c r="I18">
-        <v>5000000</v>
+        <v>1580000</v>
       </c>
       <c r="J18">
-        <v>2000</v>
+        <v>14000</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>100</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1291,7 +1297,7 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C19" t="s">
         <v>53</v>
@@ -1300,28 +1306,28 @@
         <v>22</v>
       </c>
       <c r="E19" t="s">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="F19" t="s">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="G19" t="s">
-        <v>34</v>
+        <v>69</v>
       </c>
       <c r="H19">
-        <v>15484</v>
+        <v>10000</v>
       </c>
       <c r="I19">
-        <v>1580000</v>
+        <v>5000000</v>
       </c>
       <c r="J19">
-        <v>14000</v>
+        <v>2000</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>70</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1329,22 +1335,22 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D20" t="s">
         <v>22</v>
       </c>
       <c r="E20" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F20" t="s">
         <v>29</v>
       </c>
       <c r="G20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H20">
         <v>6636</v>
@@ -1373,16 +1379,16 @@
         <v>41</v>
       </c>
       <c r="D21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F21" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H21">
         <v>12636</v>
@@ -1411,16 +1417,16 @@
         <v>41</v>
       </c>
       <c r="D22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H22">
         <v>12636</v>
@@ -1440,40 +1446,40 @@
     </row>
     <row r="23" spans="1:12">
       <c r="A23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B23" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C23" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="D23" t="s">
-        <v>57</v>
+        <v>25</v>
       </c>
       <c r="E23" t="s">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="F23" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="G23" t="s">
-        <v>35</v>
+        <v>76</v>
       </c>
       <c r="H23">
-        <v>126360</v>
+        <v>5390</v>
       </c>
       <c r="I23">
-        <v>16200000</v>
+        <v>770000</v>
       </c>
       <c r="J23">
-        <v>26000</v>
+        <v>7000</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>30</v>
+        <v>100</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1481,66 +1487,66 @@
         <v>26</v>
       </c>
       <c r="B24" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C24" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="D24" t="s">
-        <v>26</v>
+        <v>58</v>
       </c>
       <c r="E24" t="s">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="F24" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G24" t="s">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="H24">
-        <v>8000</v>
+        <v>126360</v>
       </c>
       <c r="I24">
-        <v>4000000</v>
+        <v>16200000</v>
       </c>
       <c r="J24">
-        <v>2000</v>
+        <v>26000</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>100</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:12">
       <c r="A25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C25" t="s">
         <v>55</v>
       </c>
       <c r="D25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F25" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="G25" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="H25">
-        <v>9500</v>
+        <v>8000</v>
       </c>
       <c r="I25">
-        <v>4750000</v>
+        <v>4000000</v>
       </c>
       <c r="J25">
         <v>2000</v>
@@ -1554,31 +1560,31 @@
     </row>
     <row r="26" spans="1:12">
       <c r="A26" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C26" t="s">
         <v>56</v>
       </c>
       <c r="D26" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E26" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F26" t="s">
         <v>69</v>
       </c>
       <c r="G26" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="H26">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="I26">
-        <v>4000000</v>
+        <v>4750000</v>
       </c>
       <c r="J26">
         <v>2000</v>
@@ -1587,6 +1593,44 @@
         <v>0</v>
       </c>
       <c r="L26">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" t="s">
+        <v>57</v>
+      </c>
+      <c r="D27" t="s">
+        <v>28</v>
+      </c>
+      <c r="E27" t="s">
+        <v>28</v>
+      </c>
+      <c r="F27" t="s">
+        <v>70</v>
+      </c>
+      <c r="G27" t="s">
+        <v>65</v>
+      </c>
+      <c r="H27">
+        <v>8000</v>
+      </c>
+      <c r="I27">
+        <v>4000000</v>
+      </c>
+      <c r="J27">
+        <v>2000</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
         <v>100</v>
       </c>
     </row>

--- a/datasets/form3.xlsx
+++ b/datasets/form3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="72">
   <si>
     <t>인수기관</t>
   </si>
@@ -109,21 +109,18 @@
     <t>2023-09-19</t>
   </si>
   <si>
-    <t>2023-08-21</t>
-  </si>
-  <si>
     <t>2023-08-23</t>
   </si>
   <si>
+    <t>2023-09-18</t>
+  </si>
+  <si>
     <t>2023-10-10</t>
   </si>
   <si>
     <t>2023-10-05</t>
   </si>
   <si>
-    <t>2023-09-18</t>
-  </si>
-  <si>
     <t>2023-09-04</t>
   </si>
   <si>
@@ -145,21 +142,18 @@
     <t>한싹</t>
   </si>
   <si>
-    <t>대신밸런스제15호스팩</t>
-  </si>
-  <si>
     <t>대신밸런스제16호스팩</t>
   </si>
   <si>
+    <t>밀리의서재</t>
+  </si>
+  <si>
     <t>신성에스티</t>
   </si>
   <si>
     <t>퓨릿</t>
   </si>
   <si>
-    <t>밀리의서재</t>
-  </si>
-  <si>
     <t>레뷰코퍼레이션</t>
   </si>
   <si>
@@ -181,9 +175,6 @@
     <t>에스엘에스바이오</t>
   </si>
   <si>
-    <t>한국제12호스팩</t>
-  </si>
-  <si>
     <t>한화플러스제4호스팩</t>
   </si>
   <si>
@@ -205,9 +196,6 @@
     <t>2023-09-22</t>
   </si>
   <si>
-    <t>2023-08-24</t>
-  </si>
-  <si>
     <t>2023-08-28</t>
   </si>
   <si>
@@ -229,16 +217,13 @@
     <t>2023-10-04</t>
   </si>
   <si>
-    <t>2023-08-30</t>
+    <t>2023-09-27</t>
   </si>
   <si>
     <t>2023-10-19</t>
   </si>
   <si>
     <t>2023-10-18</t>
-  </si>
-  <si>
-    <t>2023-09-27</t>
   </si>
   <si>
     <t>2023-10-06</t>
@@ -602,7 +587,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L27"/>
+  <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -654,16 +639,16 @@
         <v>29</v>
       </c>
       <c r="C2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F2" t="s">
         <v>58</v>
-      </c>
-      <c r="E2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F2" t="s">
-        <v>61</v>
       </c>
       <c r="G2" t="s">
         <v>34</v>
@@ -692,16 +677,16 @@
         <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F3" t="s">
         <v>58</v>
-      </c>
-      <c r="E3" t="s">
-        <v>59</v>
-      </c>
-      <c r="F3" t="s">
-        <v>61</v>
       </c>
       <c r="G3" t="s">
         <v>34</v>
@@ -730,7 +715,7 @@
         <v>30</v>
       </c>
       <c r="C4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D4" t="s">
         <v>13</v>
@@ -739,10 +724,10 @@
         <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G4" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="H4">
         <v>18750</v>
@@ -768,16 +753,16 @@
         <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F5" t="s">
         <v>58</v>
-      </c>
-      <c r="E5" t="s">
-        <v>59</v>
-      </c>
-      <c r="F5" t="s">
-        <v>61</v>
       </c>
       <c r="G5" t="s">
         <v>34</v>
@@ -806,7 +791,7 @@
         <v>31</v>
       </c>
       <c r="C6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D6" t="s">
         <v>15</v>
@@ -815,10 +800,10 @@
         <v>15</v>
       </c>
       <c r="F6" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G6" t="s">
-        <v>71</v>
+        <v>35</v>
       </c>
       <c r="H6">
         <v>13000</v>
@@ -838,34 +823,34 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
       </c>
       <c r="C7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F7" t="s">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="G7" t="s">
-        <v>36</v>
+        <v>67</v>
       </c>
       <c r="H7">
-        <v>13000</v>
+        <v>34500</v>
       </c>
       <c r="I7">
-        <v>6500000</v>
+        <v>1500000</v>
       </c>
       <c r="J7">
-        <v>2000</v>
+        <v>23000</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -882,7 +867,7 @@
         <v>33</v>
       </c>
       <c r="C8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D8" t="s">
         <v>16</v>
@@ -891,10 +876,10 @@
         <v>16</v>
       </c>
       <c r="F8" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G8" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="H8">
         <v>52000</v>
@@ -920,7 +905,7 @@
         <v>34</v>
       </c>
       <c r="C9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D9" t="s">
         <v>16</v>
@@ -929,10 +914,10 @@
         <v>16</v>
       </c>
       <c r="F9" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G9" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="H9">
         <v>44265.9</v>
@@ -958,16 +943,16 @@
         <v>29</v>
       </c>
       <c r="C10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10" t="s">
         <v>58</v>
-      </c>
-      <c r="E10" t="s">
-        <v>59</v>
-      </c>
-      <c r="F10" t="s">
-        <v>61</v>
       </c>
       <c r="G10" t="s">
         <v>34</v>
@@ -990,34 +975,34 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F11" t="s">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="G11" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="H11">
-        <v>34500</v>
+        <v>33600</v>
       </c>
       <c r="I11">
-        <v>1500000</v>
+        <v>2240000</v>
       </c>
       <c r="J11">
-        <v>23000</v>
+        <v>15000</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -1028,34 +1013,34 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F12" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G12" t="s">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="H12">
-        <v>33600</v>
+        <v>9000</v>
       </c>
       <c r="I12">
-        <v>2240000</v>
+        <v>4500000</v>
       </c>
       <c r="J12">
-        <v>15000</v>
+        <v>2000</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -1066,34 +1051,34 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B13" t="s">
         <v>36</v>
       </c>
       <c r="C13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F13" t="s">
-        <v>67</v>
+        <v>30</v>
       </c>
       <c r="G13" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H13">
-        <v>9000</v>
+        <v>26400</v>
       </c>
       <c r="I13">
-        <v>4500000</v>
+        <v>1100000</v>
       </c>
       <c r="J13">
-        <v>2000</v>
+        <v>24000</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1107,151 +1092,151 @@
         <v>19</v>
       </c>
       <c r="B14" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C14" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D14" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="E14" t="s">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="F14" t="s">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="G14" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H14">
-        <v>26400</v>
+        <v>12636</v>
       </c>
       <c r="I14">
-        <v>1100000</v>
+        <v>16200000</v>
       </c>
       <c r="J14">
-        <v>24000</v>
+        <v>26000</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>100</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C15" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="D15" t="s">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="E15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" t="s">
         <v>59</v>
       </c>
-      <c r="F15" t="s">
-        <v>61</v>
-      </c>
       <c r="G15" t="s">
-        <v>34</v>
+        <v>66</v>
       </c>
       <c r="H15">
-        <v>12636</v>
+        <v>36000</v>
       </c>
       <c r="I15">
-        <v>16200000</v>
+        <v>18000000</v>
       </c>
       <c r="J15">
-        <v>26000</v>
+        <v>2000</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>3</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C16" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="D16" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="E16" t="s">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="F16" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G16" t="s">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="H16">
-        <v>36000</v>
+        <v>4212</v>
       </c>
       <c r="I16">
-        <v>18000000</v>
+        <v>16200000</v>
       </c>
       <c r="J16">
-        <v>2000</v>
+        <v>26000</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>100</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:12">
       <c r="A17" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" t="s">
+        <v>57</v>
+      </c>
+      <c r="F17" t="s">
         <v>29</v>
       </c>
-      <c r="C17" t="s">
-        <v>41</v>
-      </c>
-      <c r="D17" t="s">
-        <v>58</v>
-      </c>
-      <c r="E17" t="s">
-        <v>59</v>
-      </c>
-      <c r="F17" t="s">
-        <v>61</v>
-      </c>
       <c r="G17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H17">
-        <v>4212</v>
+        <v>15484</v>
       </c>
       <c r="I17">
-        <v>16200000</v>
+        <v>1580000</v>
       </c>
       <c r="J17">
-        <v>26000</v>
+        <v>14000</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1259,151 +1244,151 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D18" t="s">
         <v>22</v>
       </c>
       <c r="E18" t="s">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="F18" t="s">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="G18" t="s">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="H18">
-        <v>15484</v>
+        <v>10000</v>
       </c>
       <c r="I18">
-        <v>1580000</v>
+        <v>5000000</v>
       </c>
       <c r="J18">
-        <v>14000</v>
+        <v>2000</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>70</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C19" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D19" t="s">
         <v>22</v>
       </c>
       <c r="E19" t="s">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="F19" t="s">
-        <v>68</v>
+        <v>29</v>
       </c>
       <c r="G19" t="s">
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="H19">
-        <v>10000</v>
+        <v>6636</v>
       </c>
       <c r="I19">
-        <v>5000000</v>
+        <v>1580000</v>
       </c>
       <c r="J19">
-        <v>2000</v>
+        <v>14000</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>100</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B20" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C20" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="E20" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F20" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="G20" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H20">
-        <v>6636</v>
+        <v>12636</v>
       </c>
       <c r="I20">
-        <v>1580000</v>
+        <v>16200000</v>
       </c>
       <c r="J20">
-        <v>14000</v>
+        <v>26000</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>30</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:12">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B21" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C21" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="D21" t="s">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="E21" t="s">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="F21" t="s">
         <v>61</v>
       </c>
       <c r="G21" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="H21">
-        <v>12636</v>
+        <v>5390</v>
       </c>
       <c r="I21">
-        <v>16200000</v>
+        <v>770000</v>
       </c>
       <c r="J21">
-        <v>26000</v>
+        <v>7000</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>3</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1414,16 +1399,16 @@
         <v>29</v>
       </c>
       <c r="C22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D22" t="s">
+        <v>55</v>
+      </c>
+      <c r="E22" t="s">
+        <v>56</v>
+      </c>
+      <c r="F22" t="s">
         <v>58</v>
-      </c>
-      <c r="E22" t="s">
-        <v>59</v>
-      </c>
-      <c r="F22" t="s">
-        <v>61</v>
       </c>
       <c r="G22" t="s">
         <v>34</v>
@@ -1446,101 +1431,101 @@
     </row>
     <row r="23" spans="1:12">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B23" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C23" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="D23" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="E23" t="s">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="F23" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="G23" t="s">
-        <v>76</v>
+        <v>34</v>
       </c>
       <c r="H23">
-        <v>5390</v>
+        <v>126360</v>
       </c>
       <c r="I23">
-        <v>770000</v>
+        <v>16200000</v>
       </c>
       <c r="J23">
-        <v>7000</v>
+        <v>26000</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>100</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:12">
       <c r="A24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C24" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="D24" t="s">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="E24" t="s">
-        <v>59</v>
+        <v>27</v>
       </c>
       <c r="F24" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="G24" t="s">
-        <v>34</v>
+        <v>63</v>
       </c>
       <c r="H24">
-        <v>126360</v>
+        <v>9500</v>
       </c>
       <c r="I24">
-        <v>16200000</v>
+        <v>4750000</v>
       </c>
       <c r="J24">
-        <v>26000</v>
+        <v>2000</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>30</v>
+        <v>100</v>
       </c>
     </row>
     <row r="25" spans="1:12">
       <c r="A25" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="C25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D25" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E25" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F25" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="G25" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="H25">
         <v>8000</v>
@@ -1555,82 +1540,6 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12">
-      <c r="A26" t="s">
-        <v>27</v>
-      </c>
-      <c r="B26" t="s">
-        <v>39</v>
-      </c>
-      <c r="C26" t="s">
-        <v>56</v>
-      </c>
-      <c r="D26" t="s">
-        <v>27</v>
-      </c>
-      <c r="E26" t="s">
-        <v>27</v>
-      </c>
-      <c r="F26" t="s">
-        <v>69</v>
-      </c>
-      <c r="G26" t="s">
-        <v>67</v>
-      </c>
-      <c r="H26">
-        <v>9500</v>
-      </c>
-      <c r="I26">
-        <v>4750000</v>
-      </c>
-      <c r="J26">
-        <v>2000</v>
-      </c>
-      <c r="K26">
-        <v>0</v>
-      </c>
-      <c r="L26">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12">
-      <c r="A27" t="s">
-        <v>28</v>
-      </c>
-      <c r="B27" t="s">
-        <v>40</v>
-      </c>
-      <c r="C27" t="s">
-        <v>57</v>
-      </c>
-      <c r="D27" t="s">
-        <v>28</v>
-      </c>
-      <c r="E27" t="s">
-        <v>28</v>
-      </c>
-      <c r="F27" t="s">
-        <v>70</v>
-      </c>
-      <c r="G27" t="s">
-        <v>65</v>
-      </c>
-      <c r="H27">
-        <v>8000</v>
-      </c>
-      <c r="I27">
-        <v>4000000</v>
-      </c>
-      <c r="J27">
-        <v>2000</v>
-      </c>
-      <c r="K27">
-        <v>0</v>
-      </c>
-      <c r="L27">
         <v>100</v>
       </c>
     </row>

--- a/datasets/form3.xlsx
+++ b/datasets/form3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="69">
   <si>
     <t>인수기관</t>
   </si>
@@ -112,24 +112,21 @@
     <t>2023-08-23</t>
   </si>
   <si>
+    <t>2023-10-05</t>
+  </si>
+  <si>
     <t>2023-09-18</t>
   </si>
   <si>
     <t>2023-10-10</t>
   </si>
   <si>
-    <t>2023-10-05</t>
-  </si>
-  <si>
     <t>2023-09-04</t>
   </si>
   <si>
     <t>2023-09-14</t>
   </si>
   <si>
-    <t>2023-08-22</t>
-  </si>
-  <si>
     <t>2023-08-29</t>
   </si>
   <si>
@@ -145,15 +142,15 @@
     <t>대신밸런스제16호스팩</t>
   </si>
   <si>
+    <t>퓨릿</t>
+  </si>
+  <si>
     <t>밀리의서재</t>
   </si>
   <si>
     <t>신성에스티</t>
   </si>
   <si>
-    <t>퓨릿</t>
-  </si>
-  <si>
     <t>레뷰코퍼레이션</t>
   </si>
   <si>
@@ -169,9 +166,6 @@
     <t>아이엠티</t>
   </si>
   <si>
-    <t>유안타제11호스팩</t>
-  </si>
-  <si>
     <t>에스엘에스바이오</t>
   </si>
   <si>
@@ -199,31 +193,28 @@
     <t>2023-08-28</t>
   </si>
   <si>
+    <t>2023-10-11</t>
+  </si>
+  <si>
     <t>2023-10-13</t>
   </si>
   <si>
-    <t>2023-10-11</t>
-  </si>
-  <si>
     <t>2023-09-07</t>
   </si>
   <si>
-    <t>2023-08-25</t>
-  </si>
-  <si>
     <t>2023-09-01</t>
   </si>
   <si>
     <t>2023-10-04</t>
   </si>
   <si>
+    <t>2023-10-18</t>
+  </si>
+  <si>
     <t>2023-09-27</t>
   </si>
   <si>
     <t>2023-10-19</t>
-  </si>
-  <si>
-    <t>2023-10-18</t>
   </si>
   <si>
     <t>2023-10-06</t>
@@ -587,7 +578,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -639,19 +630,19 @@
         <v>29</v>
       </c>
       <c r="C2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F2" t="s">
         <v>56</v>
       </c>
-      <c r="F2" t="s">
-        <v>58</v>
-      </c>
       <c r="G2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H2">
         <v>42120</v>
@@ -674,37 +665,37 @@
         <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
         <v>40</v>
       </c>
       <c r="D3" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G3" t="s">
-        <v>34</v>
+        <v>63</v>
       </c>
       <c r="H3">
-        <v>42120</v>
+        <v>18750</v>
       </c>
       <c r="I3">
-        <v>16200000</v>
+        <v>1500000</v>
       </c>
       <c r="J3">
-        <v>26000</v>
+        <v>12500</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -712,37 +703,37 @@
         <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="F4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G4" t="s">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="H4">
-        <v>18750</v>
+        <v>42120</v>
       </c>
       <c r="I4">
-        <v>1500000</v>
+        <v>16200000</v>
       </c>
       <c r="J4">
-        <v>12500</v>
+        <v>26000</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>100</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -753,19 +744,19 @@
         <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F5" t="s">
         <v>56</v>
       </c>
-      <c r="F5" t="s">
-        <v>58</v>
-      </c>
       <c r="G5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H5">
         <v>42120</v>
@@ -791,7 +782,7 @@
         <v>31</v>
       </c>
       <c r="C6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D6" t="s">
         <v>15</v>
@@ -800,7 +791,7 @@
         <v>15</v>
       </c>
       <c r="F6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G6" t="s">
         <v>35</v>
@@ -826,37 +817,37 @@
         <v>16</v>
       </c>
       <c r="B7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G7" t="s">
         <v>32</v>
       </c>
-      <c r="C7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G7" t="s">
-        <v>67</v>
-      </c>
       <c r="H7">
-        <v>34500</v>
+        <v>126360</v>
       </c>
       <c r="I7">
-        <v>1500000</v>
+        <v>16200000</v>
       </c>
       <c r="J7">
-        <v>23000</v>
+        <v>26000</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>100</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -864,10 +855,10 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D8" t="s">
         <v>16</v>
@@ -876,19 +867,19 @@
         <v>16</v>
       </c>
       <c r="F8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G8" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H8">
-        <v>52000</v>
+        <v>44265.9</v>
       </c>
       <c r="I8">
-        <v>2000000</v>
+        <v>4137000</v>
       </c>
       <c r="J8">
-        <v>26000</v>
+        <v>10700</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -902,10 +893,10 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D9" t="s">
         <v>16</v>
@@ -914,19 +905,19 @@
         <v>16</v>
       </c>
       <c r="F9" t="s">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="G9" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="H9">
-        <v>44265.9</v>
+        <v>34500</v>
       </c>
       <c r="I9">
-        <v>4137000</v>
+        <v>1500000</v>
       </c>
       <c r="J9">
-        <v>10700</v>
+        <v>23000</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -940,28 +931,28 @@
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C10" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D10" t="s">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="E10" t="s">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="F10" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G10" t="s">
-        <v>34</v>
+        <v>66</v>
       </c>
       <c r="H10">
-        <v>126360</v>
+        <v>52000</v>
       </c>
       <c r="I10">
-        <v>16200000</v>
+        <v>2000000</v>
       </c>
       <c r="J10">
         <v>26000</v>
@@ -970,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>30</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -981,7 +972,7 @@
         <v>30</v>
       </c>
       <c r="C11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D11" t="s">
         <v>17</v>
@@ -990,10 +981,10 @@
         <v>17</v>
       </c>
       <c r="F11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G11" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="H11">
         <v>33600</v>
@@ -1019,7 +1010,7 @@
         <v>35</v>
       </c>
       <c r="C12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D12" t="s">
         <v>18</v>
@@ -1028,7 +1019,7 @@
         <v>18</v>
       </c>
       <c r="F12" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G12" t="s">
         <v>36</v>
@@ -1054,37 +1045,37 @@
         <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C13" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="D13" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="E13" t="s">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="F13" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="G13" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H13">
-        <v>26400</v>
+        <v>12636</v>
       </c>
       <c r="I13">
-        <v>1100000</v>
+        <v>16200000</v>
       </c>
       <c r="J13">
-        <v>24000</v>
+        <v>26000</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>100</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -1092,37 +1083,37 @@
         <v>19</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C14" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="D14" t="s">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="E14" t="s">
-        <v>56</v>
+        <v>19</v>
       </c>
       <c r="F14" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="G14" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H14">
-        <v>12636</v>
+        <v>26400</v>
       </c>
       <c r="I14">
-        <v>16200000</v>
+        <v>1100000</v>
       </c>
       <c r="J14">
-        <v>26000</v>
+        <v>24000</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>3</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -1133,7 +1124,7 @@
         <v>30</v>
       </c>
       <c r="C15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D15" t="s">
         <v>20</v>
@@ -1142,10 +1133,10 @@
         <v>20</v>
       </c>
       <c r="F15" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G15" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H15">
         <v>36000</v>
@@ -1171,19 +1162,19 @@
         <v>29</v>
       </c>
       <c r="C16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D16" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E16" t="s">
+        <v>54</v>
+      </c>
+      <c r="F16" t="s">
         <v>56</v>
       </c>
-      <c r="F16" t="s">
-        <v>58</v>
-      </c>
       <c r="G16" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H16">
         <v>4212</v>
@@ -1206,22 +1197,22 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D17" t="s">
         <v>22</v>
       </c>
       <c r="E17" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F17" t="s">
         <v>29</v>
       </c>
       <c r="G17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H17">
         <v>15484</v>
@@ -1241,116 +1232,116 @@
     </row>
     <row r="18" spans="1:12">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C18" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D18" t="s">
         <v>22</v>
       </c>
       <c r="E18" t="s">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="F18" t="s">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="G18" t="s">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="H18">
-        <v>10000</v>
+        <v>6636</v>
       </c>
       <c r="I18">
-        <v>5000000</v>
+        <v>1580000</v>
       </c>
       <c r="J18">
-        <v>2000</v>
+        <v>14000</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>100</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" t="s">
+        <v>53</v>
+      </c>
+      <c r="E19" t="s">
+        <v>54</v>
+      </c>
+      <c r="F19" t="s">
+        <v>56</v>
+      </c>
+      <c r="G19" t="s">
         <v>32</v>
       </c>
-      <c r="C19" t="s">
-        <v>50</v>
-      </c>
-      <c r="D19" t="s">
-        <v>22</v>
-      </c>
-      <c r="E19" t="s">
-        <v>57</v>
-      </c>
-      <c r="F19" t="s">
-        <v>29</v>
-      </c>
-      <c r="G19" t="s">
-        <v>33</v>
-      </c>
       <c r="H19">
-        <v>6636</v>
+        <v>12636</v>
       </c>
       <c r="I19">
-        <v>1580000</v>
+        <v>16200000</v>
       </c>
       <c r="J19">
-        <v>14000</v>
+        <v>26000</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>30</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B20" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C20" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D20" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="E20" t="s">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="F20" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G20" t="s">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="H20">
-        <v>12636</v>
+        <v>5390</v>
       </c>
       <c r="I20">
-        <v>16200000</v>
+        <v>770000</v>
       </c>
       <c r="J20">
-        <v>26000</v>
+        <v>7000</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>3</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1358,63 +1349,63 @@
         <v>25</v>
       </c>
       <c r="B21" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C21" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="D21" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="E21" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="F21" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="G21" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="H21">
-        <v>5390</v>
+        <v>12636</v>
       </c>
       <c r="I21">
-        <v>770000</v>
+        <v>16200000</v>
       </c>
       <c r="J21">
-        <v>7000</v>
+        <v>26000</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>100</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:12">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B22" t="s">
         <v>29</v>
       </c>
       <c r="C22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D22" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E22" t="s">
+        <v>54</v>
+      </c>
+      <c r="F22" t="s">
         <v>56</v>
       </c>
-      <c r="F22" t="s">
-        <v>58</v>
-      </c>
       <c r="G22" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H22">
-        <v>12636</v>
+        <v>126360</v>
       </c>
       <c r="I22">
         <v>16200000</v>
@@ -1426,74 +1417,74 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>3</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:12">
       <c r="A23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B23" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C23" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="D23" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="E23" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="F23" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G23" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="H23">
-        <v>126360</v>
+        <v>9500</v>
       </c>
       <c r="I23">
-        <v>16200000</v>
+        <v>4750000</v>
       </c>
       <c r="J23">
-        <v>26000</v>
+        <v>2000</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>30</v>
+        <v>100</v>
       </c>
     </row>
     <row r="24" spans="1:12">
       <c r="A24" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B24" t="s">
         <v>38</v>
       </c>
       <c r="C24" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D24" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E24" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F24" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G24" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="H24">
-        <v>9500</v>
+        <v>8000</v>
       </c>
       <c r="I24">
-        <v>4750000</v>
+        <v>4000000</v>
       </c>
       <c r="J24">
         <v>2000</v>
@@ -1502,44 +1493,6 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
-      <c r="A25" t="s">
-        <v>28</v>
-      </c>
-      <c r="B25" t="s">
-        <v>39</v>
-      </c>
-      <c r="C25" t="s">
-        <v>54</v>
-      </c>
-      <c r="D25" t="s">
-        <v>28</v>
-      </c>
-      <c r="E25" t="s">
-        <v>28</v>
-      </c>
-      <c r="F25" t="s">
-        <v>66</v>
-      </c>
-      <c r="G25" t="s">
-        <v>61</v>
-      </c>
-      <c r="H25">
-        <v>8000</v>
-      </c>
-      <c r="I25">
-        <v>4000000</v>
-      </c>
-      <c r="J25">
-        <v>2000</v>
-      </c>
-      <c r="K25">
-        <v>0</v>
-      </c>
-      <c r="L25">
         <v>100</v>
       </c>
     </row>

--- a/datasets/form3.xlsx
+++ b/datasets/form3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="73">
   <si>
     <t>인수기관</t>
   </si>
@@ -61,9 +61,6 @@
     <t>NH</t>
   </si>
   <si>
-    <t>대신</t>
-  </si>
-  <si>
     <t>미래</t>
   </si>
   <si>
@@ -97,37 +94,40 @@
     <t>한국</t>
   </si>
   <si>
-    <t>한화</t>
-  </si>
-  <si>
     <t>현대차</t>
   </si>
   <si>
     <t>2023-09-21</t>
   </si>
   <si>
+    <t>2023-10-24</t>
+  </si>
+  <si>
     <t>2023-09-19</t>
   </si>
   <si>
-    <t>2023-08-23</t>
+    <t>2023-10-23</t>
+  </si>
+  <si>
+    <t>2023-09-18</t>
+  </si>
+  <si>
+    <t>2023-10-10</t>
   </si>
   <si>
     <t>2023-10-05</t>
   </si>
   <si>
-    <t>2023-09-18</t>
-  </si>
-  <si>
-    <t>2023-10-10</t>
-  </si>
-  <si>
     <t>2023-09-04</t>
   </si>
   <si>
     <t>2023-09-14</t>
   </si>
   <si>
-    <t>2023-08-29</t>
+    <t>2023-10-16</t>
+  </si>
+  <si>
+    <t>2023-10-18</t>
   </si>
   <si>
     <t>2023-09-25</t>
@@ -136,21 +136,24 @@
     <t>두산로보틱스</t>
   </si>
   <si>
+    <t>KB제27호스팩</t>
+  </si>
+  <si>
     <t>한싹</t>
   </si>
   <si>
-    <t>대신밸런스제16호스팩</t>
+    <t>유진테크놀로지</t>
+  </si>
+  <si>
+    <t>밀리의서재</t>
+  </si>
+  <si>
+    <t>신성에스티</t>
   </si>
   <si>
     <t>퓨릿</t>
   </si>
   <si>
-    <t>밀리의서재</t>
-  </si>
-  <si>
-    <t>신성에스티</t>
-  </si>
-  <si>
     <t>레뷰코퍼레이션</t>
   </si>
   <si>
@@ -160,16 +163,22 @@
     <t>인스웨이브시스템즈</t>
   </si>
   <si>
+    <t>유투바이오</t>
+  </si>
+  <si>
     <t>신한제11호스팩</t>
   </si>
   <si>
     <t>아이엠티</t>
   </si>
   <si>
+    <t>워트</t>
+  </si>
+  <si>
     <t>에스엘에스바이오</t>
   </si>
   <si>
-    <t>한화플러스제4호스팩</t>
+    <t>퀄리타스반도체</t>
   </si>
   <si>
     <t>에이치엠씨제6호스팩</t>
@@ -187,34 +196,37 @@
     <t>2023-09-26</t>
   </si>
   <si>
+    <t>2023-10-27</t>
+  </si>
+  <si>
     <t>2023-09-22</t>
   </si>
   <si>
-    <t>2023-08-28</t>
+    <t>2023-10-26</t>
+  </si>
+  <si>
+    <t>2023-10-13</t>
   </si>
   <si>
     <t>2023-10-11</t>
   </si>
   <si>
-    <t>2023-10-13</t>
-  </si>
-  <si>
     <t>2023-09-07</t>
   </si>
   <si>
-    <t>2023-09-01</t>
+    <t>2023-10-19</t>
   </si>
   <si>
     <t>2023-10-04</t>
   </si>
   <si>
-    <t>2023-10-18</t>
+    <t>2023-11-03</t>
+  </si>
+  <si>
+    <t>2023-11-02</t>
   </si>
   <si>
     <t>2023-09-27</t>
-  </si>
-  <si>
-    <t>2023-10-19</t>
   </si>
   <si>
     <t>2023-10-06</t>
@@ -578,7 +590,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L24"/>
+  <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -627,22 +639,22 @@
         <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C2" t="s">
         <v>39</v>
       </c>
       <c r="D2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="F2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H2">
         <v>42120</v>
@@ -665,7 +677,7 @@
         <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
         <v>40</v>
@@ -677,19 +689,19 @@
         <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G3" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="H3">
-        <v>18750</v>
+        <v>25000</v>
       </c>
       <c r="I3">
-        <v>1500000</v>
+        <v>12500000</v>
       </c>
       <c r="J3">
-        <v>12500</v>
+        <v>2000</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -706,57 +718,57 @@
         <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D4" t="s">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="G4" t="s">
-        <v>32</v>
+        <v>67</v>
       </c>
       <c r="H4">
-        <v>42120</v>
+        <v>18750</v>
       </c>
       <c r="I4">
-        <v>16200000</v>
+        <v>1500000</v>
       </c>
       <c r="J4">
-        <v>26000</v>
+        <v>12500</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C5" t="s">
         <v>39</v>
       </c>
       <c r="D5" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E5" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="F5" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="G5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H5">
         <v>42120</v>
@@ -776,110 +788,110 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="E6" t="s">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c r="F6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H6">
-        <v>13000</v>
+        <v>42120</v>
       </c>
       <c r="I6">
-        <v>6500000</v>
+        <v>16200000</v>
       </c>
       <c r="J6">
-        <v>2000</v>
+        <v>26000</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>100</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C7" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D7" t="s">
-        <v>53</v>
+        <v>14</v>
       </c>
       <c r="E7" t="s">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="F7" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="G7" t="s">
-        <v>32</v>
+        <v>69</v>
       </c>
       <c r="H7">
-        <v>126360</v>
+        <v>17841.194</v>
       </c>
       <c r="I7">
-        <v>16200000</v>
+        <v>1049482</v>
       </c>
       <c r="J7">
-        <v>26000</v>
+        <v>17000</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>30</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F8" t="s">
-        <v>59</v>
+        <v>27</v>
       </c>
       <c r="G8" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="H8">
-        <v>44265.9</v>
+        <v>34500</v>
       </c>
       <c r="I8">
-        <v>4137000</v>
+        <v>1500000</v>
       </c>
       <c r="J8">
-        <v>10700</v>
+        <v>23000</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -890,34 +902,34 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F9" t="s">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="G9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H9">
-        <v>34500</v>
+        <v>52000</v>
       </c>
       <c r="I9">
-        <v>1500000</v>
+        <v>2000000</v>
       </c>
       <c r="J9">
-        <v>23000</v>
+        <v>26000</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -928,34 +940,34 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F10" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="G10" t="s">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="H10">
-        <v>52000</v>
+        <v>44265.9</v>
       </c>
       <c r="I10">
-        <v>2000000</v>
+        <v>4137000</v>
       </c>
       <c r="J10">
-        <v>26000</v>
+        <v>10700</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -966,72 +978,72 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" t="s">
+        <v>57</v>
+      </c>
+      <c r="F11" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11" t="s">
+        <v>33</v>
+      </c>
+      <c r="H11">
+        <v>126360</v>
+      </c>
+      <c r="I11">
+        <v>16200000</v>
+      </c>
+      <c r="J11">
+        <v>26000</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
         <v>30</v>
-      </c>
-      <c r="C11" t="s">
-        <v>45</v>
-      </c>
-      <c r="D11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" t="s">
-        <v>57</v>
-      </c>
-      <c r="G11" t="s">
-        <v>67</v>
-      </c>
-      <c r="H11">
-        <v>33600</v>
-      </c>
-      <c r="I11">
-        <v>2240000</v>
-      </c>
-      <c r="J11">
-        <v>15000</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11">
-        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C12" t="s">
         <v>46</v>
       </c>
       <c r="D12" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E12" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F12" t="s">
         <v>61</v>
       </c>
       <c r="G12" t="s">
-        <v>36</v>
+        <v>71</v>
       </c>
       <c r="H12">
-        <v>9000</v>
+        <v>33600</v>
       </c>
       <c r="I12">
-        <v>4500000</v>
+        <v>2240000</v>
       </c>
       <c r="J12">
-        <v>2000</v>
+        <v>15000</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -1042,60 +1054,60 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C13" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="D13" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="E13" t="s">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="F13" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="G13" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H13">
-        <v>12636</v>
+        <v>9000</v>
       </c>
       <c r="I13">
-        <v>16200000</v>
+        <v>4500000</v>
       </c>
       <c r="J13">
-        <v>26000</v>
+        <v>2000</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>3</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G14" t="s">
         <v>38</v>
@@ -1118,294 +1130,294 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C15" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="D15" t="s">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="E15" t="s">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="F15" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G15" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="H15">
-        <v>36000</v>
+        <v>12636</v>
       </c>
       <c r="I15">
-        <v>18000000</v>
+        <v>16200000</v>
       </c>
       <c r="J15">
-        <v>2000</v>
+        <v>26000</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>100</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C16" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="D16" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="E16" t="s">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="F16" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="G16" t="s">
-        <v>32</v>
+        <v>69</v>
       </c>
       <c r="H16">
-        <v>4212</v>
+        <v>4966.368</v>
       </c>
       <c r="I16">
-        <v>16200000</v>
+        <v>1128720</v>
       </c>
       <c r="J16">
-        <v>26000</v>
+        <v>4400</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:12">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C17" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E17" t="s">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="F17" t="s">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="G17" t="s">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="H17">
-        <v>15484</v>
+        <v>36000</v>
       </c>
       <c r="I17">
-        <v>1580000</v>
+        <v>18000000</v>
       </c>
       <c r="J17">
-        <v>14000</v>
+        <v>2000</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>70</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:12">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" t="s">
+        <v>56</v>
+      </c>
+      <c r="E18" t="s">
+        <v>57</v>
+      </c>
+      <c r="F18" t="s">
+        <v>59</v>
+      </c>
+      <c r="G18" t="s">
         <v>33</v>
       </c>
-      <c r="C18" t="s">
-        <v>49</v>
-      </c>
-      <c r="D18" t="s">
-        <v>22</v>
-      </c>
-      <c r="E18" t="s">
-        <v>55</v>
-      </c>
-      <c r="F18" t="s">
-        <v>29</v>
-      </c>
-      <c r="G18" t="s">
-        <v>34</v>
-      </c>
       <c r="H18">
-        <v>6636</v>
+        <v>4212</v>
       </c>
       <c r="I18">
-        <v>1580000</v>
+        <v>16200000</v>
       </c>
       <c r="J18">
-        <v>14000</v>
+        <v>26000</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>30</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C19" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="D19" t="s">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="E19" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="F19" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="G19" t="s">
         <v>32</v>
       </c>
       <c r="H19">
-        <v>12636</v>
+        <v>15484</v>
       </c>
       <c r="I19">
-        <v>16200000</v>
+        <v>1580000</v>
       </c>
       <c r="J19">
-        <v>26000</v>
+        <v>14000</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>3</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C20" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D20" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E20" t="s">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="F20" t="s">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="G20" t="s">
-        <v>68</v>
+        <v>32</v>
       </c>
       <c r="H20">
-        <v>5390</v>
+        <v>6636</v>
       </c>
       <c r="I20">
-        <v>770000</v>
+        <v>1580000</v>
       </c>
       <c r="J20">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>100</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:12">
       <c r="A21" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C21" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="D21" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="E21" t="s">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="F21" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="G21" t="s">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="H21">
-        <v>12636</v>
+        <v>26000</v>
       </c>
       <c r="I21">
-        <v>16200000</v>
+        <v>4000000</v>
       </c>
       <c r="J21">
-        <v>26000</v>
+        <v>6500</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>3</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:12">
       <c r="A22" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C22" t="s">
         <v>39</v>
       </c>
       <c r="D22" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E22" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="F22" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="G22" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H22">
-        <v>126360</v>
+        <v>12636</v>
       </c>
       <c r="I22">
         <v>16200000</v>
@@ -1417,39 +1429,39 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>30</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:12">
       <c r="A23" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C23" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D23" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E23" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F23" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G23" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="H23">
-        <v>9500</v>
+        <v>5390</v>
       </c>
       <c r="I23">
-        <v>4750000</v>
+        <v>770000</v>
       </c>
       <c r="J23">
-        <v>2000</v>
+        <v>7000</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1460,39 +1472,153 @@
     </row>
     <row r="24" spans="1:12">
       <c r="A24" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B24" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" t="s">
+        <v>39</v>
+      </c>
+      <c r="D24" t="s">
+        <v>56</v>
+      </c>
+      <c r="E24" t="s">
+        <v>57</v>
+      </c>
+      <c r="F24" t="s">
+        <v>59</v>
+      </c>
+      <c r="G24" t="s">
+        <v>33</v>
+      </c>
+      <c r="H24">
+        <v>12636</v>
+      </c>
+      <c r="I24">
+        <v>16200000</v>
+      </c>
+      <c r="J24">
+        <v>26000</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>37</v>
+      </c>
+      <c r="C25" t="s">
+        <v>54</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25" t="s">
+        <v>25</v>
+      </c>
+      <c r="F25" t="s">
+        <v>30</v>
+      </c>
+      <c r="G25" t="s">
+        <v>60</v>
+      </c>
+      <c r="H25">
+        <v>30600</v>
+      </c>
+      <c r="I25">
+        <v>1800000</v>
+      </c>
+      <c r="J25">
+        <v>17000</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" t="s">
+        <v>39</v>
+      </c>
+      <c r="D26" t="s">
+        <v>56</v>
+      </c>
+      <c r="E26" t="s">
+        <v>57</v>
+      </c>
+      <c r="F26" t="s">
+        <v>59</v>
+      </c>
+      <c r="G26" t="s">
+        <v>33</v>
+      </c>
+      <c r="H26">
+        <v>126360</v>
+      </c>
+      <c r="I26">
+        <v>16200000</v>
+      </c>
+      <c r="J26">
+        <v>26000</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
         <v>38</v>
       </c>
-      <c r="C24" t="s">
-        <v>52</v>
-      </c>
-      <c r="D24" t="s">
-        <v>28</v>
-      </c>
-      <c r="E24" t="s">
-        <v>28</v>
-      </c>
-      <c r="F24" t="s">
+      <c r="C27" t="s">
+        <v>55</v>
+      </c>
+      <c r="D27" t="s">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>26</v>
+      </c>
+      <c r="F27" t="s">
+        <v>67</v>
+      </c>
+      <c r="G27" t="s">
         <v>63</v>
       </c>
-      <c r="G24" t="s">
-        <v>60</v>
-      </c>
-      <c r="H24">
+      <c r="H27">
         <v>8000</v>
       </c>
-      <c r="I24">
+      <c r="I27">
         <v>4000000</v>
       </c>
-      <c r="J24">
+      <c r="J27">
         <v>2000</v>
       </c>
-      <c r="K24">
-        <v>0</v>
-      </c>
-      <c r="L24">
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
         <v>100</v>
       </c>
     </row>

--- a/datasets/form3.xlsx
+++ b/datasets/form3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="69">
   <si>
     <t>인수기관</t>
   </si>
@@ -67,9 +67,6 @@
     <t>삼성</t>
   </si>
   <si>
-    <t>상상인</t>
-  </si>
-  <si>
     <t>신영</t>
   </si>
   <si>
@@ -109,18 +106,15 @@
     <t>2023-10-23</t>
   </si>
   <si>
+    <t>2023-10-10</t>
+  </si>
+  <si>
+    <t>2023-10-05</t>
+  </si>
+  <si>
     <t>2023-09-18</t>
   </si>
   <si>
-    <t>2023-10-10</t>
-  </si>
-  <si>
-    <t>2023-10-05</t>
-  </si>
-  <si>
-    <t>2023-09-04</t>
-  </si>
-  <si>
     <t>2023-09-14</t>
   </si>
   <si>
@@ -145,21 +139,18 @@
     <t>유진테크놀로지</t>
   </si>
   <si>
+    <t>신성에스티</t>
+  </si>
+  <si>
+    <t>퓨릿</t>
+  </si>
+  <si>
     <t>밀리의서재</t>
   </si>
   <si>
-    <t>신성에스티</t>
-  </si>
-  <si>
-    <t>퓨릿</t>
-  </si>
-  <si>
     <t>레뷰코퍼레이션</t>
   </si>
   <si>
-    <t>상상인제4호스팩</t>
-  </si>
-  <si>
     <t>인스웨이브시스템즈</t>
   </si>
   <si>
@@ -209,9 +200,6 @@
   </si>
   <si>
     <t>2023-10-11</t>
-  </si>
-  <si>
-    <t>2023-09-07</t>
   </si>
   <si>
     <t>2023-10-19</t>
@@ -590,7 +578,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L27"/>
+  <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -639,22 +627,22 @@
         <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F2" t="s">
         <v>56</v>
       </c>
-      <c r="E2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F2" t="s">
-        <v>59</v>
-      </c>
       <c r="G2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H2">
         <v>42120</v>
@@ -677,10 +665,10 @@
         <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D3" t="s">
         <v>13</v>
@@ -689,10 +677,10 @@
         <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H3">
         <v>25000</v>
@@ -715,10 +703,10 @@
         <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D4" t="s">
         <v>13</v>
@@ -727,10 +715,10 @@
         <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G4" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="H4">
         <v>18750</v>
@@ -753,22 +741,22 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F5" t="s">
         <v>56</v>
       </c>
-      <c r="E5" t="s">
-        <v>57</v>
-      </c>
-      <c r="F5" t="s">
-        <v>59</v>
-      </c>
       <c r="G5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H5">
         <v>42120</v>
@@ -791,22 +779,22 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F6" t="s">
         <v>56</v>
       </c>
-      <c r="E6" t="s">
-        <v>57</v>
-      </c>
-      <c r="F6" t="s">
-        <v>59</v>
-      </c>
       <c r="G6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H6">
         <v>42120</v>
@@ -829,10 +817,10 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D7" t="s">
         <v>14</v>
@@ -841,10 +829,10 @@
         <v>14</v>
       </c>
       <c r="F7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G7" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="H7">
         <v>17841.194</v>
@@ -867,10 +855,10 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D8" t="s">
         <v>15</v>
@@ -879,19 +867,19 @@
         <v>15</v>
       </c>
       <c r="F8" t="s">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="G8" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="H8">
-        <v>34500</v>
+        <v>52000</v>
       </c>
       <c r="I8">
-        <v>1500000</v>
+        <v>2000000</v>
       </c>
       <c r="J8">
-        <v>23000</v>
+        <v>26000</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -905,10 +893,10 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D9" t="s">
         <v>15</v>
@@ -917,19 +905,19 @@
         <v>15</v>
       </c>
       <c r="F9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G9" t="s">
-        <v>66</v>
+        <v>35</v>
       </c>
       <c r="H9">
-        <v>52000</v>
+        <v>44265.9</v>
       </c>
       <c r="I9">
-        <v>2000000</v>
+        <v>4137000</v>
       </c>
       <c r="J9">
-        <v>26000</v>
+        <v>10700</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -943,37 +931,37 @@
         <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D10" t="s">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="E10" t="s">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="F10" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="G10" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H10">
-        <v>44265.9</v>
+        <v>126360</v>
       </c>
       <c r="I10">
-        <v>4137000</v>
+        <v>16200000</v>
       </c>
       <c r="J10">
-        <v>10700</v>
+        <v>26000</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>100</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -981,37 +969,37 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C11" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D11" t="s">
-        <v>56</v>
+        <v>15</v>
       </c>
       <c r="E11" t="s">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="F11" t="s">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="G11" t="s">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="H11">
-        <v>126360</v>
+        <v>34500</v>
       </c>
       <c r="I11">
-        <v>16200000</v>
+        <v>1500000</v>
       </c>
       <c r="J11">
-        <v>26000</v>
+        <v>23000</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>30</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -1019,10 +1007,10 @@
         <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C12" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D12" t="s">
         <v>16</v>
@@ -1031,10 +1019,10 @@
         <v>16</v>
       </c>
       <c r="F12" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G12" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="H12">
         <v>33600</v>
@@ -1057,10 +1045,10 @@
         <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C13" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D13" t="s">
         <v>17</v>
@@ -1069,19 +1057,19 @@
         <v>17</v>
       </c>
       <c r="F13" t="s">
-        <v>65</v>
+        <v>28</v>
       </c>
       <c r="G13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H13">
-        <v>9000</v>
+        <v>26400</v>
       </c>
       <c r="I13">
-        <v>4500000</v>
+        <v>1100000</v>
       </c>
       <c r="J13">
-        <v>2000</v>
+        <v>24000</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1092,40 +1080,40 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="D14" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="E14" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="F14" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="G14" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H14">
-        <v>26400</v>
+        <v>12636</v>
       </c>
       <c r="I14">
-        <v>1100000</v>
+        <v>16200000</v>
       </c>
       <c r="J14">
-        <v>24000</v>
+        <v>26000</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>100</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -1133,69 +1121,69 @@
         <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C15" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="D15" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="E15" t="s">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="F15" t="s">
         <v>59</v>
       </c>
       <c r="G15" t="s">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="H15">
-        <v>12636</v>
+        <v>4966.368</v>
       </c>
       <c r="I15">
-        <v>16200000</v>
+        <v>1128720</v>
       </c>
       <c r="J15">
-        <v>26000</v>
+        <v>4400</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>3</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C16" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F16" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G16" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="H16">
-        <v>4966.368</v>
+        <v>36000</v>
       </c>
       <c r="I16">
-        <v>1128720</v>
+        <v>18000000</v>
       </c>
       <c r="J16">
-        <v>4400</v>
+        <v>2000</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1209,37 +1197,37 @@
         <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="D17" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="E17" t="s">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="F17" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="G17" t="s">
-        <v>67</v>
+        <v>31</v>
       </c>
       <c r="H17">
-        <v>36000</v>
+        <v>4212</v>
       </c>
       <c r="I17">
-        <v>18000000</v>
+        <v>16200000</v>
       </c>
       <c r="J17">
-        <v>2000</v>
+        <v>26000</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>100</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1247,37 +1235,37 @@
         <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C18" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="D18" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="E18" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F18" t="s">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="G18" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H18">
-        <v>4212</v>
+        <v>15484</v>
       </c>
       <c r="I18">
-        <v>16200000</v>
+        <v>1580000</v>
       </c>
       <c r="J18">
-        <v>26000</v>
+        <v>14000</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>1</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1285,25 +1273,25 @@
         <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C19" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E19" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G19" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H19">
-        <v>15484</v>
+        <v>6636</v>
       </c>
       <c r="I19">
         <v>1580000</v>
@@ -1315,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>70</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1323,75 +1311,75 @@
         <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C20" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D20" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E20" t="s">
-        <v>58</v>
+        <v>22</v>
       </c>
       <c r="F20" t="s">
-        <v>27</v>
+        <v>62</v>
       </c>
       <c r="G20" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="H20">
-        <v>6636</v>
+        <v>26000</v>
       </c>
       <c r="I20">
-        <v>1580000</v>
+        <v>4000000</v>
       </c>
       <c r="J20">
-        <v>14000</v>
+        <v>6500</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>30</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:12">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="D21" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="E21" t="s">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="F21" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="G21" t="s">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="H21">
+        <v>12636</v>
+      </c>
+      <c r="I21">
+        <v>16200000</v>
+      </c>
+      <c r="J21">
         <v>26000</v>
       </c>
-      <c r="I21">
-        <v>4000000</v>
-      </c>
-      <c r="J21">
-        <v>6500</v>
-      </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>100</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1399,75 +1387,75 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C22" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="D22" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="E22" t="s">
-        <v>57</v>
+        <v>23</v>
       </c>
       <c r="F22" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G22" t="s">
-        <v>33</v>
+        <v>68</v>
       </c>
       <c r="H22">
-        <v>12636</v>
+        <v>5390</v>
       </c>
       <c r="I22">
-        <v>16200000</v>
+        <v>770000</v>
       </c>
       <c r="J22">
-        <v>26000</v>
+        <v>7000</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>3</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:12">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23" t="s">
         <v>53</v>
       </c>
-      <c r="D23" t="s">
-        <v>24</v>
-      </c>
       <c r="E23" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="F23" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="G23" t="s">
-        <v>72</v>
+        <v>31</v>
       </c>
       <c r="H23">
-        <v>5390</v>
+        <v>12636</v>
       </c>
       <c r="I23">
-        <v>770000</v>
+        <v>16200000</v>
       </c>
       <c r="J23">
-        <v>7000</v>
+        <v>26000</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>100</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1475,75 +1463,75 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="C24" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="D24" t="s">
-        <v>56</v>
+        <v>24</v>
       </c>
       <c r="E24" t="s">
+        <v>24</v>
+      </c>
+      <c r="F24" t="s">
+        <v>29</v>
+      </c>
+      <c r="G24" t="s">
         <v>57</v>
       </c>
-      <c r="F24" t="s">
-        <v>59</v>
-      </c>
-      <c r="G24" t="s">
-        <v>33</v>
-      </c>
       <c r="H24">
-        <v>12636</v>
+        <v>30600</v>
       </c>
       <c r="I24">
-        <v>16200000</v>
+        <v>1800000</v>
       </c>
       <c r="J24">
-        <v>26000</v>
+        <v>17000</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>3</v>
+        <v>100</v>
       </c>
     </row>
     <row r="25" spans="1:12">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
         <v>37</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
+        <v>53</v>
+      </c>
+      <c r="E25" t="s">
         <v>54</v>
       </c>
-      <c r="D25" t="s">
-        <v>25</v>
-      </c>
-      <c r="E25" t="s">
-        <v>25</v>
-      </c>
       <c r="F25" t="s">
+        <v>56</v>
+      </c>
+      <c r="G25" t="s">
+        <v>31</v>
+      </c>
+      <c r="H25">
+        <v>126360</v>
+      </c>
+      <c r="I25">
+        <v>16200000</v>
+      </c>
+      <c r="J25">
+        <v>26000</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
         <v>30</v>
-      </c>
-      <c r="G25" t="s">
-        <v>60</v>
-      </c>
-      <c r="H25">
-        <v>30600</v>
-      </c>
-      <c r="I25">
-        <v>1800000</v>
-      </c>
-      <c r="J25">
-        <v>17000</v>
-      </c>
-      <c r="K25">
-        <v>0</v>
-      </c>
-      <c r="L25">
-        <v>100</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -1551,74 +1539,36 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="C26" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="D26" t="s">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>57</v>
+        <v>25</v>
       </c>
       <c r="F26" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="G26" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="H26">
-        <v>126360</v>
+        <v>8000</v>
       </c>
       <c r="I26">
-        <v>16200000</v>
+        <v>4000000</v>
       </c>
       <c r="J26">
-        <v>26000</v>
+        <v>2000</v>
       </c>
       <c r="K26">
         <v>0</v>
       </c>
       <c r="L26">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12">
-      <c r="A27" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27" t="s">
-        <v>38</v>
-      </c>
-      <c r="C27" t="s">
-        <v>55</v>
-      </c>
-      <c r="D27" t="s">
-        <v>26</v>
-      </c>
-      <c r="E27" t="s">
-        <v>26</v>
-      </c>
-      <c r="F27" t="s">
-        <v>67</v>
-      </c>
-      <c r="G27" t="s">
-        <v>63</v>
-      </c>
-      <c r="H27">
-        <v>8000</v>
-      </c>
-      <c r="I27">
-        <v>4000000</v>
-      </c>
-      <c r="J27">
-        <v>2000</v>
-      </c>
-      <c r="K27">
-        <v>0</v>
-      </c>
-      <c r="L27">
         <v>100</v>
       </c>
     </row>

--- a/datasets/form3.xlsx
+++ b/datasets/form3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="72">
   <si>
     <t>인수기관</t>
   </si>
@@ -97,6 +97,9 @@
     <t>2023-09-21</t>
   </si>
   <si>
+    <t>2023-10-26</t>
+  </si>
+  <si>
     <t>2023-10-24</t>
   </si>
   <si>
@@ -130,6 +133,9 @@
     <t>두산로보틱스</t>
   </si>
   <si>
+    <t>쏘닉스</t>
+  </si>
+  <si>
     <t>KB제27호스팩</t>
   </si>
   <si>
@@ -187,15 +193,15 @@
     <t>2023-09-26</t>
   </si>
   <si>
+    <t>2023-10-31</t>
+  </si>
+  <si>
     <t>2023-10-27</t>
   </si>
   <si>
     <t>2023-09-22</t>
   </si>
   <si>
-    <t>2023-10-26</t>
-  </si>
-  <si>
     <t>2023-10-13</t>
   </si>
   <si>
@@ -206,6 +212,9 @@
   </si>
   <si>
     <t>2023-10-04</t>
+  </si>
+  <si>
+    <t>2023-11-07</t>
   </si>
   <si>
     <t>2023-11-03</t>
@@ -578,7 +587,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L26"/>
+  <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -630,19 +639,19 @@
         <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H2">
         <v>42120</v>
@@ -668,7 +677,7 @@
         <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D3" t="s">
         <v>13</v>
@@ -677,19 +686,19 @@
         <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H3">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="I3">
-        <v>12500000</v>
+        <v>3600000</v>
       </c>
       <c r="J3">
-        <v>2000</v>
+        <v>7500</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -706,7 +715,7 @@
         <v>28</v>
       </c>
       <c r="C4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D4" t="s">
         <v>13</v>
@@ -715,19 +724,19 @@
         <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G4" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="H4">
-        <v>18750</v>
+        <v>25000</v>
       </c>
       <c r="I4">
-        <v>1500000</v>
+        <v>12500000</v>
       </c>
       <c r="J4">
-        <v>12500</v>
+        <v>2000</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -741,60 +750,60 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D5" t="s">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="F5" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="G5" t="s">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="H5">
-        <v>42120</v>
+        <v>18750</v>
       </c>
       <c r="I5">
-        <v>16200000</v>
+        <v>1500000</v>
       </c>
       <c r="J5">
-        <v>26000</v>
+        <v>12500</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D6" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E6" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F6" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H6">
         <v>42120</v>
@@ -817,69 +826,69 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="F7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G7" t="s">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="H7">
-        <v>17841.194</v>
+        <v>42120</v>
       </c>
       <c r="I7">
-        <v>1049482</v>
+        <v>16200000</v>
       </c>
       <c r="J7">
-        <v>17000</v>
+        <v>26000</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>100</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
         <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F8" t="s">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="G8" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="H8">
-        <v>52000</v>
+        <v>17841.194</v>
       </c>
       <c r="I8">
-        <v>2000000</v>
+        <v>1049482</v>
       </c>
       <c r="J8">
-        <v>26000</v>
+        <v>17000</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -896,7 +905,7 @@
         <v>31</v>
       </c>
       <c r="C9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D9" t="s">
         <v>15</v>
@@ -905,19 +914,19 @@
         <v>15</v>
       </c>
       <c r="F9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G9" t="s">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="H9">
-        <v>44265.9</v>
+        <v>52000</v>
       </c>
       <c r="I9">
-        <v>4137000</v>
+        <v>2000000</v>
       </c>
       <c r="J9">
-        <v>10700</v>
+        <v>26000</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -931,37 +940,37 @@
         <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C10" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="D10" t="s">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="E10" t="s">
-        <v>54</v>
+        <v>15</v>
       </c>
       <c r="F10" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="G10" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H10">
-        <v>126360</v>
+        <v>44265.9</v>
       </c>
       <c r="I10">
-        <v>16200000</v>
+        <v>4137000</v>
       </c>
       <c r="J10">
-        <v>26000</v>
+        <v>10700</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>30</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -969,69 +978,69 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11" t="s">
+        <v>56</v>
+      </c>
+      <c r="F11" t="s">
+        <v>58</v>
+      </c>
+      <c r="G11" t="s">
         <v>32</v>
       </c>
-      <c r="C11" t="s">
-        <v>43</v>
-      </c>
-      <c r="D11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G11" t="s">
-        <v>66</v>
-      </c>
       <c r="H11">
-        <v>34500</v>
+        <v>126360</v>
       </c>
       <c r="I11">
-        <v>1500000</v>
+        <v>16200000</v>
       </c>
       <c r="J11">
-        <v>23000</v>
+        <v>26000</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>100</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F12" t="s">
-        <v>58</v>
+        <v>26</v>
       </c>
       <c r="G12" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H12">
-        <v>33600</v>
+        <v>34500</v>
       </c>
       <c r="I12">
-        <v>2240000</v>
+        <v>1500000</v>
       </c>
       <c r="J12">
-        <v>15000</v>
+        <v>23000</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -1042,34 +1051,34 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F13" t="s">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="G13" t="s">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="H13">
-        <v>26400</v>
+        <v>33600</v>
       </c>
       <c r="I13">
-        <v>1100000</v>
+        <v>2240000</v>
       </c>
       <c r="J13">
-        <v>24000</v>
+        <v>15000</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1083,75 +1092,75 @@
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" t="s">
+        <v>29</v>
+      </c>
+      <c r="G14" t="s">
         <v>37</v>
       </c>
-      <c r="D14" t="s">
-        <v>53</v>
-      </c>
-      <c r="E14" t="s">
-        <v>54</v>
-      </c>
-      <c r="F14" t="s">
-        <v>56</v>
-      </c>
-      <c r="G14" t="s">
-        <v>31</v>
-      </c>
       <c r="H14">
-        <v>12636</v>
+        <v>26400</v>
       </c>
       <c r="I14">
-        <v>16200000</v>
+        <v>1100000</v>
       </c>
       <c r="J14">
-        <v>26000</v>
+        <v>24000</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>3</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D15" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="E15" t="s">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="F15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G15" t="s">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="H15">
-        <v>4966.368</v>
+        <v>12636</v>
       </c>
       <c r="I15">
-        <v>1128720</v>
+        <v>16200000</v>
       </c>
       <c r="J15">
-        <v>4400</v>
+        <v>26000</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>100</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -1159,10 +1168,10 @@
         <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D16" t="s">
         <v>18</v>
@@ -1171,19 +1180,19 @@
         <v>18</v>
       </c>
       <c r="F16" t="s">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="G16" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="H16">
-        <v>36000</v>
+        <v>4966.368</v>
       </c>
       <c r="I16">
-        <v>18000000</v>
+        <v>1128720</v>
       </c>
       <c r="J16">
-        <v>2000</v>
+        <v>4400</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1194,104 +1203,104 @@
     </row>
     <row r="17" spans="1:12">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C17" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="D17" t="s">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="E17" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="F17" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="G17" t="s">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="H17">
-        <v>4212</v>
+        <v>36000</v>
       </c>
       <c r="I17">
-        <v>16200000</v>
+        <v>18000000</v>
       </c>
       <c r="J17">
-        <v>26000</v>
+        <v>2000</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:12">
       <c r="A18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" t="s">
+        <v>55</v>
+      </c>
+      <c r="E18" t="s">
+        <v>56</v>
+      </c>
+      <c r="F18" t="s">
+        <v>58</v>
+      </c>
+      <c r="G18" t="s">
         <v>32</v>
       </c>
-      <c r="C18" t="s">
-        <v>48</v>
-      </c>
-      <c r="D18" t="s">
-        <v>20</v>
-      </c>
-      <c r="E18" t="s">
-        <v>55</v>
-      </c>
-      <c r="F18" t="s">
-        <v>26</v>
-      </c>
-      <c r="G18" t="s">
-        <v>30</v>
-      </c>
       <c r="H18">
-        <v>15484</v>
+        <v>4212</v>
       </c>
       <c r="I18">
-        <v>1580000</v>
+        <v>16200000</v>
       </c>
       <c r="J18">
-        <v>14000</v>
+        <v>26000</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>70</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C19" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D19" t="s">
         <v>20</v>
       </c>
       <c r="E19" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F19" t="s">
         <v>26</v>
       </c>
       <c r="G19" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H19">
-        <v>6636</v>
+        <v>15484</v>
       </c>
       <c r="I19">
         <v>1580000</v>
@@ -1303,45 +1312,45 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>30</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C20" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E20" t="s">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="F20" t="s">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="G20" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="H20">
-        <v>26000</v>
+        <v>6636</v>
       </c>
       <c r="I20">
-        <v>4000000</v>
+        <v>1580000</v>
       </c>
       <c r="J20">
-        <v>6500</v>
+        <v>14000</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>100</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1352,19 +1361,19 @@
         <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D21" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E21" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F21" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G21" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H21">
         <v>12636</v>
@@ -1384,34 +1393,34 @@
     </row>
     <row r="22" spans="1:12">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C22" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F22" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="G22" t="s">
-        <v>68</v>
+        <v>27</v>
       </c>
       <c r="H22">
-        <v>5390</v>
+        <v>26000</v>
       </c>
       <c r="I22">
-        <v>770000</v>
+        <v>4000000</v>
       </c>
       <c r="J22">
-        <v>7000</v>
+        <v>6500</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1428,19 +1437,19 @@
         <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D23" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E23" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F23" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G23" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H23">
         <v>12636</v>
@@ -1460,34 +1469,34 @@
     </row>
     <row r="24" spans="1:12">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C24" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F24" t="s">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="G24" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="H24">
-        <v>30600</v>
+        <v>5390</v>
       </c>
       <c r="I24">
-        <v>1800000</v>
+        <v>770000</v>
       </c>
       <c r="J24">
-        <v>17000</v>
+        <v>7000</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1501,74 +1510,112 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C25" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="D25" t="s">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="F25" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="G25" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="H25">
-        <v>126360</v>
+        <v>30600</v>
       </c>
       <c r="I25">
-        <v>16200000</v>
+        <v>1800000</v>
       </c>
       <c r="J25">
-        <v>26000</v>
+        <v>17000</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>30</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26" spans="1:12">
       <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>38</v>
+      </c>
+      <c r="D26" t="s">
+        <v>55</v>
+      </c>
+      <c r="E26" t="s">
+        <v>56</v>
+      </c>
+      <c r="F26" t="s">
+        <v>58</v>
+      </c>
+      <c r="G26" t="s">
+        <v>32</v>
+      </c>
+      <c r="H26">
+        <v>126360</v>
+      </c>
+      <c r="I26">
+        <v>16200000</v>
+      </c>
+      <c r="J26">
+        <v>26000</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" t="s">
         <v>25</v>
       </c>
-      <c r="B26" t="s">
-        <v>36</v>
-      </c>
-      <c r="C26" t="s">
-        <v>52</v>
-      </c>
-      <c r="D26" t="s">
+      <c r="B27" t="s">
+        <v>37</v>
+      </c>
+      <c r="C27" t="s">
+        <v>54</v>
+      </c>
+      <c r="D27" t="s">
         <v>25</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E27" t="s">
         <v>25</v>
       </c>
-      <c r="F26" t="s">
-        <v>63</v>
-      </c>
-      <c r="G26" t="s">
-        <v>60</v>
-      </c>
-      <c r="H26">
+      <c r="F27" t="s">
+        <v>65</v>
+      </c>
+      <c r="G27" t="s">
+        <v>62</v>
+      </c>
+      <c r="H27">
         <v>8000</v>
       </c>
-      <c r="I26">
+      <c r="I27">
         <v>4000000</v>
       </c>
-      <c r="J26">
+      <c r="J27">
         <v>2000</v>
       </c>
-      <c r="K26">
-        <v>0</v>
-      </c>
-      <c r="L26">
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
         <v>100</v>
       </c>
     </row>

--- a/datasets/form3.xlsx
+++ b/datasets/form3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="81">
   <si>
     <t>인수기관</t>
   </si>
@@ -55,12 +55,18 @@
     <t>CS</t>
   </si>
   <si>
+    <t>IBK</t>
+  </si>
+  <si>
     <t>KB</t>
   </si>
   <si>
     <t>NH</t>
   </si>
   <si>
+    <t>대신</t>
+  </si>
+  <si>
     <t>미래</t>
   </si>
   <si>
@@ -97,6 +103,9 @@
     <t>2023-09-21</t>
   </si>
   <si>
+    <t>2023-10-31</t>
+  </si>
+  <si>
     <t>2023-10-26</t>
   </si>
   <si>
@@ -109,15 +118,15 @@
     <t>2023-10-23</t>
   </si>
   <si>
+    <t>2023-09-18</t>
+  </si>
+  <si>
+    <t>2023-10-05</t>
+  </si>
+  <si>
     <t>2023-10-10</t>
   </si>
   <si>
-    <t>2023-10-05</t>
-  </si>
-  <si>
-    <t>2023-09-18</t>
-  </si>
-  <si>
     <t>2023-09-14</t>
   </si>
   <si>
@@ -133,6 +142,9 @@
     <t>두산로보틱스</t>
   </si>
   <si>
+    <t>비아이매트릭스</t>
+  </si>
+  <si>
     <t>쏘닉스</t>
   </si>
   <si>
@@ -142,30 +154,39 @@
     <t>한싹</t>
   </si>
   <si>
+    <t>메가터치</t>
+  </si>
+  <si>
     <t>유진테크놀로지</t>
   </si>
   <si>
+    <t>컨텍</t>
+  </si>
+  <si>
+    <t>밀리의서재</t>
+  </si>
+  <si>
+    <t>퓨릿</t>
+  </si>
+  <si>
+    <t>큐로셀</t>
+  </si>
+  <si>
     <t>신성에스티</t>
   </si>
   <si>
-    <t>퓨릿</t>
-  </si>
-  <si>
-    <t>밀리의서재</t>
-  </si>
-  <si>
     <t>레뷰코퍼레이션</t>
   </si>
   <si>
     <t>인스웨이브시스템즈</t>
   </si>
   <si>
+    <t>신한제11호스팩</t>
+  </si>
+  <si>
     <t>유투바이오</t>
   </si>
   <si>
-    <t>신한제11호스팩</t>
-  </si>
-  <si>
     <t>아이엠티</t>
   </si>
   <si>
@@ -184,6 +205,9 @@
     <t>한국, 미래</t>
   </si>
   <si>
+    <t>미래, 삼성</t>
+  </si>
+  <si>
     <t>한국, 미래, NH, KB, CS, 키움, 신영, 하나, 유비에스리미티드(영업소)</t>
   </si>
   <si>
@@ -193,7 +217,7 @@
     <t>2023-09-26</t>
   </si>
   <si>
-    <t>2023-10-31</t>
+    <t>2023-11-03</t>
   </si>
   <si>
     <t>2023-10-27</t>
@@ -202,22 +226,25 @@
     <t>2023-09-22</t>
   </si>
   <si>
+    <t>2023-10-11</t>
+  </si>
+  <si>
     <t>2023-10-13</t>
   </si>
   <si>
-    <t>2023-10-11</t>
-  </si>
-  <si>
     <t>2023-10-19</t>
   </si>
   <si>
     <t>2023-10-04</t>
   </si>
   <si>
+    <t>2023-11-09</t>
+  </si>
+  <si>
     <t>2023-11-07</t>
   </si>
   <si>
-    <t>2023-11-03</t>
+    <t>2023-11-10</t>
   </si>
   <si>
     <t>2023-11-02</t>
@@ -587,7 +614,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L27"/>
+  <dimension ref="A1:L32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -636,22 +663,22 @@
         <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="E2" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="F2" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H2">
         <v>42120</v>
@@ -674,10 +701,10 @@
         <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D3" t="s">
         <v>13</v>
@@ -686,19 +713,19 @@
         <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="G3" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="H3">
-        <v>27000</v>
+        <v>15600</v>
       </c>
       <c r="I3">
-        <v>3600000</v>
+        <v>1200000</v>
       </c>
       <c r="J3">
-        <v>7500</v>
+        <v>13000</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -709,34 +736,34 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C4" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F4" t="s">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="G4" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="H4">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="I4">
-        <v>12500000</v>
+        <v>3600000</v>
       </c>
       <c r="J4">
-        <v>2000</v>
+        <v>7500</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -747,34 +774,34 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C5" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F5" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="G5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H5">
-        <v>18750</v>
+        <v>25000</v>
       </c>
       <c r="I5">
-        <v>1500000</v>
+        <v>12500000</v>
       </c>
       <c r="J5">
-        <v>12500</v>
+        <v>2000</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -785,25 +812,25 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C6" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D6" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="E6" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="F6" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="G6" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H6">
         <v>42120</v>
@@ -826,75 +853,75 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C7" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="D7" t="s">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="E7" t="s">
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="F7" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="G7" t="s">
-        <v>32</v>
+        <v>73</v>
       </c>
       <c r="H7">
-        <v>42120</v>
+        <v>18750</v>
       </c>
       <c r="I7">
-        <v>16200000</v>
+        <v>1500000</v>
       </c>
       <c r="J7">
-        <v>26000</v>
+        <v>12500</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>62</v>
       </c>
       <c r="E8" t="s">
-        <v>14</v>
+        <v>64</v>
       </c>
       <c r="F8" t="s">
-        <v>27</v>
+        <v>66</v>
       </c>
       <c r="G8" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="H8">
-        <v>17841.194</v>
+        <v>42120</v>
       </c>
       <c r="I8">
-        <v>1049482</v>
+        <v>16200000</v>
       </c>
       <c r="J8">
-        <v>17000</v>
+        <v>26000</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>100</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -902,10 +929,10 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C9" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D9" t="s">
         <v>15</v>
@@ -914,19 +941,19 @@
         <v>15</v>
       </c>
       <c r="F9" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="G9" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="H9">
-        <v>52000</v>
+        <v>24960</v>
       </c>
       <c r="I9">
-        <v>2000000</v>
+        <v>5200000</v>
       </c>
       <c r="J9">
-        <v>26000</v>
+        <v>4800</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -940,10 +967,10 @@
         <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C10" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D10" t="s">
         <v>15</v>
@@ -952,19 +979,19 @@
         <v>15</v>
       </c>
       <c r="F10" t="s">
-        <v>63</v>
+        <v>30</v>
       </c>
       <c r="G10" t="s">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="H10">
-        <v>44265.9</v>
+        <v>17841.194</v>
       </c>
       <c r="I10">
-        <v>4137000</v>
+        <v>1049482</v>
       </c>
       <c r="J10">
-        <v>10700</v>
+        <v>17000</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -975,63 +1002,63 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C11" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="D11" t="s">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="E11" t="s">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="F11" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="G11" t="s">
-        <v>32</v>
+        <v>74</v>
       </c>
       <c r="H11">
-        <v>126360</v>
+        <v>46350</v>
       </c>
       <c r="I11">
-        <v>16200000</v>
+        <v>2060000</v>
       </c>
       <c r="J11">
-        <v>26000</v>
+        <v>22500</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>30</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C12" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D12" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E12" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F12" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G12" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="H12">
         <v>34500</v>
@@ -1051,34 +1078,34 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C13" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F13" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="G13" t="s">
-        <v>70</v>
+        <v>39</v>
       </c>
       <c r="H13">
-        <v>33600</v>
+        <v>44265.9</v>
       </c>
       <c r="I13">
-        <v>2240000</v>
+        <v>4137000</v>
       </c>
       <c r="J13">
-        <v>15000</v>
+        <v>10700</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1092,37 +1119,37 @@
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C14" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D14" t="s">
-        <v>17</v>
+        <v>63</v>
       </c>
       <c r="E14" t="s">
-        <v>17</v>
+        <v>63</v>
       </c>
       <c r="F14" t="s">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="G14" t="s">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="H14">
-        <v>26400</v>
+        <v>16000</v>
       </c>
       <c r="I14">
-        <v>1100000</v>
+        <v>1600000</v>
       </c>
       <c r="J14">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -1130,25 +1157,25 @@
         <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C15" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D15" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="E15" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="F15" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="G15" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H15">
-        <v>12636</v>
+        <v>126360</v>
       </c>
       <c r="I15">
         <v>16200000</v>
@@ -1160,39 +1187,39 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>3</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C16" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F16" t="s">
-        <v>27</v>
+        <v>71</v>
       </c>
       <c r="G16" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="H16">
-        <v>4966.368</v>
+        <v>52000</v>
       </c>
       <c r="I16">
-        <v>1128720</v>
+        <v>2000000</v>
       </c>
       <c r="J16">
-        <v>4400</v>
+        <v>26000</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1209,218 +1236,218 @@
         <v>29</v>
       </c>
       <c r="C17" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D17" t="s">
-        <v>18</v>
+        <v>63</v>
       </c>
       <c r="E17" t="s">
-        <v>18</v>
+        <v>63</v>
       </c>
       <c r="F17" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="G17" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="H17">
-        <v>36000</v>
+        <v>16000</v>
       </c>
       <c r="I17">
-        <v>18000000</v>
+        <v>1600000</v>
       </c>
       <c r="J17">
-        <v>2000</v>
+        <v>20000</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:12">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C18" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="D18" t="s">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="E18" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="F18" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="G18" t="s">
-        <v>32</v>
+        <v>79</v>
       </c>
       <c r="H18">
-        <v>4212</v>
+        <v>33600</v>
       </c>
       <c r="I18">
-        <v>16200000</v>
+        <v>2240000</v>
       </c>
       <c r="J18">
-        <v>26000</v>
+        <v>15000</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C19" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="D19" t="s">
-        <v>20</v>
+        <v>62</v>
       </c>
       <c r="E19" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="F19" t="s">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="G19" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H19">
-        <v>15484</v>
+        <v>12636</v>
       </c>
       <c r="I19">
-        <v>1580000</v>
+        <v>16200000</v>
       </c>
       <c r="J19">
-        <v>14000</v>
+        <v>26000</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>70</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C20" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>57</v>
+        <v>19</v>
       </c>
       <c r="F20" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G20" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H20">
-        <v>6636</v>
+        <v>26400</v>
       </c>
       <c r="I20">
-        <v>1580000</v>
+        <v>1100000</v>
       </c>
       <c r="J20">
-        <v>14000</v>
+        <v>24000</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>30</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:12">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C21" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="D21" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="F21" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="G21" t="s">
-        <v>32</v>
+        <v>73</v>
       </c>
       <c r="H21">
-        <v>12636</v>
+        <v>36000</v>
       </c>
       <c r="I21">
-        <v>16200000</v>
+        <v>18000000</v>
       </c>
       <c r="J21">
-        <v>26000</v>
+        <v>2000</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>3</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:12">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C22" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D22" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E22" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F22" t="s">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="G22" t="s">
-        <v>27</v>
+        <v>77</v>
       </c>
       <c r="H22">
-        <v>26000</v>
+        <v>4966.368</v>
       </c>
       <c r="I22">
-        <v>4000000</v>
+        <v>1128720</v>
       </c>
       <c r="J22">
-        <v>6500</v>
+        <v>4400</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1431,28 +1458,28 @@
     </row>
     <row r="23" spans="1:12">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C23" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D23" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="E23" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="F23" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="G23" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H23">
-        <v>12636</v>
+        <v>4212</v>
       </c>
       <c r="I23">
         <v>16200000</v>
@@ -1464,83 +1491,83 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:12">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C24" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="D24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E24" t="s">
-        <v>23</v>
+        <v>65</v>
       </c>
       <c r="F24" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="G24" t="s">
-        <v>71</v>
+        <v>36</v>
       </c>
       <c r="H24">
-        <v>5390</v>
+        <v>15484</v>
       </c>
       <c r="I24">
-        <v>770000</v>
+        <v>1580000</v>
       </c>
       <c r="J24">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>100</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25" spans="1:12">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" t="s">
+        <v>57</v>
+      </c>
+      <c r="D25" t="s">
+        <v>22</v>
+      </c>
+      <c r="E25" t="s">
+        <v>65</v>
+      </c>
+      <c r="F25" t="s">
+        <v>28</v>
+      </c>
+      <c r="G25" t="s">
         <v>36</v>
       </c>
-      <c r="C25" t="s">
-        <v>53</v>
-      </c>
-      <c r="D25" t="s">
-        <v>24</v>
-      </c>
-      <c r="E25" t="s">
-        <v>24</v>
-      </c>
-      <c r="F25" t="s">
+      <c r="H25">
+        <v>6636</v>
+      </c>
+      <c r="I25">
+        <v>1580000</v>
+      </c>
+      <c r="J25">
+        <v>14000</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
         <v>30</v>
-      </c>
-      <c r="G25" t="s">
-        <v>60</v>
-      </c>
-      <c r="H25">
-        <v>30600</v>
-      </c>
-      <c r="I25">
-        <v>1800000</v>
-      </c>
-      <c r="J25">
-        <v>17000</v>
-      </c>
-      <c r="K25">
-        <v>0</v>
-      </c>
-      <c r="L25">
-        <v>100</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -1548,25 +1575,25 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C26" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D26" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="E26" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="F26" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="G26" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H26">
-        <v>126360</v>
+        <v>12636</v>
       </c>
       <c r="I26">
         <v>16200000</v>
@@ -1578,44 +1605,234 @@
         <v>0</v>
       </c>
       <c r="L26">
-        <v>30</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:12">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C27" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F27" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="G27" t="s">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="H27">
-        <v>8000</v>
+        <v>26000</v>
       </c>
       <c r="I27">
         <v>4000000</v>
       </c>
       <c r="J27">
+        <v>6500</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>36</v>
+      </c>
+      <c r="C28" t="s">
+        <v>59</v>
+      </c>
+      <c r="D28" t="s">
+        <v>25</v>
+      </c>
+      <c r="E28" t="s">
+        <v>25</v>
+      </c>
+      <c r="F28" t="s">
+        <v>71</v>
+      </c>
+      <c r="G28" t="s">
+        <v>80</v>
+      </c>
+      <c r="H28">
+        <v>5390</v>
+      </c>
+      <c r="I28">
+        <v>770000</v>
+      </c>
+      <c r="J28">
+        <v>7000</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29" t="s">
+        <v>41</v>
+      </c>
+      <c r="D29" t="s">
+        <v>62</v>
+      </c>
+      <c r="E29" t="s">
+        <v>64</v>
+      </c>
+      <c r="F29" t="s">
+        <v>66</v>
+      </c>
+      <c r="G29" t="s">
+        <v>35</v>
+      </c>
+      <c r="H29">
+        <v>12636</v>
+      </c>
+      <c r="I29">
+        <v>16200000</v>
+      </c>
+      <c r="J29">
+        <v>26000</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" t="s">
+        <v>26</v>
+      </c>
+      <c r="B30" t="s">
+        <v>39</v>
+      </c>
+      <c r="C30" t="s">
+        <v>60</v>
+      </c>
+      <c r="D30" t="s">
+        <v>26</v>
+      </c>
+      <c r="E30" t="s">
+        <v>26</v>
+      </c>
+      <c r="F30" t="s">
+        <v>33</v>
+      </c>
+      <c r="G30" t="s">
+        <v>68</v>
+      </c>
+      <c r="H30">
+        <v>30600</v>
+      </c>
+      <c r="I30">
+        <v>1800000</v>
+      </c>
+      <c r="J30">
+        <v>17000</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" t="s">
+        <v>26</v>
+      </c>
+      <c r="B31" t="s">
+        <v>28</v>
+      </c>
+      <c r="C31" t="s">
+        <v>41</v>
+      </c>
+      <c r="D31" t="s">
+        <v>62</v>
+      </c>
+      <c r="E31" t="s">
+        <v>64</v>
+      </c>
+      <c r="F31" t="s">
+        <v>66</v>
+      </c>
+      <c r="G31" t="s">
+        <v>35</v>
+      </c>
+      <c r="H31">
+        <v>126360</v>
+      </c>
+      <c r="I31">
+        <v>16200000</v>
+      </c>
+      <c r="J31">
+        <v>26000</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" t="s">
+        <v>27</v>
+      </c>
+      <c r="B32" t="s">
+        <v>40</v>
+      </c>
+      <c r="C32" t="s">
+        <v>61</v>
+      </c>
+      <c r="D32" t="s">
+        <v>27</v>
+      </c>
+      <c r="E32" t="s">
+        <v>27</v>
+      </c>
+      <c r="F32" t="s">
+        <v>73</v>
+      </c>
+      <c r="G32" t="s">
+        <v>71</v>
+      </c>
+      <c r="H32">
+        <v>8000</v>
+      </c>
+      <c r="I32">
+        <v>4000000</v>
+      </c>
+      <c r="J32">
         <v>2000</v>
       </c>
-      <c r="K27">
-        <v>0</v>
-      </c>
-      <c r="L27">
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
         <v>100</v>
       </c>
     </row>

--- a/datasets/form3.xlsx
+++ b/datasets/form3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="88">
   <si>
     <t>인수기관</t>
   </si>
@@ -106,25 +106,31 @@
     <t>2023-10-31</t>
   </si>
   <si>
+    <t>2023-09-19</t>
+  </si>
+  <si>
+    <t>2023-11-01</t>
+  </si>
+  <si>
     <t>2023-10-26</t>
   </si>
   <si>
     <t>2023-10-24</t>
   </si>
   <si>
-    <t>2023-09-19</t>
-  </si>
-  <si>
     <t>2023-10-23</t>
   </si>
   <si>
     <t>2023-09-18</t>
   </si>
   <si>
+    <t>2023-10-10</t>
+  </si>
+  <si>
     <t>2023-10-05</t>
   </si>
   <si>
-    <t>2023-10-10</t>
+    <t>2023-11-02</t>
   </si>
   <si>
     <t>2023-09-14</t>
@@ -145,15 +151,18 @@
     <t>비아이매트릭스</t>
   </si>
   <si>
+    <t>한싹</t>
+  </si>
+  <si>
+    <t>에스와이스틸텍</t>
+  </si>
+  <si>
     <t>쏘닉스</t>
   </si>
   <si>
     <t>KB제27호스팩</t>
   </si>
   <si>
-    <t>한싹</t>
-  </si>
-  <si>
     <t>메가터치</t>
   </si>
   <si>
@@ -163,21 +172,24 @@
     <t>컨텍</t>
   </si>
   <si>
+    <t>큐로셀</t>
+  </si>
+  <si>
     <t>밀리의서재</t>
   </si>
   <si>
+    <t>신성에스티</t>
+  </si>
+  <si>
     <t>퓨릿</t>
   </si>
   <si>
-    <t>큐로셀</t>
-  </si>
-  <si>
-    <t>신성에스티</t>
-  </si>
-  <si>
     <t>레뷰코퍼레이션</t>
   </si>
   <si>
+    <t>에이직랜드</t>
+  </si>
+  <si>
     <t>인스웨이브시스템즈</t>
   </si>
   <si>
@@ -196,6 +208,9 @@
     <t>에스엘에스바이오</t>
   </si>
   <si>
+    <t>한국제13호스팩</t>
+  </si>
+  <si>
     <t>퀄리타스반도체</t>
   </si>
   <si>
@@ -220,16 +235,22 @@
     <t>2023-11-03</t>
   </si>
   <si>
+    <t>2023-09-22</t>
+  </si>
+  <si>
+    <t>2023-11-06</t>
+  </si>
+  <si>
     <t>2023-10-27</t>
   </si>
   <si>
-    <t>2023-09-22</t>
+    <t>2023-10-13</t>
   </si>
   <si>
     <t>2023-10-11</t>
   </si>
   <si>
-    <t>2023-10-13</t>
+    <t>2023-11-07</t>
   </si>
   <si>
     <t>2023-10-19</t>
@@ -241,19 +262,19 @@
     <t>2023-11-09</t>
   </si>
   <si>
-    <t>2023-11-07</t>
+    <t>2023-11-14</t>
   </si>
   <si>
     <t>2023-11-10</t>
   </si>
   <si>
-    <t>2023-11-02</t>
-  </si>
-  <si>
     <t>2023-09-27</t>
   </si>
   <si>
     <t>2023-10-06</t>
+  </si>
+  <si>
+    <t>2023-11-13</t>
   </si>
   <si>
     <t>2023-10-20</t>
@@ -614,7 +635,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L32"/>
+  <dimension ref="A1:L35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -666,19 +687,19 @@
         <v>28</v>
       </c>
       <c r="C2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="E2" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="F2" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="G2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H2">
         <v>42120</v>
@@ -704,7 +725,7 @@
         <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D3" t="s">
         <v>13</v>
@@ -713,10 +734,10 @@
         <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="G3" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="H3">
         <v>15600</v>
@@ -742,7 +763,7 @@
         <v>30</v>
       </c>
       <c r="C4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D4" t="s">
         <v>14</v>
@@ -751,19 +772,19 @@
         <v>14</v>
       </c>
       <c r="F4" t="s">
-        <v>29</v>
+        <v>73</v>
       </c>
       <c r="G4" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="H4">
-        <v>27000</v>
+        <v>18750</v>
       </c>
       <c r="I4">
-        <v>3600000</v>
+        <v>1500000</v>
       </c>
       <c r="J4">
-        <v>7500</v>
+        <v>12500</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -777,37 +798,37 @@
         <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>69</v>
       </c>
       <c r="F5" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="G5" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="H5">
-        <v>25000</v>
+        <v>42120</v>
       </c>
       <c r="I5">
-        <v>12500000</v>
+        <v>16200000</v>
       </c>
       <c r="J5">
-        <v>2000</v>
+        <v>26000</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>100</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -815,37 +836,37 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C6" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D6" t="s">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="E6" t="s">
-        <v>64</v>
+        <v>14</v>
       </c>
       <c r="F6" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="G6" t="s">
-        <v>35</v>
+        <v>82</v>
       </c>
       <c r="H6">
-        <v>42120</v>
+        <v>12600</v>
       </c>
       <c r="I6">
-        <v>16200000</v>
+        <v>7000000</v>
       </c>
       <c r="J6">
-        <v>26000</v>
+        <v>1800</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -856,7 +877,7 @@
         <v>32</v>
       </c>
       <c r="C7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D7" t="s">
         <v>14</v>
@@ -865,19 +886,19 @@
         <v>14</v>
       </c>
       <c r="F7" t="s">
-        <v>69</v>
+        <v>29</v>
       </c>
       <c r="G7" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="H7">
-        <v>18750</v>
+        <v>27000</v>
       </c>
       <c r="I7">
-        <v>1500000</v>
+        <v>3600000</v>
       </c>
       <c r="J7">
-        <v>12500</v>
+        <v>7500</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -888,40 +909,40 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C8" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="D8" t="s">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="E8" t="s">
-        <v>64</v>
+        <v>14</v>
       </c>
       <c r="F8" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="G8" t="s">
-        <v>35</v>
+        <v>72</v>
       </c>
       <c r="H8">
-        <v>42120</v>
+        <v>25000</v>
       </c>
       <c r="I8">
-        <v>16200000</v>
+        <v>12500000</v>
       </c>
       <c r="J8">
-        <v>26000</v>
+        <v>2000</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -932,7 +953,7 @@
         <v>29</v>
       </c>
       <c r="C9" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D9" t="s">
         <v>15</v>
@@ -941,10 +962,10 @@
         <v>15</v>
       </c>
       <c r="F9" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="G9" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H9">
         <v>24960</v>
@@ -967,10 +988,10 @@
         <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C10" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D10" t="s">
         <v>15</v>
@@ -979,10 +1000,10 @@
         <v>15</v>
       </c>
       <c r="F10" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G10" t="s">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="H10">
         <v>17841.194</v>
@@ -1002,72 +1023,72 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C11" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D11" t="s">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="E11" t="s">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="F11" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G11" t="s">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="H11">
-        <v>46350</v>
+        <v>42120</v>
       </c>
       <c r="I11">
-        <v>2060000</v>
+        <v>16200000</v>
       </c>
       <c r="J11">
-        <v>22500</v>
+        <v>26000</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>100</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C12" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F12" t="s">
-        <v>28</v>
+        <v>72</v>
       </c>
       <c r="G12" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="H12">
-        <v>34500</v>
+        <v>46350</v>
       </c>
       <c r="I12">
-        <v>1500000</v>
+        <v>2060000</v>
       </c>
       <c r="J12">
-        <v>23000</v>
+        <v>22500</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -1081,37 +1102,37 @@
         <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" t="s">
+        <v>68</v>
+      </c>
+      <c r="E13" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" t="s">
+        <v>72</v>
+      </c>
+      <c r="G13" t="s">
+        <v>81</v>
+      </c>
+      <c r="H13">
+        <v>16000</v>
+      </c>
+      <c r="I13">
+        <v>1600000</v>
+      </c>
+      <c r="J13">
+        <v>20000</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
         <v>50</v>
-      </c>
-      <c r="D13" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" t="s">
-        <v>17</v>
-      </c>
-      <c r="F13" t="s">
-        <v>70</v>
-      </c>
-      <c r="G13" t="s">
-        <v>39</v>
-      </c>
-      <c r="H13">
-        <v>44265.9</v>
-      </c>
-      <c r="I13">
-        <v>4137000</v>
-      </c>
-      <c r="J13">
-        <v>10700</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13">
-        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -1119,37 +1140,37 @@
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C14" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="D14" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E14" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="F14" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G14" t="s">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="H14">
-        <v>16000</v>
+        <v>126360</v>
       </c>
       <c r="I14">
-        <v>1600000</v>
+        <v>16200000</v>
       </c>
       <c r="J14">
-        <v>20000</v>
+        <v>26000</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -1157,37 +1178,37 @@
         <v>17</v>
       </c>
       <c r="B15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" t="s">
         <v>28</v>
       </c>
-      <c r="C15" t="s">
-        <v>41</v>
-      </c>
-      <c r="D15" t="s">
-        <v>62</v>
-      </c>
-      <c r="E15" t="s">
-        <v>64</v>
-      </c>
-      <c r="F15" t="s">
-        <v>66</v>
-      </c>
       <c r="G15" t="s">
-        <v>35</v>
+        <v>84</v>
       </c>
       <c r="H15">
-        <v>126360</v>
+        <v>34500</v>
       </c>
       <c r="I15">
-        <v>16200000</v>
+        <v>1500000</v>
       </c>
       <c r="J15">
-        <v>26000</v>
+        <v>23000</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>30</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -1198,7 +1219,7 @@
         <v>36</v>
       </c>
       <c r="C16" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D16" t="s">
         <v>17</v>
@@ -1207,10 +1228,10 @@
         <v>17</v>
       </c>
       <c r="F16" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="G16" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="H16">
         <v>52000</v>
@@ -1230,40 +1251,40 @@
     </row>
     <row r="17" spans="1:12">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C17" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D17" t="s">
-        <v>63</v>
+        <v>17</v>
       </c>
       <c r="E17" t="s">
-        <v>63</v>
+        <v>17</v>
       </c>
       <c r="F17" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="G17" t="s">
-        <v>74</v>
+        <v>41</v>
       </c>
       <c r="H17">
-        <v>16000</v>
+        <v>44265.9</v>
       </c>
       <c r="I17">
-        <v>1600000</v>
+        <v>4137000</v>
       </c>
       <c r="J17">
-        <v>20000</v>
+        <v>10700</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1271,10 +1292,10 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C18" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D18" t="s">
         <v>18</v>
@@ -1283,10 +1304,10 @@
         <v>18</v>
       </c>
       <c r="F18" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="G18" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="H18">
         <v>33600</v>
@@ -1306,72 +1327,72 @@
     </row>
     <row r="19" spans="1:12">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C19" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="D19" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="E19" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F19" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G19" t="s">
-        <v>35</v>
+        <v>81</v>
       </c>
       <c r="H19">
-        <v>12636</v>
+        <v>16000</v>
       </c>
       <c r="I19">
-        <v>16200000</v>
+        <v>1600000</v>
       </c>
       <c r="J19">
-        <v>26000</v>
+        <v>20000</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>3</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C20" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F20" t="s">
-        <v>32</v>
+        <v>78</v>
       </c>
       <c r="G20" t="s">
-        <v>40</v>
+        <v>86</v>
       </c>
       <c r="H20">
-        <v>26400</v>
+        <v>65908.25</v>
       </c>
       <c r="I20">
-        <v>1100000</v>
+        <v>2636330</v>
       </c>
       <c r="J20">
-        <v>24000</v>
+        <v>25000</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1382,72 +1403,72 @@
     </row>
     <row r="21" spans="1:12">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C21" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="D21" t="s">
-        <v>20</v>
+        <v>67</v>
       </c>
       <c r="E21" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="F21" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G21" t="s">
-        <v>73</v>
+        <v>37</v>
       </c>
       <c r="H21">
-        <v>36000</v>
+        <v>12636</v>
       </c>
       <c r="I21">
-        <v>18000000</v>
+        <v>16200000</v>
       </c>
       <c r="J21">
-        <v>2000</v>
+        <v>26000</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>100</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:12">
       <c r="A22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B22" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C22" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F22" t="s">
         <v>30</v>
       </c>
       <c r="G22" t="s">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="H22">
-        <v>4966.368</v>
+        <v>26400</v>
       </c>
       <c r="I22">
-        <v>1128720</v>
+        <v>1100000</v>
       </c>
       <c r="J22">
-        <v>4400</v>
+        <v>24000</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1458,300 +1479,300 @@
     </row>
     <row r="23" spans="1:12">
       <c r="A23" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C23" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="D23" t="s">
-        <v>62</v>
+        <v>20</v>
       </c>
       <c r="E23" t="s">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="F23" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="G23" t="s">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="H23">
-        <v>4212</v>
+        <v>36000</v>
       </c>
       <c r="I23">
-        <v>16200000</v>
+        <v>18000000</v>
       </c>
       <c r="J23">
-        <v>26000</v>
+        <v>2000</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="24" spans="1:12">
       <c r="A24" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B24" t="s">
         <v>34</v>
       </c>
       <c r="C24" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D24" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E24" t="s">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="F24" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="G24" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H24">
-        <v>15484</v>
+        <v>4966.368</v>
       </c>
       <c r="I24">
-        <v>1580000</v>
+        <v>1128720</v>
       </c>
       <c r="J24">
-        <v>14000</v>
+        <v>4400</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>70</v>
+        <v>100</v>
       </c>
     </row>
     <row r="25" spans="1:12">
       <c r="A25" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B25" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C25" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="D25" t="s">
-        <v>22</v>
+        <v>67</v>
       </c>
       <c r="E25" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="F25" t="s">
-        <v>28</v>
+        <v>71</v>
       </c>
       <c r="G25" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H25">
-        <v>6636</v>
+        <v>4212</v>
       </c>
       <c r="I25">
-        <v>1580000</v>
+        <v>16200000</v>
       </c>
       <c r="J25">
-        <v>14000</v>
+        <v>26000</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>30</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:12">
       <c r="A26" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B26" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" t="s">
+        <v>61</v>
+      </c>
+      <c r="D26" t="s">
+        <v>22</v>
+      </c>
+      <c r="E26" t="s">
+        <v>70</v>
+      </c>
+      <c r="F26" t="s">
         <v>28</v>
       </c>
-      <c r="C26" t="s">
-        <v>41</v>
-      </c>
-      <c r="D26" t="s">
-        <v>62</v>
-      </c>
-      <c r="E26" t="s">
-        <v>64</v>
-      </c>
-      <c r="F26" t="s">
-        <v>66</v>
-      </c>
       <c r="G26" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H26">
-        <v>12636</v>
+        <v>15484</v>
       </c>
       <c r="I26">
-        <v>16200000</v>
+        <v>1580000</v>
       </c>
       <c r="J26">
-        <v>26000</v>
+        <v>14000</v>
       </c>
       <c r="K26">
         <v>0</v>
       </c>
       <c r="L26">
-        <v>3</v>
+        <v>70</v>
       </c>
     </row>
     <row r="27" spans="1:12">
       <c r="A27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B27" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C27" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D27" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E27" t="s">
-        <v>24</v>
+        <v>70</v>
       </c>
       <c r="F27" t="s">
-        <v>72</v>
+        <v>28</v>
       </c>
       <c r="G27" t="s">
+        <v>36</v>
+      </c>
+      <c r="H27">
+        <v>6636</v>
+      </c>
+      <c r="I27">
+        <v>1580000</v>
+      </c>
+      <c r="J27">
+        <v>14000</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
         <v>30</v>
-      </c>
-      <c r="H27">
-        <v>26000</v>
-      </c>
-      <c r="I27">
-        <v>4000000</v>
-      </c>
-      <c r="J27">
-        <v>6500</v>
-      </c>
-      <c r="K27">
-        <v>0</v>
-      </c>
-      <c r="L27">
-        <v>100</v>
       </c>
     </row>
     <row r="28" spans="1:12">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C28" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="D28" t="s">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="E28" t="s">
-        <v>25</v>
+        <v>69</v>
       </c>
       <c r="F28" t="s">
         <v>71</v>
       </c>
       <c r="G28" t="s">
-        <v>80</v>
+        <v>37</v>
       </c>
       <c r="H28">
-        <v>5390</v>
+        <v>12636</v>
       </c>
       <c r="I28">
-        <v>770000</v>
+        <v>16200000</v>
       </c>
       <c r="J28">
-        <v>7000</v>
+        <v>26000</v>
       </c>
       <c r="K28">
         <v>0</v>
       </c>
       <c r="L28">
-        <v>100</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:12">
       <c r="A29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="C29" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="D29" t="s">
-        <v>62</v>
+        <v>24</v>
       </c>
       <c r="E29" t="s">
-        <v>64</v>
+        <v>24</v>
       </c>
       <c r="F29" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="G29" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H29">
-        <v>12636</v>
+        <v>26000</v>
       </c>
       <c r="I29">
-        <v>16200000</v>
+        <v>4000000</v>
       </c>
       <c r="J29">
-        <v>26000</v>
+        <v>6500</v>
       </c>
       <c r="K29">
         <v>0</v>
       </c>
       <c r="L29">
-        <v>3</v>
+        <v>100</v>
       </c>
     </row>
     <row r="30" spans="1:12">
       <c r="A30" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B30" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C30" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D30" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E30" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F30" t="s">
-        <v>33</v>
+        <v>76</v>
       </c>
       <c r="G30" t="s">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="H30">
-        <v>30600</v>
+        <v>5390</v>
       </c>
       <c r="I30">
-        <v>1800000</v>
+        <v>770000</v>
       </c>
       <c r="J30">
-        <v>17000</v>
+        <v>7000</v>
       </c>
       <c r="K30">
         <v>0</v>
@@ -1762,28 +1783,28 @@
     </row>
     <row r="31" spans="1:12">
       <c r="A31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B31" t="s">
         <v>28</v>
       </c>
       <c r="C31" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D31" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="E31" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="F31" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="G31" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H31">
-        <v>126360</v>
+        <v>12636</v>
       </c>
       <c r="I31">
         <v>16200000</v>
@@ -1795,30 +1816,30 @@
         <v>0</v>
       </c>
       <c r="L31">
-        <v>30</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:12">
       <c r="A32" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B32" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="C32" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D32" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E32" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F32" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G32" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="H32">
         <v>8000</v>
@@ -1833,6 +1854,120 @@
         <v>0</v>
       </c>
       <c r="L32">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33" t="s">
+        <v>26</v>
+      </c>
+      <c r="B33" t="s">
+        <v>41</v>
+      </c>
+      <c r="C33" t="s">
+        <v>65</v>
+      </c>
+      <c r="D33" t="s">
+        <v>26</v>
+      </c>
+      <c r="E33" t="s">
+        <v>26</v>
+      </c>
+      <c r="F33" t="s">
+        <v>34</v>
+      </c>
+      <c r="G33" t="s">
+        <v>75</v>
+      </c>
+      <c r="H33">
+        <v>30600</v>
+      </c>
+      <c r="I33">
+        <v>1800000</v>
+      </c>
+      <c r="J33">
+        <v>17000</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34" t="s">
+        <v>26</v>
+      </c>
+      <c r="B34" t="s">
+        <v>28</v>
+      </c>
+      <c r="C34" t="s">
+        <v>43</v>
+      </c>
+      <c r="D34" t="s">
+        <v>67</v>
+      </c>
+      <c r="E34" t="s">
+        <v>69</v>
+      </c>
+      <c r="F34" t="s">
+        <v>71</v>
+      </c>
+      <c r="G34" t="s">
+        <v>37</v>
+      </c>
+      <c r="H34">
+        <v>126360</v>
+      </c>
+      <c r="I34">
+        <v>16200000</v>
+      </c>
+      <c r="J34">
+        <v>26000</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="A35" t="s">
+        <v>27</v>
+      </c>
+      <c r="B35" t="s">
+        <v>42</v>
+      </c>
+      <c r="C35" t="s">
+        <v>66</v>
+      </c>
+      <c r="D35" t="s">
+        <v>27</v>
+      </c>
+      <c r="E35" t="s">
+        <v>27</v>
+      </c>
+      <c r="F35" t="s">
+        <v>80</v>
+      </c>
+      <c r="G35" t="s">
+        <v>76</v>
+      </c>
+      <c r="H35">
+        <v>8000</v>
+      </c>
+      <c r="I35">
+        <v>4000000</v>
+      </c>
+      <c r="J35">
+        <v>2000</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
         <v>100</v>
       </c>
     </row>

--- a/datasets/form3.xlsx
+++ b/datasets/form3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="90">
   <si>
     <t>인수기관</t>
   </si>
@@ -118,6 +118,9 @@
     <t>2023-10-24</t>
   </si>
   <si>
+    <t>2023-11-06</t>
+  </si>
+  <si>
     <t>2023-10-23</t>
   </si>
   <si>
@@ -163,6 +166,9 @@
     <t>KB제27호스팩</t>
   </si>
   <si>
+    <t>캡스톤파트너스</t>
+  </si>
+  <si>
     <t>메가터치</t>
   </si>
   <si>
@@ -172,18 +178,18 @@
     <t>컨텍</t>
   </si>
   <si>
+    <t>밀리의서재</t>
+  </si>
+  <si>
+    <t>신성에스티</t>
+  </si>
+  <si>
+    <t>퓨릿</t>
+  </si>
+  <si>
     <t>큐로셀</t>
   </si>
   <si>
-    <t>밀리의서재</t>
-  </si>
-  <si>
-    <t>신성에스티</t>
-  </si>
-  <si>
-    <t>퓨릿</t>
-  </si>
-  <si>
     <t>레뷰코퍼레이션</t>
   </si>
   <si>
@@ -193,12 +199,12 @@
     <t>인스웨이브시스템즈</t>
   </si>
   <si>
+    <t>유투바이오</t>
+  </si>
+  <si>
     <t>신한제11호스팩</t>
   </si>
   <si>
-    <t>유투바이오</t>
-  </si>
-  <si>
     <t>아이엠티</t>
   </si>
   <si>
@@ -208,12 +214,12 @@
     <t>에스엘에스바이오</t>
   </si>
   <si>
+    <t>퀄리타스반도체</t>
+  </si>
+  <si>
     <t>한국제13호스팩</t>
   </si>
   <si>
-    <t>퀄리타스반도체</t>
-  </si>
-  <si>
     <t>에이치엠씨제6호스팩</t>
   </si>
   <si>
@@ -238,12 +244,12 @@
     <t>2023-09-22</t>
   </si>
   <si>
-    <t>2023-11-06</t>
-  </si>
-  <si>
     <t>2023-10-27</t>
   </si>
   <si>
+    <t>2023-11-09</t>
+  </si>
+  <si>
     <t>2023-10-13</t>
   </si>
   <si>
@@ -259,10 +265,10 @@
     <t>2023-10-04</t>
   </si>
   <si>
-    <t>2023-11-09</t>
-  </si>
-  <si>
     <t>2023-11-14</t>
+  </si>
+  <si>
+    <t>2023-11-15</t>
   </si>
   <si>
     <t>2023-11-10</t>
@@ -635,7 +641,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L35"/>
+  <dimension ref="A1:L36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -687,19 +693,19 @@
         <v>28</v>
       </c>
       <c r="C2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H2">
         <v>42120</v>
@@ -725,7 +731,7 @@
         <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D3" t="s">
         <v>13</v>
@@ -734,10 +740,10 @@
         <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G3" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="H3">
         <v>15600</v>
@@ -763,7 +769,7 @@
         <v>30</v>
       </c>
       <c r="C4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D4" t="s">
         <v>14</v>
@@ -772,10 +778,10 @@
         <v>14</v>
       </c>
       <c r="F4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G4" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H4">
         <v>18750</v>
@@ -801,19 +807,19 @@
         <v>28</v>
       </c>
       <c r="C5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F5" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H5">
         <v>42120</v>
@@ -839,7 +845,7 @@
         <v>31</v>
       </c>
       <c r="C6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D6" t="s">
         <v>14</v>
@@ -848,10 +854,10 @@
         <v>14</v>
       </c>
       <c r="F6" t="s">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="G6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H6">
         <v>12600</v>
@@ -877,7 +883,7 @@
         <v>32</v>
       </c>
       <c r="C7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D7" t="s">
         <v>14</v>
@@ -889,7 +895,7 @@
         <v>29</v>
       </c>
       <c r="G7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H7">
         <v>27000</v>
@@ -915,7 +921,7 @@
         <v>33</v>
       </c>
       <c r="C8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D8" t="s">
         <v>14</v>
@@ -924,10 +930,10 @@
         <v>14</v>
       </c>
       <c r="F8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H8">
         <v>25000</v>
@@ -950,10 +956,10 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D9" t="s">
         <v>15</v>
@@ -962,19 +968,19 @@
         <v>15</v>
       </c>
       <c r="F9" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="G9" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H9">
-        <v>24960</v>
+        <v>6384</v>
       </c>
       <c r="I9">
-        <v>5200000</v>
+        <v>1596000</v>
       </c>
       <c r="J9">
-        <v>4800</v>
+        <v>4000</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -988,37 +994,37 @@
         <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C10" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D10" t="s">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="E10" t="s">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="F10" t="s">
-        <v>32</v>
+        <v>73</v>
       </c>
       <c r="G10" t="s">
         <v>38</v>
       </c>
       <c r="H10">
-        <v>17841.194</v>
+        <v>42120</v>
       </c>
       <c r="I10">
-        <v>1049482</v>
+        <v>16200000</v>
       </c>
       <c r="J10">
-        <v>17000</v>
+        <v>26000</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>100</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1026,69 +1032,69 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C11" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="D11" t="s">
-        <v>67</v>
+        <v>15</v>
       </c>
       <c r="E11" t="s">
-        <v>69</v>
+        <v>15</v>
       </c>
       <c r="F11" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G11" t="s">
-        <v>37</v>
+        <v>85</v>
       </c>
       <c r="H11">
-        <v>42120</v>
+        <v>24960</v>
       </c>
       <c r="I11">
-        <v>16200000</v>
+        <v>5200000</v>
       </c>
       <c r="J11">
-        <v>26000</v>
+        <v>4800</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F12" t="s">
-        <v>72</v>
+        <v>32</v>
       </c>
       <c r="G12" t="s">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="H12">
-        <v>46350</v>
+        <v>17841.194</v>
       </c>
       <c r="I12">
-        <v>2060000</v>
+        <v>1049482</v>
       </c>
       <c r="J12">
-        <v>22500</v>
+        <v>17000</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -1099,40 +1105,40 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B13" t="s">
         <v>29</v>
       </c>
       <c r="C13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D13" t="s">
-        <v>68</v>
+        <v>16</v>
       </c>
       <c r="E13" t="s">
-        <v>68</v>
+        <v>16</v>
       </c>
       <c r="F13" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G13" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="H13">
-        <v>16000</v>
+        <v>46350</v>
       </c>
       <c r="I13">
-        <v>1600000</v>
+        <v>2060000</v>
       </c>
       <c r="J13">
-        <v>20000</v>
+        <v>22500</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -1143,19 +1149,19 @@
         <v>28</v>
       </c>
       <c r="C14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D14" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E14" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F14" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G14" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H14">
         <v>126360</v>
@@ -1178,10 +1184,10 @@
         <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D15" t="s">
         <v>17</v>
@@ -1193,7 +1199,7 @@
         <v>28</v>
       </c>
       <c r="G15" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="H15">
         <v>34500</v>
@@ -1216,10 +1222,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C16" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D16" t="s">
         <v>17</v>
@@ -1228,10 +1234,10 @@
         <v>17</v>
       </c>
       <c r="F16" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G16" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H16">
         <v>52000</v>
@@ -1254,10 +1260,10 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C17" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D17" t="s">
         <v>17</v>
@@ -1266,10 +1272,10 @@
         <v>17</v>
       </c>
       <c r="F17" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G17" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H17">
         <v>44265.9</v>
@@ -1289,40 +1295,40 @@
     </row>
     <row r="18" spans="1:12">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C18" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D18" t="s">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="E18" t="s">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="F18" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G18" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H18">
-        <v>33600</v>
+        <v>16000</v>
       </c>
       <c r="I18">
-        <v>2240000</v>
+        <v>1600000</v>
       </c>
       <c r="J18">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1330,37 +1336,37 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C19" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="D19" t="s">
-        <v>68</v>
+        <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>68</v>
+        <v>18</v>
       </c>
       <c r="F19" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G19" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="H19">
-        <v>16000</v>
+        <v>33600</v>
       </c>
       <c r="I19">
-        <v>1600000</v>
+        <v>2240000</v>
       </c>
       <c r="J19">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1368,75 +1374,75 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C20" t="s">
         <v>57</v>
       </c>
       <c r="D20" t="s">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="E20" t="s">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="F20" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G20" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="H20">
-        <v>65908.25</v>
+        <v>16000</v>
       </c>
       <c r="I20">
-        <v>2636330</v>
+        <v>1600000</v>
       </c>
       <c r="J20">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:12">
       <c r="A21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B21" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="C21" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="D21" t="s">
-        <v>67</v>
+        <v>18</v>
       </c>
       <c r="E21" t="s">
-        <v>69</v>
+        <v>18</v>
       </c>
       <c r="F21" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="G21" t="s">
-        <v>37</v>
+        <v>88</v>
       </c>
       <c r="H21">
-        <v>12636</v>
+        <v>65908.25</v>
       </c>
       <c r="I21">
-        <v>16200000</v>
+        <v>2636330</v>
       </c>
       <c r="J21">
-        <v>26000</v>
+        <v>25000</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>3</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1444,69 +1450,69 @@
         <v>19</v>
       </c>
       <c r="B22" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="C22" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="D22" t="s">
-        <v>19</v>
+        <v>69</v>
       </c>
       <c r="E22" t="s">
-        <v>19</v>
+        <v>71</v>
       </c>
       <c r="F22" t="s">
-        <v>30</v>
+        <v>73</v>
       </c>
       <c r="G22" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H22">
-        <v>26400</v>
+        <v>12636</v>
       </c>
       <c r="I22">
-        <v>1100000</v>
+        <v>16200000</v>
       </c>
       <c r="J22">
-        <v>24000</v>
+        <v>26000</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>100</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:12">
       <c r="A23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B23" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" t="s">
+        <v>60</v>
+      </c>
+      <c r="D23" t="s">
+        <v>19</v>
+      </c>
+      <c r="E23" t="s">
+        <v>19</v>
+      </c>
+      <c r="F23" t="s">
         <v>30</v>
       </c>
-      <c r="C23" t="s">
-        <v>59</v>
-      </c>
-      <c r="D23" t="s">
-        <v>20</v>
-      </c>
-      <c r="E23" t="s">
-        <v>20</v>
-      </c>
-      <c r="F23" t="s">
-        <v>73</v>
-      </c>
       <c r="G23" t="s">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="H23">
-        <v>36000</v>
+        <v>26400</v>
       </c>
       <c r="I23">
-        <v>18000000</v>
+        <v>1100000</v>
       </c>
       <c r="J23">
-        <v>2000</v>
+        <v>24000</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1520,10 +1526,10 @@
         <v>20</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C24" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D24" t="s">
         <v>20</v>
@@ -1535,7 +1541,7 @@
         <v>32</v>
       </c>
       <c r="G24" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H24">
         <v>4966.368</v>
@@ -1555,104 +1561,104 @@
     </row>
     <row r="25" spans="1:12">
       <c r="A25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B25" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C25" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="D25" t="s">
-        <v>67</v>
+        <v>20</v>
       </c>
       <c r="E25" t="s">
-        <v>69</v>
+        <v>20</v>
       </c>
       <c r="F25" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="G25" t="s">
-        <v>37</v>
+        <v>82</v>
       </c>
       <c r="H25">
-        <v>4212</v>
+        <v>36000</v>
       </c>
       <c r="I25">
-        <v>16200000</v>
+        <v>18000000</v>
       </c>
       <c r="J25">
-        <v>26000</v>
+        <v>2000</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26" spans="1:12">
       <c r="A26" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B26" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C26" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="D26" t="s">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="E26" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F26" t="s">
-        <v>28</v>
+        <v>73</v>
       </c>
       <c r="G26" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H26">
-        <v>15484</v>
+        <v>4212</v>
       </c>
       <c r="I26">
-        <v>1580000</v>
+        <v>16200000</v>
       </c>
       <c r="J26">
-        <v>14000</v>
+        <v>26000</v>
       </c>
       <c r="K26">
         <v>0</v>
       </c>
       <c r="L26">
-        <v>70</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:12">
       <c r="A27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B27" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C27" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D27" t="s">
         <v>22</v>
       </c>
       <c r="E27" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F27" t="s">
         <v>28</v>
       </c>
       <c r="G27" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H27">
-        <v>6636</v>
+        <v>15484</v>
       </c>
       <c r="I27">
         <v>1580000</v>
@@ -1664,45 +1670,45 @@
         <v>0</v>
       </c>
       <c r="L27">
-        <v>30</v>
+        <v>70</v>
       </c>
     </row>
     <row r="28" spans="1:12">
       <c r="A28" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B28" t="s">
+        <v>36</v>
+      </c>
+      <c r="C28" t="s">
+        <v>63</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28" t="s">
+        <v>72</v>
+      </c>
+      <c r="F28" t="s">
         <v>28</v>
-      </c>
-      <c r="C28" t="s">
-        <v>43</v>
-      </c>
-      <c r="D28" t="s">
-        <v>67</v>
-      </c>
-      <c r="E28" t="s">
-        <v>69</v>
-      </c>
-      <c r="F28" t="s">
-        <v>71</v>
       </c>
       <c r="G28" t="s">
         <v>37</v>
       </c>
       <c r="H28">
-        <v>12636</v>
+        <v>6636</v>
       </c>
       <c r="I28">
-        <v>16200000</v>
+        <v>1580000</v>
       </c>
       <c r="J28">
-        <v>26000</v>
+        <v>14000</v>
       </c>
       <c r="K28">
         <v>0</v>
       </c>
       <c r="L28">
-        <v>3</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -1710,69 +1716,69 @@
         <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="C29" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="D29" t="s">
-        <v>24</v>
+        <v>69</v>
       </c>
       <c r="E29" t="s">
-        <v>24</v>
+        <v>71</v>
       </c>
       <c r="F29" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="G29" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H29">
+        <v>12636</v>
+      </c>
+      <c r="I29">
+        <v>16200000</v>
+      </c>
+      <c r="J29">
         <v>26000</v>
       </c>
-      <c r="I29">
-        <v>4000000</v>
-      </c>
-      <c r="J29">
-        <v>6500</v>
-      </c>
       <c r="K29">
         <v>0</v>
       </c>
       <c r="L29">
-        <v>100</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:12">
       <c r="A30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C30" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F30" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="G30" t="s">
-        <v>87</v>
+        <v>32</v>
       </c>
       <c r="H30">
-        <v>5390</v>
+        <v>26000</v>
       </c>
       <c r="I30">
-        <v>770000</v>
+        <v>4000000</v>
       </c>
       <c r="J30">
-        <v>7000</v>
+        <v>6500</v>
       </c>
       <c r="K30">
         <v>0</v>
@@ -1786,75 +1792,75 @@
         <v>25</v>
       </c>
       <c r="B31" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C31" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="D31" t="s">
-        <v>67</v>
+        <v>25</v>
       </c>
       <c r="E31" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="F31" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="G31" t="s">
-        <v>37</v>
+        <v>89</v>
       </c>
       <c r="H31">
-        <v>12636</v>
+        <v>5390</v>
       </c>
       <c r="I31">
-        <v>16200000</v>
+        <v>770000</v>
       </c>
       <c r="J31">
-        <v>26000</v>
+        <v>7000</v>
       </c>
       <c r="K31">
         <v>0</v>
       </c>
       <c r="L31">
-        <v>3</v>
+        <v>100</v>
       </c>
     </row>
     <row r="32" spans="1:12">
       <c r="A32" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B32" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C32" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="D32" t="s">
-        <v>26</v>
+        <v>69</v>
       </c>
       <c r="E32" t="s">
-        <v>26</v>
+        <v>71</v>
       </c>
       <c r="F32" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G32" t="s">
-        <v>86</v>
+        <v>38</v>
       </c>
       <c r="H32">
-        <v>8000</v>
+        <v>12636</v>
       </c>
       <c r="I32">
-        <v>4000000</v>
+        <v>16200000</v>
       </c>
       <c r="J32">
-        <v>2000</v>
+        <v>26000</v>
       </c>
       <c r="K32">
         <v>0</v>
       </c>
       <c r="L32">
-        <v>100</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -1862,37 +1868,37 @@
         <v>26</v>
       </c>
       <c r="B33" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C33" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="D33" t="s">
-        <v>26</v>
+        <v>69</v>
       </c>
       <c r="E33" t="s">
-        <v>26</v>
+        <v>71</v>
       </c>
       <c r="F33" t="s">
-        <v>34</v>
+        <v>73</v>
       </c>
       <c r="G33" t="s">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="H33">
-        <v>30600</v>
+        <v>126360</v>
       </c>
       <c r="I33">
-        <v>1800000</v>
+        <v>16200000</v>
       </c>
       <c r="J33">
-        <v>17000</v>
+        <v>26000</v>
       </c>
       <c r="K33">
         <v>0</v>
       </c>
       <c r="L33">
-        <v>100</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -1900,60 +1906,60 @@
         <v>26</v>
       </c>
       <c r="B34" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="C34" t="s">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="D34" t="s">
-        <v>67</v>
+        <v>26</v>
       </c>
       <c r="E34" t="s">
-        <v>69</v>
+        <v>26</v>
       </c>
       <c r="F34" t="s">
-        <v>71</v>
+        <v>35</v>
       </c>
       <c r="G34" t="s">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="H34">
-        <v>126360</v>
+        <v>30600</v>
       </c>
       <c r="I34">
-        <v>16200000</v>
+        <v>1800000</v>
       </c>
       <c r="J34">
-        <v>26000</v>
+        <v>17000</v>
       </c>
       <c r="K34">
         <v>0</v>
       </c>
       <c r="L34">
-        <v>30</v>
+        <v>100</v>
       </c>
     </row>
     <row r="35" spans="1:12">
       <c r="A35" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B35" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="C35" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D35" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E35" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F35" t="s">
-        <v>80</v>
+        <v>34</v>
       </c>
       <c r="G35" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H35">
         <v>8000</v>
@@ -1968,6 +1974,44 @@
         <v>0</v>
       </c>
       <c r="L35">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
+      <c r="A36" t="s">
+        <v>27</v>
+      </c>
+      <c r="B36" t="s">
+        <v>43</v>
+      </c>
+      <c r="C36" t="s">
+        <v>68</v>
+      </c>
+      <c r="D36" t="s">
+        <v>27</v>
+      </c>
+      <c r="E36" t="s">
+        <v>27</v>
+      </c>
+      <c r="F36" t="s">
+        <v>82</v>
+      </c>
+      <c r="G36" t="s">
+        <v>78</v>
+      </c>
+      <c r="H36">
+        <v>8000</v>
+      </c>
+      <c r="I36">
+        <v>4000000</v>
+      </c>
+      <c r="J36">
+        <v>2000</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36">
         <v>100</v>
       </c>
     </row>

--- a/datasets/form3.xlsx
+++ b/datasets/form3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="93">
   <si>
     <t>인수기관</t>
   </si>
@@ -94,6 +94,9 @@
     <t>하나</t>
   </si>
   <si>
+    <t>하이</t>
+  </si>
+  <si>
     <t>한국</t>
   </si>
   <si>
@@ -106,16 +109,19 @@
     <t>2023-10-31</t>
   </si>
   <si>
+    <t>2023-11-01</t>
+  </si>
+  <si>
     <t>2023-09-19</t>
   </si>
   <si>
-    <t>2023-11-01</t>
+    <t>2023-10-24</t>
   </si>
   <si>
     <t>2023-10-26</t>
   </si>
   <si>
-    <t>2023-10-24</t>
+    <t>2023-11-08</t>
   </si>
   <si>
     <t>2023-11-06</t>
@@ -124,21 +130,18 @@
     <t>2023-10-23</t>
   </si>
   <si>
+    <t>2023-10-05</t>
+  </si>
+  <si>
+    <t>2023-10-10</t>
+  </si>
+  <si>
     <t>2023-09-18</t>
   </si>
   <si>
-    <t>2023-10-10</t>
-  </si>
-  <si>
-    <t>2023-10-05</t>
-  </si>
-  <si>
     <t>2023-11-02</t>
   </si>
   <si>
-    <t>2023-09-14</t>
-  </si>
-  <si>
     <t>2023-10-16</t>
   </si>
   <si>
@@ -154,39 +157,42 @@
     <t>비아이매트릭스</t>
   </si>
   <si>
+    <t>에스와이스틸텍</t>
+  </si>
+  <si>
     <t>한싹</t>
   </si>
   <si>
-    <t>에스와이스틸텍</t>
+    <t>KB제27호스팩</t>
   </si>
   <si>
     <t>쏘닉스</t>
   </si>
   <si>
-    <t>KB제27호스팩</t>
+    <t>에코프로머티</t>
   </si>
   <si>
     <t>캡스톤파트너스</t>
   </si>
   <si>
+    <t>유진테크놀로지</t>
+  </si>
+  <si>
     <t>메가터치</t>
   </si>
   <si>
-    <t>유진테크놀로지</t>
-  </si>
-  <si>
     <t>컨텍</t>
   </si>
   <si>
+    <t>퓨릿</t>
+  </si>
+  <si>
+    <t>신성에스티</t>
+  </si>
+  <si>
     <t>밀리의서재</t>
   </si>
   <si>
-    <t>신성에스티</t>
-  </si>
-  <si>
-    <t>퓨릿</t>
-  </si>
-  <si>
     <t>큐로셀</t>
   </si>
   <si>
@@ -196,9 +202,6 @@
     <t>에이직랜드</t>
   </si>
   <si>
-    <t>인스웨이브시스템즈</t>
-  </si>
-  <si>
     <t>유투바이오</t>
   </si>
   <si>
@@ -214,12 +217,12 @@
     <t>에스엘에스바이오</t>
   </si>
   <si>
+    <t>한국제13호스팩</t>
+  </si>
+  <si>
     <t>퀄리타스반도체</t>
   </si>
   <si>
-    <t>한국제13호스팩</t>
-  </si>
-  <si>
     <t>에이치엠씨제6호스팩</t>
   </si>
   <si>
@@ -232,6 +235,9 @@
     <t>한국, 미래, NH, KB, CS, 키움, 신영, 하나, 유비에스리미티드(영업소)</t>
   </si>
   <si>
+    <t>미래, NH, 하이</t>
+  </si>
+  <si>
     <t>유안타, 유진</t>
   </si>
   <si>
@@ -247,15 +253,18 @@
     <t>2023-10-27</t>
   </si>
   <si>
+    <t>2023-11-13</t>
+  </si>
+  <si>
     <t>2023-11-09</t>
   </si>
   <si>
+    <t>2023-10-11</t>
+  </si>
+  <si>
     <t>2023-10-13</t>
   </si>
   <si>
-    <t>2023-10-11</t>
-  </si>
-  <si>
     <t>2023-11-07</t>
   </si>
   <si>
@@ -268,6 +277,9 @@
     <t>2023-11-14</t>
   </si>
   <si>
+    <t>2023-11-17</t>
+  </si>
+  <si>
     <t>2023-11-15</t>
   </si>
   <si>
@@ -278,9 +290,6 @@
   </si>
   <si>
     <t>2023-10-06</t>
-  </si>
-  <si>
-    <t>2023-11-13</t>
   </si>
   <si>
     <t>2023-10-20</t>
@@ -641,7 +650,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L36"/>
+  <dimension ref="A1:L38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -690,19 +699,19 @@
         <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G2" t="s">
         <v>38</v>
@@ -728,10 +737,10 @@
         <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D3" t="s">
         <v>13</v>
@@ -740,10 +749,10 @@
         <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G3" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H3">
         <v>15600</v>
@@ -766,10 +775,10 @@
         <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D4" t="s">
         <v>14</v>
@@ -778,19 +787,19 @@
         <v>14</v>
       </c>
       <c r="F4" t="s">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="G4" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="H4">
-        <v>18750</v>
+        <v>12600</v>
       </c>
       <c r="I4">
-        <v>1500000</v>
+        <v>7000000</v>
       </c>
       <c r="J4">
-        <v>12500</v>
+        <v>1800</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -804,37 +813,37 @@
         <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C5" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D5" t="s">
-        <v>69</v>
+        <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>71</v>
+        <v>14</v>
       </c>
       <c r="F5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G5" t="s">
-        <v>38</v>
+        <v>85</v>
       </c>
       <c r="H5">
-        <v>42120</v>
+        <v>18750</v>
       </c>
       <c r="I5">
-        <v>16200000</v>
+        <v>1500000</v>
       </c>
       <c r="J5">
-        <v>26000</v>
+        <v>12500</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -842,37 +851,37 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>70</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="F6" t="s">
-        <v>34</v>
+        <v>75</v>
       </c>
       <c r="G6" t="s">
-        <v>83</v>
+        <v>38</v>
       </c>
       <c r="H6">
-        <v>12600</v>
+        <v>42120</v>
       </c>
       <c r="I6">
-        <v>7000000</v>
+        <v>16200000</v>
       </c>
       <c r="J6">
-        <v>1800</v>
+        <v>26000</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>100</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -880,10 +889,10 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D7" t="s">
         <v>14</v>
@@ -892,19 +901,19 @@
         <v>14</v>
       </c>
       <c r="F7" t="s">
-        <v>29</v>
+        <v>78</v>
       </c>
       <c r="G7" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="H7">
-        <v>27000</v>
+        <v>25000</v>
       </c>
       <c r="I7">
-        <v>3600000</v>
+        <v>12500000</v>
       </c>
       <c r="J7">
-        <v>7500</v>
+        <v>2000</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -918,10 +927,10 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D8" t="s">
         <v>14</v>
@@ -930,19 +939,19 @@
         <v>14</v>
       </c>
       <c r="F8" t="s">
-        <v>76</v>
+        <v>30</v>
       </c>
       <c r="G8" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="H8">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="I8">
-        <v>12500000</v>
+        <v>3600000</v>
       </c>
       <c r="J8">
-        <v>2000</v>
+        <v>7500</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -956,37 +965,37 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E9" t="s">
-        <v>15</v>
+        <v>73</v>
       </c>
       <c r="F9" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G9" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="H9">
-        <v>6384</v>
+        <v>121994.4706</v>
       </c>
       <c r="I9">
-        <v>1596000</v>
+        <v>11580800</v>
       </c>
       <c r="J9">
-        <v>4000</v>
+        <v>36200</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>100</v>
+        <v>29.1</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -994,37 +1003,37 @@
         <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="C10" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="D10" t="s">
-        <v>69</v>
+        <v>15</v>
       </c>
       <c r="E10" t="s">
-        <v>71</v>
+        <v>15</v>
       </c>
       <c r="F10" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="G10" t="s">
-        <v>38</v>
+        <v>88</v>
       </c>
       <c r="H10">
-        <v>42120</v>
+        <v>6384</v>
       </c>
       <c r="I10">
-        <v>16200000</v>
+        <v>1596000</v>
       </c>
       <c r="J10">
-        <v>26000</v>
+        <v>4000</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1035,34 +1044,34 @@
         <v>29</v>
       </c>
       <c r="C11" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D11" t="s">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="E11" t="s">
-        <v>15</v>
+        <v>72</v>
       </c>
       <c r="F11" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G11" t="s">
-        <v>85</v>
+        <v>38</v>
       </c>
       <c r="H11">
-        <v>24960</v>
+        <v>42120</v>
       </c>
       <c r="I11">
-        <v>5200000</v>
+        <v>16200000</v>
       </c>
       <c r="J11">
-        <v>4800</v>
+        <v>26000</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>100</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -1070,10 +1079,10 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D12" t="s">
         <v>15</v>
@@ -1082,10 +1091,10 @@
         <v>15</v>
       </c>
       <c r="F12" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G12" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H12">
         <v>17841.194</v>
@@ -1105,34 +1114,34 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F13" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G13" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="H13">
-        <v>46350</v>
+        <v>24960</v>
       </c>
       <c r="I13">
-        <v>2060000</v>
+        <v>5200000</v>
       </c>
       <c r="J13">
-        <v>22500</v>
+        <v>4800</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1143,40 +1152,40 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C14" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="D14" t="s">
-        <v>69</v>
+        <v>16</v>
       </c>
       <c r="E14" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="F14" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G14" t="s">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="H14">
-        <v>126360</v>
+        <v>46350</v>
       </c>
       <c r="I14">
-        <v>16200000</v>
+        <v>2060000</v>
       </c>
       <c r="J14">
-        <v>26000</v>
+        <v>22500</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>30</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -1184,37 +1193,37 @@
         <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C15" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D15" t="s">
         <v>17</v>
       </c>
       <c r="E15" t="s">
-        <v>17</v>
+        <v>73</v>
       </c>
       <c r="F15" t="s">
-        <v>28</v>
+        <v>79</v>
       </c>
       <c r="G15" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H15">
-        <v>34500</v>
+        <v>284653.7406</v>
       </c>
       <c r="I15">
-        <v>1500000</v>
+        <v>11580800</v>
       </c>
       <c r="J15">
-        <v>23000</v>
+        <v>36200</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>100</v>
+        <v>67.90000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -1222,28 +1231,28 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C16" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="D16" t="s">
-        <v>17</v>
+        <v>70</v>
       </c>
       <c r="E16" t="s">
-        <v>17</v>
+        <v>72</v>
       </c>
       <c r="F16" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G16" t="s">
-        <v>81</v>
+        <v>38</v>
       </c>
       <c r="H16">
-        <v>52000</v>
+        <v>126360</v>
       </c>
       <c r="I16">
-        <v>2000000</v>
+        <v>16200000</v>
       </c>
       <c r="J16">
         <v>26000</v>
@@ -1252,7 +1261,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>100</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -1272,10 +1281,10 @@
         <v>17</v>
       </c>
       <c r="F17" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G17" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H17">
         <v>44265.9</v>
@@ -1298,69 +1307,69 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C18" t="s">
         <v>57</v>
       </c>
       <c r="D18" t="s">
-        <v>70</v>
+        <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>70</v>
+        <v>17</v>
       </c>
       <c r="F18" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="G18" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H18">
-        <v>16000</v>
+        <v>52000</v>
       </c>
       <c r="I18">
-        <v>1600000</v>
+        <v>2000000</v>
       </c>
       <c r="J18">
-        <v>20000</v>
+        <v>26000</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C19" t="s">
         <v>58</v>
       </c>
       <c r="D19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F19" t="s">
-        <v>75</v>
+        <v>29</v>
       </c>
       <c r="G19" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="H19">
-        <v>33600</v>
+        <v>34500</v>
       </c>
       <c r="I19">
-        <v>2240000</v>
+        <v>1500000</v>
       </c>
       <c r="J19">
-        <v>15000</v>
+        <v>23000</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1371,25 +1380,25 @@
     </row>
     <row r="20" spans="1:12">
       <c r="A20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C20" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D20" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E20" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F20" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G20" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H20">
         <v>16000</v>
@@ -1412,10 +1421,10 @@
         <v>18</v>
       </c>
       <c r="B21" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C21" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D21" t="s">
         <v>18</v>
@@ -1424,19 +1433,19 @@
         <v>18</v>
       </c>
       <c r="F21" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G21" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="H21">
-        <v>65908.25</v>
+        <v>33600</v>
       </c>
       <c r="I21">
-        <v>2636330</v>
+        <v>2240000</v>
       </c>
       <c r="J21">
-        <v>25000</v>
+        <v>15000</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1447,116 +1456,116 @@
     </row>
     <row r="22" spans="1:12">
       <c r="A22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B22" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="C22" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="D22" t="s">
-        <v>69</v>
+        <v>18</v>
       </c>
       <c r="E22" t="s">
-        <v>71</v>
+        <v>18</v>
       </c>
       <c r="F22" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="G22" t="s">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="H22">
-        <v>12636</v>
+        <v>65908.25</v>
       </c>
       <c r="I22">
-        <v>16200000</v>
+        <v>2636330</v>
       </c>
       <c r="J22">
-        <v>26000</v>
+        <v>25000</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>3</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:12">
       <c r="A23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B23" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D23" t="s">
-        <v>19</v>
+        <v>71</v>
       </c>
       <c r="E23" t="s">
-        <v>19</v>
+        <v>71</v>
       </c>
       <c r="F23" t="s">
-        <v>30</v>
+        <v>76</v>
       </c>
       <c r="G23" t="s">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="H23">
-        <v>26400</v>
+        <v>16000</v>
       </c>
       <c r="I23">
-        <v>1100000</v>
+        <v>1600000</v>
       </c>
       <c r="J23">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:12">
       <c r="A24" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B24" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C24" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="D24" t="s">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="E24" t="s">
-        <v>20</v>
+        <v>72</v>
       </c>
       <c r="F24" t="s">
-        <v>32</v>
+        <v>75</v>
       </c>
       <c r="G24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H24">
-        <v>4966.368</v>
+        <v>12636</v>
       </c>
       <c r="I24">
-        <v>1128720</v>
+        <v>16200000</v>
       </c>
       <c r="J24">
-        <v>4400</v>
+        <v>26000</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>100</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1564,7 +1573,7 @@
         <v>20</v>
       </c>
       <c r="B25" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="C25" t="s">
         <v>62</v>
@@ -1576,19 +1585,19 @@
         <v>20</v>
       </c>
       <c r="F25" t="s">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="G25" t="s">
-        <v>82</v>
+        <v>41</v>
       </c>
       <c r="H25">
-        <v>36000</v>
+        <v>4966.368</v>
       </c>
       <c r="I25">
-        <v>18000000</v>
+        <v>1128720</v>
       </c>
       <c r="J25">
-        <v>2000</v>
+        <v>4400</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1599,104 +1608,104 @@
     </row>
     <row r="26" spans="1:12">
       <c r="A26" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B26" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C26" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="D26" t="s">
-        <v>69</v>
+        <v>20</v>
       </c>
       <c r="E26" t="s">
-        <v>71</v>
+        <v>20</v>
       </c>
       <c r="F26" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G26" t="s">
-        <v>38</v>
+        <v>85</v>
       </c>
       <c r="H26">
-        <v>4212</v>
+        <v>36000</v>
       </c>
       <c r="I26">
-        <v>16200000</v>
+        <v>18000000</v>
       </c>
       <c r="J26">
-        <v>26000</v>
+        <v>2000</v>
       </c>
       <c r="K26">
         <v>0</v>
       </c>
       <c r="L26">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:12">
       <c r="A27" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B27" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C27" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="D27" t="s">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="E27" t="s">
         <v>72</v>
       </c>
       <c r="F27" t="s">
-        <v>28</v>
+        <v>75</v>
       </c>
       <c r="G27" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H27">
-        <v>15484</v>
+        <v>4212</v>
       </c>
       <c r="I27">
-        <v>1580000</v>
+        <v>16200000</v>
       </c>
       <c r="J27">
-        <v>14000</v>
+        <v>26000</v>
       </c>
       <c r="K27">
         <v>0</v>
       </c>
       <c r="L27">
-        <v>70</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:12">
       <c r="A28" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B28" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C28" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D28" t="s">
         <v>22</v>
       </c>
       <c r="E28" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F28" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G28" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H28">
-        <v>6636</v>
+        <v>15484</v>
       </c>
       <c r="I28">
         <v>1580000</v>
@@ -1708,45 +1717,45 @@
         <v>0</v>
       </c>
       <c r="L28">
-        <v>30</v>
+        <v>70</v>
       </c>
     </row>
     <row r="29" spans="1:12">
       <c r="A29" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B29" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="C29" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="D29" t="s">
-        <v>69</v>
+        <v>22</v>
       </c>
       <c r="E29" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F29" t="s">
-        <v>73</v>
+        <v>29</v>
       </c>
       <c r="G29" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H29">
-        <v>12636</v>
+        <v>6636</v>
       </c>
       <c r="I29">
-        <v>16200000</v>
+        <v>1580000</v>
       </c>
       <c r="J29">
-        <v>26000</v>
+        <v>14000</v>
       </c>
       <c r="K29">
         <v>0</v>
       </c>
       <c r="L29">
-        <v>3</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -1754,69 +1763,69 @@
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="C30" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="D30" t="s">
-        <v>24</v>
+        <v>70</v>
       </c>
       <c r="E30" t="s">
-        <v>24</v>
+        <v>72</v>
       </c>
       <c r="F30" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G30" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H30">
+        <v>12636</v>
+      </c>
+      <c r="I30">
+        <v>16200000</v>
+      </c>
+      <c r="J30">
         <v>26000</v>
       </c>
-      <c r="I30">
-        <v>4000000</v>
-      </c>
-      <c r="J30">
-        <v>6500</v>
-      </c>
       <c r="K30">
         <v>0</v>
       </c>
       <c r="L30">
-        <v>100</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:12">
       <c r="A31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B31" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C31" t="s">
         <v>65</v>
       </c>
       <c r="D31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F31" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="G31" t="s">
-        <v>89</v>
+        <v>34</v>
       </c>
       <c r="H31">
-        <v>5390</v>
+        <v>26000</v>
       </c>
       <c r="I31">
-        <v>770000</v>
+        <v>4000000</v>
       </c>
       <c r="J31">
-        <v>7000</v>
+        <v>6500</v>
       </c>
       <c r="K31">
         <v>0</v>
@@ -1830,19 +1839,19 @@
         <v>25</v>
       </c>
       <c r="B32" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D32" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E32" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F32" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G32" t="s">
         <v>38</v>
@@ -1865,40 +1874,40 @@
     </row>
     <row r="33" spans="1:12">
       <c r="A33" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B33" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="C33" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="D33" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="E33" t="s">
-        <v>71</v>
+        <v>25</v>
       </c>
       <c r="F33" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="G33" t="s">
-        <v>38</v>
+        <v>92</v>
       </c>
       <c r="H33">
-        <v>126360</v>
+        <v>5390</v>
       </c>
       <c r="I33">
-        <v>16200000</v>
+        <v>770000</v>
       </c>
       <c r="J33">
-        <v>26000</v>
+        <v>7000</v>
       </c>
       <c r="K33">
         <v>0</v>
       </c>
       <c r="L33">
-        <v>30</v>
+        <v>100</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -1906,42 +1915,42 @@
         <v>26</v>
       </c>
       <c r="B34" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C34" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="D34" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="E34" t="s">
-        <v>26</v>
+        <v>73</v>
       </c>
       <c r="F34" t="s">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="G34" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="H34">
-        <v>30600</v>
+        <v>12576.7488</v>
       </c>
       <c r="I34">
-        <v>1800000</v>
+        <v>11580800</v>
       </c>
       <c r="J34">
-        <v>17000</v>
+        <v>36200</v>
       </c>
       <c r="K34">
         <v>0</v>
       </c>
       <c r="L34">
-        <v>100</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:12">
       <c r="A35" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B35" t="s">
         <v>31</v>
@@ -1950,16 +1959,16 @@
         <v>67</v>
       </c>
       <c r="D35" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E35" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F35" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G35" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H35">
         <v>8000</v>
@@ -1982,36 +1991,112 @@
         <v>27</v>
       </c>
       <c r="B36" t="s">
+        <v>29</v>
+      </c>
+      <c r="C36" t="s">
+        <v>45</v>
+      </c>
+      <c r="D36" t="s">
+        <v>70</v>
+      </c>
+      <c r="E36" t="s">
+        <v>72</v>
+      </c>
+      <c r="F36" t="s">
+        <v>75</v>
+      </c>
+      <c r="G36" t="s">
+        <v>38</v>
+      </c>
+      <c r="H36">
+        <v>126360</v>
+      </c>
+      <c r="I36">
+        <v>16200000</v>
+      </c>
+      <c r="J36">
+        <v>26000</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
+      <c r="A37" t="s">
+        <v>27</v>
+      </c>
+      <c r="B37" t="s">
         <v>43</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C37" t="s">
         <v>68</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D37" t="s">
         <v>27</v>
       </c>
-      <c r="E36" t="s">
+      <c r="E37" t="s">
         <v>27</v>
       </c>
-      <c r="F36" t="s">
+      <c r="F37" t="s">
+        <v>37</v>
+      </c>
+      <c r="G37" t="s">
+        <v>78</v>
+      </c>
+      <c r="H37">
+        <v>30600</v>
+      </c>
+      <c r="I37">
+        <v>1800000</v>
+      </c>
+      <c r="J37">
+        <v>17000</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
+      <c r="A38" t="s">
+        <v>28</v>
+      </c>
+      <c r="B38" t="s">
+        <v>44</v>
+      </c>
+      <c r="C38" t="s">
+        <v>69</v>
+      </c>
+      <c r="D38" t="s">
+        <v>28</v>
+      </c>
+      <c r="E38" t="s">
+        <v>28</v>
+      </c>
+      <c r="F38" t="s">
+        <v>85</v>
+      </c>
+      <c r="G38" t="s">
         <v>82</v>
       </c>
-      <c r="G36" t="s">
-        <v>78</v>
-      </c>
-      <c r="H36">
+      <c r="H38">
         <v>8000</v>
       </c>
-      <c r="I36">
+      <c r="I38">
         <v>4000000</v>
       </c>
-      <c r="J36">
+      <c r="J38">
         <v>2000</v>
       </c>
-      <c r="K36">
-        <v>0</v>
-      </c>
-      <c r="L36">
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38">
         <v>100</v>
       </c>
     </row>

--- a/datasets/form3.xlsx
+++ b/datasets/form3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="88">
   <si>
     <t>인수기관</t>
   </si>
@@ -82,12 +82,6 @@
     <t>유비에스</t>
   </si>
   <si>
-    <t>유안타</t>
-  </si>
-  <si>
-    <t>유진</t>
-  </si>
-  <si>
     <t>키움</t>
   </si>
   <si>
@@ -109,42 +103,42 @@
     <t>2023-10-31</t>
   </si>
   <si>
+    <t>2023-10-24</t>
+  </si>
+  <si>
+    <t>2023-10-26</t>
+  </si>
+  <si>
     <t>2023-11-01</t>
   </si>
   <si>
     <t>2023-09-19</t>
   </si>
   <si>
-    <t>2023-10-24</t>
-  </si>
-  <si>
-    <t>2023-10-26</t>
+    <t>2023-11-06</t>
   </si>
   <si>
     <t>2023-11-08</t>
   </si>
   <si>
-    <t>2023-11-06</t>
-  </si>
-  <si>
     <t>2023-10-23</t>
   </si>
   <si>
+    <t>2023-10-10</t>
+  </si>
+  <si>
     <t>2023-10-05</t>
   </si>
   <si>
-    <t>2023-10-10</t>
-  </si>
-  <si>
-    <t>2023-09-18</t>
-  </si>
-  <si>
     <t>2023-11-02</t>
   </si>
   <si>
     <t>2023-10-16</t>
   </si>
   <si>
+    <t>2023-11-09</t>
+  </si>
+  <si>
     <t>2023-10-18</t>
   </si>
   <si>
@@ -157,45 +151,42 @@
     <t>비아이매트릭스</t>
   </si>
   <si>
+    <t>KB제27호스팩</t>
+  </si>
+  <si>
+    <t>쏘닉스</t>
+  </si>
+  <si>
     <t>에스와이스틸텍</t>
   </si>
   <si>
     <t>한싹</t>
   </si>
   <si>
-    <t>KB제27호스팩</t>
-  </si>
-  <si>
-    <t>쏘닉스</t>
+    <t>캡스톤파트너스</t>
+  </si>
+  <si>
+    <t>메가터치</t>
   </si>
   <si>
     <t>에코프로머티</t>
   </si>
   <si>
-    <t>캡스톤파트너스</t>
-  </si>
-  <si>
     <t>유진테크놀로지</t>
   </si>
   <si>
-    <t>메가터치</t>
-  </si>
-  <si>
     <t>컨텍</t>
   </si>
   <si>
+    <t>신성에스티</t>
+  </si>
+  <si>
+    <t>큐로셀</t>
+  </si>
+  <si>
     <t>퓨릿</t>
   </si>
   <si>
-    <t>신성에스티</t>
-  </si>
-  <si>
-    <t>밀리의서재</t>
-  </si>
-  <si>
-    <t>큐로셀</t>
-  </si>
-  <si>
     <t>레뷰코퍼레이션</t>
   </si>
   <si>
@@ -208,15 +199,15 @@
     <t>신한제11호스팩</t>
   </si>
   <si>
-    <t>아이엠티</t>
-  </si>
-  <si>
     <t>워트</t>
   </si>
   <si>
     <t>에스엘에스바이오</t>
   </si>
   <si>
+    <t>스톰테크</t>
+  </si>
+  <si>
     <t>한국제13호스팩</t>
   </si>
   <si>
@@ -238,61 +229,55 @@
     <t>미래, NH, 하이</t>
   </si>
   <si>
-    <t>유안타, 유진</t>
-  </si>
-  <si>
     <t>2023-09-26</t>
   </si>
   <si>
     <t>2023-11-03</t>
   </si>
   <si>
+    <t>2023-10-27</t>
+  </si>
+  <si>
     <t>2023-09-22</t>
   </si>
   <si>
-    <t>2023-10-27</t>
-  </si>
-  <si>
     <t>2023-11-13</t>
   </si>
   <si>
-    <t>2023-11-09</t>
+    <t>2023-10-13</t>
   </si>
   <si>
     <t>2023-10-11</t>
   </si>
   <si>
-    <t>2023-10-13</t>
-  </si>
-  <si>
     <t>2023-11-07</t>
   </si>
   <si>
     <t>2023-10-19</t>
   </si>
   <si>
+    <t>2023-11-14</t>
+  </si>
+  <si>
     <t>2023-10-04</t>
   </si>
   <si>
-    <t>2023-11-14</t>
+    <t>2023-11-15</t>
+  </si>
+  <si>
+    <t>2023-11-10</t>
   </si>
   <si>
     <t>2023-11-17</t>
   </si>
   <si>
-    <t>2023-11-15</t>
-  </si>
-  <si>
-    <t>2023-11-10</t>
-  </si>
-  <si>
-    <t>2023-09-27</t>
-  </si>
-  <si>
     <t>2023-10-06</t>
   </si>
   <si>
     <t>2023-10-20</t>
+  </si>
+  <si>
+    <t>2023-11-20</t>
   </si>
 </sst>
 </file>
@@ -650,7 +635,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L38"/>
+  <dimension ref="A1:L36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -699,22 +684,22 @@
         <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H2">
         <v>42120</v>
@@ -737,10 +722,10 @@
         <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D3" t="s">
         <v>13</v>
@@ -749,10 +734,10 @@
         <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G3" t="s">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="H3">
         <v>15600</v>
@@ -775,10 +760,10 @@
         <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D4" t="s">
         <v>14</v>
@@ -787,19 +772,19 @@
         <v>14</v>
       </c>
       <c r="F4" t="s">
-        <v>36</v>
+        <v>73</v>
       </c>
       <c r="G4" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="H4">
-        <v>12600</v>
+        <v>25000</v>
       </c>
       <c r="I4">
-        <v>7000000</v>
+        <v>12500000</v>
       </c>
       <c r="J4">
-        <v>1800</v>
+        <v>2000</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -813,10 +798,10 @@
         <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D5" t="s">
         <v>14</v>
@@ -825,19 +810,19 @@
         <v>14</v>
       </c>
       <c r="F5" t="s">
-        <v>77</v>
+        <v>28</v>
       </c>
       <c r="G5" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="H5">
-        <v>18750</v>
+        <v>27000</v>
       </c>
       <c r="I5">
-        <v>1500000</v>
+        <v>3600000</v>
       </c>
       <c r="J5">
-        <v>12500</v>
+        <v>7500</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -851,37 +836,37 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C6" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D6" t="s">
-        <v>70</v>
+        <v>14</v>
       </c>
       <c r="E6" t="s">
-        <v>72</v>
+        <v>14</v>
       </c>
       <c r="F6" t="s">
-        <v>75</v>
+        <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="H6">
-        <v>42120</v>
+        <v>12600</v>
       </c>
       <c r="I6">
-        <v>16200000</v>
+        <v>7000000</v>
       </c>
       <c r="J6">
-        <v>26000</v>
+        <v>1800</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -889,10 +874,10 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D7" t="s">
         <v>14</v>
@@ -901,19 +886,19 @@
         <v>14</v>
       </c>
       <c r="F7" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G7" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="H7">
-        <v>25000</v>
+        <v>18750</v>
       </c>
       <c r="I7">
-        <v>12500000</v>
+        <v>1500000</v>
       </c>
       <c r="J7">
-        <v>2000</v>
+        <v>12500</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -927,37 +912,37 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C8" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="E8" t="s">
-        <v>14</v>
+        <v>69</v>
       </c>
       <c r="F8" t="s">
-        <v>30</v>
+        <v>71</v>
       </c>
       <c r="G8" t="s">
-        <v>83</v>
+        <v>37</v>
       </c>
       <c r="H8">
-        <v>27000</v>
+        <v>42120</v>
       </c>
       <c r="I8">
-        <v>3600000</v>
+        <v>16200000</v>
       </c>
       <c r="J8">
-        <v>7500</v>
+        <v>26000</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>100</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -965,37 +950,37 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="D9" t="s">
-        <v>17</v>
+        <v>67</v>
       </c>
       <c r="E9" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F9" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="G9" t="s">
-        <v>87</v>
+        <v>37</v>
       </c>
       <c r="H9">
-        <v>121994.4706</v>
+        <v>42120</v>
       </c>
       <c r="I9">
-        <v>11580800</v>
+        <v>16200000</v>
       </c>
       <c r="J9">
-        <v>36200</v>
+        <v>26000</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>29.1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -1003,10 +988,10 @@
         <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C10" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D10" t="s">
         <v>15</v>
@@ -1015,10 +1000,10 @@
         <v>15</v>
       </c>
       <c r="F10" t="s">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="G10" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="H10">
         <v>6384</v>
@@ -1041,37 +1026,37 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C11" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D11" t="s">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="E11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" t="s">
         <v>72</v>
       </c>
-      <c r="F11" t="s">
-        <v>75</v>
-      </c>
       <c r="G11" t="s">
-        <v>38</v>
+        <v>83</v>
       </c>
       <c r="H11">
-        <v>42120</v>
+        <v>24960</v>
       </c>
       <c r="I11">
-        <v>16200000</v>
+        <v>5200000</v>
       </c>
       <c r="J11">
-        <v>26000</v>
+        <v>4800</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -1079,37 +1064,37 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D12" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E12" t="s">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="F12" t="s">
-        <v>34</v>
+        <v>75</v>
       </c>
       <c r="G12" t="s">
-        <v>41</v>
+        <v>84</v>
       </c>
       <c r="H12">
-        <v>17841.194</v>
+        <v>121994.4706</v>
       </c>
       <c r="I12">
-        <v>1049482</v>
+        <v>11580800</v>
       </c>
       <c r="J12">
-        <v>17000</v>
+        <v>36200</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>100</v>
+        <v>29.1</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -1117,10 +1102,10 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C13" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D13" t="s">
         <v>15</v>
@@ -1129,19 +1114,19 @@
         <v>15</v>
       </c>
       <c r="F13" t="s">
-        <v>76</v>
+        <v>30</v>
       </c>
       <c r="G13" t="s">
-        <v>89</v>
+        <v>38</v>
       </c>
       <c r="H13">
-        <v>24960</v>
+        <v>17841.194</v>
       </c>
       <c r="I13">
-        <v>5200000</v>
+        <v>1049482</v>
       </c>
       <c r="J13">
-        <v>4800</v>
+        <v>17000</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1155,10 +1140,10 @@
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C14" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D14" t="s">
         <v>16</v>
@@ -1167,10 +1152,10 @@
         <v>16</v>
       </c>
       <c r="F14" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G14" t="s">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="H14">
         <v>46350</v>
@@ -1193,37 +1178,37 @@
         <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="C15" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="D15" t="s">
-        <v>17</v>
+        <v>67</v>
       </c>
       <c r="E15" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F15" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="G15" t="s">
-        <v>87</v>
+        <v>37</v>
       </c>
       <c r="H15">
-        <v>284653.7406</v>
+        <v>126360</v>
       </c>
       <c r="I15">
-        <v>11580800</v>
+        <v>16200000</v>
       </c>
       <c r="J15">
-        <v>36200</v>
+        <v>26000</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>67.90000000000001</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -1231,28 +1216,28 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C16" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="D16" t="s">
-        <v>70</v>
+        <v>17</v>
       </c>
       <c r="E16" t="s">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="F16" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G16" t="s">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="H16">
-        <v>126360</v>
+        <v>52000</v>
       </c>
       <c r="I16">
-        <v>16200000</v>
+        <v>2000000</v>
       </c>
       <c r="J16">
         <v>26000</v>
@@ -1261,7 +1246,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>30</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -1269,37 +1254,37 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C17" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D17" t="s">
         <v>17</v>
       </c>
       <c r="E17" t="s">
-        <v>17</v>
+        <v>70</v>
       </c>
       <c r="F17" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G17" t="s">
-        <v>43</v>
+        <v>84</v>
       </c>
       <c r="H17">
-        <v>44265.9</v>
+        <v>284653.7406</v>
       </c>
       <c r="I17">
-        <v>4137000</v>
+        <v>11580800</v>
       </c>
       <c r="J17">
-        <v>10700</v>
+        <v>36200</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>100</v>
+        <v>67.90000000000001</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1307,37 +1292,37 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="C18" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D18" t="s">
-        <v>17</v>
+        <v>68</v>
       </c>
       <c r="E18" t="s">
-        <v>17</v>
+        <v>68</v>
       </c>
       <c r="F18" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="G18" t="s">
-        <v>84</v>
+        <v>40</v>
       </c>
       <c r="H18">
-        <v>52000</v>
+        <v>16000</v>
       </c>
       <c r="I18">
-        <v>2000000</v>
+        <v>1600000</v>
       </c>
       <c r="J18">
-        <v>26000</v>
+        <v>20000</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1345,10 +1330,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C19" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D19" t="s">
         <v>17</v>
@@ -1357,19 +1342,19 @@
         <v>17</v>
       </c>
       <c r="F19" t="s">
-        <v>29</v>
+        <v>77</v>
       </c>
       <c r="G19" t="s">
-        <v>90</v>
+        <v>41</v>
       </c>
       <c r="H19">
-        <v>34500</v>
+        <v>44265.9</v>
       </c>
       <c r="I19">
-        <v>1500000</v>
+        <v>4137000</v>
       </c>
       <c r="J19">
-        <v>23000</v>
+        <v>10700</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1380,40 +1365,40 @@
     </row>
     <row r="20" spans="1:12">
       <c r="A20" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C20" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D20" t="s">
-        <v>71</v>
+        <v>18</v>
       </c>
       <c r="E20" t="s">
-        <v>71</v>
+        <v>18</v>
       </c>
       <c r="F20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G20" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="H20">
-        <v>16000</v>
+        <v>33600</v>
       </c>
       <c r="I20">
-        <v>1600000</v>
+        <v>2240000</v>
       </c>
       <c r="J20">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1421,10 +1406,10 @@
         <v>18</v>
       </c>
       <c r="B21" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C21" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D21" t="s">
         <v>18</v>
@@ -1433,19 +1418,19 @@
         <v>18</v>
       </c>
       <c r="F21" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G21" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="H21">
-        <v>33600</v>
+        <v>65908.25</v>
       </c>
       <c r="I21">
-        <v>2240000</v>
+        <v>2636330</v>
       </c>
       <c r="J21">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1459,113 +1444,113 @@
         <v>18</v>
       </c>
       <c r="B22" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C22" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D22" t="s">
-        <v>18</v>
+        <v>68</v>
       </c>
       <c r="E22" t="s">
-        <v>18</v>
+        <v>68</v>
       </c>
       <c r="F22" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="G22" t="s">
-        <v>79</v>
+        <v>40</v>
       </c>
       <c r="H22">
-        <v>65908.25</v>
+        <v>16000</v>
       </c>
       <c r="I22">
-        <v>2636330</v>
+        <v>1600000</v>
       </c>
       <c r="J22">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:12">
       <c r="A23" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B23" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C23" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="D23" t="s">
+        <v>67</v>
+      </c>
+      <c r="E23" t="s">
+        <v>69</v>
+      </c>
+      <c r="F23" t="s">
         <v>71</v>
       </c>
-      <c r="E23" t="s">
-        <v>71</v>
-      </c>
-      <c r="F23" t="s">
-        <v>76</v>
-      </c>
       <c r="G23" t="s">
-        <v>80</v>
+        <v>37</v>
       </c>
       <c r="H23">
-        <v>16000</v>
+        <v>12636</v>
       </c>
       <c r="I23">
-        <v>1600000</v>
+        <v>16200000</v>
       </c>
       <c r="J23">
-        <v>20000</v>
+        <v>26000</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>50</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:12">
       <c r="A24" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B24" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C24" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="D24" t="s">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="E24" t="s">
-        <v>72</v>
+        <v>20</v>
       </c>
       <c r="F24" t="s">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="G24" t="s">
         <v>38</v>
       </c>
       <c r="H24">
-        <v>12636</v>
+        <v>4966.368</v>
       </c>
       <c r="I24">
-        <v>16200000</v>
+        <v>1128720</v>
       </c>
       <c r="J24">
-        <v>26000</v>
+        <v>4400</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>3</v>
+        <v>100</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1573,10 +1558,10 @@
         <v>20</v>
       </c>
       <c r="B25" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C25" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D25" t="s">
         <v>20</v>
@@ -1585,19 +1570,19 @@
         <v>20</v>
       </c>
       <c r="F25" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="G25" t="s">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="H25">
-        <v>4966.368</v>
+        <v>36000</v>
       </c>
       <c r="I25">
-        <v>1128720</v>
+        <v>18000000</v>
       </c>
       <c r="J25">
-        <v>4400</v>
+        <v>2000</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1608,78 +1593,78 @@
     </row>
     <row r="26" spans="1:12">
       <c r="A26" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B26" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C26" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="D26" t="s">
-        <v>20</v>
+        <v>67</v>
       </c>
       <c r="E26" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="F26" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="G26" t="s">
-        <v>85</v>
+        <v>37</v>
       </c>
       <c r="H26">
-        <v>36000</v>
+        <v>4212</v>
       </c>
       <c r="I26">
-        <v>18000000</v>
+        <v>16200000</v>
       </c>
       <c r="J26">
-        <v>2000</v>
+        <v>26000</v>
       </c>
       <c r="K26">
         <v>0</v>
       </c>
       <c r="L26">
-        <v>100</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:12">
       <c r="A27" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B27" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C27" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="D27" t="s">
-        <v>70</v>
+        <v>22</v>
       </c>
       <c r="E27" t="s">
-        <v>72</v>
+        <v>22</v>
       </c>
       <c r="F27" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G27" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H27">
-        <v>4212</v>
+        <v>26000</v>
       </c>
       <c r="I27">
-        <v>16200000</v>
+        <v>4000000</v>
       </c>
       <c r="J27">
-        <v>26000</v>
+        <v>6500</v>
       </c>
       <c r="K27">
         <v>0</v>
       </c>
       <c r="L27">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -1687,37 +1672,37 @@
         <v>22</v>
       </c>
       <c r="B28" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="C28" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="D28" t="s">
-        <v>22</v>
+        <v>67</v>
       </c>
       <c r="E28" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="F28" t="s">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="G28" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H28">
-        <v>15484</v>
+        <v>12636</v>
       </c>
       <c r="I28">
-        <v>1580000</v>
+        <v>16200000</v>
       </c>
       <c r="J28">
-        <v>14000</v>
+        <v>26000</v>
       </c>
       <c r="K28">
         <v>0</v>
       </c>
       <c r="L28">
-        <v>70</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -1725,60 +1710,60 @@
         <v>23</v>
       </c>
       <c r="B29" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C29" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D29" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E29" t="s">
-        <v>74</v>
+        <v>23</v>
       </c>
       <c r="F29" t="s">
-        <v>29</v>
+        <v>76</v>
       </c>
       <c r="G29" t="s">
-        <v>39</v>
+        <v>86</v>
       </c>
       <c r="H29">
-        <v>6636</v>
+        <v>5390</v>
       </c>
       <c r="I29">
-        <v>1580000</v>
+        <v>770000</v>
       </c>
       <c r="J29">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="K29">
         <v>0</v>
       </c>
       <c r="L29">
-        <v>30</v>
+        <v>100</v>
       </c>
     </row>
     <row r="30" spans="1:12">
       <c r="A30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B30" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C30" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D30" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E30" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F30" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G30" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H30">
         <v>12636</v>
@@ -1801,10 +1786,10 @@
         <v>24</v>
       </c>
       <c r="B31" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C31" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D31" t="s">
         <v>24</v>
@@ -1813,19 +1798,19 @@
         <v>24</v>
       </c>
       <c r="F31" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="G31" t="s">
-        <v>34</v>
+        <v>87</v>
       </c>
       <c r="H31">
-        <v>26000</v>
+        <v>36850</v>
       </c>
       <c r="I31">
-        <v>4000000</v>
+        <v>3350000</v>
       </c>
       <c r="J31">
-        <v>6500</v>
+        <v>11000</v>
       </c>
       <c r="K31">
         <v>0</v>
@@ -1836,34 +1821,34 @@
     </row>
     <row r="32" spans="1:12">
       <c r="A32" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B32" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C32" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="D32" t="s">
+        <v>17</v>
+      </c>
+      <c r="E32" t="s">
         <v>70</v>
-      </c>
-      <c r="E32" t="s">
-        <v>72</v>
       </c>
       <c r="F32" t="s">
         <v>75</v>
       </c>
       <c r="G32" t="s">
-        <v>38</v>
+        <v>84</v>
       </c>
       <c r="H32">
-        <v>12636</v>
+        <v>12576.7488</v>
       </c>
       <c r="I32">
-        <v>16200000</v>
+        <v>11580800</v>
       </c>
       <c r="J32">
-        <v>26000</v>
+        <v>36200</v>
       </c>
       <c r="K32">
         <v>0</v>
@@ -1877,10 +1862,10 @@
         <v>25</v>
       </c>
       <c r="B33" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C33" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D33" t="s">
         <v>25</v>
@@ -1889,19 +1874,19 @@
         <v>25</v>
       </c>
       <c r="F33" t="s">
-        <v>82</v>
+        <v>33</v>
       </c>
       <c r="G33" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="H33">
-        <v>5390</v>
+        <v>8000</v>
       </c>
       <c r="I33">
-        <v>770000</v>
+        <v>4000000</v>
       </c>
       <c r="J33">
-        <v>7000</v>
+        <v>2000</v>
       </c>
       <c r="K33">
         <v>0</v>
@@ -1912,72 +1897,72 @@
     </row>
     <row r="34" spans="1:12">
       <c r="A34" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B34" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="C34" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="D34" t="s">
-        <v>17</v>
+        <v>67</v>
       </c>
       <c r="E34" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F34" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="G34" t="s">
-        <v>87</v>
+        <v>37</v>
       </c>
       <c r="H34">
-        <v>12576.7488</v>
+        <v>126360</v>
       </c>
       <c r="I34">
-        <v>11580800</v>
+        <v>16200000</v>
       </c>
       <c r="J34">
-        <v>36200</v>
+        <v>26000</v>
       </c>
       <c r="K34">
         <v>0</v>
       </c>
       <c r="L34">
-        <v>3</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35" spans="1:12">
       <c r="A35" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B35" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="C35" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D35" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E35" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G35" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="H35">
-        <v>8000</v>
+        <v>30600</v>
       </c>
       <c r="I35">
-        <v>4000000</v>
+        <v>1800000</v>
       </c>
       <c r="J35">
-        <v>2000</v>
+        <v>17000</v>
       </c>
       <c r="K35">
         <v>0</v>
@@ -1988,115 +1973,39 @@
     </row>
     <row r="36" spans="1:12">
       <c r="A36" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B36" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="C36" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="D36" t="s">
-        <v>70</v>
+        <v>26</v>
       </c>
       <c r="E36" t="s">
-        <v>72</v>
+        <v>26</v>
       </c>
       <c r="F36" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="G36" t="s">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="H36">
-        <v>126360</v>
+        <v>8000</v>
       </c>
       <c r="I36">
-        <v>16200000</v>
+        <v>4000000</v>
       </c>
       <c r="J36">
-        <v>26000</v>
+        <v>2000</v>
       </c>
       <c r="K36">
         <v>0</v>
       </c>
       <c r="L36">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12">
-      <c r="A37" t="s">
-        <v>27</v>
-      </c>
-      <c r="B37" t="s">
-        <v>43</v>
-      </c>
-      <c r="C37" t="s">
-        <v>68</v>
-      </c>
-      <c r="D37" t="s">
-        <v>27</v>
-      </c>
-      <c r="E37" t="s">
-        <v>27</v>
-      </c>
-      <c r="F37" t="s">
-        <v>37</v>
-      </c>
-      <c r="G37" t="s">
-        <v>78</v>
-      </c>
-      <c r="H37">
-        <v>30600</v>
-      </c>
-      <c r="I37">
-        <v>1800000</v>
-      </c>
-      <c r="J37">
-        <v>17000</v>
-      </c>
-      <c r="K37">
-        <v>0</v>
-      </c>
-      <c r="L37">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12">
-      <c r="A38" t="s">
-        <v>28</v>
-      </c>
-      <c r="B38" t="s">
-        <v>44</v>
-      </c>
-      <c r="C38" t="s">
-        <v>69</v>
-      </c>
-      <c r="D38" t="s">
-        <v>28</v>
-      </c>
-      <c r="E38" t="s">
-        <v>28</v>
-      </c>
-      <c r="F38" t="s">
-        <v>85</v>
-      </c>
-      <c r="G38" t="s">
-        <v>82</v>
-      </c>
-      <c r="H38">
-        <v>8000</v>
-      </c>
-      <c r="I38">
-        <v>4000000</v>
-      </c>
-      <c r="J38">
-        <v>2000</v>
-      </c>
-      <c r="K38">
-        <v>0</v>
-      </c>
-      <c r="L38">
         <v>100</v>
       </c>
     </row>

--- a/datasets/form3.xlsx
+++ b/datasets/form3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="89">
   <si>
     <t>인수기관</t>
   </si>
@@ -103,6 +103,9 @@
     <t>2023-10-31</t>
   </si>
   <si>
+    <t>2023-11-10</t>
+  </si>
+  <si>
     <t>2023-10-24</t>
   </si>
   <si>
@@ -112,33 +115,33 @@
     <t>2023-11-01</t>
   </si>
   <si>
+    <t>2023-10-23</t>
+  </si>
+  <si>
+    <t>2023-11-06</t>
+  </si>
+  <si>
+    <t>2023-11-08</t>
+  </si>
+  <si>
+    <t>2023-11-09</t>
+  </si>
+  <si>
+    <t>2023-10-05</t>
+  </si>
+  <si>
+    <t>2023-10-10</t>
+  </si>
+  <si>
+    <t>2023-11-02</t>
+  </si>
+  <si>
     <t>2023-09-19</t>
   </si>
   <si>
-    <t>2023-11-06</t>
-  </si>
-  <si>
-    <t>2023-11-08</t>
-  </si>
-  <si>
-    <t>2023-10-23</t>
-  </si>
-  <si>
-    <t>2023-10-10</t>
-  </si>
-  <si>
-    <t>2023-10-05</t>
-  </si>
-  <si>
-    <t>2023-11-02</t>
-  </si>
-  <si>
     <t>2023-10-16</t>
   </si>
   <si>
-    <t>2023-11-09</t>
-  </si>
-  <si>
     <t>2023-10-18</t>
   </si>
   <si>
@@ -151,6 +154,9 @@
     <t>비아이매트릭스</t>
   </si>
   <si>
+    <t>에코아이</t>
+  </si>
+  <si>
     <t>KB제27호스팩</t>
   </si>
   <si>
@@ -160,45 +166,42 @@
     <t>에스와이스틸텍</t>
   </si>
   <si>
-    <t>한싹</t>
+    <t>메가터치</t>
+  </si>
+  <si>
+    <t>유진테크놀로지</t>
   </si>
   <si>
     <t>캡스톤파트너스</t>
   </si>
   <si>
-    <t>메가터치</t>
-  </si>
-  <si>
     <t>에코프로머티</t>
   </si>
   <si>
-    <t>유진테크놀로지</t>
+    <t>동인기연</t>
   </si>
   <si>
     <t>컨텍</t>
   </si>
   <si>
+    <t>퓨릿</t>
+  </si>
+  <si>
+    <t>큐로셀</t>
+  </si>
+  <si>
     <t>신성에스티</t>
   </si>
   <si>
-    <t>큐로셀</t>
-  </si>
-  <si>
-    <t>퓨릿</t>
-  </si>
-  <si>
-    <t>레뷰코퍼레이션</t>
-  </si>
-  <si>
     <t>에이직랜드</t>
   </si>
   <si>
+    <t>신한제11호스팩</t>
+  </si>
+  <si>
     <t>유투바이오</t>
   </si>
   <si>
-    <t>신한제11호스팩</t>
-  </si>
-  <si>
     <t>워트</t>
   </si>
   <si>
@@ -208,12 +211,12 @@
     <t>스톰테크</t>
   </si>
   <si>
+    <t>퀄리타스반도체</t>
+  </si>
+  <si>
     <t>한국제13호스팩</t>
   </si>
   <si>
-    <t>퀄리타스반도체</t>
-  </si>
-  <si>
     <t>에이치엠씨제6호스팩</t>
   </si>
   <si>
@@ -235,43 +238,43 @@
     <t>2023-11-03</t>
   </si>
   <si>
+    <t>2023-11-15</t>
+  </si>
+  <si>
     <t>2023-10-27</t>
   </si>
   <si>
+    <t>2023-11-13</t>
+  </si>
+  <si>
+    <t>2023-11-14</t>
+  </si>
+  <si>
+    <t>2023-10-11</t>
+  </si>
+  <si>
+    <t>2023-10-13</t>
+  </si>
+  <si>
+    <t>2023-11-07</t>
+  </si>
+  <si>
     <t>2023-09-22</t>
   </si>
   <si>
-    <t>2023-11-13</t>
-  </si>
-  <si>
-    <t>2023-10-13</t>
-  </si>
-  <si>
-    <t>2023-10-11</t>
-  </si>
-  <si>
-    <t>2023-11-07</t>
-  </si>
-  <si>
     <t>2023-10-19</t>
   </si>
   <si>
-    <t>2023-11-14</t>
-  </si>
-  <si>
     <t>2023-10-04</t>
   </si>
   <si>
-    <t>2023-11-15</t>
-  </si>
-  <si>
-    <t>2023-11-10</t>
+    <t>2023-11-21</t>
   </si>
   <si>
     <t>2023-11-17</t>
   </si>
   <si>
-    <t>2023-10-06</t>
+    <t>2023-11-22</t>
   </si>
   <si>
     <t>2023-10-20</t>
@@ -687,16 +690,16 @@
         <v>27</v>
       </c>
       <c r="C2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G2" t="s">
         <v>37</v>
@@ -725,7 +728,7 @@
         <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D3" t="s">
         <v>13</v>
@@ -734,10 +737,10 @@
         <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H3">
         <v>15600</v>
@@ -763,7 +766,7 @@
         <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D4" t="s">
         <v>14</v>
@@ -772,19 +775,19 @@
         <v>14</v>
       </c>
       <c r="F4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G4" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="H4">
-        <v>25000</v>
+        <v>72141.3</v>
       </c>
       <c r="I4">
-        <v>12500000</v>
+        <v>2079000</v>
       </c>
       <c r="J4">
-        <v>2000</v>
+        <v>34700</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -798,37 +801,37 @@
         <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>70</v>
       </c>
       <c r="F5" t="s">
-        <v>28</v>
+        <v>72</v>
       </c>
       <c r="G5" t="s">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="H5">
-        <v>27000</v>
+        <v>42120</v>
       </c>
       <c r="I5">
-        <v>3600000</v>
+        <v>16200000</v>
       </c>
       <c r="J5">
-        <v>7500</v>
+        <v>26000</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>100</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -836,7 +839,7 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C6" t="s">
         <v>47</v>
@@ -848,19 +851,19 @@
         <v>14</v>
       </c>
       <c r="F6" t="s">
-        <v>33</v>
+        <v>75</v>
       </c>
       <c r="G6" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="H6">
-        <v>12600</v>
+        <v>25000</v>
       </c>
       <c r="I6">
-        <v>7000000</v>
+        <v>12500000</v>
       </c>
       <c r="J6">
-        <v>1800</v>
+        <v>2000</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -874,7 +877,7 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s">
         <v>48</v>
@@ -886,19 +889,19 @@
         <v>14</v>
       </c>
       <c r="F7" t="s">
-        <v>74</v>
+        <v>28</v>
       </c>
       <c r="G7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H7">
-        <v>18750</v>
+        <v>27000</v>
       </c>
       <c r="I7">
-        <v>1500000</v>
+        <v>3600000</v>
       </c>
       <c r="J7">
-        <v>12500</v>
+        <v>7500</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -912,37 +915,37 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C8" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="D8" t="s">
-        <v>67</v>
+        <v>14</v>
       </c>
       <c r="E8" t="s">
-        <v>69</v>
+        <v>14</v>
       </c>
       <c r="F8" t="s">
-        <v>71</v>
+        <v>34</v>
       </c>
       <c r="G8" t="s">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="H8">
-        <v>42120</v>
+        <v>12600</v>
       </c>
       <c r="I8">
-        <v>16200000</v>
+        <v>7000000</v>
       </c>
       <c r="J8">
-        <v>26000</v>
+        <v>1800</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -953,16 +956,16 @@
         <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G9" t="s">
         <v>37</v>
@@ -988,10 +991,10 @@
         <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D10" t="s">
         <v>15</v>
@@ -1000,19 +1003,19 @@
         <v>15</v>
       </c>
       <c r="F10" t="s">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="G10" t="s">
-        <v>82</v>
+        <v>29</v>
       </c>
       <c r="H10">
-        <v>6384</v>
+        <v>24960</v>
       </c>
       <c r="I10">
-        <v>1596000</v>
+        <v>5200000</v>
       </c>
       <c r="J10">
-        <v>4000</v>
+        <v>4800</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1026,10 +1029,10 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D11" t="s">
         <v>15</v>
@@ -1038,19 +1041,19 @@
         <v>15</v>
       </c>
       <c r="F11" t="s">
-        <v>72</v>
+        <v>31</v>
       </c>
       <c r="G11" t="s">
-        <v>83</v>
+        <v>39</v>
       </c>
       <c r="H11">
-        <v>24960</v>
+        <v>17841.194</v>
       </c>
       <c r="I11">
-        <v>5200000</v>
+        <v>1049482</v>
       </c>
       <c r="J11">
-        <v>4800</v>
+        <v>17000</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -1067,34 +1070,34 @@
         <v>34</v>
       </c>
       <c r="C12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D12" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E12" t="s">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="F12" t="s">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="G12" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="H12">
-        <v>121994.4706</v>
+        <v>6384</v>
       </c>
       <c r="I12">
-        <v>11580800</v>
+        <v>1596000</v>
       </c>
       <c r="J12">
-        <v>36200</v>
+        <v>4000</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>29.1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -1105,66 +1108,66 @@
         <v>35</v>
       </c>
       <c r="C13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D13" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E13" t="s">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="F13" t="s">
-        <v>30</v>
+        <v>76</v>
       </c>
       <c r="G13" t="s">
-        <v>38</v>
+        <v>85</v>
       </c>
       <c r="H13">
-        <v>17841.194</v>
+        <v>121994.4706</v>
       </c>
       <c r="I13">
-        <v>1049482</v>
+        <v>11580800</v>
       </c>
       <c r="J13">
-        <v>17000</v>
+        <v>36200</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>100</v>
+        <v>29.1</v>
       </c>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="C14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F14" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="G14" t="s">
-        <v>40</v>
+        <v>86</v>
       </c>
       <c r="H14">
-        <v>46350</v>
+        <v>44112</v>
       </c>
       <c r="I14">
-        <v>2060000</v>
+        <v>1470400</v>
       </c>
       <c r="J14">
-        <v>22500</v>
+        <v>30000</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1175,40 +1178,40 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C15" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="D15" t="s">
-        <v>67</v>
+        <v>16</v>
       </c>
       <c r="E15" t="s">
-        <v>69</v>
+        <v>16</v>
       </c>
       <c r="F15" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H15">
-        <v>126360</v>
+        <v>46350</v>
       </c>
       <c r="I15">
-        <v>16200000</v>
+        <v>2060000</v>
       </c>
       <c r="J15">
-        <v>26000</v>
+        <v>22500</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>30</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -1216,10 +1219,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C16" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D16" t="s">
         <v>17</v>
@@ -1228,19 +1231,19 @@
         <v>17</v>
       </c>
       <c r="F16" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G16" t="s">
-        <v>79</v>
+        <v>42</v>
       </c>
       <c r="H16">
-        <v>52000</v>
+        <v>44265.9</v>
       </c>
       <c r="I16">
-        <v>2000000</v>
+        <v>4137000</v>
       </c>
       <c r="J16">
-        <v>26000</v>
+        <v>10700</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1254,37 +1257,37 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C17" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="D17" t="s">
-        <v>17</v>
+        <v>69</v>
       </c>
       <c r="E17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F17" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G17" t="s">
-        <v>84</v>
+        <v>36</v>
       </c>
       <c r="H17">
-        <v>284653.7406</v>
+        <v>16000</v>
       </c>
       <c r="I17">
-        <v>11580800</v>
+        <v>1600000</v>
       </c>
       <c r="J17">
-        <v>36200</v>
+        <v>20000</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>67.90000000000001</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1292,37 +1295,37 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C18" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D18" t="s">
-        <v>68</v>
+        <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F18" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="G18" t="s">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="H18">
-        <v>16000</v>
+        <v>284653.7406</v>
       </c>
       <c r="I18">
-        <v>1600000</v>
+        <v>11580800</v>
       </c>
       <c r="J18">
-        <v>20000</v>
+        <v>36200</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>50</v>
+        <v>67.90000000000001</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1330,69 +1333,69 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" t="s">
+        <v>68</v>
+      </c>
+      <c r="E19" t="s">
+        <v>70</v>
+      </c>
+      <c r="F19" t="s">
+        <v>72</v>
+      </c>
+      <c r="G19" t="s">
         <v>37</v>
       </c>
-      <c r="C19" t="s">
-        <v>56</v>
-      </c>
-      <c r="D19" t="s">
-        <v>17</v>
-      </c>
-      <c r="E19" t="s">
-        <v>17</v>
-      </c>
-      <c r="F19" t="s">
-        <v>77</v>
-      </c>
-      <c r="G19" t="s">
-        <v>41</v>
-      </c>
       <c r="H19">
-        <v>44265.9</v>
+        <v>126360</v>
       </c>
       <c r="I19">
-        <v>4137000</v>
+        <v>16200000</v>
       </c>
       <c r="J19">
-        <v>10700</v>
+        <v>26000</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>100</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C20" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F20" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G20" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H20">
-        <v>33600</v>
+        <v>52000</v>
       </c>
       <c r="I20">
-        <v>2240000</v>
+        <v>2000000</v>
       </c>
       <c r="J20">
-        <v>15000</v>
+        <v>26000</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1406,37 +1409,37 @@
         <v>18</v>
       </c>
       <c r="B21" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="C21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D21" t="s">
-        <v>18</v>
+        <v>69</v>
       </c>
       <c r="E21" t="s">
-        <v>18</v>
+        <v>69</v>
       </c>
       <c r="F21" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="G21" t="s">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="H21">
-        <v>65908.25</v>
+        <v>16000</v>
       </c>
       <c r="I21">
-        <v>2636330</v>
+        <v>1600000</v>
       </c>
       <c r="J21">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1444,37 +1447,37 @@
         <v>18</v>
       </c>
       <c r="B22" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="C22" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D22" t="s">
-        <v>68</v>
+        <v>18</v>
       </c>
       <c r="E22" t="s">
-        <v>68</v>
+        <v>18</v>
       </c>
       <c r="F22" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="G22" t="s">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="H22">
-        <v>16000</v>
+        <v>65908.25</v>
       </c>
       <c r="I22">
-        <v>1600000</v>
+        <v>2636330</v>
       </c>
       <c r="J22">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1485,16 +1488,16 @@
         <v>27</v>
       </c>
       <c r="C23" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D23" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E23" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F23" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G23" t="s">
         <v>37</v>
@@ -1520,10 +1523,10 @@
         <v>20</v>
       </c>
       <c r="B24" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C24" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D24" t="s">
         <v>20</v>
@@ -1532,19 +1535,19 @@
         <v>20</v>
       </c>
       <c r="F24" t="s">
-        <v>30</v>
+        <v>81</v>
       </c>
       <c r="G24" t="s">
-        <v>38</v>
+        <v>83</v>
       </c>
       <c r="H24">
-        <v>4966.368</v>
+        <v>36000</v>
       </c>
       <c r="I24">
-        <v>1128720</v>
+        <v>18000000</v>
       </c>
       <c r="J24">
-        <v>4400</v>
+        <v>2000</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1558,10 +1561,10 @@
         <v>20</v>
       </c>
       <c r="B25" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C25" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D25" t="s">
         <v>20</v>
@@ -1570,19 +1573,19 @@
         <v>20</v>
       </c>
       <c r="F25" t="s">
-        <v>74</v>
+        <v>31</v>
       </c>
       <c r="G25" t="s">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="H25">
-        <v>36000</v>
+        <v>4966.368</v>
       </c>
       <c r="I25">
-        <v>18000000</v>
+        <v>1128720</v>
       </c>
       <c r="J25">
-        <v>2000</v>
+        <v>4400</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1599,16 +1602,16 @@
         <v>27</v>
       </c>
       <c r="C26" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D26" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E26" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F26" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G26" t="s">
         <v>37</v>
@@ -1634,10 +1637,10 @@
         <v>22</v>
       </c>
       <c r="B27" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C27" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D27" t="s">
         <v>22</v>
@@ -1646,10 +1649,10 @@
         <v>22</v>
       </c>
       <c r="F27" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="G27" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H27">
         <v>26000</v>
@@ -1675,16 +1678,16 @@
         <v>27</v>
       </c>
       <c r="C28" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D28" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E28" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F28" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G28" t="s">
         <v>37</v>
@@ -1710,37 +1713,37 @@
         <v>23</v>
       </c>
       <c r="B29" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="C29" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="D29" t="s">
-        <v>23</v>
+        <v>68</v>
       </c>
       <c r="E29" t="s">
-        <v>23</v>
+        <v>70</v>
       </c>
       <c r="F29" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G29" t="s">
-        <v>86</v>
+        <v>37</v>
       </c>
       <c r="H29">
-        <v>5390</v>
+        <v>12636</v>
       </c>
       <c r="I29">
-        <v>770000</v>
+        <v>16200000</v>
       </c>
       <c r="J29">
-        <v>7000</v>
+        <v>26000</v>
       </c>
       <c r="K29">
         <v>0</v>
       </c>
       <c r="L29">
-        <v>100</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -1748,37 +1751,37 @@
         <v>23</v>
       </c>
       <c r="B30" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="C30" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="D30" t="s">
-        <v>67</v>
+        <v>23</v>
       </c>
       <c r="E30" t="s">
-        <v>69</v>
+        <v>23</v>
       </c>
       <c r="F30" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="G30" t="s">
-        <v>37</v>
+        <v>87</v>
       </c>
       <c r="H30">
-        <v>12636</v>
+        <v>5390</v>
       </c>
       <c r="I30">
-        <v>16200000</v>
+        <v>770000</v>
       </c>
       <c r="J30">
-        <v>26000</v>
+        <v>7000</v>
       </c>
       <c r="K30">
         <v>0</v>
       </c>
       <c r="L30">
-        <v>3</v>
+        <v>100</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -1786,37 +1789,37 @@
         <v>24</v>
       </c>
       <c r="B31" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C31" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="D31" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="E31" t="s">
-        <v>24</v>
+        <v>71</v>
       </c>
       <c r="F31" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="G31" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H31">
-        <v>36850</v>
+        <v>12576.7488</v>
       </c>
       <c r="I31">
-        <v>3350000</v>
+        <v>11580800</v>
       </c>
       <c r="J31">
-        <v>11000</v>
+        <v>36200</v>
       </c>
       <c r="K31">
         <v>0</v>
       </c>
       <c r="L31">
-        <v>100</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -1824,37 +1827,37 @@
         <v>24</v>
       </c>
       <c r="B32" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C32" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="D32" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E32" t="s">
-        <v>70</v>
+        <v>24</v>
       </c>
       <c r="F32" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G32" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="H32">
-        <v>12576.7488</v>
+        <v>36850</v>
       </c>
       <c r="I32">
-        <v>11580800</v>
+        <v>3350000</v>
       </c>
       <c r="J32">
-        <v>36200</v>
+        <v>11000</v>
       </c>
       <c r="K32">
         <v>0</v>
       </c>
       <c r="L32">
-        <v>3</v>
+        <v>100</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -1862,37 +1865,37 @@
         <v>25</v>
       </c>
       <c r="B33" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C33" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="D33" t="s">
-        <v>25</v>
+        <v>68</v>
       </c>
       <c r="E33" t="s">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="F33" t="s">
-        <v>33</v>
+        <v>72</v>
       </c>
       <c r="G33" t="s">
-        <v>75</v>
+        <v>37</v>
       </c>
       <c r="H33">
-        <v>8000</v>
+        <v>126360</v>
       </c>
       <c r="I33">
-        <v>4000000</v>
+        <v>16200000</v>
       </c>
       <c r="J33">
-        <v>2000</v>
+        <v>26000</v>
       </c>
       <c r="K33">
         <v>0</v>
       </c>
       <c r="L33">
-        <v>100</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -1900,37 +1903,37 @@
         <v>25</v>
       </c>
       <c r="B34" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="C34" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="D34" t="s">
-        <v>67</v>
+        <v>25</v>
       </c>
       <c r="E34" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="F34" t="s">
-        <v>71</v>
+        <v>33</v>
       </c>
       <c r="G34" t="s">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="H34">
-        <v>126360</v>
+        <v>30600</v>
       </c>
       <c r="I34">
-        <v>16200000</v>
+        <v>1800000</v>
       </c>
       <c r="J34">
-        <v>26000</v>
+        <v>17000</v>
       </c>
       <c r="K34">
         <v>0</v>
       </c>
       <c r="L34">
-        <v>30</v>
+        <v>100</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -1938,10 +1941,10 @@
         <v>25</v>
       </c>
       <c r="B35" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="C35" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D35" t="s">
         <v>25</v>
@@ -1950,19 +1953,19 @@
         <v>25</v>
       </c>
       <c r="F35" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G35" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="H35">
-        <v>30600</v>
+        <v>8000</v>
       </c>
       <c r="I35">
-        <v>1800000</v>
+        <v>4000000</v>
       </c>
       <c r="J35">
-        <v>17000</v>
+        <v>2000</v>
       </c>
       <c r="K35">
         <v>0</v>
@@ -1976,10 +1979,10 @@
         <v>26</v>
       </c>
       <c r="B36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C36" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D36" t="s">
         <v>26</v>
@@ -1988,10 +1991,10 @@
         <v>26</v>
       </c>
       <c r="F36" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G36" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H36">
         <v>8000</v>

--- a/datasets/form3.xlsx
+++ b/datasets/form3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="82">
   <si>
     <t>인수기관</t>
   </si>
@@ -52,9 +52,6 @@
     <t>인수비율</t>
   </si>
   <si>
-    <t>CS</t>
-  </si>
-  <si>
     <t>IBK</t>
   </si>
   <si>
@@ -73,15 +70,9 @@
     <t>삼성</t>
   </si>
   <si>
-    <t>신영</t>
-  </si>
-  <si>
     <t>신한</t>
   </si>
   <si>
-    <t>유비에스</t>
-  </si>
-  <si>
     <t>키움</t>
   </si>
   <si>
@@ -97,48 +88,45 @@
     <t>현대차</t>
   </si>
   <si>
-    <t>2023-09-21</t>
-  </si>
-  <si>
     <t>2023-10-31</t>
   </si>
   <si>
+    <t>2023-11-01</t>
+  </si>
+  <si>
+    <t>2023-10-24</t>
+  </si>
+  <si>
     <t>2023-11-10</t>
   </si>
   <si>
-    <t>2023-10-24</t>
-  </si>
-  <si>
     <t>2023-10-26</t>
   </si>
   <si>
-    <t>2023-11-01</t>
-  </si>
-  <si>
     <t>2023-10-23</t>
   </si>
   <si>
     <t>2023-11-06</t>
   </si>
   <si>
+    <t>2023-11-13</t>
+  </si>
+  <si>
+    <t>2023-11-09</t>
+  </si>
+  <si>
     <t>2023-11-08</t>
   </si>
   <si>
-    <t>2023-11-09</t>
+    <t>2023-10-10</t>
   </si>
   <si>
     <t>2023-10-05</t>
   </si>
   <si>
-    <t>2023-10-10</t>
-  </si>
-  <si>
     <t>2023-11-02</t>
   </si>
   <si>
-    <t>2023-09-19</t>
-  </si>
-  <si>
     <t>2023-10-16</t>
   </si>
   <si>
@@ -148,57 +136,57 @@
     <t>2023-09-25</t>
   </si>
   <si>
-    <t>두산로보틱스</t>
-  </si>
-  <si>
     <t>비아이매트릭스</t>
   </si>
   <si>
+    <t>에스와이스틸텍</t>
+  </si>
+  <si>
+    <t>KB제27호스팩</t>
+  </si>
+  <si>
     <t>에코아이</t>
   </si>
   <si>
-    <t>KB제27호스팩</t>
-  </si>
-  <si>
     <t>쏘닉스</t>
   </si>
   <si>
-    <t>에스와이스틸텍</t>
+    <t>유진테크놀로지</t>
   </si>
   <si>
     <t>메가터치</t>
   </si>
   <si>
-    <t>유진테크놀로지</t>
-  </si>
-  <si>
     <t>캡스톤파트너스</t>
   </si>
   <si>
+    <t>그린리소스</t>
+  </si>
+  <si>
+    <t>동인기연</t>
+  </si>
+  <si>
     <t>에코프로머티</t>
   </si>
   <si>
-    <t>동인기연</t>
+    <t>한선엔지니어링</t>
   </si>
   <si>
     <t>컨텍</t>
   </si>
   <si>
+    <t>신성에스티</t>
+  </si>
+  <si>
+    <t>큐로셀</t>
+  </si>
+  <si>
     <t>퓨릿</t>
   </si>
   <si>
-    <t>큐로셀</t>
-  </si>
-  <si>
-    <t>신성에스티</t>
-  </si>
-  <si>
     <t>에이직랜드</t>
   </si>
   <si>
-    <t>신한제11호스팩</t>
-  </si>
-  <si>
     <t>유투바이오</t>
   </si>
   <si>
@@ -211,57 +199,45 @@
     <t>스톰테크</t>
   </si>
   <si>
+    <t>한국제13호스팩</t>
+  </si>
+  <si>
     <t>퀄리타스반도체</t>
   </si>
   <si>
-    <t>한국제13호스팩</t>
-  </si>
-  <si>
     <t>에이치엠씨제6호스팩</t>
   </si>
   <si>
-    <t>한국, 미래</t>
-  </si>
-  <si>
     <t>미래, 삼성</t>
   </si>
   <si>
-    <t>한국, 미래, NH, KB, CS, 키움, 신영, 하나, 유비에스리미티드(영업소)</t>
-  </si>
-  <si>
     <t>미래, NH, 하이</t>
   </si>
   <si>
-    <t>2023-09-26</t>
-  </si>
-  <si>
     <t>2023-11-03</t>
   </si>
   <si>
+    <t>2023-10-27</t>
+  </si>
+  <si>
     <t>2023-11-15</t>
   </si>
   <si>
-    <t>2023-10-27</t>
-  </si>
-  <si>
-    <t>2023-11-13</t>
+    <t>2023-11-16</t>
   </si>
   <si>
     <t>2023-11-14</t>
   </si>
   <si>
+    <t>2023-10-13</t>
+  </si>
+  <si>
     <t>2023-10-11</t>
   </si>
   <si>
-    <t>2023-10-13</t>
-  </si>
-  <si>
     <t>2023-11-07</t>
   </si>
   <si>
-    <t>2023-09-22</t>
-  </si>
-  <si>
     <t>2023-10-19</t>
   </si>
   <si>
@@ -271,10 +247,13 @@
     <t>2023-11-21</t>
   </si>
   <si>
+    <t>2023-11-24</t>
+  </si>
+  <si>
+    <t>2023-11-22</t>
+  </si>
+  <si>
     <t>2023-11-17</t>
-  </si>
-  <si>
-    <t>2023-11-22</t>
   </si>
   <si>
     <t>2023-10-20</t>
@@ -638,7 +617,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L36"/>
+  <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -687,37 +666,37 @@
         <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D2" t="s">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="G2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H2">
-        <v>42120</v>
+        <v>15600</v>
       </c>
       <c r="I2">
-        <v>16200000</v>
+        <v>1200000</v>
       </c>
       <c r="J2">
-        <v>26000</v>
+        <v>13000</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -725,10 +704,10 @@
         <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D3" t="s">
         <v>13</v>
@@ -737,19 +716,19 @@
         <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>73</v>
+        <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="H3">
-        <v>15600</v>
+        <v>12600</v>
       </c>
       <c r="I3">
-        <v>1200000</v>
+        <v>7000000</v>
       </c>
       <c r="J3">
-        <v>13000</v>
+        <v>1800</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -760,34 +739,34 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="G4" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="H4">
-        <v>72141.3</v>
+        <v>25000</v>
       </c>
       <c r="I4">
-        <v>2079000</v>
+        <v>12500000</v>
       </c>
       <c r="J4">
-        <v>34700</v>
+        <v>2000</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -798,72 +777,72 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
         <v>27</v>
       </c>
       <c r="C5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
         <v>68</v>
       </c>
-      <c r="E5" t="s">
-        <v>70</v>
-      </c>
-      <c r="F5" t="s">
-        <v>72</v>
-      </c>
       <c r="G5" t="s">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="H5">
-        <v>42120</v>
+        <v>72141.3</v>
       </c>
       <c r="I5">
-        <v>16200000</v>
+        <v>2079000</v>
       </c>
       <c r="J5">
-        <v>26000</v>
+        <v>34700</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>75</v>
+        <v>24</v>
       </c>
       <c r="G6" t="s">
         <v>73</v>
       </c>
       <c r="H6">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="I6">
-        <v>12500000</v>
+        <v>3600000</v>
       </c>
       <c r="J6">
-        <v>2000</v>
+        <v>7500</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -877,10 +856,10 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D7" t="s">
         <v>14</v>
@@ -892,16 +871,16 @@
         <v>28</v>
       </c>
       <c r="G7" t="s">
-        <v>80</v>
+        <v>36</v>
       </c>
       <c r="H7">
-        <v>27000</v>
+        <v>17841.194</v>
       </c>
       <c r="I7">
-        <v>3600000</v>
+        <v>1049482</v>
       </c>
       <c r="J7">
-        <v>7500</v>
+        <v>17000</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -915,10 +894,10 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D8" t="s">
         <v>14</v>
@@ -927,19 +906,19 @@
         <v>14</v>
       </c>
       <c r="F8" t="s">
-        <v>34</v>
+        <v>66</v>
       </c>
       <c r="G8" t="s">
-        <v>77</v>
+        <v>27</v>
       </c>
       <c r="H8">
-        <v>12600</v>
+        <v>24960</v>
       </c>
       <c r="I8">
-        <v>7000000</v>
+        <v>5200000</v>
       </c>
       <c r="J8">
-        <v>1800</v>
+        <v>4800</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -950,72 +929,72 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C9" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" t="s">
         <v>68</v>
       </c>
-      <c r="E9" t="s">
-        <v>70</v>
-      </c>
-      <c r="F9" t="s">
-        <v>72</v>
-      </c>
-      <c r="G9" t="s">
-        <v>37</v>
-      </c>
       <c r="H9">
-        <v>42120</v>
+        <v>6384</v>
       </c>
       <c r="I9">
-        <v>16200000</v>
+        <v>1596000</v>
       </c>
       <c r="J9">
-        <v>26000</v>
+        <v>4000</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F10" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="G10" t="s">
-        <v>29</v>
+        <v>77</v>
       </c>
       <c r="H10">
-        <v>24960</v>
+        <v>27880</v>
       </c>
       <c r="I10">
-        <v>5200000</v>
+        <v>1640000</v>
       </c>
       <c r="J10">
-        <v>4800</v>
+        <v>17000</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1026,34 +1005,34 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C11" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F11" t="s">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="G11" t="s">
-        <v>39</v>
+        <v>78</v>
       </c>
       <c r="H11">
-        <v>17841.194</v>
+        <v>44112</v>
       </c>
       <c r="I11">
-        <v>1049482</v>
+        <v>1470400</v>
       </c>
       <c r="J11">
-        <v>17000</v>
+        <v>30000</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -1064,40 +1043,40 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E12" t="s">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="F12" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G12" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H12">
-        <v>6384</v>
+        <v>121994.4706</v>
       </c>
       <c r="I12">
-        <v>1596000</v>
+        <v>11580800</v>
       </c>
       <c r="J12">
-        <v>4000</v>
+        <v>36200</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>100</v>
+        <v>29.1</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -1105,37 +1084,37 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C13" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E13" t="s">
-        <v>71</v>
+        <v>15</v>
       </c>
       <c r="F13" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="G13" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H13">
-        <v>121994.4706</v>
+        <v>29750</v>
       </c>
       <c r="I13">
-        <v>11580800</v>
+        <v>4250000</v>
       </c>
       <c r="J13">
-        <v>36200</v>
+        <v>7000</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>29.1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -1143,10 +1122,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D14" t="s">
         <v>15</v>
@@ -1155,19 +1134,19 @@
         <v>15</v>
       </c>
       <c r="F14" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="G14" t="s">
-        <v>86</v>
+        <v>32</v>
       </c>
       <c r="H14">
-        <v>44112</v>
+        <v>46350</v>
       </c>
       <c r="I14">
-        <v>1470400</v>
+        <v>2060000</v>
       </c>
       <c r="J14">
-        <v>30000</v>
+        <v>22500</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1181,10 +1160,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C15" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D15" t="s">
         <v>16</v>
@@ -1193,19 +1172,19 @@
         <v>16</v>
       </c>
       <c r="F15" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G15" t="s">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="H15">
-        <v>46350</v>
+        <v>52000</v>
       </c>
       <c r="I15">
-        <v>2060000</v>
+        <v>2000000</v>
       </c>
       <c r="J15">
-        <v>22500</v>
+        <v>26000</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1216,63 +1195,63 @@
     </row>
     <row r="16" spans="1:12">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C16" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E16" t="s">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="F16" t="s">
-        <v>78</v>
+        <v>31</v>
       </c>
       <c r="G16" t="s">
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="H16">
-        <v>44265.9</v>
+        <v>284653.7406</v>
       </c>
       <c r="I16">
-        <v>4137000</v>
+        <v>11580800</v>
       </c>
       <c r="J16">
-        <v>10700</v>
+        <v>36200</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>100</v>
+        <v>67.90000000000001</v>
       </c>
     </row>
     <row r="17" spans="1:12">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D17" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E17" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="F17" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="G17" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H17">
         <v>16000</v>
@@ -1292,40 +1271,40 @@
     </row>
     <row r="18" spans="1:12">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" t="s">
         <v>35</v>
       </c>
       <c r="C18" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E18" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="F18" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G18" t="s">
-        <v>85</v>
+        <v>38</v>
       </c>
       <c r="H18">
-        <v>284653.7406</v>
+        <v>44265.9</v>
       </c>
       <c r="I18">
-        <v>11580800</v>
+        <v>4137000</v>
       </c>
       <c r="J18">
-        <v>36200</v>
+        <v>10700</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>67.90000000000001</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1333,37 +1312,37 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="C19" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="D19" t="s">
-        <v>68</v>
+        <v>17</v>
       </c>
       <c r="E19" t="s">
-        <v>70</v>
+        <v>17</v>
       </c>
       <c r="F19" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G19" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H19">
-        <v>126360</v>
+        <v>65908.25</v>
       </c>
       <c r="I19">
-        <v>16200000</v>
+        <v>2636330</v>
       </c>
       <c r="J19">
-        <v>26000</v>
+        <v>25000</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>30</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1371,37 +1350,37 @@
         <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D20" t="s">
-        <v>17</v>
+        <v>64</v>
       </c>
       <c r="E20" t="s">
-        <v>17</v>
+        <v>64</v>
       </c>
       <c r="F20" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="G20" t="s">
-        <v>82</v>
+        <v>32</v>
       </c>
       <c r="H20">
-        <v>52000</v>
+        <v>16000</v>
       </c>
       <c r="I20">
-        <v>2000000</v>
+        <v>1600000</v>
       </c>
       <c r="J20">
-        <v>26000</v>
+        <v>20000</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1409,69 +1388,69 @@
         <v>18</v>
       </c>
       <c r="B21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C21" t="s">
         <v>57</v>
       </c>
       <c r="D21" t="s">
-        <v>69</v>
+        <v>18</v>
       </c>
       <c r="E21" t="s">
-        <v>69</v>
+        <v>18</v>
       </c>
       <c r="F21" t="s">
-        <v>73</v>
+        <v>28</v>
       </c>
       <c r="G21" t="s">
         <v>36</v>
       </c>
       <c r="H21">
-        <v>16000</v>
+        <v>4966.368</v>
       </c>
       <c r="I21">
-        <v>1600000</v>
+        <v>1128720</v>
       </c>
       <c r="J21">
-        <v>20000</v>
+        <v>4400</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:12">
       <c r="A22" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B22" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D22" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E22" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F22" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="G22" t="s">
-        <v>76</v>
+        <v>28</v>
       </c>
       <c r="H22">
-        <v>65908.25</v>
+        <v>26000</v>
       </c>
       <c r="I22">
-        <v>2636330</v>
+        <v>4000000</v>
       </c>
       <c r="J22">
-        <v>25000</v>
+        <v>6500</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1482,110 +1461,110 @@
     </row>
     <row r="23" spans="1:12">
       <c r="A23" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C23" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="D23" t="s">
-        <v>68</v>
+        <v>20</v>
       </c>
       <c r="E23" t="s">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="F23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G23" t="s">
-        <v>37</v>
+        <v>80</v>
       </c>
       <c r="H23">
-        <v>12636</v>
+        <v>5390</v>
       </c>
       <c r="I23">
-        <v>16200000</v>
+        <v>770000</v>
       </c>
       <c r="J23">
-        <v>26000</v>
+        <v>7000</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>3</v>
+        <v>100</v>
       </c>
     </row>
     <row r="24" spans="1:12">
       <c r="A24" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C24" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D24" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E24" t="s">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="F24" t="s">
-        <v>81</v>
+        <v>31</v>
       </c>
       <c r="G24" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="H24">
-        <v>36000</v>
+        <v>12576.7488</v>
       </c>
       <c r="I24">
-        <v>18000000</v>
+        <v>11580800</v>
       </c>
       <c r="J24">
-        <v>2000</v>
+        <v>36200</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>100</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:12">
       <c r="A25" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D25" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E25" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F25" t="s">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="G25" t="s">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="H25">
-        <v>4966.368</v>
+        <v>36850</v>
       </c>
       <c r="I25">
-        <v>1128720</v>
+        <v>3350000</v>
       </c>
       <c r="J25">
-        <v>4400</v>
+        <v>11000</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1596,40 +1575,40 @@
     </row>
     <row r="26" spans="1:12">
       <c r="A26" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B26" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="D26" t="s">
-        <v>68</v>
+        <v>22</v>
       </c>
       <c r="E26" t="s">
-        <v>70</v>
+        <v>22</v>
       </c>
       <c r="F26" t="s">
-        <v>72</v>
+        <v>30</v>
       </c>
       <c r="G26" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H26">
-        <v>4212</v>
+        <v>8000</v>
       </c>
       <c r="I26">
-        <v>16200000</v>
+        <v>4000000</v>
       </c>
       <c r="J26">
-        <v>26000</v>
+        <v>2000</v>
       </c>
       <c r="K26">
         <v>0</v>
       </c>
       <c r="L26">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -1637,7 +1616,7 @@
         <v>22</v>
       </c>
       <c r="B27" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C27" t="s">
         <v>62</v>
@@ -1649,19 +1628,19 @@
         <v>22</v>
       </c>
       <c r="F27" t="s">
-        <v>82</v>
+        <v>29</v>
       </c>
       <c r="G27" t="s">
-        <v>31</v>
+        <v>67</v>
       </c>
       <c r="H27">
-        <v>26000</v>
+        <v>30600</v>
       </c>
       <c r="I27">
-        <v>4000000</v>
+        <v>1800000</v>
       </c>
       <c r="J27">
-        <v>6500</v>
+        <v>17000</v>
       </c>
       <c r="K27">
         <v>0</v>
@@ -1672,343 +1651,39 @@
     </row>
     <row r="28" spans="1:12">
       <c r="A28" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B28" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="C28" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="D28" t="s">
-        <v>68</v>
+        <v>23</v>
       </c>
       <c r="E28" t="s">
-        <v>70</v>
+        <v>23</v>
       </c>
       <c r="F28" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G28" t="s">
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="H28">
-        <v>12636</v>
+        <v>8000</v>
       </c>
       <c r="I28">
-        <v>16200000</v>
+        <v>4000000</v>
       </c>
       <c r="J28">
-        <v>26000</v>
+        <v>2000</v>
       </c>
       <c r="K28">
         <v>0</v>
       </c>
       <c r="L28">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12">
-      <c r="A29" t="s">
-        <v>23</v>
-      </c>
-      <c r="B29" t="s">
-        <v>27</v>
-      </c>
-      <c r="C29" t="s">
-        <v>44</v>
-      </c>
-      <c r="D29" t="s">
-        <v>68</v>
-      </c>
-      <c r="E29" t="s">
-        <v>70</v>
-      </c>
-      <c r="F29" t="s">
-        <v>72</v>
-      </c>
-      <c r="G29" t="s">
-        <v>37</v>
-      </c>
-      <c r="H29">
-        <v>12636</v>
-      </c>
-      <c r="I29">
-        <v>16200000</v>
-      </c>
-      <c r="J29">
-        <v>26000</v>
-      </c>
-      <c r="K29">
-        <v>0</v>
-      </c>
-      <c r="L29">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12">
-      <c r="A30" t="s">
-        <v>23</v>
-      </c>
-      <c r="B30" t="s">
-        <v>38</v>
-      </c>
-      <c r="C30" t="s">
-        <v>63</v>
-      </c>
-      <c r="D30" t="s">
-        <v>23</v>
-      </c>
-      <c r="E30" t="s">
-        <v>23</v>
-      </c>
-      <c r="F30" t="s">
-        <v>79</v>
-      </c>
-      <c r="G30" t="s">
-        <v>87</v>
-      </c>
-      <c r="H30">
-        <v>5390</v>
-      </c>
-      <c r="I30">
-        <v>770000</v>
-      </c>
-      <c r="J30">
-        <v>7000</v>
-      </c>
-      <c r="K30">
-        <v>0</v>
-      </c>
-      <c r="L30">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12">
-      <c r="A31" t="s">
-        <v>24</v>
-      </c>
-      <c r="B31" t="s">
-        <v>35</v>
-      </c>
-      <c r="C31" t="s">
-        <v>53</v>
-      </c>
-      <c r="D31" t="s">
-        <v>17</v>
-      </c>
-      <c r="E31" t="s">
-        <v>71</v>
-      </c>
-      <c r="F31" t="s">
-        <v>76</v>
-      </c>
-      <c r="G31" t="s">
-        <v>85</v>
-      </c>
-      <c r="H31">
-        <v>12576.7488</v>
-      </c>
-      <c r="I31">
-        <v>11580800</v>
-      </c>
-      <c r="J31">
-        <v>36200</v>
-      </c>
-      <c r="K31">
-        <v>0</v>
-      </c>
-      <c r="L31">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12">
-      <c r="A32" t="s">
-        <v>24</v>
-      </c>
-      <c r="B32" t="s">
-        <v>36</v>
-      </c>
-      <c r="C32" t="s">
-        <v>64</v>
-      </c>
-      <c r="D32" t="s">
-        <v>24</v>
-      </c>
-      <c r="E32" t="s">
-        <v>24</v>
-      </c>
-      <c r="F32" t="s">
-        <v>77</v>
-      </c>
-      <c r="G32" t="s">
-        <v>88</v>
-      </c>
-      <c r="H32">
-        <v>36850</v>
-      </c>
-      <c r="I32">
-        <v>3350000</v>
-      </c>
-      <c r="J32">
-        <v>11000</v>
-      </c>
-      <c r="K32">
-        <v>0</v>
-      </c>
-      <c r="L32">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12">
-      <c r="A33" t="s">
-        <v>25</v>
-      </c>
-      <c r="B33" t="s">
-        <v>27</v>
-      </c>
-      <c r="C33" t="s">
-        <v>44</v>
-      </c>
-      <c r="D33" t="s">
-        <v>68</v>
-      </c>
-      <c r="E33" t="s">
-        <v>70</v>
-      </c>
-      <c r="F33" t="s">
-        <v>72</v>
-      </c>
-      <c r="G33" t="s">
-        <v>37</v>
-      </c>
-      <c r="H33">
-        <v>126360</v>
-      </c>
-      <c r="I33">
-        <v>16200000</v>
-      </c>
-      <c r="J33">
-        <v>26000</v>
-      </c>
-      <c r="K33">
-        <v>0</v>
-      </c>
-      <c r="L33">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12">
-      <c r="A34" t="s">
-        <v>25</v>
-      </c>
-      <c r="B34" t="s">
-        <v>42</v>
-      </c>
-      <c r="C34" t="s">
-        <v>65</v>
-      </c>
-      <c r="D34" t="s">
-        <v>25</v>
-      </c>
-      <c r="E34" t="s">
-        <v>25</v>
-      </c>
-      <c r="F34" t="s">
-        <v>33</v>
-      </c>
-      <c r="G34" t="s">
-        <v>75</v>
-      </c>
-      <c r="H34">
-        <v>30600</v>
-      </c>
-      <c r="I34">
-        <v>1800000</v>
-      </c>
-      <c r="J34">
-        <v>17000</v>
-      </c>
-      <c r="K34">
-        <v>0</v>
-      </c>
-      <c r="L34">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12">
-      <c r="A35" t="s">
-        <v>25</v>
-      </c>
-      <c r="B35" t="s">
-        <v>32</v>
-      </c>
-      <c r="C35" t="s">
-        <v>66</v>
-      </c>
-      <c r="D35" t="s">
-        <v>25</v>
-      </c>
-      <c r="E35" t="s">
-        <v>25</v>
-      </c>
-      <c r="F35" t="s">
-        <v>34</v>
-      </c>
-      <c r="G35" t="s">
-        <v>76</v>
-      </c>
-      <c r="H35">
-        <v>8000</v>
-      </c>
-      <c r="I35">
-        <v>4000000</v>
-      </c>
-      <c r="J35">
-        <v>2000</v>
-      </c>
-      <c r="K35">
-        <v>0</v>
-      </c>
-      <c r="L35">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12">
-      <c r="A36" t="s">
-        <v>26</v>
-      </c>
-      <c r="B36" t="s">
-        <v>43</v>
-      </c>
-      <c r="C36" t="s">
-        <v>67</v>
-      </c>
-      <c r="D36" t="s">
-        <v>26</v>
-      </c>
-      <c r="E36" t="s">
-        <v>26</v>
-      </c>
-      <c r="F36" t="s">
-        <v>83</v>
-      </c>
-      <c r="G36" t="s">
-        <v>79</v>
-      </c>
-      <c r="H36">
-        <v>8000</v>
-      </c>
-      <c r="I36">
-        <v>4000000</v>
-      </c>
-      <c r="J36">
-        <v>2000</v>
-      </c>
-      <c r="K36">
-        <v>0</v>
-      </c>
-      <c r="L36">
         <v>100</v>
       </c>
     </row>

--- a/datasets/form3.xlsx
+++ b/datasets/form3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="84">
   <si>
     <t>인수기관</t>
   </si>
@@ -94,34 +94,37 @@
     <t>2023-11-01</t>
   </si>
   <si>
+    <t>2023-10-26</t>
+  </si>
+  <si>
+    <t>2023-11-10</t>
+  </si>
+  <si>
     <t>2023-10-24</t>
   </si>
   <si>
-    <t>2023-11-10</t>
-  </si>
-  <si>
-    <t>2023-10-26</t>
+    <t>2023-11-06</t>
   </si>
   <si>
     <t>2023-10-23</t>
   </si>
   <si>
-    <t>2023-11-06</t>
+    <t>2023-11-09</t>
   </si>
   <si>
     <t>2023-11-13</t>
   </si>
   <si>
-    <t>2023-11-09</t>
-  </si>
-  <si>
     <t>2023-11-08</t>
   </si>
   <si>
+    <t>2023-10-05</t>
+  </si>
+  <si>
     <t>2023-10-10</t>
   </si>
   <si>
-    <t>2023-10-05</t>
+    <t>2023-11-16</t>
   </si>
   <si>
     <t>2023-11-02</t>
@@ -142,46 +145,49 @@
     <t>에스와이스틸텍</t>
   </si>
   <si>
+    <t>쏘닉스</t>
+  </si>
+  <si>
+    <t>에코아이</t>
+  </si>
+  <si>
     <t>KB제27호스팩</t>
   </si>
   <si>
-    <t>에코아이</t>
-  </si>
-  <si>
-    <t>쏘닉스</t>
+    <t>메가터치</t>
+  </si>
+  <si>
+    <t>캡스톤파트너스</t>
   </si>
   <si>
     <t>유진테크놀로지</t>
   </si>
   <si>
-    <t>메가터치</t>
-  </si>
-  <si>
-    <t>캡스톤파트너스</t>
+    <t>동인기연</t>
   </si>
   <si>
     <t>그린리소스</t>
   </si>
   <si>
-    <t>동인기연</t>
-  </si>
-  <si>
     <t>에코프로머티</t>
   </si>
   <si>
+    <t>컨텍</t>
+  </si>
+  <si>
     <t>한선엔지니어링</t>
   </si>
   <si>
-    <t>컨텍</t>
+    <t>큐로셀</t>
+  </si>
+  <si>
+    <t>퓨릿</t>
   </si>
   <si>
     <t>신성에스티</t>
   </si>
   <si>
-    <t>큐로셀</t>
-  </si>
-  <si>
-    <t>퓨릿</t>
+    <t>에이에스텍</t>
   </si>
   <si>
     <t>에이직랜드</t>
@@ -217,22 +223,22 @@
     <t>2023-11-03</t>
   </si>
   <si>
+    <t>2023-11-15</t>
+  </si>
+  <si>
     <t>2023-10-27</t>
   </si>
   <si>
-    <t>2023-11-15</t>
-  </si>
-  <si>
-    <t>2023-11-16</t>
-  </si>
-  <si>
     <t>2023-11-14</t>
   </si>
   <si>
+    <t>2023-10-11</t>
+  </si>
+  <si>
     <t>2023-10-13</t>
   </si>
   <si>
-    <t>2023-10-11</t>
+    <t>2023-11-21</t>
   </si>
   <si>
     <t>2023-11-07</t>
@@ -244,16 +250,16 @@
     <t>2023-10-04</t>
   </si>
   <si>
-    <t>2023-11-21</t>
+    <t>2023-11-22</t>
   </si>
   <si>
     <t>2023-11-24</t>
   </si>
   <si>
-    <t>2023-11-22</t>
-  </si>
-  <si>
     <t>2023-11-17</t>
+  </si>
+  <si>
+    <t>2023-11-28</t>
   </si>
   <si>
     <t>2023-10-20</t>
@@ -617,7 +623,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L28"/>
+  <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -669,7 +675,7 @@
         <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
@@ -678,10 +684,10 @@
         <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H2">
         <v>15600</v>
@@ -707,7 +713,7 @@
         <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D3" t="s">
         <v>13</v>
@@ -716,10 +722,10 @@
         <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H3">
         <v>12600</v>
@@ -745,7 +751,7 @@
         <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D4" t="s">
         <v>13</v>
@@ -754,19 +760,19 @@
         <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>67</v>
+        <v>24</v>
       </c>
       <c r="G4" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="H4">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="I4">
-        <v>12500000</v>
+        <v>3600000</v>
       </c>
       <c r="J4">
-        <v>2000</v>
+        <v>7500</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -783,7 +789,7 @@
         <v>27</v>
       </c>
       <c r="C5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D5" t="s">
         <v>13</v>
@@ -792,10 +798,10 @@
         <v>13</v>
       </c>
       <c r="F5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H5">
         <v>72141.3</v>
@@ -821,7 +827,7 @@
         <v>28</v>
       </c>
       <c r="C6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D6" t="s">
         <v>13</v>
@@ -830,19 +836,19 @@
         <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>24</v>
+        <v>70</v>
       </c>
       <c r="G6" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="H6">
-        <v>27000</v>
+        <v>25000</v>
       </c>
       <c r="I6">
-        <v>3600000</v>
+        <v>12500000</v>
       </c>
       <c r="J6">
-        <v>7500</v>
+        <v>2000</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -856,10 +862,10 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D7" t="s">
         <v>14</v>
@@ -868,19 +874,19 @@
         <v>14</v>
       </c>
       <c r="F7" t="s">
-        <v>28</v>
+        <v>68</v>
       </c>
       <c r="G7" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="H7">
-        <v>17841.194</v>
+        <v>24960</v>
       </c>
       <c r="I7">
-        <v>1049482</v>
+        <v>5200000</v>
       </c>
       <c r="J7">
-        <v>17000</v>
+        <v>4800</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -894,10 +900,10 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D8" t="s">
         <v>14</v>
@@ -906,19 +912,19 @@
         <v>14</v>
       </c>
       <c r="F8" t="s">
-        <v>66</v>
+        <v>31</v>
       </c>
       <c r="G8" t="s">
-        <v>27</v>
+        <v>69</v>
       </c>
       <c r="H8">
-        <v>24960</v>
+        <v>6384</v>
       </c>
       <c r="I8">
-        <v>5200000</v>
+        <v>1596000</v>
       </c>
       <c r="J8">
-        <v>4800</v>
+        <v>4000</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -935,7 +941,7 @@
         <v>30</v>
       </c>
       <c r="C9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D9" t="s">
         <v>14</v>
@@ -944,19 +950,19 @@
         <v>14</v>
       </c>
       <c r="F9" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="G9" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="H9">
-        <v>6384</v>
+        <v>17841.194</v>
       </c>
       <c r="I9">
-        <v>1596000</v>
+        <v>1049482</v>
       </c>
       <c r="J9">
-        <v>4000</v>
+        <v>17000</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -973,7 +979,7 @@
         <v>31</v>
       </c>
       <c r="C10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D10" t="s">
         <v>14</v>
@@ -982,19 +988,19 @@
         <v>14</v>
       </c>
       <c r="F10" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G10" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H10">
-        <v>27880</v>
+        <v>44112</v>
       </c>
       <c r="I10">
-        <v>1640000</v>
+        <v>1470400</v>
       </c>
       <c r="J10">
-        <v>17000</v>
+        <v>30000</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1011,7 +1017,7 @@
         <v>32</v>
       </c>
       <c r="C11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D11" t="s">
         <v>14</v>
@@ -1020,19 +1026,19 @@
         <v>14</v>
       </c>
       <c r="F11" t="s">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="G11" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H11">
-        <v>44112</v>
+        <v>27880</v>
       </c>
       <c r="I11">
-        <v>1470400</v>
+        <v>1640000</v>
       </c>
       <c r="J11">
-        <v>30000</v>
+        <v>17000</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -1049,19 +1055,19 @@
         <v>33</v>
       </c>
       <c r="C12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D12" t="s">
         <v>16</v>
       </c>
       <c r="E12" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G12" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H12">
         <v>121994.4706</v>
@@ -1084,10 +1090,10 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D13" t="s">
         <v>15</v>
@@ -1096,19 +1102,19 @@
         <v>15</v>
       </c>
       <c r="F13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G13" t="s">
-        <v>77</v>
+        <v>31</v>
       </c>
       <c r="H13">
-        <v>29750</v>
+        <v>46350</v>
       </c>
       <c r="I13">
-        <v>4250000</v>
+        <v>2060000</v>
       </c>
       <c r="J13">
-        <v>7000</v>
+        <v>22500</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1122,10 +1128,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="C14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D14" t="s">
         <v>15</v>
@@ -1134,19 +1140,19 @@
         <v>15</v>
       </c>
       <c r="F14" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="G14" t="s">
-        <v>32</v>
+        <v>79</v>
       </c>
       <c r="H14">
-        <v>46350</v>
+        <v>29750</v>
       </c>
       <c r="I14">
-        <v>2060000</v>
+        <v>4250000</v>
       </c>
       <c r="J14">
-        <v>22500</v>
+        <v>7000</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1160,37 +1166,37 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C15" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D15" t="s">
         <v>16</v>
       </c>
       <c r="E15" t="s">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="F15" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="G15" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H15">
-        <v>52000</v>
+        <v>284653.7406</v>
       </c>
       <c r="I15">
-        <v>2000000</v>
+        <v>11580800</v>
       </c>
       <c r="J15">
-        <v>26000</v>
+        <v>36200</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>100</v>
+        <v>67.90000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -1198,37 +1204,37 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" t="s">
+        <v>66</v>
+      </c>
+      <c r="E16" t="s">
+        <v>66</v>
+      </c>
+      <c r="F16" t="s">
+        <v>68</v>
+      </c>
+      <c r="G16" t="s">
+        <v>31</v>
+      </c>
+      <c r="H16">
+        <v>16000</v>
+      </c>
+      <c r="I16">
+        <v>1600000</v>
+      </c>
+      <c r="J16">
+        <v>20000</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
         <v>50</v>
-      </c>
-      <c r="D16" t="s">
-        <v>16</v>
-      </c>
-      <c r="E16" t="s">
-        <v>65</v>
-      </c>
-      <c r="F16" t="s">
-        <v>31</v>
-      </c>
-      <c r="G16" t="s">
-        <v>79</v>
-      </c>
-      <c r="H16">
-        <v>284653.7406</v>
-      </c>
-      <c r="I16">
-        <v>11580800</v>
-      </c>
-      <c r="J16">
-        <v>36200</v>
-      </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
-      <c r="L16">
-        <v>67.90000000000001</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -1236,37 +1242,37 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C17" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D17" t="s">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="F17" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G17" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H17">
-        <v>16000</v>
+        <v>44265.9</v>
       </c>
       <c r="I17">
-        <v>1600000</v>
+        <v>4137000</v>
       </c>
       <c r="J17">
-        <v>20000</v>
+        <v>10700</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1277,7 +1283,7 @@
         <v>35</v>
       </c>
       <c r="C18" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D18" t="s">
         <v>16</v>
@@ -1286,19 +1292,19 @@
         <v>16</v>
       </c>
       <c r="F18" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G18" t="s">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="H18">
-        <v>44265.9</v>
+        <v>52000</v>
       </c>
       <c r="I18">
-        <v>4137000</v>
+        <v>2000000</v>
       </c>
       <c r="J18">
-        <v>10700</v>
+        <v>26000</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1309,34 +1315,34 @@
     </row>
     <row r="19" spans="1:12">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B19" t="s">
         <v>36</v>
       </c>
       <c r="C19" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F19" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G19" t="s">
-        <v>31</v>
+        <v>81</v>
       </c>
       <c r="H19">
-        <v>65908.25</v>
+        <v>39396</v>
       </c>
       <c r="I19">
-        <v>2636330</v>
+        <v>1407000</v>
       </c>
       <c r="J19">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1350,107 +1356,107 @@
         <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="C20" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D20" t="s">
-        <v>64</v>
+        <v>17</v>
       </c>
       <c r="E20" t="s">
-        <v>64</v>
+        <v>17</v>
       </c>
       <c r="F20" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="G20" t="s">
         <v>32</v>
       </c>
       <c r="H20">
-        <v>16000</v>
+        <v>65908.25</v>
       </c>
       <c r="I20">
-        <v>1600000</v>
+        <v>2636330</v>
       </c>
       <c r="J20">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:12">
       <c r="A21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B21" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D21" t="s">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="E21" t="s">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="F21" t="s">
-        <v>28</v>
+        <v>68</v>
       </c>
       <c r="G21" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H21">
-        <v>4966.368</v>
+        <v>16000</v>
       </c>
       <c r="I21">
-        <v>1128720</v>
+        <v>1600000</v>
       </c>
       <c r="J21">
-        <v>4400</v>
+        <v>20000</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:12">
       <c r="A22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D22" t="s">
+        <v>18</v>
+      </c>
+      <c r="E22" t="s">
+        <v>18</v>
+      </c>
+      <c r="F22" t="s">
+        <v>26</v>
+      </c>
+      <c r="G22" t="s">
         <v>37</v>
       </c>
-      <c r="C22" t="s">
-        <v>58</v>
-      </c>
-      <c r="D22" t="s">
-        <v>19</v>
-      </c>
-      <c r="E22" t="s">
-        <v>19</v>
-      </c>
-      <c r="F22" t="s">
-        <v>74</v>
-      </c>
-      <c r="G22" t="s">
-        <v>28</v>
-      </c>
       <c r="H22">
-        <v>26000</v>
+        <v>4966.368</v>
       </c>
       <c r="I22">
-        <v>4000000</v>
+        <v>1128720</v>
       </c>
       <c r="J22">
-        <v>6500</v>
+        <v>4400</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1461,34 +1467,34 @@
     </row>
     <row r="23" spans="1:12">
       <c r="A23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B23" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C23" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F23" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="G23" t="s">
-        <v>80</v>
+        <v>26</v>
       </c>
       <c r="H23">
-        <v>5390</v>
+        <v>26000</v>
       </c>
       <c r="I23">
-        <v>770000</v>
+        <v>4000000</v>
       </c>
       <c r="J23">
-        <v>7000</v>
+        <v>6500</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1499,40 +1505,40 @@
     </row>
     <row r="24" spans="1:12">
       <c r="A24" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B24" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C24" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="D24" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E24" t="s">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="F24" t="s">
-        <v>31</v>
+        <v>73</v>
       </c>
       <c r="G24" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="H24">
-        <v>12576.7488</v>
+        <v>5390</v>
       </c>
       <c r="I24">
-        <v>11580800</v>
+        <v>770000</v>
       </c>
       <c r="J24">
-        <v>36200</v>
+        <v>7000</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>3</v>
+        <v>100</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1540,69 +1546,69 @@
         <v>21</v>
       </c>
       <c r="B25" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" t="s">
+        <v>51</v>
+      </c>
+      <c r="D25" t="s">
+        <v>16</v>
+      </c>
+      <c r="E25" t="s">
+        <v>67</v>
+      </c>
+      <c r="F25" t="s">
         <v>32</v>
       </c>
-      <c r="C25" t="s">
-        <v>60</v>
-      </c>
-      <c r="D25" t="s">
-        <v>21</v>
-      </c>
-      <c r="E25" t="s">
-        <v>21</v>
-      </c>
-      <c r="F25" t="s">
-        <v>70</v>
-      </c>
       <c r="G25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H25">
-        <v>36850</v>
+        <v>12576.7488</v>
       </c>
       <c r="I25">
-        <v>3350000</v>
+        <v>11580800</v>
       </c>
       <c r="J25">
-        <v>11000</v>
+        <v>36200</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>100</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:12">
       <c r="A26" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C26" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D26" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E26" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F26" t="s">
-        <v>30</v>
+        <v>71</v>
       </c>
       <c r="G26" t="s">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="H26">
-        <v>8000</v>
+        <v>36850</v>
       </c>
       <c r="I26">
-        <v>4000000</v>
+        <v>3350000</v>
       </c>
       <c r="J26">
-        <v>2000</v>
+        <v>11000</v>
       </c>
       <c r="K26">
         <v>0</v>
@@ -1616,10 +1622,10 @@
         <v>22</v>
       </c>
       <c r="B27" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="C27" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D27" t="s">
         <v>22</v>
@@ -1631,16 +1637,16 @@
         <v>29</v>
       </c>
       <c r="G27" t="s">
-        <v>67</v>
+        <v>32</v>
       </c>
       <c r="H27">
-        <v>30600</v>
+        <v>8000</v>
       </c>
       <c r="I27">
-        <v>1800000</v>
+        <v>4000000</v>
       </c>
       <c r="J27">
-        <v>17000</v>
+        <v>2000</v>
       </c>
       <c r="K27">
         <v>0</v>
@@ -1651,39 +1657,77 @@
     </row>
     <row r="28" spans="1:12">
       <c r="A28" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B28" t="s">
         <v>39</v>
       </c>
       <c r="C28" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28" t="s">
+        <v>22</v>
+      </c>
+      <c r="F28" t="s">
+        <v>30</v>
+      </c>
+      <c r="G28" t="s">
+        <v>70</v>
+      </c>
+      <c r="H28">
+        <v>30600</v>
+      </c>
+      <c r="I28">
+        <v>1800000</v>
+      </c>
+      <c r="J28">
+        <v>17000</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" t="s">
         <v>23</v>
       </c>
-      <c r="E28" t="s">
+      <c r="B29" t="s">
+        <v>40</v>
+      </c>
+      <c r="C29" t="s">
+        <v>65</v>
+      </c>
+      <c r="D29" t="s">
         <v>23</v>
       </c>
-      <c r="F28" t="s">
-        <v>75</v>
-      </c>
-      <c r="G28" t="s">
-        <v>71</v>
-      </c>
-      <c r="H28">
+      <c r="E29" t="s">
+        <v>23</v>
+      </c>
+      <c r="F29" t="s">
+        <v>77</v>
+      </c>
+      <c r="G29" t="s">
+        <v>73</v>
+      </c>
+      <c r="H29">
         <v>8000</v>
       </c>
-      <c r="I28">
+      <c r="I29">
         <v>4000000</v>
       </c>
-      <c r="J28">
+      <c r="J29">
         <v>2000</v>
       </c>
-      <c r="K28">
-        <v>0</v>
-      </c>
-      <c r="L28">
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
         <v>100</v>
       </c>
     </row>

--- a/datasets/form3.xlsx
+++ b/datasets/form3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="87">
   <si>
     <t>인수기관</t>
   </si>
@@ -97,33 +97,36 @@
     <t>2023-10-26</t>
   </si>
   <si>
+    <t>2023-10-24</t>
+  </si>
+  <si>
     <t>2023-11-10</t>
   </si>
   <si>
-    <t>2023-10-24</t>
-  </si>
-  <si>
     <t>2023-11-06</t>
   </si>
   <si>
     <t>2023-10-23</t>
   </si>
   <si>
+    <t>2023-11-08</t>
+  </si>
+  <si>
     <t>2023-11-09</t>
   </si>
   <si>
     <t>2023-11-13</t>
   </si>
   <si>
-    <t>2023-11-08</t>
+    <t>2023-11-21</t>
+  </si>
+  <si>
+    <t>2023-10-10</t>
   </si>
   <si>
     <t>2023-10-05</t>
   </si>
   <si>
-    <t>2023-10-10</t>
-  </si>
-  <si>
     <t>2023-11-16</t>
   </si>
   <si>
@@ -148,19 +151,22 @@
     <t>쏘닉스</t>
   </si>
   <si>
+    <t>KB제27호스팩</t>
+  </si>
+  <si>
     <t>에코아이</t>
   </si>
   <si>
-    <t>KB제27호스팩</t>
+    <t>캡스톤파트너스</t>
+  </si>
+  <si>
+    <t>유진테크놀로지</t>
   </si>
   <si>
     <t>메가터치</t>
   </si>
   <si>
-    <t>캡스톤파트너스</t>
-  </si>
-  <si>
-    <t>유진테크놀로지</t>
+    <t>에코프로머티</t>
   </si>
   <si>
     <t>동인기연</t>
@@ -169,13 +175,16 @@
     <t>그린리소스</t>
   </si>
   <si>
-    <t>에코프로머티</t>
+    <t>엔에이치스팩30호</t>
+  </si>
+  <si>
+    <t>한선엔지니어링</t>
   </si>
   <si>
     <t>컨텍</t>
   </si>
   <si>
-    <t>한선엔지니어링</t>
+    <t>신성에스티</t>
   </si>
   <si>
     <t>큐로셀</t>
@@ -184,9 +193,6 @@
     <t>퓨릿</t>
   </si>
   <si>
-    <t>신성에스티</t>
-  </si>
-  <si>
     <t>에이에스텍</t>
   </si>
   <si>
@@ -202,6 +208,9 @@
     <t>에스엘에스바이오</t>
   </si>
   <si>
+    <t>에이텀</t>
+  </si>
+  <si>
     <t>스톰테크</t>
   </si>
   <si>
@@ -223,24 +232,24 @@
     <t>2023-11-03</t>
   </si>
   <si>
+    <t>2023-10-27</t>
+  </si>
+  <si>
     <t>2023-11-15</t>
   </si>
   <si>
-    <t>2023-10-27</t>
-  </si>
-  <si>
     <t>2023-11-14</t>
   </si>
   <si>
+    <t>2023-11-24</t>
+  </si>
+  <si>
+    <t>2023-10-13</t>
+  </si>
+  <si>
     <t>2023-10-11</t>
   </si>
   <si>
-    <t>2023-10-13</t>
-  </si>
-  <si>
-    <t>2023-11-21</t>
-  </si>
-  <si>
     <t>2023-11-07</t>
   </si>
   <si>
@@ -250,13 +259,13 @@
     <t>2023-10-04</t>
   </si>
   <si>
+    <t>2023-11-17</t>
+  </si>
+  <si>
     <t>2023-11-22</t>
   </si>
   <si>
-    <t>2023-11-24</t>
-  </si>
-  <si>
-    <t>2023-11-17</t>
+    <t>2023-12-01</t>
   </si>
   <si>
     <t>2023-11-28</t>
@@ -623,7 +632,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L29"/>
+  <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -675,7 +684,7 @@
         <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
@@ -684,10 +693,10 @@
         <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="G2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H2">
         <v>15600</v>
@@ -713,7 +722,7 @@
         <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D3" t="s">
         <v>13</v>
@@ -725,7 +734,7 @@
         <v>29</v>
       </c>
       <c r="G3" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H3">
         <v>12600</v>
@@ -751,7 +760,7 @@
         <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D4" t="s">
         <v>13</v>
@@ -763,7 +772,7 @@
         <v>24</v>
       </c>
       <c r="G4" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H4">
         <v>27000</v>
@@ -789,7 +798,7 @@
         <v>27</v>
       </c>
       <c r="C5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D5" t="s">
         <v>13</v>
@@ -798,19 +807,19 @@
         <v>13</v>
       </c>
       <c r="F5" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G5" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="H5">
-        <v>72141.3</v>
+        <v>25000</v>
       </c>
       <c r="I5">
-        <v>2079000</v>
+        <v>12500000</v>
       </c>
       <c r="J5">
-        <v>34700</v>
+        <v>2000</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -827,7 +836,7 @@
         <v>28</v>
       </c>
       <c r="C6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D6" t="s">
         <v>13</v>
@@ -836,19 +845,19 @@
         <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="G6" t="s">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="H6">
-        <v>25000</v>
+        <v>72141.3</v>
       </c>
       <c r="I6">
-        <v>12500000</v>
+        <v>2079000</v>
       </c>
       <c r="J6">
-        <v>2000</v>
+        <v>34700</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -862,10 +871,10 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D7" t="s">
         <v>14</v>
@@ -874,19 +883,19 @@
         <v>14</v>
       </c>
       <c r="F7" t="s">
-        <v>68</v>
+        <v>32</v>
       </c>
       <c r="G7" t="s">
-        <v>27</v>
+        <v>73</v>
       </c>
       <c r="H7">
-        <v>24960</v>
+        <v>6384</v>
       </c>
       <c r="I7">
-        <v>5200000</v>
+        <v>1596000</v>
       </c>
       <c r="J7">
-        <v>4800</v>
+        <v>4000</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -900,10 +909,10 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D8" t="s">
         <v>14</v>
@@ -912,19 +921,19 @@
         <v>14</v>
       </c>
       <c r="F8" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="G8" t="s">
-        <v>69</v>
+        <v>38</v>
       </c>
       <c r="H8">
-        <v>6384</v>
+        <v>17841.194</v>
       </c>
       <c r="I8">
-        <v>1596000</v>
+        <v>1049482</v>
       </c>
       <c r="J8">
-        <v>4000</v>
+        <v>17000</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -938,10 +947,10 @@
         <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D9" t="s">
         <v>14</v>
@@ -950,19 +959,19 @@
         <v>14</v>
       </c>
       <c r="F9" t="s">
-        <v>26</v>
+        <v>71</v>
       </c>
       <c r="G9" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="H9">
-        <v>17841.194</v>
+        <v>24960</v>
       </c>
       <c r="I9">
-        <v>1049482</v>
+        <v>5200000</v>
       </c>
       <c r="J9">
-        <v>17000</v>
+        <v>4800</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -979,34 +988,34 @@
         <v>31</v>
       </c>
       <c r="C10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E10" t="s">
-        <v>14</v>
+        <v>70</v>
       </c>
       <c r="F10" t="s">
-        <v>71</v>
+        <v>33</v>
       </c>
       <c r="G10" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="H10">
-        <v>44112</v>
+        <v>121994.4706</v>
       </c>
       <c r="I10">
-        <v>1470400</v>
+        <v>11580800</v>
       </c>
       <c r="J10">
-        <v>30000</v>
+        <v>36200</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>100</v>
+        <v>29.1</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1017,7 +1026,7 @@
         <v>32</v>
       </c>
       <c r="C11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D11" t="s">
         <v>14</v>
@@ -1026,19 +1035,19 @@
         <v>14</v>
       </c>
       <c r="F11" t="s">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="G11" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="H11">
-        <v>27880</v>
+        <v>44112</v>
       </c>
       <c r="I11">
-        <v>1640000</v>
+        <v>1470400</v>
       </c>
       <c r="J11">
-        <v>17000</v>
+        <v>30000</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -1055,66 +1064,66 @@
         <v>33</v>
       </c>
       <c r="C12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E12" t="s">
-        <v>67</v>
+        <v>14</v>
       </c>
       <c r="F12" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G12" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="H12">
-        <v>121994.4706</v>
+        <v>27880</v>
       </c>
       <c r="I12">
-        <v>11580800</v>
+        <v>1640000</v>
       </c>
       <c r="J12">
-        <v>36200</v>
+        <v>17000</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>29.1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F13" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="G13" t="s">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="H13">
-        <v>46350</v>
+        <v>16000</v>
       </c>
       <c r="I13">
-        <v>2060000</v>
+        <v>8000000</v>
       </c>
       <c r="J13">
-        <v>22500</v>
+        <v>2000</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1128,10 +1137,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D14" t="s">
         <v>15</v>
@@ -1140,10 +1149,10 @@
         <v>15</v>
       </c>
       <c r="F14" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G14" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="H14">
         <v>29750</v>
@@ -1163,40 +1172,40 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E15" t="s">
-        <v>67</v>
+        <v>15</v>
       </c>
       <c r="F15" t="s">
+        <v>71</v>
+      </c>
+      <c r="G15" t="s">
         <v>32</v>
       </c>
-      <c r="G15" t="s">
-        <v>80</v>
-      </c>
       <c r="H15">
-        <v>284653.7406</v>
+        <v>46350</v>
       </c>
       <c r="I15">
-        <v>11580800</v>
+        <v>2060000</v>
       </c>
       <c r="J15">
-        <v>36200</v>
+        <v>22500</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>67.90000000000001</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -1204,37 +1213,37 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="C16" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D16" t="s">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="E16" t="s">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="F16" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="G16" t="s">
-        <v>31</v>
+        <v>79</v>
       </c>
       <c r="H16">
-        <v>16000</v>
+        <v>52000</v>
       </c>
       <c r="I16">
-        <v>1600000</v>
+        <v>2000000</v>
       </c>
       <c r="J16">
-        <v>20000</v>
+        <v>26000</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -1242,37 +1251,37 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D17" t="s">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="E17" t="s">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="F17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G17" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H17">
-        <v>44265.9</v>
+        <v>16000</v>
       </c>
       <c r="I17">
-        <v>4137000</v>
+        <v>1600000</v>
       </c>
       <c r="J17">
-        <v>10700</v>
+        <v>20000</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1280,10 +1289,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C18" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D18" t="s">
         <v>16</v>
@@ -1292,19 +1301,19 @@
         <v>16</v>
       </c>
       <c r="F18" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G18" t="s">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="H18">
-        <v>52000</v>
+        <v>44265.9</v>
       </c>
       <c r="I18">
-        <v>2000000</v>
+        <v>4137000</v>
       </c>
       <c r="J18">
-        <v>26000</v>
+        <v>10700</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1318,10 +1327,10 @@
         <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C19" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D19" t="s">
         <v>16</v>
@@ -1330,10 +1339,10 @@
         <v>16</v>
       </c>
       <c r="F19" t="s">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="G19" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H19">
         <v>39396</v>
@@ -1353,40 +1362,40 @@
     </row>
     <row r="20" spans="1:12">
       <c r="A20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B20" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C20" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="D20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E20" t="s">
-        <v>17</v>
+        <v>70</v>
       </c>
       <c r="F20" t="s">
-        <v>75</v>
+        <v>33</v>
       </c>
       <c r="G20" t="s">
-        <v>32</v>
+        <v>81</v>
       </c>
       <c r="H20">
-        <v>65908.25</v>
+        <v>284653.7406</v>
       </c>
       <c r="I20">
-        <v>2636330</v>
+        <v>11580800</v>
       </c>
       <c r="J20">
-        <v>25000</v>
+        <v>36200</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>100</v>
+        <v>67.90000000000001</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1394,107 +1403,107 @@
         <v>17</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="C21" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="D21" t="s">
-        <v>66</v>
+        <v>17</v>
       </c>
       <c r="E21" t="s">
-        <v>66</v>
+        <v>17</v>
       </c>
       <c r="F21" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="G21" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H21">
-        <v>16000</v>
+        <v>65908.25</v>
       </c>
       <c r="I21">
-        <v>1600000</v>
+        <v>2636330</v>
       </c>
       <c r="J21">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:12">
       <c r="A22" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B22" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C22" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D22" t="s">
-        <v>18</v>
+        <v>69</v>
       </c>
       <c r="E22" t="s">
-        <v>18</v>
+        <v>69</v>
       </c>
       <c r="F22" t="s">
-        <v>26</v>
+        <v>71</v>
       </c>
       <c r="G22" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H22">
-        <v>4966.368</v>
+        <v>16000</v>
       </c>
       <c r="I22">
-        <v>1128720</v>
+        <v>1600000</v>
       </c>
       <c r="J22">
-        <v>4400</v>
+        <v>20000</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:12">
       <c r="A23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B23" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" t="s">
+        <v>61</v>
+      </c>
+      <c r="D23" t="s">
+        <v>18</v>
+      </c>
+      <c r="E23" t="s">
+        <v>18</v>
+      </c>
+      <c r="F23" t="s">
+        <v>26</v>
+      </c>
+      <c r="G23" t="s">
         <v>38</v>
       </c>
-      <c r="C23" t="s">
-        <v>60</v>
-      </c>
-      <c r="D23" t="s">
-        <v>19</v>
-      </c>
-      <c r="E23" t="s">
-        <v>19</v>
-      </c>
-      <c r="F23" t="s">
-        <v>76</v>
-      </c>
-      <c r="G23" t="s">
-        <v>26</v>
-      </c>
       <c r="H23">
-        <v>26000</v>
+        <v>4966.368</v>
       </c>
       <c r="I23">
-        <v>4000000</v>
+        <v>1128720</v>
       </c>
       <c r="J23">
-        <v>6500</v>
+        <v>4400</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1505,34 +1514,34 @@
     </row>
     <row r="24" spans="1:12">
       <c r="A24" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B24" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C24" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D24" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E24" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F24" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="G24" t="s">
-        <v>82</v>
+        <v>26</v>
       </c>
       <c r="H24">
-        <v>5390</v>
+        <v>26000</v>
       </c>
       <c r="I24">
-        <v>770000</v>
+        <v>4000000</v>
       </c>
       <c r="J24">
-        <v>7000</v>
+        <v>6500</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1543,72 +1552,72 @@
     </row>
     <row r="25" spans="1:12">
       <c r="A25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B25" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C25" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="D25" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E25" t="s">
-        <v>67</v>
+        <v>20</v>
       </c>
       <c r="F25" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="G25" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="H25">
-        <v>12576.7488</v>
+        <v>5390</v>
       </c>
       <c r="I25">
-        <v>11580800</v>
+        <v>770000</v>
       </c>
       <c r="J25">
-        <v>36200</v>
+        <v>7000</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>3</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26" spans="1:12">
       <c r="A26" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B26" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C26" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D26" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E26" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F26" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="G26" t="s">
         <v>83</v>
       </c>
       <c r="H26">
-        <v>36850</v>
+        <v>11700</v>
       </c>
       <c r="I26">
-        <v>3350000</v>
+        <v>650000</v>
       </c>
       <c r="J26">
-        <v>11000</v>
+        <v>18000</v>
       </c>
       <c r="K26">
         <v>0</v>
@@ -1619,72 +1628,72 @@
     </row>
     <row r="27" spans="1:12">
       <c r="A27" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C27" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="D27" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E27" t="s">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="F27" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G27" t="s">
-        <v>32</v>
+        <v>81</v>
       </c>
       <c r="H27">
-        <v>8000</v>
+        <v>12576.7488</v>
       </c>
       <c r="I27">
-        <v>4000000</v>
+        <v>11580800</v>
       </c>
       <c r="J27">
-        <v>2000</v>
+        <v>36200</v>
       </c>
       <c r="K27">
         <v>0</v>
       </c>
       <c r="L27">
-        <v>100</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:12">
       <c r="A28" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B28" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C28" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D28" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E28" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F28" t="s">
-        <v>30</v>
+        <v>74</v>
       </c>
       <c r="G28" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="H28">
-        <v>30600</v>
+        <v>36850</v>
       </c>
       <c r="I28">
-        <v>1800000</v>
+        <v>3350000</v>
       </c>
       <c r="J28">
-        <v>17000</v>
+        <v>11000</v>
       </c>
       <c r="K28">
         <v>0</v>
@@ -1695,25 +1704,25 @@
     </row>
     <row r="29" spans="1:12">
       <c r="A29" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B29" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="C29" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D29" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E29" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F29" t="s">
-        <v>77</v>
+        <v>29</v>
       </c>
       <c r="G29" t="s">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="H29">
         <v>8000</v>
@@ -1728,6 +1737,82 @@
         <v>0</v>
       </c>
       <c r="L29">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" t="s">
+        <v>22</v>
+      </c>
+      <c r="B30" t="s">
+        <v>40</v>
+      </c>
+      <c r="C30" t="s">
+        <v>67</v>
+      </c>
+      <c r="D30" t="s">
+        <v>22</v>
+      </c>
+      <c r="E30" t="s">
+        <v>22</v>
+      </c>
+      <c r="F30" t="s">
+        <v>30</v>
+      </c>
+      <c r="G30" t="s">
+        <v>72</v>
+      </c>
+      <c r="H30">
+        <v>30600</v>
+      </c>
+      <c r="I30">
+        <v>1800000</v>
+      </c>
+      <c r="J30">
+        <v>17000</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" t="s">
+        <v>23</v>
+      </c>
+      <c r="B31" t="s">
+        <v>41</v>
+      </c>
+      <c r="C31" t="s">
+        <v>68</v>
+      </c>
+      <c r="D31" t="s">
+        <v>23</v>
+      </c>
+      <c r="E31" t="s">
+        <v>23</v>
+      </c>
+      <c r="F31" t="s">
+        <v>80</v>
+      </c>
+      <c r="G31" t="s">
+        <v>76</v>
+      </c>
+      <c r="H31">
+        <v>8000</v>
+      </c>
+      <c r="I31">
+        <v>4000000</v>
+      </c>
+      <c r="J31">
+        <v>2000</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
         <v>100</v>
       </c>
     </row>

--- a/datasets/form3.xlsx
+++ b/datasets/form3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="83">
   <si>
     <t>인수기관</t>
   </si>
@@ -85,51 +85,48 @@
     <t>한국</t>
   </si>
   <si>
-    <t>현대차</t>
-  </si>
-  <si>
     <t>2023-10-31</t>
   </si>
   <si>
     <t>2023-11-01</t>
   </si>
   <si>
+    <t>2023-11-10</t>
+  </si>
+  <si>
     <t>2023-10-26</t>
   </si>
   <si>
     <t>2023-10-24</t>
   </si>
   <si>
-    <t>2023-11-10</t>
+    <t>2023-11-08</t>
+  </si>
+  <si>
+    <t>2023-11-21</t>
+  </si>
+  <si>
+    <t>2023-11-13</t>
+  </si>
+  <si>
+    <t>2023-10-23</t>
+  </si>
+  <si>
+    <t>2023-11-09</t>
   </si>
   <si>
     <t>2023-11-06</t>
   </si>
   <si>
-    <t>2023-10-23</t>
-  </si>
-  <si>
-    <t>2023-11-08</t>
-  </si>
-  <si>
-    <t>2023-11-09</t>
-  </si>
-  <si>
-    <t>2023-11-13</t>
-  </si>
-  <si>
-    <t>2023-11-21</t>
-  </si>
-  <si>
     <t>2023-10-10</t>
   </si>
   <si>
+    <t>2023-11-16</t>
+  </si>
+  <si>
     <t>2023-10-05</t>
   </si>
   <si>
-    <t>2023-11-16</t>
-  </si>
-  <si>
     <t>2023-11-02</t>
   </si>
   <si>
@@ -139,63 +136,60 @@
     <t>2023-10-18</t>
   </si>
   <si>
-    <t>2023-09-25</t>
-  </si>
-  <si>
     <t>비아이매트릭스</t>
   </si>
   <si>
     <t>에스와이스틸텍</t>
   </si>
   <si>
+    <t>에코아이</t>
+  </si>
+  <si>
     <t>쏘닉스</t>
   </si>
   <si>
     <t>KB제27호스팩</t>
   </si>
   <si>
-    <t>에코아이</t>
+    <t>에코프로머티</t>
+  </si>
+  <si>
+    <t>엔에이치스팩30호</t>
+  </si>
+  <si>
+    <t>그린리소스</t>
+  </si>
+  <si>
+    <t>유진테크놀로지</t>
+  </si>
+  <si>
+    <t>동인기연</t>
+  </si>
+  <si>
+    <t>메가터치</t>
   </si>
   <si>
     <t>캡스톤파트너스</t>
   </si>
   <si>
-    <t>유진테크놀로지</t>
-  </si>
-  <si>
-    <t>메가터치</t>
-  </si>
-  <si>
-    <t>에코프로머티</t>
-  </si>
-  <si>
-    <t>동인기연</t>
-  </si>
-  <si>
-    <t>그린리소스</t>
-  </si>
-  <si>
-    <t>엔에이치스팩30호</t>
+    <t>컨텍</t>
   </si>
   <si>
     <t>한선엔지니어링</t>
   </si>
   <si>
-    <t>컨텍</t>
-  </si>
-  <si>
     <t>신성에스티</t>
   </si>
   <si>
+    <t>에이에스텍</t>
+  </si>
+  <si>
     <t>큐로셀</t>
   </si>
   <si>
     <t>퓨릿</t>
   </si>
   <si>
-    <t>에이에스텍</t>
-  </si>
-  <si>
     <t>에이직랜드</t>
   </si>
   <si>
@@ -214,15 +208,12 @@
     <t>스톰테크</t>
   </si>
   <si>
+    <t>퀄리타스반도체</t>
+  </si>
+  <si>
     <t>한국제13호스팩</t>
   </si>
   <si>
-    <t>퀄리타스반도체</t>
-  </si>
-  <si>
-    <t>에이치엠씨제6호스팩</t>
-  </si>
-  <si>
     <t>미래, 삼성</t>
   </si>
   <si>
@@ -232,18 +223,18 @@
     <t>2023-11-03</t>
   </si>
   <si>
+    <t>2023-11-15</t>
+  </si>
+  <si>
     <t>2023-10-27</t>
   </si>
   <si>
-    <t>2023-11-15</t>
+    <t>2023-11-24</t>
   </si>
   <si>
     <t>2023-11-14</t>
   </si>
   <si>
-    <t>2023-11-24</t>
-  </si>
-  <si>
     <t>2023-10-13</t>
   </si>
   <si>
@@ -256,16 +247,13 @@
     <t>2023-10-19</t>
   </si>
   <si>
-    <t>2023-10-04</t>
-  </si>
-  <si>
     <t>2023-11-17</t>
   </si>
   <si>
+    <t>2023-12-01</t>
+  </si>
+  <si>
     <t>2023-11-22</t>
-  </si>
-  <si>
-    <t>2023-12-01</t>
   </si>
   <si>
     <t>2023-11-28</t>
@@ -632,7 +620,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L31"/>
+  <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -681,10 +669,10 @@
         <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
@@ -693,7 +681,7 @@
         <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G2" t="s">
         <v>32</v>
@@ -719,10 +707,10 @@
         <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D3" t="s">
         <v>13</v>
@@ -731,10 +719,10 @@
         <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H3">
         <v>12600</v>
@@ -757,10 +745,10 @@
         <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D4" t="s">
         <v>13</v>
@@ -769,19 +757,19 @@
         <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>24</v>
+        <v>69</v>
       </c>
       <c r="G4" t="s">
-        <v>78</v>
+        <v>29</v>
       </c>
       <c r="H4">
-        <v>27000</v>
+        <v>72141.3</v>
       </c>
       <c r="I4">
-        <v>3600000</v>
+        <v>2079000</v>
       </c>
       <c r="J4">
-        <v>7500</v>
+        <v>34700</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -795,10 +783,10 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D5" t="s">
         <v>13</v>
@@ -807,19 +795,19 @@
         <v>13</v>
       </c>
       <c r="F5" t="s">
-        <v>72</v>
+        <v>23</v>
       </c>
       <c r="G5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="H5">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="I5">
-        <v>12500000</v>
+        <v>3600000</v>
       </c>
       <c r="J5">
-        <v>2000</v>
+        <v>7500</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -833,10 +821,10 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D6" t="s">
         <v>13</v>
@@ -845,19 +833,19 @@
         <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G6" t="s">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="H6">
-        <v>72141.3</v>
+        <v>25000</v>
       </c>
       <c r="I6">
-        <v>2079000</v>
+        <v>12500000</v>
       </c>
       <c r="J6">
-        <v>34700</v>
+        <v>2000</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -871,37 +859,37 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="F7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G7" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="H7">
-        <v>6384</v>
+        <v>121994.4706</v>
       </c>
       <c r="I7">
-        <v>1596000</v>
+        <v>11580800</v>
       </c>
       <c r="J7">
-        <v>4000</v>
+        <v>36200</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>100</v>
+        <v>29.1</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -909,10 +897,10 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D8" t="s">
         <v>14</v>
@@ -921,19 +909,19 @@
         <v>14</v>
       </c>
       <c r="F8" t="s">
-        <v>26</v>
+        <v>71</v>
       </c>
       <c r="G8" t="s">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="H8">
-        <v>17841.194</v>
+        <v>16000</v>
       </c>
       <c r="I8">
-        <v>1049482</v>
+        <v>8000000</v>
       </c>
       <c r="J8">
-        <v>17000</v>
+        <v>2000</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -947,10 +935,10 @@
         <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D9" t="s">
         <v>14</v>
@@ -959,19 +947,19 @@
         <v>14</v>
       </c>
       <c r="F9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9" t="s">
         <v>71</v>
       </c>
-      <c r="G9" t="s">
-        <v>28</v>
-      </c>
       <c r="H9">
-        <v>24960</v>
+        <v>27880</v>
       </c>
       <c r="I9">
-        <v>5200000</v>
+        <v>1640000</v>
       </c>
       <c r="J9">
-        <v>4800</v>
+        <v>17000</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -988,34 +976,34 @@
         <v>31</v>
       </c>
       <c r="C10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E10" t="s">
-        <v>70</v>
+        <v>14</v>
       </c>
       <c r="F10" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="G10" t="s">
-        <v>81</v>
+        <v>37</v>
       </c>
       <c r="H10">
-        <v>121994.4706</v>
+        <v>17841.194</v>
       </c>
       <c r="I10">
-        <v>11580800</v>
+        <v>1049482</v>
       </c>
       <c r="J10">
-        <v>36200</v>
+        <v>17000</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>29.1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1026,7 +1014,7 @@
         <v>32</v>
       </c>
       <c r="C11" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D11" t="s">
         <v>14</v>
@@ -1035,10 +1023,10 @@
         <v>14</v>
       </c>
       <c r="F11" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G11" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H11">
         <v>44112</v>
@@ -1061,10 +1049,10 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D12" t="s">
         <v>14</v>
@@ -1073,19 +1061,19 @@
         <v>14</v>
       </c>
       <c r="F12" t="s">
-        <v>37</v>
+        <v>68</v>
       </c>
       <c r="G12" t="s">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="H12">
-        <v>27880</v>
+        <v>24960</v>
       </c>
       <c r="I12">
-        <v>1640000</v>
+        <v>5200000</v>
       </c>
       <c r="J12">
-        <v>17000</v>
+        <v>4800</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -1099,10 +1087,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C13" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D13" t="s">
         <v>14</v>
@@ -1111,19 +1099,19 @@
         <v>14</v>
       </c>
       <c r="F13" t="s">
-        <v>75</v>
+        <v>32</v>
       </c>
       <c r="G13" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="H13">
-        <v>16000</v>
+        <v>6384</v>
       </c>
       <c r="I13">
-        <v>8000000</v>
+        <v>1596000</v>
       </c>
       <c r="J13">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1137,10 +1125,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D14" t="s">
         <v>15</v>
@@ -1149,19 +1137,19 @@
         <v>15</v>
       </c>
       <c r="F14" t="s">
-        <v>37</v>
+        <v>68</v>
       </c>
       <c r="G14" t="s">
-        <v>75</v>
+        <v>32</v>
       </c>
       <c r="H14">
-        <v>29750</v>
+        <v>46350</v>
       </c>
       <c r="I14">
-        <v>4250000</v>
+        <v>2060000</v>
       </c>
       <c r="J14">
-        <v>7000</v>
+        <v>22500</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1175,10 +1163,10 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C15" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D15" t="s">
         <v>15</v>
@@ -1187,19 +1175,19 @@
         <v>15</v>
       </c>
       <c r="F15" t="s">
+        <v>35</v>
+      </c>
+      <c r="G15" t="s">
         <v>71</v>
       </c>
-      <c r="G15" t="s">
-        <v>32</v>
-      </c>
       <c r="H15">
-        <v>46350</v>
+        <v>29750</v>
       </c>
       <c r="I15">
-        <v>2060000</v>
+        <v>4250000</v>
       </c>
       <c r="J15">
-        <v>22500</v>
+        <v>7000</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1213,37 +1201,37 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C16" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="D16" t="s">
         <v>16</v>
       </c>
       <c r="E16" t="s">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="F16" t="s">
-        <v>76</v>
+        <v>30</v>
       </c>
       <c r="G16" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H16">
-        <v>52000</v>
+        <v>284653.7406</v>
       </c>
       <c r="I16">
-        <v>2000000</v>
+        <v>11580800</v>
       </c>
       <c r="J16">
-        <v>26000</v>
+        <v>36200</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>100</v>
+        <v>67.90000000000001</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -1251,37 +1239,37 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C17" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D17" t="s">
-        <v>69</v>
+        <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>69</v>
+        <v>16</v>
       </c>
       <c r="F17" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G17" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="H17">
-        <v>16000</v>
+        <v>52000</v>
       </c>
       <c r="I17">
-        <v>1600000</v>
+        <v>2000000</v>
       </c>
       <c r="J17">
-        <v>20000</v>
+        <v>26000</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1289,10 +1277,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C18" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D18" t="s">
         <v>16</v>
@@ -1301,19 +1289,19 @@
         <v>16</v>
       </c>
       <c r="F18" t="s">
-        <v>77</v>
+        <v>29</v>
       </c>
       <c r="G18" t="s">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="H18">
-        <v>44265.9</v>
+        <v>39396</v>
       </c>
       <c r="I18">
-        <v>4137000</v>
+        <v>1407000</v>
       </c>
       <c r="J18">
-        <v>10700</v>
+        <v>28000</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1327,37 +1315,37 @@
         <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D19" t="s">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="E19" t="s">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="F19" t="s">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="G19" t="s">
-        <v>84</v>
+        <v>32</v>
       </c>
       <c r="H19">
-        <v>39396</v>
+        <v>16000</v>
       </c>
       <c r="I19">
-        <v>1407000</v>
+        <v>1600000</v>
       </c>
       <c r="J19">
-        <v>28000</v>
+        <v>20000</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1365,37 +1353,37 @@
         <v>16</v>
       </c>
       <c r="B20" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C20" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="D20" t="s">
         <v>16</v>
       </c>
       <c r="E20" t="s">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="F20" t="s">
-        <v>33</v>
+        <v>74</v>
       </c>
       <c r="G20" t="s">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="H20">
-        <v>284653.7406</v>
+        <v>44265.9</v>
       </c>
       <c r="I20">
-        <v>11580800</v>
+        <v>4137000</v>
       </c>
       <c r="J20">
-        <v>36200</v>
+        <v>10700</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>67.90000000000001</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1403,10 +1391,10 @@
         <v>17</v>
       </c>
       <c r="B21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C21" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D21" t="s">
         <v>17</v>
@@ -1415,10 +1403,10 @@
         <v>17</v>
       </c>
       <c r="F21" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G21" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H21">
         <v>65908.25</v>
@@ -1441,19 +1429,19 @@
         <v>17</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D22" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E22" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F22" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G22" t="s">
         <v>32</v>
@@ -1479,10 +1467,10 @@
         <v>18</v>
       </c>
       <c r="B23" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C23" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D23" t="s">
         <v>18</v>
@@ -1494,7 +1482,7 @@
         <v>26</v>
       </c>
       <c r="G23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H23">
         <v>4966.368</v>
@@ -1517,10 +1505,10 @@
         <v>19</v>
       </c>
       <c r="B24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C24" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D24" t="s">
         <v>19</v>
@@ -1529,7 +1517,7 @@
         <v>19</v>
       </c>
       <c r="F24" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G24" t="s">
         <v>26</v>
@@ -1555,10 +1543,10 @@
         <v>20</v>
       </c>
       <c r="B25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C25" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D25" t="s">
         <v>20</v>
@@ -1567,10 +1555,10 @@
         <v>20</v>
       </c>
       <c r="F25" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G25" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="H25">
         <v>5390</v>
@@ -1593,10 +1581,10 @@
         <v>20</v>
       </c>
       <c r="B26" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C26" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D26" t="s">
         <v>20</v>
@@ -1605,10 +1593,10 @@
         <v>20</v>
       </c>
       <c r="F26" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G26" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="H26">
         <v>11700</v>
@@ -1631,22 +1619,22 @@
         <v>21</v>
       </c>
       <c r="B27" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C27" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D27" t="s">
         <v>16</v>
       </c>
       <c r="E27" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F27" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G27" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="H27">
         <v>12576.7488</v>
@@ -1672,7 +1660,7 @@
         <v>32</v>
       </c>
       <c r="C28" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D28" t="s">
         <v>21</v>
@@ -1681,10 +1669,10 @@
         <v>21</v>
       </c>
       <c r="F28" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G28" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H28">
         <v>36850</v>
@@ -1707,10 +1695,10 @@
         <v>22</v>
       </c>
       <c r="B29" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="C29" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D29" t="s">
         <v>22</v>
@@ -1719,19 +1707,19 @@
         <v>22</v>
       </c>
       <c r="F29" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G29" t="s">
-        <v>33</v>
+        <v>70</v>
       </c>
       <c r="H29">
-        <v>8000</v>
+        <v>30600</v>
       </c>
       <c r="I29">
-        <v>4000000</v>
+        <v>1800000</v>
       </c>
       <c r="J29">
-        <v>2000</v>
+        <v>17000</v>
       </c>
       <c r="K29">
         <v>0</v>
@@ -1745,10 +1733,10 @@
         <v>22</v>
       </c>
       <c r="B30" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="C30" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D30" t="s">
         <v>22</v>
@@ -1757,62 +1745,24 @@
         <v>22</v>
       </c>
       <c r="F30" t="s">
+        <v>33</v>
+      </c>
+      <c r="G30" t="s">
         <v>30</v>
       </c>
-      <c r="G30" t="s">
-        <v>72</v>
-      </c>
       <c r="H30">
-        <v>30600</v>
+        <v>8000</v>
       </c>
       <c r="I30">
-        <v>1800000</v>
+        <v>4000000</v>
       </c>
       <c r="J30">
-        <v>17000</v>
+        <v>2000</v>
       </c>
       <c r="K30">
         <v>0</v>
       </c>
       <c r="L30">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12">
-      <c r="A31" t="s">
-        <v>23</v>
-      </c>
-      <c r="B31" t="s">
-        <v>41</v>
-      </c>
-      <c r="C31" t="s">
-        <v>68</v>
-      </c>
-      <c r="D31" t="s">
-        <v>23</v>
-      </c>
-      <c r="E31" t="s">
-        <v>23</v>
-      </c>
-      <c r="F31" t="s">
-        <v>80</v>
-      </c>
-      <c r="G31" t="s">
-        <v>76</v>
-      </c>
-      <c r="H31">
-        <v>8000</v>
-      </c>
-      <c r="I31">
-        <v>4000000</v>
-      </c>
-      <c r="J31">
-        <v>2000</v>
-      </c>
-      <c r="K31">
-        <v>0</v>
-      </c>
-      <c r="L31">
         <v>100</v>
       </c>
     </row>

--- a/datasets/form3.xlsx
+++ b/datasets/form3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="86">
   <si>
     <t>인수기관</t>
   </si>
@@ -88,43 +88,46 @@
     <t>2023-10-31</t>
   </si>
   <si>
+    <t>2023-10-24</t>
+  </si>
+  <si>
+    <t>2023-11-10</t>
+  </si>
+  <si>
     <t>2023-11-01</t>
   </si>
   <si>
-    <t>2023-11-10</t>
-  </si>
-  <si>
     <t>2023-10-26</t>
   </si>
   <si>
-    <t>2023-10-24</t>
+    <t>2023-10-23</t>
+  </si>
+  <si>
+    <t>2023-11-21</t>
+  </si>
+  <si>
+    <t>2023-11-13</t>
+  </si>
+  <si>
+    <t>2023-11-09</t>
   </si>
   <si>
     <t>2023-11-08</t>
   </si>
   <si>
-    <t>2023-11-21</t>
-  </si>
-  <si>
-    <t>2023-11-13</t>
-  </si>
-  <si>
-    <t>2023-10-23</t>
-  </si>
-  <si>
-    <t>2023-11-09</t>
-  </si>
-  <si>
     <t>2023-11-06</t>
   </si>
   <si>
+    <t>2023-10-05</t>
+  </si>
+  <si>
+    <t>2023-11-16</t>
+  </si>
+  <si>
     <t>2023-10-10</t>
   </si>
   <si>
-    <t>2023-11-16</t>
-  </si>
-  <si>
-    <t>2023-10-05</t>
+    <t>2023-11-23</t>
   </si>
   <si>
     <t>2023-11-02</t>
@@ -139,36 +142,36 @@
     <t>비아이매트릭스</t>
   </si>
   <si>
+    <t>KB제27호스팩</t>
+  </si>
+  <si>
+    <t>에코아이</t>
+  </si>
+  <si>
     <t>에스와이스틸텍</t>
   </si>
   <si>
-    <t>에코아이</t>
-  </si>
-  <si>
     <t>쏘닉스</t>
   </si>
   <si>
-    <t>KB제27호스팩</t>
+    <t>메가터치</t>
+  </si>
+  <si>
+    <t>유진테크놀로지</t>
+  </si>
+  <si>
+    <t>엔에이치스팩30호</t>
+  </si>
+  <si>
+    <t>그린리소스</t>
+  </si>
+  <si>
+    <t>동인기연</t>
   </si>
   <si>
     <t>에코프로머티</t>
   </si>
   <si>
-    <t>엔에이치스팩30호</t>
-  </si>
-  <si>
-    <t>그린리소스</t>
-  </si>
-  <si>
-    <t>유진테크놀로지</t>
-  </si>
-  <si>
-    <t>동인기연</t>
-  </si>
-  <si>
-    <t>메가터치</t>
-  </si>
-  <si>
     <t>캡스톤파트너스</t>
   </si>
   <si>
@@ -178,16 +181,19 @@
     <t>한선엔지니어링</t>
   </si>
   <si>
+    <t>퓨릿</t>
+  </si>
+  <si>
+    <t>큐로셀</t>
+  </si>
+  <si>
+    <t>에이에스텍</t>
+  </si>
+  <si>
     <t>신성에스티</t>
   </si>
   <si>
-    <t>에이에스텍</t>
-  </si>
-  <si>
-    <t>큐로셀</t>
-  </si>
-  <si>
-    <t>퓨릿</t>
+    <t>삼성스팩9호</t>
   </si>
   <si>
     <t>에이직랜드</t>
@@ -199,12 +205,12 @@
     <t>워트</t>
   </si>
   <si>
+    <t>에이텀</t>
+  </si>
+  <si>
     <t>에스엘에스바이오</t>
   </si>
   <si>
-    <t>에이텀</t>
-  </si>
-  <si>
     <t>스톰테크</t>
   </si>
   <si>
@@ -223,22 +229,25 @@
     <t>2023-11-03</t>
   </si>
   <si>
+    <t>2023-10-27</t>
+  </si>
+  <si>
     <t>2023-11-15</t>
   </si>
   <si>
-    <t>2023-10-27</t>
-  </si>
-  <si>
     <t>2023-11-24</t>
   </si>
   <si>
     <t>2023-11-14</t>
   </si>
   <si>
+    <t>2023-10-11</t>
+  </si>
+  <si>
     <t>2023-10-13</t>
   </si>
   <si>
-    <t>2023-10-11</t>
+    <t>2023-11-28</t>
   </si>
   <si>
     <t>2023-11-07</t>
@@ -247,16 +256,16 @@
     <t>2023-10-19</t>
   </si>
   <si>
+    <t>2023-12-01</t>
+  </si>
+  <si>
+    <t>2023-11-22</t>
+  </si>
+  <si>
     <t>2023-11-17</t>
   </si>
   <si>
-    <t>2023-12-01</t>
-  </si>
-  <si>
-    <t>2023-11-22</t>
-  </si>
-  <si>
-    <t>2023-11-28</t>
+    <t>2023-12-04</t>
   </si>
   <si>
     <t>2023-10-20</t>
@@ -620,7 +629,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L30"/>
+  <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -672,7 +681,7 @@
         <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
@@ -681,10 +690,10 @@
         <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H2">
         <v>15600</v>
@@ -710,7 +719,7 @@
         <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D3" t="s">
         <v>13</v>
@@ -719,19 +728,19 @@
         <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>33</v>
+        <v>71</v>
       </c>
       <c r="G3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H3">
-        <v>12600</v>
+        <v>25000</v>
       </c>
       <c r="I3">
-        <v>7000000</v>
+        <v>12500000</v>
       </c>
       <c r="J3">
-        <v>1800</v>
+        <v>2000</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -748,7 +757,7 @@
         <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D4" t="s">
         <v>13</v>
@@ -757,7 +766,7 @@
         <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G4" t="s">
         <v>29</v>
@@ -786,7 +795,7 @@
         <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D5" t="s">
         <v>13</v>
@@ -795,19 +804,19 @@
         <v>13</v>
       </c>
       <c r="F5" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="G5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H5">
-        <v>27000</v>
+        <v>12600</v>
       </c>
       <c r="I5">
-        <v>3600000</v>
+        <v>7000000</v>
       </c>
       <c r="J5">
-        <v>7500</v>
+        <v>1800</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -824,7 +833,7 @@
         <v>27</v>
       </c>
       <c r="C6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D6" t="s">
         <v>13</v>
@@ -833,19 +842,19 @@
         <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>70</v>
+        <v>23</v>
       </c>
       <c r="G6" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="H6">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="I6">
-        <v>12500000</v>
+        <v>3600000</v>
       </c>
       <c r="J6">
-        <v>2000</v>
+        <v>7500</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -859,37 +868,37 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E7" t="s">
-        <v>67</v>
+        <v>14</v>
       </c>
       <c r="F7" t="s">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="G7" t="s">
-        <v>77</v>
+        <v>25</v>
       </c>
       <c r="H7">
-        <v>121994.4706</v>
+        <v>24960</v>
       </c>
       <c r="I7">
-        <v>11580800</v>
+        <v>5200000</v>
       </c>
       <c r="J7">
-        <v>36200</v>
+        <v>4800</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>29.1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -897,10 +906,10 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D8" t="s">
         <v>14</v>
@@ -909,19 +918,19 @@
         <v>14</v>
       </c>
       <c r="F8" t="s">
-        <v>71</v>
+        <v>27</v>
       </c>
       <c r="G8" t="s">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="H8">
-        <v>16000</v>
+        <v>17841.194</v>
       </c>
       <c r="I8">
-        <v>8000000</v>
+        <v>1049482</v>
       </c>
       <c r="J8">
-        <v>2000</v>
+        <v>17000</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -935,10 +944,10 @@
         <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D9" t="s">
         <v>14</v>
@@ -947,19 +956,19 @@
         <v>14</v>
       </c>
       <c r="F9" t="s">
-        <v>35</v>
+        <v>73</v>
       </c>
       <c r="G9" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="H9">
-        <v>27880</v>
+        <v>16000</v>
       </c>
       <c r="I9">
-        <v>1640000</v>
+        <v>8000000</v>
       </c>
       <c r="J9">
-        <v>17000</v>
+        <v>2000</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -973,10 +982,10 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D10" t="s">
         <v>14</v>
@@ -985,16 +994,16 @@
         <v>14</v>
       </c>
       <c r="F10" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="G10" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="H10">
-        <v>17841.194</v>
+        <v>27880</v>
       </c>
       <c r="I10">
-        <v>1049482</v>
+        <v>1640000</v>
       </c>
       <c r="J10">
         <v>17000</v>
@@ -1011,10 +1020,10 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D11" t="s">
         <v>14</v>
@@ -1023,10 +1032,10 @@
         <v>14</v>
       </c>
       <c r="F11" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G11" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H11">
         <v>44112</v>
@@ -1049,37 +1058,37 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="C12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D12" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E12" t="s">
-        <v>14</v>
+        <v>69</v>
       </c>
       <c r="F12" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="G12" t="s">
-        <v>25</v>
+        <v>82</v>
       </c>
       <c r="H12">
-        <v>24960</v>
+        <v>121994.4706</v>
       </c>
       <c r="I12">
-        <v>5200000</v>
+        <v>11580800</v>
       </c>
       <c r="J12">
-        <v>4800</v>
+        <v>36200</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>100</v>
+        <v>29.1</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -1090,7 +1099,7 @@
         <v>33</v>
       </c>
       <c r="C13" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D13" t="s">
         <v>14</v>
@@ -1099,10 +1108,10 @@
         <v>14</v>
       </c>
       <c r="F13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G13" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="H13">
         <v>6384</v>
@@ -1128,7 +1137,7 @@
         <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D14" t="s">
         <v>15</v>
@@ -1137,10 +1146,10 @@
         <v>15</v>
       </c>
       <c r="F14" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H14">
         <v>46350</v>
@@ -1166,7 +1175,7 @@
         <v>30</v>
       </c>
       <c r="C15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D15" t="s">
         <v>15</v>
@@ -1178,7 +1187,7 @@
         <v>35</v>
       </c>
       <c r="G15" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H15">
         <v>29750</v>
@@ -1201,37 +1210,37 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C16" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="D16" t="s">
         <v>16</v>
       </c>
       <c r="E16" t="s">
-        <v>67</v>
+        <v>16</v>
       </c>
       <c r="F16" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="G16" t="s">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="H16">
-        <v>284653.7406</v>
+        <v>44265.9</v>
       </c>
       <c r="I16">
-        <v>11580800</v>
+        <v>4137000</v>
       </c>
       <c r="J16">
-        <v>36200</v>
+        <v>10700</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>67.90000000000001</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -1239,37 +1248,37 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D17" t="s">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="E17" t="s">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="F17" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G17" t="s">
-        <v>76</v>
+        <v>31</v>
       </c>
       <c r="H17">
-        <v>52000</v>
+        <v>16000</v>
       </c>
       <c r="I17">
-        <v>2000000</v>
+        <v>1600000</v>
       </c>
       <c r="J17">
-        <v>26000</v>
+        <v>20000</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1280,7 +1289,7 @@
         <v>35</v>
       </c>
       <c r="C18" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D18" t="s">
         <v>16</v>
@@ -1292,7 +1301,7 @@
         <v>29</v>
       </c>
       <c r="G18" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="H18">
         <v>39396</v>
@@ -1315,37 +1324,37 @@
         <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="C19" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D19" t="s">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="E19" t="s">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="F19" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="G19" t="s">
-        <v>32</v>
+        <v>79</v>
       </c>
       <c r="H19">
-        <v>16000</v>
+        <v>52000</v>
       </c>
       <c r="I19">
-        <v>1600000</v>
+        <v>2000000</v>
       </c>
       <c r="J19">
-        <v>20000</v>
+        <v>26000</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1353,37 +1362,37 @@
         <v>16</v>
       </c>
       <c r="B20" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C20" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D20" t="s">
         <v>16</v>
       </c>
       <c r="E20" t="s">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="F20" t="s">
-        <v>74</v>
+        <v>30</v>
       </c>
       <c r="G20" t="s">
-        <v>39</v>
+        <v>82</v>
       </c>
       <c r="H20">
-        <v>44265.9</v>
+        <v>284653.7406</v>
       </c>
       <c r="I20">
-        <v>4137000</v>
+        <v>11580800</v>
       </c>
       <c r="J20">
-        <v>10700</v>
+        <v>36200</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>100</v>
+        <v>67.90000000000001</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1394,7 +1403,7 @@
         <v>37</v>
       </c>
       <c r="C21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D21" t="s">
         <v>17</v>
@@ -1403,19 +1412,19 @@
         <v>17</v>
       </c>
       <c r="F21" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G21" t="s">
-        <v>30</v>
+        <v>83</v>
       </c>
       <c r="H21">
-        <v>65908.25</v>
+        <v>20000</v>
       </c>
       <c r="I21">
-        <v>2636330</v>
+        <v>10000000</v>
       </c>
       <c r="J21">
-        <v>25000</v>
+        <v>2000</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1429,107 +1438,107 @@
         <v>17</v>
       </c>
       <c r="B22" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="C22" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D22" t="s">
-        <v>66</v>
+        <v>17</v>
       </c>
       <c r="E22" t="s">
-        <v>66</v>
+        <v>17</v>
       </c>
       <c r="F22" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="G22" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H22">
-        <v>16000</v>
+        <v>65908.25</v>
       </c>
       <c r="I22">
-        <v>1600000</v>
+        <v>2636330</v>
       </c>
       <c r="J22">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:12">
       <c r="A23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" t="s">
+        <v>56</v>
+      </c>
+      <c r="D23" t="s">
+        <v>68</v>
+      </c>
+      <c r="E23" t="s">
+        <v>68</v>
+      </c>
+      <c r="F23" t="s">
+        <v>70</v>
+      </c>
+      <c r="G23" t="s">
         <v>31</v>
       </c>
-      <c r="C23" t="s">
-        <v>59</v>
-      </c>
-      <c r="D23" t="s">
-        <v>18</v>
-      </c>
-      <c r="E23" t="s">
-        <v>18</v>
-      </c>
-      <c r="F23" t="s">
-        <v>26</v>
-      </c>
-      <c r="G23" t="s">
-        <v>37</v>
-      </c>
       <c r="H23">
-        <v>4966.368</v>
+        <v>16000</v>
       </c>
       <c r="I23">
-        <v>1128720</v>
+        <v>1600000</v>
       </c>
       <c r="J23">
-        <v>4400</v>
+        <v>20000</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:12">
       <c r="A24" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B24" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" t="s">
+        <v>61</v>
+      </c>
+      <c r="D24" t="s">
+        <v>18</v>
+      </c>
+      <c r="E24" t="s">
+        <v>18</v>
+      </c>
+      <c r="F24" t="s">
+        <v>27</v>
+      </c>
+      <c r="G24" t="s">
         <v>38</v>
       </c>
-      <c r="C24" t="s">
-        <v>60</v>
-      </c>
-      <c r="D24" t="s">
-        <v>19</v>
-      </c>
-      <c r="E24" t="s">
-        <v>19</v>
-      </c>
-      <c r="F24" t="s">
-        <v>76</v>
-      </c>
-      <c r="G24" t="s">
-        <v>26</v>
-      </c>
       <c r="H24">
-        <v>26000</v>
+        <v>4966.368</v>
       </c>
       <c r="I24">
-        <v>4000000</v>
+        <v>1128720</v>
       </c>
       <c r="J24">
-        <v>6500</v>
+        <v>4400</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1540,34 +1549,34 @@
     </row>
     <row r="25" spans="1:12">
       <c r="A25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B25" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C25" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F25" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="G25" t="s">
-        <v>81</v>
+        <v>27</v>
       </c>
       <c r="H25">
-        <v>5390</v>
+        <v>26000</v>
       </c>
       <c r="I25">
-        <v>770000</v>
+        <v>4000000</v>
       </c>
       <c r="J25">
-        <v>7000</v>
+        <v>6500</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1584,7 +1593,7 @@
         <v>29</v>
       </c>
       <c r="C26" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D26" t="s">
         <v>20</v>
@@ -1593,10 +1602,10 @@
         <v>20</v>
       </c>
       <c r="F26" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G26" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H26">
         <v>11700</v>
@@ -1616,40 +1625,40 @@
     </row>
     <row r="27" spans="1:12">
       <c r="A27" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B27" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="C27" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="D27" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E27" t="s">
-        <v>67</v>
+        <v>20</v>
       </c>
       <c r="F27" t="s">
-        <v>30</v>
+        <v>76</v>
       </c>
       <c r="G27" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H27">
-        <v>12576.7488</v>
+        <v>5390</v>
       </c>
       <c r="I27">
-        <v>11580800</v>
+        <v>770000</v>
       </c>
       <c r="J27">
-        <v>36200</v>
+        <v>7000</v>
       </c>
       <c r="K27">
         <v>0</v>
       </c>
       <c r="L27">
-        <v>3</v>
+        <v>100</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -1660,66 +1669,66 @@
         <v>32</v>
       </c>
       <c r="C28" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="D28" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E28" t="s">
-        <v>21</v>
+        <v>69</v>
       </c>
       <c r="F28" t="s">
-        <v>72</v>
+        <v>30</v>
       </c>
       <c r="G28" t="s">
         <v>82</v>
       </c>
       <c r="H28">
-        <v>36850</v>
+        <v>12576.7488</v>
       </c>
       <c r="I28">
-        <v>3350000</v>
+        <v>11580800</v>
       </c>
       <c r="J28">
-        <v>11000</v>
+        <v>36200</v>
       </c>
       <c r="K28">
         <v>0</v>
       </c>
       <c r="L28">
-        <v>100</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:12">
       <c r="A29" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B29" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C29" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D29" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E29" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F29" t="s">
-        <v>31</v>
+        <v>74</v>
       </c>
       <c r="G29" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="H29">
-        <v>30600</v>
+        <v>36850</v>
       </c>
       <c r="I29">
-        <v>1800000</v>
+        <v>3350000</v>
       </c>
       <c r="J29">
-        <v>17000</v>
+        <v>11000</v>
       </c>
       <c r="K29">
         <v>0</v>
@@ -1733,10 +1742,10 @@
         <v>22</v>
       </c>
       <c r="B30" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="C30" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D30" t="s">
         <v>22</v>
@@ -1745,24 +1754,62 @@
         <v>22</v>
       </c>
       <c r="F30" t="s">
+        <v>28</v>
+      </c>
+      <c r="G30" t="s">
+        <v>71</v>
+      </c>
+      <c r="H30">
+        <v>30600</v>
+      </c>
+      <c r="I30">
+        <v>1800000</v>
+      </c>
+      <c r="J30">
+        <v>17000</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" t="s">
+        <v>22</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>67</v>
+      </c>
+      <c r="D31" t="s">
+        <v>22</v>
+      </c>
+      <c r="E31" t="s">
+        <v>22</v>
+      </c>
+      <c r="F31" t="s">
         <v>33</v>
       </c>
-      <c r="G30" t="s">
+      <c r="G31" t="s">
         <v>30</v>
       </c>
-      <c r="H30">
+      <c r="H31">
         <v>8000</v>
       </c>
-      <c r="I30">
+      <c r="I31">
         <v>4000000</v>
       </c>
-      <c r="J30">
+      <c r="J31">
         <v>2000</v>
       </c>
-      <c r="K30">
-        <v>0</v>
-      </c>
-      <c r="L30">
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
         <v>100</v>
       </c>
     </row>

--- a/datasets/form3.xlsx
+++ b/datasets/form3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="91">
   <si>
     <t>인수기관</t>
   </si>
@@ -61,6 +61,9 @@
     <t>NH</t>
   </si>
   <si>
+    <t>교보</t>
+  </si>
+  <si>
     <t>대신</t>
   </si>
   <si>
@@ -73,6 +76,9 @@
     <t>신한</t>
   </si>
   <si>
+    <t>유안타</t>
+  </si>
+  <si>
     <t>키움</t>
   </si>
   <si>
@@ -91,15 +97,15 @@
     <t>2023-10-24</t>
   </si>
   <si>
+    <t>2023-10-26</t>
+  </si>
+  <si>
     <t>2023-11-10</t>
   </si>
   <si>
     <t>2023-11-01</t>
   </si>
   <si>
-    <t>2023-10-26</t>
-  </si>
-  <si>
     <t>2023-10-23</t>
   </si>
   <si>
@@ -118,18 +124,18 @@
     <t>2023-11-06</t>
   </si>
   <si>
+    <t>2023-11-23</t>
+  </si>
+  <si>
+    <t>2023-11-16</t>
+  </si>
+  <si>
+    <t>2023-10-10</t>
+  </si>
+  <si>
     <t>2023-10-05</t>
   </si>
   <si>
-    <t>2023-11-16</t>
-  </si>
-  <si>
-    <t>2023-10-10</t>
-  </si>
-  <si>
-    <t>2023-11-23</t>
-  </si>
-  <si>
     <t>2023-11-02</t>
   </si>
   <si>
@@ -145,63 +151,69 @@
     <t>KB제27호스팩</t>
   </si>
   <si>
+    <t>쏘닉스</t>
+  </si>
+  <si>
     <t>에코아이</t>
   </si>
   <si>
     <t>에스와이스틸텍</t>
   </si>
   <si>
-    <t>쏘닉스</t>
+    <t>유진테크놀로지</t>
+  </si>
+  <si>
+    <t>엔에이치스팩30호</t>
+  </si>
+  <si>
+    <t>그린리소스</t>
+  </si>
+  <si>
+    <t>동인기연</t>
   </si>
   <si>
     <t>메가터치</t>
   </si>
   <si>
-    <t>유진테크놀로지</t>
-  </si>
-  <si>
-    <t>엔에이치스팩30호</t>
-  </si>
-  <si>
-    <t>그린리소스</t>
-  </si>
-  <si>
-    <t>동인기연</t>
-  </si>
-  <si>
     <t>에코프로머티</t>
   </si>
   <si>
     <t>캡스톤파트너스</t>
   </si>
   <si>
+    <t>교보15호스팩</t>
+  </si>
+  <si>
     <t>컨텍</t>
   </si>
   <si>
     <t>한선엔지니어링</t>
   </si>
   <si>
+    <t>큐로셀</t>
+  </si>
+  <si>
+    <t>에이에스텍</t>
+  </si>
+  <si>
+    <t>신성에스티</t>
+  </si>
+  <si>
     <t>퓨릿</t>
   </si>
   <si>
-    <t>큐로셀</t>
-  </si>
-  <si>
-    <t>에이에스텍</t>
-  </si>
-  <si>
-    <t>신성에스티</t>
+    <t>에이직랜드</t>
   </si>
   <si>
     <t>삼성스팩9호</t>
   </si>
   <si>
-    <t>에이직랜드</t>
-  </si>
-  <si>
     <t>유투바이오</t>
   </si>
   <si>
+    <t>와이바이오로직스</t>
+  </si>
+  <si>
     <t>워트</t>
   </si>
   <si>
@@ -214,12 +226,12 @@
     <t>스톰테크</t>
   </si>
   <si>
+    <t>한국제13호스팩</t>
+  </si>
+  <si>
     <t>퀄리타스반도체</t>
   </si>
   <si>
-    <t>한국제13호스팩</t>
-  </si>
-  <si>
     <t>미래, 삼성</t>
   </si>
   <si>
@@ -241,15 +253,15 @@
     <t>2023-11-14</t>
   </si>
   <si>
+    <t>2023-11-28</t>
+  </si>
+  <si>
+    <t>2023-10-13</t>
+  </si>
+  <si>
     <t>2023-10-11</t>
   </si>
   <si>
-    <t>2023-10-13</t>
-  </si>
-  <si>
-    <t>2023-11-28</t>
-  </si>
-  <si>
     <t>2023-11-07</t>
   </si>
   <si>
@@ -263,6 +275,9 @@
   </si>
   <si>
     <t>2023-11-17</t>
+  </si>
+  <si>
+    <t>2023-12-05</t>
   </si>
   <si>
     <t>2023-12-04</t>
@@ -629,7 +644,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L31"/>
+  <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -678,10 +693,10 @@
         <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
@@ -690,10 +705,10 @@
         <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="G2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H2">
         <v>15600</v>
@@ -716,10 +731,10 @@
         <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D3" t="s">
         <v>13</v>
@@ -728,10 +743,10 @@
         <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="G3" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="H3">
         <v>25000</v>
@@ -754,10 +769,10 @@
         <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D4" t="s">
         <v>13</v>
@@ -766,19 +781,19 @@
         <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>72</v>
+        <v>25</v>
       </c>
       <c r="G4" t="s">
-        <v>29</v>
+        <v>82</v>
       </c>
       <c r="H4">
-        <v>72141.3</v>
+        <v>27000</v>
       </c>
       <c r="I4">
-        <v>2079000</v>
+        <v>3600000</v>
       </c>
       <c r="J4">
-        <v>34700</v>
+        <v>7500</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -792,10 +807,10 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D5" t="s">
         <v>13</v>
@@ -804,19 +819,19 @@
         <v>13</v>
       </c>
       <c r="F5" t="s">
-        <v>33</v>
+        <v>76</v>
       </c>
       <c r="G5" t="s">
-        <v>74</v>
+        <v>31</v>
       </c>
       <c r="H5">
-        <v>12600</v>
+        <v>72141.3</v>
       </c>
       <c r="I5">
-        <v>7000000</v>
+        <v>2079000</v>
       </c>
       <c r="J5">
-        <v>1800</v>
+        <v>34700</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -830,10 +845,10 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C6" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D6" t="s">
         <v>13</v>
@@ -842,19 +857,19 @@
         <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="G6" t="s">
         <v>78</v>
       </c>
       <c r="H6">
-        <v>27000</v>
+        <v>12600</v>
       </c>
       <c r="I6">
-        <v>3600000</v>
+        <v>7000000</v>
       </c>
       <c r="J6">
-        <v>7500</v>
+        <v>1800</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -868,10 +883,10 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D7" t="s">
         <v>14</v>
@@ -880,19 +895,19 @@
         <v>14</v>
       </c>
       <c r="F7" t="s">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="G7" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="H7">
-        <v>24960</v>
+        <v>17841.194</v>
       </c>
       <c r="I7">
-        <v>5200000</v>
+        <v>1049482</v>
       </c>
       <c r="J7">
-        <v>4800</v>
+        <v>17000</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -906,10 +921,10 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D8" t="s">
         <v>14</v>
@@ -918,19 +933,19 @@
         <v>14</v>
       </c>
       <c r="F8" t="s">
-        <v>27</v>
+        <v>77</v>
       </c>
       <c r="G8" t="s">
-        <v>38</v>
+        <v>84</v>
       </c>
       <c r="H8">
-        <v>17841.194</v>
+        <v>16000</v>
       </c>
       <c r="I8">
-        <v>1049482</v>
+        <v>8000000</v>
       </c>
       <c r="J8">
-        <v>17000</v>
+        <v>2000</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -944,10 +959,10 @@
         <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C9" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D9" t="s">
         <v>14</v>
@@ -956,19 +971,19 @@
         <v>14</v>
       </c>
       <c r="F9" t="s">
-        <v>73</v>
+        <v>37</v>
       </c>
       <c r="G9" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="H9">
-        <v>16000</v>
+        <v>27880</v>
       </c>
       <c r="I9">
-        <v>8000000</v>
+        <v>1640000</v>
       </c>
       <c r="J9">
-        <v>2000</v>
+        <v>17000</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -982,10 +997,10 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C10" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D10" t="s">
         <v>14</v>
@@ -994,19 +1009,19 @@
         <v>14</v>
       </c>
       <c r="F10" t="s">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="G10" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="H10">
-        <v>27880</v>
+        <v>44112</v>
       </c>
       <c r="I10">
-        <v>1640000</v>
+        <v>1470400</v>
       </c>
       <c r="J10">
-        <v>17000</v>
+        <v>30000</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1020,10 +1035,10 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D11" t="s">
         <v>14</v>
@@ -1035,16 +1050,16 @@
         <v>74</v>
       </c>
       <c r="G11" t="s">
-        <v>81</v>
+        <v>28</v>
       </c>
       <c r="H11">
-        <v>44112</v>
+        <v>24960</v>
       </c>
       <c r="I11">
-        <v>1470400</v>
+        <v>5200000</v>
       </c>
       <c r="J11">
-        <v>30000</v>
+        <v>4800</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -1058,22 +1073,22 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" t="s">
+        <v>73</v>
+      </c>
+      <c r="F12" t="s">
         <v>32</v>
       </c>
-      <c r="C12" t="s">
-        <v>51</v>
-      </c>
-      <c r="D12" t="s">
-        <v>16</v>
-      </c>
-      <c r="E12" t="s">
-        <v>69</v>
-      </c>
-      <c r="F12" t="s">
-        <v>30</v>
-      </c>
       <c r="G12" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="H12">
         <v>121994.4706</v>
@@ -1096,10 +1111,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C13" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D13" t="s">
         <v>14</v>
@@ -1108,10 +1123,10 @@
         <v>14</v>
       </c>
       <c r="F13" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G13" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="H13">
         <v>6384</v>
@@ -1134,10 +1149,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="C14" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D14" t="s">
         <v>15</v>
@@ -1146,19 +1161,19 @@
         <v>15</v>
       </c>
       <c r="F14" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="G14" t="s">
-        <v>31</v>
+        <v>87</v>
       </c>
       <c r="H14">
-        <v>46350</v>
+        <v>7000</v>
       </c>
       <c r="I14">
-        <v>2060000</v>
+        <v>3500000</v>
       </c>
       <c r="J14">
-        <v>22500</v>
+        <v>2000</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1169,34 +1184,34 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D15" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E15" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F15" t="s">
-        <v>35</v>
+        <v>74</v>
       </c>
       <c r="G15" t="s">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="H15">
-        <v>29750</v>
+        <v>46350</v>
       </c>
       <c r="I15">
-        <v>4250000</v>
+        <v>2060000</v>
       </c>
       <c r="J15">
-        <v>7000</v>
+        <v>22500</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1210,10 +1225,10 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C16" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D16" t="s">
         <v>16</v>
@@ -1222,19 +1237,19 @@
         <v>16</v>
       </c>
       <c r="F16" t="s">
-        <v>75</v>
+        <v>37</v>
       </c>
       <c r="G16" t="s">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="H16">
-        <v>44265.9</v>
+        <v>29750</v>
       </c>
       <c r="I16">
-        <v>4137000</v>
+        <v>4250000</v>
       </c>
       <c r="J16">
-        <v>10700</v>
+        <v>7000</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1245,25 +1260,25 @@
     </row>
     <row r="17" spans="1:12">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D17" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E17" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F17" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="G17" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H17">
         <v>16000</v>
@@ -1283,72 +1298,72 @@
     </row>
     <row r="18" spans="1:12">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C18" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D18" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>16</v>
+        <v>73</v>
       </c>
       <c r="F18" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G18" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H18">
-        <v>39396</v>
+        <v>284653.7406</v>
       </c>
       <c r="I18">
-        <v>1407000</v>
+        <v>11580800</v>
       </c>
       <c r="J18">
-        <v>28000</v>
+        <v>36200</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>100</v>
+        <v>67.90000000000001</v>
       </c>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C19" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D19" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E19" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F19" t="s">
-        <v>76</v>
+        <v>31</v>
       </c>
       <c r="G19" t="s">
         <v>79</v>
       </c>
       <c r="H19">
-        <v>52000</v>
+        <v>39396</v>
       </c>
       <c r="I19">
-        <v>2000000</v>
+        <v>1407000</v>
       </c>
       <c r="J19">
-        <v>26000</v>
+        <v>28000</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1359,40 +1374,40 @@
     </row>
     <row r="20" spans="1:12">
       <c r="A20" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C20" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="D20" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E20" t="s">
-        <v>69</v>
+        <v>17</v>
       </c>
       <c r="F20" t="s">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="G20" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H20">
-        <v>284653.7406</v>
+        <v>52000</v>
       </c>
       <c r="I20">
-        <v>11580800</v>
+        <v>2000000</v>
       </c>
       <c r="J20">
-        <v>36200</v>
+        <v>26000</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>67.90000000000001</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1400,10 +1415,10 @@
         <v>17</v>
       </c>
       <c r="B21" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C21" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D21" t="s">
         <v>17</v>
@@ -1412,19 +1427,19 @@
         <v>17</v>
       </c>
       <c r="F21" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="G21" t="s">
-        <v>83</v>
+        <v>42</v>
       </c>
       <c r="H21">
-        <v>20000</v>
+        <v>44265.9</v>
       </c>
       <c r="I21">
-        <v>10000000</v>
+        <v>4137000</v>
       </c>
       <c r="J21">
-        <v>2000</v>
+        <v>10700</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1435,78 +1450,78 @@
     </row>
     <row r="22" spans="1:12">
       <c r="A22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B22" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D22" t="s">
-        <v>17</v>
+        <v>72</v>
       </c>
       <c r="E22" t="s">
-        <v>17</v>
+        <v>72</v>
       </c>
       <c r="F22" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G22" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H22">
-        <v>65908.25</v>
+        <v>16000</v>
       </c>
       <c r="I22">
-        <v>2636330</v>
+        <v>1600000</v>
       </c>
       <c r="J22">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:12">
       <c r="A23" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B23" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="C23" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="D23" t="s">
-        <v>68</v>
+        <v>18</v>
       </c>
       <c r="E23" t="s">
-        <v>68</v>
+        <v>18</v>
       </c>
       <c r="F23" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="G23" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H23">
-        <v>16000</v>
+        <v>65908.25</v>
       </c>
       <c r="I23">
-        <v>1600000</v>
+        <v>2636330</v>
       </c>
       <c r="J23">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1514,10 +1529,10 @@
         <v>18</v>
       </c>
       <c r="B24" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="C24" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D24" t="s">
         <v>18</v>
@@ -1526,19 +1541,19 @@
         <v>18</v>
       </c>
       <c r="F24" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="G24" t="s">
-        <v>38</v>
+        <v>88</v>
       </c>
       <c r="H24">
-        <v>4966.368</v>
+        <v>20000</v>
       </c>
       <c r="I24">
-        <v>1128720</v>
+        <v>10000000</v>
       </c>
       <c r="J24">
-        <v>4400</v>
+        <v>2000</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1552,10 +1567,10 @@
         <v>19</v>
       </c>
       <c r="B25" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="C25" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D25" t="s">
         <v>19</v>
@@ -1564,19 +1579,19 @@
         <v>19</v>
       </c>
       <c r="F25" t="s">
-        <v>79</v>
+        <v>27</v>
       </c>
       <c r="G25" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="H25">
-        <v>26000</v>
+        <v>4966.368</v>
       </c>
       <c r="I25">
-        <v>4000000</v>
+        <v>1128720</v>
       </c>
       <c r="J25">
-        <v>6500</v>
+        <v>4400</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1590,10 +1605,10 @@
         <v>20</v>
       </c>
       <c r="B26" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C26" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D26" t="s">
         <v>20</v>
@@ -1602,19 +1617,19 @@
         <v>20</v>
       </c>
       <c r="F26" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="G26" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="H26">
-        <v>11700</v>
+        <v>13500</v>
       </c>
       <c r="I26">
-        <v>650000</v>
+        <v>1500000</v>
       </c>
       <c r="J26">
-        <v>18000</v>
+        <v>9000</v>
       </c>
       <c r="K26">
         <v>0</v>
@@ -1625,34 +1640,34 @@
     </row>
     <row r="27" spans="1:12">
       <c r="A27" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B27" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C27" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D27" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E27" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F27" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G27" t="s">
-        <v>84</v>
+        <v>27</v>
       </c>
       <c r="H27">
-        <v>5390</v>
+        <v>26000</v>
       </c>
       <c r="I27">
-        <v>770000</v>
+        <v>4000000</v>
       </c>
       <c r="J27">
-        <v>7000</v>
+        <v>6500</v>
       </c>
       <c r="K27">
         <v>0</v>
@@ -1663,72 +1678,72 @@
     </row>
     <row r="28" spans="1:12">
       <c r="A28" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B28" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C28" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="D28" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E28" t="s">
-        <v>69</v>
+        <v>22</v>
       </c>
       <c r="F28" t="s">
-        <v>30</v>
+        <v>77</v>
       </c>
       <c r="G28" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H28">
-        <v>12576.7488</v>
+        <v>11700</v>
       </c>
       <c r="I28">
-        <v>11580800</v>
+        <v>650000</v>
       </c>
       <c r="J28">
-        <v>36200</v>
+        <v>18000</v>
       </c>
       <c r="K28">
         <v>0</v>
       </c>
       <c r="L28">
-        <v>3</v>
+        <v>100</v>
       </c>
     </row>
     <row r="29" spans="1:12">
       <c r="A29" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B29" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="C29" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D29" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E29" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F29" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="G29" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="H29">
-        <v>36850</v>
+        <v>5390</v>
       </c>
       <c r="I29">
-        <v>3350000</v>
+        <v>770000</v>
       </c>
       <c r="J29">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="K29">
         <v>0</v>
@@ -1739,77 +1754,153 @@
     </row>
     <row r="30" spans="1:12">
       <c r="A30" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B30" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C30" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="D30" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E30" t="s">
-        <v>22</v>
+        <v>73</v>
       </c>
       <c r="F30" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="G30" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="H30">
-        <v>30600</v>
+        <v>12576.7488</v>
       </c>
       <c r="I30">
-        <v>1800000</v>
+        <v>11580800</v>
       </c>
       <c r="J30">
-        <v>17000</v>
+        <v>36200</v>
       </c>
       <c r="K30">
         <v>0</v>
       </c>
       <c r="L30">
-        <v>100</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:12">
       <c r="A31" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B31" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C31" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D31" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E31" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F31" t="s">
-        <v>33</v>
+        <v>78</v>
       </c>
       <c r="G31" t="s">
+        <v>90</v>
+      </c>
+      <c r="H31">
+        <v>36850</v>
+      </c>
+      <c r="I31">
+        <v>3350000</v>
+      </c>
+      <c r="J31">
+        <v>11000</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" t="s">
+        <v>24</v>
+      </c>
+      <c r="B32" t="s">
+        <v>29</v>
+      </c>
+      <c r="C32" t="s">
+        <v>70</v>
+      </c>
+      <c r="D32" t="s">
+        <v>24</v>
+      </c>
+      <c r="E32" t="s">
+        <v>24</v>
+      </c>
+      <c r="F32" t="s">
+        <v>35</v>
+      </c>
+      <c r="G32" t="s">
+        <v>32</v>
+      </c>
+      <c r="H32">
+        <v>8000</v>
+      </c>
+      <c r="I32">
+        <v>4000000</v>
+      </c>
+      <c r="J32">
+        <v>2000</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33" t="s">
+        <v>24</v>
+      </c>
+      <c r="B33" t="s">
+        <v>42</v>
+      </c>
+      <c r="C33" t="s">
+        <v>71</v>
+      </c>
+      <c r="D33" t="s">
+        <v>24</v>
+      </c>
+      <c r="E33" t="s">
+        <v>24</v>
+      </c>
+      <c r="F33" t="s">
         <v>30</v>
       </c>
-      <c r="H31">
-        <v>8000</v>
-      </c>
-      <c r="I31">
-        <v>4000000</v>
-      </c>
-      <c r="J31">
-        <v>2000</v>
-      </c>
-      <c r="K31">
-        <v>0</v>
-      </c>
-      <c r="L31">
+      <c r="G33" t="s">
+        <v>75</v>
+      </c>
+      <c r="H33">
+        <v>30600</v>
+      </c>
+      <c r="I33">
+        <v>1800000</v>
+      </c>
+      <c r="J33">
+        <v>17000</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
         <v>100</v>
       </c>
     </row>

--- a/datasets/form3.xlsx
+++ b/datasets/form3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="96">
   <si>
     <t>인수기관</t>
   </si>
@@ -73,6 +73,9 @@
     <t>삼성</t>
   </si>
   <si>
+    <t>신영</t>
+  </si>
+  <si>
     <t>신한</t>
   </si>
   <si>
@@ -127,18 +130,21 @@
     <t>2023-11-23</t>
   </si>
   <si>
+    <t>2023-10-10</t>
+  </si>
+  <si>
     <t>2023-11-16</t>
   </si>
   <si>
-    <t>2023-10-10</t>
-  </si>
-  <si>
     <t>2023-10-05</t>
   </si>
   <si>
     <t>2023-11-02</t>
   </si>
   <si>
+    <t>2023-11-27</t>
+  </si>
+  <si>
     <t>2023-10-16</t>
   </si>
   <si>
@@ -169,12 +175,12 @@
     <t>그린리소스</t>
   </si>
   <si>
+    <t>메가터치</t>
+  </si>
+  <si>
     <t>동인기연</t>
   </si>
   <si>
-    <t>메가터치</t>
-  </si>
-  <si>
     <t>에코프로머티</t>
   </si>
   <si>
@@ -190,15 +196,15 @@
     <t>한선엔지니어링</t>
   </si>
   <si>
+    <t>신성에스티</t>
+  </si>
+  <si>
     <t>큐로셀</t>
   </si>
   <si>
     <t>에이에스텍</t>
   </si>
   <si>
-    <t>신성에스티</t>
-  </si>
-  <si>
     <t>퓨릿</t>
   </si>
   <si>
@@ -208,6 +214,9 @@
     <t>삼성스팩9호</t>
   </si>
   <si>
+    <t>케이엔에스</t>
+  </si>
+  <si>
     <t>유투바이오</t>
   </si>
   <si>
@@ -265,6 +274,9 @@
     <t>2023-11-07</t>
   </si>
   <si>
+    <t>2023-11-30</t>
+  </si>
+  <si>
     <t>2023-10-19</t>
   </si>
   <si>
@@ -281,6 +293,9 @@
   </si>
   <si>
     <t>2023-12-04</t>
+  </si>
+  <si>
+    <t>2023-12-06</t>
   </si>
   <si>
     <t>2023-10-20</t>
@@ -644,7 +659,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L33"/>
+  <dimension ref="A1:L34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -693,10 +708,10 @@
         <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
@@ -705,10 +720,10 @@
         <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H2">
         <v>15600</v>
@@ -731,10 +746,10 @@
         <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D3" t="s">
         <v>13</v>
@@ -743,10 +758,10 @@
         <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="G3" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H3">
         <v>25000</v>
@@ -769,10 +784,10 @@
         <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D4" t="s">
         <v>13</v>
@@ -781,10 +796,10 @@
         <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G4" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="H4">
         <v>27000</v>
@@ -807,10 +822,10 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D5" t="s">
         <v>13</v>
@@ -819,10 +834,10 @@
         <v>13</v>
       </c>
       <c r="F5" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H5">
         <v>72141.3</v>
@@ -845,10 +860,10 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C6" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D6" t="s">
         <v>13</v>
@@ -857,10 +872,10 @@
         <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G6" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="H6">
         <v>12600</v>
@@ -883,10 +898,10 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D7" t="s">
         <v>14</v>
@@ -895,10 +910,10 @@
         <v>14</v>
       </c>
       <c r="F7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H7">
         <v>17841.194</v>
@@ -921,10 +936,10 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D8" t="s">
         <v>14</v>
@@ -933,10 +948,10 @@
         <v>14</v>
       </c>
       <c r="F8" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G8" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="H8">
         <v>16000</v>
@@ -959,10 +974,10 @@
         <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C9" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D9" t="s">
         <v>14</v>
@@ -971,10 +986,10 @@
         <v>14</v>
       </c>
       <c r="F9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G9" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H9">
         <v>27880</v>
@@ -997,10 +1012,10 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D10" t="s">
         <v>14</v>
@@ -1009,19 +1024,19 @@
         <v>14</v>
       </c>
       <c r="F10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G10" t="s">
-        <v>85</v>
+        <v>29</v>
       </c>
       <c r="H10">
-        <v>44112</v>
+        <v>24960</v>
       </c>
       <c r="I10">
-        <v>1470400</v>
+        <v>5200000</v>
       </c>
       <c r="J10">
-        <v>30000</v>
+        <v>4800</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1035,10 +1050,10 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="C11" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D11" t="s">
         <v>14</v>
@@ -1047,19 +1062,19 @@
         <v>14</v>
       </c>
       <c r="F11" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="G11" t="s">
-        <v>28</v>
+        <v>89</v>
       </c>
       <c r="H11">
-        <v>24960</v>
+        <v>44112</v>
       </c>
       <c r="I11">
-        <v>5200000</v>
+        <v>1470400</v>
       </c>
       <c r="J11">
-        <v>4800</v>
+        <v>30000</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -1073,22 +1088,22 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C12" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D12" t="s">
         <v>17</v>
       </c>
       <c r="E12" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G12" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="H12">
         <v>121994.4706</v>
@@ -1111,10 +1126,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C13" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D13" t="s">
         <v>14</v>
@@ -1123,10 +1138,10 @@
         <v>14</v>
       </c>
       <c r="F13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G13" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H13">
         <v>6384</v>
@@ -1149,10 +1164,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C14" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D14" t="s">
         <v>15</v>
@@ -1161,10 +1176,10 @@
         <v>15</v>
       </c>
       <c r="F14" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="G14" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="H14">
         <v>7000</v>
@@ -1187,10 +1202,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D15" t="s">
         <v>16</v>
@@ -1199,10 +1214,10 @@
         <v>16</v>
       </c>
       <c r="F15" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G15" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H15">
         <v>46350</v>
@@ -1225,10 +1240,10 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C16" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D16" t="s">
         <v>16</v>
@@ -1237,10 +1252,10 @@
         <v>16</v>
       </c>
       <c r="F16" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G16" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H16">
         <v>29750</v>
@@ -1263,37 +1278,37 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="C17" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D17" t="s">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="E17" t="s">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="F17" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="G17" t="s">
-        <v>33</v>
+        <v>87</v>
       </c>
       <c r="H17">
-        <v>16000</v>
+        <v>52000</v>
       </c>
       <c r="I17">
-        <v>1600000</v>
+        <v>2000000</v>
       </c>
       <c r="J17">
-        <v>20000</v>
+        <v>26000</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1301,37 +1316,37 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" t="s">
+        <v>75</v>
+      </c>
+      <c r="E18" t="s">
+        <v>75</v>
+      </c>
+      <c r="F18" t="s">
+        <v>77</v>
+      </c>
+      <c r="G18" t="s">
         <v>34</v>
       </c>
-      <c r="C18" t="s">
-        <v>53</v>
-      </c>
-      <c r="D18" t="s">
-        <v>17</v>
-      </c>
-      <c r="E18" t="s">
-        <v>73</v>
-      </c>
-      <c r="F18" t="s">
-        <v>32</v>
-      </c>
-      <c r="G18" t="s">
-        <v>86</v>
-      </c>
       <c r="H18">
-        <v>284653.7406</v>
+        <v>16000</v>
       </c>
       <c r="I18">
-        <v>11580800</v>
+        <v>1600000</v>
       </c>
       <c r="J18">
-        <v>36200</v>
+        <v>20000</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>67.90000000000001</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1339,37 +1354,37 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C19" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D19" t="s">
         <v>17</v>
       </c>
       <c r="E19" t="s">
-        <v>17</v>
+        <v>76</v>
       </c>
       <c r="F19" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G19" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H19">
-        <v>39396</v>
+        <v>284653.7406</v>
       </c>
       <c r="I19">
-        <v>1407000</v>
+        <v>11580800</v>
       </c>
       <c r="J19">
-        <v>28000</v>
+        <v>36200</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>100</v>
+        <v>67.90000000000001</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1377,10 +1392,10 @@
         <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C20" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D20" t="s">
         <v>17</v>
@@ -1389,19 +1404,19 @@
         <v>17</v>
       </c>
       <c r="F20" t="s">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="G20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H20">
-        <v>52000</v>
+        <v>39396</v>
       </c>
       <c r="I20">
-        <v>2000000</v>
+        <v>1407000</v>
       </c>
       <c r="J20">
-        <v>26000</v>
+        <v>28000</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1415,10 +1430,10 @@
         <v>17</v>
       </c>
       <c r="B21" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C21" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D21" t="s">
         <v>17</v>
@@ -1427,10 +1442,10 @@
         <v>17</v>
       </c>
       <c r="F21" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="G21" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H21">
         <v>44265.9</v>
@@ -1453,22 +1468,22 @@
         <v>18</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D22" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E22" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="F22" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G22" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H22">
         <v>16000</v>
@@ -1491,10 +1506,10 @@
         <v>18</v>
       </c>
       <c r="B23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C23" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D23" t="s">
         <v>18</v>
@@ -1503,10 +1518,10 @@
         <v>18</v>
       </c>
       <c r="F23" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="G23" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H23">
         <v>65908.25</v>
@@ -1529,10 +1544,10 @@
         <v>18</v>
       </c>
       <c r="B24" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C24" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D24" t="s">
         <v>18</v>
@@ -1541,10 +1556,10 @@
         <v>18</v>
       </c>
       <c r="F24" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="G24" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="H24">
         <v>20000</v>
@@ -1567,10 +1582,10 @@
         <v>19</v>
       </c>
       <c r="B25" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="C25" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D25" t="s">
         <v>19</v>
@@ -1579,19 +1594,19 @@
         <v>19</v>
       </c>
       <c r="F25" t="s">
-        <v>27</v>
+        <v>86</v>
       </c>
       <c r="G25" t="s">
-        <v>40</v>
+        <v>93</v>
       </c>
       <c r="H25">
-        <v>4966.368</v>
+        <v>17250</v>
       </c>
       <c r="I25">
-        <v>1128720</v>
+        <v>750000</v>
       </c>
       <c r="J25">
-        <v>4400</v>
+        <v>23000</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1605,10 +1620,10 @@
         <v>20</v>
       </c>
       <c r="B26" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C26" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D26" t="s">
         <v>20</v>
@@ -1617,19 +1632,19 @@
         <v>20</v>
       </c>
       <c r="F26" t="s">
-        <v>79</v>
+        <v>28</v>
       </c>
       <c r="G26" t="s">
-        <v>87</v>
+        <v>41</v>
       </c>
       <c r="H26">
-        <v>13500</v>
+        <v>4966.368</v>
       </c>
       <c r="I26">
-        <v>1500000</v>
+        <v>1128720</v>
       </c>
       <c r="J26">
-        <v>9000</v>
+        <v>4400</v>
       </c>
       <c r="K26">
         <v>0</v>
@@ -1643,10 +1658,10 @@
         <v>21</v>
       </c>
       <c r="B27" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C27" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D27" t="s">
         <v>21</v>
@@ -1655,19 +1670,19 @@
         <v>21</v>
       </c>
       <c r="F27" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G27" t="s">
-        <v>27</v>
+        <v>91</v>
       </c>
       <c r="H27">
-        <v>26000</v>
+        <v>13500</v>
       </c>
       <c r="I27">
-        <v>4000000</v>
+        <v>1500000</v>
       </c>
       <c r="J27">
-        <v>6500</v>
+        <v>9000</v>
       </c>
       <c r="K27">
         <v>0</v>
@@ -1681,10 +1696,10 @@
         <v>22</v>
       </c>
       <c r="B28" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="C28" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D28" t="s">
         <v>22</v>
@@ -1693,19 +1708,19 @@
         <v>22</v>
       </c>
       <c r="F28" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G28" t="s">
-        <v>84</v>
+        <v>28</v>
       </c>
       <c r="H28">
-        <v>11700</v>
+        <v>26000</v>
       </c>
       <c r="I28">
-        <v>650000</v>
+        <v>4000000</v>
       </c>
       <c r="J28">
-        <v>18000</v>
+        <v>6500</v>
       </c>
       <c r="K28">
         <v>0</v>
@@ -1716,34 +1731,34 @@
     </row>
     <row r="29" spans="1:12">
       <c r="A29" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B29" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C29" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D29" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E29" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F29" t="s">
         <v>80</v>
       </c>
       <c r="G29" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H29">
-        <v>5390</v>
+        <v>11700</v>
       </c>
       <c r="I29">
-        <v>770000</v>
+        <v>650000</v>
       </c>
       <c r="J29">
-        <v>7000</v>
+        <v>18000</v>
       </c>
       <c r="K29">
         <v>0</v>
@@ -1757,60 +1772,60 @@
         <v>23</v>
       </c>
       <c r="B30" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C30" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="D30" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E30" t="s">
-        <v>73</v>
+        <v>23</v>
       </c>
       <c r="F30" t="s">
-        <v>32</v>
+        <v>83</v>
       </c>
       <c r="G30" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="H30">
-        <v>12576.7488</v>
+        <v>5390</v>
       </c>
       <c r="I30">
-        <v>11580800</v>
+        <v>770000</v>
       </c>
       <c r="J30">
-        <v>36200</v>
+        <v>7000</v>
       </c>
       <c r="K30">
         <v>0</v>
       </c>
       <c r="L30">
-        <v>3</v>
+        <v>100</v>
       </c>
     </row>
     <row r="31" spans="1:12">
       <c r="A31" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B31" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C31" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D31" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E31" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F31" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="G31" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="H31">
         <v>36850</v>
@@ -1833,74 +1848,112 @@
         <v>24</v>
       </c>
       <c r="B32" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C32" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="D32" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="E32" t="s">
-        <v>24</v>
+        <v>76</v>
       </c>
       <c r="F32" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G32" t="s">
-        <v>32</v>
+        <v>90</v>
       </c>
       <c r="H32">
-        <v>8000</v>
+        <v>12576.7488</v>
       </c>
       <c r="I32">
-        <v>4000000</v>
+        <v>11580800</v>
       </c>
       <c r="J32">
-        <v>2000</v>
+        <v>36200</v>
       </c>
       <c r="K32">
         <v>0</v>
       </c>
       <c r="L32">
-        <v>100</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:12">
       <c r="A33" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B33" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="C33" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D33" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E33" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F33" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G33" t="s">
-        <v>75</v>
+        <v>33</v>
       </c>
       <c r="H33">
+        <v>8000</v>
+      </c>
+      <c r="I33">
+        <v>4000000</v>
+      </c>
+      <c r="J33">
+        <v>2000</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>44</v>
+      </c>
+      <c r="C34" t="s">
+        <v>74</v>
+      </c>
+      <c r="D34" t="s">
+        <v>25</v>
+      </c>
+      <c r="E34" t="s">
+        <v>25</v>
+      </c>
+      <c r="F34" t="s">
+        <v>31</v>
+      </c>
+      <c r="G34" t="s">
+        <v>78</v>
+      </c>
+      <c r="H34">
         <v>30600</v>
       </c>
-      <c r="I33">
+      <c r="I34">
         <v>1800000</v>
       </c>
-      <c r="J33">
+      <c r="J34">
         <v>17000</v>
       </c>
-      <c r="K33">
-        <v>0</v>
-      </c>
-      <c r="L33">
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
         <v>100</v>
       </c>
     </row>

--- a/datasets/form3.xlsx
+++ b/datasets/form3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="93">
   <si>
     <t>인수기관</t>
   </si>
@@ -103,10 +103,13 @@
     <t>2023-10-26</t>
   </si>
   <si>
+    <t>2023-11-01</t>
+  </si>
+  <si>
     <t>2023-11-10</t>
   </si>
   <si>
-    <t>2023-11-01</t>
+    <t>2023-11-06</t>
   </si>
   <si>
     <t>2023-10-23</t>
@@ -118,15 +121,12 @@
     <t>2023-11-13</t>
   </si>
   <si>
+    <t>2023-11-08</t>
+  </si>
+  <si>
     <t>2023-11-09</t>
   </si>
   <si>
-    <t>2023-11-08</t>
-  </si>
-  <si>
-    <t>2023-11-06</t>
-  </si>
-  <si>
     <t>2023-11-23</t>
   </si>
   <si>
@@ -136,9 +136,6 @@
     <t>2023-11-16</t>
   </si>
   <si>
-    <t>2023-10-05</t>
-  </si>
-  <si>
     <t>2023-11-02</t>
   </si>
   <si>
@@ -160,10 +157,13 @@
     <t>쏘닉스</t>
   </si>
   <si>
+    <t>에스와이스틸텍</t>
+  </si>
+  <si>
     <t>에코아이</t>
   </si>
   <si>
-    <t>에스와이스틸텍</t>
+    <t>캡스톤파트너스</t>
   </si>
   <si>
     <t>유진테크놀로지</t>
@@ -172,30 +172,27 @@
     <t>엔에이치스팩30호</t>
   </si>
   <si>
+    <t>메가터치</t>
+  </si>
+  <si>
     <t>그린리소스</t>
   </si>
   <si>
-    <t>메가터치</t>
+    <t>에코프로머티</t>
   </si>
   <si>
     <t>동인기연</t>
   </si>
   <si>
-    <t>에코프로머티</t>
-  </si>
-  <si>
-    <t>캡스톤파트너스</t>
-  </si>
-  <si>
     <t>교보15호스팩</t>
   </si>
   <si>
+    <t>한선엔지니어링</t>
+  </si>
+  <si>
     <t>컨텍</t>
   </si>
   <si>
-    <t>한선엔지니어링</t>
-  </si>
-  <si>
     <t>신성에스티</t>
   </si>
   <si>
@@ -205,9 +202,6 @@
     <t>에이에스텍</t>
   </si>
   <si>
-    <t>퓨릿</t>
-  </si>
-  <si>
     <t>에이직랜드</t>
   </si>
   <si>
@@ -226,21 +220,21 @@
     <t>워트</t>
   </si>
   <si>
+    <t>에스엘에스바이오</t>
+  </si>
+  <si>
     <t>에이텀</t>
   </si>
   <si>
-    <t>에스엘에스바이오</t>
-  </si>
-  <si>
     <t>스톰테크</t>
   </si>
   <si>
+    <t>퀄리타스반도체</t>
+  </si>
+  <si>
     <t>한국제13호스팩</t>
   </si>
   <si>
-    <t>퀄리타스반도체</t>
-  </si>
-  <si>
     <t>미래, 삼성</t>
   </si>
   <si>
@@ -268,9 +262,6 @@
     <t>2023-10-13</t>
   </si>
   <si>
-    <t>2023-10-11</t>
-  </si>
-  <si>
     <t>2023-11-07</t>
   </si>
   <si>
@@ -283,10 +274,10 @@
     <t>2023-12-01</t>
   </si>
   <si>
+    <t>2023-11-17</t>
+  </si>
+  <si>
     <t>2023-11-22</t>
-  </si>
-  <si>
-    <t>2023-11-17</t>
   </si>
   <si>
     <t>2023-12-05</t>
@@ -659,7 +650,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L34"/>
+  <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -711,7 +702,7 @@
         <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
@@ -720,10 +711,10 @@
         <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H2">
         <v>15600</v>
@@ -749,7 +740,7 @@
         <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D3" t="s">
         <v>13</v>
@@ -758,10 +749,10 @@
         <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H3">
         <v>25000</v>
@@ -787,7 +778,7 @@
         <v>28</v>
       </c>
       <c r="C4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D4" t="s">
         <v>13</v>
@@ -799,7 +790,7 @@
         <v>26</v>
       </c>
       <c r="G4" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H4">
         <v>27000</v>
@@ -825,7 +816,7 @@
         <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D5" t="s">
         <v>13</v>
@@ -834,19 +825,19 @@
         <v>13</v>
       </c>
       <c r="F5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" t="s">
         <v>79</v>
       </c>
-      <c r="G5" t="s">
-        <v>32</v>
-      </c>
       <c r="H5">
-        <v>72141.3</v>
+        <v>12600</v>
       </c>
       <c r="I5">
-        <v>2079000</v>
+        <v>7000000</v>
       </c>
       <c r="J5">
-        <v>34700</v>
+        <v>1800</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -863,7 +854,7 @@
         <v>30</v>
       </c>
       <c r="C6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D6" t="s">
         <v>13</v>
@@ -872,19 +863,19 @@
         <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="G6" t="s">
-        <v>81</v>
+        <v>33</v>
       </c>
       <c r="H6">
-        <v>12600</v>
+        <v>72141.3</v>
       </c>
       <c r="I6">
-        <v>7000000</v>
+        <v>2079000</v>
       </c>
       <c r="J6">
-        <v>1800</v>
+        <v>34700</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -901,7 +892,7 @@
         <v>31</v>
       </c>
       <c r="C7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D7" t="s">
         <v>14</v>
@@ -910,19 +901,19 @@
         <v>14</v>
       </c>
       <c r="F7" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="G7" t="s">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="H7">
-        <v>17841.194</v>
+        <v>6384</v>
       </c>
       <c r="I7">
-        <v>1049482</v>
+        <v>1596000</v>
       </c>
       <c r="J7">
-        <v>17000</v>
+        <v>4000</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -939,7 +930,7 @@
         <v>32</v>
       </c>
       <c r="C8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D8" t="s">
         <v>14</v>
@@ -948,19 +939,19 @@
         <v>14</v>
       </c>
       <c r="F8" t="s">
-        <v>80</v>
+        <v>28</v>
       </c>
       <c r="G8" t="s">
-        <v>88</v>
+        <v>40</v>
       </c>
       <c r="H8">
-        <v>16000</v>
+        <v>17841.194</v>
       </c>
       <c r="I8">
-        <v>8000000</v>
+        <v>1049482</v>
       </c>
       <c r="J8">
-        <v>2000</v>
+        <v>17000</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -977,7 +968,7 @@
         <v>33</v>
       </c>
       <c r="C9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D9" t="s">
         <v>14</v>
@@ -986,19 +977,19 @@
         <v>14</v>
       </c>
       <c r="F9" t="s">
-        <v>39</v>
+        <v>78</v>
       </c>
       <c r="G9" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="H9">
-        <v>27880</v>
+        <v>16000</v>
       </c>
       <c r="I9">
-        <v>1640000</v>
+        <v>8000000</v>
       </c>
       <c r="J9">
-        <v>17000</v>
+        <v>2000</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -1015,7 +1006,7 @@
         <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D10" t="s">
         <v>14</v>
@@ -1024,10 +1015,10 @@
         <v>14</v>
       </c>
       <c r="F10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H10">
         <v>24960</v>
@@ -1053,7 +1044,7 @@
         <v>34</v>
       </c>
       <c r="C11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D11" t="s">
         <v>14</v>
@@ -1062,19 +1053,19 @@
         <v>14</v>
       </c>
       <c r="F11" t="s">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="G11" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="H11">
-        <v>44112</v>
+        <v>27880</v>
       </c>
       <c r="I11">
-        <v>1470400</v>
+        <v>1640000</v>
       </c>
       <c r="J11">
-        <v>30000</v>
+        <v>17000</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -1091,19 +1082,19 @@
         <v>35</v>
       </c>
       <c r="C12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D12" t="s">
         <v>17</v>
       </c>
       <c r="E12" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G12" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="H12">
         <v>121994.4706</v>
@@ -1129,7 +1120,7 @@
         <v>36</v>
       </c>
       <c r="C13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D13" t="s">
         <v>14</v>
@@ -1138,19 +1129,19 @@
         <v>14</v>
       </c>
       <c r="F13" t="s">
-        <v>34</v>
+        <v>79</v>
       </c>
       <c r="G13" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H13">
-        <v>6384</v>
+        <v>44112</v>
       </c>
       <c r="I13">
-        <v>1596000</v>
+        <v>1470400</v>
       </c>
       <c r="J13">
-        <v>4000</v>
+        <v>30000</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1167,7 +1158,7 @@
         <v>37</v>
       </c>
       <c r="C14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D14" t="s">
         <v>15</v>
@@ -1176,10 +1167,10 @@
         <v>15</v>
       </c>
       <c r="F14" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G14" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="H14">
         <v>7000</v>
@@ -1202,10 +1193,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D15" t="s">
         <v>16</v>
@@ -1214,19 +1205,19 @@
         <v>16</v>
       </c>
       <c r="F15" t="s">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="G15" t="s">
-        <v>34</v>
+        <v>78</v>
       </c>
       <c r="H15">
-        <v>46350</v>
+        <v>29750</v>
       </c>
       <c r="I15">
-        <v>2060000</v>
+        <v>4250000</v>
       </c>
       <c r="J15">
-        <v>22500</v>
+        <v>7000</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1240,10 +1231,10 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D16" t="s">
         <v>16</v>
@@ -1252,19 +1243,19 @@
         <v>16</v>
       </c>
       <c r="F16" t="s">
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="G16" t="s">
-        <v>80</v>
+        <v>36</v>
       </c>
       <c r="H16">
-        <v>29750</v>
+        <v>46350</v>
       </c>
       <c r="I16">
-        <v>4250000</v>
+        <v>2060000</v>
       </c>
       <c r="J16">
-        <v>7000</v>
+        <v>22500</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1281,7 +1272,7 @@
         <v>38</v>
       </c>
       <c r="C17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D17" t="s">
         <v>17</v>
@@ -1290,10 +1281,10 @@
         <v>17</v>
       </c>
       <c r="F17" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G17" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="H17">
         <v>52000</v>
@@ -1319,19 +1310,19 @@
         <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D18" t="s">
+        <v>73</v>
+      </c>
+      <c r="E18" t="s">
+        <v>73</v>
+      </c>
+      <c r="F18" t="s">
         <v>75</v>
       </c>
-      <c r="E18" t="s">
-        <v>75</v>
-      </c>
-      <c r="F18" t="s">
-        <v>77</v>
-      </c>
       <c r="G18" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H18">
         <v>16000</v>
@@ -1354,37 +1345,37 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C19" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="D19" t="s">
         <v>17</v>
       </c>
       <c r="E19" t="s">
-        <v>76</v>
+        <v>17</v>
       </c>
       <c r="F19" t="s">
         <v>33</v>
       </c>
       <c r="G19" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H19">
-        <v>284653.7406</v>
+        <v>39396</v>
       </c>
       <c r="I19">
-        <v>11580800</v>
+        <v>1407000</v>
       </c>
       <c r="J19">
-        <v>36200</v>
+        <v>28000</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>67.90000000000001</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1392,75 +1383,75 @@
         <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C20" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D20" t="s">
         <v>17</v>
       </c>
       <c r="E20" t="s">
-        <v>17</v>
+        <v>74</v>
       </c>
       <c r="F20" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G20" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="H20">
-        <v>39396</v>
+        <v>284653.7406</v>
       </c>
       <c r="I20">
-        <v>1407000</v>
+        <v>11580800</v>
       </c>
       <c r="J20">
-        <v>28000</v>
+        <v>36200</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>100</v>
+        <v>67.90000000000001</v>
       </c>
     </row>
     <row r="21" spans="1:12">
       <c r="A21" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B21" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D21" t="s">
-        <v>17</v>
+        <v>73</v>
       </c>
       <c r="E21" t="s">
-        <v>17</v>
+        <v>73</v>
       </c>
       <c r="F21" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G21" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="H21">
-        <v>44265.9</v>
+        <v>16000</v>
       </c>
       <c r="I21">
-        <v>4137000</v>
+        <v>1600000</v>
       </c>
       <c r="J21">
-        <v>10700</v>
+        <v>20000</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1468,37 +1459,37 @@
         <v>18</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="C22" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D22" t="s">
-        <v>75</v>
+        <v>18</v>
       </c>
       <c r="E22" t="s">
-        <v>75</v>
+        <v>18</v>
       </c>
       <c r="F22" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="G22" t="s">
         <v>34</v>
       </c>
       <c r="H22">
-        <v>16000</v>
+        <v>65908.25</v>
       </c>
       <c r="I22">
-        <v>1600000</v>
+        <v>2636330</v>
       </c>
       <c r="J22">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1506,10 +1497,10 @@
         <v>18</v>
       </c>
       <c r="B23" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C23" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D23" t="s">
         <v>18</v>
@@ -1518,19 +1509,19 @@
         <v>18</v>
       </c>
       <c r="F23" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="G23" t="s">
-        <v>33</v>
+        <v>89</v>
       </c>
       <c r="H23">
-        <v>65908.25</v>
+        <v>20000</v>
       </c>
       <c r="I23">
-        <v>2636330</v>
+        <v>10000000</v>
       </c>
       <c r="J23">
-        <v>25000</v>
+        <v>2000</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1541,34 +1532,34 @@
     </row>
     <row r="24" spans="1:12">
       <c r="A24" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B24" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C24" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D24" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E24" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F24" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G24" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H24">
-        <v>20000</v>
+        <v>17250</v>
       </c>
       <c r="I24">
-        <v>10000000</v>
+        <v>750000</v>
       </c>
       <c r="J24">
-        <v>2000</v>
+        <v>23000</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1579,34 +1570,34 @@
     </row>
     <row r="25" spans="1:12">
       <c r="A25" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B25" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="C25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D25" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E25" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F25" t="s">
-        <v>86</v>
+        <v>28</v>
       </c>
       <c r="G25" t="s">
-        <v>93</v>
+        <v>40</v>
       </c>
       <c r="H25">
-        <v>17250</v>
+        <v>4966.368</v>
       </c>
       <c r="I25">
-        <v>750000</v>
+        <v>1128720</v>
       </c>
       <c r="J25">
-        <v>23000</v>
+        <v>4400</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1617,34 +1608,34 @@
     </row>
     <row r="26" spans="1:12">
       <c r="A26" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B26" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C26" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D26" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E26" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F26" t="s">
-        <v>28</v>
+        <v>80</v>
       </c>
       <c r="G26" t="s">
-        <v>41</v>
+        <v>88</v>
       </c>
       <c r="H26">
-        <v>4966.368</v>
+        <v>13500</v>
       </c>
       <c r="I26">
-        <v>1128720</v>
+        <v>1500000</v>
       </c>
       <c r="J26">
-        <v>4400</v>
+        <v>9000</v>
       </c>
       <c r="K26">
         <v>0</v>
@@ -1655,34 +1646,34 @@
     </row>
     <row r="27" spans="1:12">
       <c r="A27" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B27" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C27" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D27" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E27" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F27" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G27" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="H27">
-        <v>13500</v>
+        <v>26000</v>
       </c>
       <c r="I27">
-        <v>1500000</v>
+        <v>4000000</v>
       </c>
       <c r="J27">
-        <v>9000</v>
+        <v>6500</v>
       </c>
       <c r="K27">
         <v>0</v>
@@ -1693,34 +1684,34 @@
     </row>
     <row r="28" spans="1:12">
       <c r="A28" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B28" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C28" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D28" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E28" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F28" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="G28" t="s">
-        <v>28</v>
+        <v>91</v>
       </c>
       <c r="H28">
-        <v>26000</v>
+        <v>5390</v>
       </c>
       <c r="I28">
-        <v>4000000</v>
+        <v>770000</v>
       </c>
       <c r="J28">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="K28">
         <v>0</v>
@@ -1734,10 +1725,10 @@
         <v>23</v>
       </c>
       <c r="B29" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C29" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D29" t="s">
         <v>23</v>
@@ -1746,10 +1737,10 @@
         <v>23</v>
       </c>
       <c r="F29" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G29" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="H29">
         <v>11700</v>
@@ -1769,34 +1760,34 @@
     </row>
     <row r="30" spans="1:12">
       <c r="A30" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C30" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D30" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E30" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F30" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="G30" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H30">
-        <v>5390</v>
+        <v>36850</v>
       </c>
       <c r="I30">
-        <v>770000</v>
+        <v>3350000</v>
       </c>
       <c r="J30">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="K30">
         <v>0</v>
@@ -1810,75 +1801,75 @@
         <v>24</v>
       </c>
       <c r="B31" t="s">
+        <v>35</v>
+      </c>
+      <c r="C31" t="s">
+        <v>54</v>
+      </c>
+      <c r="D31" t="s">
+        <v>17</v>
+      </c>
+      <c r="E31" t="s">
+        <v>74</v>
+      </c>
+      <c r="F31" t="s">
         <v>34</v>
       </c>
-      <c r="C31" t="s">
-        <v>72</v>
-      </c>
-      <c r="D31" t="s">
-        <v>24</v>
-      </c>
-      <c r="E31" t="s">
-        <v>24</v>
-      </c>
-      <c r="F31" t="s">
-        <v>81</v>
-      </c>
       <c r="G31" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="H31">
-        <v>36850</v>
+        <v>12576.7488</v>
       </c>
       <c r="I31">
-        <v>3350000</v>
+        <v>11580800</v>
       </c>
       <c r="J31">
-        <v>11000</v>
+        <v>36200</v>
       </c>
       <c r="K31">
         <v>0</v>
       </c>
       <c r="L31">
-        <v>100</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:12">
       <c r="A32" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B32" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="C32" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="D32" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="E32" t="s">
+        <v>25</v>
+      </c>
+      <c r="F32" t="s">
+        <v>32</v>
+      </c>
+      <c r="G32" t="s">
         <v>76</v>
       </c>
-      <c r="F32" t="s">
-        <v>33</v>
-      </c>
-      <c r="G32" t="s">
-        <v>90</v>
-      </c>
       <c r="H32">
-        <v>12576.7488</v>
+        <v>30600</v>
       </c>
       <c r="I32">
-        <v>11580800</v>
+        <v>1800000</v>
       </c>
       <c r="J32">
-        <v>36200</v>
+        <v>17000</v>
       </c>
       <c r="K32">
         <v>0</v>
       </c>
       <c r="L32">
-        <v>3</v>
+        <v>100</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -1886,10 +1877,10 @@
         <v>25</v>
       </c>
       <c r="B33" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C33" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D33" t="s">
         <v>25</v>
@@ -1898,10 +1889,10 @@
         <v>25</v>
       </c>
       <c r="F33" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G33" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H33">
         <v>8000</v>
@@ -1916,44 +1907,6 @@
         <v>0</v>
       </c>
       <c r="L33">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12">
-      <c r="A34" t="s">
-        <v>25</v>
-      </c>
-      <c r="B34" t="s">
-        <v>44</v>
-      </c>
-      <c r="C34" t="s">
-        <v>74</v>
-      </c>
-      <c r="D34" t="s">
-        <v>25</v>
-      </c>
-      <c r="E34" t="s">
-        <v>25</v>
-      </c>
-      <c r="F34" t="s">
-        <v>31</v>
-      </c>
-      <c r="G34" t="s">
-        <v>78</v>
-      </c>
-      <c r="H34">
-        <v>30600</v>
-      </c>
-      <c r="I34">
-        <v>1800000</v>
-      </c>
-      <c r="J34">
-        <v>17000</v>
-      </c>
-      <c r="K34">
-        <v>0</v>
-      </c>
-      <c r="L34">
         <v>100</v>
       </c>
     </row>

--- a/datasets/form3.xlsx
+++ b/datasets/form3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="93">
   <si>
     <t>인수기관</t>
   </si>
@@ -82,6 +82,9 @@
     <t>유안타</t>
   </si>
   <si>
+    <t>이베스트</t>
+  </si>
+  <si>
     <t>키움</t>
   </si>
   <si>
@@ -100,39 +103,39 @@
     <t>2023-10-24</t>
   </si>
   <si>
+    <t>2023-12-01</t>
+  </si>
+  <si>
     <t>2023-10-26</t>
   </si>
   <si>
+    <t>2023-11-10</t>
+  </si>
+  <si>
     <t>2023-11-01</t>
   </si>
   <si>
-    <t>2023-11-10</t>
-  </si>
-  <si>
     <t>2023-11-06</t>
   </si>
   <si>
+    <t>2023-11-08</t>
+  </si>
+  <si>
+    <t>2023-11-09</t>
+  </si>
+  <si>
+    <t>2023-11-13</t>
+  </si>
+  <si>
     <t>2023-10-23</t>
   </si>
   <si>
     <t>2023-11-21</t>
   </si>
   <si>
-    <t>2023-11-13</t>
-  </si>
-  <si>
-    <t>2023-11-08</t>
-  </si>
-  <si>
-    <t>2023-11-09</t>
-  </si>
-  <si>
     <t>2023-11-23</t>
   </si>
   <si>
-    <t>2023-10-10</t>
-  </si>
-  <si>
     <t>2023-11-16</t>
   </si>
   <si>
@@ -154,36 +157,39 @@
     <t>KB제27호스팩</t>
   </si>
   <si>
+    <t>LS머트리얼즈</t>
+  </si>
+  <si>
     <t>쏘닉스</t>
   </si>
   <si>
+    <t>에코아이</t>
+  </si>
+  <si>
     <t>에스와이스틸텍</t>
   </si>
   <si>
-    <t>에코아이</t>
-  </si>
-  <si>
     <t>캡스톤파트너스</t>
   </si>
   <si>
+    <t>에코프로머티</t>
+  </si>
+  <si>
+    <t>동인기연</t>
+  </si>
+  <si>
+    <t>그린리소스</t>
+  </si>
+  <si>
+    <t>메가터치</t>
+  </si>
+  <si>
     <t>유진테크놀로지</t>
   </si>
   <si>
     <t>엔에이치스팩30호</t>
   </si>
   <si>
-    <t>메가터치</t>
-  </si>
-  <si>
-    <t>그린리소스</t>
-  </si>
-  <si>
-    <t>에코프로머티</t>
-  </si>
-  <si>
-    <t>동인기연</t>
-  </si>
-  <si>
     <t>교보15호스팩</t>
   </si>
   <si>
@@ -193,21 +199,18 @@
     <t>컨텍</t>
   </si>
   <si>
-    <t>신성에스티</t>
+    <t>에이에스텍</t>
   </si>
   <si>
     <t>큐로셀</t>
   </si>
   <si>
-    <t>에이에스텍</t>
+    <t>삼성스팩9호</t>
   </si>
   <si>
     <t>에이직랜드</t>
   </si>
   <si>
-    <t>삼성스팩9호</t>
-  </si>
-  <si>
     <t>케이엔에스</t>
   </si>
   <si>
@@ -220,9 +223,6 @@
     <t>워트</t>
   </si>
   <si>
-    <t>에스엘에스바이오</t>
-  </si>
-  <si>
     <t>에이텀</t>
   </si>
   <si>
@@ -235,9 +235,15 @@
     <t>한국제13호스팩</t>
   </si>
   <si>
+    <t>키움, KB</t>
+  </si>
+  <si>
     <t>미래, 삼성</t>
   </si>
   <si>
+    <t>키움, KB, 이베스트, 하이, NH</t>
+  </si>
+  <si>
     <t>미래, NH, 하이</t>
   </si>
   <si>
@@ -247,21 +253,21 @@
     <t>2023-10-27</t>
   </si>
   <si>
+    <t>2023-12-06</t>
+  </si>
+  <si>
     <t>2023-11-15</t>
   </si>
   <si>
+    <t>2023-11-14</t>
+  </si>
+  <si>
     <t>2023-11-24</t>
   </si>
   <si>
-    <t>2023-11-14</t>
-  </si>
-  <si>
     <t>2023-11-28</t>
   </si>
   <si>
-    <t>2023-10-13</t>
-  </si>
-  <si>
     <t>2023-11-07</t>
   </si>
   <si>
@@ -271,7 +277,7 @@
     <t>2023-10-19</t>
   </si>
   <si>
-    <t>2023-12-01</t>
+    <t>2023-12-12</t>
   </si>
   <si>
     <t>2023-11-17</t>
@@ -284,12 +290,6 @@
   </si>
   <si>
     <t>2023-12-04</t>
-  </si>
-  <si>
-    <t>2023-12-06</t>
-  </si>
-  <si>
-    <t>2023-10-20</t>
   </si>
   <si>
     <t>2023-11-20</t>
@@ -650,7 +650,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L33"/>
+  <dimension ref="A1:L36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -699,10 +699,10 @@
         <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
@@ -711,10 +711,10 @@
         <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H2">
         <v>15600</v>
@@ -737,10 +737,10 @@
         <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D3" t="s">
         <v>13</v>
@@ -749,10 +749,10 @@
         <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H3">
         <v>25000</v>
@@ -775,37 +775,37 @@
         <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>75</v>
       </c>
       <c r="F4" t="s">
-        <v>26</v>
+        <v>79</v>
       </c>
       <c r="G4" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="H4">
-        <v>27000</v>
+        <v>36196.872</v>
       </c>
       <c r="I4">
-        <v>3600000</v>
+        <v>14625000</v>
       </c>
       <c r="J4">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>100</v>
+        <v>41.25</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -813,10 +813,10 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D5" t="s">
         <v>13</v>
@@ -825,19 +825,19 @@
         <v>13</v>
       </c>
       <c r="F5" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G5" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="H5">
-        <v>12600</v>
+        <v>27000</v>
       </c>
       <c r="I5">
-        <v>7000000</v>
+        <v>3600000</v>
       </c>
       <c r="J5">
-        <v>1800</v>
+        <v>7500</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -851,10 +851,10 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D6" t="s">
         <v>13</v>
@@ -863,10 +863,10 @@
         <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G6" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H6">
         <v>72141.3</v>
@@ -886,34 +886,34 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G7" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="H7">
-        <v>6384</v>
+        <v>12600</v>
       </c>
       <c r="I7">
-        <v>1596000</v>
+        <v>7000000</v>
       </c>
       <c r="J7">
-        <v>4000</v>
+        <v>1800</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D8" t="s">
         <v>14</v>
@@ -939,19 +939,19 @@
         <v>14</v>
       </c>
       <c r="F8" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="H8">
-        <v>17841.194</v>
+        <v>6384</v>
       </c>
       <c r="I8">
-        <v>1049482</v>
+        <v>1596000</v>
       </c>
       <c r="J8">
-        <v>17000</v>
+        <v>4000</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -965,37 +965,37 @@
         <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E9" t="s">
-        <v>14</v>
+        <v>76</v>
       </c>
       <c r="F9" t="s">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="H9">
-        <v>16000</v>
+        <v>121994.4706</v>
       </c>
       <c r="I9">
-        <v>8000000</v>
+        <v>11580800</v>
       </c>
       <c r="J9">
-        <v>2000</v>
+        <v>36200</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>100</v>
+        <v>29.1</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -1003,10 +1003,10 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="C10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D10" t="s">
         <v>14</v>
@@ -1015,19 +1015,19 @@
         <v>14</v>
       </c>
       <c r="F10" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="G10" t="s">
-        <v>30</v>
+        <v>89</v>
       </c>
       <c r="H10">
-        <v>24960</v>
+        <v>44112</v>
       </c>
       <c r="I10">
-        <v>5200000</v>
+        <v>1470400</v>
       </c>
       <c r="J10">
-        <v>4800</v>
+        <v>30000</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1041,10 +1041,10 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D11" t="s">
         <v>14</v>
@@ -1053,10 +1053,10 @@
         <v>14</v>
       </c>
       <c r="F11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G11" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="H11">
         <v>27880</v>
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="C12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D12" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E12" t="s">
-        <v>74</v>
+        <v>14</v>
       </c>
       <c r="F12" t="s">
-        <v>34</v>
+        <v>77</v>
       </c>
       <c r="G12" t="s">
-        <v>86</v>
+        <v>31</v>
       </c>
       <c r="H12">
-        <v>121994.4706</v>
+        <v>24960</v>
       </c>
       <c r="I12">
-        <v>11580800</v>
+        <v>5200000</v>
       </c>
       <c r="J12">
-        <v>36200</v>
+        <v>4800</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>29.1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -1117,10 +1117,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D13" t="s">
         <v>14</v>
@@ -1129,19 +1129,19 @@
         <v>14</v>
       </c>
       <c r="F13" t="s">
-        <v>79</v>
+        <v>30</v>
       </c>
       <c r="G13" t="s">
-        <v>87</v>
+        <v>41</v>
       </c>
       <c r="H13">
-        <v>44112</v>
+        <v>17841.194</v>
       </c>
       <c r="I13">
-        <v>1470400</v>
+        <v>1049482</v>
       </c>
       <c r="J13">
-        <v>30000</v>
+        <v>17000</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1152,72 +1152,72 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C14" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="D14" t="s">
-        <v>15</v>
+        <v>73</v>
       </c>
       <c r="E14" t="s">
-        <v>15</v>
+        <v>75</v>
       </c>
       <c r="F14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H14">
-        <v>7000</v>
+        <v>4387.5</v>
       </c>
       <c r="I14">
-        <v>3500000</v>
+        <v>14625000</v>
       </c>
       <c r="J14">
-        <v>2000</v>
+        <v>6000</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>100</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C15" t="s">
         <v>57</v>
       </c>
       <c r="D15" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F15" t="s">
-        <v>39</v>
+        <v>82</v>
       </c>
       <c r="G15" t="s">
-        <v>78</v>
+        <v>29</v>
       </c>
       <c r="H15">
-        <v>29750</v>
+        <v>16000</v>
       </c>
       <c r="I15">
-        <v>4250000</v>
+        <v>8000000</v>
       </c>
       <c r="J15">
-        <v>7000</v>
+        <v>2000</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1228,34 +1228,34 @@
     </row>
     <row r="16" spans="1:12">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="C16" t="s">
         <v>58</v>
       </c>
       <c r="D16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F16" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="G16" t="s">
-        <v>36</v>
+        <v>90</v>
       </c>
       <c r="H16">
-        <v>46350</v>
+        <v>7000</v>
       </c>
       <c r="I16">
-        <v>2060000</v>
+        <v>3500000</v>
       </c>
       <c r="J16">
-        <v>22500</v>
+        <v>2000</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1266,34 +1266,34 @@
     </row>
     <row r="17" spans="1:12">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C17" t="s">
         <v>59</v>
       </c>
       <c r="D17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F17" t="s">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="G17" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H17">
-        <v>52000</v>
+        <v>29750</v>
       </c>
       <c r="I17">
-        <v>2000000</v>
+        <v>4250000</v>
       </c>
       <c r="J17">
-        <v>26000</v>
+        <v>7000</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1304,40 +1304,40 @@
     </row>
     <row r="18" spans="1:12">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C18" t="s">
         <v>60</v>
       </c>
       <c r="D18" t="s">
-        <v>73</v>
+        <v>16</v>
       </c>
       <c r="E18" t="s">
-        <v>73</v>
+        <v>16</v>
       </c>
       <c r="F18" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H18">
-        <v>16000</v>
+        <v>46350</v>
       </c>
       <c r="I18">
-        <v>1600000</v>
+        <v>2060000</v>
       </c>
       <c r="J18">
-        <v>20000</v>
+        <v>22500</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1345,7 +1345,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C19" t="s">
         <v>61</v>
@@ -1357,10 +1357,10 @@
         <v>17</v>
       </c>
       <c r="F19" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G19" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="H19">
         <v>39396</v>
@@ -1383,75 +1383,75 @@
         <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="C20" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="D20" t="s">
-        <v>17</v>
+        <v>74</v>
       </c>
       <c r="E20" t="s">
         <v>74</v>
       </c>
       <c r="F20" t="s">
-        <v>34</v>
+        <v>77</v>
       </c>
       <c r="G20" t="s">
-        <v>86</v>
+        <v>35</v>
       </c>
       <c r="H20">
-        <v>284653.7406</v>
+        <v>16000</v>
       </c>
       <c r="I20">
-        <v>11580800</v>
+        <v>1600000</v>
       </c>
       <c r="J20">
-        <v>36200</v>
+        <v>20000</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>67.90000000000001</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:12">
       <c r="A21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C21" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="D21" t="s">
-        <v>73</v>
+        <v>17</v>
       </c>
       <c r="E21" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F21" t="s">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="G21" t="s">
-        <v>36</v>
+        <v>88</v>
       </c>
       <c r="H21">
-        <v>16000</v>
+        <v>284653.7406</v>
       </c>
       <c r="I21">
-        <v>1600000</v>
+        <v>11580800</v>
       </c>
       <c r="J21">
-        <v>20000</v>
+        <v>36200</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>50</v>
+        <v>67.90000000000001</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1459,10 +1459,10 @@
         <v>18</v>
       </c>
       <c r="B22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C22" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D22" t="s">
         <v>18</v>
@@ -1471,19 +1471,19 @@
         <v>18</v>
       </c>
       <c r="F22" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G22" t="s">
-        <v>34</v>
+        <v>91</v>
       </c>
       <c r="H22">
-        <v>65908.25</v>
+        <v>20000</v>
       </c>
       <c r="I22">
-        <v>2636330</v>
+        <v>10000000</v>
       </c>
       <c r="J22">
-        <v>25000</v>
+        <v>2000</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1497,42 +1497,42 @@
         <v>18</v>
       </c>
       <c r="B23" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C23" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D23" t="s">
-        <v>18</v>
+        <v>74</v>
       </c>
       <c r="E23" t="s">
-        <v>18</v>
+        <v>74</v>
       </c>
       <c r="F23" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G23" t="s">
-        <v>89</v>
+        <v>35</v>
       </c>
       <c r="H23">
+        <v>16000</v>
+      </c>
+      <c r="I23">
+        <v>1600000</v>
+      </c>
+      <c r="J23">
         <v>20000</v>
       </c>
-      <c r="I23">
-        <v>10000000</v>
-      </c>
-      <c r="J23">
-        <v>2000</v>
-      </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:12">
       <c r="A24" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B24" t="s">
         <v>41</v>
@@ -1541,25 +1541,25 @@
         <v>64</v>
       </c>
       <c r="D24" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E24" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F24" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G24" t="s">
-        <v>90</v>
+        <v>36</v>
       </c>
       <c r="H24">
-        <v>17250</v>
+        <v>65908.25</v>
       </c>
       <c r="I24">
-        <v>750000</v>
+        <v>2636330</v>
       </c>
       <c r="J24">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1570,34 +1570,34 @@
     </row>
     <row r="25" spans="1:12">
       <c r="A25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B25" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="C25" t="s">
         <v>65</v>
       </c>
       <c r="D25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F25" t="s">
-        <v>28</v>
+        <v>85</v>
       </c>
       <c r="G25" t="s">
-        <v>40</v>
+        <v>79</v>
       </c>
       <c r="H25">
-        <v>4966.368</v>
+        <v>17250</v>
       </c>
       <c r="I25">
-        <v>1128720</v>
+        <v>750000</v>
       </c>
       <c r="J25">
-        <v>4400</v>
+        <v>23000</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1608,7 +1608,7 @@
     </row>
     <row r="26" spans="1:12">
       <c r="A26" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B26" t="s">
         <v>37</v>
@@ -1617,25 +1617,25 @@
         <v>66</v>
       </c>
       <c r="D26" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E26" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F26" t="s">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="G26" t="s">
-        <v>88</v>
+        <v>41</v>
       </c>
       <c r="H26">
-        <v>13500</v>
+        <v>4966.368</v>
       </c>
       <c r="I26">
-        <v>1500000</v>
+        <v>1128720</v>
       </c>
       <c r="J26">
-        <v>9000</v>
+        <v>4400</v>
       </c>
       <c r="K26">
         <v>0</v>
@@ -1646,34 +1646,34 @@
     </row>
     <row r="27" spans="1:12">
       <c r="A27" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B27" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C27" t="s">
         <v>67</v>
       </c>
       <c r="D27" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E27" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F27" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G27" t="s">
-        <v>28</v>
+        <v>90</v>
       </c>
       <c r="H27">
-        <v>26000</v>
+        <v>13500</v>
       </c>
       <c r="I27">
-        <v>4000000</v>
+        <v>1500000</v>
       </c>
       <c r="J27">
-        <v>6500</v>
+        <v>9000</v>
       </c>
       <c r="K27">
         <v>0</v>
@@ -1684,40 +1684,40 @@
     </row>
     <row r="28" spans="1:12">
       <c r="A28" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B28" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C28" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="D28" t="s">
-        <v>23</v>
+        <v>73</v>
       </c>
       <c r="E28" t="s">
-        <v>23</v>
+        <v>75</v>
       </c>
       <c r="F28" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G28" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="H28">
-        <v>5390</v>
+        <v>6581.256</v>
       </c>
       <c r="I28">
-        <v>770000</v>
+        <v>14625000</v>
       </c>
       <c r="J28">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="K28">
         <v>0</v>
       </c>
       <c r="L28">
-        <v>100</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -1725,69 +1725,69 @@
         <v>23</v>
       </c>
       <c r="B29" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C29" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="D29" t="s">
-        <v>23</v>
+        <v>73</v>
       </c>
       <c r="E29" t="s">
-        <v>23</v>
+        <v>75</v>
       </c>
       <c r="F29" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G29" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H29">
-        <v>11700</v>
+        <v>36196.872</v>
       </c>
       <c r="I29">
-        <v>650000</v>
+        <v>14625000</v>
       </c>
       <c r="J29">
-        <v>18000</v>
+        <v>6000</v>
       </c>
       <c r="K29">
         <v>0</v>
       </c>
       <c r="L29">
-        <v>100</v>
+        <v>41.25</v>
       </c>
     </row>
     <row r="30" spans="1:12">
       <c r="A30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B30" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="C30" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F30" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G30" t="s">
-        <v>92</v>
+        <v>30</v>
       </c>
       <c r="H30">
-        <v>36850</v>
+        <v>26000</v>
       </c>
       <c r="I30">
-        <v>3350000</v>
+        <v>4000000</v>
       </c>
       <c r="J30">
-        <v>11000</v>
+        <v>6500</v>
       </c>
       <c r="K30">
         <v>0</v>
@@ -1801,37 +1801,37 @@
         <v>24</v>
       </c>
       <c r="B31" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C31" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="D31" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E31" t="s">
-        <v>74</v>
+        <v>24</v>
       </c>
       <c r="F31" t="s">
-        <v>34</v>
+        <v>82</v>
       </c>
       <c r="G31" t="s">
-        <v>86</v>
+        <v>29</v>
       </c>
       <c r="H31">
-        <v>12576.7488</v>
+        <v>11700</v>
       </c>
       <c r="I31">
-        <v>11580800</v>
+        <v>650000</v>
       </c>
       <c r="J31">
-        <v>36200</v>
+        <v>18000</v>
       </c>
       <c r="K31">
         <v>0</v>
       </c>
       <c r="L31">
-        <v>3</v>
+        <v>100</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -1839,37 +1839,37 @@
         <v>25</v>
       </c>
       <c r="B32" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="C32" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="D32" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E32" t="s">
-        <v>25</v>
+        <v>76</v>
       </c>
       <c r="F32" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G32" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H32">
-        <v>30600</v>
+        <v>12576.7488</v>
       </c>
       <c r="I32">
-        <v>1800000</v>
+        <v>11580800</v>
       </c>
       <c r="J32">
-        <v>17000</v>
+        <v>36200</v>
       </c>
       <c r="K32">
         <v>0</v>
       </c>
       <c r="L32">
-        <v>100</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -1877,10 +1877,10 @@
         <v>25</v>
       </c>
       <c r="B33" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C33" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D33" t="s">
         <v>25</v>
@@ -1889,24 +1889,138 @@
         <v>25</v>
       </c>
       <c r="F33" t="s">
-        <v>31</v>
+        <v>81</v>
       </c>
       <c r="G33" t="s">
-        <v>34</v>
+        <v>92</v>
       </c>
       <c r="H33">
+        <v>36850</v>
+      </c>
+      <c r="I33">
+        <v>3350000</v>
+      </c>
+      <c r="J33">
+        <v>11000</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>29</v>
+      </c>
+      <c r="C34" t="s">
+        <v>47</v>
+      </c>
+      <c r="D34" t="s">
+        <v>73</v>
+      </c>
+      <c r="E34" t="s">
+        <v>75</v>
+      </c>
+      <c r="F34" t="s">
+        <v>79</v>
+      </c>
+      <c r="G34" t="s">
+        <v>87</v>
+      </c>
+      <c r="H34">
+        <v>4387.5</v>
+      </c>
+      <c r="I34">
+        <v>14625000</v>
+      </c>
+      <c r="J34">
+        <v>6000</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="A35" t="s">
+        <v>26</v>
+      </c>
+      <c r="B35" t="s">
+        <v>44</v>
+      </c>
+      <c r="C35" t="s">
+        <v>71</v>
+      </c>
+      <c r="D35" t="s">
+        <v>26</v>
+      </c>
+      <c r="E35" t="s">
+        <v>26</v>
+      </c>
+      <c r="F35" t="s">
+        <v>37</v>
+      </c>
+      <c r="G35" t="s">
+        <v>78</v>
+      </c>
+      <c r="H35">
+        <v>30600</v>
+      </c>
+      <c r="I35">
+        <v>1800000</v>
+      </c>
+      <c r="J35">
+        <v>17000</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
+      <c r="A36" t="s">
+        <v>26</v>
+      </c>
+      <c r="B36" t="s">
+        <v>32</v>
+      </c>
+      <c r="C36" t="s">
+        <v>72</v>
+      </c>
+      <c r="D36" t="s">
+        <v>26</v>
+      </c>
+      <c r="E36" t="s">
+        <v>26</v>
+      </c>
+      <c r="F36" t="s">
+        <v>33</v>
+      </c>
+      <c r="G36" t="s">
+        <v>36</v>
+      </c>
+      <c r="H36">
         <v>8000</v>
       </c>
-      <c r="I33">
+      <c r="I36">
         <v>4000000</v>
       </c>
-      <c r="J33">
+      <c r="J36">
         <v>2000</v>
       </c>
-      <c r="K33">
-        <v>0</v>
-      </c>
-      <c r="L33">
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36">
         <v>100</v>
       </c>
     </row>

--- a/datasets/form3.xlsx
+++ b/datasets/form3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="97">
   <si>
     <t>인수기관</t>
   </si>
@@ -100,39 +100,39 @@
     <t>2023-10-31</t>
   </si>
   <si>
+    <t>2023-11-01</t>
+  </si>
+  <si>
+    <t>2023-12-01</t>
+  </si>
+  <si>
+    <t>2023-11-10</t>
+  </si>
+  <si>
     <t>2023-10-24</t>
   </si>
   <si>
-    <t>2023-12-01</t>
-  </si>
-  <si>
     <t>2023-10-26</t>
   </si>
   <si>
-    <t>2023-11-10</t>
-  </si>
-  <si>
-    <t>2023-11-01</t>
-  </si>
-  <si>
     <t>2023-11-06</t>
   </si>
   <si>
     <t>2023-11-08</t>
   </si>
   <si>
+    <t>2023-11-13</t>
+  </si>
+  <si>
+    <t>2023-11-21</t>
+  </si>
+  <si>
     <t>2023-11-09</t>
   </si>
   <si>
-    <t>2023-11-13</t>
-  </si>
-  <si>
     <t>2023-10-23</t>
   </si>
   <si>
-    <t>2023-11-21</t>
-  </si>
-  <si>
     <t>2023-11-23</t>
   </si>
   <si>
@@ -145,6 +145,9 @@
     <t>2023-11-27</t>
   </si>
   <si>
+    <t>2023-12-04</t>
+  </si>
+  <si>
     <t>2023-10-16</t>
   </si>
   <si>
@@ -154,42 +157,42 @@
     <t>비아이매트릭스</t>
   </si>
   <si>
+    <t>에스와이스틸텍</t>
+  </si>
+  <si>
+    <t>LS머트리얼즈</t>
+  </si>
+  <si>
+    <t>에코아이</t>
+  </si>
+  <si>
     <t>KB제27호스팩</t>
   </si>
   <si>
-    <t>LS머트리얼즈</t>
-  </si>
-  <si>
     <t>쏘닉스</t>
   </si>
   <si>
-    <t>에코아이</t>
-  </si>
-  <si>
-    <t>에스와이스틸텍</t>
-  </si>
-  <si>
     <t>캡스톤파트너스</t>
   </si>
   <si>
+    <t>메가터치</t>
+  </si>
+  <si>
     <t>에코프로머티</t>
   </si>
   <si>
+    <t>그린리소스</t>
+  </si>
+  <si>
+    <t>엔에이치스팩30호</t>
+  </si>
+  <si>
     <t>동인기연</t>
   </si>
   <si>
-    <t>그린리소스</t>
-  </si>
-  <si>
-    <t>메가터치</t>
-  </si>
-  <si>
     <t>유진테크놀로지</t>
   </si>
   <si>
-    <t>엔에이치스팩30호</t>
-  </si>
-  <si>
     <t>교보15호스팩</t>
   </si>
   <si>
@@ -199,18 +202,18 @@
     <t>컨텍</t>
   </si>
   <si>
+    <t>큐로셀</t>
+  </si>
+  <si>
     <t>에이에스텍</t>
   </si>
   <si>
-    <t>큐로셀</t>
+    <t>에이직랜드</t>
   </si>
   <si>
     <t>삼성스팩9호</t>
   </si>
   <si>
-    <t>에이직랜드</t>
-  </si>
-  <si>
     <t>케이엔에스</t>
   </si>
   <si>
@@ -220,6 +223,9 @@
     <t>와이바이오로직스</t>
   </si>
   <si>
+    <t>블루엠텍</t>
+  </si>
+  <si>
     <t>워트</t>
   </si>
   <si>
@@ -247,24 +253,27 @@
     <t>미래, NH, 하이</t>
   </si>
   <si>
+    <t>하나, 키움</t>
+  </si>
+  <si>
     <t>2023-11-03</t>
   </si>
   <si>
+    <t>2023-12-06</t>
+  </si>
+  <si>
+    <t>2023-11-15</t>
+  </si>
+  <si>
     <t>2023-10-27</t>
   </si>
   <si>
-    <t>2023-12-06</t>
-  </si>
-  <si>
-    <t>2023-11-15</t>
+    <t>2023-11-24</t>
   </si>
   <si>
     <t>2023-11-14</t>
   </si>
   <si>
-    <t>2023-11-24</t>
-  </si>
-  <si>
     <t>2023-11-28</t>
   </si>
   <si>
@@ -274,6 +283,9 @@
     <t>2023-11-30</t>
   </si>
   <si>
+    <t>2023-12-07</t>
+  </si>
+  <si>
     <t>2023-10-19</t>
   </si>
   <si>
@@ -289,7 +301,7 @@
     <t>2023-12-05</t>
   </si>
   <si>
-    <t>2023-12-04</t>
+    <t>2023-12-13</t>
   </si>
   <si>
     <t>2023-11-20</t>
@@ -650,7 +662,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L36"/>
+  <dimension ref="A1:L38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -702,7 +714,7 @@
         <v>27</v>
       </c>
       <c r="C2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
@@ -711,10 +723,10 @@
         <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H2">
         <v>15600</v>
@@ -740,7 +752,7 @@
         <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D3" t="s">
         <v>13</v>
@@ -749,19 +761,19 @@
         <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>78</v>
+        <v>33</v>
       </c>
       <c r="G3" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H3">
-        <v>25000</v>
+        <v>12600</v>
       </c>
       <c r="I3">
-        <v>12500000</v>
+        <v>7000000</v>
       </c>
       <c r="J3">
-        <v>2000</v>
+        <v>1800</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -778,19 +790,19 @@
         <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E4" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G4" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="H4">
         <v>36196.872</v>
@@ -816,7 +828,7 @@
         <v>30</v>
       </c>
       <c r="C5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D5" t="s">
         <v>13</v>
@@ -825,19 +837,19 @@
         <v>13</v>
       </c>
       <c r="F5" t="s">
-        <v>27</v>
+        <v>82</v>
       </c>
       <c r="G5" t="s">
-        <v>84</v>
+        <v>36</v>
       </c>
       <c r="H5">
-        <v>27000</v>
+        <v>72141.3</v>
       </c>
       <c r="I5">
-        <v>3600000</v>
+        <v>2079000</v>
       </c>
       <c r="J5">
-        <v>7500</v>
+        <v>34700</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -854,7 +866,7 @@
         <v>31</v>
       </c>
       <c r="C6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D6" t="s">
         <v>13</v>
@@ -863,19 +875,19 @@
         <v>13</v>
       </c>
       <c r="F6" t="s">
+        <v>83</v>
+      </c>
+      <c r="G6" t="s">
         <v>80</v>
       </c>
-      <c r="G6" t="s">
-        <v>38</v>
-      </c>
       <c r="H6">
-        <v>72141.3</v>
+        <v>25000</v>
       </c>
       <c r="I6">
-        <v>2079000</v>
+        <v>12500000</v>
       </c>
       <c r="J6">
-        <v>34700</v>
+        <v>2000</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -892,7 +904,7 @@
         <v>32</v>
       </c>
       <c r="C7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D7" t="s">
         <v>13</v>
@@ -901,19 +913,19 @@
         <v>13</v>
       </c>
       <c r="F7" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="G7" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="H7">
-        <v>12600</v>
+        <v>27000</v>
       </c>
       <c r="I7">
-        <v>7000000</v>
+        <v>3600000</v>
       </c>
       <c r="J7">
-        <v>1800</v>
+        <v>7500</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -930,7 +942,7 @@
         <v>33</v>
       </c>
       <c r="C8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D8" t="s">
         <v>14</v>
@@ -939,10 +951,10 @@
         <v>14</v>
       </c>
       <c r="F8" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G8" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H8">
         <v>6384</v>
@@ -965,37 +977,37 @@
         <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D9" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E9" t="s">
-        <v>76</v>
+        <v>14</v>
       </c>
       <c r="F9" t="s">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="G9" t="s">
-        <v>88</v>
+        <v>30</v>
       </c>
       <c r="H9">
-        <v>121994.4706</v>
+        <v>24960</v>
       </c>
       <c r="I9">
-        <v>11580800</v>
+        <v>5200000</v>
       </c>
       <c r="J9">
-        <v>36200</v>
+        <v>4800</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>29.1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -1003,37 +1015,37 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" t="s">
+        <v>78</v>
+      </c>
+      <c r="F10" t="s">
         <v>35</v>
       </c>
-      <c r="C10" t="s">
-        <v>53</v>
-      </c>
-      <c r="D10" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" t="s">
-        <v>81</v>
-      </c>
       <c r="G10" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="H10">
-        <v>44112</v>
+        <v>121994.4706</v>
       </c>
       <c r="I10">
-        <v>1470400</v>
+        <v>11580800</v>
       </c>
       <c r="J10">
-        <v>30000</v>
+        <v>36200</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>100</v>
+        <v>29.1</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1041,10 +1053,10 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C11" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D11" t="s">
         <v>14</v>
@@ -1056,7 +1068,7 @@
         <v>40</v>
       </c>
       <c r="G11" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H11">
         <v>27880</v>
@@ -1079,10 +1091,10 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="C12" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D12" t="s">
         <v>14</v>
@@ -1091,19 +1103,19 @@
         <v>14</v>
       </c>
       <c r="F12" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="G12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H12">
-        <v>24960</v>
+        <v>16000</v>
       </c>
       <c r="I12">
-        <v>5200000</v>
+        <v>8000000</v>
       </c>
       <c r="J12">
-        <v>4800</v>
+        <v>2000</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -1120,7 +1132,7 @@
         <v>37</v>
       </c>
       <c r="C13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D13" t="s">
         <v>14</v>
@@ -1129,19 +1141,19 @@
         <v>14</v>
       </c>
       <c r="F13" t="s">
-        <v>30</v>
+        <v>85</v>
       </c>
       <c r="G13" t="s">
-        <v>41</v>
+        <v>93</v>
       </c>
       <c r="H13">
-        <v>17841.194</v>
+        <v>44112</v>
       </c>
       <c r="I13">
-        <v>1049482</v>
+        <v>1470400</v>
       </c>
       <c r="J13">
-        <v>17000</v>
+        <v>30000</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1155,37 +1167,37 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C14" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="D14" t="s">
-        <v>73</v>
+        <v>14</v>
       </c>
       <c r="E14" t="s">
-        <v>75</v>
+        <v>14</v>
       </c>
       <c r="F14" t="s">
-        <v>79</v>
+        <v>32</v>
       </c>
       <c r="G14" t="s">
-        <v>87</v>
+        <v>41</v>
       </c>
       <c r="H14">
-        <v>4387.5</v>
+        <v>17841.194</v>
       </c>
       <c r="I14">
-        <v>14625000</v>
+        <v>1049482</v>
       </c>
       <c r="J14">
-        <v>6000</v>
+        <v>17000</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>5</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -1193,37 +1205,37 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C15" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="D15" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="E15" t="s">
-        <v>14</v>
+        <v>77</v>
       </c>
       <c r="F15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G15" t="s">
-        <v>29</v>
+        <v>91</v>
       </c>
       <c r="H15">
-        <v>16000</v>
+        <v>4387.5</v>
       </c>
       <c r="I15">
-        <v>8000000</v>
+        <v>14625000</v>
       </c>
       <c r="J15">
-        <v>2000</v>
+        <v>6000</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>100</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -1234,7 +1246,7 @@
         <v>39</v>
       </c>
       <c r="C16" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D16" t="s">
         <v>15</v>
@@ -1243,10 +1255,10 @@
         <v>15</v>
       </c>
       <c r="F16" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="G16" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="H16">
         <v>7000</v>
@@ -1269,10 +1281,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C17" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D17" t="s">
         <v>16</v>
@@ -1284,7 +1296,7 @@
         <v>40</v>
       </c>
       <c r="G17" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H17">
         <v>29750</v>
@@ -1310,7 +1322,7 @@
         <v>27</v>
       </c>
       <c r="C18" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D18" t="s">
         <v>16</v>
@@ -1319,10 +1331,10 @@
         <v>16</v>
       </c>
       <c r="F18" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G18" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H18">
         <v>46350</v>
@@ -1345,37 +1357,37 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C19" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="D19" t="s">
         <v>17</v>
       </c>
       <c r="E19" t="s">
-        <v>17</v>
+        <v>78</v>
       </c>
       <c r="F19" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G19" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="H19">
-        <v>39396</v>
+        <v>284653.7406</v>
       </c>
       <c r="I19">
-        <v>1407000</v>
+        <v>11580800</v>
       </c>
       <c r="J19">
-        <v>28000</v>
+        <v>36200</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>100</v>
+        <v>67.90000000000001</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1389,16 +1401,16 @@
         <v>62</v>
       </c>
       <c r="D20" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E20" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F20" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G20" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H20">
         <v>16000</v>
@@ -1421,37 +1433,37 @@
         <v>17</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C21" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="D21" t="s">
         <v>17</v>
       </c>
       <c r="E21" t="s">
-        <v>76</v>
+        <v>17</v>
       </c>
       <c r="F21" t="s">
         <v>36</v>
       </c>
       <c r="G21" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H21">
-        <v>284653.7406</v>
+        <v>39396</v>
       </c>
       <c r="I21">
-        <v>11580800</v>
+        <v>1407000</v>
       </c>
       <c r="J21">
-        <v>36200</v>
+        <v>28000</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>67.90000000000001</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1459,10 +1471,10 @@
         <v>18</v>
       </c>
       <c r="B22" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C22" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D22" t="s">
         <v>18</v>
@@ -1471,19 +1483,19 @@
         <v>18</v>
       </c>
       <c r="F22" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="G22" t="s">
-        <v>91</v>
+        <v>35</v>
       </c>
       <c r="H22">
-        <v>20000</v>
+        <v>65908.25</v>
       </c>
       <c r="I22">
-        <v>10000000</v>
+        <v>2636330</v>
       </c>
       <c r="J22">
-        <v>2000</v>
+        <v>25000</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1503,16 +1515,16 @@
         <v>62</v>
       </c>
       <c r="D23" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E23" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F23" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G23" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H23">
         <v>16000</v>
@@ -1535,10 +1547,10 @@
         <v>18</v>
       </c>
       <c r="B24" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C24" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D24" t="s">
         <v>18</v>
@@ -1547,19 +1559,19 @@
         <v>18</v>
       </c>
       <c r="F24" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G24" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H24">
-        <v>65908.25</v>
+        <v>20000</v>
       </c>
       <c r="I24">
-        <v>2636330</v>
+        <v>10000000</v>
       </c>
       <c r="J24">
-        <v>25000</v>
+        <v>2000</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1576,7 +1588,7 @@
         <v>42</v>
       </c>
       <c r="C25" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D25" t="s">
         <v>19</v>
@@ -1585,10 +1597,10 @@
         <v>19</v>
       </c>
       <c r="F25" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="G25" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H25">
         <v>17250</v>
@@ -1611,10 +1623,10 @@
         <v>20</v>
       </c>
       <c r="B26" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C26" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D26" t="s">
         <v>20</v>
@@ -1623,7 +1635,7 @@
         <v>20</v>
       </c>
       <c r="F26" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G26" t="s">
         <v>41</v>
@@ -1652,7 +1664,7 @@
         <v>39</v>
       </c>
       <c r="C27" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D27" t="s">
         <v>21</v>
@@ -1661,10 +1673,10 @@
         <v>21</v>
       </c>
       <c r="F27" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="G27" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="H27">
         <v>13500</v>
@@ -1690,19 +1702,19 @@
         <v>29</v>
       </c>
       <c r="C28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D28" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E28" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F28" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G28" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="H28">
         <v>6581.256</v>
@@ -1728,19 +1740,19 @@
         <v>29</v>
       </c>
       <c r="C29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D29" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E29" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F29" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G29" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="H29">
         <v>36196.872</v>
@@ -1766,66 +1778,66 @@
         <v>43</v>
       </c>
       <c r="C30" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D30" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E30" t="s">
-        <v>23</v>
+        <v>79</v>
       </c>
       <c r="F30" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="G30" t="s">
+        <v>95</v>
+      </c>
+      <c r="H30">
+        <v>7980</v>
+      </c>
+      <c r="I30">
+        <v>1400000</v>
+      </c>
+      <c r="J30">
+        <v>19000</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
         <v>30</v>
-      </c>
-      <c r="H30">
-        <v>26000</v>
-      </c>
-      <c r="I30">
-        <v>4000000</v>
-      </c>
-      <c r="J30">
-        <v>6500</v>
-      </c>
-      <c r="K30">
-        <v>0</v>
-      </c>
-      <c r="L30">
-        <v>100</v>
       </c>
     </row>
     <row r="31" spans="1:12">
       <c r="A31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B31" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C31" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F31" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="G31" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H31">
-        <v>11700</v>
+        <v>26000</v>
       </c>
       <c r="I31">
-        <v>650000</v>
+        <v>4000000</v>
       </c>
       <c r="J31">
-        <v>18000</v>
+        <v>6500</v>
       </c>
       <c r="K31">
         <v>0</v>
@@ -1836,78 +1848,78 @@
     </row>
     <row r="32" spans="1:12">
       <c r="A32" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B32" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C32" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="D32" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E32" t="s">
-        <v>76</v>
+        <v>24</v>
       </c>
       <c r="F32" t="s">
-        <v>36</v>
+        <v>84</v>
       </c>
       <c r="G32" t="s">
-        <v>88</v>
+        <v>29</v>
       </c>
       <c r="H32">
-        <v>12576.7488</v>
+        <v>11700</v>
       </c>
       <c r="I32">
-        <v>11580800</v>
+        <v>650000</v>
       </c>
       <c r="J32">
-        <v>36200</v>
+        <v>18000</v>
       </c>
       <c r="K32">
         <v>0</v>
       </c>
       <c r="L32">
-        <v>3</v>
+        <v>100</v>
       </c>
     </row>
     <row r="33" spans="1:12">
       <c r="A33" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B33" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="C33" t="s">
+        <v>69</v>
+      </c>
+      <c r="D33" t="s">
+        <v>24</v>
+      </c>
+      <c r="E33" t="s">
+        <v>79</v>
+      </c>
+      <c r="F33" t="s">
+        <v>89</v>
+      </c>
+      <c r="G33" t="s">
+        <v>95</v>
+      </c>
+      <c r="H33">
+        <v>18620</v>
+      </c>
+      <c r="I33">
+        <v>1400000</v>
+      </c>
+      <c r="J33">
+        <v>19000</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
         <v>70</v>
-      </c>
-      <c r="D33" t="s">
-        <v>25</v>
-      </c>
-      <c r="E33" t="s">
-        <v>25</v>
-      </c>
-      <c r="F33" t="s">
-        <v>81</v>
-      </c>
-      <c r="G33" t="s">
-        <v>92</v>
-      </c>
-      <c r="H33">
-        <v>36850</v>
-      </c>
-      <c r="I33">
-        <v>3350000</v>
-      </c>
-      <c r="J33">
-        <v>11000</v>
-      </c>
-      <c r="K33">
-        <v>0</v>
-      </c>
-      <c r="L33">
-        <v>100</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -1915,69 +1927,69 @@
         <v>25</v>
       </c>
       <c r="B34" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C34" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="D34" t="s">
-        <v>73</v>
+        <v>17</v>
       </c>
       <c r="E34" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="F34" t="s">
-        <v>79</v>
+        <v>35</v>
       </c>
       <c r="G34" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="H34">
-        <v>4387.5</v>
+        <v>12576.7488</v>
       </c>
       <c r="I34">
-        <v>14625000</v>
+        <v>11580800</v>
       </c>
       <c r="J34">
-        <v>6000</v>
+        <v>36200</v>
       </c>
       <c r="K34">
         <v>0</v>
       </c>
       <c r="L34">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:12">
       <c r="A35" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B35" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C35" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D35" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E35" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F35" t="s">
-        <v>37</v>
+        <v>85</v>
       </c>
       <c r="G35" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="H35">
-        <v>30600</v>
+        <v>36850</v>
       </c>
       <c r="I35">
-        <v>1800000</v>
+        <v>3350000</v>
       </c>
       <c r="J35">
-        <v>17000</v>
+        <v>11000</v>
       </c>
       <c r="K35">
         <v>0</v>
@@ -1988,39 +2000,115 @@
     </row>
     <row r="36" spans="1:12">
       <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>29</v>
+      </c>
+      <c r="C36" t="s">
+        <v>48</v>
+      </c>
+      <c r="D36" t="s">
+        <v>75</v>
+      </c>
+      <c r="E36" t="s">
+        <v>77</v>
+      </c>
+      <c r="F36" t="s">
+        <v>81</v>
+      </c>
+      <c r="G36" t="s">
+        <v>91</v>
+      </c>
+      <c r="H36">
+        <v>4387.5</v>
+      </c>
+      <c r="I36">
+        <v>14625000</v>
+      </c>
+      <c r="J36">
+        <v>6000</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
+      <c r="A37" t="s">
         <v>26</v>
       </c>
-      <c r="B36" t="s">
-        <v>32</v>
-      </c>
-      <c r="C36" t="s">
-        <v>72</v>
-      </c>
-      <c r="D36" t="s">
+      <c r="B37" t="s">
+        <v>45</v>
+      </c>
+      <c r="C37" t="s">
+        <v>73</v>
+      </c>
+      <c r="D37" t="s">
         <v>26</v>
       </c>
-      <c r="E36" t="s">
+      <c r="E37" t="s">
         <v>26</v>
       </c>
-      <c r="F36" t="s">
+      <c r="F37" t="s">
+        <v>38</v>
+      </c>
+      <c r="G37" t="s">
+        <v>83</v>
+      </c>
+      <c r="H37">
+        <v>30600</v>
+      </c>
+      <c r="I37">
+        <v>1800000</v>
+      </c>
+      <c r="J37">
+        <v>17000</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
+      <c r="A38" t="s">
+        <v>26</v>
+      </c>
+      <c r="B38" t="s">
+        <v>28</v>
+      </c>
+      <c r="C38" t="s">
+        <v>74</v>
+      </c>
+      <c r="D38" t="s">
+        <v>26</v>
+      </c>
+      <c r="E38" t="s">
+        <v>26</v>
+      </c>
+      <c r="F38" t="s">
         <v>33</v>
       </c>
-      <c r="G36" t="s">
-        <v>36</v>
-      </c>
-      <c r="H36">
+      <c r="G38" t="s">
+        <v>35</v>
+      </c>
+      <c r="H38">
         <v>8000</v>
       </c>
-      <c r="I36">
+      <c r="I38">
         <v>4000000</v>
       </c>
-      <c r="J36">
+      <c r="J38">
         <v>2000</v>
       </c>
-      <c r="K36">
-        <v>0</v>
-      </c>
-      <c r="L36">
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38">
         <v>100</v>
       </c>
     </row>

--- a/datasets/form3.xlsx
+++ b/datasets/form3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="94">
   <si>
     <t>인수기관</t>
   </si>
@@ -100,19 +100,22 @@
     <t>2023-10-31</t>
   </si>
   <si>
+    <t>2023-11-10</t>
+  </si>
+  <si>
+    <t>2023-10-26</t>
+  </si>
+  <si>
+    <t>2023-10-24</t>
+  </si>
+  <si>
     <t>2023-11-01</t>
   </si>
   <si>
     <t>2023-12-01</t>
   </si>
   <si>
-    <t>2023-11-10</t>
-  </si>
-  <si>
-    <t>2023-10-24</t>
-  </si>
-  <si>
-    <t>2023-10-26</t>
+    <t>2023-10-23</t>
   </si>
   <si>
     <t>2023-11-06</t>
@@ -121,18 +124,15 @@
     <t>2023-11-08</t>
   </si>
   <si>
+    <t>2023-11-09</t>
+  </si>
+  <si>
+    <t>2023-11-21</t>
+  </si>
+  <si>
     <t>2023-11-13</t>
   </si>
   <si>
-    <t>2023-11-21</t>
-  </si>
-  <si>
-    <t>2023-11-09</t>
-  </si>
-  <si>
-    <t>2023-10-23</t>
-  </si>
-  <si>
     <t>2023-11-23</t>
   </si>
   <si>
@@ -148,28 +148,28 @@
     <t>2023-12-04</t>
   </si>
   <si>
-    <t>2023-10-16</t>
-  </si>
-  <si>
     <t>2023-10-18</t>
   </si>
   <si>
     <t>비아이매트릭스</t>
   </si>
   <si>
+    <t>에코아이</t>
+  </si>
+  <si>
+    <t>쏘닉스</t>
+  </si>
+  <si>
+    <t>KB제27호스팩</t>
+  </si>
+  <si>
     <t>에스와이스틸텍</t>
   </si>
   <si>
     <t>LS머트리얼즈</t>
   </si>
   <si>
-    <t>에코아이</t>
-  </si>
-  <si>
-    <t>KB제27호스팩</t>
-  </si>
-  <si>
-    <t>쏘닉스</t>
+    <t>유진테크놀로지</t>
   </si>
   <si>
     <t>캡스톤파트너스</t>
@@ -181,18 +181,15 @@
     <t>에코프로머티</t>
   </si>
   <si>
+    <t>동인기연</t>
+  </si>
+  <si>
+    <t>엔에이치스팩30호</t>
+  </si>
+  <si>
     <t>그린리소스</t>
   </si>
   <si>
-    <t>엔에이치스팩30호</t>
-  </si>
-  <si>
-    <t>동인기연</t>
-  </si>
-  <si>
-    <t>유진테크놀로지</t>
-  </si>
-  <si>
     <t>교보15호스팩</t>
   </si>
   <si>
@@ -208,12 +205,12 @@
     <t>에이에스텍</t>
   </si>
   <si>
+    <t>삼성스팩9호</t>
+  </si>
+  <si>
     <t>에이직랜드</t>
   </si>
   <si>
-    <t>삼성스팩9호</t>
-  </si>
-  <si>
     <t>케이엔에스</t>
   </si>
   <si>
@@ -226,21 +223,18 @@
     <t>블루엠텍</t>
   </si>
   <si>
-    <t>워트</t>
-  </si>
-  <si>
     <t>에이텀</t>
   </si>
   <si>
     <t>스톰테크</t>
   </si>
   <si>
+    <t>한국제13호스팩</t>
+  </si>
+  <si>
     <t>퀄리타스반도체</t>
   </si>
   <si>
-    <t>한국제13호스팩</t>
-  </si>
-  <si>
     <t>키움, KB</t>
   </si>
   <si>
@@ -259,21 +253,21 @@
     <t>2023-11-03</t>
   </si>
   <si>
+    <t>2023-11-15</t>
+  </si>
+  <si>
+    <t>2023-10-27</t>
+  </si>
+  <si>
     <t>2023-12-06</t>
   </si>
   <si>
-    <t>2023-11-15</t>
-  </si>
-  <si>
-    <t>2023-10-27</t>
+    <t>2023-11-14</t>
   </si>
   <si>
     <t>2023-11-24</t>
   </si>
   <si>
-    <t>2023-11-14</t>
-  </si>
-  <si>
     <t>2023-11-28</t>
   </si>
   <si>
@@ -284,9 +278,6 @@
   </si>
   <si>
     <t>2023-12-07</t>
-  </si>
-  <si>
-    <t>2023-10-19</t>
   </si>
   <si>
     <t>2023-12-12</t>
@@ -662,7 +653,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L38"/>
+  <dimension ref="A1:L37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -714,7 +705,7 @@
         <v>27</v>
       </c>
       <c r="C2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
@@ -723,10 +714,10 @@
         <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H2">
         <v>15600</v>
@@ -752,7 +743,7 @@
         <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D3" t="s">
         <v>13</v>
@@ -761,19 +752,19 @@
         <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>33</v>
+        <v>79</v>
       </c>
       <c r="G3" t="s">
-        <v>85</v>
+        <v>37</v>
       </c>
       <c r="H3">
-        <v>12600</v>
+        <v>72141.3</v>
       </c>
       <c r="I3">
-        <v>7000000</v>
+        <v>2079000</v>
       </c>
       <c r="J3">
-        <v>1800</v>
+        <v>34700</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -790,34 +781,34 @@
         <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D4" t="s">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>81</v>
+        <v>27</v>
       </c>
       <c r="G4" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="H4">
-        <v>36196.872</v>
+        <v>27000</v>
       </c>
       <c r="I4">
-        <v>14625000</v>
+        <v>3600000</v>
       </c>
       <c r="J4">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>41.25</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -828,7 +819,7 @@
         <v>30</v>
       </c>
       <c r="C5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D5" t="s">
         <v>13</v>
@@ -837,19 +828,19 @@
         <v>13</v>
       </c>
       <c r="F5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G5" t="s">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="H5">
-        <v>72141.3</v>
+        <v>25000</v>
       </c>
       <c r="I5">
-        <v>2079000</v>
+        <v>12500000</v>
       </c>
       <c r="J5">
-        <v>34700</v>
+        <v>2000</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -866,7 +857,7 @@
         <v>31</v>
       </c>
       <c r="C6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D6" t="s">
         <v>13</v>
@@ -875,19 +866,19 @@
         <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>83</v>
+        <v>34</v>
       </c>
       <c r="G6" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H6">
-        <v>25000</v>
+        <v>12600</v>
       </c>
       <c r="I6">
-        <v>12500000</v>
+        <v>7000000</v>
       </c>
       <c r="J6">
-        <v>2000</v>
+        <v>1800</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -904,34 +895,34 @@
         <v>32</v>
       </c>
       <c r="C7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="E7" t="s">
-        <v>13</v>
+        <v>75</v>
       </c>
       <c r="F7" t="s">
-        <v>27</v>
+        <v>81</v>
       </c>
       <c r="G7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H7">
-        <v>27000</v>
+        <v>36196.872</v>
       </c>
       <c r="I7">
-        <v>3600000</v>
+        <v>14625000</v>
       </c>
       <c r="J7">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>100</v>
+        <v>41.25</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -942,7 +933,7 @@
         <v>33</v>
       </c>
       <c r="C8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D8" t="s">
         <v>14</v>
@@ -951,19 +942,19 @@
         <v>14</v>
       </c>
       <c r="F8" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G8" t="s">
-        <v>82</v>
+        <v>41</v>
       </c>
       <c r="H8">
-        <v>6384</v>
+        <v>17841.194</v>
       </c>
       <c r="I8">
-        <v>1596000</v>
+        <v>1049482</v>
       </c>
       <c r="J8">
-        <v>4000</v>
+        <v>17000</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -977,10 +968,10 @@
         <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D9" t="s">
         <v>14</v>
@@ -989,19 +980,19 @@
         <v>14</v>
       </c>
       <c r="F9" t="s">
-        <v>80</v>
+        <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>30</v>
+        <v>79</v>
       </c>
       <c r="H9">
-        <v>24960</v>
+        <v>6384</v>
       </c>
       <c r="I9">
-        <v>5200000</v>
+        <v>1596000</v>
       </c>
       <c r="J9">
-        <v>4800</v>
+        <v>4000</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -1015,37 +1006,37 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D10" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" t="s">
         <v>78</v>
       </c>
-      <c r="F10" t="s">
-        <v>35</v>
-      </c>
       <c r="G10" t="s">
-        <v>92</v>
+        <v>28</v>
       </c>
       <c r="H10">
-        <v>121994.4706</v>
+        <v>24960</v>
       </c>
       <c r="I10">
-        <v>11580800</v>
+        <v>5200000</v>
       </c>
       <c r="J10">
-        <v>36200</v>
+        <v>4800</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>29.1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1056,34 +1047,34 @@
         <v>35</v>
       </c>
       <c r="C11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D11" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E11" t="s">
-        <v>14</v>
+        <v>76</v>
       </c>
       <c r="F11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="H11">
-        <v>27880</v>
+        <v>121994.4706</v>
       </c>
       <c r="I11">
-        <v>1640000</v>
+        <v>11580800</v>
       </c>
       <c r="J11">
-        <v>17000</v>
+        <v>36200</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>100</v>
+        <v>29.1</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -1094,7 +1085,7 @@
         <v>36</v>
       </c>
       <c r="C12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D12" t="s">
         <v>14</v>
@@ -1103,19 +1094,19 @@
         <v>14</v>
       </c>
       <c r="F12" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G12" t="s">
-        <v>29</v>
+        <v>90</v>
       </c>
       <c r="H12">
-        <v>16000</v>
+        <v>44112</v>
       </c>
       <c r="I12">
-        <v>8000000</v>
+        <v>1470400</v>
       </c>
       <c r="J12">
-        <v>2000</v>
+        <v>30000</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -1132,7 +1123,7 @@
         <v>37</v>
       </c>
       <c r="C13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D13" t="s">
         <v>14</v>
@@ -1141,19 +1132,19 @@
         <v>14</v>
       </c>
       <c r="F13" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G13" t="s">
-        <v>93</v>
+        <v>32</v>
       </c>
       <c r="H13">
-        <v>44112</v>
+        <v>16000</v>
       </c>
       <c r="I13">
-        <v>1470400</v>
+        <v>8000000</v>
       </c>
       <c r="J13">
-        <v>30000</v>
+        <v>2000</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1170,7 +1161,7 @@
         <v>38</v>
       </c>
       <c r="C14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D14" t="s">
         <v>14</v>
@@ -1179,16 +1170,16 @@
         <v>14</v>
       </c>
       <c r="F14" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G14" t="s">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="H14">
-        <v>17841.194</v>
+        <v>27880</v>
       </c>
       <c r="I14">
-        <v>1049482</v>
+        <v>1640000</v>
       </c>
       <c r="J14">
         <v>17000</v>
@@ -1205,22 +1196,22 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C15" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D15" t="s">
+        <v>73</v>
+      </c>
+      <c r="E15" t="s">
         <v>75</v>
-      </c>
-      <c r="E15" t="s">
-        <v>77</v>
       </c>
       <c r="F15" t="s">
         <v>81</v>
       </c>
       <c r="G15" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="H15">
         <v>4387.5</v>
@@ -1246,7 +1237,7 @@
         <v>39</v>
       </c>
       <c r="C16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D16" t="s">
         <v>15</v>
@@ -1255,10 +1246,10 @@
         <v>15</v>
       </c>
       <c r="F16" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G16" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H16">
         <v>7000</v>
@@ -1281,10 +1272,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D17" t="s">
         <v>16</v>
@@ -1296,7 +1287,7 @@
         <v>40</v>
       </c>
       <c r="G17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H17">
         <v>29750</v>
@@ -1322,7 +1313,7 @@
         <v>27</v>
       </c>
       <c r="C18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D18" t="s">
         <v>16</v>
@@ -1331,10 +1322,10 @@
         <v>16</v>
       </c>
       <c r="F18" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H18">
         <v>46350</v>
@@ -1357,7 +1348,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C19" t="s">
         <v>54</v>
@@ -1366,13 +1357,13 @@
         <v>17</v>
       </c>
       <c r="E19" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F19" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G19" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H19">
         <v>284653.7406</v>
@@ -1398,19 +1389,19 @@
         <v>27</v>
       </c>
       <c r="C20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F20" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H20">
         <v>16000</v>
@@ -1436,7 +1427,7 @@
         <v>40</v>
       </c>
       <c r="C21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D21" t="s">
         <v>17</v>
@@ -1445,10 +1436,10 @@
         <v>17</v>
       </c>
       <c r="F21" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G21" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H21">
         <v>39396</v>
@@ -1471,10 +1462,10 @@
         <v>18</v>
       </c>
       <c r="B22" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C22" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D22" t="s">
         <v>18</v>
@@ -1483,19 +1474,19 @@
         <v>18</v>
       </c>
       <c r="F22" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G22" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="H22">
-        <v>65908.25</v>
+        <v>20000</v>
       </c>
       <c r="I22">
-        <v>2636330</v>
+        <v>10000000</v>
       </c>
       <c r="J22">
-        <v>25000</v>
+        <v>2000</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1512,19 +1503,19 @@
         <v>27</v>
       </c>
       <c r="C23" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D23" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E23" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F23" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H23">
         <v>16000</v>
@@ -1547,10 +1538,10 @@
         <v>18</v>
       </c>
       <c r="B24" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C24" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D24" t="s">
         <v>18</v>
@@ -1559,19 +1550,19 @@
         <v>18</v>
       </c>
       <c r="F24" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G24" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H24">
-        <v>20000</v>
+        <v>65908.25</v>
       </c>
       <c r="I24">
-        <v>10000000</v>
+        <v>2636330</v>
       </c>
       <c r="J24">
-        <v>2000</v>
+        <v>25000</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1588,7 +1579,7 @@
         <v>42</v>
       </c>
       <c r="C25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D25" t="s">
         <v>19</v>
@@ -1597,7 +1588,7 @@
         <v>19</v>
       </c>
       <c r="F25" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G25" t="s">
         <v>81</v>
@@ -1623,10 +1614,10 @@
         <v>20</v>
       </c>
       <c r="B26" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C26" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D26" t="s">
         <v>20</v>
@@ -1635,7 +1626,7 @@
         <v>20</v>
       </c>
       <c r="F26" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G26" t="s">
         <v>41</v>
@@ -1664,7 +1655,7 @@
         <v>39</v>
       </c>
       <c r="C27" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D27" t="s">
         <v>21</v>
@@ -1673,10 +1664,10 @@
         <v>21</v>
       </c>
       <c r="F27" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G27" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H27">
         <v>13500</v>
@@ -1699,22 +1690,22 @@
         <v>22</v>
       </c>
       <c r="B28" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C28" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D28" t="s">
+        <v>73</v>
+      </c>
+      <c r="E28" t="s">
         <v>75</v>
-      </c>
-      <c r="E28" t="s">
-        <v>77</v>
       </c>
       <c r="F28" t="s">
         <v>81</v>
       </c>
       <c r="G28" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="H28">
         <v>6581.256</v>
@@ -1737,22 +1728,22 @@
         <v>23</v>
       </c>
       <c r="B29" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C29" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D29" t="s">
+        <v>73</v>
+      </c>
+      <c r="E29" t="s">
         <v>75</v>
-      </c>
-      <c r="E29" t="s">
-        <v>77</v>
       </c>
       <c r="F29" t="s">
         <v>81</v>
       </c>
       <c r="G29" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="H29">
         <v>36196.872</v>
@@ -1778,19 +1769,19 @@
         <v>43</v>
       </c>
       <c r="C30" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D30" t="s">
         <v>24</v>
       </c>
       <c r="E30" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F30" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G30" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="H30">
         <v>7980</v>
@@ -1810,34 +1801,34 @@
     </row>
     <row r="31" spans="1:12">
       <c r="A31" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B31" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C31" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D31" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E31" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F31" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="G31" t="s">
         <v>32</v>
       </c>
       <c r="H31">
-        <v>26000</v>
+        <v>11700</v>
       </c>
       <c r="I31">
-        <v>4000000</v>
+        <v>650000</v>
       </c>
       <c r="J31">
-        <v>6500</v>
+        <v>18000</v>
       </c>
       <c r="K31">
         <v>0</v>
@@ -1851,75 +1842,75 @@
         <v>24</v>
       </c>
       <c r="B32" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="C32" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D32" t="s">
         <v>24</v>
       </c>
       <c r="E32" t="s">
-        <v>24</v>
+        <v>77</v>
       </c>
       <c r="F32" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="G32" t="s">
-        <v>29</v>
+        <v>92</v>
       </c>
       <c r="H32">
-        <v>11700</v>
+        <v>18620</v>
       </c>
       <c r="I32">
-        <v>650000</v>
+        <v>1400000</v>
       </c>
       <c r="J32">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="K32">
         <v>0</v>
       </c>
       <c r="L32">
-        <v>100</v>
+        <v>70</v>
       </c>
     </row>
     <row r="33" spans="1:12">
       <c r="A33" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B33" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C33" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="D33" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="E33" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F33" t="s">
+        <v>38</v>
+      </c>
+      <c r="G33" t="s">
         <v>89</v>
       </c>
-      <c r="G33" t="s">
-        <v>95</v>
-      </c>
       <c r="H33">
-        <v>18620</v>
+        <v>12576.7488</v>
       </c>
       <c r="I33">
-        <v>1400000</v>
+        <v>11580800</v>
       </c>
       <c r="J33">
-        <v>19000</v>
+        <v>36200</v>
       </c>
       <c r="K33">
         <v>0</v>
       </c>
       <c r="L33">
-        <v>70</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -1927,37 +1918,37 @@
         <v>25</v>
       </c>
       <c r="B34" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C34" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="D34" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="E34" t="s">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="F34" t="s">
-        <v>35</v>
+        <v>82</v>
       </c>
       <c r="G34" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H34">
-        <v>12576.7488</v>
+        <v>36850</v>
       </c>
       <c r="I34">
-        <v>11580800</v>
+        <v>3350000</v>
       </c>
       <c r="J34">
-        <v>36200</v>
+        <v>11000</v>
       </c>
       <c r="K34">
         <v>0</v>
       </c>
       <c r="L34">
-        <v>3</v>
+        <v>100</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -1965,75 +1956,75 @@
         <v>25</v>
       </c>
       <c r="B35" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C35" t="s">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="D35" t="s">
-        <v>25</v>
+        <v>73</v>
       </c>
       <c r="E35" t="s">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="F35" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="G35" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="H35">
-        <v>36850</v>
+        <v>4387.5</v>
       </c>
       <c r="I35">
-        <v>3350000</v>
+        <v>14625000</v>
       </c>
       <c r="J35">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="K35">
         <v>0</v>
       </c>
       <c r="L35">
-        <v>100</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:12">
       <c r="A36" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B36" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C36" t="s">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="D36" t="s">
-        <v>75</v>
+        <v>26</v>
       </c>
       <c r="E36" t="s">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="F36" t="s">
-        <v>81</v>
+        <v>34</v>
       </c>
       <c r="G36" t="s">
-        <v>91</v>
+        <v>38</v>
       </c>
       <c r="H36">
-        <v>4387.5</v>
+        <v>8000</v>
       </c>
       <c r="I36">
-        <v>14625000</v>
+        <v>4000000</v>
       </c>
       <c r="J36">
-        <v>6000</v>
+        <v>2000</v>
       </c>
       <c r="K36">
         <v>0</v>
       </c>
       <c r="L36">
-        <v>5</v>
+        <v>100</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -2041,10 +2032,10 @@
         <v>26</v>
       </c>
       <c r="B37" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C37" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D37" t="s">
         <v>26</v>
@@ -2053,10 +2044,10 @@
         <v>26</v>
       </c>
       <c r="F37" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G37" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="H37">
         <v>30600</v>
@@ -2071,44 +2062,6 @@
         <v>0</v>
       </c>
       <c r="L37">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12">
-      <c r="A38" t="s">
-        <v>26</v>
-      </c>
-      <c r="B38" t="s">
-        <v>28</v>
-      </c>
-      <c r="C38" t="s">
-        <v>74</v>
-      </c>
-      <c r="D38" t="s">
-        <v>26</v>
-      </c>
-      <c r="E38" t="s">
-        <v>26</v>
-      </c>
-      <c r="F38" t="s">
-        <v>33</v>
-      </c>
-      <c r="G38" t="s">
-        <v>35</v>
-      </c>
-      <c r="H38">
-        <v>8000</v>
-      </c>
-      <c r="I38">
-        <v>4000000</v>
-      </c>
-      <c r="J38">
-        <v>2000</v>
-      </c>
-      <c r="K38">
-        <v>0</v>
-      </c>
-      <c r="L38">
         <v>100</v>
       </c>
     </row>

--- a/datasets/form3.xlsx
+++ b/datasets/form3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="101">
   <si>
     <t>인수기관</t>
   </si>
@@ -97,42 +97,48 @@
     <t>한국</t>
   </si>
   <si>
+    <t>2023-12-12</t>
+  </si>
+  <si>
     <t>2023-10-31</t>
   </si>
   <si>
+    <t>2023-12-14</t>
+  </si>
+  <si>
+    <t>2023-10-24</t>
+  </si>
+  <si>
+    <t>2023-10-26</t>
+  </si>
+  <si>
+    <t>2023-12-01</t>
+  </si>
+  <si>
     <t>2023-11-10</t>
   </si>
   <si>
-    <t>2023-10-26</t>
-  </si>
-  <si>
-    <t>2023-10-24</t>
-  </si>
-  <si>
     <t>2023-11-01</t>
   </si>
   <si>
-    <t>2023-12-01</t>
+    <t>2023-11-08</t>
+  </si>
+  <si>
+    <t>2023-11-09</t>
   </si>
   <si>
     <t>2023-10-23</t>
   </si>
   <si>
+    <t>2023-11-13</t>
+  </si>
+  <si>
+    <t>2023-11-21</t>
+  </si>
+  <si>
     <t>2023-11-06</t>
   </si>
   <si>
-    <t>2023-11-08</t>
-  </si>
-  <si>
-    <t>2023-11-09</t>
-  </si>
-  <si>
-    <t>2023-11-21</t>
-  </si>
-  <si>
-    <t>2023-11-13</t>
-  </si>
-  <si>
     <t>2023-11-23</t>
   </si>
   <si>
@@ -148,48 +154,54 @@
     <t>2023-12-04</t>
   </si>
   <si>
-    <t>2023-10-18</t>
+    <t>2023-12-13</t>
+  </si>
+  <si>
+    <t>IBKS제23호스팩</t>
   </si>
   <si>
     <t>비아이매트릭스</t>
   </si>
   <si>
+    <t>DS단석</t>
+  </si>
+  <si>
+    <t>KB제27호스팩</t>
+  </si>
+  <si>
+    <t>쏘닉스</t>
+  </si>
+  <si>
+    <t>LS머트리얼즈</t>
+  </si>
+  <si>
     <t>에코아이</t>
   </si>
   <si>
-    <t>쏘닉스</t>
-  </si>
-  <si>
-    <t>KB제27호스팩</t>
-  </si>
-  <si>
     <t>에스와이스틸텍</t>
   </si>
   <si>
-    <t>LS머트리얼즈</t>
+    <t>에코프로머티</t>
+  </si>
+  <si>
+    <t>동인기연</t>
   </si>
   <si>
     <t>유진테크놀로지</t>
   </si>
   <si>
+    <t>그린리소스</t>
+  </si>
+  <si>
+    <t>엔에이치스팩30호</t>
+  </si>
+  <si>
     <t>캡스톤파트너스</t>
   </si>
   <si>
     <t>메가터치</t>
   </si>
   <si>
-    <t>에코프로머티</t>
-  </si>
-  <si>
-    <t>동인기연</t>
-  </si>
-  <si>
-    <t>엔에이치스팩30호</t>
-  </si>
-  <si>
-    <t>그린리소스</t>
-  </si>
-  <si>
     <t>교보15호스팩</t>
   </si>
   <si>
@@ -199,12 +211,12 @@
     <t>컨텍</t>
   </si>
   <si>
+    <t>에이에스텍</t>
+  </si>
+  <si>
     <t>큐로셀</t>
   </si>
   <si>
-    <t>에이에스텍</t>
-  </si>
-  <si>
     <t>삼성스팩9호</t>
   </si>
   <si>
@@ -226,13 +238,16 @@
     <t>에이텀</t>
   </si>
   <si>
+    <t>하나30호스팩</t>
+  </si>
+  <si>
     <t>스톰테크</t>
   </si>
   <si>
     <t>한국제13호스팩</t>
   </si>
   <si>
-    <t>퀄리타스반도체</t>
+    <t>KB, NH</t>
   </si>
   <si>
     <t>키움, KB</t>
@@ -250,18 +265,24 @@
     <t>하나, 키움</t>
   </si>
   <si>
+    <t>2023-12-15</t>
+  </si>
+  <si>
     <t>2023-11-03</t>
   </si>
   <si>
+    <t>2023-12-19</t>
+  </si>
+  <si>
+    <t>2023-10-27</t>
+  </si>
+  <si>
+    <t>2023-12-06</t>
+  </si>
+  <si>
     <t>2023-11-15</t>
   </si>
   <si>
-    <t>2023-10-27</t>
-  </si>
-  <si>
-    <t>2023-12-06</t>
-  </si>
-  <si>
     <t>2023-11-14</t>
   </si>
   <si>
@@ -280,7 +301,10 @@
     <t>2023-12-07</t>
   </si>
   <si>
-    <t>2023-12-12</t>
+    <t>2023-12-18</t>
+  </si>
+  <si>
+    <t>2023-12-22</t>
   </si>
   <si>
     <t>2023-11-17</t>
@@ -290,9 +314,6 @@
   </si>
   <si>
     <t>2023-12-05</t>
-  </si>
-  <si>
-    <t>2023-12-13</t>
   </si>
   <si>
     <t>2023-11-20</t>
@@ -653,7 +674,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L37"/>
+  <dimension ref="A1:L40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -705,7 +726,7 @@
         <v>27</v>
       </c>
       <c r="C2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
@@ -714,19 +735,19 @@
         <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="G2" t="s">
-        <v>36</v>
+        <v>96</v>
       </c>
       <c r="H2">
-        <v>15600</v>
+        <v>8000</v>
       </c>
       <c r="I2">
-        <v>1200000</v>
+        <v>4000000</v>
       </c>
       <c r="J2">
-        <v>13000</v>
+        <v>2000</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -737,34 +758,34 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="G3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H3">
-        <v>72141.3</v>
+        <v>15600</v>
       </c>
       <c r="I3">
-        <v>2079000</v>
+        <v>1200000</v>
       </c>
       <c r="J3">
-        <v>34700</v>
+        <v>13000</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -781,34 +802,34 @@
         <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="F4" t="s">
-        <v>27</v>
+        <v>85</v>
       </c>
       <c r="G4" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="H4">
-        <v>27000</v>
+        <v>79300</v>
       </c>
       <c r="I4">
-        <v>3600000</v>
+        <v>1220000</v>
       </c>
       <c r="J4">
-        <v>7500</v>
+        <v>100000</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>100</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -819,7 +840,7 @@
         <v>30</v>
       </c>
       <c r="C5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D5" t="s">
         <v>13</v>
@@ -828,10 +849,10 @@
         <v>13</v>
       </c>
       <c r="F5" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="G5" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="H5">
         <v>25000</v>
@@ -857,7 +878,7 @@
         <v>31</v>
       </c>
       <c r="C6" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D6" t="s">
         <v>13</v>
@@ -866,19 +887,19 @@
         <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="G6" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="H6">
-        <v>12600</v>
+        <v>27000</v>
       </c>
       <c r="I6">
-        <v>7000000</v>
+        <v>3600000</v>
       </c>
       <c r="J6">
-        <v>1800</v>
+        <v>7500</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -895,19 +916,19 @@
         <v>32</v>
       </c>
       <c r="C7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D7" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="E7" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="F7" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="G7" t="s">
-        <v>88</v>
+        <v>27</v>
       </c>
       <c r="H7">
         <v>36196.872</v>
@@ -927,34 +948,34 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
       </c>
       <c r="C8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F8" t="s">
-        <v>29</v>
+        <v>88</v>
       </c>
       <c r="G8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H8">
-        <v>17841.194</v>
+        <v>72141.3</v>
       </c>
       <c r="I8">
-        <v>1049482</v>
+        <v>2079000</v>
       </c>
       <c r="J8">
-        <v>17000</v>
+        <v>34700</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -965,34 +986,34 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
       </c>
       <c r="C9" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F9" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G9" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H9">
-        <v>6384</v>
+        <v>12600</v>
       </c>
       <c r="I9">
-        <v>1596000</v>
+        <v>7000000</v>
       </c>
       <c r="J9">
-        <v>4000</v>
+        <v>1800</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -1006,37 +1027,37 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="C10" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E10" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="F10" t="s">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="G10" t="s">
-        <v>28</v>
+        <v>97</v>
       </c>
       <c r="H10">
-        <v>24960</v>
+        <v>121994.4706</v>
       </c>
       <c r="I10">
-        <v>5200000</v>
+        <v>11580800</v>
       </c>
       <c r="J10">
-        <v>4800</v>
+        <v>36200</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>100</v>
+        <v>29.1</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1044,37 +1065,37 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C11" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D11" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E11" t="s">
-        <v>76</v>
+        <v>14</v>
       </c>
       <c r="F11" t="s">
-        <v>38</v>
+        <v>89</v>
       </c>
       <c r="G11" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="H11">
-        <v>121994.4706</v>
+        <v>44112</v>
       </c>
       <c r="I11">
-        <v>11580800</v>
+        <v>1470400</v>
       </c>
       <c r="J11">
-        <v>36200</v>
+        <v>30000</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>29.1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -1082,10 +1103,10 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C12" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D12" t="s">
         <v>14</v>
@@ -1094,19 +1115,19 @@
         <v>14</v>
       </c>
       <c r="F12" t="s">
-        <v>82</v>
+        <v>31</v>
       </c>
       <c r="G12" t="s">
-        <v>90</v>
+        <v>43</v>
       </c>
       <c r="H12">
-        <v>44112</v>
+        <v>17841.194</v>
       </c>
       <c r="I12">
-        <v>1470400</v>
+        <v>1049482</v>
       </c>
       <c r="J12">
-        <v>30000</v>
+        <v>17000</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -1120,10 +1141,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C13" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D13" t="s">
         <v>14</v>
@@ -1132,19 +1153,19 @@
         <v>14</v>
       </c>
       <c r="F13" t="s">
-        <v>83</v>
+        <v>42</v>
       </c>
       <c r="G13" t="s">
-        <v>32</v>
+        <v>90</v>
       </c>
       <c r="H13">
-        <v>16000</v>
+        <v>27880</v>
       </c>
       <c r="I13">
-        <v>8000000</v>
+        <v>1640000</v>
       </c>
       <c r="J13">
-        <v>2000</v>
+        <v>17000</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1158,10 +1179,10 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C14" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D14" t="s">
         <v>14</v>
@@ -1170,19 +1191,19 @@
         <v>14</v>
       </c>
       <c r="F14" t="s">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="G14" t="s">
-        <v>83</v>
+        <v>32</v>
       </c>
       <c r="H14">
-        <v>27880</v>
+        <v>16000</v>
       </c>
       <c r="I14">
-        <v>1640000</v>
+        <v>8000000</v>
       </c>
       <c r="J14">
-        <v>17000</v>
+        <v>2000</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1196,69 +1217,69 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="C15" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="D15" t="s">
-        <v>73</v>
+        <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>75</v>
+        <v>14</v>
       </c>
       <c r="F15" t="s">
-        <v>81</v>
+        <v>36</v>
       </c>
       <c r="G15" t="s">
         <v>88</v>
       </c>
       <c r="H15">
-        <v>4387.5</v>
+        <v>6384</v>
       </c>
       <c r="I15">
-        <v>14625000</v>
+        <v>1596000</v>
       </c>
       <c r="J15">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>5</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="C16" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F16" t="s">
         <v>84</v>
       </c>
       <c r="G16" t="s">
-        <v>91</v>
+        <v>33</v>
       </c>
       <c r="H16">
-        <v>7000</v>
+        <v>24960</v>
       </c>
       <c r="I16">
-        <v>3500000</v>
+        <v>5200000</v>
       </c>
       <c r="J16">
-        <v>2000</v>
+        <v>4800</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1269,186 +1290,186 @@
     </row>
     <row r="17" spans="1:12">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C17" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="D17" t="s">
-        <v>16</v>
+        <v>78</v>
       </c>
       <c r="E17" t="s">
-        <v>16</v>
+        <v>80</v>
       </c>
       <c r="F17" t="s">
-        <v>40</v>
+        <v>87</v>
       </c>
       <c r="G17" t="s">
-        <v>83</v>
+        <v>27</v>
       </c>
       <c r="H17">
-        <v>29750</v>
+        <v>4387.5</v>
       </c>
       <c r="I17">
-        <v>4250000</v>
+        <v>14625000</v>
       </c>
       <c r="J17">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>100</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:12">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B18" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C18" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="D18" t="s">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="E18" t="s">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="F18" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G18" t="s">
-        <v>36</v>
+        <v>96</v>
       </c>
       <c r="H18">
-        <v>46350</v>
+        <v>42700</v>
       </c>
       <c r="I18">
-        <v>2060000</v>
+        <v>1220000</v>
       </c>
       <c r="J18">
-        <v>22500</v>
+        <v>100000</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>100</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B19" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C19" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="D19" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E19" t="s">
-        <v>76</v>
+        <v>15</v>
       </c>
       <c r="F19" t="s">
-        <v>38</v>
+        <v>91</v>
       </c>
       <c r="G19" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="H19">
-        <v>284653.7406</v>
+        <v>7000</v>
       </c>
       <c r="I19">
-        <v>11580800</v>
+        <v>3500000</v>
       </c>
       <c r="J19">
-        <v>36200</v>
+        <v>2000</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>67.90000000000001</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B20" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="C20" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D20" t="s">
-        <v>74</v>
+        <v>16</v>
       </c>
       <c r="E20" t="s">
-        <v>74</v>
+        <v>16</v>
       </c>
       <c r="F20" t="s">
-        <v>78</v>
+        <v>42</v>
       </c>
       <c r="G20" t="s">
-        <v>36</v>
+        <v>90</v>
       </c>
       <c r="H20">
-        <v>16000</v>
+        <v>29750</v>
       </c>
       <c r="I20">
-        <v>1600000</v>
+        <v>4250000</v>
       </c>
       <c r="J20">
-        <v>20000</v>
+        <v>7000</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:12">
       <c r="A21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B21" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="C21" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F21" t="s">
-        <v>37</v>
+        <v>84</v>
       </c>
       <c r="G21" t="s">
-        <v>84</v>
+        <v>36</v>
       </c>
       <c r="H21">
-        <v>39396</v>
+        <v>46350</v>
       </c>
       <c r="I21">
-        <v>1407000</v>
+        <v>2060000</v>
       </c>
       <c r="J21">
-        <v>28000</v>
+        <v>22500</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1459,34 +1480,34 @@
     </row>
     <row r="22" spans="1:12">
       <c r="A22" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B22" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" t="s">
+        <v>65</v>
+      </c>
+      <c r="D22" t="s">
+        <v>17</v>
+      </c>
+      <c r="E22" t="s">
+        <v>17</v>
+      </c>
+      <c r="F22" t="s">
         <v>39</v>
       </c>
-      <c r="C22" t="s">
-        <v>63</v>
-      </c>
-      <c r="D22" t="s">
-        <v>18</v>
-      </c>
-      <c r="E22" t="s">
-        <v>18</v>
-      </c>
-      <c r="F22" t="s">
-        <v>84</v>
-      </c>
       <c r="G22" t="s">
-        <v>43</v>
+        <v>91</v>
       </c>
       <c r="H22">
-        <v>20000</v>
+        <v>39396</v>
       </c>
       <c r="I22">
-        <v>10000000</v>
+        <v>1407000</v>
       </c>
       <c r="J22">
-        <v>2000</v>
+        <v>28000</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1497,110 +1518,110 @@
     </row>
     <row r="23" spans="1:12">
       <c r="A23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B23" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="C23" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D23" t="s">
-        <v>74</v>
+        <v>17</v>
       </c>
       <c r="E23" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="F23" t="s">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="G23" t="s">
-        <v>36</v>
+        <v>97</v>
       </c>
       <c r="H23">
-        <v>16000</v>
+        <v>284653.7406</v>
       </c>
       <c r="I23">
-        <v>1600000</v>
+        <v>11580800</v>
       </c>
       <c r="J23">
-        <v>20000</v>
+        <v>36200</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>50</v>
+        <v>67.90000000000001</v>
       </c>
     </row>
     <row r="24" spans="1:12">
       <c r="A24" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B24" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C24" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D24" t="s">
-        <v>18</v>
+        <v>79</v>
       </c>
       <c r="E24" t="s">
-        <v>18</v>
+        <v>79</v>
       </c>
       <c r="F24" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G24" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H24">
-        <v>65908.25</v>
+        <v>16000</v>
       </c>
       <c r="I24">
-        <v>2636330</v>
+        <v>1600000</v>
       </c>
       <c r="J24">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:12">
       <c r="A25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C25" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F25" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="G25" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="H25">
-        <v>17250</v>
+        <v>20000</v>
       </c>
       <c r="I25">
-        <v>750000</v>
+        <v>10000000</v>
       </c>
       <c r="J25">
-        <v>23000</v>
+        <v>2000</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1611,72 +1632,72 @@
     </row>
     <row r="26" spans="1:12">
       <c r="A26" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B26" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C26" t="s">
         <v>66</v>
       </c>
       <c r="D26" t="s">
-        <v>20</v>
+        <v>79</v>
       </c>
       <c r="E26" t="s">
-        <v>20</v>
+        <v>79</v>
       </c>
       <c r="F26" t="s">
-        <v>29</v>
+        <v>84</v>
       </c>
       <c r="G26" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H26">
-        <v>4966.368</v>
+        <v>16000</v>
       </c>
       <c r="I26">
-        <v>1128720</v>
+        <v>1600000</v>
       </c>
       <c r="J26">
-        <v>4400</v>
+        <v>20000</v>
       </c>
       <c r="K26">
         <v>0</v>
       </c>
       <c r="L26">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:12">
       <c r="A27" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B27" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C27" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D27" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E27" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F27" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="G27" t="s">
-        <v>91</v>
+        <v>38</v>
       </c>
       <c r="H27">
-        <v>13500</v>
+        <v>65908.25</v>
       </c>
       <c r="I27">
-        <v>1500000</v>
+        <v>2636330</v>
       </c>
       <c r="J27">
-        <v>9000</v>
+        <v>25000</v>
       </c>
       <c r="K27">
         <v>0</v>
@@ -1687,180 +1708,180 @@
     </row>
     <row r="28" spans="1:12">
       <c r="A28" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B28" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="C28" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="D28" t="s">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="E28" t="s">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="F28" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="G28" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H28">
-        <v>6581.256</v>
+        <v>17250</v>
       </c>
       <c r="I28">
-        <v>14625000</v>
+        <v>750000</v>
       </c>
       <c r="J28">
-        <v>6000</v>
+        <v>23000</v>
       </c>
       <c r="K28">
         <v>0</v>
       </c>
       <c r="L28">
-        <v>7.5</v>
+        <v>100</v>
       </c>
     </row>
     <row r="29" spans="1:12">
       <c r="A29" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B29" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C29" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="D29" t="s">
-        <v>73</v>
+        <v>20</v>
       </c>
       <c r="E29" t="s">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="F29" t="s">
-        <v>81</v>
+        <v>31</v>
       </c>
       <c r="G29" t="s">
-        <v>88</v>
+        <v>43</v>
       </c>
       <c r="H29">
-        <v>36196.872</v>
+        <v>4966.368</v>
       </c>
       <c r="I29">
-        <v>14625000</v>
+        <v>1128720</v>
       </c>
       <c r="J29">
-        <v>6000</v>
+        <v>4400</v>
       </c>
       <c r="K29">
         <v>0</v>
       </c>
       <c r="L29">
-        <v>41.25</v>
+        <v>100</v>
       </c>
     </row>
     <row r="30" spans="1:12">
       <c r="A30" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B30" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C30" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D30" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E30" t="s">
-        <v>77</v>
+        <v>21</v>
       </c>
       <c r="F30" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G30" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="H30">
-        <v>7980</v>
+        <v>13500</v>
       </c>
       <c r="I30">
-        <v>1400000</v>
+        <v>1500000</v>
       </c>
       <c r="J30">
-        <v>19000</v>
+        <v>9000</v>
       </c>
       <c r="K30">
         <v>0</v>
       </c>
       <c r="L30">
-        <v>30</v>
+        <v>100</v>
       </c>
     </row>
     <row r="31" spans="1:12">
       <c r="A31" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B31" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C31" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="D31" t="s">
-        <v>24</v>
+        <v>78</v>
       </c>
       <c r="E31" t="s">
-        <v>24</v>
+        <v>80</v>
       </c>
       <c r="F31" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="G31" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="H31">
-        <v>11700</v>
+        <v>6581.256</v>
       </c>
       <c r="I31">
-        <v>650000</v>
+        <v>14625000</v>
       </c>
       <c r="J31">
-        <v>18000</v>
+        <v>6000</v>
       </c>
       <c r="K31">
         <v>0</v>
       </c>
       <c r="L31">
-        <v>100</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="32" spans="1:12">
       <c r="A32" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B32" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C32" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D32" t="s">
         <v>24</v>
       </c>
       <c r="E32" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="F32" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="G32" t="s">
-        <v>92</v>
+        <v>46</v>
       </c>
       <c r="H32">
-        <v>18620</v>
+        <v>7980</v>
       </c>
       <c r="I32">
         <v>1400000</v>
@@ -1872,77 +1893,77 @@
         <v>0</v>
       </c>
       <c r="L32">
-        <v>70</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33" spans="1:12">
       <c r="A33" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B33" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C33" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D33" t="s">
-        <v>17</v>
+        <v>78</v>
       </c>
       <c r="E33" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="F33" t="s">
-        <v>38</v>
+        <v>87</v>
       </c>
       <c r="G33" t="s">
-        <v>89</v>
+        <v>27</v>
       </c>
       <c r="H33">
-        <v>12576.7488</v>
+        <v>36196.872</v>
       </c>
       <c r="I33">
-        <v>11580800</v>
+        <v>14625000</v>
       </c>
       <c r="J33">
-        <v>36200</v>
+        <v>6000</v>
       </c>
       <c r="K33">
         <v>0</v>
       </c>
       <c r="L33">
-        <v>3</v>
+        <v>41.25</v>
       </c>
     </row>
     <row r="34" spans="1:12">
       <c r="A34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B34" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C34" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F34" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="G34" t="s">
-        <v>93</v>
+        <v>32</v>
       </c>
       <c r="H34">
-        <v>36850</v>
+        <v>11700</v>
       </c>
       <c r="I34">
-        <v>3350000</v>
+        <v>650000</v>
       </c>
       <c r="J34">
-        <v>11000</v>
+        <v>18000</v>
       </c>
       <c r="K34">
         <v>0</v>
@@ -1953,69 +1974,69 @@
     </row>
     <row r="35" spans="1:12">
       <c r="A35" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B35" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="C35" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="D35" t="s">
-        <v>73</v>
+        <v>24</v>
       </c>
       <c r="E35" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="F35" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="G35" t="s">
-        <v>88</v>
+        <v>46</v>
       </c>
       <c r="H35">
-        <v>4387.5</v>
+        <v>18620</v>
       </c>
       <c r="I35">
-        <v>14625000</v>
+        <v>1400000</v>
       </c>
       <c r="J35">
-        <v>6000</v>
+        <v>19000</v>
       </c>
       <c r="K35">
         <v>0</v>
       </c>
       <c r="L35">
-        <v>5</v>
+        <v>70</v>
       </c>
     </row>
     <row r="36" spans="1:12">
       <c r="A36" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B36" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="C36" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D36" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E36" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F36" t="s">
-        <v>34</v>
+        <v>95</v>
       </c>
       <c r="G36" t="s">
-        <v>38</v>
+        <v>96</v>
       </c>
       <c r="H36">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="I36">
-        <v>4000000</v>
+        <v>7000000</v>
       </c>
       <c r="J36">
         <v>2000</v>
@@ -2029,39 +2050,153 @@
     </row>
     <row r="37" spans="1:12">
       <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>32</v>
+      </c>
+      <c r="C37" t="s">
+        <v>52</v>
+      </c>
+      <c r="D37" t="s">
+        <v>78</v>
+      </c>
+      <c r="E37" t="s">
+        <v>80</v>
+      </c>
+      <c r="F37" t="s">
+        <v>87</v>
+      </c>
+      <c r="G37" t="s">
+        <v>27</v>
+      </c>
+      <c r="H37">
+        <v>4387.5</v>
+      </c>
+      <c r="I37">
+        <v>14625000</v>
+      </c>
+      <c r="J37">
+        <v>6000</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
+      <c r="A38" t="s">
+        <v>25</v>
+      </c>
+      <c r="B38" t="s">
+        <v>35</v>
+      </c>
+      <c r="C38" t="s">
+        <v>55</v>
+      </c>
+      <c r="D38" t="s">
+        <v>17</v>
+      </c>
+      <c r="E38" t="s">
+        <v>81</v>
+      </c>
+      <c r="F38" t="s">
+        <v>38</v>
+      </c>
+      <c r="G38" t="s">
+        <v>97</v>
+      </c>
+      <c r="H38">
+        <v>12576.7488</v>
+      </c>
+      <c r="I38">
+        <v>11580800</v>
+      </c>
+      <c r="J38">
+        <v>36200</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
+      <c r="A39" t="s">
+        <v>25</v>
+      </c>
+      <c r="B39" t="s">
+        <v>36</v>
+      </c>
+      <c r="C39" t="s">
+        <v>75</v>
+      </c>
+      <c r="D39" t="s">
+        <v>25</v>
+      </c>
+      <c r="E39" t="s">
+        <v>25</v>
+      </c>
+      <c r="F39" t="s">
+        <v>89</v>
+      </c>
+      <c r="G39" t="s">
+        <v>100</v>
+      </c>
+      <c r="H39">
+        <v>36850</v>
+      </c>
+      <c r="I39">
+        <v>3350000</v>
+      </c>
+      <c r="J39">
+        <v>11000</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="L39">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="A40" t="s">
         <v>26</v>
       </c>
-      <c r="B37" t="s">
-        <v>44</v>
-      </c>
-      <c r="C37" t="s">
-        <v>72</v>
-      </c>
-      <c r="D37" t="s">
+      <c r="B40" t="s">
+        <v>34</v>
+      </c>
+      <c r="C40" t="s">
+        <v>76</v>
+      </c>
+      <c r="D40" t="s">
         <v>26</v>
       </c>
-      <c r="E37" t="s">
+      <c r="E40" t="s">
         <v>26</v>
       </c>
-      <c r="F37" t="s">
-        <v>33</v>
-      </c>
-      <c r="G37" t="s">
-        <v>80</v>
-      </c>
-      <c r="H37">
-        <v>30600</v>
-      </c>
-      <c r="I37">
-        <v>1800000</v>
-      </c>
-      <c r="J37">
-        <v>17000</v>
-      </c>
-      <c r="K37">
-        <v>0</v>
-      </c>
-      <c r="L37">
+      <c r="F40" t="s">
+        <v>40</v>
+      </c>
+      <c r="G40" t="s">
+        <v>38</v>
+      </c>
+      <c r="H40">
+        <v>8000</v>
+      </c>
+      <c r="I40">
+        <v>4000000</v>
+      </c>
+      <c r="J40">
+        <v>2000</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40">
         <v>100</v>
       </c>
     </row>

--- a/datasets/form3.xlsx
+++ b/datasets/form3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="94">
   <si>
     <t>인수기관</t>
   </si>
@@ -76,9 +76,6 @@
     <t>신영</t>
   </si>
   <si>
-    <t>신한</t>
-  </si>
-  <si>
     <t>유안타</t>
   </si>
   <si>
@@ -106,7 +103,10 @@
     <t>2023-12-14</t>
   </si>
   <si>
-    <t>2023-10-24</t>
+    <t>2023-11-01</t>
+  </si>
+  <si>
+    <t>2023-11-10</t>
   </si>
   <si>
     <t>2023-10-26</t>
@@ -115,30 +115,21 @@
     <t>2023-12-01</t>
   </si>
   <si>
-    <t>2023-11-10</t>
-  </si>
-  <si>
-    <t>2023-11-01</t>
+    <t>2023-11-06</t>
   </si>
   <si>
     <t>2023-11-08</t>
   </si>
   <si>
+    <t>2023-11-21</t>
+  </si>
+  <si>
     <t>2023-11-09</t>
   </si>
   <si>
-    <t>2023-10-23</t>
-  </si>
-  <si>
     <t>2023-11-13</t>
   </si>
   <si>
-    <t>2023-11-21</t>
-  </si>
-  <si>
-    <t>2023-11-06</t>
-  </si>
-  <si>
     <t>2023-11-23</t>
   </si>
   <si>
@@ -166,7 +157,10 @@
     <t>DS단석</t>
   </si>
   <si>
-    <t>KB제27호스팩</t>
+    <t>에스와이스틸텍</t>
+  </si>
+  <si>
+    <t>에코아이</t>
   </si>
   <si>
     <t>쏘닉스</t>
@@ -175,33 +169,24 @@
     <t>LS머트리얼즈</t>
   </si>
   <si>
-    <t>에코아이</t>
-  </si>
-  <si>
-    <t>에스와이스틸텍</t>
+    <t>메가터치</t>
+  </si>
+  <si>
+    <t>캡스톤파트너스</t>
   </si>
   <si>
     <t>에코프로머티</t>
   </si>
   <si>
+    <t>엔에이치스팩30호</t>
+  </si>
+  <si>
     <t>동인기연</t>
   </si>
   <si>
-    <t>유진테크놀로지</t>
-  </si>
-  <si>
     <t>그린리소스</t>
   </si>
   <si>
-    <t>엔에이치스팩30호</t>
-  </si>
-  <si>
-    <t>캡스톤파트너스</t>
-  </si>
-  <si>
-    <t>메가터치</t>
-  </si>
-  <si>
     <t>교보15호스팩</t>
   </si>
   <si>
@@ -211,12 +196,12 @@
     <t>컨텍</t>
   </si>
   <si>
+    <t>큐로셀</t>
+  </si>
+  <si>
     <t>에이에스텍</t>
   </si>
   <si>
-    <t>큐로셀</t>
-  </si>
-  <si>
     <t>삼성스팩9호</t>
   </si>
   <si>
@@ -226,21 +211,18 @@
     <t>케이엔에스</t>
   </si>
   <si>
-    <t>유투바이오</t>
-  </si>
-  <si>
     <t>와이바이오로직스</t>
   </si>
   <si>
     <t>블루엠텍</t>
   </si>
   <si>
+    <t>하나30호스팩</t>
+  </si>
+  <si>
     <t>에이텀</t>
   </si>
   <si>
-    <t>하나30호스팩</t>
-  </si>
-  <si>
     <t>스톰테크</t>
   </si>
   <si>
@@ -274,19 +256,16 @@
     <t>2023-12-19</t>
   </si>
   <si>
-    <t>2023-10-27</t>
+    <t>2023-11-15</t>
   </si>
   <si>
     <t>2023-12-06</t>
   </si>
   <si>
-    <t>2023-11-15</t>
+    <t>2023-11-24</t>
   </si>
   <si>
     <t>2023-11-14</t>
-  </si>
-  <si>
-    <t>2023-11-24</t>
   </si>
   <si>
     <t>2023-11-28</t>
@@ -674,7 +653,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L40"/>
+  <dimension ref="A1:L37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -723,10 +702,10 @@
         <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
@@ -735,10 +714,10 @@
         <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="G2" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="H2">
         <v>8000</v>
@@ -761,10 +740,10 @@
         <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D3" t="s">
         <v>12</v>
@@ -773,7 +752,7 @@
         <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="G3" t="s">
         <v>36</v>
@@ -799,22 +778,22 @@
         <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D4" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="E4" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F4" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="G4" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="H4">
         <v>79300</v>
@@ -837,10 +816,10 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D5" t="s">
         <v>13</v>
@@ -849,19 +828,19 @@
         <v>13</v>
       </c>
       <c r="F5" t="s">
-        <v>86</v>
+        <v>33</v>
       </c>
       <c r="G5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H5">
-        <v>25000</v>
+        <v>12600</v>
       </c>
       <c r="I5">
-        <v>12500000</v>
+        <v>7000000</v>
       </c>
       <c r="J5">
-        <v>2000</v>
+        <v>1800</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -875,10 +854,10 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C6" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D6" t="s">
         <v>13</v>
@@ -887,19 +866,19 @@
         <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>28</v>
+        <v>80</v>
       </c>
       <c r="G6" t="s">
-        <v>92</v>
+        <v>35</v>
       </c>
       <c r="H6">
-        <v>27000</v>
+        <v>72141.3</v>
       </c>
       <c r="I6">
-        <v>3600000</v>
+        <v>2079000</v>
       </c>
       <c r="J6">
-        <v>7500</v>
+        <v>34700</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -913,37 +892,37 @@
         <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D7" t="s">
-        <v>78</v>
+        <v>13</v>
       </c>
       <c r="E7" t="s">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="F7" t="s">
-        <v>87</v>
+        <v>27</v>
       </c>
       <c r="G7" t="s">
-        <v>27</v>
+        <v>85</v>
       </c>
       <c r="H7">
-        <v>36196.872</v>
+        <v>27000</v>
       </c>
       <c r="I7">
-        <v>14625000</v>
+        <v>3600000</v>
       </c>
       <c r="J7">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>41.25</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -951,75 +930,75 @@
         <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C8" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="E8" t="s">
-        <v>13</v>
+        <v>74</v>
       </c>
       <c r="F8" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="G8" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="H8">
-        <v>72141.3</v>
+        <v>36196.872</v>
       </c>
       <c r="I8">
-        <v>2079000</v>
+        <v>14625000</v>
       </c>
       <c r="J8">
-        <v>34700</v>
+        <v>6000</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>100</v>
+        <v>41.25</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C9" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="E9" t="s">
-        <v>13</v>
+        <v>74</v>
       </c>
       <c r="F9" t="s">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="G9" t="s">
-        <v>89</v>
+        <v>26</v>
       </c>
       <c r="H9">
-        <v>12600</v>
+        <v>4387.5</v>
       </c>
       <c r="I9">
-        <v>7000000</v>
+        <v>14625000</v>
       </c>
       <c r="J9">
-        <v>1800</v>
+        <v>6000</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>100</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -1027,37 +1006,37 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="C10" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D10" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E10" t="s">
-        <v>81</v>
+        <v>14</v>
       </c>
       <c r="F10" t="s">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="G10" t="s">
-        <v>97</v>
+        <v>30</v>
       </c>
       <c r="H10">
-        <v>121994.4706</v>
+        <v>24960</v>
       </c>
       <c r="I10">
-        <v>11580800</v>
+        <v>5200000</v>
       </c>
       <c r="J10">
-        <v>36200</v>
+        <v>4800</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>29.1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1065,37 +1044,37 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C11" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="D11" t="s">
-        <v>14</v>
+        <v>71</v>
       </c>
       <c r="E11" t="s">
-        <v>14</v>
+        <v>71</v>
       </c>
       <c r="F11" t="s">
+        <v>79</v>
+      </c>
+      <c r="G11" t="s">
         <v>89</v>
       </c>
-      <c r="G11" t="s">
-        <v>98</v>
-      </c>
       <c r="H11">
-        <v>44112</v>
+        <v>42700</v>
       </c>
       <c r="I11">
-        <v>1470400</v>
+        <v>1220000</v>
       </c>
       <c r="J11">
-        <v>30000</v>
+        <v>100000</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>100</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -1103,10 +1082,10 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C12" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D12" t="s">
         <v>14</v>
@@ -1115,19 +1094,19 @@
         <v>14</v>
       </c>
       <c r="F12" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G12" t="s">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="H12">
-        <v>17841.194</v>
+        <v>6384</v>
       </c>
       <c r="I12">
-        <v>1049482</v>
+        <v>1596000</v>
       </c>
       <c r="J12">
-        <v>17000</v>
+        <v>4000</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -1141,37 +1120,37 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C13" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D13" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E13" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="F13" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G13" t="s">
         <v>90</v>
       </c>
       <c r="H13">
-        <v>27880</v>
+        <v>121994.4706</v>
       </c>
       <c r="I13">
-        <v>1640000</v>
+        <v>11580800</v>
       </c>
       <c r="J13">
-        <v>17000</v>
+        <v>36200</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>100</v>
+        <v>29.1</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -1179,10 +1158,10 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C14" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D14" t="s">
         <v>14</v>
@@ -1191,7 +1170,7 @@
         <v>14</v>
       </c>
       <c r="F14" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="G14" t="s">
         <v>32</v>
@@ -1217,10 +1196,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C15" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D15" t="s">
         <v>14</v>
@@ -1229,19 +1208,19 @@
         <v>14</v>
       </c>
       <c r="F15" t="s">
-        <v>36</v>
+        <v>83</v>
       </c>
       <c r="G15" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="H15">
-        <v>6384</v>
+        <v>44112</v>
       </c>
       <c r="I15">
-        <v>1596000</v>
+        <v>1470400</v>
       </c>
       <c r="J15">
-        <v>4000</v>
+        <v>30000</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1255,10 +1234,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C16" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D16" t="s">
         <v>14</v>
@@ -1267,19 +1246,19 @@
         <v>14</v>
       </c>
       <c r="F16" t="s">
-        <v>84</v>
+        <v>39</v>
       </c>
       <c r="G16" t="s">
-        <v>33</v>
+        <v>82</v>
       </c>
       <c r="H16">
-        <v>24960</v>
+        <v>27880</v>
       </c>
       <c r="I16">
-        <v>5200000</v>
+        <v>1640000</v>
       </c>
       <c r="J16">
-        <v>4800</v>
+        <v>17000</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1290,110 +1269,110 @@
     </row>
     <row r="17" spans="1:12">
       <c r="A17" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C17" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="D17" t="s">
-        <v>78</v>
+        <v>15</v>
       </c>
       <c r="E17" t="s">
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="F17" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G17" t="s">
-        <v>27</v>
+        <v>92</v>
       </c>
       <c r="H17">
-        <v>4387.5</v>
+        <v>7000</v>
       </c>
       <c r="I17">
-        <v>14625000</v>
+        <v>3500000</v>
       </c>
       <c r="J17">
-        <v>6000</v>
+        <v>2000</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>5</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:12">
       <c r="A18" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C18" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="D18" t="s">
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="E18" t="s">
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="F18" t="s">
-        <v>85</v>
+        <v>39</v>
       </c>
       <c r="G18" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="H18">
-        <v>42700</v>
+        <v>29750</v>
       </c>
       <c r="I18">
-        <v>1220000</v>
+        <v>4250000</v>
       </c>
       <c r="J18">
-        <v>100000</v>
+        <v>7000</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>35</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="C19" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D19" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E19" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F19" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="G19" t="s">
-        <v>99</v>
+        <v>36</v>
       </c>
       <c r="H19">
-        <v>7000</v>
+        <v>46350</v>
       </c>
       <c r="I19">
-        <v>3500000</v>
+        <v>2060000</v>
       </c>
       <c r="J19">
-        <v>2000</v>
+        <v>22500</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1404,78 +1383,78 @@
     </row>
     <row r="20" spans="1:12">
       <c r="A20" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="C20" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D20" t="s">
-        <v>16</v>
+        <v>73</v>
       </c>
       <c r="E20" t="s">
-        <v>16</v>
+        <v>73</v>
       </c>
       <c r="F20" t="s">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="G20" t="s">
-        <v>90</v>
+        <v>36</v>
       </c>
       <c r="H20">
-        <v>29750</v>
+        <v>16000</v>
       </c>
       <c r="I20">
-        <v>4250000</v>
+        <v>1600000</v>
       </c>
       <c r="J20">
-        <v>7000</v>
+        <v>20000</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:12">
       <c r="A21" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B21" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C21" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="D21" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E21" t="s">
-        <v>16</v>
+        <v>75</v>
       </c>
       <c r="F21" t="s">
-        <v>84</v>
+        <v>37</v>
       </c>
       <c r="G21" t="s">
-        <v>36</v>
+        <v>90</v>
       </c>
       <c r="H21">
-        <v>46350</v>
+        <v>284653.7406</v>
       </c>
       <c r="I21">
-        <v>2060000</v>
+        <v>11580800</v>
       </c>
       <c r="J21">
-        <v>22500</v>
+        <v>36200</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>100</v>
+        <v>67.90000000000001</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1483,10 +1462,10 @@
         <v>17</v>
       </c>
       <c r="B22" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C22" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D22" t="s">
         <v>17</v>
@@ -1495,10 +1474,10 @@
         <v>17</v>
       </c>
       <c r="F22" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G22" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="H22">
         <v>39396</v>
@@ -1518,60 +1497,60 @@
     </row>
     <row r="23" spans="1:12">
       <c r="A23" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B23" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C23" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="D23" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E23" t="s">
-        <v>81</v>
+        <v>18</v>
       </c>
       <c r="F23" t="s">
-        <v>38</v>
+        <v>84</v>
       </c>
       <c r="G23" t="s">
-        <v>97</v>
+        <v>42</v>
       </c>
       <c r="H23">
-        <v>284653.7406</v>
+        <v>20000</v>
       </c>
       <c r="I23">
-        <v>11580800</v>
+        <v>10000000</v>
       </c>
       <c r="J23">
-        <v>36200</v>
+        <v>2000</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>67.90000000000001</v>
+        <v>100</v>
       </c>
     </row>
     <row r="24" spans="1:12">
       <c r="A24" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C24" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D24" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="E24" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F24" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="G24" t="s">
         <v>36</v>
@@ -1597,10 +1576,10 @@
         <v>18</v>
       </c>
       <c r="B25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C25" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D25" t="s">
         <v>18</v>
@@ -1609,19 +1588,19 @@
         <v>18</v>
       </c>
       <c r="F25" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="G25" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="H25">
-        <v>20000</v>
+        <v>65908.25</v>
       </c>
       <c r="I25">
-        <v>10000000</v>
+        <v>2636330</v>
       </c>
       <c r="J25">
-        <v>2000</v>
+        <v>25000</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1632,72 +1611,72 @@
     </row>
     <row r="26" spans="1:12">
       <c r="A26" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B26" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="C26" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D26" t="s">
-        <v>79</v>
+        <v>19</v>
       </c>
       <c r="E26" t="s">
-        <v>79</v>
+        <v>19</v>
       </c>
       <c r="F26" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G26" t="s">
-        <v>36</v>
+        <v>81</v>
       </c>
       <c r="H26">
-        <v>16000</v>
+        <v>17250</v>
       </c>
       <c r="I26">
-        <v>1600000</v>
+        <v>750000</v>
       </c>
       <c r="J26">
-        <v>20000</v>
+        <v>23000</v>
       </c>
       <c r="K26">
         <v>0</v>
       </c>
       <c r="L26">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:12">
       <c r="A27" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B27" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C27" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D27" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E27" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F27" t="s">
+        <v>84</v>
+      </c>
+      <c r="G27" t="s">
         <v>92</v>
       </c>
-      <c r="G27" t="s">
-        <v>38</v>
-      </c>
       <c r="H27">
-        <v>65908.25</v>
+        <v>13500</v>
       </c>
       <c r="I27">
-        <v>2636330</v>
+        <v>1500000</v>
       </c>
       <c r="J27">
-        <v>25000</v>
+        <v>9000</v>
       </c>
       <c r="K27">
         <v>0</v>
@@ -1708,154 +1687,154 @@
     </row>
     <row r="28" spans="1:12">
       <c r="A28" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B28" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="C28" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="D28" t="s">
-        <v>19</v>
+        <v>72</v>
       </c>
       <c r="E28" t="s">
-        <v>19</v>
+        <v>74</v>
       </c>
       <c r="F28" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="G28" t="s">
-        <v>87</v>
+        <v>26</v>
       </c>
       <c r="H28">
-        <v>17250</v>
+        <v>6581.256</v>
       </c>
       <c r="I28">
-        <v>750000</v>
+        <v>14625000</v>
       </c>
       <c r="J28">
-        <v>23000</v>
+        <v>6000</v>
       </c>
       <c r="K28">
         <v>0</v>
       </c>
       <c r="L28">
-        <v>100</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="29" spans="1:12">
       <c r="A29" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B29" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C29" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="D29" t="s">
-        <v>20</v>
+        <v>72</v>
       </c>
       <c r="E29" t="s">
-        <v>20</v>
+        <v>74</v>
       </c>
       <c r="F29" t="s">
-        <v>31</v>
+        <v>81</v>
       </c>
       <c r="G29" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="H29">
-        <v>4966.368</v>
+        <v>36196.872</v>
       </c>
       <c r="I29">
-        <v>1128720</v>
+        <v>14625000</v>
       </c>
       <c r="J29">
-        <v>4400</v>
+        <v>6000</v>
       </c>
       <c r="K29">
         <v>0</v>
       </c>
       <c r="L29">
-        <v>100</v>
+        <v>41.25</v>
       </c>
     </row>
     <row r="30" spans="1:12">
       <c r="A30" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B30" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C30" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D30" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E30" t="s">
-        <v>21</v>
+        <v>76</v>
       </c>
       <c r="F30" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G30" t="s">
-        <v>99</v>
+        <v>43</v>
       </c>
       <c r="H30">
-        <v>13500</v>
+        <v>7980</v>
       </c>
       <c r="I30">
-        <v>1500000</v>
+        <v>1400000</v>
       </c>
       <c r="J30">
-        <v>9000</v>
+        <v>19000</v>
       </c>
       <c r="K30">
         <v>0</v>
       </c>
       <c r="L30">
-        <v>100</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:12">
       <c r="A31" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B31" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="C31" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="D31" t="s">
-        <v>78</v>
+        <v>23</v>
       </c>
       <c r="E31" t="s">
-        <v>80</v>
+        <v>23</v>
       </c>
       <c r="F31" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G31" t="s">
-        <v>27</v>
+        <v>89</v>
       </c>
       <c r="H31">
-        <v>6581.256</v>
+        <v>14000</v>
       </c>
       <c r="I31">
-        <v>14625000</v>
+        <v>7000000</v>
       </c>
       <c r="J31">
-        <v>6000</v>
+        <v>2000</v>
       </c>
       <c r="K31">
         <v>0</v>
       </c>
       <c r="L31">
-        <v>7.5</v>
+        <v>100</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -1863,37 +1842,37 @@
         <v>23</v>
       </c>
       <c r="B32" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C32" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D32" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E32" t="s">
+        <v>23</v>
+      </c>
+      <c r="F32" t="s">
         <v>82</v>
       </c>
-      <c r="F32" t="s">
-        <v>94</v>
-      </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="H32">
-        <v>7980</v>
+        <v>11700</v>
       </c>
       <c r="I32">
-        <v>1400000</v>
+        <v>650000</v>
       </c>
       <c r="J32">
-        <v>19000</v>
+        <v>18000</v>
       </c>
       <c r="K32">
         <v>0</v>
       </c>
       <c r="L32">
-        <v>30</v>
+        <v>100</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -1901,37 +1880,37 @@
         <v>23</v>
       </c>
       <c r="B33" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="C33" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="D33" t="s">
-        <v>78</v>
+        <v>23</v>
       </c>
       <c r="E33" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F33" t="s">
         <v>87</v>
       </c>
       <c r="G33" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="H33">
-        <v>36196.872</v>
+        <v>18620</v>
       </c>
       <c r="I33">
-        <v>14625000</v>
+        <v>1400000</v>
       </c>
       <c r="J33">
-        <v>6000</v>
+        <v>19000</v>
       </c>
       <c r="K33">
         <v>0</v>
       </c>
       <c r="L33">
-        <v>41.25</v>
+        <v>70</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -1939,37 +1918,37 @@
         <v>24</v>
       </c>
       <c r="B34" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C34" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="D34" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="E34" t="s">
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="F34" t="s">
+        <v>37</v>
+      </c>
+      <c r="G34" t="s">
         <v>90</v>
       </c>
-      <c r="G34" t="s">
-        <v>32</v>
-      </c>
       <c r="H34">
-        <v>11700</v>
+        <v>12576.7488</v>
       </c>
       <c r="I34">
-        <v>650000</v>
+        <v>11580800</v>
       </c>
       <c r="J34">
-        <v>18000</v>
+        <v>36200</v>
       </c>
       <c r="K34">
         <v>0</v>
       </c>
       <c r="L34">
-        <v>100</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -1977,37 +1956,37 @@
         <v>24</v>
       </c>
       <c r="B35" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="C35" t="s">
+        <v>50</v>
+      </c>
+      <c r="D35" t="s">
         <v>72</v>
       </c>
-      <c r="D35" t="s">
-        <v>24</v>
-      </c>
       <c r="E35" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F35" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="H35">
-        <v>18620</v>
+        <v>4387.5</v>
       </c>
       <c r="I35">
-        <v>1400000</v>
+        <v>14625000</v>
       </c>
       <c r="J35">
-        <v>19000</v>
+        <v>6000</v>
       </c>
       <c r="K35">
         <v>0</v>
       </c>
       <c r="L35">
-        <v>70</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -2015,10 +1994,10 @@
         <v>24</v>
       </c>
       <c r="B36" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="C36" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D36" t="s">
         <v>24</v>
@@ -2027,19 +2006,19 @@
         <v>24</v>
       </c>
       <c r="F36" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="G36" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H36">
-        <v>14000</v>
+        <v>36850</v>
       </c>
       <c r="I36">
-        <v>7000000</v>
+        <v>3350000</v>
       </c>
       <c r="J36">
-        <v>2000</v>
+        <v>11000</v>
       </c>
       <c r="K36">
         <v>0</v>
@@ -2053,150 +2032,36 @@
         <v>25</v>
       </c>
       <c r="B37" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C37" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="D37" t="s">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="E37" t="s">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="F37" t="s">
-        <v>87</v>
+        <v>33</v>
       </c>
       <c r="G37" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="H37">
-        <v>4387.5</v>
+        <v>8000</v>
       </c>
       <c r="I37">
-        <v>14625000</v>
+        <v>4000000</v>
       </c>
       <c r="J37">
-        <v>6000</v>
+        <v>2000</v>
       </c>
       <c r="K37">
         <v>0</v>
       </c>
       <c r="L37">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12">
-      <c r="A38" t="s">
-        <v>25</v>
-      </c>
-      <c r="B38" t="s">
-        <v>35</v>
-      </c>
-      <c r="C38" t="s">
-        <v>55</v>
-      </c>
-      <c r="D38" t="s">
-        <v>17</v>
-      </c>
-      <c r="E38" t="s">
-        <v>81</v>
-      </c>
-      <c r="F38" t="s">
-        <v>38</v>
-      </c>
-      <c r="G38" t="s">
-        <v>97</v>
-      </c>
-      <c r="H38">
-        <v>12576.7488</v>
-      </c>
-      <c r="I38">
-        <v>11580800</v>
-      </c>
-      <c r="J38">
-        <v>36200</v>
-      </c>
-      <c r="K38">
-        <v>0</v>
-      </c>
-      <c r="L38">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12">
-      <c r="A39" t="s">
-        <v>25</v>
-      </c>
-      <c r="B39" t="s">
-        <v>36</v>
-      </c>
-      <c r="C39" t="s">
-        <v>75</v>
-      </c>
-      <c r="D39" t="s">
-        <v>25</v>
-      </c>
-      <c r="E39" t="s">
-        <v>25</v>
-      </c>
-      <c r="F39" t="s">
-        <v>89</v>
-      </c>
-      <c r="G39" t="s">
-        <v>100</v>
-      </c>
-      <c r="H39">
-        <v>36850</v>
-      </c>
-      <c r="I39">
-        <v>3350000</v>
-      </c>
-      <c r="J39">
-        <v>11000</v>
-      </c>
-      <c r="K39">
-        <v>0</v>
-      </c>
-      <c r="L39">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12">
-      <c r="A40" t="s">
-        <v>26</v>
-      </c>
-      <c r="B40" t="s">
-        <v>34</v>
-      </c>
-      <c r="C40" t="s">
-        <v>76</v>
-      </c>
-      <c r="D40" t="s">
-        <v>26</v>
-      </c>
-      <c r="E40" t="s">
-        <v>26</v>
-      </c>
-      <c r="F40" t="s">
-        <v>40</v>
-      </c>
-      <c r="G40" t="s">
-        <v>38</v>
-      </c>
-      <c r="H40">
-        <v>8000</v>
-      </c>
-      <c r="I40">
-        <v>4000000</v>
-      </c>
-      <c r="J40">
-        <v>2000</v>
-      </c>
-      <c r="K40">
-        <v>0</v>
-      </c>
-      <c r="L40">
         <v>100</v>
       </c>
     </row>

--- a/datasets/form3.xlsx
+++ b/datasets/form3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="92">
   <si>
     <t>인수기관</t>
   </si>
@@ -94,39 +94,36 @@
     <t>한국</t>
   </si>
   <si>
+    <t>2023-10-31</t>
+  </si>
+  <si>
     <t>2023-12-12</t>
   </si>
   <si>
-    <t>2023-10-31</t>
+    <t>2023-11-01</t>
+  </si>
+  <si>
+    <t>2023-11-10</t>
+  </si>
+  <si>
+    <t>2023-12-01</t>
   </si>
   <si>
     <t>2023-12-14</t>
   </si>
   <si>
-    <t>2023-11-01</t>
-  </si>
-  <si>
-    <t>2023-11-10</t>
-  </si>
-  <si>
-    <t>2023-10-26</t>
-  </si>
-  <si>
-    <t>2023-12-01</t>
-  </si>
-  <si>
     <t>2023-11-06</t>
   </si>
   <si>
     <t>2023-11-08</t>
   </si>
   <si>
+    <t>2023-11-09</t>
+  </si>
+  <si>
     <t>2023-11-21</t>
   </si>
   <si>
-    <t>2023-11-09</t>
-  </si>
-  <si>
     <t>2023-11-13</t>
   </si>
   <si>
@@ -148,27 +145,24 @@
     <t>2023-12-13</t>
   </si>
   <si>
+    <t>비아이매트릭스</t>
+  </si>
+  <si>
     <t>IBKS제23호스팩</t>
   </si>
   <si>
-    <t>비아이매트릭스</t>
+    <t>에스와이스틸텍</t>
+  </si>
+  <si>
+    <t>에코아이</t>
+  </si>
+  <si>
+    <t>LS머트리얼즈</t>
   </si>
   <si>
     <t>DS단석</t>
   </si>
   <si>
-    <t>에스와이스틸텍</t>
-  </si>
-  <si>
-    <t>에코아이</t>
-  </si>
-  <si>
-    <t>쏘닉스</t>
-  </si>
-  <si>
-    <t>LS머트리얼즈</t>
-  </si>
-  <si>
     <t>메가터치</t>
   </si>
   <si>
@@ -178,12 +172,12 @@
     <t>에코프로머티</t>
   </si>
   <si>
+    <t>동인기연</t>
+  </si>
+  <si>
     <t>엔에이치스팩30호</t>
   </si>
   <si>
-    <t>동인기연</t>
-  </si>
-  <si>
     <t>그린리소스</t>
   </si>
   <si>
@@ -229,12 +223,12 @@
     <t>한국제13호스팩</t>
   </si>
   <si>
+    <t>키움, KB</t>
+  </si>
+  <si>
     <t>KB, NH</t>
   </si>
   <si>
-    <t>키움, KB</t>
-  </si>
-  <si>
     <t>미래, 삼성</t>
   </si>
   <si>
@@ -247,25 +241,25 @@
     <t>하나, 키움</t>
   </si>
   <si>
+    <t>2023-11-03</t>
+  </si>
+  <si>
     <t>2023-12-15</t>
   </si>
   <si>
-    <t>2023-11-03</t>
+    <t>2023-11-15</t>
+  </si>
+  <si>
+    <t>2023-12-06</t>
   </si>
   <si>
     <t>2023-12-19</t>
   </si>
   <si>
-    <t>2023-11-15</t>
-  </si>
-  <si>
-    <t>2023-12-06</t>
+    <t>2023-11-14</t>
   </si>
   <si>
     <t>2023-11-24</t>
-  </si>
-  <si>
-    <t>2023-11-14</t>
   </si>
   <si>
     <t>2023-11-28</t>
@@ -653,7 +647,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L37"/>
+  <dimension ref="A1:L36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -705,7 +699,7 @@
         <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
@@ -714,19 +708,19 @@
         <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G2" t="s">
-        <v>89</v>
+        <v>34</v>
       </c>
       <c r="H2">
-        <v>8000</v>
+        <v>15600</v>
       </c>
       <c r="I2">
-        <v>4000000</v>
+        <v>1200000</v>
       </c>
       <c r="J2">
-        <v>2000</v>
+        <v>13000</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -743,7 +737,7 @@
         <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D3" t="s">
         <v>12</v>
@@ -752,19 +746,19 @@
         <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G3" t="s">
-        <v>36</v>
+        <v>87</v>
       </c>
       <c r="H3">
-        <v>15600</v>
+        <v>8000</v>
       </c>
       <c r="I3">
-        <v>1200000</v>
+        <v>4000000</v>
       </c>
       <c r="J3">
-        <v>13000</v>
+        <v>2000</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -781,34 +775,34 @@
         <v>28</v>
       </c>
       <c r="C4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D4" t="s">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>79</v>
+        <v>32</v>
       </c>
       <c r="G4" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H4">
-        <v>79300</v>
+        <v>12600</v>
       </c>
       <c r="I4">
-        <v>1220000</v>
+        <v>7000000</v>
       </c>
       <c r="J4">
-        <v>100000</v>
+        <v>1800</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>65</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -819,7 +813,7 @@
         <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D5" t="s">
         <v>13</v>
@@ -828,19 +822,19 @@
         <v>13</v>
       </c>
       <c r="F5" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="G5" t="s">
-        <v>83</v>
+        <v>35</v>
       </c>
       <c r="H5">
-        <v>12600</v>
+        <v>72141.3</v>
       </c>
       <c r="I5">
-        <v>7000000</v>
+        <v>2079000</v>
       </c>
       <c r="J5">
-        <v>1800</v>
+        <v>34700</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -857,34 +851,34 @@
         <v>30</v>
       </c>
       <c r="C6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="F6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G6" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="H6">
-        <v>72141.3</v>
+        <v>36196.872</v>
       </c>
       <c r="I6">
-        <v>2079000</v>
+        <v>14625000</v>
       </c>
       <c r="J6">
-        <v>34700</v>
+        <v>6000</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>100</v>
+        <v>41.25</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -895,72 +889,72 @@
         <v>31</v>
       </c>
       <c r="C7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="E7" t="s">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="F7" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="G7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H7">
-        <v>27000</v>
+        <v>79300</v>
       </c>
       <c r="I7">
-        <v>3600000</v>
+        <v>1220000</v>
       </c>
       <c r="J7">
-        <v>7500</v>
+        <v>100000</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>100</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D8" t="s">
-        <v>72</v>
+        <v>14</v>
       </c>
       <c r="E8" t="s">
-        <v>74</v>
+        <v>14</v>
       </c>
       <c r="F8" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G8" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H8">
-        <v>36196.872</v>
+        <v>24960</v>
       </c>
       <c r="I8">
-        <v>14625000</v>
+        <v>5200000</v>
       </c>
       <c r="J8">
-        <v>6000</v>
+        <v>4800</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>41.25</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -968,22 +962,22 @@
         <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C9" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E9" t="s">
         <v>72</v>
       </c>
-      <c r="E9" t="s">
-        <v>74</v>
-      </c>
       <c r="F9" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H9">
         <v>4387.5</v>
@@ -1006,37 +1000,37 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C10" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
+        <v>70</v>
       </c>
       <c r="E10" t="s">
-        <v>14</v>
+        <v>70</v>
       </c>
       <c r="F10" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G10" t="s">
-        <v>30</v>
+        <v>87</v>
       </c>
       <c r="H10">
-        <v>24960</v>
+        <v>42700</v>
       </c>
       <c r="I10">
-        <v>5200000</v>
+        <v>1220000</v>
       </c>
       <c r="J10">
-        <v>4800</v>
+        <v>100000</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>100</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1044,37 +1038,37 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C11" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D11" t="s">
-        <v>71</v>
+        <v>14</v>
       </c>
       <c r="E11" t="s">
-        <v>71</v>
+        <v>14</v>
       </c>
       <c r="F11" t="s">
-        <v>79</v>
+        <v>34</v>
       </c>
       <c r="G11" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="H11">
-        <v>42700</v>
+        <v>6384</v>
       </c>
       <c r="I11">
-        <v>1220000</v>
+        <v>1596000</v>
       </c>
       <c r="J11">
-        <v>100000</v>
+        <v>4000</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>35</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -1085,34 +1079,34 @@
         <v>33</v>
       </c>
       <c r="C12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D12" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E12" t="s">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="F12" t="s">
         <v>36</v>
       </c>
       <c r="G12" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H12">
-        <v>6384</v>
+        <v>121994.4706</v>
       </c>
       <c r="I12">
-        <v>1596000</v>
+        <v>11580800</v>
       </c>
       <c r="J12">
-        <v>4000</v>
+        <v>36200</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>100</v>
+        <v>29.1</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -1123,34 +1117,34 @@
         <v>34</v>
       </c>
       <c r="C13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D13" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E13" t="s">
-        <v>75</v>
+        <v>14</v>
       </c>
       <c r="F13" t="s">
-        <v>37</v>
+        <v>80</v>
       </c>
       <c r="G13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H13">
-        <v>121994.4706</v>
+        <v>44112</v>
       </c>
       <c r="I13">
-        <v>11580800</v>
+        <v>1470400</v>
       </c>
       <c r="J13">
-        <v>36200</v>
+        <v>30000</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>29.1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -1161,7 +1155,7 @@
         <v>35</v>
       </c>
       <c r="C14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D14" t="s">
         <v>14</v>
@@ -1170,10 +1164,10 @@
         <v>14</v>
       </c>
       <c r="F14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G14" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H14">
         <v>16000</v>
@@ -1199,7 +1193,7 @@
         <v>36</v>
       </c>
       <c r="C15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D15" t="s">
         <v>14</v>
@@ -1208,19 +1202,19 @@
         <v>14</v>
       </c>
       <c r="F15" t="s">
-        <v>83</v>
+        <v>38</v>
       </c>
       <c r="G15" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="H15">
-        <v>44112</v>
+        <v>27880</v>
       </c>
       <c r="I15">
-        <v>1470400</v>
+        <v>1640000</v>
       </c>
       <c r="J15">
-        <v>30000</v>
+        <v>17000</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1231,34 +1225,34 @@
     </row>
     <row r="16" spans="1:12">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
         <v>37</v>
       </c>
       <c r="C16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F16" t="s">
-        <v>39</v>
+        <v>82</v>
       </c>
       <c r="G16" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="H16">
-        <v>27880</v>
+        <v>7000</v>
       </c>
       <c r="I16">
-        <v>1640000</v>
+        <v>3500000</v>
       </c>
       <c r="J16">
-        <v>17000</v>
+        <v>2000</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1269,34 +1263,34 @@
     </row>
     <row r="17" spans="1:12">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" t="s">
         <v>38</v>
       </c>
-      <c r="C17" t="s">
-        <v>57</v>
-      </c>
-      <c r="D17" t="s">
-        <v>15</v>
-      </c>
-      <c r="E17" t="s">
-        <v>15</v>
-      </c>
-      <c r="F17" t="s">
-        <v>84</v>
-      </c>
       <c r="G17" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H17">
+        <v>29750</v>
+      </c>
+      <c r="I17">
+        <v>4250000</v>
+      </c>
+      <c r="J17">
         <v>7000</v>
-      </c>
-      <c r="I17">
-        <v>3500000</v>
-      </c>
-      <c r="J17">
-        <v>2000</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1310,10 +1304,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D18" t="s">
         <v>16</v>
@@ -1322,19 +1316,19 @@
         <v>16</v>
       </c>
       <c r="F18" t="s">
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="G18" t="s">
-        <v>82</v>
+        <v>34</v>
       </c>
       <c r="H18">
-        <v>29750</v>
+        <v>46350</v>
       </c>
       <c r="I18">
-        <v>4250000</v>
+        <v>2060000</v>
       </c>
       <c r="J18">
-        <v>7000</v>
+        <v>22500</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1345,40 +1339,40 @@
     </row>
     <row r="19" spans="1:12">
       <c r="A19" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D19" t="s">
-        <v>16</v>
+        <v>71</v>
       </c>
       <c r="E19" t="s">
-        <v>16</v>
+        <v>71</v>
       </c>
       <c r="F19" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G19" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H19">
-        <v>46350</v>
+        <v>16000</v>
       </c>
       <c r="I19">
-        <v>2060000</v>
+        <v>1600000</v>
       </c>
       <c r="J19">
-        <v>22500</v>
+        <v>20000</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1386,37 +1380,37 @@
         <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C20" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="D20" t="s">
-        <v>73</v>
+        <v>17</v>
       </c>
       <c r="E20" t="s">
         <v>73</v>
       </c>
       <c r="F20" t="s">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="G20" t="s">
-        <v>36</v>
+        <v>88</v>
       </c>
       <c r="H20">
-        <v>16000</v>
+        <v>284653.7406</v>
       </c>
       <c r="I20">
-        <v>1600000</v>
+        <v>11580800</v>
       </c>
       <c r="J20">
-        <v>20000</v>
+        <v>36200</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>50</v>
+        <v>67.90000000000001</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1424,69 +1418,69 @@
         <v>17</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C21" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="D21" t="s">
         <v>17</v>
       </c>
       <c r="E21" t="s">
-        <v>75</v>
+        <v>17</v>
       </c>
       <c r="F21" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G21" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="H21">
-        <v>284653.7406</v>
+        <v>39396</v>
       </c>
       <c r="I21">
-        <v>11580800</v>
+        <v>1407000</v>
       </c>
       <c r="J21">
-        <v>36200</v>
+        <v>28000</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>67.90000000000001</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:12">
       <c r="A22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B22" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C22" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F22" t="s">
-        <v>35</v>
+        <v>82</v>
       </c>
       <c r="G22" t="s">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="H22">
-        <v>39396</v>
+        <v>20000</v>
       </c>
       <c r="I22">
-        <v>1407000</v>
+        <v>10000000</v>
       </c>
       <c r="J22">
-        <v>28000</v>
+        <v>2000</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1500,37 +1494,37 @@
         <v>18</v>
       </c>
       <c r="B23" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D23" t="s">
-        <v>18</v>
+        <v>71</v>
       </c>
       <c r="E23" t="s">
-        <v>18</v>
+        <v>71</v>
       </c>
       <c r="F23" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G23" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="H23">
+        <v>16000</v>
+      </c>
+      <c r="I23">
+        <v>1600000</v>
+      </c>
+      <c r="J23">
         <v>20000</v>
       </c>
-      <c r="I23">
-        <v>10000000</v>
-      </c>
-      <c r="J23">
-        <v>2000</v>
-      </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1538,69 +1532,69 @@
         <v>18</v>
       </c>
       <c r="B24" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="C24" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D24" t="s">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="E24" t="s">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="F24" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="G24" t="s">
         <v>36</v>
       </c>
       <c r="H24">
-        <v>16000</v>
+        <v>65908.25</v>
       </c>
       <c r="I24">
-        <v>1600000</v>
+        <v>2636330</v>
       </c>
       <c r="J24">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="25" spans="1:12">
       <c r="A25" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B25" t="s">
         <v>40</v>
       </c>
       <c r="C25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D25" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E25" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G25" t="s">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="H25">
-        <v>65908.25</v>
+        <v>17250</v>
       </c>
       <c r="I25">
-        <v>2636330</v>
+        <v>750000</v>
       </c>
       <c r="J25">
-        <v>25000</v>
+        <v>23000</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1611,34 +1605,34 @@
     </row>
     <row r="26" spans="1:12">
       <c r="A26" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B26" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C26" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D26" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E26" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F26" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="G26" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H26">
-        <v>17250</v>
+        <v>13500</v>
       </c>
       <c r="I26">
-        <v>750000</v>
+        <v>1500000</v>
       </c>
       <c r="J26">
-        <v>23000</v>
+        <v>9000</v>
       </c>
       <c r="K26">
         <v>0</v>
@@ -1649,66 +1643,66 @@
     </row>
     <row r="27" spans="1:12">
       <c r="A27" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B27" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C27" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="D27" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="E27" t="s">
-        <v>20</v>
+        <v>72</v>
       </c>
       <c r="F27" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="G27" t="s">
-        <v>92</v>
+        <v>27</v>
       </c>
       <c r="H27">
-        <v>13500</v>
+        <v>6581.256</v>
       </c>
       <c r="I27">
-        <v>1500000</v>
+        <v>14625000</v>
       </c>
       <c r="J27">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="K27">
         <v>0</v>
       </c>
       <c r="L27">
-        <v>100</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="28" spans="1:12">
       <c r="A28" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B28" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C28" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D28" t="s">
+        <v>69</v>
+      </c>
+      <c r="E28" t="s">
         <v>72</v>
       </c>
-      <c r="E28" t="s">
-        <v>74</v>
-      </c>
       <c r="F28" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G28" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H28">
-        <v>6581.256</v>
+        <v>36196.872</v>
       </c>
       <c r="I28">
         <v>14625000</v>
@@ -1720,7 +1714,7 @@
         <v>0</v>
       </c>
       <c r="L28">
-        <v>7.5</v>
+        <v>41.25</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -1728,75 +1722,75 @@
         <v>22</v>
       </c>
       <c r="B29" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="C29" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="D29" t="s">
-        <v>72</v>
+        <v>23</v>
       </c>
       <c r="E29" t="s">
         <v>74</v>
       </c>
       <c r="F29" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="G29" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="H29">
-        <v>36196.872</v>
+        <v>7980</v>
       </c>
       <c r="I29">
-        <v>14625000</v>
+        <v>1400000</v>
       </c>
       <c r="J29">
-        <v>6000</v>
+        <v>19000</v>
       </c>
       <c r="K29">
         <v>0</v>
       </c>
       <c r="L29">
-        <v>41.25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30" spans="1:12">
       <c r="A30" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B30" t="s">
         <v>42</v>
       </c>
       <c r="C30" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D30" t="s">
         <v>23</v>
       </c>
       <c r="E30" t="s">
-        <v>76</v>
+        <v>23</v>
       </c>
       <c r="F30" t="s">
+        <v>86</v>
+      </c>
+      <c r="G30" t="s">
         <v>87</v>
       </c>
-      <c r="G30" t="s">
-        <v>43</v>
-      </c>
       <c r="H30">
-        <v>7980</v>
+        <v>14000</v>
       </c>
       <c r="I30">
-        <v>1400000</v>
+        <v>7000000</v>
       </c>
       <c r="J30">
-        <v>19000</v>
+        <v>2000</v>
       </c>
       <c r="K30">
         <v>0</v>
       </c>
       <c r="L30">
-        <v>30</v>
+        <v>100</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -1804,10 +1798,10 @@
         <v>23</v>
       </c>
       <c r="B31" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D31" t="s">
         <v>23</v>
@@ -1816,19 +1810,19 @@
         <v>23</v>
       </c>
       <c r="F31" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="G31" t="s">
-        <v>89</v>
+        <v>30</v>
       </c>
       <c r="H31">
-        <v>14000</v>
+        <v>11700</v>
       </c>
       <c r="I31">
-        <v>7000000</v>
+        <v>650000</v>
       </c>
       <c r="J31">
-        <v>2000</v>
+        <v>18000</v>
       </c>
       <c r="K31">
         <v>0</v>
@@ -1842,75 +1836,75 @@
         <v>23</v>
       </c>
       <c r="B32" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C32" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D32" t="s">
         <v>23</v>
       </c>
       <c r="E32" t="s">
-        <v>23</v>
+        <v>74</v>
       </c>
       <c r="F32" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="G32" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="H32">
-        <v>11700</v>
+        <v>18620</v>
       </c>
       <c r="I32">
-        <v>650000</v>
+        <v>1400000</v>
       </c>
       <c r="J32">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="K32">
         <v>0</v>
       </c>
       <c r="L32">
-        <v>100</v>
+        <v>70</v>
       </c>
     </row>
     <row r="33" spans="1:12">
       <c r="A33" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B33" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="C33" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="D33" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E33" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F33" t="s">
-        <v>87</v>
+        <v>36</v>
       </c>
       <c r="G33" t="s">
-        <v>43</v>
+        <v>88</v>
       </c>
       <c r="H33">
-        <v>18620</v>
+        <v>12576.7488</v>
       </c>
       <c r="I33">
-        <v>1400000</v>
+        <v>11580800</v>
       </c>
       <c r="J33">
-        <v>19000</v>
+        <v>36200</v>
       </c>
       <c r="K33">
         <v>0</v>
       </c>
       <c r="L33">
-        <v>70</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -1918,37 +1912,37 @@
         <v>24</v>
       </c>
       <c r="B34" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C34" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D34" t="s">
-        <v>17</v>
+        <v>69</v>
       </c>
       <c r="E34" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F34" t="s">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="G34" t="s">
-        <v>90</v>
+        <v>27</v>
       </c>
       <c r="H34">
-        <v>12576.7488</v>
+        <v>4387.5</v>
       </c>
       <c r="I34">
-        <v>11580800</v>
+        <v>14625000</v>
       </c>
       <c r="J34">
-        <v>36200</v>
+        <v>6000</v>
       </c>
       <c r="K34">
         <v>0</v>
       </c>
       <c r="L34">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -1956,112 +1950,74 @@
         <v>24</v>
       </c>
       <c r="B35" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C35" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="D35" t="s">
-        <v>72</v>
+        <v>24</v>
       </c>
       <c r="E35" t="s">
-        <v>74</v>
+        <v>24</v>
       </c>
       <c r="F35" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G35" t="s">
-        <v>26</v>
+        <v>91</v>
       </c>
       <c r="H35">
-        <v>4387.5</v>
+        <v>36850</v>
       </c>
       <c r="I35">
-        <v>14625000</v>
+        <v>3350000</v>
       </c>
       <c r="J35">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="K35">
         <v>0</v>
       </c>
       <c r="L35">
-        <v>5</v>
+        <v>100</v>
       </c>
     </row>
     <row r="36" spans="1:12">
       <c r="A36" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B36" t="s">
+        <v>28</v>
+      </c>
+      <c r="C36" t="s">
+        <v>68</v>
+      </c>
+      <c r="D36" t="s">
+        <v>25</v>
+      </c>
+      <c r="E36" t="s">
+        <v>25</v>
+      </c>
+      <c r="F36" t="s">
+        <v>32</v>
+      </c>
+      <c r="G36" t="s">
         <v>36</v>
       </c>
-      <c r="C36" t="s">
-        <v>69</v>
-      </c>
-      <c r="D36" t="s">
-        <v>24</v>
-      </c>
-      <c r="E36" t="s">
-        <v>24</v>
-      </c>
-      <c r="F36" t="s">
-        <v>83</v>
-      </c>
-      <c r="G36" t="s">
-        <v>93</v>
-      </c>
       <c r="H36">
-        <v>36850</v>
+        <v>8000</v>
       </c>
       <c r="I36">
-        <v>3350000</v>
+        <v>4000000</v>
       </c>
       <c r="J36">
-        <v>11000</v>
+        <v>2000</v>
       </c>
       <c r="K36">
         <v>0</v>
       </c>
       <c r="L36">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12">
-      <c r="A37" t="s">
-        <v>25</v>
-      </c>
-      <c r="B37" t="s">
-        <v>29</v>
-      </c>
-      <c r="C37" t="s">
-        <v>70</v>
-      </c>
-      <c r="D37" t="s">
-        <v>25</v>
-      </c>
-      <c r="E37" t="s">
-        <v>25</v>
-      </c>
-      <c r="F37" t="s">
-        <v>33</v>
-      </c>
-      <c r="G37" t="s">
-        <v>37</v>
-      </c>
-      <c r="H37">
-        <v>8000</v>
-      </c>
-      <c r="I37">
-        <v>4000000</v>
-      </c>
-      <c r="J37">
-        <v>2000</v>
-      </c>
-      <c r="K37">
-        <v>0</v>
-      </c>
-      <c r="L37">
         <v>100</v>
       </c>
     </row>

--- a/datasets/form3.xlsx
+++ b/datasets/form3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="89">
   <si>
     <t>인수기관</t>
   </si>
@@ -94,42 +94,42 @@
     <t>한국</t>
   </si>
   <si>
+    <t>2023-12-12</t>
+  </si>
+  <si>
+    <t>2023-12-14</t>
+  </si>
+  <si>
+    <t>2023-11-10</t>
+  </si>
+  <si>
+    <t>2023-12-01</t>
+  </si>
+  <si>
+    <t>2023-11-01</t>
+  </si>
+  <si>
+    <t>2023-11-13</t>
+  </si>
+  <si>
+    <t>2023-11-09</t>
+  </si>
+  <si>
+    <t>2023-11-06</t>
+  </si>
+  <si>
+    <t>2023-11-21</t>
+  </si>
+  <si>
+    <t>2023-11-08</t>
+  </si>
+  <si>
+    <t>2023-11-23</t>
+  </si>
+  <si>
     <t>2023-10-31</t>
   </si>
   <si>
-    <t>2023-12-12</t>
-  </si>
-  <si>
-    <t>2023-11-01</t>
-  </si>
-  <si>
-    <t>2023-11-10</t>
-  </si>
-  <si>
-    <t>2023-12-01</t>
-  </si>
-  <si>
-    <t>2023-12-14</t>
-  </si>
-  <si>
-    <t>2023-11-06</t>
-  </si>
-  <si>
-    <t>2023-11-08</t>
-  </si>
-  <si>
-    <t>2023-11-09</t>
-  </si>
-  <si>
-    <t>2023-11-21</t>
-  </si>
-  <si>
-    <t>2023-11-13</t>
-  </si>
-  <si>
-    <t>2023-11-23</t>
-  </si>
-  <si>
     <t>2023-11-16</t>
   </si>
   <si>
@@ -145,63 +145,54 @@
     <t>2023-12-13</t>
   </si>
   <si>
-    <t>비아이매트릭스</t>
-  </si>
-  <si>
     <t>IBKS제23호스팩</t>
   </si>
   <si>
+    <t>DS단석</t>
+  </si>
+  <si>
+    <t>에코아이</t>
+  </si>
+  <si>
+    <t>LS머트리얼즈</t>
+  </si>
+  <si>
     <t>에스와이스틸텍</t>
   </si>
   <si>
-    <t>에코아이</t>
-  </si>
-  <si>
-    <t>LS머트리얼즈</t>
-  </si>
-  <si>
-    <t>DS단석</t>
-  </si>
-  <si>
-    <t>메가터치</t>
+    <t>그린리소스</t>
+  </si>
+  <si>
+    <t>동인기연</t>
   </si>
   <si>
     <t>캡스톤파트너스</t>
   </si>
   <si>
+    <t>엔에이치스팩30호</t>
+  </si>
+  <si>
     <t>에코프로머티</t>
   </si>
   <si>
-    <t>동인기연</t>
-  </si>
-  <si>
-    <t>엔에이치스팩30호</t>
-  </si>
-  <si>
-    <t>그린리소스</t>
-  </si>
-  <si>
     <t>교보15호스팩</t>
   </si>
   <si>
     <t>한선엔지니어링</t>
   </si>
   <si>
-    <t>컨텍</t>
-  </si>
-  <si>
     <t>큐로셀</t>
   </si>
   <si>
     <t>에이에스텍</t>
   </si>
   <si>
+    <t>에이직랜드</t>
+  </si>
+  <si>
     <t>삼성스팩9호</t>
   </si>
   <si>
-    <t>에이직랜드</t>
-  </si>
-  <si>
     <t>케이엔에스</t>
   </si>
   <si>
@@ -223,12 +214,12 @@
     <t>한국제13호스팩</t>
   </si>
   <si>
+    <t>KB, NH</t>
+  </si>
+  <si>
     <t>키움, KB</t>
   </si>
   <si>
-    <t>KB, NH</t>
-  </si>
-  <si>
     <t>미래, 삼성</t>
   </si>
   <si>
@@ -241,30 +232,30 @@
     <t>하나, 키움</t>
   </si>
   <si>
+    <t>2023-12-15</t>
+  </si>
+  <si>
+    <t>2023-12-19</t>
+  </si>
+  <si>
+    <t>2023-11-15</t>
+  </si>
+  <si>
+    <t>2023-12-06</t>
+  </si>
+  <si>
+    <t>2023-11-14</t>
+  </si>
+  <si>
+    <t>2023-11-24</t>
+  </si>
+  <si>
+    <t>2023-11-28</t>
+  </si>
+  <si>
     <t>2023-11-03</t>
   </si>
   <si>
-    <t>2023-12-15</t>
-  </si>
-  <si>
-    <t>2023-11-15</t>
-  </si>
-  <si>
-    <t>2023-12-06</t>
-  </si>
-  <si>
-    <t>2023-12-19</t>
-  </si>
-  <si>
-    <t>2023-11-14</t>
-  </si>
-  <si>
-    <t>2023-11-24</t>
-  </si>
-  <si>
-    <t>2023-11-28</t>
-  </si>
-  <si>
     <t>2023-11-07</t>
   </si>
   <si>
@@ -280,10 +271,10 @@
     <t>2023-12-22</t>
   </si>
   <si>
+    <t>2023-11-22</t>
+  </si>
+  <si>
     <t>2023-11-17</t>
-  </si>
-  <si>
-    <t>2023-11-22</t>
   </si>
   <si>
     <t>2023-12-05</t>
@@ -647,7 +638,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L36"/>
+  <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -708,19 +699,19 @@
         <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G2" t="s">
-        <v>34</v>
+        <v>84</v>
       </c>
       <c r="H2">
-        <v>15600</v>
+        <v>8000</v>
       </c>
       <c r="I2">
-        <v>1200000</v>
+        <v>4000000</v>
       </c>
       <c r="J2">
-        <v>13000</v>
+        <v>2000</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -731,7 +722,7 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
         <v>27</v>
@@ -740,31 +731,31 @@
         <v>44</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="F3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="H3">
-        <v>8000</v>
+        <v>79300</v>
       </c>
       <c r="I3">
-        <v>4000000</v>
+        <v>1220000</v>
       </c>
       <c r="J3">
-        <v>2000</v>
+        <v>100000</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>100</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -784,19 +775,19 @@
         <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>32</v>
+        <v>74</v>
       </c>
       <c r="G4" t="s">
-        <v>80</v>
+        <v>34</v>
       </c>
       <c r="H4">
-        <v>12600</v>
+        <v>72141.3</v>
       </c>
       <c r="I4">
-        <v>7000000</v>
+        <v>2079000</v>
       </c>
       <c r="J4">
-        <v>1800</v>
+        <v>34700</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -816,31 +807,31 @@
         <v>46</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>67</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="F5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G5" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="H5">
-        <v>72141.3</v>
+        <v>36196.872</v>
       </c>
       <c r="I5">
-        <v>2079000</v>
+        <v>14625000</v>
       </c>
       <c r="J5">
-        <v>34700</v>
+        <v>6000</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>100</v>
+        <v>41.25</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -854,36 +845,36 @@
         <v>47</v>
       </c>
       <c r="D6" t="s">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="E6" t="s">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>78</v>
+        <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>27</v>
+        <v>76</v>
       </c>
       <c r="H6">
-        <v>36196.872</v>
+        <v>12600</v>
       </c>
       <c r="I6">
-        <v>14625000</v>
+        <v>7000000</v>
       </c>
       <c r="J6">
-        <v>6000</v>
+        <v>1800</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>41.25</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
         <v>31</v>
@@ -892,31 +883,31 @@
         <v>48</v>
       </c>
       <c r="D7" t="s">
-        <v>70</v>
+        <v>14</v>
       </c>
       <c r="E7" t="s">
-        <v>70</v>
+        <v>14</v>
       </c>
       <c r="F7" t="s">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="G7" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="H7">
-        <v>79300</v>
+        <v>27880</v>
       </c>
       <c r="I7">
-        <v>1220000</v>
+        <v>1640000</v>
       </c>
       <c r="J7">
-        <v>100000</v>
+        <v>17000</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>65</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -924,7 +915,7 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C8" t="s">
         <v>49</v>
@@ -936,19 +927,19 @@
         <v>14</v>
       </c>
       <c r="F8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G8" t="s">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="H8">
-        <v>24960</v>
+        <v>44112</v>
       </c>
       <c r="I8">
-        <v>5200000</v>
+        <v>1470400</v>
       </c>
       <c r="J8">
-        <v>4800</v>
+        <v>30000</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -962,37 +953,37 @@
         <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D9" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E9" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F9" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="G9" t="s">
-        <v>27</v>
+        <v>84</v>
       </c>
       <c r="H9">
-        <v>4387.5</v>
+        <v>42700</v>
       </c>
       <c r="I9">
-        <v>14625000</v>
+        <v>1220000</v>
       </c>
       <c r="J9">
-        <v>6000</v>
+        <v>100000</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>5</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -1000,37 +991,37 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C10" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D10" t="s">
-        <v>70</v>
+        <v>14</v>
       </c>
       <c r="E10" t="s">
-        <v>70</v>
+        <v>14</v>
       </c>
       <c r="F10" t="s">
-        <v>79</v>
+        <v>32</v>
       </c>
       <c r="G10" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="H10">
-        <v>42700</v>
+        <v>6384</v>
       </c>
       <c r="I10">
-        <v>1220000</v>
+        <v>1596000</v>
       </c>
       <c r="J10">
-        <v>100000</v>
+        <v>4000</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>35</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1038,10 +1029,10 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D11" t="s">
         <v>14</v>
@@ -1050,19 +1041,19 @@
         <v>14</v>
       </c>
       <c r="F11" t="s">
-        <v>34</v>
+        <v>77</v>
       </c>
       <c r="G11" t="s">
-        <v>77</v>
+        <v>29</v>
       </c>
       <c r="H11">
-        <v>6384</v>
+        <v>16000</v>
       </c>
       <c r="I11">
-        <v>1596000</v>
+        <v>8000000</v>
       </c>
       <c r="J11">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -1076,22 +1067,22 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D12" t="s">
         <v>17</v>
       </c>
       <c r="E12" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F12" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G12" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H12">
         <v>121994.4706</v>
@@ -1114,66 +1105,66 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C13" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D13" t="s">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="E13" t="s">
-        <v>14</v>
+        <v>69</v>
       </c>
       <c r="F13" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="G13" t="s">
-        <v>89</v>
+        <v>26</v>
       </c>
       <c r="H13">
-        <v>44112</v>
+        <v>4387.5</v>
       </c>
       <c r="I13">
-        <v>1470400</v>
+        <v>14625000</v>
       </c>
       <c r="J13">
-        <v>30000</v>
+        <v>6000</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>100</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C14" t="s">
         <v>53</v>
       </c>
       <c r="D14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F14" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G14" t="s">
-        <v>30</v>
+        <v>87</v>
       </c>
       <c r="H14">
-        <v>16000</v>
+        <v>7000</v>
       </c>
       <c r="I14">
-        <v>8000000</v>
+        <v>3500000</v>
       </c>
       <c r="J14">
         <v>2000</v>
@@ -1187,34 +1178,34 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C15" t="s">
         <v>54</v>
       </c>
       <c r="D15" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E15" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F15" t="s">
         <v>38</v>
       </c>
       <c r="G15" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="H15">
-        <v>27880</v>
+        <v>29750</v>
       </c>
       <c r="I15">
-        <v>1640000</v>
+        <v>4250000</v>
       </c>
       <c r="J15">
-        <v>17000</v>
+        <v>7000</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1225,110 +1216,110 @@
     </row>
     <row r="16" spans="1:12">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C16" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D16" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E16" t="s">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="F16" t="s">
-        <v>82</v>
+        <v>31</v>
       </c>
       <c r="G16" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="H16">
-        <v>7000</v>
+        <v>284653.7406</v>
       </c>
       <c r="I16">
-        <v>3500000</v>
+        <v>11580800</v>
       </c>
       <c r="J16">
-        <v>2000</v>
+        <v>36200</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>100</v>
+        <v>67.90000000000001</v>
       </c>
     </row>
     <row r="17" spans="1:12">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D17" t="s">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="E17" t="s">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="F17" t="s">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="G17" t="s">
-        <v>81</v>
+        <v>32</v>
       </c>
       <c r="H17">
-        <v>29750</v>
+        <v>16000</v>
       </c>
       <c r="I17">
-        <v>4250000</v>
+        <v>1600000</v>
       </c>
       <c r="J17">
-        <v>7000</v>
+        <v>20000</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:12">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="C18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D18" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F18" t="s">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="G18" t="s">
-        <v>34</v>
+        <v>78</v>
       </c>
       <c r="H18">
-        <v>46350</v>
+        <v>39396</v>
       </c>
       <c r="I18">
-        <v>2060000</v>
+        <v>1407000</v>
       </c>
       <c r="J18">
-        <v>22500</v>
+        <v>28000</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1339,25 +1330,25 @@
     </row>
     <row r="19" spans="1:12">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="C19" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D19" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E19" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F19" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G19" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H19">
         <v>16000</v>
@@ -1377,72 +1368,72 @@
     </row>
     <row r="20" spans="1:12">
       <c r="A20" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C20" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="D20" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E20" t="s">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="F20" t="s">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="G20" t="s">
-        <v>88</v>
+        <v>31</v>
       </c>
       <c r="H20">
-        <v>284653.7406</v>
+        <v>65908.25</v>
       </c>
       <c r="I20">
-        <v>11580800</v>
+        <v>2636330</v>
       </c>
       <c r="J20">
-        <v>36200</v>
+        <v>25000</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>67.90000000000001</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:12">
       <c r="A21" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B21" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D21" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E21" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F21" t="s">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="G21" t="s">
-        <v>82</v>
+        <v>41</v>
       </c>
       <c r="H21">
-        <v>39396</v>
+        <v>20000</v>
       </c>
       <c r="I21">
-        <v>1407000</v>
+        <v>10000000</v>
       </c>
       <c r="J21">
-        <v>28000</v>
+        <v>2000</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1453,34 +1444,34 @@
     </row>
     <row r="22" spans="1:12">
       <c r="A22" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B22" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D22" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E22" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F22" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G22" t="s">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="H22">
-        <v>20000</v>
+        <v>17250</v>
       </c>
       <c r="I22">
-        <v>10000000</v>
+        <v>750000</v>
       </c>
       <c r="J22">
-        <v>2000</v>
+        <v>23000</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1491,300 +1482,300 @@
     </row>
     <row r="23" spans="1:12">
       <c r="A23" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C23" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D23" t="s">
-        <v>71</v>
+        <v>20</v>
       </c>
       <c r="E23" t="s">
-        <v>71</v>
+        <v>20</v>
       </c>
       <c r="F23" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="G23" t="s">
-        <v>34</v>
+        <v>87</v>
       </c>
       <c r="H23">
-        <v>16000</v>
+        <v>13500</v>
       </c>
       <c r="I23">
-        <v>1600000</v>
+        <v>1500000</v>
       </c>
       <c r="J23">
-        <v>20000</v>
+        <v>9000</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="24" spans="1:12">
       <c r="A24" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="C24" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="D24" t="s">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="E24" t="s">
-        <v>18</v>
+        <v>69</v>
       </c>
       <c r="F24" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="G24" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="H24">
-        <v>65908.25</v>
+        <v>6581.256</v>
       </c>
       <c r="I24">
-        <v>2636330</v>
+        <v>14625000</v>
       </c>
       <c r="J24">
-        <v>25000</v>
+        <v>6000</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>100</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="25" spans="1:12">
       <c r="A25" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B25" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="C25" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="D25" t="s">
-        <v>19</v>
+        <v>67</v>
       </c>
       <c r="E25" t="s">
-        <v>19</v>
+        <v>69</v>
       </c>
       <c r="F25" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G25" t="s">
-        <v>78</v>
+        <v>26</v>
       </c>
       <c r="H25">
-        <v>17250</v>
+        <v>36196.872</v>
       </c>
       <c r="I25">
-        <v>750000</v>
+        <v>14625000</v>
       </c>
       <c r="J25">
-        <v>23000</v>
+        <v>6000</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>100</v>
+        <v>41.25</v>
       </c>
     </row>
     <row r="26" spans="1:12">
       <c r="A26" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B26" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C26" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D26" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E26" t="s">
-        <v>20</v>
+        <v>71</v>
       </c>
       <c r="F26" t="s">
         <v>82</v>
       </c>
       <c r="G26" t="s">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="H26">
-        <v>13500</v>
+        <v>7980</v>
       </c>
       <c r="I26">
-        <v>1500000</v>
+        <v>1400000</v>
       </c>
       <c r="J26">
-        <v>9000</v>
+        <v>19000</v>
       </c>
       <c r="K26">
         <v>0</v>
       </c>
       <c r="L26">
-        <v>100</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27" spans="1:12">
       <c r="A27" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B27" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="C27" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="D27" t="s">
-        <v>69</v>
+        <v>23</v>
       </c>
       <c r="E27" t="s">
-        <v>72</v>
+        <v>23</v>
       </c>
       <c r="F27" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="G27" t="s">
-        <v>27</v>
+        <v>84</v>
       </c>
       <c r="H27">
-        <v>6581.256</v>
+        <v>14000</v>
       </c>
       <c r="I27">
-        <v>14625000</v>
+        <v>7000000</v>
       </c>
       <c r="J27">
-        <v>6000</v>
+        <v>2000</v>
       </c>
       <c r="K27">
         <v>0</v>
       </c>
       <c r="L27">
-        <v>7.5</v>
+        <v>100</v>
       </c>
     </row>
     <row r="28" spans="1:12">
       <c r="A28" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B28" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="C28" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="D28" t="s">
-        <v>69</v>
+        <v>23</v>
       </c>
       <c r="E28" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F28" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G28" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="H28">
-        <v>36196.872</v>
+        <v>18620</v>
       </c>
       <c r="I28">
-        <v>14625000</v>
+        <v>1400000</v>
       </c>
       <c r="J28">
-        <v>6000</v>
+        <v>19000</v>
       </c>
       <c r="K28">
         <v>0</v>
       </c>
       <c r="L28">
-        <v>41.25</v>
+        <v>70</v>
       </c>
     </row>
     <row r="29" spans="1:12">
       <c r="A29" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B29" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C29" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D29" t="s">
         <v>23</v>
       </c>
       <c r="E29" t="s">
-        <v>74</v>
+        <v>23</v>
       </c>
       <c r="F29" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="G29" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="H29">
-        <v>7980</v>
+        <v>11700</v>
       </c>
       <c r="I29">
-        <v>1400000</v>
+        <v>650000</v>
       </c>
       <c r="J29">
-        <v>19000</v>
+        <v>18000</v>
       </c>
       <c r="K29">
         <v>0</v>
       </c>
       <c r="L29">
-        <v>30</v>
+        <v>100</v>
       </c>
     </row>
     <row r="30" spans="1:12">
       <c r="A30" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="C30" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D30" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E30" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F30" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="G30" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H30">
-        <v>14000</v>
+        <v>36850</v>
       </c>
       <c r="I30">
-        <v>7000000</v>
+        <v>3350000</v>
       </c>
       <c r="J30">
-        <v>2000</v>
+        <v>11000</v>
       </c>
       <c r="K30">
         <v>0</v>
@@ -1795,229 +1786,115 @@
     </row>
     <row r="31" spans="1:12">
       <c r="A31" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B31" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C31" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="D31" t="s">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="E31" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="F31" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G31" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H31">
-        <v>11700</v>
+        <v>4387.5</v>
       </c>
       <c r="I31">
-        <v>650000</v>
+        <v>14625000</v>
       </c>
       <c r="J31">
-        <v>18000</v>
+        <v>6000</v>
       </c>
       <c r="K31">
         <v>0</v>
       </c>
       <c r="L31">
-        <v>100</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:12">
       <c r="A32" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B32" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C32" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="D32" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E32" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F32" t="s">
-        <v>85</v>
+        <v>31</v>
       </c>
       <c r="G32" t="s">
-        <v>42</v>
+        <v>86</v>
       </c>
       <c r="H32">
-        <v>18620</v>
+        <v>12576.7488</v>
       </c>
       <c r="I32">
-        <v>1400000</v>
+        <v>11580800</v>
       </c>
       <c r="J32">
-        <v>19000</v>
+        <v>36200</v>
       </c>
       <c r="K32">
         <v>0</v>
       </c>
       <c r="L32">
-        <v>70</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:12">
       <c r="A33" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B33" t="s">
+        <v>30</v>
+      </c>
+      <c r="C33" t="s">
+        <v>65</v>
+      </c>
+      <c r="D33" t="s">
+        <v>25</v>
+      </c>
+      <c r="E33" t="s">
+        <v>25</v>
+      </c>
+      <c r="F33" t="s">
         <v>33</v>
       </c>
-      <c r="C33" t="s">
-        <v>51</v>
-      </c>
-      <c r="D33" t="s">
-        <v>17</v>
-      </c>
-      <c r="E33" t="s">
-        <v>73</v>
-      </c>
-      <c r="F33" t="s">
-        <v>36</v>
-      </c>
       <c r="G33" t="s">
-        <v>88</v>
+        <v>31</v>
       </c>
       <c r="H33">
-        <v>12576.7488</v>
+        <v>8000</v>
       </c>
       <c r="I33">
-        <v>11580800</v>
+        <v>4000000</v>
       </c>
       <c r="J33">
-        <v>36200</v>
+        <v>2000</v>
       </c>
       <c r="K33">
         <v>0</v>
       </c>
       <c r="L33">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12">
-      <c r="A34" t="s">
-        <v>24</v>
-      </c>
-      <c r="B34" t="s">
-        <v>30</v>
-      </c>
-      <c r="C34" t="s">
-        <v>47</v>
-      </c>
-      <c r="D34" t="s">
-        <v>69</v>
-      </c>
-      <c r="E34" t="s">
-        <v>72</v>
-      </c>
-      <c r="F34" t="s">
-        <v>78</v>
-      </c>
-      <c r="G34" t="s">
-        <v>27</v>
-      </c>
-      <c r="H34">
-        <v>4387.5</v>
-      </c>
-      <c r="I34">
-        <v>14625000</v>
-      </c>
-      <c r="J34">
-        <v>6000</v>
-      </c>
-      <c r="K34">
-        <v>0</v>
-      </c>
-      <c r="L34">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12">
-      <c r="A35" t="s">
-        <v>24</v>
-      </c>
-      <c r="B35" t="s">
-        <v>34</v>
-      </c>
-      <c r="C35" t="s">
-        <v>67</v>
-      </c>
-      <c r="D35" t="s">
-        <v>24</v>
-      </c>
-      <c r="E35" t="s">
-        <v>24</v>
-      </c>
-      <c r="F35" t="s">
-        <v>80</v>
-      </c>
-      <c r="G35" t="s">
-        <v>91</v>
-      </c>
-      <c r="H35">
-        <v>36850</v>
-      </c>
-      <c r="I35">
-        <v>3350000</v>
-      </c>
-      <c r="J35">
-        <v>11000</v>
-      </c>
-      <c r="K35">
-        <v>0</v>
-      </c>
-      <c r="L35">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12">
-      <c r="A36" t="s">
-        <v>25</v>
-      </c>
-      <c r="B36" t="s">
-        <v>28</v>
-      </c>
-      <c r="C36" t="s">
-        <v>68</v>
-      </c>
-      <c r="D36" t="s">
-        <v>25</v>
-      </c>
-      <c r="E36" t="s">
-        <v>25</v>
-      </c>
-      <c r="F36" t="s">
-        <v>32</v>
-      </c>
-      <c r="G36" t="s">
-        <v>36</v>
-      </c>
-      <c r="H36">
-        <v>8000</v>
-      </c>
-      <c r="I36">
-        <v>4000000</v>
-      </c>
-      <c r="J36">
-        <v>2000</v>
-      </c>
-      <c r="K36">
-        <v>0</v>
-      </c>
-      <c r="L36">
         <v>100</v>
       </c>
     </row>

--- a/datasets/form3.xlsx
+++ b/datasets/form3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="85">
   <si>
     <t>인수기관</t>
   </si>
@@ -91,39 +91,33 @@
     <t>하이</t>
   </si>
   <si>
-    <t>한국</t>
-  </si>
-  <si>
     <t>2023-12-12</t>
   </si>
   <si>
     <t>2023-12-14</t>
   </si>
   <si>
+    <t>2023-12-01</t>
+  </si>
+  <si>
     <t>2023-11-10</t>
   </si>
   <si>
-    <t>2023-12-01</t>
-  </si>
-  <si>
-    <t>2023-11-01</t>
+    <t>2023-11-06</t>
+  </si>
+  <si>
+    <t>2023-11-08</t>
+  </si>
+  <si>
+    <t>2023-11-09</t>
   </si>
   <si>
     <t>2023-11-13</t>
   </si>
   <si>
-    <t>2023-11-09</t>
-  </si>
-  <si>
-    <t>2023-11-06</t>
-  </si>
-  <si>
     <t>2023-11-21</t>
   </si>
   <si>
-    <t>2023-11-08</t>
-  </si>
-  <si>
     <t>2023-11-23</t>
   </si>
   <si>
@@ -151,30 +145,27 @@
     <t>DS단석</t>
   </si>
   <si>
+    <t>LS머트리얼즈</t>
+  </si>
+  <si>
     <t>에코아이</t>
   </si>
   <si>
-    <t>LS머트리얼즈</t>
-  </si>
-  <si>
-    <t>에스와이스틸텍</t>
+    <t>캡스톤파트너스</t>
+  </si>
+  <si>
+    <t>에코프로머티</t>
+  </si>
+  <si>
+    <t>동인기연</t>
   </si>
   <si>
     <t>그린리소스</t>
   </si>
   <si>
-    <t>동인기연</t>
-  </si>
-  <si>
-    <t>캡스톤파트너스</t>
-  </si>
-  <si>
     <t>엔에이치스팩30호</t>
   </si>
   <si>
-    <t>에코프로머티</t>
-  </si>
-  <si>
     <t>교보15호스팩</t>
   </si>
   <si>
@@ -187,12 +178,12 @@
     <t>에이에스텍</t>
   </si>
   <si>
+    <t>삼성스팩9호</t>
+  </si>
+  <si>
     <t>에이직랜드</t>
   </si>
   <si>
-    <t>삼성스팩9호</t>
-  </si>
-  <si>
     <t>케이엔에스</t>
   </si>
   <si>
@@ -211,9 +202,6 @@
     <t>스톰테크</t>
   </si>
   <si>
-    <t>한국제13호스팩</t>
-  </si>
-  <si>
     <t>KB, NH</t>
   </si>
   <si>
@@ -238,12 +226,12 @@
     <t>2023-12-19</t>
   </si>
   <si>
+    <t>2023-12-06</t>
+  </si>
+  <si>
     <t>2023-11-15</t>
   </si>
   <si>
-    <t>2023-12-06</t>
-  </si>
-  <si>
     <t>2023-11-14</t>
   </si>
   <si>
@@ -271,10 +259,10 @@
     <t>2023-12-22</t>
   </si>
   <si>
+    <t>2023-11-17</t>
+  </si>
+  <si>
     <t>2023-11-22</t>
-  </si>
-  <si>
-    <t>2023-11-17</t>
   </si>
   <si>
     <t>2023-12-05</t>
@@ -638,7 +626,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L33"/>
+  <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -687,10 +675,10 @@
         <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
@@ -699,10 +687,10 @@
         <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="G2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="H2">
         <v>8000</v>
@@ -725,22 +713,22 @@
         <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="G3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="H3">
         <v>79300</v>
@@ -763,37 +751,37 @@
         <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="F4" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G4" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="H4">
-        <v>72141.3</v>
+        <v>36196.872</v>
       </c>
       <c r="I4">
-        <v>2079000</v>
+        <v>14625000</v>
       </c>
       <c r="J4">
-        <v>34700</v>
+        <v>6000</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>100</v>
+        <v>41.25</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -801,75 +789,75 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D5" t="s">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="F5" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G5" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="H5">
-        <v>36196.872</v>
+        <v>72141.3</v>
       </c>
       <c r="I5">
-        <v>14625000</v>
+        <v>2079000</v>
       </c>
       <c r="J5">
-        <v>6000</v>
+        <v>34700</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>41.25</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="F6" t="s">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="G6" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="H6">
-        <v>12600</v>
+        <v>42700</v>
       </c>
       <c r="I6">
-        <v>7000000</v>
+        <v>1220000</v>
       </c>
       <c r="J6">
-        <v>1800</v>
+        <v>100000</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>100</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -877,10 +865,10 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D7" t="s">
         <v>14</v>
@@ -889,19 +877,19 @@
         <v>14</v>
       </c>
       <c r="F7" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G7" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="H7">
-        <v>27880</v>
+        <v>6384</v>
       </c>
       <c r="I7">
-        <v>1640000</v>
+        <v>1596000</v>
       </c>
       <c r="J7">
-        <v>17000</v>
+        <v>4000</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -915,37 +903,37 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" t="s">
+        <v>66</v>
+      </c>
+      <c r="F8" t="s">
         <v>32</v>
       </c>
-      <c r="C8" t="s">
-        <v>49</v>
-      </c>
-      <c r="D8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" t="s">
-        <v>76</v>
-      </c>
       <c r="G8" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="H8">
-        <v>44112</v>
+        <v>121994.4706</v>
       </c>
       <c r="I8">
-        <v>1470400</v>
+        <v>11580800</v>
       </c>
       <c r="J8">
-        <v>30000</v>
+        <v>36200</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>100</v>
+        <v>29.1</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -956,34 +944,34 @@
         <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D9" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F9" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G9" t="s">
-        <v>84</v>
+        <v>25</v>
       </c>
       <c r="H9">
-        <v>42700</v>
+        <v>4387.5</v>
       </c>
       <c r="I9">
-        <v>1220000</v>
+        <v>14625000</v>
       </c>
       <c r="J9">
-        <v>100000</v>
+        <v>6000</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>35</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -991,10 +979,10 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C10" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D10" t="s">
         <v>14</v>
@@ -1003,19 +991,19 @@
         <v>14</v>
       </c>
       <c r="F10" t="s">
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="G10" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="H10">
-        <v>6384</v>
+        <v>44112</v>
       </c>
       <c r="I10">
-        <v>1596000</v>
+        <v>1470400</v>
       </c>
       <c r="J10">
-        <v>4000</v>
+        <v>30000</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1029,10 +1017,10 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C11" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D11" t="s">
         <v>14</v>
@@ -1041,19 +1029,19 @@
         <v>14</v>
       </c>
       <c r="F11" t="s">
-        <v>77</v>
+        <v>36</v>
       </c>
       <c r="G11" t="s">
-        <v>29</v>
+        <v>73</v>
       </c>
       <c r="H11">
-        <v>16000</v>
+        <v>27880</v>
       </c>
       <c r="I11">
-        <v>8000000</v>
+        <v>1640000</v>
       </c>
       <c r="J11">
-        <v>2000</v>
+        <v>17000</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -1067,107 +1055,107 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C12" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D12" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E12" t="s">
-        <v>70</v>
+        <v>14</v>
       </c>
       <c r="F12" t="s">
-        <v>31</v>
+        <v>73</v>
       </c>
       <c r="G12" t="s">
-        <v>86</v>
+        <v>27</v>
       </c>
       <c r="H12">
-        <v>121994.4706</v>
+        <v>16000</v>
       </c>
       <c r="I12">
-        <v>11580800</v>
+        <v>8000000</v>
       </c>
       <c r="J12">
-        <v>36200</v>
+        <v>2000</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>29.1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C13" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D13" t="s">
-        <v>67</v>
+        <v>15</v>
       </c>
       <c r="E13" t="s">
-        <v>69</v>
+        <v>15</v>
       </c>
       <c r="F13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G13" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
       <c r="H13">
-        <v>4387.5</v>
+        <v>7000</v>
       </c>
       <c r="I13">
-        <v>14625000</v>
+        <v>3500000</v>
       </c>
       <c r="J13">
-        <v>6000</v>
+        <v>2000</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>5</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" t="s">
         <v>36</v>
       </c>
-      <c r="C14" t="s">
-        <v>53</v>
-      </c>
-      <c r="D14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E14" t="s">
-        <v>15</v>
-      </c>
-      <c r="F14" t="s">
-        <v>78</v>
-      </c>
       <c r="G14" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="H14">
+        <v>29750</v>
+      </c>
+      <c r="I14">
+        <v>4250000</v>
+      </c>
+      <c r="J14">
         <v>7000</v>
-      </c>
-      <c r="I14">
-        <v>3500000</v>
-      </c>
-      <c r="J14">
-        <v>2000</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1178,40 +1166,40 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" t="s">
+        <v>64</v>
+      </c>
+      <c r="E15" t="s">
+        <v>64</v>
+      </c>
+      <c r="F15" t="s">
+        <v>75</v>
+      </c>
+      <c r="G15" t="s">
         <v>31</v>
       </c>
-      <c r="C15" t="s">
-        <v>54</v>
-      </c>
-      <c r="D15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E15" t="s">
-        <v>16</v>
-      </c>
-      <c r="F15" t="s">
-        <v>38</v>
-      </c>
-      <c r="G15" t="s">
-        <v>77</v>
-      </c>
       <c r="H15">
-        <v>29750</v>
+        <v>16000</v>
       </c>
       <c r="I15">
-        <v>4250000</v>
+        <v>1600000</v>
       </c>
       <c r="J15">
-        <v>7000</v>
+        <v>20000</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -1219,22 +1207,22 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C16" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D16" t="s">
         <v>17</v>
       </c>
       <c r="E16" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G16" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="H16">
         <v>284653.7406</v>
@@ -1257,69 +1245,69 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C17" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D17" t="s">
-        <v>68</v>
+        <v>17</v>
       </c>
       <c r="E17" t="s">
-        <v>68</v>
+        <v>17</v>
       </c>
       <c r="F17" t="s">
-        <v>79</v>
+        <v>33</v>
       </c>
       <c r="G17" t="s">
-        <v>32</v>
+        <v>74</v>
       </c>
       <c r="H17">
-        <v>16000</v>
+        <v>39396</v>
       </c>
       <c r="I17">
-        <v>1600000</v>
+        <v>1407000</v>
       </c>
       <c r="J17">
-        <v>20000</v>
+        <v>28000</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:12">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C18" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D18" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E18" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F18" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="G18" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="H18">
-        <v>39396</v>
+        <v>20000</v>
       </c>
       <c r="I18">
-        <v>1407000</v>
+        <v>10000000</v>
       </c>
       <c r="J18">
-        <v>28000</v>
+        <v>2000</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1333,22 +1321,22 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C19" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D19" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E19" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F19" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="G19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H19">
         <v>16000</v>
@@ -1371,10 +1359,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D20" t="s">
         <v>18</v>
@@ -1383,10 +1371,10 @@
         <v>18</v>
       </c>
       <c r="F20" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="G20" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H20">
         <v>65908.25</v>
@@ -1406,34 +1394,34 @@
     </row>
     <row r="21" spans="1:12">
       <c r="A21" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C21" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D21" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E21" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F21" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G21" t="s">
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="H21">
-        <v>20000</v>
+        <v>17250</v>
       </c>
       <c r="I21">
-        <v>10000000</v>
+        <v>750000</v>
       </c>
       <c r="J21">
-        <v>2000</v>
+        <v>23000</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1444,34 +1432,34 @@
     </row>
     <row r="22" spans="1:12">
       <c r="A22" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C22" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D22" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E22" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F22" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="G22" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="H22">
-        <v>17250</v>
+        <v>13500</v>
       </c>
       <c r="I22">
-        <v>750000</v>
+        <v>1500000</v>
       </c>
       <c r="J22">
-        <v>23000</v>
+        <v>9000</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1482,78 +1470,78 @@
     </row>
     <row r="23" spans="1:12">
       <c r="A23" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="C23" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="D23" t="s">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="E23" t="s">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="F23" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="G23" t="s">
-        <v>87</v>
+        <v>25</v>
       </c>
       <c r="H23">
-        <v>13500</v>
+        <v>6581.256</v>
       </c>
       <c r="I23">
-        <v>1500000</v>
+        <v>14625000</v>
       </c>
       <c r="J23">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>100</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="24" spans="1:12">
       <c r="A24" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C24" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="D24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
         <v>67</v>
       </c>
-      <c r="E24" t="s">
-        <v>69</v>
-      </c>
       <c r="F24" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="G24" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="H24">
-        <v>6581.256</v>
+        <v>7980</v>
       </c>
       <c r="I24">
-        <v>14625000</v>
+        <v>1400000</v>
       </c>
       <c r="J24">
-        <v>6000</v>
+        <v>19000</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>7.5</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1561,22 +1549,22 @@
         <v>22</v>
       </c>
       <c r="B25" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C25" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D25" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E25" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F25" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="G25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H25">
         <v>36196.872</v>
@@ -1596,28 +1584,28 @@
     </row>
     <row r="26" spans="1:12">
       <c r="A26" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B26" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C26" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D26" t="s">
         <v>23</v>
       </c>
       <c r="E26" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F26" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G26" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H26">
-        <v>7980</v>
+        <v>18620</v>
       </c>
       <c r="I26">
         <v>1400000</v>
@@ -1629,7 +1617,7 @@
         <v>0</v>
       </c>
       <c r="L26">
-        <v>30</v>
+        <v>70</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -1637,10 +1625,10 @@
         <v>23</v>
       </c>
       <c r="B27" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C27" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D27" t="s">
         <v>23</v>
@@ -1649,10 +1637,10 @@
         <v>23</v>
       </c>
       <c r="F27" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="G27" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="H27">
         <v>14000</v>
@@ -1675,69 +1663,69 @@
         <v>23</v>
       </c>
       <c r="B28" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C28" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D28" t="s">
         <v>23</v>
       </c>
       <c r="E28" t="s">
-        <v>71</v>
+        <v>23</v>
       </c>
       <c r="F28" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="G28" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="H28">
-        <v>18620</v>
+        <v>11700</v>
       </c>
       <c r="I28">
-        <v>1400000</v>
+        <v>650000</v>
       </c>
       <c r="J28">
-        <v>19000</v>
+        <v>18000</v>
       </c>
       <c r="K28">
         <v>0</v>
       </c>
       <c r="L28">
-        <v>70</v>
+        <v>100</v>
       </c>
     </row>
     <row r="29" spans="1:12">
       <c r="A29" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C29" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D29" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E29" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F29" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="G29" t="s">
-        <v>29</v>
+        <v>84</v>
       </c>
       <c r="H29">
-        <v>11700</v>
+        <v>36850</v>
       </c>
       <c r="I29">
-        <v>650000</v>
+        <v>3350000</v>
       </c>
       <c r="J29">
-        <v>18000</v>
+        <v>11000</v>
       </c>
       <c r="K29">
         <v>0</v>
@@ -1751,37 +1739,37 @@
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C30" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="D30" t="s">
-        <v>24</v>
+        <v>63</v>
       </c>
       <c r="E30" t="s">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="F30" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="G30" t="s">
-        <v>88</v>
+        <v>25</v>
       </c>
       <c r="H30">
-        <v>36850</v>
+        <v>4387.5</v>
       </c>
       <c r="I30">
-        <v>3350000</v>
+        <v>14625000</v>
       </c>
       <c r="J30">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="K30">
         <v>0</v>
       </c>
       <c r="L30">
-        <v>100</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -1789,113 +1777,37 @@
         <v>24</v>
       </c>
       <c r="B31" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C31" t="s">
         <v>46</v>
       </c>
       <c r="D31" t="s">
-        <v>67</v>
+        <v>17</v>
       </c>
       <c r="E31" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F31" t="s">
-        <v>75</v>
+        <v>32</v>
       </c>
       <c r="G31" t="s">
-        <v>26</v>
+        <v>81</v>
       </c>
       <c r="H31">
-        <v>4387.5</v>
+        <v>12576.7488</v>
       </c>
       <c r="I31">
-        <v>14625000</v>
+        <v>11580800</v>
       </c>
       <c r="J31">
-        <v>6000</v>
+        <v>36200</v>
       </c>
       <c r="K31">
         <v>0</v>
       </c>
       <c r="L31">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12">
-      <c r="A32" t="s">
-        <v>24</v>
-      </c>
-      <c r="B32" t="s">
-        <v>35</v>
-      </c>
-      <c r="C32" t="s">
-        <v>52</v>
-      </c>
-      <c r="D32" t="s">
-        <v>17</v>
-      </c>
-      <c r="E32" t="s">
-        <v>70</v>
-      </c>
-      <c r="F32" t="s">
-        <v>31</v>
-      </c>
-      <c r="G32" t="s">
-        <v>86</v>
-      </c>
-      <c r="H32">
-        <v>12576.7488</v>
-      </c>
-      <c r="I32">
-        <v>11580800</v>
-      </c>
-      <c r="J32">
-        <v>36200</v>
-      </c>
-      <c r="K32">
-        <v>0</v>
-      </c>
-      <c r="L32">
         <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12">
-      <c r="A33" t="s">
-        <v>25</v>
-      </c>
-      <c r="B33" t="s">
-        <v>30</v>
-      </c>
-      <c r="C33" t="s">
-        <v>65</v>
-      </c>
-      <c r="D33" t="s">
-        <v>25</v>
-      </c>
-      <c r="E33" t="s">
-        <v>25</v>
-      </c>
-      <c r="F33" t="s">
-        <v>33</v>
-      </c>
-      <c r="G33" t="s">
-        <v>31</v>
-      </c>
-      <c r="H33">
-        <v>8000</v>
-      </c>
-      <c r="I33">
-        <v>4000000</v>
-      </c>
-      <c r="J33">
-        <v>2000</v>
-      </c>
-      <c r="K33">
-        <v>0</v>
-      </c>
-      <c r="L33">
-        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/form3.xlsx
+++ b/datasets/form3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="82">
   <si>
     <t>인수기관</t>
   </si>
@@ -121,15 +121,12 @@
     <t>2023-11-23</t>
   </si>
   <si>
+    <t>2023-11-16</t>
+  </si>
+  <si>
     <t>2023-10-31</t>
   </si>
   <si>
-    <t>2023-11-16</t>
-  </si>
-  <si>
-    <t>2023-11-02</t>
-  </si>
-  <si>
     <t>2023-11-27</t>
   </si>
   <si>
@@ -172,18 +169,15 @@
     <t>한선엔지니어링</t>
   </si>
   <si>
+    <t>에이에스텍</t>
+  </si>
+  <si>
     <t>큐로셀</t>
   </si>
   <si>
-    <t>에이에스텍</t>
-  </si>
-  <si>
     <t>삼성스팩9호</t>
   </si>
   <si>
-    <t>에이직랜드</t>
-  </si>
-  <si>
     <t>케이엔에스</t>
   </si>
   <si>
@@ -242,9 +236,6 @@
   </si>
   <si>
     <t>2023-11-03</t>
-  </si>
-  <si>
-    <t>2023-11-07</t>
   </si>
   <si>
     <t>2023-11-30</t>
@@ -626,7 +617,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L31"/>
+  <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -678,7 +669,7 @@
         <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
@@ -687,10 +678,10 @@
         <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="H2">
         <v>8000</v>
@@ -716,19 +707,19 @@
         <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="H3">
         <v>79300</v>
@@ -754,16 +745,16 @@
         <v>27</v>
       </c>
       <c r="C4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E4" t="s">
         <v>63</v>
       </c>
-      <c r="E4" t="s">
-        <v>65</v>
-      </c>
       <c r="F4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G4" t="s">
         <v>25</v>
@@ -792,7 +783,7 @@
         <v>28</v>
       </c>
       <c r="C5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D5" t="s">
         <v>13</v>
@@ -801,7 +792,7 @@
         <v>13</v>
       </c>
       <c r="F5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G5" t="s">
         <v>33</v>
@@ -830,19 +821,19 @@
         <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G6" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="H6">
         <v>42700</v>
@@ -868,7 +859,7 @@
         <v>29</v>
       </c>
       <c r="C7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D7" t="s">
         <v>14</v>
@@ -880,7 +871,7 @@
         <v>31</v>
       </c>
       <c r="G7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H7">
         <v>6384</v>
@@ -906,19 +897,19 @@
         <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D8" t="s">
         <v>17</v>
       </c>
       <c r="E8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F8" t="s">
         <v>32</v>
       </c>
       <c r="G8" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H8">
         <v>121994.4706</v>
@@ -941,37 +932,37 @@
         <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C9" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D9" t="s">
-        <v>63</v>
+        <v>14</v>
       </c>
       <c r="E9" t="s">
-        <v>65</v>
+        <v>14</v>
       </c>
       <c r="F9" t="s">
         <v>70</v>
       </c>
       <c r="G9" t="s">
-        <v>25</v>
+        <v>79</v>
       </c>
       <c r="H9">
-        <v>4387.5</v>
+        <v>44112</v>
       </c>
       <c r="I9">
-        <v>14625000</v>
+        <v>1470400</v>
       </c>
       <c r="J9">
-        <v>6000</v>
+        <v>30000</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>5</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -979,37 +970,37 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C10" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="E10" t="s">
-        <v>14</v>
+        <v>63</v>
       </c>
       <c r="F10" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="G10" t="s">
-        <v>82</v>
+        <v>25</v>
       </c>
       <c r="H10">
-        <v>44112</v>
+        <v>4387.5</v>
       </c>
       <c r="I10">
-        <v>1470400</v>
+        <v>14625000</v>
       </c>
       <c r="J10">
-        <v>30000</v>
+        <v>6000</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>100</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1020,7 +1011,7 @@
         <v>32</v>
       </c>
       <c r="C11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D11" t="s">
         <v>14</v>
@@ -1029,10 +1020,10 @@
         <v>14</v>
       </c>
       <c r="F11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H11">
         <v>27880</v>
@@ -1058,7 +1049,7 @@
         <v>33</v>
       </c>
       <c r="C12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D12" t="s">
         <v>14</v>
@@ -1067,7 +1058,7 @@
         <v>14</v>
       </c>
       <c r="F12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G12" t="s">
         <v>27</v>
@@ -1096,7 +1087,7 @@
         <v>34</v>
       </c>
       <c r="C13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D13" t="s">
         <v>15</v>
@@ -1105,10 +1096,10 @@
         <v>15</v>
       </c>
       <c r="F13" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G13" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="H13">
         <v>7000</v>
@@ -1134,7 +1125,7 @@
         <v>32</v>
       </c>
       <c r="C14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D14" t="s">
         <v>16</v>
@@ -1143,10 +1134,10 @@
         <v>16</v>
       </c>
       <c r="F14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G14" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H14">
         <v>29750</v>
@@ -1169,37 +1160,37 @@
         <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C15" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="D15" t="s">
-        <v>64</v>
+        <v>17</v>
       </c>
       <c r="E15" t="s">
         <v>64</v>
       </c>
       <c r="F15" t="s">
-        <v>75</v>
+        <v>32</v>
       </c>
       <c r="G15" t="s">
-        <v>31</v>
+        <v>78</v>
       </c>
       <c r="H15">
-        <v>16000</v>
+        <v>284653.7406</v>
       </c>
       <c r="I15">
-        <v>1600000</v>
+        <v>11580800</v>
       </c>
       <c r="J15">
-        <v>20000</v>
+        <v>36200</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>50</v>
+        <v>67.90000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -1207,37 +1198,37 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C16" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D16" t="s">
         <v>17</v>
       </c>
       <c r="E16" t="s">
-        <v>66</v>
+        <v>17</v>
       </c>
       <c r="F16" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G16" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="H16">
-        <v>284653.7406</v>
+        <v>39396</v>
       </c>
       <c r="I16">
-        <v>11580800</v>
+        <v>1407000</v>
       </c>
       <c r="J16">
-        <v>36200</v>
+        <v>28000</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>67.90000000000001</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -1248,34 +1239,34 @@
         <v>36</v>
       </c>
       <c r="C17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D17" t="s">
-        <v>17</v>
+        <v>62</v>
       </c>
       <c r="E17" t="s">
-        <v>17</v>
+        <v>62</v>
       </c>
       <c r="F17" t="s">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="G17" t="s">
-        <v>74</v>
+        <v>31</v>
       </c>
       <c r="H17">
-        <v>39396</v>
+        <v>16000</v>
       </c>
       <c r="I17">
-        <v>1407000</v>
+        <v>1600000</v>
       </c>
       <c r="J17">
-        <v>28000</v>
+        <v>20000</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1286,7 +1277,7 @@
         <v>34</v>
       </c>
       <c r="C18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D18" t="s">
         <v>18</v>
@@ -1295,10 +1286,10 @@
         <v>18</v>
       </c>
       <c r="F18" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H18">
         <v>20000</v>
@@ -1321,19 +1312,19 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C19" t="s">
         <v>52</v>
       </c>
       <c r="D19" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E19" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F19" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G19" t="s">
         <v>31</v>
@@ -1356,34 +1347,34 @@
     </row>
     <row r="20" spans="1:12">
       <c r="A20" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B20" t="s">
         <v>37</v>
       </c>
       <c r="C20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D20" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G20" t="s">
-        <v>32</v>
+        <v>68</v>
       </c>
       <c r="H20">
-        <v>65908.25</v>
+        <v>17250</v>
       </c>
       <c r="I20">
-        <v>2636330</v>
+        <v>750000</v>
       </c>
       <c r="J20">
-        <v>25000</v>
+        <v>23000</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1394,34 +1385,34 @@
     </row>
     <row r="21" spans="1:12">
       <c r="A21" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D21" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F21" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="G21" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="H21">
-        <v>17250</v>
+        <v>13500</v>
       </c>
       <c r="I21">
-        <v>750000</v>
+        <v>1500000</v>
       </c>
       <c r="J21">
-        <v>23000</v>
+        <v>9000</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1432,78 +1423,78 @@
     </row>
     <row r="22" spans="1:12">
       <c r="A22" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C22" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="D22" t="s">
-        <v>20</v>
+        <v>61</v>
       </c>
       <c r="E22" t="s">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="F22" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="G22" t="s">
-        <v>83</v>
+        <v>25</v>
       </c>
       <c r="H22">
-        <v>13500</v>
+        <v>6581.256</v>
       </c>
       <c r="I22">
-        <v>1500000</v>
+        <v>14625000</v>
       </c>
       <c r="J22">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>100</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="23" spans="1:12">
       <c r="A23" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="C23" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="D23" t="s">
-        <v>63</v>
+        <v>23</v>
       </c>
       <c r="E23" t="s">
         <v>65</v>
       </c>
       <c r="F23" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="G23" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="H23">
-        <v>6581.256</v>
+        <v>7980</v>
       </c>
       <c r="I23">
-        <v>14625000</v>
+        <v>1400000</v>
       </c>
       <c r="J23">
-        <v>6000</v>
+        <v>19000</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>7.5</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1511,75 +1502,75 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="C24" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="D24" t="s">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="E24" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F24" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="G24" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="H24">
-        <v>7980</v>
+        <v>36196.872</v>
       </c>
       <c r="I24">
-        <v>1400000</v>
+        <v>14625000</v>
       </c>
       <c r="J24">
-        <v>19000</v>
+        <v>6000</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>30</v>
+        <v>41.25</v>
       </c>
     </row>
     <row r="25" spans="1:12">
       <c r="A25" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="C25" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="D25" t="s">
-        <v>63</v>
+        <v>23</v>
       </c>
       <c r="E25" t="s">
         <v>65</v>
       </c>
       <c r="F25" t="s">
+        <v>75</v>
+      </c>
+      <c r="G25" t="s">
+        <v>39</v>
+      </c>
+      <c r="H25">
+        <v>18620</v>
+      </c>
+      <c r="I25">
+        <v>1400000</v>
+      </c>
+      <c r="J25">
+        <v>19000</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
         <v>70</v>
-      </c>
-      <c r="G25" t="s">
-        <v>25</v>
-      </c>
-      <c r="H25">
-        <v>36196.872</v>
-      </c>
-      <c r="I25">
-        <v>14625000</v>
-      </c>
-      <c r="J25">
-        <v>6000</v>
-      </c>
-      <c r="K25">
-        <v>0</v>
-      </c>
-      <c r="L25">
-        <v>41.25</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -1590,34 +1581,34 @@
         <v>39</v>
       </c>
       <c r="C26" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D26" t="s">
         <v>23</v>
       </c>
       <c r="E26" t="s">
-        <v>67</v>
+        <v>23</v>
       </c>
       <c r="F26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G26" t="s">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="H26">
-        <v>18620</v>
+        <v>14000</v>
       </c>
       <c r="I26">
-        <v>1400000</v>
+        <v>7000000</v>
       </c>
       <c r="J26">
-        <v>19000</v>
+        <v>2000</v>
       </c>
       <c r="K26">
         <v>0</v>
       </c>
       <c r="L26">
-        <v>70</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -1625,10 +1616,10 @@
         <v>23</v>
       </c>
       <c r="B27" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C27" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D27" t="s">
         <v>23</v>
@@ -1637,19 +1628,19 @@
         <v>23</v>
       </c>
       <c r="F27" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="G27" t="s">
-        <v>80</v>
+        <v>27</v>
       </c>
       <c r="H27">
-        <v>14000</v>
+        <v>11700</v>
       </c>
       <c r="I27">
-        <v>7000000</v>
+        <v>650000</v>
       </c>
       <c r="J27">
-        <v>2000</v>
+        <v>18000</v>
       </c>
       <c r="K27">
         <v>0</v>
@@ -1660,34 +1651,34 @@
     </row>
     <row r="28" spans="1:12">
       <c r="A28" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C28" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D28" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E28" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F28" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G28" t="s">
-        <v>27</v>
+        <v>81</v>
       </c>
       <c r="H28">
-        <v>11700</v>
+        <v>36850</v>
       </c>
       <c r="I28">
-        <v>650000</v>
+        <v>3350000</v>
       </c>
       <c r="J28">
-        <v>18000</v>
+        <v>11000</v>
       </c>
       <c r="K28">
         <v>0</v>
@@ -1701,37 +1692,37 @@
         <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C29" t="s">
+        <v>42</v>
+      </c>
+      <c r="D29" t="s">
         <v>61</v>
       </c>
-      <c r="D29" t="s">
-        <v>24</v>
-      </c>
       <c r="E29" t="s">
-        <v>24</v>
+        <v>63</v>
       </c>
       <c r="F29" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="G29" t="s">
-        <v>84</v>
+        <v>25</v>
       </c>
       <c r="H29">
-        <v>36850</v>
+        <v>4387.5</v>
       </c>
       <c r="I29">
-        <v>3350000</v>
+        <v>14625000</v>
       </c>
       <c r="J29">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="K29">
         <v>0</v>
       </c>
       <c r="L29">
-        <v>100</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -1739,74 +1730,36 @@
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C30" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D30" t="s">
-        <v>63</v>
+        <v>17</v>
       </c>
       <c r="E30" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F30" t="s">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="G30" t="s">
-        <v>25</v>
+        <v>78</v>
       </c>
       <c r="H30">
-        <v>4387.5</v>
+        <v>12576.7488</v>
       </c>
       <c r="I30">
-        <v>14625000</v>
+        <v>11580800</v>
       </c>
       <c r="J30">
-        <v>6000</v>
+        <v>36200</v>
       </c>
       <c r="K30">
         <v>0</v>
       </c>
       <c r="L30">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12">
-      <c r="A31" t="s">
-        <v>24</v>
-      </c>
-      <c r="B31" t="s">
-        <v>30</v>
-      </c>
-      <c r="C31" t="s">
-        <v>46</v>
-      </c>
-      <c r="D31" t="s">
-        <v>17</v>
-      </c>
-      <c r="E31" t="s">
-        <v>66</v>
-      </c>
-      <c r="F31" t="s">
-        <v>32</v>
-      </c>
-      <c r="G31" t="s">
-        <v>81</v>
-      </c>
-      <c r="H31">
-        <v>12576.7488</v>
-      </c>
-      <c r="I31">
-        <v>11580800</v>
-      </c>
-      <c r="J31">
-        <v>36200</v>
-      </c>
-      <c r="K31">
-        <v>0</v>
-      </c>
-      <c r="L31">
         <v>3</v>
       </c>
     </row>

--- a/datasets/form3.xlsx
+++ b/datasets/form3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="78">
   <si>
     <t>인수기관</t>
   </si>
@@ -97,36 +97,33 @@
     <t>2023-12-14</t>
   </si>
   <si>
+    <t>2023-11-10</t>
+  </si>
+  <si>
     <t>2023-12-01</t>
   </si>
   <si>
-    <t>2023-11-10</t>
+    <t>2023-11-08</t>
+  </si>
+  <si>
+    <t>2023-11-09</t>
+  </si>
+  <si>
+    <t>2023-11-13</t>
+  </si>
+  <si>
+    <t>2023-11-21</t>
   </si>
   <si>
     <t>2023-11-06</t>
   </si>
   <si>
-    <t>2023-11-08</t>
-  </si>
-  <si>
-    <t>2023-11-09</t>
-  </si>
-  <si>
-    <t>2023-11-13</t>
-  </si>
-  <si>
-    <t>2023-11-21</t>
-  </si>
-  <si>
     <t>2023-11-23</t>
   </si>
   <si>
     <t>2023-11-16</t>
   </si>
   <si>
-    <t>2023-10-31</t>
-  </si>
-  <si>
     <t>2023-11-27</t>
   </si>
   <si>
@@ -142,27 +139,27 @@
     <t>DS단석</t>
   </si>
   <si>
+    <t>에코아이</t>
+  </si>
+  <si>
     <t>LS머트리얼즈</t>
   </si>
   <si>
-    <t>에코아이</t>
+    <t>에코프로머티</t>
+  </si>
+  <si>
+    <t>동인기연</t>
+  </si>
+  <si>
+    <t>그린리소스</t>
+  </si>
+  <si>
+    <t>엔에이치스팩30호</t>
   </si>
   <si>
     <t>캡스톤파트너스</t>
   </si>
   <si>
-    <t>에코프로머티</t>
-  </si>
-  <si>
-    <t>동인기연</t>
-  </si>
-  <si>
-    <t>그린리소스</t>
-  </si>
-  <si>
-    <t>엔에이치스팩30호</t>
-  </si>
-  <si>
     <t>교보15호스팩</t>
   </si>
   <si>
@@ -172,9 +169,6 @@
     <t>에이에스텍</t>
   </si>
   <si>
-    <t>큐로셀</t>
-  </si>
-  <si>
     <t>삼성스팩9호</t>
   </si>
   <si>
@@ -187,12 +181,12 @@
     <t>블루엠텍</t>
   </si>
   <si>
+    <t>에이텀</t>
+  </si>
+  <si>
     <t>하나30호스팩</t>
   </si>
   <si>
-    <t>에이텀</t>
-  </si>
-  <si>
     <t>스톰테크</t>
   </si>
   <si>
@@ -202,9 +196,6 @@
     <t>키움, KB</t>
   </si>
   <si>
-    <t>미래, 삼성</t>
-  </si>
-  <si>
     <t>키움, KB, 이베스트, 하이, NH</t>
   </si>
   <si>
@@ -220,12 +211,12 @@
     <t>2023-12-19</t>
   </si>
   <si>
+    <t>2023-11-15</t>
+  </si>
+  <si>
     <t>2023-12-06</t>
   </si>
   <si>
-    <t>2023-11-15</t>
-  </si>
-  <si>
     <t>2023-11-14</t>
   </si>
   <si>
@@ -233,9 +224,6 @@
   </si>
   <si>
     <t>2023-11-28</t>
-  </si>
-  <si>
-    <t>2023-11-03</t>
   </si>
   <si>
     <t>2023-11-30</t>
@@ -617,7 +605,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L30"/>
+  <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -669,7 +657,7 @@
         <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
@@ -678,10 +666,10 @@
         <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="H2">
         <v>8000</v>
@@ -707,19 +695,19 @@
         <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G3" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="H3">
         <v>79300</v>
@@ -745,34 +733,34 @@
         <v>27</v>
       </c>
       <c r="C4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D4" t="s">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G4" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="H4">
-        <v>36196.872</v>
+        <v>72141.3</v>
       </c>
       <c r="I4">
-        <v>14625000</v>
+        <v>2079000</v>
       </c>
       <c r="J4">
-        <v>6000</v>
+        <v>34700</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>41.25</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -783,34 +771,34 @@
         <v>28</v>
       </c>
       <c r="C5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="F5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G5" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="H5">
-        <v>72141.3</v>
+        <v>36196.872</v>
       </c>
       <c r="I5">
-        <v>2079000</v>
+        <v>14625000</v>
       </c>
       <c r="J5">
-        <v>34700</v>
+        <v>6000</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>100</v>
+        <v>41.25</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -818,37 +806,37 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D6" t="s">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="E6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F6" t="s">
-        <v>67</v>
+        <v>31</v>
       </c>
       <c r="G6" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="H6">
-        <v>42700</v>
+        <v>121994.4706</v>
       </c>
       <c r="I6">
-        <v>1220000</v>
+        <v>11580800</v>
       </c>
       <c r="J6">
-        <v>100000</v>
+        <v>36200</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>35</v>
+        <v>29.1</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -856,7 +844,7 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C7" t="s">
         <v>44</v>
@@ -868,19 +856,19 @@
         <v>14</v>
       </c>
       <c r="F7" t="s">
-        <v>31</v>
+        <v>67</v>
       </c>
       <c r="G7" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="H7">
-        <v>6384</v>
+        <v>44112</v>
       </c>
       <c r="I7">
-        <v>1596000</v>
+        <v>1470400</v>
       </c>
       <c r="J7">
-        <v>4000</v>
+        <v>30000</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -894,37 +882,37 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s">
         <v>45</v>
       </c>
       <c r="D8" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E8" t="s">
-        <v>64</v>
+        <v>14</v>
       </c>
       <c r="F8" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="H8">
-        <v>121994.4706</v>
+        <v>27880</v>
       </c>
       <c r="I8">
-        <v>11580800</v>
+        <v>1640000</v>
       </c>
       <c r="J8">
-        <v>36200</v>
+        <v>17000</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>29.1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -932,7 +920,7 @@
         <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C9" t="s">
         <v>46</v>
@@ -944,19 +932,19 @@
         <v>14</v>
       </c>
       <c r="F9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G9" t="s">
-        <v>79</v>
+        <v>28</v>
       </c>
       <c r="H9">
-        <v>44112</v>
+        <v>16000</v>
       </c>
       <c r="I9">
-        <v>1470400</v>
+        <v>8000000</v>
       </c>
       <c r="J9">
-        <v>30000</v>
+        <v>2000</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -970,37 +958,37 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C10" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D10" t="s">
-        <v>61</v>
+        <v>14</v>
       </c>
       <c r="E10" t="s">
-        <v>63</v>
+        <v>14</v>
       </c>
       <c r="F10" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="G10" t="s">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="H10">
-        <v>4387.5</v>
+        <v>6384</v>
       </c>
       <c r="I10">
-        <v>14625000</v>
+        <v>1596000</v>
       </c>
       <c r="J10">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>5</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1008,37 +996,37 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D11" t="s">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="E11" t="s">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="F11" t="s">
+        <v>64</v>
+      </c>
+      <c r="G11" t="s">
+        <v>73</v>
+      </c>
+      <c r="H11">
+        <v>42700</v>
+      </c>
+      <c r="I11">
+        <v>1220000</v>
+      </c>
+      <c r="J11">
+        <v>100000</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
         <v>35</v>
-      </c>
-      <c r="G11" t="s">
-        <v>71</v>
-      </c>
-      <c r="H11">
-        <v>27880</v>
-      </c>
-      <c r="I11">
-        <v>1640000</v>
-      </c>
-      <c r="J11">
-        <v>17000</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11">
-        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -1046,37 +1034,37 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C12" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D12" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="E12" t="s">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="F12" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="G12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H12">
-        <v>16000</v>
+        <v>4387.5</v>
       </c>
       <c r="I12">
-        <v>8000000</v>
+        <v>14625000</v>
       </c>
       <c r="J12">
-        <v>2000</v>
+        <v>6000</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>100</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -1087,7 +1075,7 @@
         <v>34</v>
       </c>
       <c r="C13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D13" t="s">
         <v>15</v>
@@ -1096,10 +1084,10 @@
         <v>15</v>
       </c>
       <c r="F13" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G13" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="H13">
         <v>7000</v>
@@ -1122,10 +1110,10 @@
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D14" t="s">
         <v>16</v>
@@ -1137,7 +1125,7 @@
         <v>35</v>
       </c>
       <c r="G14" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H14">
         <v>29750</v>
@@ -1160,37 +1148,37 @@
         <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C15" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D15" t="s">
         <v>17</v>
       </c>
       <c r="E15" t="s">
-        <v>64</v>
+        <v>17</v>
       </c>
       <c r="F15" t="s">
         <v>32</v>
       </c>
       <c r="G15" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="H15">
-        <v>284653.7406</v>
+        <v>39396</v>
       </c>
       <c r="I15">
-        <v>11580800</v>
+        <v>1407000</v>
       </c>
       <c r="J15">
-        <v>36200</v>
+        <v>28000</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>67.90000000000001</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -1198,107 +1186,107 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C16" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="D16" t="s">
         <v>17</v>
       </c>
       <c r="E16" t="s">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="F16" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G16" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H16">
-        <v>39396</v>
+        <v>284653.7406</v>
       </c>
       <c r="I16">
-        <v>1407000</v>
+        <v>11580800</v>
       </c>
       <c r="J16">
-        <v>28000</v>
+        <v>36200</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>100</v>
+        <v>67.90000000000001</v>
       </c>
     </row>
     <row r="17" spans="1:12">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D17" t="s">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="E17" t="s">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="F17" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="G17" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H17">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="I17">
-        <v>1600000</v>
+        <v>10000000</v>
       </c>
       <c r="J17">
-        <v>20000</v>
+        <v>2000</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:12">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D18" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E18" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F18" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G18" t="s">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="H18">
-        <v>20000</v>
+        <v>17250</v>
       </c>
       <c r="I18">
-        <v>10000000</v>
+        <v>750000</v>
       </c>
       <c r="J18">
-        <v>2000</v>
+        <v>23000</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1309,230 +1297,230 @@
     </row>
     <row r="19" spans="1:12">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D19" t="s">
-        <v>62</v>
+        <v>20</v>
       </c>
       <c r="E19" t="s">
-        <v>62</v>
+        <v>20</v>
       </c>
       <c r="F19" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="G19" t="s">
-        <v>31</v>
+        <v>76</v>
       </c>
       <c r="H19">
-        <v>16000</v>
+        <v>13500</v>
       </c>
       <c r="I19">
-        <v>1600000</v>
+        <v>1500000</v>
       </c>
       <c r="J19">
-        <v>20000</v>
+        <v>9000</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="C20" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="D20" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="E20" t="s">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="F20" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="G20" t="s">
-        <v>68</v>
+        <v>25</v>
       </c>
       <c r="H20">
-        <v>17250</v>
+        <v>6581.256</v>
       </c>
       <c r="I20">
-        <v>750000</v>
+        <v>14625000</v>
       </c>
       <c r="J20">
-        <v>23000</v>
+        <v>6000</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>100</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="21" spans="1:12">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C21" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="D21" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="E21" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="F21" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="G21" t="s">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="H21">
-        <v>13500</v>
+        <v>36196.872</v>
       </c>
       <c r="I21">
-        <v>1500000</v>
+        <v>14625000</v>
       </c>
       <c r="J21">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>100</v>
+        <v>41.25</v>
       </c>
     </row>
     <row r="22" spans="1:12">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="C22" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="D22" t="s">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="E22" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F22" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="G22" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="H22">
-        <v>6581.256</v>
+        <v>7980</v>
       </c>
       <c r="I22">
-        <v>14625000</v>
+        <v>1400000</v>
       </c>
       <c r="J22">
-        <v>6000</v>
+        <v>19000</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>7.5</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:12">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D23" t="s">
         <v>23</v>
       </c>
       <c r="E23" t="s">
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="F23" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="G23" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="H23">
-        <v>7980</v>
+        <v>11700</v>
       </c>
       <c r="I23">
-        <v>1400000</v>
+        <v>650000</v>
       </c>
       <c r="J23">
-        <v>19000</v>
+        <v>18000</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>30</v>
+        <v>100</v>
       </c>
     </row>
     <row r="24" spans="1:12">
       <c r="A24" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="C24" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="D24" t="s">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>63</v>
+        <v>23</v>
       </c>
       <c r="F24" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G24" t="s">
-        <v>25</v>
+        <v>73</v>
       </c>
       <c r="H24">
-        <v>36196.872</v>
+        <v>14000</v>
       </c>
       <c r="I24">
-        <v>14625000</v>
+        <v>7000000</v>
       </c>
       <c r="J24">
-        <v>6000</v>
+        <v>2000</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>41.25</v>
+        <v>100</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1540,22 +1528,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C25" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D25" t="s">
         <v>23</v>
       </c>
       <c r="E25" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F25" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H25">
         <v>18620</v>
@@ -1575,34 +1563,34 @@
     </row>
     <row r="26" spans="1:12">
       <c r="A26" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="C26" t="s">
         <v>57</v>
       </c>
       <c r="D26" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E26" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F26" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="G26" t="s">
         <v>77</v>
       </c>
       <c r="H26">
-        <v>14000</v>
+        <v>36850</v>
       </c>
       <c r="I26">
-        <v>7000000</v>
+        <v>3350000</v>
       </c>
       <c r="J26">
-        <v>2000</v>
+        <v>11000</v>
       </c>
       <c r="K26">
         <v>0</v>
@@ -1613,40 +1601,40 @@
     </row>
     <row r="27" spans="1:12">
       <c r="A27" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C27" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="D27" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E27" t="s">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="F27" t="s">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="G27" t="s">
-        <v>27</v>
+        <v>74</v>
       </c>
       <c r="H27">
-        <v>11700</v>
+        <v>12576.7488</v>
       </c>
       <c r="I27">
-        <v>650000</v>
+        <v>11580800</v>
       </c>
       <c r="J27">
-        <v>18000</v>
+        <v>36200</v>
       </c>
       <c r="K27">
         <v>0</v>
       </c>
       <c r="L27">
-        <v>100</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -1654,113 +1642,37 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C28" t="s">
+        <v>42</v>
+      </c>
+      <c r="D28" t="s">
         <v>59</v>
       </c>
-      <c r="D28" t="s">
-        <v>24</v>
-      </c>
       <c r="E28" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="F28" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G28" t="s">
-        <v>81</v>
+        <v>25</v>
       </c>
       <c r="H28">
-        <v>36850</v>
+        <v>4387.5</v>
       </c>
       <c r="I28">
-        <v>3350000</v>
+        <v>14625000</v>
       </c>
       <c r="J28">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="K28">
         <v>0</v>
       </c>
       <c r="L28">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12">
-      <c r="A29" t="s">
-        <v>24</v>
-      </c>
-      <c r="B29" t="s">
-        <v>27</v>
-      </c>
-      <c r="C29" t="s">
-        <v>42</v>
-      </c>
-      <c r="D29" t="s">
-        <v>61</v>
-      </c>
-      <c r="E29" t="s">
-        <v>63</v>
-      </c>
-      <c r="F29" t="s">
-        <v>68</v>
-      </c>
-      <c r="G29" t="s">
-        <v>25</v>
-      </c>
-      <c r="H29">
-        <v>4387.5</v>
-      </c>
-      <c r="I29">
-        <v>14625000</v>
-      </c>
-      <c r="J29">
-        <v>6000</v>
-      </c>
-      <c r="K29">
-        <v>0</v>
-      </c>
-      <c r="L29">
         <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12">
-      <c r="A30" t="s">
-        <v>24</v>
-      </c>
-      <c r="B30" t="s">
-        <v>30</v>
-      </c>
-      <c r="C30" t="s">
-        <v>45</v>
-      </c>
-      <c r="D30" t="s">
-        <v>17</v>
-      </c>
-      <c r="E30" t="s">
-        <v>64</v>
-      </c>
-      <c r="F30" t="s">
-        <v>32</v>
-      </c>
-      <c r="G30" t="s">
-        <v>78</v>
-      </c>
-      <c r="H30">
-        <v>12576.7488</v>
-      </c>
-      <c r="I30">
-        <v>11580800</v>
-      </c>
-      <c r="J30">
-        <v>36200</v>
-      </c>
-      <c r="K30">
-        <v>0</v>
-      </c>
-      <c r="L30">
-        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/form3.xlsx
+++ b/datasets/form3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="76">
   <si>
     <t>인수기관</t>
   </si>
@@ -97,27 +97,24 @@
     <t>2023-12-14</t>
   </si>
   <si>
+    <t>2023-12-01</t>
+  </si>
+  <si>
     <t>2023-11-10</t>
   </si>
   <si>
-    <t>2023-12-01</t>
+    <t>2023-11-09</t>
+  </si>
+  <si>
+    <t>2023-11-13</t>
   </si>
   <si>
     <t>2023-11-08</t>
   </si>
   <si>
-    <t>2023-11-09</t>
-  </si>
-  <si>
-    <t>2023-11-13</t>
-  </si>
-  <si>
     <t>2023-11-21</t>
   </si>
   <si>
-    <t>2023-11-06</t>
-  </si>
-  <si>
     <t>2023-11-23</t>
   </si>
   <si>
@@ -139,27 +136,24 @@
     <t>DS단석</t>
   </si>
   <si>
+    <t>LS머트리얼즈</t>
+  </si>
+  <si>
     <t>에코아이</t>
   </si>
   <si>
-    <t>LS머트리얼즈</t>
+    <t>동인기연</t>
+  </si>
+  <si>
+    <t>그린리소스</t>
   </si>
   <si>
     <t>에코프로머티</t>
   </si>
   <si>
-    <t>동인기연</t>
-  </si>
-  <si>
-    <t>그린리소스</t>
-  </si>
-  <si>
     <t>엔에이치스팩30호</t>
   </si>
   <si>
-    <t>캡스톤파트너스</t>
-  </si>
-  <si>
     <t>교보15호스팩</t>
   </si>
   <si>
@@ -181,12 +175,12 @@
     <t>블루엠텍</t>
   </si>
   <si>
+    <t>하나30호스팩</t>
+  </si>
+  <si>
     <t>에이텀</t>
   </si>
   <si>
-    <t>하나30호스팩</t>
-  </si>
-  <si>
     <t>스톰테크</t>
   </si>
   <si>
@@ -211,12 +205,12 @@
     <t>2023-12-19</t>
   </si>
   <si>
+    <t>2023-12-06</t>
+  </si>
+  <si>
     <t>2023-11-15</t>
   </si>
   <si>
-    <t>2023-12-06</t>
-  </si>
-  <si>
     <t>2023-11-14</t>
   </si>
   <si>
@@ -238,10 +232,10 @@
     <t>2023-12-22</t>
   </si>
   <si>
+    <t>2023-11-22</t>
+  </si>
+  <si>
     <t>2023-11-17</t>
-  </si>
-  <si>
-    <t>2023-11-22</t>
   </si>
   <si>
     <t>2023-12-05</t>
@@ -605,7 +599,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L28"/>
+  <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -657,7 +651,7 @@
         <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
@@ -666,10 +660,10 @@
         <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H2">
         <v>8000</v>
@@ -695,19 +689,19 @@
         <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H3">
         <v>79300</v>
@@ -733,34 +727,34 @@
         <v>27</v>
       </c>
       <c r="C4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="F4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G4" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="H4">
-        <v>72141.3</v>
+        <v>36196.872</v>
       </c>
       <c r="I4">
-        <v>2079000</v>
+        <v>14625000</v>
       </c>
       <c r="J4">
-        <v>34700</v>
+        <v>6000</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>100</v>
+        <v>41.25</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -771,34 +765,34 @@
         <v>28</v>
       </c>
       <c r="C5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D5" t="s">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="F5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G5" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="H5">
-        <v>36196.872</v>
+        <v>72141.3</v>
       </c>
       <c r="I5">
-        <v>14625000</v>
+        <v>2079000</v>
       </c>
       <c r="J5">
-        <v>6000</v>
+        <v>34700</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>41.25</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -806,37 +800,37 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="E6" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="F6" t="s">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="G6" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="H6">
-        <v>121994.4706</v>
+        <v>42700</v>
       </c>
       <c r="I6">
-        <v>11580800</v>
+        <v>1220000</v>
       </c>
       <c r="J6">
-        <v>36200</v>
+        <v>100000</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>29.1</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -844,10 +838,10 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D7" t="s">
         <v>14</v>
@@ -856,10 +850,10 @@
         <v>14</v>
       </c>
       <c r="F7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G7" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="H7">
         <v>44112</v>
@@ -882,37 +876,37 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C8" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>57</v>
       </c>
       <c r="E8" t="s">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="F8" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="G8" t="s">
-        <v>68</v>
+        <v>25</v>
       </c>
       <c r="H8">
-        <v>27880</v>
+        <v>4387.5</v>
       </c>
       <c r="I8">
-        <v>1640000</v>
+        <v>14625000</v>
       </c>
       <c r="J8">
-        <v>17000</v>
+        <v>6000</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>100</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -920,10 +914,10 @@
         <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C9" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D9" t="s">
         <v>14</v>
@@ -932,19 +926,19 @@
         <v>14</v>
       </c>
       <c r="F9" t="s">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="G9" t="s">
-        <v>28</v>
+        <v>66</v>
       </c>
       <c r="H9">
-        <v>16000</v>
+        <v>27880</v>
       </c>
       <c r="I9">
-        <v>8000000</v>
+        <v>1640000</v>
       </c>
       <c r="J9">
-        <v>2000</v>
+        <v>17000</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -958,37 +952,37 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C10" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E10" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="F10" t="s">
         <v>30</v>
       </c>
       <c r="G10" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="H10">
-        <v>6384</v>
+        <v>121994.4706</v>
       </c>
       <c r="I10">
-        <v>1596000</v>
+        <v>11580800</v>
       </c>
       <c r="J10">
-        <v>4000</v>
+        <v>36200</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>100</v>
+        <v>29.1</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -996,107 +990,107 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C11" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D11" t="s">
-        <v>58</v>
+        <v>14</v>
       </c>
       <c r="E11" t="s">
-        <v>58</v>
+        <v>14</v>
       </c>
       <c r="F11" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G11" t="s">
-        <v>73</v>
+        <v>27</v>
       </c>
       <c r="H11">
-        <v>42700</v>
+        <v>16000</v>
       </c>
       <c r="I11">
-        <v>1220000</v>
+        <v>8000000</v>
       </c>
       <c r="J11">
-        <v>100000</v>
+        <v>2000</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>35</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C12" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D12" t="s">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="E12" t="s">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="F12" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G12" t="s">
-        <v>25</v>
+        <v>74</v>
       </c>
       <c r="H12">
-        <v>4387.5</v>
+        <v>7000</v>
       </c>
       <c r="I12">
-        <v>14625000</v>
+        <v>3500000</v>
       </c>
       <c r="J12">
-        <v>6000</v>
+        <v>2000</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>5</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" t="s">
         <v>34</v>
       </c>
-      <c r="C13" t="s">
-        <v>48</v>
-      </c>
-      <c r="D13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" t="s">
-        <v>15</v>
-      </c>
-      <c r="F13" t="s">
-        <v>69</v>
-      </c>
       <c r="G13" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="H13">
+        <v>29750</v>
+      </c>
+      <c r="I13">
+        <v>4250000</v>
+      </c>
+      <c r="J13">
         <v>7000</v>
-      </c>
-      <c r="I13">
-        <v>3500000</v>
-      </c>
-      <c r="J13">
-        <v>2000</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1107,40 +1101,40 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B14" t="s">
         <v>31</v>
       </c>
       <c r="C14" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D14" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E14" t="s">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="F14" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G14" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="H14">
-        <v>29750</v>
+        <v>284653.7406</v>
       </c>
       <c r="I14">
-        <v>4250000</v>
+        <v>11580800</v>
       </c>
       <c r="J14">
-        <v>7000</v>
+        <v>36200</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>100</v>
+        <v>67.90000000000001</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -1148,10 +1142,10 @@
         <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C15" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D15" t="s">
         <v>17</v>
@@ -1163,7 +1157,7 @@
         <v>32</v>
       </c>
       <c r="G15" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H15">
         <v>39396</v>
@@ -1183,72 +1177,72 @@
     </row>
     <row r="16" spans="1:12">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C16" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="D16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E16" t="s">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="F16" t="s">
-        <v>31</v>
+        <v>67</v>
       </c>
       <c r="G16" t="s">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="H16">
-        <v>284653.7406</v>
+        <v>20000</v>
       </c>
       <c r="I16">
-        <v>11580800</v>
+        <v>10000000</v>
       </c>
       <c r="J16">
-        <v>36200</v>
+        <v>2000</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>67.90000000000001</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:12">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D17" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E17" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G17" t="s">
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="H17">
-        <v>20000</v>
+        <v>17250</v>
       </c>
       <c r="I17">
-        <v>10000000</v>
+        <v>750000</v>
       </c>
       <c r="J17">
-        <v>2000</v>
+        <v>23000</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1259,34 +1253,34 @@
     </row>
     <row r="18" spans="1:12">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D18" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E18" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F18" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G18" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="H18">
-        <v>17250</v>
+        <v>13500</v>
       </c>
       <c r="I18">
-        <v>750000</v>
+        <v>1500000</v>
       </c>
       <c r="J18">
-        <v>23000</v>
+        <v>9000</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1297,78 +1291,78 @@
     </row>
     <row r="19" spans="1:12">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C19" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="D19" t="s">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="E19" t="s">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="F19" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="G19" t="s">
-        <v>76</v>
+        <v>25</v>
       </c>
       <c r="H19">
-        <v>13500</v>
+        <v>6581.256</v>
       </c>
       <c r="I19">
-        <v>1500000</v>
+        <v>14625000</v>
       </c>
       <c r="J19">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>100</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="C20" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="D20" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="E20" t="s">
         <v>60</v>
       </c>
       <c r="F20" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G20" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="H20">
-        <v>6581.256</v>
+        <v>7980</v>
       </c>
       <c r="I20">
-        <v>14625000</v>
+        <v>1400000</v>
       </c>
       <c r="J20">
-        <v>6000</v>
+        <v>19000</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>7.5</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1376,19 +1370,19 @@
         <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C21" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D21" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E21" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F21" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G21" t="s">
         <v>25</v>
@@ -1411,28 +1405,28 @@
     </row>
     <row r="22" spans="1:12">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C22" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D22" t="s">
         <v>23</v>
       </c>
       <c r="E22" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F22" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H22">
-        <v>7980</v>
+        <v>18620</v>
       </c>
       <c r="I22">
         <v>1400000</v>
@@ -1444,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>30</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1452,10 +1446,10 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C23" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D23" t="s">
         <v>23</v>
@@ -1464,19 +1458,19 @@
         <v>23</v>
       </c>
       <c r="F23" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G23" t="s">
-        <v>28</v>
+        <v>71</v>
       </c>
       <c r="H23">
-        <v>11700</v>
+        <v>14000</v>
       </c>
       <c r="I23">
-        <v>650000</v>
+        <v>7000000</v>
       </c>
       <c r="J23">
-        <v>18000</v>
+        <v>2000</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1490,10 +1484,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C24" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D24" t="s">
         <v>23</v>
@@ -1502,19 +1496,19 @@
         <v>23</v>
       </c>
       <c r="F24" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="G24" t="s">
-        <v>73</v>
+        <v>27</v>
       </c>
       <c r="H24">
-        <v>14000</v>
+        <v>11700</v>
       </c>
       <c r="I24">
-        <v>7000000</v>
+        <v>650000</v>
       </c>
       <c r="J24">
-        <v>2000</v>
+        <v>18000</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1525,40 +1519,40 @@
     </row>
     <row r="25" spans="1:12">
       <c r="A25" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C25" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D25" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>62</v>
+        <v>24</v>
       </c>
       <c r="F25" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="G25" t="s">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="H25">
-        <v>18620</v>
+        <v>36850</v>
       </c>
       <c r="I25">
-        <v>1400000</v>
+        <v>3350000</v>
       </c>
       <c r="J25">
-        <v>19000</v>
+        <v>11000</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>70</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -1566,37 +1560,37 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C26" t="s">
+        <v>40</v>
+      </c>
+      <c r="D26" t="s">
         <v>57</v>
       </c>
-      <c r="D26" t="s">
-        <v>24</v>
-      </c>
       <c r="E26" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="F26" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G26" t="s">
-        <v>77</v>
+        <v>25</v>
       </c>
       <c r="H26">
-        <v>36850</v>
+        <v>4387.5</v>
       </c>
       <c r="I26">
-        <v>3350000</v>
+        <v>14625000</v>
       </c>
       <c r="J26">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="K26">
         <v>0</v>
       </c>
       <c r="L26">
-        <v>100</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -1604,22 +1598,22 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C27" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D27" t="s">
         <v>17</v>
       </c>
       <c r="E27" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F27" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G27" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H27">
         <v>12576.7488</v>
@@ -1635,44 +1629,6 @@
       </c>
       <c r="L27">
         <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12">
-      <c r="A28" t="s">
-        <v>24</v>
-      </c>
-      <c r="B28" t="s">
-        <v>28</v>
-      </c>
-      <c r="C28" t="s">
-        <v>42</v>
-      </c>
-      <c r="D28" t="s">
-        <v>59</v>
-      </c>
-      <c r="E28" t="s">
-        <v>60</v>
-      </c>
-      <c r="F28" t="s">
-        <v>66</v>
-      </c>
-      <c r="G28" t="s">
-        <v>25</v>
-      </c>
-      <c r="H28">
-        <v>4387.5</v>
-      </c>
-      <c r="I28">
-        <v>14625000</v>
-      </c>
-      <c r="J28">
-        <v>6000</v>
-      </c>
-      <c r="K28">
-        <v>0</v>
-      </c>
-      <c r="L28">
-        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/form3.xlsx
+++ b/datasets/form3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="78">
   <si>
     <t>인수기관</t>
   </si>
@@ -115,6 +115,9 @@
     <t>2024-01-16</t>
   </si>
   <si>
+    <t>2024-03-04</t>
+  </si>
+  <si>
     <t>2024-02-13</t>
   </si>
   <si>
@@ -148,6 +151,9 @@
     <t>우진엔텍</t>
   </si>
   <si>
+    <t>오상헬스케어</t>
+  </si>
+  <si>
     <t>HB인베스트먼트</t>
   </si>
   <si>
@@ -208,6 +214,9 @@
     <t>2024-01-19</t>
   </si>
   <si>
+    <t>2024-03-07</t>
+  </si>
+  <si>
     <t>2024-02-16</t>
   </si>
   <si>
@@ -226,9 +235,6 @@
     <t>2024-03-05</t>
   </si>
   <si>
-    <t>2024-03-07</t>
-  </si>
-  <si>
     <t>2024-02-06</t>
   </si>
   <si>
@@ -238,7 +244,7 @@
     <t>2024-01-24</t>
   </si>
   <si>
-    <t>2024-03-04</t>
+    <t>2024-03-13</t>
   </si>
   <si>
     <t>2024-01-29</t>
@@ -599,7 +605,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L22"/>
+  <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -651,7 +657,7 @@
         <v>28</v>
       </c>
       <c r="C2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
@@ -660,10 +666,10 @@
         <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="H2">
         <v>8000</v>
@@ -689,19 +695,19 @@
         <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G3" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="H3">
         <v>14202</v>
@@ -727,7 +733,7 @@
         <v>30</v>
       </c>
       <c r="C4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D4" t="s">
         <v>13</v>
@@ -736,10 +742,10 @@
         <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H4">
         <v>15300</v>
@@ -765,7 +771,7 @@
         <v>31</v>
       </c>
       <c r="C5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D5" t="s">
         <v>14</v>
@@ -774,10 +780,10 @@
         <v>14</v>
       </c>
       <c r="F5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G5" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H5">
         <v>8000</v>
@@ -803,7 +809,7 @@
         <v>32</v>
       </c>
       <c r="C6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D6" t="s">
         <v>15</v>
@@ -812,10 +818,10 @@
         <v>15</v>
       </c>
       <c r="F6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H6">
         <v>10918</v>
@@ -838,37 +844,37 @@
         <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C7" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D7" t="s">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="E7" t="s">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="F7" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="G7" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="H7">
-        <v>14202</v>
+        <v>19800</v>
       </c>
       <c r="I7">
-        <v>2104000</v>
+        <v>990000</v>
       </c>
       <c r="J7">
-        <v>13500</v>
+        <v>20000</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -876,37 +882,37 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C8" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="E8" t="s">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="F8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G8" t="s">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="H8">
-        <v>22667.8</v>
+        <v>14202</v>
       </c>
       <c r="I8">
-        <v>6667000</v>
+        <v>2104000</v>
       </c>
       <c r="J8">
-        <v>3400</v>
+        <v>13500</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -914,10 +920,10 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D9" t="s">
         <v>16</v>
@@ -926,19 +932,19 @@
         <v>16</v>
       </c>
       <c r="F9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G9" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H9">
-        <v>7000</v>
+        <v>22667.8</v>
       </c>
       <c r="I9">
-        <v>1000000</v>
+        <v>6667000</v>
       </c>
       <c r="J9">
-        <v>7000</v>
+        <v>3400</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -949,34 +955,34 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
         <v>34</v>
       </c>
       <c r="C10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F10" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G10" t="s">
-        <v>74</v>
+        <v>39</v>
       </c>
       <c r="H10">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="I10">
-        <v>4000000</v>
+        <v>1000000</v>
       </c>
       <c r="J10">
-        <v>2000</v>
+        <v>7000</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -987,31 +993,31 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
         <v>35</v>
       </c>
       <c r="C11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F11" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G11" t="s">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="H11">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="I11">
-        <v>5500000</v>
+        <v>4000000</v>
       </c>
       <c r="J11">
         <v>2000</v>
@@ -1025,34 +1031,34 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
         <v>36</v>
       </c>
       <c r="C12" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F12" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G12" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="H12">
-        <v>63561.1</v>
+        <v>11000</v>
       </c>
       <c r="I12">
-        <v>8707000</v>
+        <v>5500000</v>
       </c>
       <c r="J12">
-        <v>7300</v>
+        <v>2000</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -1063,34 +1069,34 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C13" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F13" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="G13" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="H13">
-        <v>42000</v>
+        <v>63561.1</v>
       </c>
       <c r="I13">
-        <v>3000000</v>
+        <v>8707000</v>
       </c>
       <c r="J13">
-        <v>14000</v>
+        <v>7300</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1101,34 +1107,34 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F14" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G14" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H14">
-        <v>9150</v>
+        <v>42000</v>
       </c>
       <c r="I14">
-        <v>4575000</v>
+        <v>3000000</v>
       </c>
       <c r="J14">
-        <v>2000</v>
+        <v>14000</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1139,107 +1145,107 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E15" t="s">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="F15" t="s">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="G15" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="H15">
-        <v>75800</v>
+        <v>9150</v>
       </c>
       <c r="I15">
-        <v>379000</v>
+        <v>4575000</v>
       </c>
       <c r="J15">
-        <v>250000</v>
+        <v>2000</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>80</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E16" t="s">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="F16" t="s">
-        <v>65</v>
+        <v>28</v>
       </c>
       <c r="G16" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="H16">
-        <v>13000</v>
+        <v>75800</v>
       </c>
       <c r="I16">
-        <v>6500000</v>
+        <v>379000</v>
       </c>
       <c r="J16">
-        <v>2000</v>
+        <v>250000</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>100</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:12">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F17" t="s">
-        <v>38</v>
+        <v>68</v>
       </c>
       <c r="G17" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H17">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="I17">
-        <v>4000000</v>
+        <v>6500000</v>
       </c>
       <c r="J17">
         <v>2000</v>
@@ -1253,34 +1259,34 @@
     </row>
     <row r="18" spans="1:12">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F18" t="s">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="G18" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="H18">
-        <v>9600</v>
+        <v>8000</v>
       </c>
       <c r="I18">
-        <v>600000</v>
+        <v>4000000</v>
       </c>
       <c r="J18">
-        <v>16000</v>
+        <v>2000</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1291,40 +1297,40 @@
     </row>
     <row r="19" spans="1:12">
       <c r="A19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B19" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C19" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D19" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E19" t="s">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="F19" t="s">
-        <v>28</v>
+        <v>67</v>
       </c>
       <c r="G19" t="s">
         <v>68</v>
       </c>
       <c r="H19">
-        <v>18950</v>
+        <v>9600</v>
       </c>
       <c r="I19">
-        <v>379000</v>
+        <v>600000</v>
       </c>
       <c r="J19">
-        <v>250000</v>
+        <v>16000</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>20</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1332,10 +1338,10 @@
         <v>26</v>
       </c>
       <c r="B20" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C20" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D20" t="s">
         <v>26</v>
@@ -1344,10 +1350,10 @@
         <v>26</v>
       </c>
       <c r="F20" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G20" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H20">
         <v>27000</v>
@@ -1370,10 +1376,10 @@
         <v>26</v>
       </c>
       <c r="B21" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C21" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D21" t="s">
         <v>26</v>
@@ -1382,10 +1388,10 @@
         <v>26</v>
       </c>
       <c r="F21" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="G21" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="H21">
         <v>10000</v>
@@ -1405,39 +1411,77 @@
     </row>
     <row r="22" spans="1:12">
       <c r="A22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" t="s">
+        <v>53</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22" t="s">
+        <v>61</v>
+      </c>
+      <c r="F22" t="s">
+        <v>28</v>
+      </c>
+      <c r="G22" t="s">
+        <v>71</v>
+      </c>
+      <c r="H22">
+        <v>18950</v>
+      </c>
+      <c r="I22">
+        <v>379000</v>
+      </c>
+      <c r="J22">
+        <v>250000</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" t="s">
         <v>27</v>
       </c>
-      <c r="B22" t="s">
-        <v>33</v>
-      </c>
-      <c r="C22" t="s">
-        <v>57</v>
-      </c>
-      <c r="D22" t="s">
+      <c r="B23" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" t="s">
+        <v>59</v>
+      </c>
+      <c r="D23" t="s">
         <v>27</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E23" t="s">
         <v>27</v>
       </c>
-      <c r="F22" t="s">
-        <v>64</v>
-      </c>
-      <c r="G22" t="s">
-        <v>65</v>
-      </c>
-      <c r="H22">
+      <c r="F23" t="s">
+        <v>67</v>
+      </c>
+      <c r="G23" t="s">
+        <v>68</v>
+      </c>
+      <c r="H23">
         <v>22600</v>
       </c>
-      <c r="I22">
+      <c r="I23">
         <v>1130000</v>
       </c>
-      <c r="J22">
+      <c r="J23">
         <v>20000</v>
       </c>
-      <c r="K22">
-        <v>0</v>
-      </c>
-      <c r="L22">
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
         <v>100</v>
       </c>
     </row>

--- a/datasets/form3.xlsx
+++ b/datasets/form3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="74">
   <si>
     <t>인수기관</t>
   </si>
@@ -70,9 +70,6 @@
     <t>SK</t>
   </si>
   <si>
-    <t>대신</t>
-  </si>
-  <si>
     <t>미래</t>
   </si>
   <si>
@@ -115,18 +112,15 @@
     <t>2024-01-16</t>
   </si>
   <si>
+    <t>2024-02-13</t>
+  </si>
+  <si>
     <t>2024-03-04</t>
   </si>
   <si>
-    <t>2024-02-13</t>
-  </si>
-  <si>
     <t>2024-02-20</t>
   </si>
   <si>
-    <t>2024-01-15</t>
-  </si>
-  <si>
     <t>2024-01-17</t>
   </si>
   <si>
@@ -151,21 +145,18 @@
     <t>우진엔텍</t>
   </si>
   <si>
+    <t>케이웨더</t>
+  </si>
+  <si>
+    <t>HB인베스트먼트</t>
+  </si>
+  <si>
     <t>오상헬스케어</t>
   </si>
   <si>
-    <t>HB인베스트먼트</t>
-  </si>
-  <si>
-    <t>케이웨더</t>
-  </si>
-  <si>
     <t>SK증권제11호스팩</t>
   </si>
   <si>
-    <t>대신밸런스제17호스팩</t>
-  </si>
-  <si>
     <t>현대힘스</t>
   </si>
   <si>
@@ -187,12 +178,12 @@
     <t>코셈</t>
   </si>
   <si>
+    <t>하나31호스팩</t>
+  </si>
+  <si>
     <t>포스뱅크</t>
   </si>
   <si>
-    <t>하나31호스팩</t>
-  </si>
-  <si>
     <t>이에이트</t>
   </si>
   <si>
@@ -214,16 +205,13 @@
     <t>2024-01-19</t>
   </si>
   <si>
+    <t>2024-02-16</t>
+  </si>
+  <si>
     <t>2024-03-07</t>
   </si>
   <si>
-    <t>2024-02-16</t>
-  </si>
-  <si>
     <t>2024-02-23</t>
-  </si>
-  <si>
-    <t>2024-01-18</t>
   </si>
   <si>
     <t>2024-01-22</t>
@@ -605,7 +593,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L23"/>
+  <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -654,10 +642,10 @@
         <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
@@ -666,10 +654,10 @@
         <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="H2">
         <v>8000</v>
@@ -692,22 +680,22 @@
         <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H3">
         <v>14202</v>
@@ -730,10 +718,10 @@
         <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D4" t="s">
         <v>13</v>
@@ -742,10 +730,10 @@
         <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G4" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="H4">
         <v>15300</v>
@@ -768,10 +756,10 @@
         <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D5" t="s">
         <v>14</v>
@@ -780,10 +768,10 @@
         <v>14</v>
       </c>
       <c r="F5" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G5" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="H5">
         <v>8000</v>
@@ -806,10 +794,10 @@
         <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D6" t="s">
         <v>15</v>
@@ -818,10 +806,10 @@
         <v>15</v>
       </c>
       <c r="F6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G6" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="H6">
         <v>10918</v>
@@ -844,10 +832,10 @@
         <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D7" t="s">
         <v>16</v>
@@ -856,19 +844,19 @@
         <v>16</v>
       </c>
       <c r="F7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G7" t="s">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="H7">
-        <v>19800</v>
+        <v>7000</v>
       </c>
       <c r="I7">
-        <v>990000</v>
+        <v>1000000</v>
       </c>
       <c r="J7">
-        <v>20000</v>
+        <v>7000</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -882,37 +870,37 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D8" t="s">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="E8" t="s">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="F8" t="s">
         <v>62</v>
       </c>
       <c r="G8" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="H8">
-        <v>14202</v>
+        <v>22667.8</v>
       </c>
       <c r="I8">
-        <v>2104000</v>
+        <v>6667000</v>
       </c>
       <c r="J8">
-        <v>13500</v>
+        <v>3400</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -920,10 +908,10 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D9" t="s">
         <v>16</v>
@@ -932,19 +920,19 @@
         <v>16</v>
       </c>
       <c r="F9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G9" t="s">
-        <v>30</v>
+        <v>72</v>
       </c>
       <c r="H9">
-        <v>22667.8</v>
+        <v>19800</v>
       </c>
       <c r="I9">
-        <v>6667000</v>
+        <v>990000</v>
       </c>
       <c r="J9">
-        <v>3400</v>
+        <v>20000</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -958,37 +946,37 @@
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C10" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D10" t="s">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="E10" t="s">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="F10" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="G10" t="s">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="H10">
-        <v>7000</v>
+        <v>14202</v>
       </c>
       <c r="I10">
-        <v>1000000</v>
+        <v>2104000</v>
       </c>
       <c r="J10">
-        <v>7000</v>
+        <v>13500</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -996,10 +984,10 @@
         <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D11" t="s">
         <v>17</v>
@@ -1008,7 +996,7 @@
         <v>17</v>
       </c>
       <c r="F11" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G11" t="s">
         <v>33</v>
@@ -1034,10 +1022,10 @@
         <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C12" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D12" t="s">
         <v>18</v>
@@ -1046,19 +1034,19 @@
         <v>18</v>
       </c>
       <c r="F12" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G12" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="H12">
-        <v>11000</v>
+        <v>63561.1</v>
       </c>
       <c r="I12">
-        <v>5500000</v>
+        <v>8707000</v>
       </c>
       <c r="J12">
-        <v>2000</v>
+        <v>7300</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -1072,10 +1060,10 @@
         <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D13" t="s">
         <v>19</v>
@@ -1084,19 +1072,19 @@
         <v>19</v>
       </c>
       <c r="F13" t="s">
+        <v>61</v>
+      </c>
+      <c r="G13" t="s">
         <v>70</v>
       </c>
-      <c r="G13" t="s">
-        <v>64</v>
-      </c>
       <c r="H13">
-        <v>63561.1</v>
+        <v>42000</v>
       </c>
       <c r="I13">
-        <v>8707000</v>
+        <v>3000000</v>
       </c>
       <c r="J13">
-        <v>7300</v>
+        <v>14000</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1110,10 +1098,10 @@
         <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C14" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1122,19 +1110,19 @@
         <v>20</v>
       </c>
       <c r="F14" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="G14" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="H14">
-        <v>42000</v>
+        <v>9150</v>
       </c>
       <c r="I14">
-        <v>3000000</v>
+        <v>4575000</v>
       </c>
       <c r="J14">
-        <v>14000</v>
+        <v>2000</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1148,37 +1136,37 @@
         <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C15" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
       </c>
       <c r="E15" t="s">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="F15" t="s">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="G15" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="H15">
-        <v>9150</v>
+        <v>75800</v>
       </c>
       <c r="I15">
-        <v>4575000</v>
+        <v>379000</v>
       </c>
       <c r="J15">
-        <v>2000</v>
+        <v>250000</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>100</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -1186,37 +1174,37 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C16" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D16" t="s">
         <v>22</v>
       </c>
       <c r="E16" t="s">
-        <v>61</v>
+        <v>22</v>
       </c>
       <c r="F16" t="s">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="G16" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="H16">
-        <v>75800</v>
+        <v>13000</v>
       </c>
       <c r="I16">
-        <v>379000</v>
+        <v>6500000</v>
       </c>
       <c r="J16">
-        <v>250000</v>
+        <v>2000</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>80</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -1224,10 +1212,10 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="C17" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D17" t="s">
         <v>23</v>
@@ -1236,16 +1224,16 @@
         <v>23</v>
       </c>
       <c r="F17" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="G17" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="H17">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="I17">
-        <v>6500000</v>
+        <v>4000000</v>
       </c>
       <c r="J17">
         <v>2000</v>
@@ -1262,10 +1250,10 @@
         <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C18" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D18" t="s">
         <v>24</v>
@@ -1274,19 +1262,19 @@
         <v>24</v>
       </c>
       <c r="F18" t="s">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="G18" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="H18">
-        <v>8000</v>
+        <v>9600</v>
       </c>
       <c r="I18">
-        <v>4000000</v>
+        <v>600000</v>
       </c>
       <c r="J18">
-        <v>2000</v>
+        <v>16000</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1300,10 +1288,10 @@
         <v>25</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C19" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D19" t="s">
         <v>25</v>
@@ -1318,13 +1306,13 @@
         <v>68</v>
       </c>
       <c r="H19">
-        <v>9600</v>
+        <v>10000</v>
       </c>
       <c r="I19">
-        <v>600000</v>
+        <v>5000000</v>
       </c>
       <c r="J19">
-        <v>16000</v>
+        <v>2000</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1335,25 +1323,25 @@
     </row>
     <row r="20" spans="1:12">
       <c r="A20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B20" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F20" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G20" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="H20">
         <v>27000</v>
@@ -1373,40 +1361,40 @@
     </row>
     <row r="21" spans="1:12">
       <c r="A21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B21" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C21" t="s">
+        <v>50</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21" t="s">
         <v>58</v>
       </c>
-      <c r="D21" t="s">
-        <v>26</v>
-      </c>
-      <c r="E21" t="s">
-        <v>26</v>
-      </c>
       <c r="F21" t="s">
-        <v>71</v>
+        <v>27</v>
       </c>
       <c r="G21" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="H21">
-        <v>10000</v>
+        <v>18950</v>
       </c>
       <c r="I21">
-        <v>5000000</v>
+        <v>379000</v>
       </c>
       <c r="J21">
-        <v>2000</v>
+        <v>250000</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>100</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1414,74 +1402,36 @@
         <v>26</v>
       </c>
       <c r="B22" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C22" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D22" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E22" t="s">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="F22" t="s">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="G22" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="H22">
-        <v>18950</v>
+        <v>22600</v>
       </c>
       <c r="I22">
-        <v>379000</v>
+        <v>1130000</v>
       </c>
       <c r="J22">
-        <v>250000</v>
+        <v>20000</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
-      <c r="A23" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" t="s">
-        <v>34</v>
-      </c>
-      <c r="C23" t="s">
-        <v>59</v>
-      </c>
-      <c r="D23" t="s">
-        <v>27</v>
-      </c>
-      <c r="E23" t="s">
-        <v>27</v>
-      </c>
-      <c r="F23" t="s">
-        <v>67</v>
-      </c>
-      <c r="G23" t="s">
-        <v>68</v>
-      </c>
-      <c r="H23">
-        <v>22600</v>
-      </c>
-      <c r="I23">
-        <v>1130000</v>
-      </c>
-      <c r="J23">
-        <v>20000</v>
-      </c>
-      <c r="K23">
-        <v>0</v>
-      </c>
-      <c r="L23">
         <v>100</v>
       </c>
     </row>

--- a/datasets/form3.xlsx
+++ b/datasets/form3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="68">
   <si>
     <t>인수기관</t>
   </si>
@@ -61,9 +61,6 @@
     <t>IBK</t>
   </si>
   <si>
-    <t>KB</t>
-  </si>
-  <si>
     <t>NH</t>
   </si>
   <si>
@@ -109,15 +106,12 @@
     <t>2024-01-23</t>
   </si>
   <si>
-    <t>2024-01-16</t>
+    <t>2024-03-04</t>
   </si>
   <si>
     <t>2024-02-13</t>
   </si>
   <si>
-    <t>2024-03-04</t>
-  </si>
-  <si>
     <t>2024-02-20</t>
   </si>
   <si>
@@ -142,18 +136,12 @@
     <t>IBKS제24호스팩</t>
   </si>
   <si>
-    <t>우진엔텍</t>
+    <t>오상헬스케어</t>
   </si>
   <si>
     <t>케이웨더</t>
   </si>
   <si>
-    <t>HB인베스트먼트</t>
-  </si>
-  <si>
-    <t>오상헬스케어</t>
-  </si>
-  <si>
     <t>SK증권제11호스팩</t>
   </si>
   <si>
@@ -178,12 +166,12 @@
     <t>코셈</t>
   </si>
   <si>
+    <t>포스뱅크</t>
+  </si>
+  <si>
     <t>하나31호스팩</t>
   </si>
   <si>
-    <t>포스뱅크</t>
-  </si>
-  <si>
     <t>이에이트</t>
   </si>
   <si>
@@ -202,15 +190,12 @@
     <t>2024-01-26</t>
   </si>
   <si>
-    <t>2024-01-19</t>
+    <t>2024-03-07</t>
   </si>
   <si>
     <t>2024-02-16</t>
   </si>
   <si>
-    <t>2024-03-07</t>
-  </si>
-  <si>
     <t>2024-02-23</t>
   </si>
   <si>
@@ -227,9 +212,6 @@
   </si>
   <si>
     <t>2024-02-01</t>
-  </si>
-  <si>
-    <t>2024-01-24</t>
   </si>
   <si>
     <t>2024-03-13</t>
@@ -593,7 +575,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L22"/>
+  <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -642,10 +624,10 @@
         <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
@@ -654,10 +636,10 @@
         <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="H2">
         <v>8000</v>
@@ -680,22 +662,22 @@
         <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G3" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="H3">
         <v>14202</v>
@@ -718,10 +700,10 @@
         <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D4" t="s">
         <v>13</v>
@@ -730,10 +712,10 @@
         <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="G4" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="H4">
         <v>15300</v>
@@ -756,10 +738,10 @@
         <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D5" t="s">
         <v>14</v>
@@ -768,10 +750,10 @@
         <v>14</v>
       </c>
       <c r="F5" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="G5" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="H5">
         <v>8000</v>
@@ -794,10 +776,10 @@
         <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D6" t="s">
         <v>15</v>
@@ -806,19 +788,19 @@
         <v>15</v>
       </c>
       <c r="F6" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G6" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="H6">
-        <v>10918</v>
+        <v>19800</v>
       </c>
       <c r="I6">
-        <v>2060000</v>
+        <v>990000</v>
       </c>
       <c r="J6">
-        <v>5300</v>
+        <v>20000</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -829,72 +811,72 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="E7" t="s">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="F7" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="G7" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="H7">
-        <v>7000</v>
+        <v>14202</v>
       </c>
       <c r="I7">
-        <v>1000000</v>
+        <v>2104000</v>
       </c>
       <c r="J7">
-        <v>7000</v>
+        <v>13500</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
         <v>31</v>
       </c>
       <c r="C8" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F8" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G8" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H8">
-        <v>22667.8</v>
+        <v>7000</v>
       </c>
       <c r="I8">
-        <v>6667000</v>
+        <v>1000000</v>
       </c>
       <c r="J8">
-        <v>3400</v>
+        <v>7000</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -908,10 +890,10 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C9" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D9" t="s">
         <v>16</v>
@@ -920,19 +902,19 @@
         <v>16</v>
       </c>
       <c r="F9" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="G9" t="s">
-        <v>72</v>
+        <v>30</v>
       </c>
       <c r="H9">
-        <v>19800</v>
+        <v>8000</v>
       </c>
       <c r="I9">
-        <v>990000</v>
+        <v>4000000</v>
       </c>
       <c r="J9">
-        <v>20000</v>
+        <v>2000</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -943,72 +925,72 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C10" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" t="s">
+        <v>61</v>
+      </c>
+      <c r="G10" t="s">
         <v>57</v>
       </c>
-      <c r="E10" t="s">
-        <v>57</v>
-      </c>
-      <c r="F10" t="s">
-        <v>59</v>
-      </c>
-      <c r="G10" t="s">
-        <v>64</v>
-      </c>
       <c r="H10">
-        <v>14202</v>
+        <v>63561.1</v>
       </c>
       <c r="I10">
-        <v>2104000</v>
+        <v>8707000</v>
       </c>
       <c r="J10">
-        <v>13500</v>
+        <v>7300</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F11" t="s">
+        <v>57</v>
+      </c>
+      <c r="G11" t="s">
         <v>65</v>
       </c>
-      <c r="G11" t="s">
-        <v>33</v>
-      </c>
       <c r="H11">
-        <v>8000</v>
+        <v>42000</v>
       </c>
       <c r="I11">
-        <v>4000000</v>
+        <v>3000000</v>
       </c>
       <c r="J11">
-        <v>2000</v>
+        <v>14000</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -1019,34 +1001,34 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C12" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F12" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="G12" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="H12">
-        <v>63561.1</v>
+        <v>9150</v>
       </c>
       <c r="I12">
-        <v>8707000</v>
+        <v>4575000</v>
       </c>
       <c r="J12">
-        <v>7300</v>
+        <v>2000</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -1057,69 +1039,69 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C13" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E13" t="s">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="F13" t="s">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="G13" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="H13">
-        <v>42000</v>
+        <v>75800</v>
       </c>
       <c r="I13">
-        <v>3000000</v>
+        <v>379000</v>
       </c>
       <c r="J13">
-        <v>14000</v>
+        <v>250000</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>100</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C14" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F14" t="s">
         <v>60</v>
       </c>
       <c r="G14" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="H14">
-        <v>9150</v>
+        <v>13000</v>
       </c>
       <c r="I14">
-        <v>4575000</v>
+        <v>6500000</v>
       </c>
       <c r="J14">
         <v>2000</v>
@@ -1133,72 +1115,72 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E15" t="s">
-        <v>58</v>
+        <v>22</v>
       </c>
       <c r="F15" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="G15" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="H15">
-        <v>75800</v>
+        <v>8000</v>
       </c>
       <c r="I15">
-        <v>379000</v>
+        <v>4000000</v>
       </c>
       <c r="J15">
-        <v>250000</v>
+        <v>2000</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>80</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C16" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F16" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="G16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H16">
-        <v>13000</v>
+        <v>9600</v>
       </c>
       <c r="I16">
-        <v>6500000</v>
+        <v>600000</v>
       </c>
       <c r="J16">
-        <v>2000</v>
+        <v>16000</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1209,34 +1191,34 @@
     </row>
     <row r="17" spans="1:12">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B17" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C17" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F17" t="s">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="G17" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="H17">
-        <v>8000</v>
+        <v>27000</v>
       </c>
       <c r="I17">
-        <v>4000000</v>
+        <v>1500000</v>
       </c>
       <c r="J17">
-        <v>2000</v>
+        <v>18000</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1250,60 +1232,60 @@
         <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C18" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D18" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E18" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="F18" t="s">
-        <v>63</v>
+        <v>26</v>
       </c>
       <c r="G18" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="H18">
-        <v>9600</v>
+        <v>18950</v>
       </c>
       <c r="I18">
-        <v>600000</v>
+        <v>379000</v>
       </c>
       <c r="J18">
-        <v>16000</v>
+        <v>250000</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>100</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B19" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C19" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F19" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="G19" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="H19">
         <v>10000</v>
@@ -1326,10 +1308,10 @@
         <v>25</v>
       </c>
       <c r="B20" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C20" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D20" t="s">
         <v>25</v>
@@ -1338,100 +1320,24 @@
         <v>25</v>
       </c>
       <c r="F20" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="G20" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="H20">
-        <v>27000</v>
+        <v>22600</v>
       </c>
       <c r="I20">
-        <v>1500000</v>
+        <v>1130000</v>
       </c>
       <c r="J20">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
-      <c r="A21" t="s">
-        <v>25</v>
-      </c>
-      <c r="B21" t="s">
-        <v>36</v>
-      </c>
-      <c r="C21" t="s">
-        <v>50</v>
-      </c>
-      <c r="D21" t="s">
-        <v>21</v>
-      </c>
-      <c r="E21" t="s">
-        <v>58</v>
-      </c>
-      <c r="F21" t="s">
-        <v>27</v>
-      </c>
-      <c r="G21" t="s">
-        <v>67</v>
-      </c>
-      <c r="H21">
-        <v>18950</v>
-      </c>
-      <c r="I21">
-        <v>379000</v>
-      </c>
-      <c r="J21">
-        <v>250000</v>
-      </c>
-      <c r="K21">
-        <v>0</v>
-      </c>
-      <c r="L21">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
-      <c r="A22" t="s">
-        <v>26</v>
-      </c>
-      <c r="B22" t="s">
-        <v>32</v>
-      </c>
-      <c r="C22" t="s">
-        <v>56</v>
-      </c>
-      <c r="D22" t="s">
-        <v>26</v>
-      </c>
-      <c r="E22" t="s">
-        <v>26</v>
-      </c>
-      <c r="F22" t="s">
-        <v>63</v>
-      </c>
-      <c r="G22" t="s">
-        <v>65</v>
-      </c>
-      <c r="H22">
-        <v>22600</v>
-      </c>
-      <c r="I22">
-        <v>1130000</v>
-      </c>
-      <c r="J22">
-        <v>20000</v>
-      </c>
-      <c r="K22">
-        <v>0</v>
-      </c>
-      <c r="L22">
         <v>100</v>
       </c>
     </row>

--- a/datasets/form3.xlsx
+++ b/datasets/form3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="67">
   <si>
     <t>인수기관</t>
   </si>
@@ -67,9 +67,6 @@
     <t>SK</t>
   </si>
   <si>
-    <t>미래</t>
-  </si>
-  <si>
     <t>삼성</t>
   </si>
   <si>
@@ -91,6 +88,9 @@
     <t>하나</t>
   </si>
   <si>
+    <t>한국</t>
+  </si>
+  <si>
     <t>한화</t>
   </si>
   <si>
@@ -115,15 +115,15 @@
     <t>2024-02-20</t>
   </si>
   <si>
-    <t>2024-01-17</t>
-  </si>
-  <si>
     <t>2024-02-14</t>
   </si>
   <si>
     <t>2024-02-22</t>
   </si>
   <si>
+    <t>2024-03-12</t>
+  </si>
+  <si>
     <t>비엔케이제2호스팩</t>
   </si>
   <si>
@@ -145,9 +145,6 @@
     <t>SK증권제11호스팩</t>
   </si>
   <si>
-    <t>현대힘스</t>
-  </si>
-  <si>
     <t>이닉스</t>
   </si>
   <si>
@@ -166,12 +163,12 @@
     <t>코셈</t>
   </si>
   <si>
-    <t>포스뱅크</t>
-  </si>
-  <si>
     <t>하나31호스팩</t>
   </si>
   <si>
+    <t>삼현</t>
+  </si>
+  <si>
     <t>이에이트</t>
   </si>
   <si>
@@ -199,12 +196,12 @@
     <t>2024-02-23</t>
   </si>
   <si>
-    <t>2024-01-22</t>
-  </si>
-  <si>
     <t>2024-02-27</t>
   </si>
   <si>
+    <t>2024-03-15</t>
+  </si>
+  <si>
     <t>2024-03-05</t>
   </si>
   <si>
@@ -217,7 +214,7 @@
     <t>2024-03-13</t>
   </si>
   <si>
-    <t>2024-01-29</t>
+    <t>2024-03-21</t>
   </si>
 </sst>
 </file>
@@ -575,7 +572,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L20"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -636,10 +633,10 @@
         <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H2">
         <v>8000</v>
@@ -668,16 +665,16 @@
         <v>37</v>
       </c>
       <c r="D3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H3">
         <v>14202</v>
@@ -712,10 +709,10 @@
         <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H4">
         <v>15300</v>
@@ -750,10 +747,10 @@
         <v>14</v>
       </c>
       <c r="F5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H5">
         <v>8000</v>
@@ -788,10 +785,10 @@
         <v>15</v>
       </c>
       <c r="F6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H6">
         <v>19800</v>
@@ -820,16 +817,16 @@
         <v>37</v>
       </c>
       <c r="D7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H7">
         <v>14202</v>
@@ -864,10 +861,10 @@
         <v>15</v>
       </c>
       <c r="F8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H8">
         <v>7000</v>
@@ -902,7 +899,7 @@
         <v>16</v>
       </c>
       <c r="F9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G9" t="s">
         <v>30</v>
@@ -928,7 +925,7 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C10" t="s">
         <v>43</v>
@@ -940,19 +937,19 @@
         <v>17</v>
       </c>
       <c r="F10" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="G10" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="H10">
-        <v>63561.1</v>
+        <v>42000</v>
       </c>
       <c r="I10">
-        <v>8707000</v>
+        <v>3000000</v>
       </c>
       <c r="J10">
-        <v>7300</v>
+        <v>14000</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -966,7 +963,7 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C11" t="s">
         <v>44</v>
@@ -978,19 +975,19 @@
         <v>18</v>
       </c>
       <c r="F11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H11">
-        <v>42000</v>
+        <v>9150</v>
       </c>
       <c r="I11">
-        <v>3000000</v>
+        <v>4575000</v>
       </c>
       <c r="J11">
-        <v>14000</v>
+        <v>2000</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -1004,7 +1001,7 @@
         <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C12" t="s">
         <v>45</v>
@@ -1013,28 +1010,28 @@
         <v>19</v>
       </c>
       <c r="E12" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="F12" t="s">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="G12" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="H12">
-        <v>9150</v>
+        <v>75800</v>
       </c>
       <c r="I12">
-        <v>4575000</v>
+        <v>379000</v>
       </c>
       <c r="J12">
-        <v>2000</v>
+        <v>250000</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>100</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -1042,7 +1039,7 @@
         <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C13" t="s">
         <v>46</v>
@@ -1051,28 +1048,28 @@
         <v>20</v>
       </c>
       <c r="E13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" t="s">
+        <v>59</v>
+      </c>
+      <c r="G13" t="s">
         <v>54</v>
       </c>
-      <c r="F13" t="s">
-        <v>26</v>
-      </c>
-      <c r="G13" t="s">
-        <v>62</v>
-      </c>
       <c r="H13">
-        <v>75800</v>
+        <v>13000</v>
       </c>
       <c r="I13">
-        <v>379000</v>
+        <v>6500000</v>
       </c>
       <c r="J13">
-        <v>250000</v>
+        <v>2000</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>80</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -1080,7 +1077,7 @@
         <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
         <v>47</v>
@@ -1092,16 +1089,16 @@
         <v>21</v>
       </c>
       <c r="F14" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="G14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H14">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="I14">
-        <v>6500000</v>
+        <v>4000000</v>
       </c>
       <c r="J14">
         <v>2000</v>
@@ -1118,7 +1115,7 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C15" t="s">
         <v>48</v>
@@ -1130,19 +1127,19 @@
         <v>22</v>
       </c>
       <c r="F15" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="G15" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="H15">
-        <v>8000</v>
+        <v>9600</v>
       </c>
       <c r="I15">
-        <v>4000000</v>
+        <v>600000</v>
       </c>
       <c r="J15">
-        <v>2000</v>
+        <v>16000</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1156,7 +1153,7 @@
         <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C16" t="s">
         <v>49</v>
@@ -1168,19 +1165,19 @@
         <v>23</v>
       </c>
       <c r="F16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G16" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H16">
-        <v>9600</v>
+        <v>10000</v>
       </c>
       <c r="I16">
-        <v>600000</v>
+        <v>5000000</v>
       </c>
       <c r="J16">
-        <v>16000</v>
+        <v>2000</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1191,40 +1188,40 @@
     </row>
     <row r="17" spans="1:12">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
         <v>33</v>
       </c>
       <c r="C17" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D17" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E17" t="s">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="F17" t="s">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="G17" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="H17">
-        <v>27000</v>
+        <v>18950</v>
       </c>
       <c r="I17">
-        <v>1500000</v>
+        <v>379000</v>
       </c>
       <c r="J17">
-        <v>18000</v>
+        <v>250000</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>100</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1232,112 +1229,74 @@
         <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C18" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E18" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="F18" t="s">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="G18" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="H18">
-        <v>18950</v>
+        <v>60000</v>
       </c>
       <c r="I18">
-        <v>379000</v>
+        <v>2000000</v>
       </c>
       <c r="J18">
-        <v>250000</v>
+        <v>30000</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>20</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B19" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C19" t="s">
         <v>51</v>
       </c>
       <c r="D19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F19" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G19" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="H19">
-        <v>10000</v>
+        <v>22600</v>
       </c>
       <c r="I19">
-        <v>5000000</v>
+        <v>1130000</v>
       </c>
       <c r="J19">
-        <v>2000</v>
+        <v>20000</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
-      <c r="A20" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20" t="s">
-        <v>31</v>
-      </c>
-      <c r="C20" t="s">
-        <v>52</v>
-      </c>
-      <c r="D20" t="s">
-        <v>25</v>
-      </c>
-      <c r="E20" t="s">
-        <v>25</v>
-      </c>
-      <c r="F20" t="s">
-        <v>59</v>
-      </c>
-      <c r="G20" t="s">
-        <v>60</v>
-      </c>
-      <c r="H20">
-        <v>22600</v>
-      </c>
-      <c r="I20">
-        <v>1130000</v>
-      </c>
-      <c r="J20">
-        <v>20000</v>
-      </c>
-      <c r="K20">
-        <v>0</v>
-      </c>
-      <c r="L20">
         <v>100</v>
       </c>
     </row>

--- a/datasets/form3.xlsx
+++ b/datasets/form3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="64">
   <si>
     <t>인수기관</t>
   </si>
@@ -58,18 +58,12 @@
     <t>DB</t>
   </si>
   <si>
-    <t>IBK</t>
-  </si>
-  <si>
     <t>NH</t>
   </si>
   <si>
     <t>SK</t>
   </si>
   <si>
-    <t>삼성</t>
-  </si>
-  <si>
     <t>신영</t>
   </si>
   <si>
@@ -103,13 +97,13 @@
     <t>2024-01-25</t>
   </si>
   <si>
-    <t>2024-01-23</t>
+    <t>2024-02-13</t>
   </si>
   <si>
     <t>2024-03-04</t>
   </si>
   <si>
-    <t>2024-02-13</t>
+    <t>2024-03-14</t>
   </si>
   <si>
     <t>2024-02-20</t>
@@ -133,21 +127,18 @@
     <t>스튜디오삼익</t>
   </si>
   <si>
-    <t>IBKS제24호스팩</t>
+    <t>케이웨더</t>
   </si>
   <si>
     <t>오상헬스케어</t>
   </si>
   <si>
-    <t>케이웨더</t>
+    <t>엔젤로보틱스</t>
   </si>
   <si>
     <t>SK증권제11호스팩</t>
   </si>
   <si>
-    <t>이닉스</t>
-  </si>
-  <si>
     <t>신영스팩10호</t>
   </si>
   <si>
@@ -184,13 +175,13 @@
     <t>2024-01-30</t>
   </si>
   <si>
-    <t>2024-01-26</t>
+    <t>2024-02-16</t>
   </si>
   <si>
     <t>2024-03-07</t>
   </si>
   <si>
-    <t>2024-02-16</t>
+    <t>2024-03-19</t>
   </si>
   <si>
     <t>2024-02-23</t>
@@ -208,10 +199,10 @@
     <t>2024-02-06</t>
   </si>
   <si>
-    <t>2024-02-01</t>
-  </si>
-  <si>
     <t>2024-03-13</t>
+  </si>
+  <si>
+    <t>2024-03-26</t>
   </si>
   <si>
     <t>2024-03-21</t>
@@ -572,7 +563,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L19"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -621,10 +612,10 @@
         <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
@@ -633,10 +624,10 @@
         <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="H2">
         <v>8000</v>
@@ -659,22 +650,22 @@
         <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G3" t="s">
         <v>54</v>
-      </c>
-      <c r="G3" t="s">
-        <v>57</v>
       </c>
       <c r="H3">
         <v>14202</v>
@@ -697,10 +688,10 @@
         <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D4" t="s">
         <v>13</v>
@@ -709,10 +700,10 @@
         <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="H4">
         <v>15300</v>
@@ -735,69 +726,69 @@
         <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="F5" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="G5" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="H5">
-        <v>8000</v>
+        <v>14202</v>
       </c>
       <c r="I5">
-        <v>4000000</v>
+        <v>2104000</v>
       </c>
       <c r="J5">
-        <v>2000</v>
+        <v>13500</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F6" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="G6" t="s">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="H6">
-        <v>19800</v>
+        <v>7000</v>
       </c>
       <c r="I6">
-        <v>990000</v>
+        <v>1000000</v>
       </c>
       <c r="J6">
-        <v>20000</v>
+        <v>7000</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -808,72 +799,72 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D7" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="E7" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="F7" t="s">
         <v>54</v>
       </c>
       <c r="G7" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="H7">
-        <v>14202</v>
+        <v>19800</v>
       </c>
       <c r="I7">
-        <v>2104000</v>
+        <v>990000</v>
       </c>
       <c r="J7">
-        <v>13500</v>
+        <v>20000</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F8" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="G8" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="H8">
-        <v>7000</v>
+        <v>32000</v>
       </c>
       <c r="I8">
-        <v>1000000</v>
+        <v>1600000</v>
       </c>
       <c r="J8">
-        <v>7000</v>
+        <v>20000</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -884,25 +875,25 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F9" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H9">
         <v>8000</v>
@@ -922,34 +913,34 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F10" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="G10" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="H10">
-        <v>42000</v>
+        <v>9150</v>
       </c>
       <c r="I10">
-        <v>3000000</v>
+        <v>4575000</v>
       </c>
       <c r="J10">
-        <v>14000</v>
+        <v>2000</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -960,107 +951,107 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E11" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="F11" t="s">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="G11" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="H11">
-        <v>9150</v>
+        <v>75800</v>
       </c>
       <c r="I11">
-        <v>4575000</v>
+        <v>379000</v>
       </c>
       <c r="J11">
-        <v>2000</v>
+        <v>250000</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>100</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E12" t="s">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="F12" t="s">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="G12" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="H12">
-        <v>75800</v>
+        <v>13000</v>
       </c>
       <c r="I12">
-        <v>379000</v>
+        <v>6500000</v>
       </c>
       <c r="J12">
-        <v>250000</v>
+        <v>2000</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>80</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" t="s">
         <v>32</v>
       </c>
-      <c r="C13" t="s">
-        <v>46</v>
-      </c>
-      <c r="D13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E13" t="s">
-        <v>20</v>
-      </c>
-      <c r="F13" t="s">
-        <v>59</v>
-      </c>
       <c r="G13" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="H13">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="I13">
-        <v>6500000</v>
+        <v>4000000</v>
       </c>
       <c r="J13">
         <v>2000</v>
@@ -1074,34 +1065,34 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C14" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F14" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="G14" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H14">
-        <v>8000</v>
+        <v>9600</v>
       </c>
       <c r="I14">
-        <v>4000000</v>
+        <v>600000</v>
       </c>
       <c r="J14">
-        <v>2000</v>
+        <v>16000</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1112,34 +1103,34 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C15" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G15" t="s">
         <v>59</v>
       </c>
       <c r="H15">
-        <v>9600</v>
+        <v>10000</v>
       </c>
       <c r="I15">
-        <v>600000</v>
+        <v>5000000</v>
       </c>
       <c r="J15">
-        <v>16000</v>
+        <v>2000</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1150,153 +1141,115 @@
     </row>
     <row r="16" spans="1:12">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C16" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E16" t="s">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="F16" t="s">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="G16" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="H16">
-        <v>10000</v>
+        <v>18950</v>
       </c>
       <c r="I16">
-        <v>5000000</v>
+        <v>379000</v>
       </c>
       <c r="J16">
-        <v>2000</v>
+        <v>250000</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>100</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:12">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B17" t="s">
         <v>33</v>
       </c>
       <c r="C17" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D17" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E17" t="s">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="F17" t="s">
-        <v>26</v>
+        <v>58</v>
       </c>
       <c r="G17" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="H17">
-        <v>18950</v>
+        <v>60000</v>
       </c>
       <c r="I17">
-        <v>379000</v>
+        <v>2000000</v>
       </c>
       <c r="J17">
-        <v>250000</v>
+        <v>30000</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>20</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:12">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="C18" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F18" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="G18" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="H18">
-        <v>60000</v>
+        <v>22600</v>
       </c>
       <c r="I18">
-        <v>2000000</v>
+        <v>1130000</v>
       </c>
       <c r="J18">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
-      <c r="A19" t="s">
-        <v>25</v>
-      </c>
-      <c r="B19" t="s">
-        <v>31</v>
-      </c>
-      <c r="C19" t="s">
-        <v>51</v>
-      </c>
-      <c r="D19" t="s">
-        <v>25</v>
-      </c>
-      <c r="E19" t="s">
-        <v>25</v>
-      </c>
-      <c r="F19" t="s">
-        <v>58</v>
-      </c>
-      <c r="G19" t="s">
-        <v>59</v>
-      </c>
-      <c r="H19">
-        <v>22600</v>
-      </c>
-      <c r="I19">
-        <v>1130000</v>
-      </c>
-      <c r="J19">
-        <v>20000</v>
-      </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
-      <c r="L19">
         <v>100</v>
       </c>
     </row>

--- a/datasets/form3.xlsx
+++ b/datasets/form3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="67">
   <si>
     <t>인수기관</t>
   </si>
@@ -91,10 +91,13 @@
     <t>2024-02-19</t>
   </si>
   <si>
+    <t>2024-01-25</t>
+  </si>
+  <si>
     <t>2024-02-26</t>
   </si>
   <si>
-    <t>2024-01-25</t>
+    <t>2024-03-14</t>
   </si>
   <si>
     <t>2024-02-13</t>
@@ -103,9 +106,6 @@
     <t>2024-03-04</t>
   </si>
   <si>
-    <t>2024-03-14</t>
-  </si>
-  <si>
     <t>2024-02-20</t>
   </si>
   <si>
@@ -115,16 +115,22 @@
     <t>2024-02-22</t>
   </si>
   <si>
+    <t>2024-03-18</t>
+  </si>
+  <si>
     <t>2024-03-12</t>
   </si>
   <si>
     <t>비엔케이제2호스팩</t>
   </si>
   <si>
+    <t>스튜디오삼익</t>
+  </si>
+  <si>
     <t>케이엔알시스템</t>
   </si>
   <si>
-    <t>스튜디오삼익</t>
+    <t>엔젤로보틱스</t>
   </si>
   <si>
     <t>케이웨더</t>
@@ -133,9 +139,6 @@
     <t>오상헬스케어</t>
   </si>
   <si>
-    <t>엔젤로보틱스</t>
-  </si>
-  <si>
     <t>SK증권제11호스팩</t>
   </si>
   <si>
@@ -157,6 +160,9 @@
     <t>하나31호스팩</t>
   </si>
   <si>
+    <t>하나32호스팩</t>
+  </si>
+  <si>
     <t>삼현</t>
   </si>
   <si>
@@ -169,10 +175,13 @@
     <t>신한, 하나</t>
   </si>
   <si>
+    <t>2024-01-30</t>
+  </si>
+  <si>
     <t>2024-02-29</t>
   </si>
   <si>
-    <t>2024-01-30</t>
+    <t>2024-03-19</t>
   </si>
   <si>
     <t>2024-02-16</t>
@@ -181,15 +190,15 @@
     <t>2024-03-07</t>
   </si>
   <si>
-    <t>2024-03-19</t>
-  </si>
-  <si>
     <t>2024-02-23</t>
   </si>
   <si>
     <t>2024-02-27</t>
   </si>
   <si>
+    <t>2024-03-21</t>
+  </si>
+  <si>
     <t>2024-03-15</t>
   </si>
   <si>
@@ -199,13 +208,13 @@
     <t>2024-02-06</t>
   </si>
   <si>
+    <t>2024-03-26</t>
+  </si>
+  <si>
     <t>2024-03-13</t>
   </si>
   <si>
-    <t>2024-03-26</t>
-  </si>
-  <si>
-    <t>2024-03-21</t>
+    <t>2024-03-27</t>
   </si>
 </sst>
 </file>
@@ -563,7 +572,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L18"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -615,7 +624,7 @@
         <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
@@ -627,7 +636,7 @@
         <v>32</v>
       </c>
       <c r="G2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="H2">
         <v>8000</v>
@@ -653,34 +662,34 @@
         <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D3" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G3" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="H3">
-        <v>14202</v>
+        <v>15300</v>
       </c>
       <c r="I3">
-        <v>2104000</v>
+        <v>850000</v>
       </c>
       <c r="J3">
-        <v>13500</v>
+        <v>18000</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -691,34 +700,34 @@
         <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="F4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="H4">
-        <v>15300</v>
+        <v>14202</v>
       </c>
       <c r="I4">
-        <v>850000</v>
+        <v>2104000</v>
       </c>
       <c r="J4">
-        <v>18000</v>
+        <v>13500</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -726,37 +735,37 @@
         <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D5" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="F5" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="G5" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="H5">
-        <v>14202</v>
+        <v>32000</v>
       </c>
       <c r="I5">
-        <v>2104000</v>
+        <v>1600000</v>
       </c>
       <c r="J5">
-        <v>13500</v>
+        <v>20000</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -764,10 +773,10 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C6" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D6" t="s">
         <v>14</v>
@@ -776,7 +785,7 @@
         <v>14</v>
       </c>
       <c r="F6" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G6" t="s">
         <v>32</v>
@@ -802,10 +811,10 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D7" t="s">
         <v>14</v>
@@ -814,10 +823,10 @@
         <v>14</v>
       </c>
       <c r="F7" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="G7" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="H7">
         <v>19800</v>
@@ -840,37 +849,37 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="E8" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="F8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G8" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="H8">
-        <v>32000</v>
+        <v>14202</v>
       </c>
       <c r="I8">
-        <v>1600000</v>
+        <v>2104000</v>
       </c>
       <c r="J8">
-        <v>20000</v>
+        <v>13500</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -881,7 +890,7 @@
         <v>30</v>
       </c>
       <c r="C9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D9" t="s">
         <v>15</v>
@@ -890,10 +899,10 @@
         <v>15</v>
       </c>
       <c r="F9" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H9">
         <v>8000</v>
@@ -916,10 +925,10 @@
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D10" t="s">
         <v>16</v>
@@ -928,10 +937,10 @@
         <v>16</v>
       </c>
       <c r="F10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G10" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="H10">
         <v>9150</v>
@@ -957,19 +966,19 @@
         <v>31</v>
       </c>
       <c r="C11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D11" t="s">
         <v>17</v>
       </c>
       <c r="E11" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F11" t="s">
         <v>24</v>
       </c>
       <c r="G11" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H11">
         <v>75800</v>
@@ -995,7 +1004,7 @@
         <v>30</v>
       </c>
       <c r="C12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D12" t="s">
         <v>18</v>
@@ -1004,10 +1013,10 @@
         <v>18</v>
       </c>
       <c r="F12" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G12" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="H12">
         <v>13000</v>
@@ -1033,7 +1042,7 @@
         <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D13" t="s">
         <v>19</v>
@@ -1045,7 +1054,7 @@
         <v>32</v>
       </c>
       <c r="G13" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="H13">
         <v>8000</v>
@@ -1068,10 +1077,10 @@
         <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1080,10 +1089,10 @@
         <v>20</v>
       </c>
       <c r="F14" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G14" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H14">
         <v>9600</v>
@@ -1109,7 +1118,7 @@
         <v>32</v>
       </c>
       <c r="C15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1118,10 +1127,10 @@
         <v>21</v>
       </c>
       <c r="F15" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G15" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="H15">
         <v>10000</v>
@@ -1147,19 +1156,19 @@
         <v>31</v>
       </c>
       <c r="C16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D16" t="s">
         <v>17</v>
       </c>
       <c r="E16" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F16" t="s">
         <v>24</v>
       </c>
       <c r="G16" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H16">
         <v>18950</v>
@@ -1179,34 +1188,34 @@
     </row>
     <row r="17" spans="1:12">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B17" t="s">
         <v>33</v>
       </c>
       <c r="C17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F17" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G17" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="H17">
-        <v>60000</v>
+        <v>6000</v>
       </c>
       <c r="I17">
-        <v>2000000</v>
+        <v>3000000</v>
       </c>
       <c r="J17">
-        <v>30000</v>
+        <v>2000</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1217,39 +1226,77 @@
     </row>
     <row r="18" spans="1:12">
       <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" t="s">
+        <v>22</v>
+      </c>
+      <c r="F18" t="s">
+        <v>61</v>
+      </c>
+      <c r="G18" t="s">
+        <v>60</v>
+      </c>
+      <c r="H18">
+        <v>60000</v>
+      </c>
+      <c r="I18">
+        <v>2000000</v>
+      </c>
+      <c r="J18">
+        <v>30000</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" t="s">
         <v>23</v>
       </c>
-      <c r="B18" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18" t="s">
-        <v>48</v>
-      </c>
-      <c r="D18" t="s">
+      <c r="B19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" t="s">
         <v>23</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E19" t="s">
         <v>23</v>
       </c>
-      <c r="F18" t="s">
-        <v>53</v>
-      </c>
-      <c r="G18" t="s">
+      <c r="F19" t="s">
         <v>56</v>
       </c>
-      <c r="H18">
+      <c r="G19" t="s">
+        <v>58</v>
+      </c>
+      <c r="H19">
         <v>22600</v>
       </c>
-      <c r="I18">
+      <c r="I19">
         <v>1130000</v>
       </c>
-      <c r="J18">
+      <c r="J19">
         <v>20000</v>
       </c>
-      <c r="K18">
-        <v>0</v>
-      </c>
-      <c r="L18">
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
         <v>100</v>
       </c>
     </row>

--- a/datasets/form3.xlsx
+++ b/datasets/form3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="61">
   <si>
     <t>인수기관</t>
   </si>
@@ -64,9 +64,6 @@
     <t>SK</t>
   </si>
   <si>
-    <t>신영</t>
-  </si>
-  <si>
     <t>신한</t>
   </si>
   <si>
@@ -91,60 +88,51 @@
     <t>2024-02-19</t>
   </si>
   <si>
-    <t>2024-01-25</t>
-  </si>
-  <si>
     <t>2024-02-26</t>
   </si>
   <si>
     <t>2024-03-14</t>
   </si>
   <si>
+    <t>2024-03-04</t>
+  </si>
+  <si>
     <t>2024-02-13</t>
   </si>
   <si>
-    <t>2024-03-04</t>
-  </si>
-  <si>
     <t>2024-02-20</t>
   </si>
   <si>
     <t>2024-02-14</t>
   </si>
   <si>
+    <t>2024-03-18</t>
+  </si>
+  <si>
     <t>2024-02-22</t>
   </si>
   <si>
-    <t>2024-03-18</t>
-  </si>
-  <si>
     <t>2024-03-12</t>
   </si>
   <si>
     <t>비엔케이제2호스팩</t>
   </si>
   <si>
-    <t>스튜디오삼익</t>
-  </si>
-  <si>
     <t>케이엔알시스템</t>
   </si>
   <si>
     <t>엔젤로보틱스</t>
   </si>
   <si>
+    <t>오상헬스케어</t>
+  </si>
+  <si>
     <t>케이웨더</t>
   </si>
   <si>
-    <t>오상헬스케어</t>
-  </si>
-  <si>
     <t>SK증권제11호스팩</t>
   </si>
   <si>
-    <t>신영스팩10호</t>
-  </si>
-  <si>
     <t>에이피알</t>
   </si>
   <si>
@@ -157,12 +145,12 @@
     <t>코셈</t>
   </si>
   <si>
+    <t>하나32호스팩</t>
+  </si>
+  <si>
     <t>하나31호스팩</t>
   </si>
   <si>
-    <t>하나32호스팩</t>
-  </si>
-  <si>
     <t>삼현</t>
   </si>
   <si>
@@ -175,37 +163,31 @@
     <t>신한, 하나</t>
   </si>
   <si>
-    <t>2024-01-30</t>
-  </si>
-  <si>
     <t>2024-02-29</t>
   </si>
   <si>
     <t>2024-03-19</t>
   </si>
   <si>
+    <t>2024-03-07</t>
+  </si>
+  <si>
     <t>2024-02-16</t>
   </si>
   <si>
-    <t>2024-03-07</t>
-  </si>
-  <si>
     <t>2024-02-23</t>
   </si>
   <si>
+    <t>2024-03-21</t>
+  </si>
+  <si>
     <t>2024-02-27</t>
   </si>
   <si>
-    <t>2024-03-21</t>
-  </si>
-  <si>
     <t>2024-03-15</t>
   </si>
   <si>
     <t>2024-03-05</t>
-  </si>
-  <si>
-    <t>2024-02-06</t>
   </si>
   <si>
     <t>2024-03-26</t>
@@ -572,7 +554,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L19"/>
+  <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -621,10 +603,10 @@
         <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
@@ -633,10 +615,10 @@
         <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="H2">
         <v>8000</v>
@@ -659,75 +641,75 @@
         <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="F3" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="G3" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="H3">
-        <v>15300</v>
+        <v>14202</v>
       </c>
       <c r="I3">
-        <v>850000</v>
+        <v>2104000</v>
       </c>
       <c r="J3">
-        <v>18000</v>
+        <v>13500</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D4" t="s">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="F4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="G4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H4">
-        <v>14202</v>
+        <v>32000</v>
       </c>
       <c r="I4">
-        <v>2104000</v>
+        <v>1600000</v>
       </c>
       <c r="J4">
-        <v>13500</v>
+        <v>20000</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -735,10 +717,10 @@
         <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D5" t="s">
         <v>14</v>
@@ -747,16 +729,16 @@
         <v>14</v>
       </c>
       <c r="F5" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="G5" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="H5">
-        <v>32000</v>
+        <v>19800</v>
       </c>
       <c r="I5">
-        <v>1600000</v>
+        <v>990000</v>
       </c>
       <c r="J5">
         <v>20000</v>
@@ -773,37 +755,37 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="F6" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="G6" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="H6">
-        <v>7000</v>
+        <v>14202</v>
       </c>
       <c r="I6">
-        <v>1000000</v>
+        <v>2104000</v>
       </c>
       <c r="J6">
-        <v>7000</v>
+        <v>13500</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -811,10 +793,10 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D7" t="s">
         <v>14</v>
@@ -823,19 +805,19 @@
         <v>14</v>
       </c>
       <c r="F7" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="G7" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="H7">
-        <v>19800</v>
+        <v>7000</v>
       </c>
       <c r="I7">
-        <v>990000</v>
+        <v>1000000</v>
       </c>
       <c r="J7">
-        <v>20000</v>
+        <v>7000</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -846,107 +828,107 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" t="s">
+        <v>53</v>
+      </c>
+      <c r="G8" t="s">
         <v>26</v>
       </c>
-      <c r="C8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D8" t="s">
-        <v>51</v>
-      </c>
-      <c r="E8" t="s">
-        <v>51</v>
-      </c>
-      <c r="F8" t="s">
-        <v>54</v>
-      </c>
-      <c r="G8" t="s">
-        <v>57</v>
-      </c>
       <c r="H8">
-        <v>14202</v>
+        <v>8000</v>
       </c>
       <c r="I8">
-        <v>2104000</v>
+        <v>4000000</v>
       </c>
       <c r="J8">
-        <v>13500</v>
+        <v>2000</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E9" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="F9" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="G9" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="H9">
-        <v>8000</v>
+        <v>75800</v>
       </c>
       <c r="I9">
-        <v>4000000</v>
+        <v>379000</v>
       </c>
       <c r="J9">
-        <v>2000</v>
+        <v>250000</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>100</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C10" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F10" t="s">
         <v>53</v>
       </c>
       <c r="G10" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="H10">
-        <v>9150</v>
+        <v>13000</v>
       </c>
       <c r="I10">
-        <v>4575000</v>
+        <v>6500000</v>
       </c>
       <c r="J10">
         <v>2000</v>
@@ -960,72 +942,72 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" t="s">
         <v>31</v>
       </c>
-      <c r="C11" t="s">
-        <v>43</v>
-      </c>
-      <c r="D11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" t="s">
-        <v>52</v>
-      </c>
-      <c r="F11" t="s">
-        <v>24</v>
-      </c>
       <c r="G11" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="H11">
-        <v>75800</v>
+        <v>8000</v>
       </c>
       <c r="I11">
-        <v>379000</v>
+        <v>4000000</v>
       </c>
       <c r="J11">
-        <v>250000</v>
+        <v>2000</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>80</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F12" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="G12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H12">
-        <v>13000</v>
+        <v>9600</v>
       </c>
       <c r="I12">
-        <v>6500000</v>
+        <v>600000</v>
       </c>
       <c r="J12">
-        <v>2000</v>
+        <v>16000</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -1036,31 +1018,31 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C13" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F13" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="G13" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="H13">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="I13">
-        <v>4000000</v>
+        <v>3000000</v>
       </c>
       <c r="J13">
         <v>2000</v>
@@ -1077,10 +1059,10 @@
         <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1089,19 +1071,19 @@
         <v>20</v>
       </c>
       <c r="F14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H14">
-        <v>9600</v>
+        <v>10000</v>
       </c>
       <c r="I14">
-        <v>600000</v>
+        <v>5000000</v>
       </c>
       <c r="J14">
-        <v>16000</v>
+        <v>2000</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1112,40 +1094,40 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B15" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C15" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E15" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="F15" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="G15" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="H15">
-        <v>10000</v>
+        <v>18950</v>
       </c>
       <c r="I15">
-        <v>5000000</v>
+        <v>379000</v>
       </c>
       <c r="J15">
-        <v>2000</v>
+        <v>250000</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>100</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -1153,150 +1135,74 @@
         <v>21</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C16" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D16" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E16" t="s">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="F16" t="s">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="G16" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="H16">
-        <v>18950</v>
+        <v>60000</v>
       </c>
       <c r="I16">
-        <v>379000</v>
+        <v>2000000</v>
       </c>
       <c r="J16">
-        <v>250000</v>
+        <v>30000</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>20</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:12">
       <c r="A17" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C17" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D17" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E17" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F17" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="G17" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="H17">
-        <v>6000</v>
+        <v>22600</v>
       </c>
       <c r="I17">
-        <v>3000000</v>
+        <v>1130000</v>
       </c>
       <c r="J17">
-        <v>2000</v>
+        <v>20000</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
-      <c r="A18" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" t="s">
-        <v>34</v>
-      </c>
-      <c r="C18" t="s">
-        <v>49</v>
-      </c>
-      <c r="D18" t="s">
-        <v>22</v>
-      </c>
-      <c r="E18" t="s">
-        <v>22</v>
-      </c>
-      <c r="F18" t="s">
-        <v>61</v>
-      </c>
-      <c r="G18" t="s">
-        <v>60</v>
-      </c>
-      <c r="H18">
-        <v>60000</v>
-      </c>
-      <c r="I18">
-        <v>2000000</v>
-      </c>
-      <c r="J18">
-        <v>30000</v>
-      </c>
-      <c r="K18">
-        <v>0</v>
-      </c>
-      <c r="L18">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
-      <c r="A19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" t="s">
-        <v>28</v>
-      </c>
-      <c r="C19" t="s">
-        <v>50</v>
-      </c>
-      <c r="D19" t="s">
-        <v>23</v>
-      </c>
-      <c r="E19" t="s">
-        <v>23</v>
-      </c>
-      <c r="F19" t="s">
-        <v>56</v>
-      </c>
-      <c r="G19" t="s">
-        <v>58</v>
-      </c>
-      <c r="H19">
-        <v>22600</v>
-      </c>
-      <c r="I19">
-        <v>1130000</v>
-      </c>
-      <c r="J19">
-        <v>20000</v>
-      </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
-      <c r="L19">
         <v>100</v>
       </c>
     </row>

--- a/datasets/form3.xlsx
+++ b/datasets/form3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="66">
   <si>
     <t>인수기관</t>
   </si>
@@ -64,6 +64,9 @@
     <t>SK</t>
   </si>
   <si>
+    <t>미래</t>
+  </si>
+  <si>
     <t>신한</t>
   </si>
   <si>
@@ -103,6 +106,9 @@
     <t>2024-02-20</t>
   </si>
   <si>
+    <t>2024-03-25</t>
+  </si>
+  <si>
     <t>2024-02-14</t>
   </si>
   <si>
@@ -133,6 +139,9 @@
     <t>SK증권제11호스팩</t>
   </si>
   <si>
+    <t>아이엠비디엑스</t>
+  </si>
+  <si>
     <t>에이피알</t>
   </si>
   <si>
@@ -178,6 +187,9 @@
     <t>2024-02-23</t>
   </si>
   <si>
+    <t>2024-03-28</t>
+  </si>
+  <si>
     <t>2024-03-21</t>
   </si>
   <si>
@@ -194,6 +206,9 @@
   </si>
   <si>
     <t>2024-03-13</t>
+  </si>
+  <si>
+    <t>2024-04-03</t>
   </si>
   <si>
     <t>2024-03-27</t>
@@ -554,7 +569,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L17"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -603,10 +618,10 @@
         <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
@@ -615,10 +630,10 @@
         <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="H2">
         <v>8000</v>
@@ -641,22 +656,22 @@
         <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D3" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E3" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F3" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G3" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="H3">
         <v>14202</v>
@@ -679,10 +694,10 @@
         <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D4" t="s">
         <v>14</v>
@@ -691,10 +706,10 @@
         <v>14</v>
       </c>
       <c r="F4" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G4" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="H4">
         <v>32000</v>
@@ -717,10 +732,10 @@
         <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D5" t="s">
         <v>14</v>
@@ -729,10 +744,10 @@
         <v>14</v>
       </c>
       <c r="F5" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G5" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="H5">
         <v>19800</v>
@@ -755,22 +770,22 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D6" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E6" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F6" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G6" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="H6">
         <v>14202</v>
@@ -793,10 +808,10 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D7" t="s">
         <v>14</v>
@@ -805,10 +820,10 @@
         <v>14</v>
       </c>
       <c r="F7" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H7">
         <v>7000</v>
@@ -831,10 +846,10 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C8" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D8" t="s">
         <v>15</v>
@@ -843,10 +858,10 @@
         <v>15</v>
       </c>
       <c r="F8" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H8">
         <v>8000</v>
@@ -869,37 +884,37 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C9" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D9" t="s">
         <v>16</v>
       </c>
       <c r="E9" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="F9" t="s">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="G9" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="H9">
-        <v>75800</v>
+        <v>32500</v>
       </c>
       <c r="I9">
-        <v>379000</v>
+        <v>2500000</v>
       </c>
       <c r="J9">
-        <v>250000</v>
+        <v>13000</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>80</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -907,37 +922,37 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C10" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D10" t="s">
         <v>17</v>
       </c>
       <c r="E10" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="F10" t="s">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="G10" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="H10">
-        <v>13000</v>
+        <v>75800</v>
       </c>
       <c r="I10">
-        <v>6500000</v>
+        <v>379000</v>
       </c>
       <c r="J10">
-        <v>2000</v>
+        <v>250000</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>100</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -945,10 +960,10 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C11" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D11" t="s">
         <v>18</v>
@@ -957,16 +972,16 @@
         <v>18</v>
       </c>
       <c r="F11" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="G11" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="H11">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="I11">
-        <v>4000000</v>
+        <v>6500000</v>
       </c>
       <c r="J11">
         <v>2000</v>
@@ -983,10 +998,10 @@
         <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D12" t="s">
         <v>19</v>
@@ -995,19 +1010,19 @@
         <v>19</v>
       </c>
       <c r="F12" t="s">
+        <v>33</v>
+      </c>
+      <c r="G12" t="s">
         <v>52</v>
       </c>
-      <c r="G12" t="s">
-        <v>53</v>
-      </c>
       <c r="H12">
-        <v>9600</v>
+        <v>8000</v>
       </c>
       <c r="I12">
-        <v>600000</v>
+        <v>4000000</v>
       </c>
       <c r="J12">
-        <v>16000</v>
+        <v>2000</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -1021,10 +1036,10 @@
         <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C13" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D13" t="s">
         <v>20</v>
@@ -1033,19 +1048,19 @@
         <v>20</v>
       </c>
       <c r="F13" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G13" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="H13">
-        <v>6000</v>
+        <v>9600</v>
       </c>
       <c r="I13">
-        <v>3000000</v>
+        <v>600000</v>
       </c>
       <c r="J13">
-        <v>2000</v>
+        <v>16000</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1056,31 +1071,31 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C14" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F14" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="G14" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="H14">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="I14">
-        <v>5000000</v>
+        <v>3000000</v>
       </c>
       <c r="J14">
         <v>2000</v>
@@ -1094,25 +1109,25 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C15" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E15" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G15" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="H15">
         <v>18950</v>
@@ -1135,10 +1150,10 @@
         <v>21</v>
       </c>
       <c r="B16" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C16" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D16" t="s">
         <v>21</v>
@@ -1147,19 +1162,19 @@
         <v>21</v>
       </c>
       <c r="F16" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="G16" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="H16">
-        <v>60000</v>
+        <v>10000</v>
       </c>
       <c r="I16">
-        <v>2000000</v>
+        <v>5000000</v>
       </c>
       <c r="J16">
-        <v>30000</v>
+        <v>2000</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1173,10 +1188,10 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C17" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D17" t="s">
         <v>22</v>
@@ -1185,24 +1200,62 @@
         <v>22</v>
       </c>
       <c r="F17" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="G17" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="H17">
+        <v>60000</v>
+      </c>
+      <c r="I17">
+        <v>2000000</v>
+      </c>
+      <c r="J17">
+        <v>30000</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" t="s">
+        <v>23</v>
+      </c>
+      <c r="F18" t="s">
+        <v>55</v>
+      </c>
+      <c r="G18" t="s">
+        <v>56</v>
+      </c>
+      <c r="H18">
         <v>22600</v>
       </c>
-      <c r="I17">
+      <c r="I18">
         <v>1130000</v>
       </c>
-      <c r="J17">
+      <c r="J18">
         <v>20000</v>
       </c>
-      <c r="K17">
-        <v>0</v>
-      </c>
-      <c r="L17">
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
         <v>100</v>
       </c>
     </row>

--- a/datasets/form3.xlsx
+++ b/datasets/form3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="64">
   <si>
     <t>인수기관</t>
   </si>
@@ -106,9 +106,6 @@
     <t>2024-04-02</t>
   </si>
   <si>
-    <t>2024-02-14</t>
-  </si>
-  <si>
     <t>2024-02-13</t>
   </si>
   <si>
@@ -142,9 +139,6 @@
     <t>신한제12호스팩</t>
   </si>
   <si>
-    <t>에이피알</t>
-  </si>
-  <si>
     <t>유안타제15호스팩</t>
   </si>
   <si>
@@ -164,9 +158,6 @@
   </si>
   <si>
     <t>DB, NH</t>
-  </si>
-  <si>
-    <t>신한, 하나</t>
   </si>
   <si>
     <t>2024-02-29</t>
@@ -572,7 +563,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L17"/>
+  <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -624,7 +615,7 @@
         <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
@@ -633,10 +624,10 @@
         <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H2">
         <v>8000</v>
@@ -662,19 +653,19 @@
         <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="H3">
         <v>14202</v>
@@ -700,7 +691,7 @@
         <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D4" t="s">
         <v>14</v>
@@ -709,10 +700,10 @@
         <v>14</v>
       </c>
       <c r="F4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="H4">
         <v>32000</v>
@@ -738,7 +729,7 @@
         <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D5" t="s">
         <v>14</v>
@@ -747,10 +738,10 @@
         <v>14</v>
       </c>
       <c r="F5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G5" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="H5">
         <v>19800</v>
@@ -776,19 +767,19 @@
         <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F6" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="H6">
         <v>14202</v>
@@ -814,7 +805,7 @@
         <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D7" t="s">
         <v>15</v>
@@ -823,7 +814,7 @@
         <v>15</v>
       </c>
       <c r="F7" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G7" t="s">
         <v>26</v>
@@ -852,7 +843,7 @@
         <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D8" t="s">
         <v>16</v>
@@ -861,10 +852,10 @@
         <v>16</v>
       </c>
       <c r="F8" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G8" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="H8">
         <v>32500</v>
@@ -890,7 +881,7 @@
         <v>29</v>
       </c>
       <c r="C9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D9" t="s">
         <v>17</v>
@@ -899,10 +890,10 @@
         <v>17</v>
       </c>
       <c r="F9" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G9" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="H9">
         <v>10000</v>
@@ -922,69 +913,69 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E10" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="F10" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="G10" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="H10">
-        <v>75800</v>
+        <v>13000</v>
       </c>
       <c r="I10">
-        <v>379000</v>
+        <v>6500000</v>
       </c>
       <c r="J10">
-        <v>250000</v>
+        <v>2000</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>80</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F11" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="G11" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="H11">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="I11">
-        <v>6500000</v>
+        <v>4000000</v>
       </c>
       <c r="J11">
         <v>2000</v>
@@ -998,34 +989,34 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F12" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="G12" t="s">
         <v>51</v>
       </c>
       <c r="H12">
-        <v>8000</v>
+        <v>9600</v>
       </c>
       <c r="I12">
-        <v>4000000</v>
+        <v>600000</v>
       </c>
       <c r="J12">
-        <v>2000</v>
+        <v>16000</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -1036,34 +1027,34 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
         <v>31</v>
       </c>
       <c r="C13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F13" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G13" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="H13">
-        <v>9600</v>
+        <v>6000</v>
       </c>
       <c r="I13">
-        <v>600000</v>
+        <v>3000000</v>
       </c>
       <c r="J13">
-        <v>16000</v>
+        <v>2000</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1080,7 +1071,7 @@
         <v>32</v>
       </c>
       <c r="C14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D14" t="s">
         <v>21</v>
@@ -1089,16 +1080,16 @@
         <v>21</v>
       </c>
       <c r="F14" t="s">
+        <v>56</v>
+      </c>
+      <c r="G14" t="s">
         <v>58</v>
       </c>
-      <c r="G14" t="s">
-        <v>66</v>
-      </c>
       <c r="H14">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="I14">
-        <v>3000000</v>
+        <v>5000000</v>
       </c>
       <c r="J14">
         <v>2000</v>
@@ -1112,115 +1103,39 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>33</v>
       </c>
       <c r="C15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F15" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G15" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="H15">
-        <v>10000</v>
+        <v>60000</v>
       </c>
       <c r="I15">
-        <v>5000000</v>
+        <v>2000000</v>
       </c>
       <c r="J15">
-        <v>2000</v>
+        <v>30000</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="A16" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16" t="s">
-        <v>42</v>
-      </c>
-      <c r="D16" t="s">
-        <v>17</v>
-      </c>
-      <c r="E16" t="s">
-        <v>50</v>
-      </c>
-      <c r="F16" t="s">
-        <v>23</v>
-      </c>
-      <c r="G16" t="s">
-        <v>59</v>
-      </c>
-      <c r="H16">
-        <v>18950</v>
-      </c>
-      <c r="I16">
-        <v>379000</v>
-      </c>
-      <c r="J16">
-        <v>250000</v>
-      </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
-      <c r="L16">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
-      <c r="A17" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17" t="s">
-        <v>34</v>
-      </c>
-      <c r="C17" t="s">
-        <v>48</v>
-      </c>
-      <c r="D17" t="s">
-        <v>22</v>
-      </c>
-      <c r="E17" t="s">
-        <v>22</v>
-      </c>
-      <c r="F17" t="s">
-        <v>60</v>
-      </c>
-      <c r="G17" t="s">
-        <v>58</v>
-      </c>
-      <c r="H17">
-        <v>60000</v>
-      </c>
-      <c r="I17">
-        <v>2000000</v>
-      </c>
-      <c r="J17">
-        <v>30000</v>
-      </c>
-      <c r="K17">
-        <v>0</v>
-      </c>
-      <c r="L17">
         <v>100</v>
       </c>
     </row>

--- a/datasets/form3.xlsx
+++ b/datasets/form3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="60">
   <si>
     <t>인수기관</t>
   </si>
@@ -76,9 +76,6 @@
     <t>유진</t>
   </si>
   <si>
-    <t>키움</t>
-  </si>
-  <si>
     <t>하나</t>
   </si>
   <si>
@@ -106,9 +103,6 @@
     <t>2024-04-02</t>
   </si>
   <si>
-    <t>2024-02-13</t>
-  </si>
-  <si>
     <t>2024-03-18</t>
   </si>
   <si>
@@ -145,9 +139,6 @@
     <t>유진스팩10호</t>
   </si>
   <si>
-    <t>코셈</t>
-  </si>
-  <si>
     <t>하나32호스팩</t>
   </si>
   <si>
@@ -176,9 +167,6 @@
   </si>
   <si>
     <t>2024-04-05</t>
-  </si>
-  <si>
-    <t>2024-02-16</t>
   </si>
   <si>
     <t>2024-03-21</t>
@@ -563,7 +551,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L15"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -612,10 +600,10 @@
         <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
@@ -624,10 +612,10 @@
         <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="H2">
         <v>8000</v>
@@ -650,22 +638,22 @@
         <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G3" t="s">
         <v>47</v>
-      </c>
-      <c r="E3" t="s">
-        <v>47</v>
-      </c>
-      <c r="F3" t="s">
-        <v>48</v>
-      </c>
-      <c r="G3" t="s">
-        <v>50</v>
       </c>
       <c r="H3">
         <v>14202</v>
@@ -688,10 +676,10 @@
         <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D4" t="s">
         <v>14</v>
@@ -700,10 +688,10 @@
         <v>14</v>
       </c>
       <c r="F4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H4">
         <v>32000</v>
@@ -726,10 +714,10 @@
         <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D5" t="s">
         <v>14</v>
@@ -738,10 +726,10 @@
         <v>14</v>
       </c>
       <c r="F5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G5" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="H5">
         <v>19800</v>
@@ -764,22 +752,22 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>45</v>
+      </c>
+      <c r="G6" t="s">
         <v>47</v>
-      </c>
-      <c r="E6" t="s">
-        <v>47</v>
-      </c>
-      <c r="F6" t="s">
-        <v>48</v>
-      </c>
-      <c r="G6" t="s">
-        <v>50</v>
       </c>
       <c r="H6">
         <v>14202</v>
@@ -802,10 +790,10 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D7" t="s">
         <v>15</v>
@@ -814,10 +802,10 @@
         <v>15</v>
       </c>
       <c r="F7" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H7">
         <v>8000</v>
@@ -840,10 +828,10 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D8" t="s">
         <v>16</v>
@@ -852,10 +840,10 @@
         <v>16</v>
       </c>
       <c r="F8" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G8" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="H8">
         <v>32500</v>
@@ -878,10 +866,10 @@
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D9" t="s">
         <v>17</v>
@@ -890,10 +878,10 @@
         <v>17</v>
       </c>
       <c r="F9" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G9" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="H9">
         <v>10000</v>
@@ -916,10 +904,10 @@
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D10" t="s">
         <v>18</v>
@@ -928,10 +916,10 @@
         <v>18</v>
       </c>
       <c r="F10" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G10" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H10">
         <v>13000</v>
@@ -954,10 +942,10 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D11" t="s">
         <v>19</v>
@@ -966,10 +954,10 @@
         <v>19</v>
       </c>
       <c r="F11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G11" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H11">
         <v>8000</v>
@@ -992,10 +980,10 @@
         <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
@@ -1004,19 +992,19 @@
         <v>20</v>
       </c>
       <c r="F12" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G12" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="H12">
-        <v>9600</v>
+        <v>6000</v>
       </c>
       <c r="I12">
-        <v>600000</v>
+        <v>3000000</v>
       </c>
       <c r="J12">
-        <v>16000</v>
+        <v>2000</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -1027,31 +1015,31 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C13" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F13" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G13" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="H13">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="I13">
-        <v>3000000</v>
+        <v>5000000</v>
       </c>
       <c r="J13">
         <v>2000</v>
@@ -1068,10 +1056,10 @@
         <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C14" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D14" t="s">
         <v>21</v>
@@ -1080,62 +1068,24 @@
         <v>21</v>
       </c>
       <c r="F14" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G14" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="H14">
-        <v>10000</v>
+        <v>60000</v>
       </c>
       <c r="I14">
-        <v>5000000</v>
+        <v>2000000</v>
       </c>
       <c r="J14">
-        <v>2000</v>
+        <v>30000</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" t="s">
-        <v>46</v>
-      </c>
-      <c r="D15" t="s">
-        <v>22</v>
-      </c>
-      <c r="E15" t="s">
-        <v>22</v>
-      </c>
-      <c r="F15" t="s">
-        <v>57</v>
-      </c>
-      <c r="G15" t="s">
-        <v>55</v>
-      </c>
-      <c r="H15">
-        <v>60000</v>
-      </c>
-      <c r="I15">
-        <v>2000000</v>
-      </c>
-      <c r="J15">
-        <v>30000</v>
-      </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
-      <c r="L15">
         <v>100</v>
       </c>
     </row>

--- a/datasets/form3.xlsx
+++ b/datasets/form3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="58">
   <si>
     <t>인수기관</t>
   </si>
@@ -52,9 +52,6 @@
     <t>인수비율</t>
   </si>
   <si>
-    <t>BNK</t>
-  </si>
-  <si>
     <t>DB</t>
   </si>
   <si>
@@ -73,18 +70,12 @@
     <t>유안타</t>
   </si>
   <si>
-    <t>유진</t>
-  </si>
-  <si>
     <t>하나</t>
   </si>
   <si>
     <t>한국</t>
   </si>
   <si>
-    <t>2024-02-19</t>
-  </si>
-  <si>
     <t>2024-02-26</t>
   </si>
   <si>
@@ -100,6 +91,9 @@
     <t>2024-03-25</t>
   </si>
   <si>
+    <t>2024-04-11</t>
+  </si>
+  <si>
     <t>2024-04-02</t>
   </si>
   <si>
@@ -112,9 +106,6 @@
     <t>2024-03-12</t>
   </si>
   <si>
-    <t>비엔케이제2호스팩</t>
-  </si>
-  <si>
     <t>케이엔알시스템</t>
   </si>
   <si>
@@ -130,15 +121,15 @@
     <t>아이엠비디엑스</t>
   </si>
   <si>
+    <t>신한제13호스팩</t>
+  </si>
+  <si>
     <t>신한제12호스팩</t>
   </si>
   <si>
     <t>유안타제15호스팩</t>
   </si>
   <si>
-    <t>유진스팩10호</t>
-  </si>
-  <si>
     <t>하나32호스팩</t>
   </si>
   <si>
@@ -166,6 +157,9 @@
     <t>2024-03-28</t>
   </si>
   <si>
+    <t>2024-04-15</t>
+  </si>
+  <si>
     <t>2024-04-05</t>
   </si>
   <si>
@@ -178,22 +172,22 @@
     <t>2024-03-15</t>
   </si>
   <si>
+    <t>2024-03-26</t>
+  </si>
+  <si>
+    <t>2024-03-13</t>
+  </si>
+  <si>
+    <t>2024-04-03</t>
+  </si>
+  <si>
+    <t>2024-04-22</t>
+  </si>
+  <si>
+    <t>2024-03-27</t>
+  </si>
+  <si>
     <t>2024-03-05</t>
-  </si>
-  <si>
-    <t>2024-03-26</t>
-  </si>
-  <si>
-    <t>2024-03-13</t>
-  </si>
-  <si>
-    <t>2024-04-03</t>
-  </si>
-  <si>
-    <t>2024-04-15</t>
-  </si>
-  <si>
-    <t>2024-03-27</t>
   </si>
 </sst>
 </file>
@@ -551,7 +545,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -600,37 +594,37 @@
         <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F2" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G2" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="H2">
-        <v>8000</v>
+        <v>14202</v>
       </c>
       <c r="I2">
-        <v>4000000</v>
+        <v>2104000</v>
       </c>
       <c r="J2">
-        <v>2000</v>
+        <v>13500</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -638,66 +632,66 @@
         <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D3" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G3" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="H3">
-        <v>14202</v>
+        <v>32000</v>
       </c>
       <c r="I3">
-        <v>2104000</v>
+        <v>1600000</v>
       </c>
       <c r="J3">
-        <v>13500</v>
+        <v>20000</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H4">
-        <v>32000</v>
+        <v>19800</v>
       </c>
       <c r="I4">
-        <v>1600000</v>
+        <v>990000</v>
       </c>
       <c r="J4">
         <v>20000</v>
@@ -711,40 +705,40 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="F5" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G5" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="H5">
-        <v>19800</v>
+        <v>14202</v>
       </c>
       <c r="I5">
-        <v>990000</v>
+        <v>2104000</v>
       </c>
       <c r="J5">
-        <v>20000</v>
+        <v>13500</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -758,31 +752,31 @@
         <v>33</v>
       </c>
       <c r="D6" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="F6" t="s">
         <v>45</v>
       </c>
       <c r="G6" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="H6">
-        <v>14202</v>
+        <v>8000</v>
       </c>
       <c r="I6">
-        <v>2104000</v>
+        <v>4000000</v>
       </c>
       <c r="J6">
-        <v>13500</v>
+        <v>2000</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -790,10 +784,10 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D7" t="s">
         <v>15</v>
@@ -802,19 +796,19 @@
         <v>15</v>
       </c>
       <c r="F7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G7" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="H7">
-        <v>8000</v>
+        <v>32500</v>
       </c>
       <c r="I7">
-        <v>4000000</v>
+        <v>2500000</v>
       </c>
       <c r="J7">
-        <v>2000</v>
+        <v>13000</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -828,10 +822,10 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D8" t="s">
         <v>16</v>
@@ -840,19 +834,19 @@
         <v>16</v>
       </c>
       <c r="F8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H8">
-        <v>32500</v>
+        <v>6000</v>
       </c>
       <c r="I8">
-        <v>2500000</v>
+        <v>3000000</v>
       </c>
       <c r="J8">
-        <v>13000</v>
+        <v>2000</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -863,25 +857,25 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G9" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="H9">
         <v>10000</v>
@@ -901,25 +895,25 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F10" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G10" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H10">
         <v>13000</v>
@@ -939,31 +933,31 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F11" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="G11" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H11">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="I11">
-        <v>4000000</v>
+        <v>3000000</v>
       </c>
       <c r="J11">
         <v>2000</v>
@@ -977,31 +971,31 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H12">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="I12">
-        <v>3000000</v>
+        <v>5000000</v>
       </c>
       <c r="J12">
         <v>2000</v>
@@ -1015,77 +1009,39 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C13" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G13" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="H13">
-        <v>10000</v>
+        <v>60000</v>
       </c>
       <c r="I13">
-        <v>5000000</v>
+        <v>2000000</v>
       </c>
       <c r="J13">
-        <v>2000</v>
+        <v>30000</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="A14" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" t="s">
-        <v>43</v>
-      </c>
-      <c r="D14" t="s">
-        <v>21</v>
-      </c>
-      <c r="E14" t="s">
-        <v>21</v>
-      </c>
-      <c r="F14" t="s">
-        <v>53</v>
-      </c>
-      <c r="G14" t="s">
-        <v>51</v>
-      </c>
-      <c r="H14">
-        <v>60000</v>
-      </c>
-      <c r="I14">
-        <v>2000000</v>
-      </c>
-      <c r="J14">
-        <v>30000</v>
-      </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="L14">
         <v>100</v>
       </c>
     </row>

--- a/datasets/form3.xlsx
+++ b/datasets/form3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="52">
   <si>
     <t>인수기관</t>
   </si>
@@ -58,18 +58,12 @@
     <t>NH</t>
   </si>
   <si>
-    <t>SK</t>
-  </si>
-  <si>
     <t>미래</t>
   </si>
   <si>
     <t>신한</t>
   </si>
   <si>
-    <t>유안타</t>
-  </si>
-  <si>
     <t>하나</t>
   </si>
   <si>
@@ -85,9 +79,6 @@
     <t>2024-03-04</t>
   </si>
   <si>
-    <t>2024-02-20</t>
-  </si>
-  <si>
     <t>2024-03-25</t>
   </si>
   <si>
@@ -115,9 +106,6 @@
     <t>오상헬스케어</t>
   </si>
   <si>
-    <t>SK증권제11호스팩</t>
-  </si>
-  <si>
     <t>아이엠비디엑스</t>
   </si>
   <si>
@@ -127,9 +115,6 @@
     <t>신한제12호스팩</t>
   </si>
   <si>
-    <t>유안타제15호스팩</t>
-  </si>
-  <si>
     <t>하나32호스팩</t>
   </si>
   <si>
@@ -149,9 +134,6 @@
   </si>
   <si>
     <t>2024-03-07</t>
-  </si>
-  <si>
-    <t>2024-02-23</t>
   </si>
   <si>
     <t>2024-03-28</t>
@@ -545,7 +527,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -594,22 +576,22 @@
         <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H2">
         <v>14202</v>
@@ -632,10 +614,10 @@
         <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D3" t="s">
         <v>13</v>
@@ -644,10 +626,10 @@
         <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G3" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="H3">
         <v>32000</v>
@@ -670,10 +652,10 @@
         <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D4" t="s">
         <v>13</v>
@@ -682,10 +664,10 @@
         <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G4" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="H4">
         <v>19800</v>
@@ -708,22 +690,22 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E5" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F5" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G5" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H5">
         <v>14202</v>
@@ -746,10 +728,10 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D6" t="s">
         <v>14</v>
@@ -758,19 +740,19 @@
         <v>14</v>
       </c>
       <c r="F6" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G6" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="H6">
-        <v>8000</v>
+        <v>32500</v>
       </c>
       <c r="I6">
-        <v>4000000</v>
+        <v>2500000</v>
       </c>
       <c r="J6">
-        <v>2000</v>
+        <v>13000</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -784,10 +766,10 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D7" t="s">
         <v>15</v>
@@ -796,19 +778,19 @@
         <v>15</v>
       </c>
       <c r="F7" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G7" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="H7">
-        <v>32500</v>
+        <v>6000</v>
       </c>
       <c r="I7">
-        <v>2500000</v>
+        <v>3000000</v>
       </c>
       <c r="J7">
-        <v>13000</v>
+        <v>2000</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -819,31 +801,31 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F8" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G8" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="H8">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="I8">
-        <v>3000000</v>
+        <v>5000000</v>
       </c>
       <c r="J8">
         <v>2000</v>
@@ -860,10 +842,10 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D9" t="s">
         <v>16</v>
@@ -872,16 +854,16 @@
         <v>16</v>
       </c>
       <c r="F9" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G9" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="H9">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="I9">
-        <v>5000000</v>
+        <v>3000000</v>
       </c>
       <c r="J9">
         <v>2000</v>
@@ -895,31 +877,31 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G10" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="H10">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="I10">
-        <v>6500000</v>
+        <v>5000000</v>
       </c>
       <c r="J10">
         <v>2000</v>
@@ -933,115 +915,39 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F11" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G11" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="H11">
-        <v>6000</v>
+        <v>60000</v>
       </c>
       <c r="I11">
-        <v>3000000</v>
+        <v>2000000</v>
       </c>
       <c r="J11">
-        <v>2000</v>
+        <v>30000</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" t="s">
-        <v>39</v>
-      </c>
-      <c r="D12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" t="s">
-        <v>18</v>
-      </c>
-      <c r="F12" t="s">
-        <v>50</v>
-      </c>
-      <c r="G12" t="s">
-        <v>57</v>
-      </c>
-      <c r="H12">
-        <v>10000</v>
-      </c>
-      <c r="I12">
-        <v>5000000</v>
-      </c>
-      <c r="J12">
-        <v>2000</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" t="s">
-        <v>40</v>
-      </c>
-      <c r="D13" t="s">
-        <v>19</v>
-      </c>
-      <c r="E13" t="s">
-        <v>19</v>
-      </c>
-      <c r="F13" t="s">
-        <v>51</v>
-      </c>
-      <c r="G13" t="s">
-        <v>49</v>
-      </c>
-      <c r="H13">
-        <v>60000</v>
-      </c>
-      <c r="I13">
-        <v>2000000</v>
-      </c>
-      <c r="J13">
-        <v>30000</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13">
         <v>100</v>
       </c>
     </row>

--- a/datasets/form3.xlsx
+++ b/datasets/form3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="55">
   <si>
     <t>인수기관</t>
   </si>
@@ -88,6 +88,9 @@
     <t>2024-04-02</t>
   </si>
   <si>
+    <t>2024-04-15</t>
+  </si>
+  <si>
     <t>2024-03-18</t>
   </si>
   <si>
@@ -115,6 +118,9 @@
     <t>신한제12호스팩</t>
   </si>
   <si>
+    <t>하나33호스팩</t>
+  </si>
+  <si>
     <t>하나32호스팩</t>
   </si>
   <si>
@@ -139,12 +145,12 @@
     <t>2024-03-28</t>
   </si>
   <si>
-    <t>2024-04-15</t>
-  </si>
-  <si>
     <t>2024-04-05</t>
   </si>
   <si>
+    <t>2024-04-18</t>
+  </si>
+  <si>
     <t>2024-03-21</t>
   </si>
   <si>
@@ -164,6 +170,9 @@
   </si>
   <si>
     <t>2024-04-22</t>
+  </si>
+  <si>
+    <t>2024-04-24</t>
   </si>
   <si>
     <t>2024-03-27</t>
@@ -527,7 +536,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -579,19 +588,19 @@
         <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H2">
         <v>14202</v>
@@ -617,7 +626,7 @@
         <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D3" t="s">
         <v>13</v>
@@ -626,10 +635,10 @@
         <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H3">
         <v>32000</v>
@@ -655,7 +664,7 @@
         <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D4" t="s">
         <v>13</v>
@@ -664,10 +673,10 @@
         <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H4">
         <v>19800</v>
@@ -693,19 +702,19 @@
         <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H5">
         <v>14202</v>
@@ -731,7 +740,7 @@
         <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D6" t="s">
         <v>14</v>
@@ -740,10 +749,10 @@
         <v>14</v>
       </c>
       <c r="F6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G6" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H6">
         <v>32500</v>
@@ -769,7 +778,7 @@
         <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D7" t="s">
         <v>15</v>
@@ -778,10 +787,10 @@
         <v>15</v>
       </c>
       <c r="F7" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="G7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H7">
         <v>6000</v>
@@ -807,7 +816,7 @@
         <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D8" t="s">
         <v>15</v>
@@ -816,10 +825,10 @@
         <v>15</v>
       </c>
       <c r="F8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G8" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="H8">
         <v>10000</v>
@@ -845,7 +854,7 @@
         <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D9" t="s">
         <v>16</v>
@@ -854,16 +863,16 @@
         <v>16</v>
       </c>
       <c r="F9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G9" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H9">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="I9">
-        <v>3000000</v>
+        <v>3500000</v>
       </c>
       <c r="J9">
         <v>2000</v>
@@ -883,7 +892,7 @@
         <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D10" t="s">
         <v>16</v>
@@ -892,16 +901,16 @@
         <v>16</v>
       </c>
       <c r="F10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G10" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H10">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="I10">
-        <v>5000000</v>
+        <v>3000000</v>
       </c>
       <c r="J10">
         <v>2000</v>
@@ -915,39 +924,77 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" t="s">
+        <v>46</v>
+      </c>
+      <c r="G11" t="s">
+        <v>54</v>
+      </c>
+      <c r="H11">
+        <v>10000</v>
+      </c>
+      <c r="I11">
+        <v>5000000</v>
+      </c>
+      <c r="J11">
+        <v>2000</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" t="s">
         <v>17</v>
       </c>
-      <c r="E11" t="s">
+      <c r="B12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" t="s">
         <v>17</v>
       </c>
-      <c r="F11" t="s">
+      <c r="E12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" t="s">
+        <v>47</v>
+      </c>
+      <c r="G12" t="s">
         <v>45</v>
       </c>
-      <c r="G11" t="s">
-        <v>43</v>
-      </c>
-      <c r="H11">
+      <c r="H12">
         <v>60000</v>
       </c>
-      <c r="I11">
+      <c r="I12">
         <v>2000000</v>
       </c>
-      <c r="J11">
+      <c r="J12">
         <v>30000</v>
       </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11">
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
         <v>100</v>
       </c>
     </row>

--- a/datasets/form3.xlsx
+++ b/datasets/form3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="51">
   <si>
     <t>인수기관</t>
   </si>
@@ -94,9 +94,6 @@
     <t>2024-03-18</t>
   </si>
   <si>
-    <t>2024-02-22</t>
-  </si>
-  <si>
     <t>2024-03-12</t>
   </si>
   <si>
@@ -124,9 +121,6 @@
     <t>하나32호스팩</t>
   </si>
   <si>
-    <t>하나31호스팩</t>
-  </si>
-  <si>
     <t>삼현</t>
   </si>
   <si>
@@ -154,9 +148,6 @@
     <t>2024-03-21</t>
   </si>
   <si>
-    <t>2024-02-27</t>
-  </si>
-  <si>
     <t>2024-03-15</t>
   </si>
   <si>
@@ -176,9 +167,6 @@
   </si>
   <si>
     <t>2024-03-27</t>
-  </si>
-  <si>
-    <t>2024-03-05</t>
   </si>
 </sst>
 </file>
@@ -536,7 +524,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -588,19 +576,19 @@
         <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2" t="s">
         <v>39</v>
-      </c>
-      <c r="G2" t="s">
-        <v>41</v>
       </c>
       <c r="H2">
         <v>14202</v>
@@ -626,7 +614,7 @@
         <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D3" t="s">
         <v>13</v>
@@ -635,10 +623,10 @@
         <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H3">
         <v>32000</v>
@@ -664,7 +652,7 @@
         <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D4" t="s">
         <v>13</v>
@@ -673,10 +661,10 @@
         <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H4">
         <v>19800</v>
@@ -702,19 +690,19 @@
         <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" t="s">
         <v>39</v>
-      </c>
-      <c r="G5" t="s">
-        <v>41</v>
       </c>
       <c r="H5">
         <v>14202</v>
@@ -740,7 +728,7 @@
         <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D6" t="s">
         <v>14</v>
@@ -749,10 +737,10 @@
         <v>14</v>
       </c>
       <c r="F6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H6">
         <v>32500</v>
@@ -778,7 +766,7 @@
         <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D7" t="s">
         <v>15</v>
@@ -790,7 +778,7 @@
         <v>24</v>
       </c>
       <c r="G7" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="H7">
         <v>6000</v>
@@ -816,7 +804,7 @@
         <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D8" t="s">
         <v>15</v>
@@ -825,7 +813,7 @@
         <v>15</v>
       </c>
       <c r="F8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G8" t="s">
         <v>24</v>
@@ -854,7 +842,7 @@
         <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D9" t="s">
         <v>16</v>
@@ -863,10 +851,10 @@
         <v>16</v>
       </c>
       <c r="F9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G9" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H9">
         <v>7000</v>
@@ -892,7 +880,7 @@
         <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D10" t="s">
         <v>16</v>
@@ -901,10 +889,10 @@
         <v>16</v>
       </c>
       <c r="F10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G10" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="H10">
         <v>6000</v>
@@ -924,77 +912,39 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G11" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="H11">
-        <v>10000</v>
+        <v>60000</v>
       </c>
       <c r="I11">
-        <v>5000000</v>
+        <v>2000000</v>
       </c>
       <c r="J11">
-        <v>2000</v>
+        <v>30000</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" t="s">
-        <v>37</v>
-      </c>
-      <c r="D12" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" t="s">
-        <v>17</v>
-      </c>
-      <c r="F12" t="s">
-        <v>47</v>
-      </c>
-      <c r="G12" t="s">
-        <v>45</v>
-      </c>
-      <c r="H12">
-        <v>60000</v>
-      </c>
-      <c r="I12">
-        <v>2000000</v>
-      </c>
-      <c r="J12">
-        <v>30000</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12">
         <v>100</v>
       </c>
     </row>

--- a/datasets/form3.xlsx
+++ b/datasets/form3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="46">
   <si>
     <t>인수기관</t>
   </si>
@@ -52,9 +52,6 @@
     <t>인수비율</t>
   </si>
   <si>
-    <t>DB</t>
-  </si>
-  <si>
     <t>NH</t>
   </si>
   <si>
@@ -70,9 +67,6 @@
     <t>한국</t>
   </si>
   <si>
-    <t>2024-02-26</t>
-  </si>
-  <si>
     <t>2024-03-14</t>
   </si>
   <si>
@@ -97,9 +91,6 @@
     <t>2024-03-12</t>
   </si>
   <si>
-    <t>케이엔알시스템</t>
-  </si>
-  <si>
     <t>엔젤로보틱스</t>
   </si>
   <si>
@@ -122,12 +113,6 @@
   </si>
   <si>
     <t>삼현</t>
-  </si>
-  <si>
-    <t>DB, NH</t>
-  </si>
-  <si>
-    <t>2024-02-29</t>
   </si>
   <si>
     <t>2024-03-19</t>
@@ -524,7 +509,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -573,66 +558,66 @@
         <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H2">
-        <v>14202</v>
+        <v>32000</v>
       </c>
       <c r="I2">
-        <v>2104000</v>
+        <v>1600000</v>
       </c>
       <c r="J2">
-        <v>13500</v>
+        <v>20000</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H3">
-        <v>32000</v>
+        <v>19800</v>
       </c>
       <c r="I3">
-        <v>1600000</v>
+        <v>990000</v>
       </c>
       <c r="J3">
         <v>20000</v>
@@ -649,10 +634,10 @@
         <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
         <v>13</v>
@@ -661,19 +646,19 @@
         <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H4">
-        <v>19800</v>
+        <v>32500</v>
       </c>
       <c r="I4">
-        <v>990000</v>
+        <v>2500000</v>
       </c>
       <c r="J4">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -684,40 +669,40 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D5" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="F5" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="G5" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H5">
-        <v>14202</v>
+        <v>6000</v>
       </c>
       <c r="I5">
-        <v>2104000</v>
+        <v>3000000</v>
       </c>
       <c r="J5">
-        <v>13500</v>
+        <v>2000</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -728,7 +713,7 @@
         <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D6" t="s">
         <v>14</v>
@@ -737,19 +722,19 @@
         <v>14</v>
       </c>
       <c r="F6" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G6" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="H6">
-        <v>32500</v>
+        <v>10000</v>
       </c>
       <c r="I6">
-        <v>2500000</v>
+        <v>5000000</v>
       </c>
       <c r="J6">
-        <v>13000</v>
+        <v>2000</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -766,7 +751,7 @@
         <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D7" t="s">
         <v>15</v>
@@ -775,16 +760,16 @@
         <v>15</v>
       </c>
       <c r="F7" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="G7" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H7">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="I7">
-        <v>3000000</v>
+        <v>3500000</v>
       </c>
       <c r="J7">
         <v>2000</v>
@@ -804,7 +789,7 @@
         <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D8" t="s">
         <v>15</v>
@@ -813,16 +798,16 @@
         <v>15</v>
       </c>
       <c r="F8" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G8" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="H8">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="I8">
-        <v>5000000</v>
+        <v>3000000</v>
       </c>
       <c r="J8">
         <v>2000</v>
@@ -842,7 +827,7 @@
         <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D9" t="s">
         <v>16</v>
@@ -851,100 +836,24 @@
         <v>16</v>
       </c>
       <c r="F9" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G9" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="H9">
-        <v>7000</v>
+        <v>60000</v>
       </c>
       <c r="I9">
-        <v>3500000</v>
+        <v>2000000</v>
       </c>
       <c r="J9">
-        <v>2000</v>
+        <v>30000</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" t="s">
-        <v>16</v>
-      </c>
-      <c r="F10" t="s">
-        <v>43</v>
-      </c>
-      <c r="G10" t="s">
-        <v>50</v>
-      </c>
-      <c r="H10">
-        <v>6000</v>
-      </c>
-      <c r="I10">
-        <v>3000000</v>
-      </c>
-      <c r="J10">
-        <v>2000</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" t="s">
-        <v>44</v>
-      </c>
-      <c r="G11" t="s">
-        <v>43</v>
-      </c>
-      <c r="H11">
-        <v>60000</v>
-      </c>
-      <c r="I11">
-        <v>2000000</v>
-      </c>
-      <c r="J11">
-        <v>30000</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11">
         <v>100</v>
       </c>
     </row>

--- a/datasets/form3.xlsx
+++ b/datasets/form3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="50">
   <si>
     <t>인수기관</t>
   </si>
@@ -52,6 +52,9 @@
     <t>인수비율</t>
   </si>
   <si>
+    <t>KB</t>
+  </si>
+  <si>
     <t>NH</t>
   </si>
   <si>
@@ -67,6 +70,9 @@
     <t>한국</t>
   </si>
   <si>
+    <t>2024-04-18</t>
+  </si>
+  <si>
     <t>2024-03-14</t>
   </si>
   <si>
@@ -91,6 +97,9 @@
     <t>2024-03-12</t>
   </si>
   <si>
+    <t>제일엠앤에스</t>
+  </si>
+  <si>
     <t>엔젤로보틱스</t>
   </si>
   <si>
@@ -115,6 +124,9 @@
     <t>삼현</t>
   </si>
   <si>
+    <t>2024-04-23</t>
+  </si>
+  <si>
     <t>2024-03-19</t>
   </si>
   <si>
@@ -127,13 +139,13 @@
     <t>2024-04-05</t>
   </si>
   <si>
-    <t>2024-04-18</t>
-  </si>
-  <si>
     <t>2024-03-21</t>
   </si>
   <si>
     <t>2024-03-15</t>
+  </si>
+  <si>
+    <t>2024-04-30</t>
   </si>
   <si>
     <t>2024-03-26</t>
@@ -509,7 +521,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -558,10 +570,10 @@
         <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
@@ -570,19 +582,19 @@
         <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H2">
-        <v>32000</v>
+        <v>52800</v>
       </c>
       <c r="I2">
-        <v>1600000</v>
+        <v>2400000</v>
       </c>
       <c r="J2">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -593,31 +605,31 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G3" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H3">
-        <v>19800</v>
+        <v>32000</v>
       </c>
       <c r="I3">
-        <v>990000</v>
+        <v>1600000</v>
       </c>
       <c r="J3">
         <v>20000</v>
@@ -634,10 +646,10 @@
         <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D4" t="s">
         <v>13</v>
@@ -646,19 +658,19 @@
         <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G4" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H4">
-        <v>32500</v>
+        <v>19800</v>
       </c>
       <c r="I4">
-        <v>2500000</v>
+        <v>990000</v>
       </c>
       <c r="J4">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -672,10 +684,10 @@
         <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D5" t="s">
         <v>14</v>
@@ -684,19 +696,19 @@
         <v>14</v>
       </c>
       <c r="F5" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="G5" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H5">
-        <v>6000</v>
+        <v>32500</v>
       </c>
       <c r="I5">
-        <v>3000000</v>
+        <v>2500000</v>
       </c>
       <c r="J5">
-        <v>2000</v>
+        <v>13000</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -707,31 +719,31 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F6" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="G6" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="H6">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="I6">
-        <v>5000000</v>
+        <v>3000000</v>
       </c>
       <c r="J6">
         <v>2000</v>
@@ -748,10 +760,10 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D7" t="s">
         <v>15</v>
@@ -760,16 +772,16 @@
         <v>15</v>
       </c>
       <c r="F7" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G7" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="H7">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="I7">
-        <v>3500000</v>
+        <v>5000000</v>
       </c>
       <c r="J7">
         <v>2000</v>
@@ -783,31 +795,31 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F8" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="H8">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="I8">
-        <v>3000000</v>
+        <v>3500000</v>
       </c>
       <c r="J8">
         <v>2000</v>
@@ -824,10 +836,10 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D9" t="s">
         <v>16</v>
@@ -836,24 +848,62 @@
         <v>16</v>
       </c>
       <c r="F9" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G9" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="H9">
-        <v>60000</v>
+        <v>6000</v>
       </c>
       <c r="I9">
-        <v>2000000</v>
+        <v>3000000</v>
       </c>
       <c r="J9">
-        <v>30000</v>
+        <v>2000</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10" t="s">
+        <v>41</v>
+      </c>
+      <c r="H10">
+        <v>60000</v>
+      </c>
+      <c r="I10">
+        <v>2000000</v>
+      </c>
+      <c r="J10">
+        <v>30000</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
         <v>100</v>
       </c>
     </row>

--- a/datasets/form3.xlsx
+++ b/datasets/form3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="55">
   <si>
     <t>인수기관</t>
   </si>
@@ -64,6 +64,9 @@
     <t>신한</t>
   </si>
   <si>
+    <t>유안타</t>
+  </si>
+  <si>
     <t>하나</t>
   </si>
   <si>
@@ -88,6 +91,9 @@
     <t>2024-04-02</t>
   </si>
   <si>
+    <t>2024-04-22</t>
+  </si>
+  <si>
     <t>2024-04-15</t>
   </si>
   <si>
@@ -115,12 +121,18 @@
     <t>신한제12호스팩</t>
   </si>
   <si>
+    <t>유안타제16호스팩</t>
+  </si>
+  <si>
     <t>하나33호스팩</t>
   </si>
   <si>
     <t>하나32호스팩</t>
   </si>
   <si>
+    <t>디앤디파마텍</t>
+  </si>
+  <si>
     <t>삼현</t>
   </si>
   <si>
@@ -139,6 +151,9 @@
     <t>2024-04-05</t>
   </si>
   <si>
+    <t>2024-04-25</t>
+  </si>
+  <si>
     <t>2024-03-21</t>
   </si>
   <si>
@@ -157,7 +172,7 @@
     <t>2024-04-03</t>
   </si>
   <si>
-    <t>2024-04-22</t>
+    <t>2024-05-02</t>
   </si>
   <si>
     <t>2024-04-24</t>
@@ -521,7 +536,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -570,10 +585,10 @@
         <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
@@ -582,10 +597,10 @@
         <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="H2">
         <v>52800</v>
@@ -608,10 +623,10 @@
         <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
         <v>13</v>
@@ -620,10 +635,10 @@
         <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G3" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="H3">
         <v>32000</v>
@@ -646,10 +661,10 @@
         <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D4" t="s">
         <v>13</v>
@@ -658,10 +673,10 @@
         <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="H4">
         <v>19800</v>
@@ -684,10 +699,10 @@
         <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D5" t="s">
         <v>14</v>
@@ -696,10 +711,10 @@
         <v>14</v>
       </c>
       <c r="F5" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="H5">
         <v>32500</v>
@@ -722,10 +737,10 @@
         <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D6" t="s">
         <v>15</v>
@@ -734,10 +749,10 @@
         <v>15</v>
       </c>
       <c r="F6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G6" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="H6">
         <v>6000</v>
@@ -760,10 +775,10 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D7" t="s">
         <v>15</v>
@@ -772,10 +787,10 @@
         <v>15</v>
       </c>
       <c r="F7" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H7">
         <v>10000</v>
@@ -798,10 +813,10 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D8" t="s">
         <v>16</v>
@@ -810,16 +825,16 @@
         <v>16</v>
       </c>
       <c r="F8" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="G8" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="H8">
-        <v>7000</v>
+        <v>10300</v>
       </c>
       <c r="I8">
-        <v>3500000</v>
+        <v>5150000</v>
       </c>
       <c r="J8">
         <v>2000</v>
@@ -833,31 +848,31 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F9" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="G9" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="H9">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="I9">
-        <v>3000000</v>
+        <v>3500000</v>
       </c>
       <c r="J9">
         <v>2000</v>
@@ -874,10 +889,10 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C10" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D10" t="s">
         <v>17</v>
@@ -886,24 +901,100 @@
         <v>17</v>
       </c>
       <c r="F10" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G10" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="H10">
+        <v>6000</v>
+      </c>
+      <c r="I10">
+        <v>3000000</v>
+      </c>
+      <c r="J10">
+        <v>2000</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G11" t="s">
+        <v>52</v>
+      </c>
+      <c r="H11">
+        <v>36300</v>
+      </c>
+      <c r="I11">
+        <v>1100000</v>
+      </c>
+      <c r="J11">
+        <v>33000</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" t="s">
+        <v>47</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12">
         <v>60000</v>
       </c>
-      <c r="I10">
+      <c r="I12">
         <v>2000000</v>
       </c>
-      <c r="J10">
+      <c r="J12">
         <v>30000</v>
       </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10">
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
         <v>100</v>
       </c>
     </row>

--- a/datasets/form3.xlsx
+++ b/datasets/form3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="58">
   <si>
     <t>인수기관</t>
   </si>
@@ -73,6 +73,9 @@
     <t>한국</t>
   </si>
   <si>
+    <t>2024-04-23</t>
+  </si>
+  <si>
     <t>2024-04-18</t>
   </si>
   <si>
@@ -103,6 +106,9 @@
     <t>2024-03-12</t>
   </si>
   <si>
+    <t>민테크</t>
+  </si>
+  <si>
     <t>제일엠앤에스</t>
   </si>
   <si>
@@ -136,7 +142,7 @@
     <t>삼현</t>
   </si>
   <si>
-    <t>2024-04-23</t>
+    <t>2024-04-26</t>
   </si>
   <si>
     <t>2024-03-19</t>
@@ -158,6 +164,9 @@
   </si>
   <si>
     <t>2024-03-15</t>
+  </si>
+  <si>
+    <t>2024-05-03</t>
   </si>
   <si>
     <t>2024-04-30</t>
@@ -536,7 +545,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -588,7 +597,7 @@
         <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
@@ -597,19 +606,19 @@
         <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H2">
-        <v>52800</v>
+        <v>31500</v>
       </c>
       <c r="I2">
-        <v>2400000</v>
+        <v>3000000</v>
       </c>
       <c r="J2">
-        <v>22000</v>
+        <v>10500</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -620,34 +629,34 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
         <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="G3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H3">
-        <v>32000</v>
+        <v>52800</v>
       </c>
       <c r="I3">
-        <v>1600000</v>
+        <v>2400000</v>
       </c>
       <c r="J3">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -664,7 +673,7 @@
         <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D4" t="s">
         <v>13</v>
@@ -673,16 +682,16 @@
         <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H4">
-        <v>19800</v>
+        <v>32000</v>
       </c>
       <c r="I4">
-        <v>990000</v>
+        <v>1600000</v>
       </c>
       <c r="J4">
         <v>20000</v>
@@ -696,34 +705,34 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
         <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H5">
-        <v>32500</v>
+        <v>19800</v>
       </c>
       <c r="I5">
-        <v>2500000</v>
+        <v>990000</v>
       </c>
       <c r="J5">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -734,34 +743,34 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F6" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="G6" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="H6">
-        <v>6000</v>
+        <v>32500</v>
       </c>
       <c r="I6">
-        <v>3000000</v>
+        <v>2500000</v>
       </c>
       <c r="J6">
-        <v>2000</v>
+        <v>13000</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -778,7 +787,7 @@
         <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D7" t="s">
         <v>15</v>
@@ -787,16 +796,16 @@
         <v>15</v>
       </c>
       <c r="F7" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="G7" t="s">
         <v>26</v>
       </c>
       <c r="H7">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="I7">
-        <v>5000000</v>
+        <v>3000000</v>
       </c>
       <c r="J7">
         <v>2000</v>
@@ -810,31 +819,31 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G8" t="s">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="H8">
-        <v>10300</v>
+        <v>10000</v>
       </c>
       <c r="I8">
-        <v>5150000</v>
+        <v>5000000</v>
       </c>
       <c r="J8">
         <v>2000</v>
@@ -848,31 +857,31 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F9" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="G9" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H9">
-        <v>7000</v>
+        <v>10300</v>
       </c>
       <c r="I9">
-        <v>3500000</v>
+        <v>5150000</v>
       </c>
       <c r="J9">
         <v>2000</v>
@@ -892,7 +901,7 @@
         <v>27</v>
       </c>
       <c r="C10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D10" t="s">
         <v>17</v>
@@ -901,16 +910,16 @@
         <v>17</v>
       </c>
       <c r="F10" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="G10" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H10">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="I10">
-        <v>3000000</v>
+        <v>3500000</v>
       </c>
       <c r="J10">
         <v>2000</v>
@@ -924,34 +933,34 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F11" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G11" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="H11">
-        <v>36300</v>
+        <v>6000</v>
       </c>
       <c r="I11">
-        <v>1100000</v>
+        <v>3000000</v>
       </c>
       <c r="J11">
-        <v>33000</v>
+        <v>2000</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -965,10 +974,10 @@
         <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D12" t="s">
         <v>18</v>
@@ -980,21 +989,59 @@
         <v>47</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="H12">
+        <v>36300</v>
+      </c>
+      <c r="I12">
+        <v>1100000</v>
+      </c>
+      <c r="J12">
+        <v>33000</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" t="s">
+        <v>49</v>
+      </c>
+      <c r="G13" t="s">
+        <v>48</v>
+      </c>
+      <c r="H13">
         <v>60000</v>
       </c>
-      <c r="I12">
+      <c r="I13">
         <v>2000000</v>
       </c>
-      <c r="J12">
+      <c r="J13">
         <v>30000</v>
       </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12">
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
         <v>100</v>
       </c>
     </row>

--- a/datasets/form3.xlsx
+++ b/datasets/form3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="54">
   <si>
     <t>인수기관</t>
   </si>
@@ -82,9 +82,6 @@
     <t>2024-03-14</t>
   </si>
   <si>
-    <t>2024-03-04</t>
-  </si>
-  <si>
     <t>2024-03-25</t>
   </si>
   <si>
@@ -115,9 +112,6 @@
     <t>엔젤로보틱스</t>
   </si>
   <si>
-    <t>오상헬스케어</t>
-  </si>
-  <si>
     <t>아이엠비디엑스</t>
   </si>
   <si>
@@ -148,9 +142,6 @@
     <t>2024-03-19</t>
   </si>
   <si>
-    <t>2024-03-07</t>
-  </si>
-  <si>
     <t>2024-03-28</t>
   </si>
   <si>
@@ -173,9 +164,6 @@
   </si>
   <si>
     <t>2024-03-26</t>
-  </si>
-  <si>
-    <t>2024-03-13</t>
   </si>
   <si>
     <t>2024-04-03</t>
@@ -545,7 +533,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -597,7 +585,7 @@
         <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
@@ -606,10 +594,10 @@
         <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H2">
         <v>31500</v>
@@ -635,7 +623,7 @@
         <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
         <v>12</v>
@@ -647,7 +635,7 @@
         <v>19</v>
       </c>
       <c r="G3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="H3">
         <v>52800</v>
@@ -673,7 +661,7 @@
         <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D4" t="s">
         <v>13</v>
@@ -682,10 +670,10 @@
         <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H4">
         <v>32000</v>
@@ -705,34 +693,34 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
         <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="H5">
-        <v>19800</v>
+        <v>32500</v>
       </c>
       <c r="I5">
-        <v>990000</v>
+        <v>2500000</v>
       </c>
       <c r="J5">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -743,34 +731,34 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F6" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="G6" t="s">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="H6">
-        <v>32500</v>
+        <v>6000</v>
       </c>
       <c r="I6">
-        <v>2500000</v>
+        <v>3000000</v>
       </c>
       <c r="J6">
-        <v>13000</v>
+        <v>2000</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -787,7 +775,7 @@
         <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D7" t="s">
         <v>15</v>
@@ -796,16 +784,16 @@
         <v>15</v>
       </c>
       <c r="F7" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="G7" t="s">
         <v>26</v>
       </c>
       <c r="H7">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="I7">
-        <v>3000000</v>
+        <v>5000000</v>
       </c>
       <c r="J7">
         <v>2000</v>
@@ -819,31 +807,31 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G8" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="H8">
-        <v>10000</v>
+        <v>10300</v>
       </c>
       <c r="I8">
-        <v>5000000</v>
+        <v>5150000</v>
       </c>
       <c r="J8">
         <v>2000</v>
@@ -857,31 +845,31 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F9" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="G9" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H9">
-        <v>10300</v>
+        <v>7000</v>
       </c>
       <c r="I9">
-        <v>5150000</v>
+        <v>3500000</v>
       </c>
       <c r="J9">
         <v>2000</v>
@@ -901,7 +889,7 @@
         <v>27</v>
       </c>
       <c r="C10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D10" t="s">
         <v>17</v>
@@ -910,16 +898,16 @@
         <v>17</v>
       </c>
       <c r="F10" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="G10" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="H10">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="I10">
-        <v>3500000</v>
+        <v>3000000</v>
       </c>
       <c r="J10">
         <v>2000</v>
@@ -933,34 +921,34 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F11" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G11" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="H11">
-        <v>6000</v>
+        <v>36300</v>
       </c>
       <c r="I11">
-        <v>3000000</v>
+        <v>1100000</v>
       </c>
       <c r="J11">
-        <v>2000</v>
+        <v>33000</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -974,10 +962,10 @@
         <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D12" t="s">
         <v>18</v>
@@ -986,62 +974,24 @@
         <v>18</v>
       </c>
       <c r="F12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G12" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="H12">
-        <v>36300</v>
+        <v>60000</v>
       </c>
       <c r="I12">
-        <v>1100000</v>
+        <v>2000000</v>
       </c>
       <c r="J12">
-        <v>33000</v>
+        <v>30000</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" t="s">
-        <v>41</v>
-      </c>
-      <c r="D13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13" t="s">
-        <v>18</v>
-      </c>
-      <c r="F13" t="s">
-        <v>49</v>
-      </c>
-      <c r="G13" t="s">
-        <v>48</v>
-      </c>
-      <c r="H13">
-        <v>60000</v>
-      </c>
-      <c r="I13">
-        <v>2000000</v>
-      </c>
-      <c r="J13">
-        <v>30000</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13">
         <v>100</v>
       </c>
     </row>

--- a/datasets/form3.xlsx
+++ b/datasets/form3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="59">
   <si>
     <t>인수기관</t>
   </si>
@@ -58,6 +58,9 @@
     <t>NH</t>
   </si>
   <si>
+    <t>SK</t>
+  </si>
+  <si>
     <t>미래</t>
   </si>
   <si>
@@ -100,6 +103,9 @@
     <t>2024-03-18</t>
   </si>
   <si>
+    <t>2024-04-24</t>
+  </si>
+  <si>
     <t>2024-03-12</t>
   </si>
   <si>
@@ -112,6 +118,9 @@
     <t>엔젤로보틱스</t>
   </si>
   <si>
+    <t>SK증권제12호스팩</t>
+  </si>
+  <si>
     <t>아이엠비디엑스</t>
   </si>
   <si>
@@ -130,6 +139,9 @@
     <t>하나32호스팩</t>
   </si>
   <si>
+    <t>코칩</t>
+  </si>
+  <si>
     <t>디앤디파마텍</t>
   </si>
   <si>
@@ -154,6 +166,9 @@
     <t>2024-03-21</t>
   </si>
   <si>
+    <t>2024-04-29</t>
+  </si>
+  <si>
     <t>2024-03-15</t>
   </si>
   <si>
@@ -166,13 +181,13 @@
     <t>2024-03-26</t>
   </si>
   <si>
+    <t>2024-05-07</t>
+  </si>
+  <si>
     <t>2024-04-03</t>
   </si>
   <si>
     <t>2024-05-02</t>
-  </si>
-  <si>
-    <t>2024-04-24</t>
   </si>
   <si>
     <t>2024-03-27</t>
@@ -533,7 +548,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,10 +597,10 @@
         <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
@@ -594,10 +609,10 @@
         <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="H2">
         <v>31500</v>
@@ -620,10 +635,10 @@
         <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D3" t="s">
         <v>12</v>
@@ -632,10 +647,10 @@
         <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G3" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="H3">
         <v>52800</v>
@@ -658,10 +673,10 @@
         <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D4" t="s">
         <v>13</v>
@@ -670,10 +685,10 @@
         <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G4" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="H4">
         <v>32000</v>
@@ -696,10 +711,10 @@
         <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D5" t="s">
         <v>14</v>
@@ -708,19 +723,19 @@
         <v>14</v>
       </c>
       <c r="F5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G5" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="H5">
-        <v>32500</v>
+        <v>6000</v>
       </c>
       <c r="I5">
-        <v>2500000</v>
+        <v>3000000</v>
       </c>
       <c r="J5">
-        <v>13000</v>
+        <v>2000</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -737,7 +752,7 @@
         <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D6" t="s">
         <v>15</v>
@@ -746,19 +761,19 @@
         <v>15</v>
       </c>
       <c r="F6" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="G6" t="s">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="H6">
-        <v>6000</v>
+        <v>32500</v>
       </c>
       <c r="I6">
-        <v>3000000</v>
+        <v>2500000</v>
       </c>
       <c r="J6">
-        <v>2000</v>
+        <v>13000</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -769,31 +784,31 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F7" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="G7" t="s">
         <v>26</v>
       </c>
       <c r="H7">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="I7">
-        <v>5000000</v>
+        <v>3000000</v>
       </c>
       <c r="J7">
         <v>2000</v>
@@ -813,7 +828,7 @@
         <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D8" t="s">
         <v>16</v>
@@ -822,16 +837,16 @@
         <v>16</v>
       </c>
       <c r="F8" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G8" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="H8">
-        <v>10300</v>
+        <v>10000</v>
       </c>
       <c r="I8">
-        <v>5150000</v>
+        <v>5000000</v>
       </c>
       <c r="J8">
         <v>2000</v>
@@ -851,7 +866,7 @@
         <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D9" t="s">
         <v>17</v>
@@ -860,16 +875,16 @@
         <v>17</v>
       </c>
       <c r="F9" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="G9" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="H9">
-        <v>7000</v>
+        <v>10300</v>
       </c>
       <c r="I9">
-        <v>3500000</v>
+        <v>5150000</v>
       </c>
       <c r="J9">
         <v>2000</v>
@@ -883,31 +898,31 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
         <v>27</v>
       </c>
       <c r="C10" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F10" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="G10" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="H10">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="I10">
-        <v>3000000</v>
+        <v>3500000</v>
       </c>
       <c r="J10">
         <v>2000</v>
@@ -924,10 +939,10 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C11" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D11" t="s">
         <v>18</v>
@@ -936,19 +951,19 @@
         <v>18</v>
       </c>
       <c r="F11" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="G11" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="H11">
-        <v>36300</v>
+        <v>6000</v>
       </c>
       <c r="I11">
-        <v>1100000</v>
+        <v>3000000</v>
       </c>
       <c r="J11">
-        <v>33000</v>
+        <v>2000</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -959,39 +974,115 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C12" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F12" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="G12" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="H12">
+        <v>27000</v>
+      </c>
+      <c r="I12">
+        <v>1500000</v>
+      </c>
+      <c r="J12">
+        <v>18000</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" t="s">
+        <v>48</v>
+      </c>
+      <c r="G13" t="s">
+        <v>57</v>
+      </c>
+      <c r="H13">
+        <v>36300</v>
+      </c>
+      <c r="I13">
+        <v>1100000</v>
+      </c>
+      <c r="J13">
+        <v>33000</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" t="s">
+        <v>51</v>
+      </c>
+      <c r="G14" t="s">
+        <v>49</v>
+      </c>
+      <c r="H14">
         <v>60000</v>
       </c>
-      <c r="I12">
+      <c r="I14">
         <v>2000000</v>
       </c>
-      <c r="J12">
+      <c r="J14">
         <v>30000</v>
       </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12">
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
         <v>100</v>
       </c>
     </row>

--- a/datasets/form3.xlsx
+++ b/datasets/form3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="67">
   <si>
     <t>인수기관</t>
   </si>
@@ -61,39 +61,54 @@
     <t>SK</t>
   </si>
   <si>
+    <t>대신</t>
+  </si>
+  <si>
     <t>미래</t>
   </si>
   <si>
+    <t>삼성</t>
+  </si>
+  <si>
     <t>신한</t>
   </si>
   <si>
+    <t>유비에스</t>
+  </si>
+  <si>
     <t>유안타</t>
   </si>
   <si>
+    <t>제이피모간회사</t>
+  </si>
+  <si>
     <t>하나</t>
   </si>
   <si>
     <t>한국</t>
   </si>
   <si>
+    <t>2024-04-25</t>
+  </si>
+  <si>
+    <t>2024-04-18</t>
+  </si>
+  <si>
     <t>2024-04-23</t>
   </si>
   <si>
-    <t>2024-04-18</t>
-  </si>
-  <si>
     <t>2024-03-14</t>
   </si>
   <si>
     <t>2024-03-25</t>
   </si>
   <si>
+    <t>2024-04-02</t>
+  </si>
+  <si>
     <t>2024-04-11</t>
   </si>
   <si>
-    <t>2024-04-02</t>
-  </si>
-  <si>
     <t>2024-04-22</t>
   </si>
   <si>
@@ -109,12 +124,15 @@
     <t>2024-03-12</t>
   </si>
   <si>
+    <t>HD현대마린솔루션</t>
+  </si>
+  <si>
+    <t>제일엠앤에스</t>
+  </si>
+  <si>
     <t>민테크</t>
   </si>
   <si>
-    <t>제일엠앤에스</t>
-  </si>
-  <si>
     <t>엔젤로보틱스</t>
   </si>
   <si>
@@ -124,12 +142,12 @@
     <t>아이엠비디엑스</t>
   </si>
   <si>
+    <t>신한제12호스팩</t>
+  </si>
+  <si>
     <t>신한제13호스팩</t>
   </si>
   <si>
-    <t>신한제12호스팩</t>
-  </si>
-  <si>
     <t>유안타제16호스팩</t>
   </si>
   <si>
@@ -139,15 +157,24 @@
     <t>하나32호스팩</t>
   </si>
   <si>
+    <t>디앤디파마텍</t>
+  </si>
+  <si>
     <t>코칩</t>
   </si>
   <si>
-    <t>디앤디파마텍</t>
-  </si>
-  <si>
     <t>삼현</t>
   </si>
   <si>
+    <t>KB, 유비에스리미티드(영업소), 제이피모간회사 서울지점</t>
+  </si>
+  <si>
+    <t>KB, 유비에스리미티드(영업소), 제이피모간회사 서울지점, 신한, 하나, 대신, 삼성</t>
+  </si>
+  <si>
+    <t>2024-04-30</t>
+  </si>
+  <si>
     <t>2024-04-26</t>
   </si>
   <si>
@@ -160,9 +187,6 @@
     <t>2024-04-05</t>
   </si>
   <si>
-    <t>2024-04-25</t>
-  </si>
-  <si>
     <t>2024-03-21</t>
   </si>
   <si>
@@ -172,10 +196,10 @@
     <t>2024-03-15</t>
   </si>
   <si>
+    <t>2024-05-08</t>
+  </si>
+  <si>
     <t>2024-05-03</t>
-  </si>
-  <si>
-    <t>2024-04-30</t>
   </si>
   <si>
     <t>2024-03-26</t>
@@ -548,7 +572,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -597,37 +621,37 @@
         <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="G2" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="H2">
-        <v>31500</v>
+        <v>215255.4</v>
       </c>
       <c r="I2">
-        <v>3000000</v>
+        <v>8900000</v>
       </c>
       <c r="J2">
-        <v>10500</v>
+        <v>83400</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>100</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -635,10 +659,10 @@
         <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D3" t="s">
         <v>12</v>
@@ -647,10 +671,10 @@
         <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="G3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H3">
         <v>52800</v>
@@ -670,34 +694,34 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="G4" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="H4">
-        <v>32000</v>
+        <v>31500</v>
       </c>
       <c r="I4">
-        <v>1600000</v>
+        <v>3000000</v>
       </c>
       <c r="J4">
-        <v>20000</v>
+        <v>10500</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -708,34 +732,34 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C5" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F5" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="G5" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="H5">
-        <v>6000</v>
+        <v>32000</v>
       </c>
       <c r="I5">
-        <v>3000000</v>
+        <v>1600000</v>
       </c>
       <c r="J5">
-        <v>2000</v>
+        <v>20000</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -746,34 +770,34 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F6" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="G6" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="H6">
-        <v>32500</v>
+        <v>6000</v>
       </c>
       <c r="I6">
-        <v>2500000</v>
+        <v>3000000</v>
       </c>
       <c r="J6">
-        <v>13000</v>
+        <v>2000</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -784,7 +808,7 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
@@ -793,31 +817,31 @@
         <v>36</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="E7" t="s">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="F7" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="G7" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="H7">
-        <v>6000</v>
+        <v>18556.5</v>
       </c>
       <c r="I7">
-        <v>3000000</v>
+        <v>8900000</v>
       </c>
       <c r="J7">
-        <v>2000</v>
+        <v>83400</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>100</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -825,10 +849,10 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D8" t="s">
         <v>16</v>
@@ -837,19 +861,19 @@
         <v>16</v>
       </c>
       <c r="F8" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="G8" t="s">
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="H8">
-        <v>10000</v>
+        <v>32500</v>
       </c>
       <c r="I8">
-        <v>5000000</v>
+        <v>2500000</v>
       </c>
       <c r="J8">
-        <v>2000</v>
+        <v>13000</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -863,37 +887,37 @@
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D9" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="E9" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="F9" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G9" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="H9">
-        <v>10300</v>
+        <v>18556.5</v>
       </c>
       <c r="I9">
-        <v>5150000</v>
+        <v>8900000</v>
       </c>
       <c r="J9">
-        <v>2000</v>
+        <v>83400</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>100</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -901,37 +925,37 @@
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D10" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="E10" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="F10" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="G10" t="s">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="H10">
-        <v>7000</v>
+        <v>74226</v>
       </c>
       <c r="I10">
-        <v>3500000</v>
+        <v>8900000</v>
       </c>
       <c r="J10">
-        <v>2000</v>
+        <v>83400</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>100</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -939,10 +963,10 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C11" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D11" t="s">
         <v>18</v>
@@ -951,16 +975,16 @@
         <v>18</v>
       </c>
       <c r="F11" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="G11" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="H11">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="I11">
-        <v>3000000</v>
+        <v>5000000</v>
       </c>
       <c r="J11">
         <v>2000</v>
@@ -974,34 +998,34 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C12" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F12" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="G12" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="H12">
-        <v>27000</v>
+        <v>6000</v>
       </c>
       <c r="I12">
-        <v>1500000</v>
+        <v>3000000</v>
       </c>
       <c r="J12">
-        <v>18000</v>
+        <v>2000</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -1015,74 +1039,340 @@
         <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D13" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="E13" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="F13" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G13" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="H13">
-        <v>36300</v>
+        <v>170719.8</v>
       </c>
       <c r="I13">
-        <v>1100000</v>
+        <v>8900000</v>
       </c>
       <c r="J13">
-        <v>33000</v>
+        <v>83400</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>100</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F14" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14" t="s">
+        <v>65</v>
+      </c>
+      <c r="H14">
+        <v>10300</v>
+      </c>
+      <c r="I14">
+        <v>5150000</v>
+      </c>
+      <c r="J14">
+        <v>2000</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" t="s">
         <v>51</v>
       </c>
-      <c r="G14" t="s">
+      <c r="F15" t="s">
+        <v>52</v>
+      </c>
+      <c r="G15" t="s">
+        <v>60</v>
+      </c>
+      <c r="H15">
+        <v>170719.8</v>
+      </c>
+      <c r="I15">
+        <v>8900000</v>
+      </c>
+      <c r="J15">
+        <v>83400</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" t="s">
+        <v>25</v>
+      </c>
+      <c r="G16" t="s">
+        <v>34</v>
+      </c>
+      <c r="H16">
+        <v>7000</v>
+      </c>
+      <c r="I16">
+        <v>3500000</v>
+      </c>
+      <c r="J16">
+        <v>2000</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" t="s">
+        <v>50</v>
+      </c>
+      <c r="E17" t="s">
+        <v>51</v>
+      </c>
+      <c r="F17" t="s">
+        <v>52</v>
+      </c>
+      <c r="G17" t="s">
+        <v>60</v>
+      </c>
+      <c r="H17">
+        <v>74226</v>
+      </c>
+      <c r="I17">
+        <v>8900000</v>
+      </c>
+      <c r="J17">
+        <v>83400</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" t="s">
+        <v>22</v>
+      </c>
+      <c r="F18" t="s">
+        <v>57</v>
+      </c>
+      <c r="G18" t="s">
+        <v>66</v>
+      </c>
+      <c r="H18">
+        <v>6000</v>
+      </c>
+      <c r="I18">
+        <v>3000000</v>
+      </c>
+      <c r="J18">
+        <v>2000</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" t="s">
+        <v>23</v>
+      </c>
+      <c r="F19" t="s">
+        <v>24</v>
+      </c>
+      <c r="G19" t="s">
+        <v>65</v>
+      </c>
+      <c r="H19">
+        <v>36300</v>
+      </c>
+      <c r="I19">
+        <v>1100000</v>
+      </c>
+      <c r="J19">
+        <v>33000</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" t="s">
+        <v>48</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20" t="s">
+        <v>23</v>
+      </c>
+      <c r="F20" t="s">
+        <v>58</v>
+      </c>
+      <c r="G20" t="s">
+        <v>63</v>
+      </c>
+      <c r="H20">
+        <v>27000</v>
+      </c>
+      <c r="I20">
+        <v>1500000</v>
+      </c>
+      <c r="J20">
+        <v>18000</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" t="s">
         <v>49</v>
       </c>
-      <c r="H14">
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21" t="s">
+        <v>23</v>
+      </c>
+      <c r="F21" t="s">
+        <v>59</v>
+      </c>
+      <c r="G21" t="s">
+        <v>57</v>
+      </c>
+      <c r="H21">
         <v>60000</v>
       </c>
-      <c r="I14">
+      <c r="I21">
         <v>2000000</v>
       </c>
-      <c r="J14">
+      <c r="J21">
         <v>30000</v>
       </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="L14">
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
         <v>100</v>
       </c>
     </row>

--- a/datasets/form3.xlsx
+++ b/datasets/form3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="64">
   <si>
     <t>인수기관</t>
   </si>
@@ -103,27 +103,24 @@
     <t>2024-03-25</t>
   </si>
   <si>
+    <t>2024-04-11</t>
+  </si>
+  <si>
     <t>2024-04-02</t>
   </si>
   <si>
-    <t>2024-04-11</t>
-  </si>
-  <si>
     <t>2024-04-22</t>
   </si>
   <si>
+    <t>2024-03-18</t>
+  </si>
+  <si>
     <t>2024-04-15</t>
   </si>
   <si>
-    <t>2024-03-18</t>
-  </si>
-  <si>
     <t>2024-04-24</t>
   </si>
   <si>
-    <t>2024-03-12</t>
-  </si>
-  <si>
     <t>HD현대마린솔루션</t>
   </si>
   <si>
@@ -142,30 +139,27 @@
     <t>아이엠비디엑스</t>
   </si>
   <si>
+    <t>신한제13호스팩</t>
+  </si>
+  <si>
     <t>신한제12호스팩</t>
   </si>
   <si>
-    <t>신한제13호스팩</t>
-  </si>
-  <si>
     <t>유안타제16호스팩</t>
   </si>
   <si>
+    <t>하나32호스팩</t>
+  </si>
+  <si>
     <t>하나33호스팩</t>
   </si>
   <si>
-    <t>하나32호스팩</t>
+    <t>코칩</t>
   </si>
   <si>
     <t>디앤디파마텍</t>
   </si>
   <si>
-    <t>코칩</t>
-  </si>
-  <si>
-    <t>삼현</t>
-  </si>
-  <si>
     <t>KB, 유비에스리미티드(영업소), 제이피모간회사 서울지점</t>
   </si>
   <si>
@@ -191,9 +185,6 @@
   </si>
   <si>
     <t>2024-04-29</t>
-  </si>
-  <si>
-    <t>2024-03-15</t>
   </si>
   <si>
     <t>2024-05-08</t>
@@ -572,7 +563,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -624,19 +615,19 @@
         <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" t="s">
         <v>50</v>
       </c>
-      <c r="E2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F2" t="s">
-        <v>52</v>
-      </c>
       <c r="G2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="H2">
         <v>215255.4</v>
@@ -662,7 +653,7 @@
         <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D3" t="s">
         <v>12</v>
@@ -674,7 +665,7 @@
         <v>26</v>
       </c>
       <c r="G3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H3">
         <v>52800</v>
@@ -700,7 +691,7 @@
         <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D4" t="s">
         <v>12</v>
@@ -709,10 +700,10 @@
         <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H4">
         <v>31500</v>
@@ -738,7 +729,7 @@
         <v>27</v>
       </c>
       <c r="C5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D5" t="s">
         <v>13</v>
@@ -747,10 +738,10 @@
         <v>13</v>
       </c>
       <c r="F5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="H5">
         <v>32000</v>
@@ -776,7 +767,7 @@
         <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D6" t="s">
         <v>14</v>
@@ -785,10 +776,10 @@
         <v>14</v>
       </c>
       <c r="F6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G6" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="H6">
         <v>6000</v>
@@ -814,19 +805,19 @@
         <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F7" t="s">
         <v>50</v>
       </c>
-      <c r="E7" t="s">
-        <v>51</v>
-      </c>
-      <c r="F7" t="s">
-        <v>52</v>
-      </c>
       <c r="G7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="H7">
         <v>18556.5</v>
@@ -852,7 +843,7 @@
         <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D8" t="s">
         <v>16</v>
@@ -861,10 +852,10 @@
         <v>16</v>
       </c>
       <c r="F8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G8" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="H8">
         <v>32500</v>
@@ -890,19 +881,19 @@
         <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" t="s">
         <v>50</v>
       </c>
-      <c r="E9" t="s">
-        <v>51</v>
-      </c>
-      <c r="F9" t="s">
-        <v>52</v>
-      </c>
       <c r="G9" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="H9">
         <v>18556.5</v>
@@ -928,19 +919,19 @@
         <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" t="s">
         <v>50</v>
       </c>
-      <c r="E10" t="s">
-        <v>51</v>
-      </c>
-      <c r="F10" t="s">
-        <v>52</v>
-      </c>
       <c r="G10" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="H10">
         <v>74226</v>
@@ -966,7 +957,7 @@
         <v>29</v>
       </c>
       <c r="C11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D11" t="s">
         <v>18</v>
@@ -975,16 +966,16 @@
         <v>18</v>
       </c>
       <c r="F11" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="G11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H11">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="I11">
-        <v>5000000</v>
+        <v>3000000</v>
       </c>
       <c r="J11">
         <v>2000</v>
@@ -1004,7 +995,7 @@
         <v>30</v>
       </c>
       <c r="C12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D12" t="s">
         <v>18</v>
@@ -1013,16 +1004,16 @@
         <v>18</v>
       </c>
       <c r="F12" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="G12" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H12">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="I12">
-        <v>3000000</v>
+        <v>5000000</v>
       </c>
       <c r="J12">
         <v>2000</v>
@@ -1042,19 +1033,19 @@
         <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D13" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" t="s">
+        <v>49</v>
+      </c>
+      <c r="F13" t="s">
         <v>50</v>
       </c>
-      <c r="E13" t="s">
-        <v>51</v>
-      </c>
-      <c r="F13" t="s">
-        <v>52</v>
-      </c>
       <c r="G13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="H13">
         <v>170719.8</v>
@@ -1080,7 +1071,7 @@
         <v>31</v>
       </c>
       <c r="C14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1092,7 +1083,7 @@
         <v>24</v>
       </c>
       <c r="G14" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="H14">
         <v>10300</v>
@@ -1118,19 +1109,19 @@
         <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D15" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15" t="s">
+        <v>49</v>
+      </c>
+      <c r="F15" t="s">
         <v>50</v>
       </c>
-      <c r="E15" t="s">
-        <v>51</v>
-      </c>
-      <c r="F15" t="s">
-        <v>52</v>
-      </c>
       <c r="G15" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="H15">
         <v>170719.8</v>
@@ -1153,37 +1144,37 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="D16" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="E16" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="F16" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="G16" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="H16">
-        <v>7000</v>
+        <v>74226</v>
       </c>
       <c r="I16">
-        <v>3500000</v>
+        <v>8900000</v>
       </c>
       <c r="J16">
-        <v>2000</v>
+        <v>83400</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>100</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -1191,37 +1182,37 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="C17" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="D17" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="E17" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="F17" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G17" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="H17">
-        <v>74226</v>
+        <v>6000</v>
       </c>
       <c r="I17">
-        <v>8900000</v>
+        <v>3000000</v>
       </c>
       <c r="J17">
-        <v>83400</v>
+        <v>2000</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1232,7 +1223,7 @@
         <v>33</v>
       </c>
       <c r="C18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D18" t="s">
         <v>22</v>
@@ -1241,16 +1232,16 @@
         <v>22</v>
       </c>
       <c r="F18" t="s">
-        <v>57</v>
+        <v>25</v>
       </c>
       <c r="G18" t="s">
-        <v>66</v>
+        <v>34</v>
       </c>
       <c r="H18">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="I18">
-        <v>3000000</v>
+        <v>3500000</v>
       </c>
       <c r="J18">
         <v>2000</v>
@@ -1267,10 +1258,10 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D19" t="s">
         <v>23</v>
@@ -1279,19 +1270,19 @@
         <v>23</v>
       </c>
       <c r="F19" t="s">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="G19" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="H19">
-        <v>36300</v>
+        <v>27000</v>
       </c>
       <c r="I19">
-        <v>1100000</v>
+        <v>1500000</v>
       </c>
       <c r="J19">
-        <v>33000</v>
+        <v>18000</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1305,10 +1296,10 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D20" t="s">
         <v>23</v>
@@ -1317,62 +1308,24 @@
         <v>23</v>
       </c>
       <c r="F20" t="s">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="G20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H20">
-        <v>27000</v>
+        <v>36300</v>
       </c>
       <c r="I20">
-        <v>1500000</v>
+        <v>1100000</v>
       </c>
       <c r="J20">
-        <v>18000</v>
+        <v>33000</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" t="s">
-        <v>35</v>
-      </c>
-      <c r="C21" t="s">
-        <v>49</v>
-      </c>
-      <c r="D21" t="s">
-        <v>23</v>
-      </c>
-      <c r="E21" t="s">
-        <v>23</v>
-      </c>
-      <c r="F21" t="s">
-        <v>59</v>
-      </c>
-      <c r="G21" t="s">
-        <v>57</v>
-      </c>
-      <c r="H21">
-        <v>60000</v>
-      </c>
-      <c r="I21">
-        <v>2000000</v>
-      </c>
-      <c r="J21">
-        <v>30000</v>
-      </c>
-      <c r="K21">
-        <v>0</v>
-      </c>
-      <c r="L21">
         <v>100</v>
       </c>
     </row>

--- a/datasets/form3.xlsx
+++ b/datasets/form3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="68">
   <si>
     <t>인수기관</t>
   </si>
@@ -88,12 +88,15 @@
     <t>한국</t>
   </si>
   <si>
+    <t>2024-05-07</t>
+  </si>
+  <si>
+    <t>2024-04-18</t>
+  </si>
+  <si>
     <t>2024-04-25</t>
   </si>
   <si>
-    <t>2024-04-18</t>
-  </si>
-  <si>
     <t>2024-04-23</t>
   </si>
   <si>
@@ -121,18 +124,24 @@
     <t>2024-04-24</t>
   </si>
   <si>
+    <t>KB제28호스팩</t>
+  </si>
+  <si>
+    <t>제일엠앤에스</t>
+  </si>
+  <si>
     <t>HD현대마린솔루션</t>
   </si>
   <si>
-    <t>제일엠앤에스</t>
-  </si>
-  <si>
     <t>민테크</t>
   </si>
   <si>
     <t>엔젤로보틱스</t>
   </si>
   <si>
+    <t>아이씨티케이</t>
+  </si>
+  <si>
     <t>SK증권제12호스팩</t>
   </si>
   <si>
@@ -166,6 +175,9 @@
     <t>KB, 유비에스리미티드(영업소), 제이피모간회사 서울지점, 신한, 하나, 대신, 삼성</t>
   </si>
   <si>
+    <t>2024-05-10</t>
+  </si>
+  <si>
     <t>2024-04-30</t>
   </si>
   <si>
@@ -187,6 +199,9 @@
     <t>2024-04-29</t>
   </si>
   <si>
+    <t>2024-05-17</t>
+  </si>
+  <si>
     <t>2024-05-08</t>
   </si>
   <si>
@@ -194,9 +209,6 @@
   </si>
   <si>
     <t>2024-03-26</t>
-  </si>
-  <si>
-    <t>2024-05-07</t>
   </si>
   <si>
     <t>2024-04-03</t>
@@ -563,7 +575,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L20"/>
+  <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -615,34 +627,34 @@
         <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D2" t="s">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G2" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="H2">
-        <v>215255.4</v>
+        <v>10000</v>
       </c>
       <c r="I2">
-        <v>8900000</v>
+        <v>5000000</v>
       </c>
       <c r="J2">
-        <v>83400</v>
+        <v>2000</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>29</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -653,7 +665,7 @@
         <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D3" t="s">
         <v>12</v>
@@ -662,10 +674,10 @@
         <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G3" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="H3">
         <v>52800</v>
@@ -691,66 +703,66 @@
         <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="F4" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G4" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="H4">
-        <v>31500</v>
+        <v>215255.4</v>
       </c>
       <c r="I4">
-        <v>3000000</v>
+        <v>8900000</v>
       </c>
       <c r="J4">
-        <v>10500</v>
+        <v>83400</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>100</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
         <v>27</v>
       </c>
       <c r="C5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G5" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="H5">
-        <v>32000</v>
+        <v>31500</v>
       </c>
       <c r="I5">
-        <v>1600000</v>
+        <v>3000000</v>
       </c>
       <c r="J5">
-        <v>20000</v>
+        <v>10500</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -761,34 +773,34 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="G6" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="H6">
-        <v>6000</v>
+        <v>32000</v>
       </c>
       <c r="I6">
-        <v>3000000</v>
+        <v>1600000</v>
       </c>
       <c r="J6">
-        <v>2000</v>
+        <v>20000</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -799,72 +811,72 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D7" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="E7" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="F7" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G7" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="H7">
-        <v>18556.5</v>
+        <v>39400</v>
       </c>
       <c r="I7">
-        <v>8900000</v>
+        <v>1970000</v>
       </c>
       <c r="J7">
-        <v>83400</v>
+        <v>20000</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>2.5</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C8" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F8" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G8" t="s">
-        <v>61</v>
+        <v>24</v>
       </c>
       <c r="H8">
-        <v>32500</v>
+        <v>6000</v>
       </c>
       <c r="I8">
-        <v>2500000</v>
+        <v>3000000</v>
       </c>
       <c r="J8">
-        <v>13000</v>
+        <v>2000</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -875,25 +887,25 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D9" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E9" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F9" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="G9" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="H9">
         <v>18556.5</v>
@@ -913,78 +925,78 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C10" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="D10" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="E10" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="F10" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="G10" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="H10">
-        <v>74226</v>
+        <v>32500</v>
       </c>
       <c r="I10">
-        <v>8900000</v>
+        <v>2500000</v>
       </c>
       <c r="J10">
-        <v>83400</v>
+        <v>13000</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D11" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="E11" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="F11" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="G11" t="s">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="H11">
-        <v>6000</v>
+        <v>18556.5</v>
       </c>
       <c r="I11">
-        <v>3000000</v>
+        <v>8900000</v>
       </c>
       <c r="J11">
-        <v>2000</v>
+        <v>83400</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>100</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -992,104 +1004,104 @@
         <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D12" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="E12" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="F12" t="s">
         <v>54</v>
       </c>
       <c r="G12" t="s">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="H12">
-        <v>10000</v>
+        <v>74226</v>
       </c>
       <c r="I12">
-        <v>5000000</v>
+        <v>8900000</v>
       </c>
       <c r="J12">
-        <v>2000</v>
+        <v>83400</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>100</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C13" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="D13" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="E13" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="F13" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="G13" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="H13">
-        <v>170719.8</v>
+        <v>6000</v>
       </c>
       <c r="I13">
-        <v>8900000</v>
+        <v>3000000</v>
       </c>
       <c r="J13">
-        <v>83400</v>
+        <v>2000</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>23</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B14" t="s">
         <v>31</v>
       </c>
       <c r="C14" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E14" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F14" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="G14" t="s">
-        <v>62</v>
+        <v>34</v>
       </c>
       <c r="H14">
-        <v>10300</v>
+        <v>10000</v>
       </c>
       <c r="I14">
-        <v>5150000</v>
+        <v>5000000</v>
       </c>
       <c r="J14">
         <v>2000</v>
@@ -1103,25 +1115,25 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D15" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E15" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F15" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="G15" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="H15">
         <v>170719.8</v>
@@ -1141,78 +1153,78 @@
     </row>
     <row r="16" spans="1:12">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="C16" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="D16" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="E16" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="F16" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="G16" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="H16">
-        <v>74226</v>
+        <v>10300</v>
       </c>
       <c r="I16">
-        <v>8900000</v>
+        <v>5150000</v>
       </c>
       <c r="J16">
-        <v>83400</v>
+        <v>2000</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:12">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="E17" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="F17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H17">
-        <v>6000</v>
+        <v>170719.8</v>
       </c>
       <c r="I17">
-        <v>3000000</v>
+        <v>8900000</v>
       </c>
       <c r="J17">
-        <v>2000</v>
+        <v>83400</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>100</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1220,69 +1232,69 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D18" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="E18" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="F18" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="G18" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="H18">
-        <v>7000</v>
+        <v>74226</v>
       </c>
       <c r="I18">
-        <v>3500000</v>
+        <v>8900000</v>
       </c>
       <c r="J18">
-        <v>2000</v>
+        <v>83400</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>100</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F19" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="G19" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="H19">
-        <v>27000</v>
+        <v>6000</v>
       </c>
       <c r="I19">
-        <v>1500000</v>
+        <v>3000000</v>
       </c>
       <c r="J19">
-        <v>18000</v>
+        <v>2000</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1293,39 +1305,115 @@
     </row>
     <row r="20" spans="1:12">
       <c r="A20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" t="s">
+        <v>48</v>
+      </c>
+      <c r="D20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20" t="s">
+        <v>22</v>
+      </c>
+      <c r="F20" t="s">
+        <v>25</v>
+      </c>
+      <c r="G20" t="s">
+        <v>35</v>
+      </c>
+      <c r="H20">
+        <v>7000</v>
+      </c>
+      <c r="I20">
+        <v>3500000</v>
+      </c>
+      <c r="J20">
+        <v>2000</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" t="s">
         <v>23</v>
       </c>
-      <c r="B20" t="s">
-        <v>31</v>
-      </c>
-      <c r="C20" t="s">
-        <v>47</v>
-      </c>
-      <c r="D20" t="s">
+      <c r="B21" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" t="s">
+        <v>49</v>
+      </c>
+      <c r="D21" t="s">
         <v>23</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E21" t="s">
         <v>23</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F21" t="s">
+        <v>60</v>
+      </c>
+      <c r="G21" t="s">
         <v>24</v>
       </c>
-      <c r="G20" t="s">
-        <v>62</v>
-      </c>
-      <c r="H20">
+      <c r="H21">
+        <v>27000</v>
+      </c>
+      <c r="I21">
+        <v>1500000</v>
+      </c>
+      <c r="J21">
+        <v>18000</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" t="s">
+        <v>50</v>
+      </c>
+      <c r="D22" t="s">
+        <v>23</v>
+      </c>
+      <c r="E22" t="s">
+        <v>23</v>
+      </c>
+      <c r="F22" t="s">
+        <v>26</v>
+      </c>
+      <c r="G22" t="s">
+        <v>66</v>
+      </c>
+      <c r="H22">
         <v>36300</v>
       </c>
-      <c r="I20">
+      <c r="I22">
         <v>1100000</v>
       </c>
-      <c r="J20">
+      <c r="J22">
         <v>33000</v>
       </c>
-      <c r="K20">
-        <v>0</v>
-      </c>
-      <c r="L20">
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
         <v>100</v>
       </c>
     </row>

--- a/datasets/form3.xlsx
+++ b/datasets/form3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="64">
   <si>
     <t>인수기관</t>
   </si>
@@ -91,27 +91,24 @@
     <t>2024-05-07</t>
   </si>
   <si>
+    <t>2024-04-25</t>
+  </si>
+  <si>
+    <t>2024-04-23</t>
+  </si>
+  <si>
     <t>2024-04-18</t>
   </si>
   <si>
-    <t>2024-04-25</t>
-  </si>
-  <si>
-    <t>2024-04-23</t>
-  </si>
-  <si>
-    <t>2024-03-14</t>
-  </si>
-  <si>
     <t>2024-03-25</t>
   </si>
   <si>
+    <t>2024-04-02</t>
+  </si>
+  <si>
     <t>2024-04-11</t>
   </si>
   <si>
-    <t>2024-04-02</t>
-  </si>
-  <si>
     <t>2024-04-22</t>
   </si>
   <si>
@@ -127,18 +124,15 @@
     <t>KB제28호스팩</t>
   </si>
   <si>
+    <t>HD현대마린솔루션</t>
+  </si>
+  <si>
+    <t>민테크</t>
+  </si>
+  <si>
     <t>제일엠앤에스</t>
   </si>
   <si>
-    <t>HD현대마린솔루션</t>
-  </si>
-  <si>
-    <t>민테크</t>
-  </si>
-  <si>
-    <t>엔젤로보틱스</t>
-  </si>
-  <si>
     <t>아이씨티케이</t>
   </si>
   <si>
@@ -148,12 +142,12 @@
     <t>아이엠비디엑스</t>
   </si>
   <si>
+    <t>신한제12호스팩</t>
+  </si>
+  <si>
     <t>신한제13호스팩</t>
   </si>
   <si>
-    <t>신한제12호스팩</t>
-  </si>
-  <si>
     <t>유안타제16호스팩</t>
   </si>
   <si>
@@ -163,12 +157,12 @@
     <t>하나33호스팩</t>
   </si>
   <si>
+    <t>디앤디파마텍</t>
+  </si>
+  <si>
     <t>코칩</t>
   </si>
   <si>
-    <t>디앤디파마텍</t>
-  </si>
-  <si>
     <t>KB, 유비에스리미티드(영업소), 제이피모간회사 서울지점</t>
   </si>
   <si>
@@ -184,9 +178,6 @@
     <t>2024-04-26</t>
   </si>
   <si>
-    <t>2024-03-19</t>
-  </si>
-  <si>
     <t>2024-03-28</t>
   </si>
   <si>
@@ -206,9 +197,6 @@
   </si>
   <si>
     <t>2024-05-03</t>
-  </si>
-  <si>
-    <t>2024-03-26</t>
   </si>
   <si>
     <t>2024-04-03</t>
@@ -575,7 +563,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L22"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -627,7 +615,7 @@
         <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
@@ -636,10 +624,10 @@
         <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H2">
         <v>10000</v>
@@ -665,34 +653,34 @@
         <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="F3" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="G3" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="H3">
-        <v>52800</v>
+        <v>215255.4</v>
       </c>
       <c r="I3">
-        <v>2400000</v>
+        <v>8900000</v>
       </c>
       <c r="J3">
-        <v>22000</v>
+        <v>83400</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>100</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -703,34 +691,34 @@
         <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D4" t="s">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H4">
-        <v>215255.4</v>
+        <v>31500</v>
       </c>
       <c r="I4">
-        <v>8900000</v>
+        <v>3000000</v>
       </c>
       <c r="J4">
-        <v>83400</v>
+        <v>10500</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>29</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -741,7 +729,7 @@
         <v>27</v>
       </c>
       <c r="C5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -750,19 +738,19 @@
         <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="G5" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="H5">
-        <v>31500</v>
+        <v>52800</v>
       </c>
       <c r="I5">
-        <v>3000000</v>
+        <v>2400000</v>
       </c>
       <c r="J5">
-        <v>10500</v>
+        <v>22000</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -776,10 +764,10 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D6" t="s">
         <v>13</v>
@@ -788,16 +776,16 @@
         <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="G6" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="H6">
-        <v>32000</v>
+        <v>39400</v>
       </c>
       <c r="I6">
-        <v>1600000</v>
+        <v>1970000</v>
       </c>
       <c r="J6">
         <v>20000</v>
@@ -811,34 +799,34 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F7" t="s">
         <v>53</v>
       </c>
       <c r="G7" t="s">
-        <v>61</v>
+        <v>24</v>
       </c>
       <c r="H7">
-        <v>39400</v>
+        <v>6000</v>
       </c>
       <c r="I7">
-        <v>1970000</v>
+        <v>3000000</v>
       </c>
       <c r="J7">
-        <v>20000</v>
+        <v>2000</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -849,142 +837,142 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="E8" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="F8" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G8" t="s">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="H8">
-        <v>6000</v>
+        <v>18556.5</v>
       </c>
       <c r="I8">
-        <v>3000000</v>
+        <v>8900000</v>
       </c>
       <c r="J8">
-        <v>2000</v>
+        <v>83400</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>100</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C9" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D9" t="s">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="E9" t="s">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="F9" t="s">
         <v>54</v>
       </c>
       <c r="G9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H9">
-        <v>18556.5</v>
+        <v>32500</v>
       </c>
       <c r="I9">
-        <v>8900000</v>
+        <v>2500000</v>
       </c>
       <c r="J9">
-        <v>83400</v>
+        <v>13000</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>2.5</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="D10" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="E10" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="F10" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="G10" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="H10">
-        <v>32500</v>
+        <v>18556.5</v>
       </c>
       <c r="I10">
-        <v>2500000</v>
+        <v>8900000</v>
       </c>
       <c r="J10">
-        <v>13000</v>
+        <v>83400</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>100</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D11" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E11" t="s">
+        <v>50</v>
+      </c>
+      <c r="F11" t="s">
         <v>52</v>
       </c>
-      <c r="F11" t="s">
-        <v>54</v>
-      </c>
       <c r="G11" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="H11">
-        <v>18556.5</v>
+        <v>74226</v>
       </c>
       <c r="I11">
         <v>8900000</v>
@@ -996,7 +984,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>2.5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -1004,37 +992,37 @@
         <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C12" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D12" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="E12" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="F12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G12" t="s">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="H12">
-        <v>74226</v>
+        <v>10000</v>
       </c>
       <c r="I12">
-        <v>8900000</v>
+        <v>5000000</v>
       </c>
       <c r="J12">
-        <v>83400</v>
+        <v>2000</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -1045,7 +1033,7 @@
         <v>30</v>
       </c>
       <c r="C13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D13" t="s">
         <v>18</v>
@@ -1054,10 +1042,10 @@
         <v>18</v>
       </c>
       <c r="F13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H13">
         <v>6000</v>
@@ -1077,154 +1065,154 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B14" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="D14" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="E14" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="F14" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="G14" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="H14">
-        <v>10000</v>
+        <v>170719.8</v>
       </c>
       <c r="I14">
-        <v>5000000</v>
+        <v>8900000</v>
       </c>
       <c r="J14">
-        <v>2000</v>
+        <v>83400</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>100</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C15" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="D15" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="E15" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="F15" t="s">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="G15" t="s">
         <v>62</v>
       </c>
       <c r="H15">
-        <v>170719.8</v>
+        <v>10300</v>
       </c>
       <c r="I15">
-        <v>8900000</v>
+        <v>5150000</v>
       </c>
       <c r="J15">
-        <v>83400</v>
+        <v>2000</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>23</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B16" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="D16" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="E16" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="F16" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="G16" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="H16">
-        <v>10300</v>
+        <v>170719.8</v>
       </c>
       <c r="I16">
-        <v>5150000</v>
+        <v>8900000</v>
       </c>
       <c r="J16">
-        <v>2000</v>
+        <v>83400</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>100</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:12">
       <c r="A17" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C17" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="D17" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="E17" t="s">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="F17" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G17" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H17">
-        <v>170719.8</v>
+        <v>6000</v>
       </c>
       <c r="I17">
-        <v>8900000</v>
+        <v>3000000</v>
       </c>
       <c r="J17">
-        <v>83400</v>
+        <v>2000</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>23</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1232,22 +1220,22 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D18" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E18" t="s">
+        <v>50</v>
+      </c>
+      <c r="F18" t="s">
         <v>52</v>
       </c>
-      <c r="F18" t="s">
-        <v>54</v>
-      </c>
       <c r="G18" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="H18">
         <v>74226</v>
@@ -1273,7 +1261,7 @@
         <v>33</v>
       </c>
       <c r="C19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D19" t="s">
         <v>22</v>
@@ -1282,16 +1270,16 @@
         <v>22</v>
       </c>
       <c r="F19" t="s">
-        <v>59</v>
+        <v>27</v>
       </c>
       <c r="G19" t="s">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="H19">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="I19">
-        <v>3000000</v>
+        <v>3500000</v>
       </c>
       <c r="J19">
         <v>2000</v>
@@ -1305,34 +1293,34 @@
     </row>
     <row r="20" spans="1:12">
       <c r="A20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F20" t="s">
         <v>25</v>
       </c>
       <c r="G20" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="H20">
-        <v>7000</v>
+        <v>36300</v>
       </c>
       <c r="I20">
-        <v>3500000</v>
+        <v>1100000</v>
       </c>
       <c r="J20">
-        <v>2000</v>
+        <v>33000</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1346,10 +1334,10 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D21" t="s">
         <v>23</v>
@@ -1358,7 +1346,7 @@
         <v>23</v>
       </c>
       <c r="F21" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G21" t="s">
         <v>24</v>
@@ -1376,44 +1364,6 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
-      <c r="A22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" t="s">
-        <v>32</v>
-      </c>
-      <c r="C22" t="s">
-        <v>50</v>
-      </c>
-      <c r="D22" t="s">
-        <v>23</v>
-      </c>
-      <c r="E22" t="s">
-        <v>23</v>
-      </c>
-      <c r="F22" t="s">
-        <v>26</v>
-      </c>
-      <c r="G22" t="s">
-        <v>66</v>
-      </c>
-      <c r="H22">
-        <v>36300</v>
-      </c>
-      <c r="I22">
-        <v>1100000</v>
-      </c>
-      <c r="J22">
-        <v>33000</v>
-      </c>
-      <c r="K22">
-        <v>0</v>
-      </c>
-      <c r="L22">
         <v>100</v>
       </c>
     </row>

--- a/datasets/form3.xlsx
+++ b/datasets/form3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="60">
   <si>
     <t>인수기관</t>
   </si>
@@ -94,12 +94,12 @@
     <t>2024-04-25</t>
   </si>
   <si>
+    <t>2024-04-18</t>
+  </si>
+  <si>
     <t>2024-04-23</t>
   </si>
   <si>
-    <t>2024-04-18</t>
-  </si>
-  <si>
     <t>2024-03-25</t>
   </si>
   <si>
@@ -112,9 +112,6 @@
     <t>2024-04-22</t>
   </si>
   <si>
-    <t>2024-03-18</t>
-  </si>
-  <si>
     <t>2024-04-15</t>
   </si>
   <si>
@@ -127,12 +124,12 @@
     <t>HD현대마린솔루션</t>
   </si>
   <si>
+    <t>제일엠앤에스</t>
+  </si>
+  <si>
     <t>민테크</t>
   </si>
   <si>
-    <t>제일엠앤에스</t>
-  </si>
-  <si>
     <t>아이씨티케이</t>
   </si>
   <si>
@@ -151,9 +148,6 @@
     <t>유안타제16호스팩</t>
   </si>
   <si>
-    <t>하나32호스팩</t>
-  </si>
-  <si>
     <t>하나33호스팩</t>
   </si>
   <si>
@@ -184,9 +178,6 @@
     <t>2024-04-05</t>
   </si>
   <si>
-    <t>2024-03-21</t>
-  </si>
-  <si>
     <t>2024-04-29</t>
   </si>
   <si>
@@ -203,9 +194,6 @@
   </si>
   <si>
     <t>2024-05-02</t>
-  </si>
-  <si>
-    <t>2024-03-27</t>
   </si>
 </sst>
 </file>
@@ -563,7 +551,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -615,7 +603,7 @@
         <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
@@ -624,10 +612,10 @@
         <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="H2">
         <v>10000</v>
@@ -653,19 +641,19 @@
         <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3" t="s">
         <v>50</v>
       </c>
-      <c r="F3" t="s">
-        <v>52</v>
-      </c>
       <c r="G3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H3">
         <v>215255.4</v>
@@ -691,7 +679,7 @@
         <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D4" t="s">
         <v>12</v>
@@ -700,19 +688,19 @@
         <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="G4" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="H4">
-        <v>31500</v>
+        <v>52800</v>
       </c>
       <c r="I4">
-        <v>3000000</v>
+        <v>2400000</v>
       </c>
       <c r="J4">
-        <v>10500</v>
+        <v>22000</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -729,7 +717,7 @@
         <v>27</v>
       </c>
       <c r="C5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -738,19 +726,19 @@
         <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="G5" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="H5">
-        <v>52800</v>
+        <v>31500</v>
       </c>
       <c r="I5">
-        <v>2400000</v>
+        <v>3000000</v>
       </c>
       <c r="J5">
-        <v>22000</v>
+        <v>10500</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -767,7 +755,7 @@
         <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D6" t="s">
         <v>13</v>
@@ -776,10 +764,10 @@
         <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G6" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="H6">
         <v>39400</v>
@@ -802,10 +790,10 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D7" t="s">
         <v>14</v>
@@ -814,7 +802,7 @@
         <v>14</v>
       </c>
       <c r="F7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G7" t="s">
         <v>24</v>
@@ -843,19 +831,19 @@
         <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" t="s">
         <v>50</v>
       </c>
-      <c r="F8" t="s">
-        <v>52</v>
-      </c>
       <c r="G8" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H8">
         <v>18556.5</v>
@@ -881,7 +869,7 @@
         <v>28</v>
       </c>
       <c r="C9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D9" t="s">
         <v>16</v>
@@ -890,10 +878,10 @@
         <v>16</v>
       </c>
       <c r="F9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G9" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H9">
         <v>32500</v>
@@ -919,19 +907,19 @@
         <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E10" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" t="s">
         <v>50</v>
       </c>
-      <c r="F10" t="s">
-        <v>52</v>
-      </c>
       <c r="G10" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H10">
         <v>18556.5</v>
@@ -954,37 +942,37 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C11" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D11" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="E11" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="F11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G11" t="s">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="H11">
-        <v>74226</v>
+        <v>10000</v>
       </c>
       <c r="I11">
-        <v>8900000</v>
+        <v>5000000</v>
       </c>
       <c r="J11">
-        <v>83400</v>
+        <v>2000</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -992,37 +980,37 @@
         <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="D12" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="E12" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="F12" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="G12" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="H12">
-        <v>10000</v>
+        <v>74226</v>
       </c>
       <c r="I12">
-        <v>5000000</v>
+        <v>8900000</v>
       </c>
       <c r="J12">
-        <v>2000</v>
+        <v>83400</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>100</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -1033,7 +1021,7 @@
         <v>30</v>
       </c>
       <c r="C13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D13" t="s">
         <v>18</v>
@@ -1042,7 +1030,7 @@
         <v>18</v>
       </c>
       <c r="F13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G13" t="s">
         <v>31</v>
@@ -1071,19 +1059,19 @@
         <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D14" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E14" t="s">
+        <v>48</v>
+      </c>
+      <c r="F14" t="s">
         <v>50</v>
       </c>
-      <c r="F14" t="s">
-        <v>52</v>
-      </c>
       <c r="G14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H14">
         <v>170719.8</v>
@@ -1109,7 +1097,7 @@
         <v>31</v>
       </c>
       <c r="C15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D15" t="s">
         <v>20</v>
@@ -1121,7 +1109,7 @@
         <v>25</v>
       </c>
       <c r="G15" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="H15">
         <v>10300</v>
@@ -1147,19 +1135,19 @@
         <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D16" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E16" t="s">
+        <v>48</v>
+      </c>
+      <c r="F16" t="s">
         <v>50</v>
       </c>
-      <c r="F16" t="s">
-        <v>52</v>
-      </c>
       <c r="G16" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H16">
         <v>170719.8</v>
@@ -1185,7 +1173,7 @@
         <v>32</v>
       </c>
       <c r="C17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D17" t="s">
         <v>22</v>
@@ -1194,16 +1182,16 @@
         <v>22</v>
       </c>
       <c r="F17" t="s">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="G17" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="H17">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="I17">
-        <v>3000000</v>
+        <v>3500000</v>
       </c>
       <c r="J17">
         <v>2000</v>
@@ -1223,19 +1211,19 @@
         <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D18" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E18" t="s">
+        <v>48</v>
+      </c>
+      <c r="F18" t="s">
         <v>50</v>
       </c>
-      <c r="F18" t="s">
-        <v>52</v>
-      </c>
       <c r="G18" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H18">
         <v>74226</v>
@@ -1255,34 +1243,34 @@
     </row>
     <row r="19" spans="1:12">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F19" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G19" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="H19">
-        <v>7000</v>
+        <v>36300</v>
       </c>
       <c r="I19">
-        <v>3500000</v>
+        <v>1100000</v>
       </c>
       <c r="J19">
-        <v>2000</v>
+        <v>33000</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1296,10 +1284,10 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D20" t="s">
         <v>23</v>
@@ -1308,62 +1296,24 @@
         <v>23</v>
       </c>
       <c r="F20" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="G20" t="s">
-        <v>62</v>
+        <v>24</v>
       </c>
       <c r="H20">
-        <v>36300</v>
+        <v>27000</v>
       </c>
       <c r="I20">
-        <v>1100000</v>
+        <v>1500000</v>
       </c>
       <c r="J20">
-        <v>33000</v>
+        <v>18000</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" t="s">
-        <v>34</v>
-      </c>
-      <c r="C21" t="s">
-        <v>48</v>
-      </c>
-      <c r="D21" t="s">
-        <v>23</v>
-      </c>
-      <c r="E21" t="s">
-        <v>23</v>
-      </c>
-      <c r="F21" t="s">
-        <v>57</v>
-      </c>
-      <c r="G21" t="s">
-        <v>24</v>
-      </c>
-      <c r="H21">
-        <v>27000</v>
-      </c>
-      <c r="I21">
-        <v>1500000</v>
-      </c>
-      <c r="J21">
-        <v>18000</v>
-      </c>
-      <c r="K21">
-        <v>0</v>
-      </c>
-      <c r="L21">
         <v>100</v>
       </c>
     </row>

--- a/datasets/form3.xlsx
+++ b/datasets/form3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="63">
   <si>
     <t>인수기관</t>
   </si>
@@ -103,6 +103,9 @@
     <t>2024-03-25</t>
   </si>
   <si>
+    <t>2024-05-13</t>
+  </si>
+  <si>
     <t>2024-04-02</t>
   </si>
   <si>
@@ -139,6 +142,9 @@
     <t>아이엠비디엑스</t>
   </si>
   <si>
+    <t>노브랜드</t>
+  </si>
+  <si>
     <t>신한제12호스팩</t>
   </si>
   <si>
@@ -151,12 +157,12 @@
     <t>하나33호스팩</t>
   </si>
   <si>
+    <t>코칩</t>
+  </si>
+  <si>
     <t>디앤디파마텍</t>
   </si>
   <si>
-    <t>코칩</t>
-  </si>
-  <si>
     <t>KB, 유비에스리미티드(영업소), 제이피모간회사 서울지점</t>
   </si>
   <si>
@@ -175,15 +181,15 @@
     <t>2024-03-28</t>
   </si>
   <si>
+    <t>2024-05-17</t>
+  </si>
+  <si>
     <t>2024-04-05</t>
   </si>
   <si>
     <t>2024-04-29</t>
   </si>
   <si>
-    <t>2024-05-17</t>
-  </si>
-  <si>
     <t>2024-05-08</t>
   </si>
   <si>
@@ -191,6 +197,9 @@
   </si>
   <si>
     <t>2024-04-03</t>
+  </si>
+  <si>
+    <t>2024-05-23</t>
   </si>
   <si>
     <t>2024-05-02</t>
@@ -551,7 +560,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L20"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -603,7 +612,7 @@
         <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
@@ -612,7 +621,7 @@
         <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G2" t="s">
         <v>55</v>
@@ -641,19 +650,19 @@
         <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H3">
         <v>215255.4</v>
@@ -679,7 +688,7 @@
         <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D4" t="s">
         <v>12</v>
@@ -691,7 +700,7 @@
         <v>27</v>
       </c>
       <c r="G4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H4">
         <v>52800</v>
@@ -717,7 +726,7 @@
         <v>27</v>
       </c>
       <c r="C5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -726,10 +735,10 @@
         <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H5">
         <v>31500</v>
@@ -755,7 +764,7 @@
         <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D6" t="s">
         <v>13</v>
@@ -764,7 +773,7 @@
         <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G6" t="s">
         <v>55</v>
@@ -793,7 +802,7 @@
         <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D7" t="s">
         <v>14</v>
@@ -802,7 +811,7 @@
         <v>14</v>
       </c>
       <c r="F7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G7" t="s">
         <v>24</v>
@@ -831,19 +840,19 @@
         <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E8" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G8" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H8">
         <v>18556.5</v>
@@ -869,7 +878,7 @@
         <v>28</v>
       </c>
       <c r="C9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D9" t="s">
         <v>16</v>
@@ -878,10 +887,10 @@
         <v>16</v>
       </c>
       <c r="F9" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H9">
         <v>32500</v>
@@ -904,75 +913,75 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C10" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="D10" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="E10" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="F10" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="G10" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="H10">
-        <v>18556.5</v>
+        <v>16800</v>
       </c>
       <c r="I10">
-        <v>8900000</v>
+        <v>1200000</v>
       </c>
       <c r="J10">
-        <v>83400</v>
+        <v>14000</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>2.5</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D11" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="E11" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="F11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G11" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="H11">
-        <v>10000</v>
+        <v>18556.5</v>
       </c>
       <c r="I11">
-        <v>5000000</v>
+        <v>8900000</v>
       </c>
       <c r="J11">
-        <v>2000</v>
+        <v>83400</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>100</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -980,37 +989,37 @@
         <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C12" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="D12" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="E12" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="F12" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="G12" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="H12">
-        <v>74226</v>
+        <v>10000</v>
       </c>
       <c r="I12">
-        <v>8900000</v>
+        <v>5000000</v>
       </c>
       <c r="J12">
-        <v>83400</v>
+        <v>2000</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -1018,189 +1027,189 @@
         <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D13" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="E13" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="F13" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="G13" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="H13">
-        <v>6000</v>
+        <v>74226</v>
       </c>
       <c r="I13">
-        <v>3000000</v>
+        <v>8900000</v>
       </c>
       <c r="J13">
-        <v>2000</v>
+        <v>83400</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>100</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C14" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="D14" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="E14" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="F14" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="G14" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="H14">
-        <v>170719.8</v>
+        <v>6000</v>
       </c>
       <c r="I14">
-        <v>8900000</v>
+        <v>3000000</v>
       </c>
       <c r="J14">
-        <v>83400</v>
+        <v>2000</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>23</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="D15" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="E15" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="F15" t="s">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="G15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H15">
-        <v>10300</v>
+        <v>170719.8</v>
       </c>
       <c r="I15">
-        <v>5150000</v>
+        <v>8900000</v>
       </c>
       <c r="J15">
-        <v>2000</v>
+        <v>83400</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>100</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16" t="s">
         <v>25</v>
       </c>
-      <c r="C16" t="s">
-        <v>35</v>
-      </c>
-      <c r="D16" t="s">
-        <v>47</v>
-      </c>
-      <c r="E16" t="s">
-        <v>48</v>
-      </c>
-      <c r="F16" t="s">
-        <v>50</v>
-      </c>
       <c r="G16" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="H16">
-        <v>170719.8</v>
+        <v>10300</v>
       </c>
       <c r="I16">
-        <v>8900000</v>
+        <v>5150000</v>
       </c>
       <c r="J16">
-        <v>83400</v>
+        <v>2000</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>23</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:12">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="E17" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="F17" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="G17" t="s">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="H17">
-        <v>7000</v>
+        <v>170719.8</v>
       </c>
       <c r="I17">
-        <v>3500000</v>
+        <v>8900000</v>
       </c>
       <c r="J17">
-        <v>2000</v>
+        <v>83400</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>100</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1208,75 +1217,75 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C18" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="D18" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="E18" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="F18" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="G18" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="H18">
-        <v>74226</v>
+        <v>7000</v>
       </c>
       <c r="I18">
-        <v>8900000</v>
+        <v>3500000</v>
       </c>
       <c r="J18">
-        <v>83400</v>
+        <v>2000</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="D19" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="E19" t="s">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="F19" t="s">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="G19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H19">
-        <v>36300</v>
+        <v>74226</v>
       </c>
       <c r="I19">
-        <v>1100000</v>
+        <v>8900000</v>
       </c>
       <c r="J19">
-        <v>33000</v>
+        <v>83400</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>100</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1284,10 +1293,10 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D20" t="s">
         <v>23</v>
@@ -1296,7 +1305,7 @@
         <v>23</v>
       </c>
       <c r="F20" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="G20" t="s">
         <v>24</v>
@@ -1314,6 +1323,44 @@
         <v>0</v>
       </c>
       <c r="L20">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21" t="s">
+        <v>23</v>
+      </c>
+      <c r="F21" t="s">
+        <v>25</v>
+      </c>
+      <c r="G21" t="s">
+        <v>62</v>
+      </c>
+      <c r="H21">
+        <v>36300</v>
+      </c>
+      <c r="I21">
+        <v>1100000</v>
+      </c>
+      <c r="J21">
+        <v>33000</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
         <v>100</v>
       </c>
     </row>

--- a/datasets/form3.xlsx
+++ b/datasets/form3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="58">
   <si>
     <t>인수기관</t>
   </si>
@@ -64,9 +64,6 @@
     <t>대신</t>
   </si>
   <si>
-    <t>미래</t>
-  </si>
-  <si>
     <t>삼성</t>
   </si>
   <si>
@@ -100,18 +97,15 @@
     <t>2024-04-23</t>
   </si>
   <si>
-    <t>2024-03-25</t>
-  </si>
-  <si>
     <t>2024-05-13</t>
   </si>
   <si>
+    <t>2024-04-11</t>
+  </si>
+  <si>
     <t>2024-04-02</t>
   </si>
   <si>
-    <t>2024-04-11</t>
-  </si>
-  <si>
     <t>2024-04-22</t>
   </si>
   <si>
@@ -139,18 +133,15 @@
     <t>SK증권제12호스팩</t>
   </si>
   <si>
-    <t>아이엠비디엑스</t>
-  </si>
-  <si>
     <t>노브랜드</t>
   </si>
   <si>
+    <t>신한제13호스팩</t>
+  </si>
+  <si>
     <t>신한제12호스팩</t>
   </si>
   <si>
-    <t>신한제13호스팩</t>
-  </si>
-  <si>
     <t>유안타제16호스팩</t>
   </si>
   <si>
@@ -178,9 +169,6 @@
     <t>2024-04-26</t>
   </si>
   <si>
-    <t>2024-03-28</t>
-  </si>
-  <si>
     <t>2024-05-17</t>
   </si>
   <si>
@@ -194,9 +182,6 @@
   </si>
   <si>
     <t>2024-05-03</t>
-  </si>
-  <si>
-    <t>2024-04-03</t>
   </si>
   <si>
     <t>2024-05-23</t>
@@ -560,7 +545,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -609,10 +594,10 @@
         <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
@@ -621,10 +606,10 @@
         <v>12</v>
       </c>
       <c r="F2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2" t="s">
         <v>51</v>
-      </c>
-      <c r="G2" t="s">
-        <v>55</v>
       </c>
       <c r="H2">
         <v>10000</v>
@@ -647,22 +632,22 @@
         <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3" t="s">
         <v>49</v>
       </c>
-      <c r="E3" t="s">
-        <v>50</v>
-      </c>
-      <c r="F3" t="s">
-        <v>52</v>
-      </c>
       <c r="G3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="H3">
         <v>215255.4</v>
@@ -685,10 +670,10 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D4" t="s">
         <v>12</v>
@@ -697,10 +682,10 @@
         <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H4">
         <v>52800</v>
@@ -723,10 +708,10 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -735,10 +720,10 @@
         <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G5" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H5">
         <v>31500</v>
@@ -761,10 +746,10 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D6" t="s">
         <v>13</v>
@@ -773,10 +758,10 @@
         <v>13</v>
       </c>
       <c r="F6" t="s">
+        <v>48</v>
+      </c>
+      <c r="G6" t="s">
         <v>51</v>
-      </c>
-      <c r="G6" t="s">
-        <v>55</v>
       </c>
       <c r="H6">
         <v>39400</v>
@@ -799,10 +784,10 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D7" t="s">
         <v>14</v>
@@ -811,10 +796,10 @@
         <v>14</v>
       </c>
       <c r="F7" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H7">
         <v>6000</v>
@@ -837,22 +822,22 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" t="s">
         <v>49</v>
       </c>
-      <c r="E8" t="s">
-        <v>50</v>
-      </c>
-      <c r="F8" t="s">
-        <v>52</v>
-      </c>
       <c r="G8" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="H8">
         <v>18556.5</v>
@@ -875,10 +860,10 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D9" t="s">
         <v>16</v>
@@ -887,19 +872,19 @@
         <v>16</v>
       </c>
       <c r="F9" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G9" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="H9">
-        <v>32500</v>
+        <v>16800</v>
       </c>
       <c r="I9">
-        <v>2500000</v>
+        <v>1200000</v>
       </c>
       <c r="J9">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -910,40 +895,40 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D10" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="E10" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="F10" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="G10" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="H10">
-        <v>16800</v>
+        <v>18556.5</v>
       </c>
       <c r="I10">
-        <v>1200000</v>
+        <v>8900000</v>
       </c>
       <c r="J10">
-        <v>14000</v>
+        <v>83400</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>100</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -951,113 +936,113 @@
         <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C11" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D11" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="E11" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="F11" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="G11" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="H11">
-        <v>18556.5</v>
+        <v>6000</v>
       </c>
       <c r="I11">
-        <v>8900000</v>
+        <v>3000000</v>
       </c>
       <c r="J11">
-        <v>83400</v>
+        <v>2000</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>2.5</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="D12" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="E12" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="F12" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="G12" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="H12">
-        <v>10000</v>
+        <v>74226</v>
       </c>
       <c r="I12">
-        <v>5000000</v>
+        <v>8900000</v>
       </c>
       <c r="J12">
-        <v>2000</v>
+        <v>83400</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>100</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C13" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D13" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="E13" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="F13" t="s">
         <v>52</v>
       </c>
       <c r="G13" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="H13">
-        <v>74226</v>
+        <v>10000</v>
       </c>
       <c r="I13">
-        <v>8900000</v>
+        <v>5000000</v>
       </c>
       <c r="J13">
-        <v>83400</v>
+        <v>2000</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -1065,37 +1050,37 @@
         <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="D14" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="E14" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="F14" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="G14" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="H14">
-        <v>6000</v>
+        <v>170719.8</v>
       </c>
       <c r="I14">
-        <v>3000000</v>
+        <v>8900000</v>
       </c>
       <c r="J14">
-        <v>2000</v>
+        <v>83400</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>100</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -1103,37 +1088,37 @@
         <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C15" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="D15" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="E15" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="F15" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="G15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H15">
-        <v>170719.8</v>
+        <v>10300</v>
       </c>
       <c r="I15">
-        <v>8900000</v>
+        <v>5150000</v>
       </c>
       <c r="J15">
-        <v>83400</v>
+        <v>2000</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>23</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -1141,37 +1126,37 @@
         <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="D16" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="E16" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="F16" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="G16" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="H16">
-        <v>10300</v>
+        <v>170719.8</v>
       </c>
       <c r="I16">
-        <v>5150000</v>
+        <v>8900000</v>
       </c>
       <c r="J16">
-        <v>2000</v>
+        <v>83400</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>100</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -1179,75 +1164,75 @@
         <v>21</v>
       </c>
       <c r="B17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" t="s">
+        <v>21</v>
+      </c>
+      <c r="F17" t="s">
         <v>25</v>
       </c>
-      <c r="C17" t="s">
-        <v>36</v>
-      </c>
-      <c r="D17" t="s">
-        <v>49</v>
-      </c>
-      <c r="E17" t="s">
-        <v>50</v>
-      </c>
-      <c r="F17" t="s">
-        <v>52</v>
-      </c>
       <c r="G17" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="H17">
-        <v>170719.8</v>
+        <v>7000</v>
       </c>
       <c r="I17">
-        <v>8900000</v>
+        <v>3500000</v>
       </c>
       <c r="J17">
-        <v>83400</v>
+        <v>2000</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>23</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:12">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" t="s">
         <v>46</v>
       </c>
-      <c r="D18" t="s">
-        <v>22</v>
-      </c>
       <c r="E18" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="F18" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="G18" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="H18">
-        <v>7000</v>
+        <v>74226</v>
       </c>
       <c r="I18">
-        <v>3500000</v>
+        <v>8900000</v>
       </c>
       <c r="J18">
-        <v>2000</v>
+        <v>83400</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>100</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1255,112 +1240,74 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C19" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="D19" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="E19" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="F19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G19" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="H19">
-        <v>74226</v>
+        <v>27000</v>
       </c>
       <c r="I19">
-        <v>8900000</v>
+        <v>1500000</v>
       </c>
       <c r="J19">
-        <v>83400</v>
+        <v>18000</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C20" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F20" t="s">
+        <v>24</v>
+      </c>
+      <c r="G20" t="s">
         <v>57</v>
       </c>
-      <c r="G20" t="s">
-        <v>24</v>
-      </c>
       <c r="H20">
-        <v>27000</v>
+        <v>36300</v>
       </c>
       <c r="I20">
-        <v>1500000</v>
+        <v>1100000</v>
       </c>
       <c r="J20">
-        <v>18000</v>
+        <v>33000</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" t="s">
-        <v>32</v>
-      </c>
-      <c r="C21" t="s">
-        <v>48</v>
-      </c>
-      <c r="D21" t="s">
-        <v>23</v>
-      </c>
-      <c r="E21" t="s">
-        <v>23</v>
-      </c>
-      <c r="F21" t="s">
-        <v>25</v>
-      </c>
-      <c r="G21" t="s">
-        <v>62</v>
-      </c>
-      <c r="H21">
-        <v>36300</v>
-      </c>
-      <c r="I21">
-        <v>1100000</v>
-      </c>
-      <c r="J21">
-        <v>33000</v>
-      </c>
-      <c r="K21">
-        <v>0</v>
-      </c>
-      <c r="L21">
         <v>100</v>
       </c>
     </row>

--- a/datasets/form3.xlsx
+++ b/datasets/form3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="62">
   <si>
     <t>인수기관</t>
   </si>
@@ -64,6 +64,9 @@
     <t>대신</t>
   </si>
   <si>
+    <t>미래</t>
+  </si>
+  <si>
     <t>삼성</t>
   </si>
   <si>
@@ -85,18 +88,21 @@
     <t>한국</t>
   </si>
   <si>
+    <t>2024-04-18</t>
+  </si>
+  <si>
     <t>2024-05-07</t>
   </si>
   <si>
     <t>2024-04-25</t>
   </si>
   <si>
-    <t>2024-04-18</t>
-  </si>
-  <si>
     <t>2024-04-23</t>
   </si>
   <si>
+    <t>2024-05-20</t>
+  </si>
+  <si>
     <t>2024-05-13</t>
   </si>
   <si>
@@ -115,15 +121,15 @@
     <t>2024-04-24</t>
   </si>
   <si>
+    <t>제일엠앤에스</t>
+  </si>
+  <si>
     <t>KB제28호스팩</t>
   </si>
   <si>
     <t>HD현대마린솔루션</t>
   </si>
   <si>
-    <t>제일엠앤에스</t>
-  </si>
-  <si>
     <t>민테크</t>
   </si>
   <si>
@@ -133,6 +139,9 @@
     <t>SK증권제12호스팩</t>
   </si>
   <si>
+    <t>미래에셋비전스팩4호</t>
+  </si>
+  <si>
     <t>노브랜드</t>
   </si>
   <si>
@@ -169,6 +178,9 @@
     <t>2024-04-26</t>
   </si>
   <si>
+    <t>2024-05-23</t>
+  </si>
+  <si>
     <t>2024-05-17</t>
   </si>
   <si>
@@ -184,7 +196,7 @@
     <t>2024-05-03</t>
   </si>
   <si>
-    <t>2024-05-23</t>
+    <t>2024-05-29</t>
   </si>
   <si>
     <t>2024-05-02</t>
@@ -545,7 +557,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L20"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -594,10 +606,10 @@
         <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
@@ -606,19 +618,19 @@
         <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="G2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H2">
-        <v>10000</v>
+        <v>52800</v>
       </c>
       <c r="I2">
-        <v>5000000</v>
+        <v>2400000</v>
       </c>
       <c r="J2">
-        <v>2000</v>
+        <v>22000</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -632,37 +644,37 @@
         <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D3" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H3">
-        <v>215255.4</v>
+        <v>10000</v>
       </c>
       <c r="I3">
-        <v>8900000</v>
+        <v>5000000</v>
       </c>
       <c r="J3">
-        <v>83400</v>
+        <v>2000</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>29</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -670,37 +682,37 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="F4" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="G4" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="H4">
-        <v>52800</v>
+        <v>215255.4</v>
       </c>
       <c r="I4">
-        <v>2400000</v>
+        <v>8900000</v>
       </c>
       <c r="J4">
-        <v>22000</v>
+        <v>83400</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>100</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -708,10 +720,10 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -720,10 +732,10 @@
         <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G5" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="H5">
         <v>31500</v>
@@ -746,10 +758,10 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D6" t="s">
         <v>13</v>
@@ -758,10 +770,10 @@
         <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G6" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="H6">
         <v>39400</v>
@@ -784,10 +796,10 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D7" t="s">
         <v>14</v>
@@ -796,10 +808,10 @@
         <v>14</v>
       </c>
       <c r="F7" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H7">
         <v>6000</v>
@@ -822,22 +834,22 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D8" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E8" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F8" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G8" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="H8">
         <v>18556.5</v>
@@ -860,10 +872,10 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C9" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D9" t="s">
         <v>16</v>
@@ -872,19 +884,19 @@
         <v>16</v>
       </c>
       <c r="F9" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G9" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="H9">
-        <v>16800</v>
+        <v>13300</v>
       </c>
       <c r="I9">
-        <v>1200000</v>
+        <v>6650000</v>
       </c>
       <c r="J9">
-        <v>14000</v>
+        <v>2000</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -895,25 +907,25 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D10" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E10" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F10" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G10" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="H10">
         <v>18556.5</v>
@@ -936,10 +948,10 @@
         <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C11" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D11" t="s">
         <v>17</v>
@@ -948,19 +960,19 @@
         <v>17</v>
       </c>
       <c r="F11" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="G11" t="s">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="H11">
-        <v>6000</v>
+        <v>16800</v>
       </c>
       <c r="I11">
-        <v>3000000</v>
+        <v>1200000</v>
       </c>
       <c r="J11">
-        <v>2000</v>
+        <v>14000</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -971,78 +983,78 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C12" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="D12" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="E12" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="F12" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="G12" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="H12">
-        <v>74226</v>
+        <v>6000</v>
       </c>
       <c r="I12">
-        <v>8900000</v>
+        <v>3000000</v>
       </c>
       <c r="J12">
-        <v>83400</v>
+        <v>2000</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D13" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="E13" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="F13" t="s">
         <v>52</v>
       </c>
       <c r="G13" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="H13">
-        <v>10000</v>
+        <v>74226</v>
       </c>
       <c r="I13">
-        <v>5000000</v>
+        <v>8900000</v>
       </c>
       <c r="J13">
-        <v>2000</v>
+        <v>83400</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>100</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -1050,37 +1062,37 @@
         <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C14" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="D14" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="E14" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="F14" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="G14" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="H14">
-        <v>170719.8</v>
+        <v>10000</v>
       </c>
       <c r="I14">
-        <v>8900000</v>
+        <v>5000000</v>
       </c>
       <c r="J14">
-        <v>83400</v>
+        <v>2000</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>23</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -1088,37 +1100,37 @@
         <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D15" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="E15" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="F15" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="G15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H15">
-        <v>10300</v>
+        <v>170719.8</v>
       </c>
       <c r="I15">
-        <v>5150000</v>
+        <v>8900000</v>
       </c>
       <c r="J15">
-        <v>2000</v>
+        <v>83400</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>100</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -1126,37 +1138,37 @@
         <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="C16" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="D16" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="E16" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="F16" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="G16" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="H16">
-        <v>170719.8</v>
+        <v>10300</v>
       </c>
       <c r="I16">
-        <v>8900000</v>
+        <v>5150000</v>
       </c>
       <c r="J16">
-        <v>83400</v>
+        <v>2000</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>23</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -1164,60 +1176,60 @@
         <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D17" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="E17" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="F17" t="s">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="G17" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="H17">
-        <v>7000</v>
+        <v>170719.8</v>
       </c>
       <c r="I17">
-        <v>3500000</v>
+        <v>8900000</v>
       </c>
       <c r="J17">
-        <v>2000</v>
+        <v>83400</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>100</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:12">
       <c r="A18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D18" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E18" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F18" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G18" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="H18">
         <v>74226</v>
@@ -1240,10 +1252,10 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C19" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D19" t="s">
         <v>22</v>
@@ -1252,19 +1264,19 @@
         <v>22</v>
       </c>
       <c r="F19" t="s">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="G19" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="H19">
-        <v>27000</v>
+        <v>7000</v>
       </c>
       <c r="I19">
-        <v>1500000</v>
+        <v>3500000</v>
       </c>
       <c r="J19">
-        <v>18000</v>
+        <v>2000</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1275,39 +1287,77 @@
     </row>
     <row r="20" spans="1:12">
       <c r="A20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C20" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F20" t="s">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="G20" t="s">
-        <v>57</v>
+        <v>25</v>
       </c>
       <c r="H20">
+        <v>27000</v>
+      </c>
+      <c r="I20">
+        <v>1500000</v>
+      </c>
+      <c r="J20">
+        <v>18000</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21" t="s">
+        <v>23</v>
+      </c>
+      <c r="F21" t="s">
+        <v>26</v>
+      </c>
+      <c r="G21" t="s">
+        <v>61</v>
+      </c>
+      <c r="H21">
         <v>36300</v>
       </c>
-      <c r="I20">
+      <c r="I21">
         <v>1100000</v>
       </c>
-      <c r="J20">
+      <c r="J21">
         <v>33000</v>
       </c>
-      <c r="K20">
-        <v>0</v>
-      </c>
-      <c r="L20">
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
         <v>100</v>
       </c>
     </row>

--- a/datasets/form3.xlsx
+++ b/datasets/form3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="59">
   <si>
     <t>인수기관</t>
   </si>
@@ -109,9 +109,6 @@
     <t>2024-04-11</t>
   </si>
   <si>
-    <t>2024-04-02</t>
-  </si>
-  <si>
     <t>2024-04-22</t>
   </si>
   <si>
@@ -148,9 +145,6 @@
     <t>신한제13호스팩</t>
   </si>
   <si>
-    <t>신한제12호스팩</t>
-  </si>
-  <si>
     <t>유안타제16호스팩</t>
   </si>
   <si>
@@ -182,9 +176,6 @@
   </si>
   <si>
     <t>2024-05-17</t>
-  </si>
-  <si>
-    <t>2024-04-05</t>
   </si>
   <si>
     <t>2024-04-29</t>
@@ -557,7 +548,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -609,7 +600,7 @@
         <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
@@ -621,7 +612,7 @@
         <v>27</v>
       </c>
       <c r="G2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H2">
         <v>52800</v>
@@ -647,7 +638,7 @@
         <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D3" t="s">
         <v>12</v>
@@ -656,10 +647,10 @@
         <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H3">
         <v>10000</v>
@@ -685,19 +676,19 @@
         <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4" t="s">
         <v>50</v>
       </c>
-      <c r="F4" t="s">
-        <v>52</v>
-      </c>
       <c r="G4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="H4">
         <v>215255.4</v>
@@ -723,7 +714,7 @@
         <v>27</v>
       </c>
       <c r="C5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -732,10 +723,10 @@
         <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H5">
         <v>31500</v>
@@ -761,7 +752,7 @@
         <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D6" t="s">
         <v>13</v>
@@ -770,10 +761,10 @@
         <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H6">
         <v>39400</v>
@@ -799,7 +790,7 @@
         <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D7" t="s">
         <v>14</v>
@@ -808,7 +799,7 @@
         <v>14</v>
       </c>
       <c r="F7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G7" t="s">
         <v>25</v>
@@ -837,19 +828,19 @@
         <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" t="s">
         <v>50</v>
       </c>
-      <c r="F8" t="s">
-        <v>52</v>
-      </c>
       <c r="G8" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="H8">
         <v>18556.5</v>
@@ -875,7 +866,7 @@
         <v>28</v>
       </c>
       <c r="C9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D9" t="s">
         <v>16</v>
@@ -884,10 +875,10 @@
         <v>16</v>
       </c>
       <c r="F9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G9" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="H9">
         <v>13300</v>
@@ -913,19 +904,19 @@
         <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E10" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" t="s">
         <v>50</v>
       </c>
-      <c r="F10" t="s">
-        <v>52</v>
-      </c>
       <c r="G10" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="H10">
         <v>18556.5</v>
@@ -951,7 +942,7 @@
         <v>29</v>
       </c>
       <c r="C11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D11" t="s">
         <v>17</v>
@@ -960,10 +951,10 @@
         <v>17</v>
       </c>
       <c r="F11" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G11" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H11">
         <v>16800</v>
@@ -986,37 +977,37 @@
         <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="D12" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="E12" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="F12" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="G12" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="H12">
-        <v>6000</v>
+        <v>74226</v>
       </c>
       <c r="I12">
-        <v>3000000</v>
+        <v>8900000</v>
       </c>
       <c r="J12">
-        <v>2000</v>
+        <v>83400</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>100</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -1024,177 +1015,177 @@
         <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C13" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D13" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="E13" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="F13" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="G13" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="H13">
-        <v>74226</v>
+        <v>6000</v>
       </c>
       <c r="I13">
-        <v>8900000</v>
+        <v>3000000</v>
       </c>
       <c r="J13">
-        <v>83400</v>
+        <v>2000</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B14" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D14" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="E14" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="F14" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="G14" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="H14">
-        <v>10000</v>
+        <v>170719.8</v>
       </c>
       <c r="I14">
-        <v>5000000</v>
+        <v>8900000</v>
       </c>
       <c r="J14">
-        <v>2000</v>
+        <v>83400</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>100</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" t="s">
         <v>26</v>
-      </c>
-      <c r="C15" t="s">
-        <v>37</v>
-      </c>
-      <c r="D15" t="s">
-        <v>49</v>
-      </c>
-      <c r="E15" t="s">
-        <v>50</v>
-      </c>
-      <c r="F15" t="s">
-        <v>52</v>
       </c>
       <c r="G15" t="s">
         <v>58</v>
       </c>
       <c r="H15">
-        <v>170719.8</v>
+        <v>10300</v>
       </c>
       <c r="I15">
-        <v>8900000</v>
+        <v>5150000</v>
       </c>
       <c r="J15">
-        <v>83400</v>
+        <v>2000</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>23</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B16" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="D16" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="E16" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="F16" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="G16" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="H16">
-        <v>10300</v>
+        <v>170719.8</v>
       </c>
       <c r="I16">
-        <v>5150000</v>
+        <v>8900000</v>
       </c>
       <c r="J16">
-        <v>2000</v>
+        <v>83400</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>100</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:12">
       <c r="A17" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B17" t="s">
         <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D17" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E17" t="s">
+        <v>48</v>
+      </c>
+      <c r="F17" t="s">
         <v>50</v>
       </c>
-      <c r="F17" t="s">
-        <v>52</v>
-      </c>
       <c r="G17" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="H17">
-        <v>170719.8</v>
+        <v>74226</v>
       </c>
       <c r="I17">
         <v>8900000</v>
@@ -1206,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>23</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1214,69 +1205,69 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C18" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="D18" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="E18" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="F18" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="G18" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="H18">
-        <v>74226</v>
+        <v>7000</v>
       </c>
       <c r="I18">
-        <v>8900000</v>
+        <v>3500000</v>
       </c>
       <c r="J18">
-        <v>83400</v>
+        <v>2000</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
         <v>33</v>
       </c>
       <c r="C19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F19" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="G19" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="H19">
-        <v>7000</v>
+        <v>27000</v>
       </c>
       <c r="I19">
-        <v>3500000</v>
+        <v>1500000</v>
       </c>
       <c r="J19">
-        <v>2000</v>
+        <v>18000</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1290,10 +1281,10 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D20" t="s">
         <v>23</v>
@@ -1302,62 +1293,24 @@
         <v>23</v>
       </c>
       <c r="F20" t="s">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="G20" t="s">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="H20">
-        <v>27000</v>
+        <v>36300</v>
       </c>
       <c r="I20">
-        <v>1500000</v>
+        <v>1100000</v>
       </c>
       <c r="J20">
-        <v>18000</v>
+        <v>33000</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" t="s">
-        <v>32</v>
-      </c>
-      <c r="C21" t="s">
-        <v>48</v>
-      </c>
-      <c r="D21" t="s">
-        <v>23</v>
-      </c>
-      <c r="E21" t="s">
-        <v>23</v>
-      </c>
-      <c r="F21" t="s">
-        <v>26</v>
-      </c>
-      <c r="G21" t="s">
-        <v>61</v>
-      </c>
-      <c r="H21">
-        <v>36300</v>
-      </c>
-      <c r="I21">
-        <v>1100000</v>
-      </c>
-      <c r="J21">
-        <v>33000</v>
-      </c>
-      <c r="K21">
-        <v>0</v>
-      </c>
-      <c r="L21">
         <v>100</v>
       </c>
     </row>

--- a/datasets/form3.xlsx
+++ b/datasets/form3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="63">
   <si>
     <t>인수기관</t>
   </si>
@@ -88,21 +88,24 @@
     <t>한국</t>
   </si>
   <si>
+    <t>2024-05-07</t>
+  </si>
+  <si>
+    <t>2024-04-25</t>
+  </si>
+  <si>
     <t>2024-04-18</t>
   </si>
   <si>
-    <t>2024-05-07</t>
-  </si>
-  <si>
-    <t>2024-04-25</t>
-  </si>
-  <si>
     <t>2024-04-23</t>
   </si>
   <si>
     <t>2024-05-20</t>
   </si>
   <si>
+    <t>2024-06-03</t>
+  </si>
+  <si>
     <t>2024-05-13</t>
   </si>
   <si>
@@ -118,15 +121,15 @@
     <t>2024-04-24</t>
   </si>
   <si>
+    <t>KB제28호스팩</t>
+  </si>
+  <si>
+    <t>HD현대마린솔루션</t>
+  </si>
+  <si>
     <t>제일엠앤에스</t>
   </si>
   <si>
-    <t>KB제28호스팩</t>
-  </si>
-  <si>
-    <t>HD현대마린솔루션</t>
-  </si>
-  <si>
     <t>민테크</t>
   </si>
   <si>
@@ -139,6 +142,9 @@
     <t>미래에셋비전스팩4호</t>
   </si>
   <si>
+    <t>그리드위즈</t>
+  </si>
+  <si>
     <t>노브랜드</t>
   </si>
   <si>
@@ -175,6 +181,9 @@
     <t>2024-05-23</t>
   </si>
   <si>
+    <t>2024-06-07</t>
+  </si>
+  <si>
     <t>2024-05-17</t>
   </si>
   <si>
@@ -188,6 +197,9 @@
   </si>
   <si>
     <t>2024-05-29</t>
+  </si>
+  <si>
+    <t>2024-06-14</t>
   </si>
   <si>
     <t>2024-05-02</t>
@@ -548,7 +560,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L20"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -600,7 +612,7 @@
         <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
@@ -609,19 +621,19 @@
         <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="G2" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="H2">
-        <v>52800</v>
+        <v>10000</v>
       </c>
       <c r="I2">
-        <v>2400000</v>
+        <v>5000000</v>
       </c>
       <c r="J2">
-        <v>22000</v>
+        <v>2000</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -638,34 +650,34 @@
         <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="F3" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G3" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="H3">
-        <v>10000</v>
+        <v>215255.4</v>
       </c>
       <c r="I3">
-        <v>5000000</v>
+        <v>8900000</v>
       </c>
       <c r="J3">
-        <v>2000</v>
+        <v>83400</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>100</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -676,34 +688,34 @@
         <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D4" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="G4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H4">
-        <v>215255.4</v>
+        <v>52800</v>
       </c>
       <c r="I4">
-        <v>8900000</v>
+        <v>2400000</v>
       </c>
       <c r="J4">
-        <v>83400</v>
+        <v>22000</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>29</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -714,7 +726,7 @@
         <v>27</v>
       </c>
       <c r="C5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -723,10 +735,10 @@
         <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G5" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="H5">
         <v>31500</v>
@@ -749,10 +761,10 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D6" t="s">
         <v>13</v>
@@ -761,10 +773,10 @@
         <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G6" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="H6">
         <v>39400</v>
@@ -790,7 +802,7 @@
         <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D7" t="s">
         <v>14</v>
@@ -799,10 +811,10 @@
         <v>14</v>
       </c>
       <c r="F7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H7">
         <v>6000</v>
@@ -825,22 +837,22 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
         <v>36</v>
       </c>
       <c r="D8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E8" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G8" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="H8">
         <v>18556.5</v>
@@ -866,7 +878,7 @@
         <v>28</v>
       </c>
       <c r="C9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D9" t="s">
         <v>16</v>
@@ -875,10 +887,10 @@
         <v>16</v>
       </c>
       <c r="F9" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G9" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="H9">
         <v>13300</v>
@@ -901,37 +913,37 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="D10" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="E10" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="F10" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="G10" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="H10">
-        <v>18556.5</v>
+        <v>56000</v>
       </c>
       <c r="I10">
-        <v>8900000</v>
+        <v>1400000</v>
       </c>
       <c r="J10">
-        <v>83400</v>
+        <v>40000</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>2.5</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -939,10 +951,10 @@
         <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C11" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D11" t="s">
         <v>17</v>
@@ -951,10 +963,10 @@
         <v>17</v>
       </c>
       <c r="F11" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G11" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H11">
         <v>16800</v>
@@ -974,28 +986,28 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
         <v>36</v>
       </c>
       <c r="D12" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E12" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F12" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G12" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="H12">
-        <v>74226</v>
+        <v>18556.5</v>
       </c>
       <c r="I12">
         <v>8900000</v>
@@ -1007,7 +1019,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>10</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -1015,10 +1027,10 @@
         <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C13" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D13" t="s">
         <v>18</v>
@@ -1027,10 +1039,10 @@
         <v>18</v>
       </c>
       <c r="F13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G13" t="s">
         <v>32</v>
-      </c>
-      <c r="G13" t="s">
-        <v>31</v>
       </c>
       <c r="H13">
         <v>6000</v>
@@ -1050,28 +1062,28 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
         <v>36</v>
       </c>
       <c r="D14" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E14" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F14" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G14" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="H14">
-        <v>170719.8</v>
+        <v>74226</v>
       </c>
       <c r="I14">
         <v>8900000</v>
@@ -1083,109 +1095,109 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>23</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="D15" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="E15" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="F15" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="G15" t="s">
         <v>58</v>
       </c>
       <c r="H15">
-        <v>10300</v>
+        <v>170719.8</v>
       </c>
       <c r="I15">
-        <v>5150000</v>
+        <v>8900000</v>
       </c>
       <c r="J15">
-        <v>2000</v>
+        <v>83400</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>100</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C16" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="D16" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="E16" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="F16" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="G16" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="H16">
-        <v>170719.8</v>
+        <v>10300</v>
       </c>
       <c r="I16">
-        <v>8900000</v>
+        <v>5150000</v>
       </c>
       <c r="J16">
-        <v>83400</v>
+        <v>2000</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>23</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:12">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
         <v>36</v>
       </c>
       <c r="D17" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E17" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F17" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G17" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="H17">
-        <v>74226</v>
+        <v>170719.8</v>
       </c>
       <c r="I17">
         <v>8900000</v>
@@ -1197,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>10</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1205,10 +1217,10 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C18" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D18" t="s">
         <v>22</v>
@@ -1217,10 +1229,10 @@
         <v>22</v>
       </c>
       <c r="F18" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G18" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H18">
         <v>7000</v>
@@ -1240,40 +1252,40 @@
     </row>
     <row r="19" spans="1:12">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="D19" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="E19" t="s">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="F19" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G19" t="s">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="H19">
-        <v>27000</v>
+        <v>74226</v>
       </c>
       <c r="I19">
-        <v>1500000</v>
+        <v>8900000</v>
       </c>
       <c r="J19">
-        <v>18000</v>
+        <v>83400</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>100</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1281,10 +1293,10 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D20" t="s">
         <v>23</v>
@@ -1293,24 +1305,62 @@
         <v>23</v>
       </c>
       <c r="F20" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="G20" t="s">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="H20">
+        <v>27000</v>
+      </c>
+      <c r="I20">
+        <v>1500000</v>
+      </c>
+      <c r="J20">
+        <v>18000</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21" t="s">
+        <v>23</v>
+      </c>
+      <c r="F21" t="s">
+        <v>25</v>
+      </c>
+      <c r="G21" t="s">
+        <v>62</v>
+      </c>
+      <c r="H21">
         <v>36300</v>
       </c>
-      <c r="I20">
+      <c r="I21">
         <v>1100000</v>
       </c>
-      <c r="J20">
+      <c r="J21">
         <v>33000</v>
       </c>
-      <c r="K20">
-        <v>0</v>
-      </c>
-      <c r="L20">
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
         <v>100</v>
       </c>
     </row>

--- a/datasets/form3.xlsx
+++ b/datasets/form3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="61">
   <si>
     <t>인수기관</t>
   </si>
@@ -109,9 +109,6 @@
     <t>2024-05-13</t>
   </si>
   <si>
-    <t>2024-04-11</t>
-  </si>
-  <si>
     <t>2024-04-22</t>
   </si>
   <si>
@@ -146,9 +143,6 @@
   </si>
   <si>
     <t>노브랜드</t>
-  </si>
-  <si>
-    <t>신한제13호스팩</t>
   </si>
   <si>
     <t>유안타제16호스팩</t>
@@ -560,7 +554,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -612,7 +606,7 @@
         <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
@@ -621,10 +615,10 @@
         <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H2">
         <v>10000</v>
@@ -650,19 +644,19 @@
         <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3" t="s">
         <v>50</v>
       </c>
-      <c r="F3" t="s">
-        <v>52</v>
-      </c>
       <c r="G3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H3">
         <v>215255.4</v>
@@ -688,7 +682,7 @@
         <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D4" t="s">
         <v>12</v>
@@ -700,7 +694,7 @@
         <v>27</v>
       </c>
       <c r="G4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H4">
         <v>52800</v>
@@ -726,7 +720,7 @@
         <v>27</v>
       </c>
       <c r="C5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -735,10 +729,10 @@
         <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H5">
         <v>31500</v>
@@ -764,7 +758,7 @@
         <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D6" t="s">
         <v>13</v>
@@ -773,10 +767,10 @@
         <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H6">
         <v>39400</v>
@@ -802,7 +796,7 @@
         <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D7" t="s">
         <v>14</v>
@@ -811,7 +805,7 @@
         <v>14</v>
       </c>
       <c r="F7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G7" t="s">
         <v>24</v>
@@ -840,19 +834,19 @@
         <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" t="s">
         <v>50</v>
       </c>
-      <c r="F8" t="s">
-        <v>52</v>
-      </c>
       <c r="G8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H8">
         <v>18556.5</v>
@@ -878,7 +872,7 @@
         <v>28</v>
       </c>
       <c r="C9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D9" t="s">
         <v>16</v>
@@ -887,10 +881,10 @@
         <v>16</v>
       </c>
       <c r="F9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H9">
         <v>13300</v>
@@ -916,7 +910,7 @@
         <v>29</v>
       </c>
       <c r="C10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D10" t="s">
         <v>17</v>
@@ -925,10 +919,10 @@
         <v>17</v>
       </c>
       <c r="F10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H10">
         <v>56000</v>
@@ -954,7 +948,7 @@
         <v>30</v>
       </c>
       <c r="C11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D11" t="s">
         <v>17</v>
@@ -963,10 +957,10 @@
         <v>17</v>
       </c>
       <c r="F11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G11" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H11">
         <v>16800</v>
@@ -992,19 +986,19 @@
         <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D12" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F12" t="s">
         <v>50</v>
       </c>
-      <c r="F12" t="s">
-        <v>52</v>
-      </c>
       <c r="G12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H12">
         <v>18556.5</v>
@@ -1027,63 +1021,63 @@
         <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="D13" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="E13" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="F13" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="G13" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="H13">
-        <v>6000</v>
+        <v>74226</v>
       </c>
       <c r="I13">
-        <v>3000000</v>
+        <v>8900000</v>
       </c>
       <c r="J13">
-        <v>2000</v>
+        <v>83400</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>100</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D14" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E14" t="s">
+        <v>48</v>
+      </c>
+      <c r="F14" t="s">
         <v>50</v>
       </c>
-      <c r="F14" t="s">
-        <v>52</v>
-      </c>
       <c r="G14" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H14">
-        <v>74226</v>
+        <v>170719.8</v>
       </c>
       <c r="I14">
         <v>8900000</v>
@@ -1095,109 +1089,109 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>10</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" t="s">
         <v>25</v>
       </c>
-      <c r="C15" t="s">
-        <v>36</v>
-      </c>
-      <c r="D15" t="s">
-        <v>49</v>
-      </c>
-      <c r="E15" t="s">
-        <v>50</v>
-      </c>
-      <c r="F15" t="s">
-        <v>52</v>
-      </c>
       <c r="G15" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H15">
-        <v>170719.8</v>
+        <v>10300</v>
       </c>
       <c r="I15">
-        <v>8900000</v>
+        <v>5150000</v>
       </c>
       <c r="J15">
-        <v>83400</v>
+        <v>2000</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>23</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B16" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="D16" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="E16" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="F16" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="G16" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="H16">
-        <v>10300</v>
+        <v>170719.8</v>
       </c>
       <c r="I16">
-        <v>5150000</v>
+        <v>8900000</v>
       </c>
       <c r="J16">
-        <v>2000</v>
+        <v>83400</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>100</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:12">
       <c r="A17" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B17" t="s">
         <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D17" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E17" t="s">
+        <v>48</v>
+      </c>
+      <c r="F17" t="s">
         <v>50</v>
       </c>
-      <c r="F17" t="s">
-        <v>52</v>
-      </c>
       <c r="G17" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H17">
-        <v>170719.8</v>
+        <v>74226</v>
       </c>
       <c r="I17">
         <v>8900000</v>
@@ -1209,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>23</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1217,10 +1211,10 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C18" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D18" t="s">
         <v>22</v>
@@ -1232,7 +1226,7 @@
         <v>26</v>
       </c>
       <c r="G18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H18">
         <v>7000</v>
@@ -1252,40 +1246,40 @@
     </row>
     <row r="19" spans="1:12">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C19" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="D19" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="E19" t="s">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="F19" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G19" t="s">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="H19">
-        <v>74226</v>
+        <v>27000</v>
       </c>
       <c r="I19">
-        <v>8900000</v>
+        <v>1500000</v>
       </c>
       <c r="J19">
-        <v>83400</v>
+        <v>18000</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1293,10 +1287,10 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D20" t="s">
         <v>23</v>
@@ -1305,62 +1299,24 @@
         <v>23</v>
       </c>
       <c r="F20" t="s">
-        <v>57</v>
+        <v>25</v>
       </c>
       <c r="G20" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="H20">
-        <v>27000</v>
+        <v>36300</v>
       </c>
       <c r="I20">
-        <v>1500000</v>
+        <v>1100000</v>
       </c>
       <c r="J20">
-        <v>18000</v>
+        <v>33000</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" t="s">
-        <v>32</v>
-      </c>
-      <c r="C21" t="s">
-        <v>48</v>
-      </c>
-      <c r="D21" t="s">
-        <v>23</v>
-      </c>
-      <c r="E21" t="s">
-        <v>23</v>
-      </c>
-      <c r="F21" t="s">
-        <v>25</v>
-      </c>
-      <c r="G21" t="s">
-        <v>62</v>
-      </c>
-      <c r="H21">
-        <v>36300</v>
-      </c>
-      <c r="I21">
-        <v>1100000</v>
-      </c>
-      <c r="J21">
-        <v>33000</v>
-      </c>
-      <c r="K21">
-        <v>0</v>
-      </c>
-      <c r="L21">
         <v>100</v>
       </c>
     </row>

--- a/datasets/form3.xlsx
+++ b/datasets/form3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="63">
   <si>
     <t>인수기관</t>
   </si>
@@ -88,69 +88,69 @@
     <t>한국</t>
   </si>
   <si>
+    <t>2024-04-18</t>
+  </si>
+  <si>
+    <t>2024-04-23</t>
+  </si>
+  <si>
     <t>2024-05-07</t>
   </si>
   <si>
     <t>2024-04-25</t>
   </si>
   <si>
-    <t>2024-04-18</t>
-  </si>
-  <si>
-    <t>2024-04-23</t>
+    <t>2024-06-05</t>
   </si>
   <si>
     <t>2024-05-20</t>
   </si>
   <si>
+    <t>2024-05-13</t>
+  </si>
+  <si>
     <t>2024-06-03</t>
   </si>
   <si>
-    <t>2024-05-13</t>
-  </si>
-  <si>
     <t>2024-04-22</t>
   </si>
   <si>
-    <t>2024-04-15</t>
-  </si>
-  <si>
     <t>2024-04-24</t>
   </si>
   <si>
+    <t>제일엠앤에스</t>
+  </si>
+  <si>
+    <t>민테크</t>
+  </si>
+  <si>
     <t>KB제28호스팩</t>
   </si>
   <si>
     <t>HD현대마린솔루션</t>
   </si>
   <si>
-    <t>제일엠앤에스</t>
-  </si>
-  <si>
-    <t>민테크</t>
-  </si>
-  <si>
     <t>아이씨티케이</t>
   </si>
   <si>
     <t>SK증권제12호스팩</t>
   </si>
   <si>
+    <t>라메디텍</t>
+  </si>
+  <si>
     <t>미래에셋비전스팩4호</t>
   </si>
   <si>
+    <t>노브랜드</t>
+  </si>
+  <si>
     <t>그리드위즈</t>
   </si>
   <si>
-    <t>노브랜드</t>
-  </si>
-  <si>
     <t>유안타제16호스팩</t>
   </si>
   <si>
-    <t>하나33호스팩</t>
-  </si>
-  <si>
     <t>코칩</t>
   </si>
   <si>
@@ -163,31 +163,37 @@
     <t>KB, 유비에스리미티드(영업소), 제이피모간회사 서울지점, 신한, 하나, 대신, 삼성</t>
   </si>
   <si>
+    <t>2024-04-26</t>
+  </si>
+  <si>
     <t>2024-05-10</t>
   </si>
   <si>
     <t>2024-04-30</t>
   </si>
   <si>
-    <t>2024-04-26</t>
+    <t>2024-06-11</t>
   </si>
   <si>
     <t>2024-05-23</t>
   </si>
   <si>
+    <t>2024-05-17</t>
+  </si>
+  <si>
     <t>2024-06-07</t>
   </si>
   <si>
-    <t>2024-05-17</t>
-  </si>
-  <si>
     <t>2024-04-29</t>
   </si>
   <si>
+    <t>2024-05-03</t>
+  </si>
+  <si>
     <t>2024-05-08</t>
   </si>
   <si>
-    <t>2024-05-03</t>
+    <t>2024-06-17</t>
   </si>
   <si>
     <t>2024-05-29</t>
@@ -615,19 +621,19 @@
         <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="H2">
-        <v>10000</v>
+        <v>52800</v>
       </c>
       <c r="I2">
-        <v>5000000</v>
+        <v>2400000</v>
       </c>
       <c r="J2">
-        <v>2000</v>
+        <v>22000</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -647,31 +653,31 @@
         <v>35</v>
       </c>
       <c r="D3" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H3">
-        <v>215255.4</v>
+        <v>31500</v>
       </c>
       <c r="I3">
-        <v>8900000</v>
+        <v>3000000</v>
       </c>
       <c r="J3">
-        <v>83400</v>
+        <v>10500</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>29</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -691,19 +697,19 @@
         <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="G4" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="H4">
-        <v>52800</v>
+        <v>10000</v>
       </c>
       <c r="I4">
-        <v>2400000</v>
+        <v>5000000</v>
       </c>
       <c r="J4">
-        <v>22000</v>
+        <v>2000</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -723,31 +729,31 @@
         <v>37</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="F5" t="s">
         <v>51</v>
       </c>
       <c r="G5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H5">
-        <v>31500</v>
+        <v>215255.4</v>
       </c>
       <c r="I5">
-        <v>3000000</v>
+        <v>8900000</v>
       </c>
       <c r="J5">
-        <v>10500</v>
+        <v>83400</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>100</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -755,7 +761,7 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
         <v>38</v>
@@ -767,7 +773,7 @@
         <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G6" t="s">
         <v>54</v>
@@ -793,7 +799,7 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
         <v>39</v>
@@ -805,10 +811,10 @@
         <v>14</v>
       </c>
       <c r="F7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H7">
         <v>6000</v>
@@ -831,10 +837,10 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D8" t="s">
         <v>47</v>
@@ -843,10 +849,10 @@
         <v>48</v>
       </c>
       <c r="F8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G8" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H8">
         <v>18556.5</v>
@@ -866,7 +872,7 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
         <v>28</v>
@@ -875,25 +881,25 @@
         <v>40</v>
       </c>
       <c r="D9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F9" t="s">
         <v>52</v>
       </c>
       <c r="G9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H9">
-        <v>13300</v>
+        <v>20768</v>
       </c>
       <c r="I9">
-        <v>6650000</v>
+        <v>1298000</v>
       </c>
       <c r="J9">
-        <v>2000</v>
+        <v>16000</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -904,7 +910,7 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
         <v>29</v>
@@ -913,25 +919,25 @@
         <v>41</v>
       </c>
       <c r="D10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F10" t="s">
         <v>53</v>
       </c>
       <c r="G10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H10">
-        <v>56000</v>
+        <v>13300</v>
       </c>
       <c r="I10">
-        <v>1400000</v>
+        <v>6650000</v>
       </c>
       <c r="J10">
-        <v>40000</v>
+        <v>2000</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -960,7 +966,7 @@
         <v>54</v>
       </c>
       <c r="G11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H11">
         <v>16800</v>
@@ -983,10 +989,10 @@
         <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C12" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D12" t="s">
         <v>47</v>
@@ -995,10 +1001,10 @@
         <v>48</v>
       </c>
       <c r="F12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G12" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H12">
         <v>18556.5</v>
@@ -1018,51 +1024,51 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C13" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="D13" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="E13" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="F13" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="G13" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="H13">
-        <v>74226</v>
+        <v>56000</v>
       </c>
       <c r="I13">
-        <v>8900000</v>
+        <v>1400000</v>
       </c>
       <c r="J13">
-        <v>83400</v>
+        <v>40000</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C14" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D14" t="s">
         <v>47</v>
@@ -1071,13 +1077,13 @@
         <v>48</v>
       </c>
       <c r="F14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G14" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H14">
-        <v>170719.8</v>
+        <v>74226</v>
       </c>
       <c r="I14">
         <v>8900000</v>
@@ -1089,94 +1095,94 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>23</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C15" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D15" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="E15" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="F15" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="G15" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H15">
-        <v>10300</v>
+        <v>170719.8</v>
       </c>
       <c r="I15">
-        <v>5150000</v>
+        <v>8900000</v>
       </c>
       <c r="J15">
-        <v>2000</v>
+        <v>83400</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>100</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C16" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="D16" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="E16" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="F16" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="G16" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="H16">
-        <v>170719.8</v>
+        <v>10300</v>
       </c>
       <c r="I16">
-        <v>8900000</v>
+        <v>5150000</v>
       </c>
       <c r="J16">
-        <v>83400</v>
+        <v>2000</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>23</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:12">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C17" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D17" t="s">
         <v>47</v>
@@ -1185,13 +1191,13 @@
         <v>48</v>
       </c>
       <c r="F17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G17" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H17">
-        <v>74226</v>
+        <v>170719.8</v>
       </c>
       <c r="I17">
         <v>8900000</v>
@@ -1203,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>10</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1211,37 +1217,37 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C18" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D18" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="E18" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="F18" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="G18" t="s">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="H18">
-        <v>7000</v>
+        <v>74226</v>
       </c>
       <c r="I18">
-        <v>3500000</v>
+        <v>8900000</v>
       </c>
       <c r="J18">
-        <v>2000</v>
+        <v>83400</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>100</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1261,10 +1267,10 @@
         <v>23</v>
       </c>
       <c r="F19" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G19" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H19">
         <v>27000</v>
@@ -1287,7 +1293,7 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C20" t="s">
         <v>46</v>
@@ -1299,10 +1305,10 @@
         <v>23</v>
       </c>
       <c r="F20" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G20" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H20">
         <v>36300</v>

--- a/datasets/form3.xlsx
+++ b/datasets/form3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="66">
   <si>
     <t>인수기관</t>
   </si>
@@ -52,6 +52,9 @@
     <t>인수비율</t>
   </si>
   <si>
+    <t>DB</t>
+  </si>
+  <si>
     <t>KB</t>
   </si>
   <si>
@@ -88,6 +91,9 @@
     <t>한국</t>
   </si>
   <si>
+    <t>2024-06-05</t>
+  </si>
+  <si>
     <t>2024-04-18</t>
   </si>
   <si>
@@ -100,9 +106,6 @@
     <t>2024-04-25</t>
   </si>
   <si>
-    <t>2024-06-05</t>
-  </si>
-  <si>
     <t>2024-05-20</t>
   </si>
   <si>
@@ -118,6 +121,9 @@
     <t>2024-04-24</t>
   </si>
   <si>
+    <t>디비금융스팩12호</t>
+  </si>
+  <si>
     <t>제일엠앤에스</t>
   </si>
   <si>
@@ -163,6 +169,9 @@
     <t>KB, 유비에스리미티드(영업소), 제이피모간회사 서울지점, 신한, 하나, 대신, 삼성</t>
   </si>
   <si>
+    <t>2024-06-11</t>
+  </si>
+  <si>
     <t>2024-04-26</t>
   </si>
   <si>
@@ -172,9 +181,6 @@
     <t>2024-04-30</t>
   </si>
   <si>
-    <t>2024-06-11</t>
-  </si>
-  <si>
     <t>2024-05-23</t>
   </si>
   <si>
@@ -185,6 +191,9 @@
   </si>
   <si>
     <t>2024-04-29</t>
+  </si>
+  <si>
+    <t>2024-06-18</t>
   </si>
   <si>
     <t>2024-05-03</t>
@@ -560,7 +569,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L20"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -609,10 +618,10 @@
         <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
@@ -621,19 +630,19 @@
         <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="G2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="H2">
-        <v>52800</v>
+        <v>10000</v>
       </c>
       <c r="I2">
-        <v>2400000</v>
+        <v>5000000</v>
       </c>
       <c r="J2">
-        <v>22000</v>
+        <v>2000</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -644,34 +653,34 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="G3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="H3">
-        <v>31500</v>
+        <v>52800</v>
       </c>
       <c r="I3">
-        <v>3000000</v>
+        <v>2400000</v>
       </c>
       <c r="J3">
-        <v>10500</v>
+        <v>22000</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -682,34 +691,34 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G4" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="H4">
-        <v>10000</v>
+        <v>31500</v>
       </c>
       <c r="I4">
-        <v>5000000</v>
+        <v>3000000</v>
       </c>
       <c r="J4">
-        <v>2000</v>
+        <v>10500</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -720,40 +729,40 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D5" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="F5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H5">
-        <v>215255.4</v>
+        <v>10000</v>
       </c>
       <c r="I5">
-        <v>8900000</v>
+        <v>5000000</v>
       </c>
       <c r="J5">
-        <v>83400</v>
+        <v>2000</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>29</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -761,37 +770,37 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="F6" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="G6" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="H6">
-        <v>39400</v>
+        <v>215255.4</v>
       </c>
       <c r="I6">
-        <v>1970000</v>
+        <v>8900000</v>
       </c>
       <c r="J6">
-        <v>20000</v>
+        <v>83400</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>100</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -799,10 +808,10 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D7" t="s">
         <v>14</v>
@@ -811,19 +820,19 @@
         <v>14</v>
       </c>
       <c r="F7" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="G7" t="s">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="H7">
-        <v>6000</v>
+        <v>39400</v>
       </c>
       <c r="I7">
-        <v>3000000</v>
+        <v>1970000</v>
       </c>
       <c r="J7">
-        <v>2000</v>
+        <v>20000</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -840,72 +849,72 @@
         <v>27</v>
       </c>
       <c r="C8" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D8" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="E8" t="s">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="F8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G8" t="s">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="H8">
-        <v>18556.5</v>
+        <v>6000</v>
       </c>
       <c r="I8">
-        <v>8900000</v>
+        <v>3000000</v>
       </c>
       <c r="J8">
-        <v>83400</v>
+        <v>2000</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>2.5</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="E9" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="F9" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G9" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H9">
-        <v>20768</v>
+        <v>18556.5</v>
       </c>
       <c r="I9">
-        <v>1298000</v>
+        <v>8900000</v>
       </c>
       <c r="J9">
-        <v>16000</v>
+        <v>83400</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>100</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -913,10 +922,10 @@
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D10" t="s">
         <v>16</v>
@@ -925,19 +934,19 @@
         <v>16</v>
       </c>
       <c r="F10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G10" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H10">
-        <v>13300</v>
+        <v>20768</v>
       </c>
       <c r="I10">
-        <v>6650000</v>
+        <v>1298000</v>
       </c>
       <c r="J10">
-        <v>2000</v>
+        <v>16000</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -954,7 +963,7 @@
         <v>30</v>
       </c>
       <c r="C11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D11" t="s">
         <v>17</v>
@@ -963,19 +972,19 @@
         <v>17</v>
       </c>
       <c r="F11" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G11" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="H11">
-        <v>16800</v>
+        <v>13300</v>
       </c>
       <c r="I11">
-        <v>1200000</v>
+        <v>6650000</v>
       </c>
       <c r="J11">
-        <v>14000</v>
+        <v>2000</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -986,78 +995,78 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C12" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="D12" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="E12" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="F12" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="G12" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="H12">
-        <v>18556.5</v>
+        <v>16800</v>
       </c>
       <c r="I12">
-        <v>8900000</v>
+        <v>1200000</v>
       </c>
       <c r="J12">
-        <v>83400</v>
+        <v>14000</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>2.5</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C13" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D13" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="E13" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="F13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G13" t="s">
         <v>61</v>
       </c>
       <c r="H13">
-        <v>56000</v>
+        <v>18556.5</v>
       </c>
       <c r="I13">
-        <v>1400000</v>
+        <v>8900000</v>
       </c>
       <c r="J13">
-        <v>40000</v>
+        <v>83400</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>100</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -1065,37 +1074,37 @@
         <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C14" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="D14" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="E14" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="F14" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="G14" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="H14">
-        <v>74226</v>
+        <v>56000</v>
       </c>
       <c r="I14">
-        <v>8900000</v>
+        <v>1400000</v>
       </c>
       <c r="J14">
-        <v>83400</v>
+        <v>40000</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -1103,25 +1112,25 @@
         <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C15" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D15" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E15" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F15" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G15" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="H15">
-        <v>170719.8</v>
+        <v>74226</v>
       </c>
       <c r="I15">
         <v>8900000</v>
@@ -1133,7 +1142,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>23</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -1141,37 +1150,37 @@
         <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C16" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D16" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="E16" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="F16" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="G16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H16">
-        <v>10300</v>
+        <v>170719.8</v>
       </c>
       <c r="I16">
-        <v>5150000</v>
+        <v>8900000</v>
       </c>
       <c r="J16">
-        <v>2000</v>
+        <v>83400</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>100</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -1179,37 +1188,37 @@
         <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C17" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="D17" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="E17" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="F17" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="G17" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="H17">
-        <v>170719.8</v>
+        <v>10300</v>
       </c>
       <c r="I17">
-        <v>8900000</v>
+        <v>5150000</v>
       </c>
       <c r="J17">
-        <v>83400</v>
+        <v>2000</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>23</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1217,25 +1226,25 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C18" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D18" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E18" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F18" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G18" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="H18">
-        <v>74226</v>
+        <v>170719.8</v>
       </c>
       <c r="I18">
         <v>8900000</v>
@@ -1247,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>10</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1255,74 +1264,112 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C19" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D19" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="E19" t="s">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="F19" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G19" t="s">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="H19">
-        <v>27000</v>
+        <v>74226</v>
       </c>
       <c r="I19">
-        <v>1500000</v>
+        <v>8900000</v>
       </c>
       <c r="J19">
-        <v>18000</v>
+        <v>83400</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>100</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B20" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F20" t="s">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="G20" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="H20">
+        <v>27000</v>
+      </c>
+      <c r="I20">
+        <v>1500000</v>
+      </c>
+      <c r="J20">
+        <v>18000</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" t="s">
+        <v>24</v>
+      </c>
+      <c r="F21" t="s">
+        <v>29</v>
+      </c>
+      <c r="G21" t="s">
+        <v>65</v>
+      </c>
+      <c r="H21">
         <v>36300</v>
       </c>
-      <c r="I20">
+      <c r="I21">
         <v>1100000</v>
       </c>
-      <c r="J20">
+      <c r="J21">
         <v>33000</v>
       </c>
-      <c r="K20">
-        <v>0</v>
-      </c>
-      <c r="L20">
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
         <v>100</v>
       </c>
     </row>

--- a/datasets/form3.xlsx
+++ b/datasets/form3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="72">
   <si>
     <t>인수기관</t>
   </si>
@@ -106,15 +106,18 @@
     <t>2024-04-25</t>
   </si>
   <si>
+    <t>2024-06-10</t>
+  </si>
+  <si>
     <t>2024-05-20</t>
   </si>
   <si>
+    <t>2024-06-03</t>
+  </si>
+  <si>
     <t>2024-05-13</t>
   </si>
   <si>
-    <t>2024-06-03</t>
-  </si>
-  <si>
     <t>2024-04-22</t>
   </si>
   <si>
@@ -145,24 +148,33 @@
     <t>라메디텍</t>
   </si>
   <si>
+    <t>미래에셋비전스팩5호</t>
+  </si>
+  <si>
     <t>미래에셋비전스팩4호</t>
   </si>
   <si>
+    <t>그리드위즈</t>
+  </si>
+  <si>
     <t>노브랜드</t>
   </si>
   <si>
-    <t>그리드위즈</t>
-  </si>
-  <si>
     <t>유안타제16호스팩</t>
   </si>
   <si>
     <t>코칩</t>
   </si>
   <si>
+    <t>씨어스테크놀로지</t>
+  </si>
+  <si>
     <t>디앤디파마텍</t>
   </si>
   <si>
+    <t>한국제14호스팩</t>
+  </si>
+  <si>
     <t>KB, 유비에스리미티드(영업소), 제이피모간회사 서울지점</t>
   </si>
   <si>
@@ -181,15 +193,18 @@
     <t>2024-04-30</t>
   </si>
   <si>
+    <t>2024-06-13</t>
+  </si>
+  <si>
     <t>2024-05-23</t>
   </si>
   <si>
+    <t>2024-06-07</t>
+  </si>
+  <si>
     <t>2024-05-17</t>
   </si>
   <si>
-    <t>2024-06-07</t>
-  </si>
-  <si>
     <t>2024-04-29</t>
   </si>
   <si>
@@ -203,6 +218,9 @@
   </si>
   <si>
     <t>2024-06-17</t>
+  </si>
+  <si>
+    <t>2024-06-19</t>
   </si>
   <si>
     <t>2024-05-29</t>
@@ -569,7 +587,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -621,7 +639,7 @@
         <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
@@ -630,10 +648,10 @@
         <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="G2" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="H2">
         <v>10000</v>
@@ -659,7 +677,7 @@
         <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D3" t="s">
         <v>13</v>
@@ -671,7 +689,7 @@
         <v>27</v>
       </c>
       <c r="G3" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="H3">
         <v>52800</v>
@@ -697,7 +715,7 @@
         <v>27</v>
       </c>
       <c r="C4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D4" t="s">
         <v>13</v>
@@ -706,10 +724,10 @@
         <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="G4" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="H4">
         <v>31500</v>
@@ -735,7 +753,7 @@
         <v>28</v>
       </c>
       <c r="C5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D5" t="s">
         <v>13</v>
@@ -744,10 +762,10 @@
         <v>13</v>
       </c>
       <c r="F5" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="G5" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="H5">
         <v>10000</v>
@@ -773,19 +791,19 @@
         <v>29</v>
       </c>
       <c r="C6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D6" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E6" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="F6" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="G6" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="H6">
         <v>215255.4</v>
@@ -811,7 +829,7 @@
         <v>28</v>
       </c>
       <c r="C7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D7" t="s">
         <v>14</v>
@@ -820,10 +838,10 @@
         <v>14</v>
       </c>
       <c r="F7" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="G7" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="H7">
         <v>39400</v>
@@ -849,7 +867,7 @@
         <v>27</v>
       </c>
       <c r="C8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D8" t="s">
         <v>15</v>
@@ -858,7 +876,7 @@
         <v>15</v>
       </c>
       <c r="F8" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="G8" t="s">
         <v>28</v>
@@ -884,37 +902,37 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D9" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="E9" t="s">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="F9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G9" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="H9">
-        <v>18556.5</v>
+        <v>20768</v>
       </c>
       <c r="I9">
-        <v>8900000</v>
+        <v>1298000</v>
       </c>
       <c r="J9">
-        <v>83400</v>
+        <v>16000</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>2.5</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -922,37 +940,37 @@
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C10" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D10" t="s">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="E10" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="F10" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="G10" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="H10">
-        <v>20768</v>
+        <v>18556.5</v>
       </c>
       <c r="I10">
-        <v>1298000</v>
+        <v>8900000</v>
       </c>
       <c r="J10">
-        <v>16000</v>
+        <v>83400</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>100</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -963,7 +981,7 @@
         <v>30</v>
       </c>
       <c r="C11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D11" t="s">
         <v>17</v>
@@ -972,16 +990,16 @@
         <v>17</v>
       </c>
       <c r="F11" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="G11" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="H11">
-        <v>13300</v>
+        <v>9500</v>
       </c>
       <c r="I11">
-        <v>6650000</v>
+        <v>4750000</v>
       </c>
       <c r="J11">
         <v>2000</v>
@@ -995,34 +1013,34 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B12" t="s">
         <v>31</v>
       </c>
       <c r="C12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F12" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="G12" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="H12">
-        <v>16800</v>
+        <v>13300</v>
       </c>
       <c r="I12">
-        <v>1200000</v>
+        <v>6650000</v>
       </c>
       <c r="J12">
-        <v>14000</v>
+        <v>2000</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -1036,37 +1054,37 @@
         <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C13" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="D13" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="E13" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="F13" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="G13" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="H13">
-        <v>18556.5</v>
+        <v>56000</v>
       </c>
       <c r="I13">
-        <v>8900000</v>
+        <v>1400000</v>
       </c>
       <c r="J13">
-        <v>83400</v>
+        <v>40000</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>2.5</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -1074,10 +1092,10 @@
         <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C14" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D14" t="s">
         <v>18</v>
@@ -1086,19 +1104,19 @@
         <v>18</v>
       </c>
       <c r="F14" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="G14" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="H14">
-        <v>56000</v>
+        <v>16800</v>
       </c>
       <c r="I14">
-        <v>1400000</v>
+        <v>1200000</v>
       </c>
       <c r="J14">
-        <v>40000</v>
+        <v>14000</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1109,28 +1127,28 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B15" t="s">
         <v>29</v>
       </c>
       <c r="C15" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D15" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E15" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="F15" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="G15" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="H15">
-        <v>74226</v>
+        <v>18556.5</v>
       </c>
       <c r="I15">
         <v>8900000</v>
@@ -1142,33 +1160,33 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>10</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B16" t="s">
         <v>29</v>
       </c>
       <c r="C16" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D16" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E16" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="F16" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="G16" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="H16">
-        <v>170719.8</v>
+        <v>74226</v>
       </c>
       <c r="I16">
         <v>8900000</v>
@@ -1180,109 +1198,109 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>23</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:12">
       <c r="A17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C17" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D17" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="E17" t="s">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="F17" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="G17" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H17">
-        <v>10300</v>
+        <v>170719.8</v>
       </c>
       <c r="I17">
-        <v>5150000</v>
+        <v>8900000</v>
       </c>
       <c r="J17">
-        <v>2000</v>
+        <v>83400</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>100</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:12">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" t="s">
+        <v>48</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" t="s">
         <v>29</v>
       </c>
-      <c r="C18" t="s">
-        <v>39</v>
-      </c>
-      <c r="D18" t="s">
-        <v>49</v>
-      </c>
-      <c r="E18" t="s">
-        <v>50</v>
-      </c>
-      <c r="F18" t="s">
-        <v>54</v>
-      </c>
       <c r="G18" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="H18">
-        <v>170719.8</v>
+        <v>10300</v>
       </c>
       <c r="I18">
-        <v>8900000</v>
+        <v>5150000</v>
       </c>
       <c r="J18">
-        <v>83400</v>
+        <v>2000</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>23</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
         <v>29</v>
       </c>
       <c r="C19" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D19" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E19" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="F19" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="G19" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="H19">
-        <v>74226</v>
+        <v>170719.8</v>
       </c>
       <c r="I19">
         <v>8900000</v>
@@ -1294,45 +1312,45 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>10</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C20" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D20" t="s">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="E20" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="F20" t="s">
         <v>58</v>
       </c>
       <c r="G20" t="s">
-        <v>28</v>
+        <v>66</v>
       </c>
       <c r="H20">
-        <v>27000</v>
+        <v>74226</v>
       </c>
       <c r="I20">
-        <v>1500000</v>
+        <v>8900000</v>
       </c>
       <c r="J20">
-        <v>18000</v>
+        <v>83400</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>100</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1340,10 +1358,10 @@
         <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C21" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D21" t="s">
         <v>24</v>
@@ -1352,24 +1370,138 @@
         <v>24</v>
       </c>
       <c r="F21" t="s">
+        <v>63</v>
+      </c>
+      <c r="G21" t="s">
+        <v>28</v>
+      </c>
+      <c r="H21">
+        <v>27000</v>
+      </c>
+      <c r="I21">
+        <v>1500000</v>
+      </c>
+      <c r="J21">
+        <v>18000</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" t="s">
+        <v>50</v>
+      </c>
+      <c r="D22" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" t="s">
+        <v>24</v>
+      </c>
+      <c r="F22" t="s">
+        <v>59</v>
+      </c>
+      <c r="G22" t="s">
+        <v>68</v>
+      </c>
+      <c r="H22">
+        <v>22100</v>
+      </c>
+      <c r="I22">
+        <v>1300000</v>
+      </c>
+      <c r="J22">
+        <v>17000</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" t="s">
+        <v>51</v>
+      </c>
+      <c r="D23" t="s">
+        <v>24</v>
+      </c>
+      <c r="E23" t="s">
+        <v>24</v>
+      </c>
+      <c r="F23" t="s">
         <v>29</v>
       </c>
-      <c r="G21" t="s">
-        <v>65</v>
-      </c>
-      <c r="H21">
+      <c r="G23" t="s">
+        <v>71</v>
+      </c>
+      <c r="H23">
         <v>36300</v>
       </c>
-      <c r="I21">
+      <c r="I23">
         <v>1100000</v>
       </c>
-      <c r="J21">
+      <c r="J23">
         <v>33000</v>
       </c>
-      <c r="K21">
-        <v>0</v>
-      </c>
-      <c r="L21">
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" t="s">
+        <v>52</v>
+      </c>
+      <c r="D24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24" t="s">
+        <v>24</v>
+      </c>
+      <c r="F24" t="s">
+        <v>59</v>
+      </c>
+      <c r="G24" t="s">
+        <v>68</v>
+      </c>
+      <c r="H24">
+        <v>8000</v>
+      </c>
+      <c r="I24">
+        <v>4000000</v>
+      </c>
+      <c r="J24">
+        <v>2000</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
         <v>100</v>
       </c>
     </row>

--- a/datasets/form3.xlsx
+++ b/datasets/form3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="74">
   <si>
     <t>인수기관</t>
   </si>
@@ -94,24 +94,27 @@
     <t>2024-06-05</t>
   </si>
   <si>
+    <t>2024-06-11</t>
+  </si>
+  <si>
+    <t>2024-04-23</t>
+  </si>
+  <si>
+    <t>2024-05-07</t>
+  </si>
+  <si>
+    <t>2024-04-25</t>
+  </si>
+  <si>
     <t>2024-04-18</t>
   </si>
   <si>
-    <t>2024-04-23</t>
-  </si>
-  <si>
-    <t>2024-05-07</t>
-  </si>
-  <si>
-    <t>2024-04-25</t>
+    <t>2024-05-20</t>
   </si>
   <si>
     <t>2024-06-10</t>
   </si>
   <si>
-    <t>2024-05-20</t>
-  </si>
-  <si>
     <t>2024-06-03</t>
   </si>
   <si>
@@ -127,18 +130,21 @@
     <t>디비금융스팩12호</t>
   </si>
   <si>
+    <t>KB제29호스팩</t>
+  </si>
+  <si>
+    <t>민테크</t>
+  </si>
+  <si>
+    <t>KB제28호스팩</t>
+  </si>
+  <si>
+    <t>HD현대마린솔루션</t>
+  </si>
+  <si>
     <t>제일엠앤에스</t>
   </si>
   <si>
-    <t>민테크</t>
-  </si>
-  <si>
-    <t>KB제28호스팩</t>
-  </si>
-  <si>
-    <t>HD현대마린솔루션</t>
-  </si>
-  <si>
     <t>아이씨티케이</t>
   </si>
   <si>
@@ -148,12 +154,12 @@
     <t>라메디텍</t>
   </si>
   <si>
+    <t>미래에셋비전스팩4호</t>
+  </si>
+  <si>
     <t>미래에셋비전스팩5호</t>
   </si>
   <si>
-    <t>미래에셋비전스팩4호</t>
-  </si>
-  <si>
     <t>그리드위즈</t>
   </si>
   <si>
@@ -166,22 +172,22 @@
     <t>코칩</t>
   </si>
   <si>
+    <t>한국제14호스팩</t>
+  </si>
+  <si>
+    <t>디앤디파마텍</t>
+  </si>
+  <si>
     <t>씨어스테크놀로지</t>
   </si>
   <si>
-    <t>디앤디파마텍</t>
-  </si>
-  <si>
-    <t>한국제14호스팩</t>
-  </si>
-  <si>
     <t>KB, 유비에스리미티드(영업소), 제이피모간회사 서울지점</t>
   </si>
   <si>
     <t>KB, 유비에스리미티드(영업소), 제이피모간회사 서울지점, 신한, 하나, 대신, 삼성</t>
   </si>
   <si>
-    <t>2024-06-11</t>
+    <t>2024-06-14</t>
   </si>
   <si>
     <t>2024-04-26</t>
@@ -193,12 +199,12 @@
     <t>2024-04-30</t>
   </si>
   <si>
+    <t>2024-05-23</t>
+  </si>
+  <si>
     <t>2024-06-13</t>
   </si>
   <si>
-    <t>2024-05-23</t>
-  </si>
-  <si>
     <t>2024-06-07</t>
   </si>
   <si>
@@ -211,6 +217,9 @@
     <t>2024-06-18</t>
   </si>
   <si>
+    <t>2024-06-21</t>
+  </si>
+  <si>
     <t>2024-05-03</t>
   </si>
   <si>
@@ -220,13 +229,10 @@
     <t>2024-06-17</t>
   </si>
   <si>
+    <t>2024-05-29</t>
+  </si>
+  <si>
     <t>2024-06-19</t>
-  </si>
-  <si>
-    <t>2024-05-29</t>
-  </si>
-  <si>
-    <t>2024-06-14</t>
   </si>
   <si>
     <t>2024-05-02</t>
@@ -587,7 +593,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L24"/>
+  <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -639,7 +645,7 @@
         <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
@@ -648,10 +654,10 @@
         <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="G2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H2">
         <v>10000</v>
@@ -677,7 +683,7 @@
         <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D3" t="s">
         <v>13</v>
@@ -686,19 +692,19 @@
         <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="G3" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="H3">
-        <v>52800</v>
+        <v>12000</v>
       </c>
       <c r="I3">
-        <v>2400000</v>
+        <v>6000000</v>
       </c>
       <c r="J3">
-        <v>22000</v>
+        <v>2000</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -715,7 +721,7 @@
         <v>27</v>
       </c>
       <c r="C4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D4" t="s">
         <v>13</v>
@@ -724,10 +730,10 @@
         <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="H4">
         <v>31500</v>
@@ -753,7 +759,7 @@
         <v>28</v>
       </c>
       <c r="C5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D5" t="s">
         <v>13</v>
@@ -762,10 +768,10 @@
         <v>13</v>
       </c>
       <c r="F5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H5">
         <v>10000</v>
@@ -791,19 +797,19 @@
         <v>29</v>
       </c>
       <c r="C6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D6" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E6" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G6" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="H6">
         <v>215255.4</v>
@@ -823,34 +829,34 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F7" t="s">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="G7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H7">
-        <v>39400</v>
+        <v>52800</v>
       </c>
       <c r="I7">
-        <v>1970000</v>
+        <v>2400000</v>
       </c>
       <c r="J7">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -861,34 +867,34 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F8" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="G8" t="s">
-        <v>28</v>
+        <v>64</v>
       </c>
       <c r="H8">
-        <v>6000</v>
+        <v>39400</v>
       </c>
       <c r="I8">
-        <v>3000000</v>
+        <v>1970000</v>
       </c>
       <c r="J8">
-        <v>2000</v>
+        <v>20000</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -899,34 +905,34 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F9" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="G9" t="s">
-        <v>67</v>
+        <v>28</v>
       </c>
       <c r="H9">
-        <v>20768</v>
+        <v>6000</v>
       </c>
       <c r="I9">
-        <v>1298000</v>
+        <v>3000000</v>
       </c>
       <c r="J9">
-        <v>16000</v>
+        <v>2000</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -943,19 +949,19 @@
         <v>29</v>
       </c>
       <c r="C10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D10" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E10" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F10" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G10" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="H10">
         <v>18556.5</v>
@@ -975,34 +981,34 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F11" t="s">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="G11" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H11">
-        <v>9500</v>
+        <v>20768</v>
       </c>
       <c r="I11">
-        <v>4750000</v>
+        <v>1298000</v>
       </c>
       <c r="J11">
-        <v>2000</v>
+        <v>16000</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -1019,7 +1025,7 @@
         <v>31</v>
       </c>
       <c r="C12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D12" t="s">
         <v>17</v>
@@ -1028,10 +1034,10 @@
         <v>17</v>
       </c>
       <c r="F12" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G12" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H12">
         <v>13300</v>
@@ -1051,34 +1057,34 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B13" t="s">
         <v>32</v>
       </c>
       <c r="C13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G13" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H13">
-        <v>56000</v>
+        <v>9500</v>
       </c>
       <c r="I13">
-        <v>1400000</v>
+        <v>4750000</v>
       </c>
       <c r="J13">
-        <v>40000</v>
+        <v>2000</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1095,7 +1101,7 @@
         <v>33</v>
       </c>
       <c r="C14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D14" t="s">
         <v>18</v>
@@ -1104,19 +1110,19 @@
         <v>18</v>
       </c>
       <c r="F14" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G14" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="H14">
-        <v>16800</v>
+        <v>56000</v>
       </c>
       <c r="I14">
-        <v>1200000</v>
+        <v>1400000</v>
       </c>
       <c r="J14">
-        <v>14000</v>
+        <v>40000</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1130,63 +1136,63 @@
         <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C15" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="D15" t="s">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="E15" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="F15" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="G15" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="H15">
-        <v>18556.5</v>
+        <v>16800</v>
       </c>
       <c r="I15">
-        <v>8900000</v>
+        <v>1200000</v>
       </c>
       <c r="J15">
-        <v>83400</v>
+        <v>14000</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>2.5</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B16" t="s">
         <v>29</v>
       </c>
       <c r="C16" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D16" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E16" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F16" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G16" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="H16">
-        <v>74226</v>
+        <v>18556.5</v>
       </c>
       <c r="I16">
         <v>8900000</v>
@@ -1198,33 +1204,33 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>10</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="17" spans="1:12">
       <c r="A17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B17" t="s">
         <v>29</v>
       </c>
       <c r="C17" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D17" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E17" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F17" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G17" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="H17">
-        <v>170719.8</v>
+        <v>74226</v>
       </c>
       <c r="I17">
         <v>8900000</v>
@@ -1236,109 +1242,109 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>23</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:12">
       <c r="A18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C18" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="E18" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="F18" t="s">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="G18" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H18">
-        <v>10300</v>
+        <v>170719.8</v>
       </c>
       <c r="I18">
-        <v>5150000</v>
+        <v>8900000</v>
       </c>
       <c r="J18">
-        <v>2000</v>
+        <v>83400</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>100</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B19" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" t="s">
+        <v>21</v>
+      </c>
+      <c r="F19" t="s">
         <v>29</v>
       </c>
-      <c r="C19" t="s">
-        <v>40</v>
-      </c>
-      <c r="D19" t="s">
-        <v>53</v>
-      </c>
-      <c r="E19" t="s">
-        <v>54</v>
-      </c>
-      <c r="F19" t="s">
-        <v>58</v>
-      </c>
       <c r="G19" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="H19">
-        <v>170719.8</v>
+        <v>10300</v>
       </c>
       <c r="I19">
-        <v>8900000</v>
+        <v>5150000</v>
       </c>
       <c r="J19">
-        <v>83400</v>
+        <v>2000</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>23</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B20" t="s">
         <v>29</v>
       </c>
       <c r="C20" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D20" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E20" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F20" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G20" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="H20">
-        <v>74226</v>
+        <v>170719.8</v>
       </c>
       <c r="I20">
         <v>8900000</v>
@@ -1350,45 +1356,45 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>10</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:12">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C21" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="D21" t="s">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="E21" t="s">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="F21" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G21" t="s">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="H21">
-        <v>27000</v>
+        <v>74226</v>
       </c>
       <c r="I21">
-        <v>1500000</v>
+        <v>8900000</v>
       </c>
       <c r="J21">
-        <v>18000</v>
+        <v>83400</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>100</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1396,10 +1402,10 @@
         <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C22" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D22" t="s">
         <v>24</v>
@@ -1408,19 +1414,19 @@
         <v>24</v>
       </c>
       <c r="F22" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="G22" t="s">
-        <v>68</v>
+        <v>28</v>
       </c>
       <c r="H22">
-        <v>22100</v>
+        <v>27000</v>
       </c>
       <c r="I22">
-        <v>1300000</v>
+        <v>1500000</v>
       </c>
       <c r="J22">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1434,10 +1440,10 @@
         <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C23" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D23" t="s">
         <v>24</v>
@@ -1446,19 +1452,19 @@
         <v>24</v>
       </c>
       <c r="F23" t="s">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="G23" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H23">
-        <v>36300</v>
+        <v>8000</v>
       </c>
       <c r="I23">
-        <v>1100000</v>
+        <v>4000000</v>
       </c>
       <c r="J23">
-        <v>33000</v>
+        <v>2000</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1472,10 +1478,10 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C24" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D24" t="s">
         <v>24</v>
@@ -1484,24 +1490,62 @@
         <v>24</v>
       </c>
       <c r="F24" t="s">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="G24" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="H24">
-        <v>8000</v>
+        <v>36300</v>
       </c>
       <c r="I24">
-        <v>4000000</v>
+        <v>1100000</v>
       </c>
       <c r="J24">
-        <v>2000</v>
+        <v>33000</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>32</v>
+      </c>
+      <c r="C25" t="s">
+        <v>54</v>
+      </c>
+      <c r="D25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>24</v>
+      </c>
+      <c r="F25" t="s">
+        <v>62</v>
+      </c>
+      <c r="G25" t="s">
+        <v>72</v>
+      </c>
+      <c r="H25">
+        <v>22100</v>
+      </c>
+      <c r="I25">
+        <v>1300000</v>
+      </c>
+      <c r="J25">
+        <v>17000</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
         <v>100</v>
       </c>
     </row>

--- a/datasets/form3.xlsx
+++ b/datasets/form3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="72">
   <si>
     <t>인수기관</t>
   </si>
@@ -106,9 +106,6 @@
     <t>2024-04-25</t>
   </si>
   <si>
-    <t>2024-04-18</t>
-  </si>
-  <si>
     <t>2024-05-20</t>
   </si>
   <si>
@@ -142,9 +139,6 @@
     <t>HD현대마린솔루션</t>
   </si>
   <si>
-    <t>제일엠앤에스</t>
-  </si>
-  <si>
     <t>아이씨티케이</t>
   </si>
   <si>
@@ -172,10 +166,10 @@
     <t>코칩</t>
   </si>
   <si>
+    <t>디앤디파마텍</t>
+  </si>
+  <si>
     <t>한국제14호스팩</t>
-  </si>
-  <si>
-    <t>디앤디파마텍</t>
   </si>
   <si>
     <t>씨어스테크놀로지</t>
@@ -593,7 +587,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -645,7 +639,7 @@
         <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
@@ -657,7 +651,7 @@
         <v>26</v>
       </c>
       <c r="G2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H2">
         <v>10000</v>
@@ -683,7 +677,7 @@
         <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D3" t="s">
         <v>13</v>
@@ -692,10 +686,10 @@
         <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H3">
         <v>12000</v>
@@ -721,7 +715,7 @@
         <v>27</v>
       </c>
       <c r="C4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D4" t="s">
         <v>13</v>
@@ -730,10 +724,10 @@
         <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H4">
         <v>31500</v>
@@ -759,7 +753,7 @@
         <v>28</v>
       </c>
       <c r="C5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D5" t="s">
         <v>13</v>
@@ -768,10 +762,10 @@
         <v>13</v>
       </c>
       <c r="F5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H5">
         <v>10000</v>
@@ -797,19 +791,19 @@
         <v>29</v>
       </c>
       <c r="C6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H6">
         <v>215255.4</v>
@@ -829,34 +823,34 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F7" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="G7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H7">
-        <v>52800</v>
+        <v>39400</v>
       </c>
       <c r="I7">
-        <v>2400000</v>
+        <v>1970000</v>
       </c>
       <c r="J7">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -867,34 +861,34 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" t="s">
+        <v>56</v>
+      </c>
+      <c r="G8" t="s">
         <v>28</v>
       </c>
-      <c r="C8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" t="s">
-        <v>59</v>
-      </c>
-      <c r="G8" t="s">
-        <v>64</v>
-      </c>
       <c r="H8">
-        <v>39400</v>
+        <v>6000</v>
       </c>
       <c r="I8">
-        <v>1970000</v>
+        <v>3000000</v>
       </c>
       <c r="J8">
-        <v>20000</v>
+        <v>2000</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -905,34 +899,34 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F9" t="s">
-        <v>58</v>
+        <v>26</v>
       </c>
       <c r="G9" t="s">
-        <v>28</v>
+        <v>68</v>
       </c>
       <c r="H9">
-        <v>6000</v>
+        <v>20768</v>
       </c>
       <c r="I9">
-        <v>3000000</v>
+        <v>1298000</v>
       </c>
       <c r="J9">
-        <v>2000</v>
+        <v>16000</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -949,19 +943,19 @@
         <v>29</v>
       </c>
       <c r="C10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H10">
         <v>18556.5</v>
@@ -981,34 +975,34 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F11" t="s">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="G11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H11">
-        <v>20768</v>
+        <v>13300</v>
       </c>
       <c r="I11">
-        <v>1298000</v>
+        <v>6650000</v>
       </c>
       <c r="J11">
-        <v>16000</v>
+        <v>2000</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -1025,7 +1019,7 @@
         <v>31</v>
       </c>
       <c r="C12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D12" t="s">
         <v>17</v>
@@ -1034,16 +1028,16 @@
         <v>17</v>
       </c>
       <c r="F12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H12">
-        <v>13300</v>
+        <v>9500</v>
       </c>
       <c r="I12">
-        <v>6650000</v>
+        <v>4750000</v>
       </c>
       <c r="J12">
         <v>2000</v>
@@ -1057,34 +1051,34 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B13" t="s">
         <v>32</v>
       </c>
       <c r="C13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G13" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="H13">
-        <v>9500</v>
+        <v>56000</v>
       </c>
       <c r="I13">
-        <v>4750000</v>
+        <v>1400000</v>
       </c>
       <c r="J13">
-        <v>2000</v>
+        <v>40000</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1101,7 +1095,7 @@
         <v>33</v>
       </c>
       <c r="C14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D14" t="s">
         <v>18</v>
@@ -1110,19 +1104,19 @@
         <v>18</v>
       </c>
       <c r="F14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G14" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H14">
-        <v>56000</v>
+        <v>16800</v>
       </c>
       <c r="I14">
-        <v>1400000</v>
+        <v>1200000</v>
       </c>
       <c r="J14">
-        <v>40000</v>
+        <v>14000</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1136,63 +1130,63 @@
         <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C15" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="D15" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="E15" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="F15" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="G15" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="H15">
-        <v>16800</v>
+        <v>18556.5</v>
       </c>
       <c r="I15">
-        <v>1200000</v>
+        <v>8900000</v>
       </c>
       <c r="J15">
-        <v>14000</v>
+        <v>83400</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>100</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B16" t="s">
         <v>29</v>
       </c>
       <c r="C16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D16" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E16" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F16" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G16" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H16">
-        <v>18556.5</v>
+        <v>74226</v>
       </c>
       <c r="I16">
         <v>8900000</v>
@@ -1204,33 +1198,33 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>2.5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:12">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B17" t="s">
         <v>29</v>
       </c>
       <c r="C17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D17" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E17" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F17" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G17" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H17">
-        <v>74226</v>
+        <v>170719.8</v>
       </c>
       <c r="I17">
         <v>8900000</v>
@@ -1242,109 +1236,109 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>10</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:12">
       <c r="A18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" t="s">
+        <v>48</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" t="s">
         <v>29</v>
       </c>
-      <c r="C18" t="s">
-        <v>41</v>
-      </c>
-      <c r="D18" t="s">
-        <v>55</v>
-      </c>
-      <c r="E18" t="s">
-        <v>56</v>
-      </c>
-      <c r="F18" t="s">
-        <v>60</v>
-      </c>
       <c r="G18" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H18">
-        <v>170719.8</v>
+        <v>10300</v>
       </c>
       <c r="I18">
-        <v>8900000</v>
+        <v>5150000</v>
       </c>
       <c r="J18">
-        <v>83400</v>
+        <v>2000</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>23</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C19" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="E19" t="s">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="F19" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="G19" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="H19">
-        <v>10300</v>
+        <v>170719.8</v>
       </c>
       <c r="I19">
-        <v>5150000</v>
+        <v>8900000</v>
       </c>
       <c r="J19">
-        <v>2000</v>
+        <v>83400</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>100</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
         <v>29</v>
       </c>
       <c r="C20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D20" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E20" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F20" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G20" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H20">
-        <v>170719.8</v>
+        <v>74226</v>
       </c>
       <c r="I20">
         <v>8900000</v>
@@ -1356,45 +1350,45 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>23</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:12">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C21" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="D21" t="s">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="E21" t="s">
-        <v>56</v>
+        <v>24</v>
       </c>
       <c r="F21" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G21" t="s">
-        <v>69</v>
+        <v>28</v>
       </c>
       <c r="H21">
-        <v>74226</v>
+        <v>27000</v>
       </c>
       <c r="I21">
-        <v>8900000</v>
+        <v>1500000</v>
       </c>
       <c r="J21">
-        <v>83400</v>
+        <v>18000</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1402,10 +1396,10 @@
         <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C22" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D22" t="s">
         <v>24</v>
@@ -1414,19 +1408,19 @@
         <v>24</v>
       </c>
       <c r="F22" t="s">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="G22" t="s">
-        <v>28</v>
+        <v>71</v>
       </c>
       <c r="H22">
-        <v>27000</v>
+        <v>36300</v>
       </c>
       <c r="I22">
-        <v>1500000</v>
+        <v>1100000</v>
       </c>
       <c r="J22">
-        <v>18000</v>
+        <v>33000</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1440,10 +1434,10 @@
         <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D23" t="s">
         <v>24</v>
@@ -1452,10 +1446,10 @@
         <v>24</v>
       </c>
       <c r="F23" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G23" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H23">
         <v>8000</v>
@@ -1478,10 +1472,10 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C24" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D24" t="s">
         <v>24</v>
@@ -1490,62 +1484,24 @@
         <v>24</v>
       </c>
       <c r="F24" t="s">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="G24" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H24">
-        <v>36300</v>
+        <v>22100</v>
       </c>
       <c r="I24">
-        <v>1100000</v>
+        <v>1300000</v>
       </c>
       <c r="J24">
-        <v>33000</v>
+        <v>17000</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>32</v>
-      </c>
-      <c r="C25" t="s">
-        <v>54</v>
-      </c>
-      <c r="D25" t="s">
-        <v>24</v>
-      </c>
-      <c r="E25" t="s">
-        <v>24</v>
-      </c>
-      <c r="F25" t="s">
-        <v>62</v>
-      </c>
-      <c r="G25" t="s">
-        <v>72</v>
-      </c>
-      <c r="H25">
-        <v>22100</v>
-      </c>
-      <c r="I25">
-        <v>1300000</v>
-      </c>
-      <c r="J25">
-        <v>17000</v>
-      </c>
-      <c r="K25">
-        <v>0</v>
-      </c>
-      <c r="L25">
         <v>100</v>
       </c>
     </row>

--- a/datasets/form3.xlsx
+++ b/datasets/form3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="73">
   <si>
     <t>인수기관</t>
   </si>
@@ -55,6 +55,9 @@
     <t>DB</t>
   </si>
   <si>
+    <t>IBK</t>
+  </si>
+  <si>
     <t>KB</t>
   </si>
   <si>
@@ -79,9 +82,6 @@
     <t>유비에스</t>
   </si>
   <si>
-    <t>유안타</t>
-  </si>
-  <si>
     <t>제이피모간회사</t>
   </si>
   <si>
@@ -91,54 +91,60 @@
     <t>한국</t>
   </si>
   <si>
+    <t>현대차</t>
+  </si>
+  <si>
     <t>2024-06-05</t>
   </si>
   <si>
+    <t>2024-06-10</t>
+  </si>
+  <si>
+    <t>2024-04-23</t>
+  </si>
+  <si>
     <t>2024-06-11</t>
   </si>
   <si>
-    <t>2024-04-23</t>
+    <t>2024-04-25</t>
   </si>
   <si>
     <t>2024-05-07</t>
   </si>
   <si>
-    <t>2024-04-25</t>
+    <t>2024-06-13</t>
   </si>
   <si>
     <t>2024-05-20</t>
   </si>
   <si>
-    <t>2024-06-10</t>
-  </si>
-  <si>
     <t>2024-06-03</t>
   </si>
   <si>
     <t>2024-05-13</t>
   </si>
   <si>
-    <t>2024-04-22</t>
-  </si>
-  <si>
     <t>2024-04-24</t>
   </si>
   <si>
     <t>디비금융스팩12호</t>
   </si>
   <si>
+    <t>한중엔시에스</t>
+  </si>
+  <si>
+    <t>민테크</t>
+  </si>
+  <si>
     <t>KB제29호스팩</t>
   </si>
   <si>
-    <t>민테크</t>
+    <t>HD현대마린솔루션</t>
   </si>
   <si>
     <t>KB제28호스팩</t>
   </si>
   <si>
-    <t>HD현대마린솔루션</t>
-  </si>
-  <si>
     <t>아이씨티케이</t>
   </si>
   <si>
@@ -148,31 +154,31 @@
     <t>라메디텍</t>
   </si>
   <si>
+    <t>미래에셋비전스팩6호</t>
+  </si>
+  <si>
+    <t>미래에셋비전스팩5호</t>
+  </si>
+  <si>
     <t>미래에셋비전스팩4호</t>
   </si>
   <si>
-    <t>미래에셋비전스팩5호</t>
-  </si>
-  <si>
     <t>그리드위즈</t>
   </si>
   <si>
     <t>노브랜드</t>
   </si>
   <si>
-    <t>유안타제16호스팩</t>
+    <t>씨어스테크놀로지</t>
+  </si>
+  <si>
+    <t>한국제14호스팩</t>
   </si>
   <si>
     <t>코칩</t>
   </si>
   <si>
-    <t>디앤디파마텍</t>
-  </si>
-  <si>
-    <t>한국제14호스팩</t>
-  </si>
-  <si>
-    <t>씨어스테크놀로지</t>
+    <t>에이치엠씨제7호스팩</t>
   </si>
   <si>
     <t>KB, 유비에스리미티드(영업소), 제이피모간회사 서울지점</t>
@@ -181,24 +187,24 @@
     <t>KB, 유비에스리미티드(영업소), 제이피모간회사 서울지점, 신한, 하나, 대신, 삼성</t>
   </si>
   <si>
+    <t>2024-04-26</t>
+  </si>
+  <si>
     <t>2024-06-14</t>
   </si>
   <si>
-    <t>2024-04-26</t>
+    <t>2024-04-30</t>
   </si>
   <si>
     <t>2024-05-10</t>
   </si>
   <si>
-    <t>2024-04-30</t>
+    <t>2024-06-18</t>
   </si>
   <si>
     <t>2024-05-23</t>
   </si>
   <si>
-    <t>2024-06-13</t>
-  </si>
-  <si>
     <t>2024-06-07</t>
   </si>
   <si>
@@ -208,28 +214,25 @@
     <t>2024-04-29</t>
   </si>
   <si>
-    <t>2024-06-18</t>
+    <t>2024-06-24</t>
+  </si>
+  <si>
+    <t>2024-05-03</t>
   </si>
   <si>
     <t>2024-06-21</t>
   </si>
   <si>
-    <t>2024-05-03</t>
-  </si>
-  <si>
     <t>2024-05-08</t>
   </si>
   <si>
     <t>2024-06-17</t>
   </si>
   <si>
+    <t>2024-06-19</t>
+  </si>
+  <si>
     <t>2024-05-29</t>
-  </si>
-  <si>
-    <t>2024-06-19</t>
-  </si>
-  <si>
-    <t>2024-05-02</t>
   </si>
 </sst>
 </file>
@@ -587,7 +590,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L24"/>
+  <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -636,10 +639,10 @@
         <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
@@ -648,10 +651,10 @@
         <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="H2">
         <v>10000</v>
@@ -674,10 +677,10 @@
         <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D3" t="s">
         <v>13</v>
@@ -686,19 +689,19 @@
         <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="G3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H3">
-        <v>12000</v>
+        <v>48000</v>
       </c>
       <c r="I3">
-        <v>6000000</v>
+        <v>1600000</v>
       </c>
       <c r="J3">
-        <v>2000</v>
+        <v>30000</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -709,25 +712,25 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H4">
         <v>31500</v>
@@ -747,31 +750,31 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G5" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="H5">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="I5">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="J5">
         <v>2000</v>
@@ -785,25 +788,25 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D6" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E6" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G6" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H6">
         <v>215255.4</v>
@@ -826,10 +829,10 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D7" t="s">
         <v>14</v>
@@ -838,19 +841,19 @@
         <v>14</v>
       </c>
       <c r="F7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H7">
-        <v>39400</v>
+        <v>10000</v>
       </c>
       <c r="I7">
-        <v>1970000</v>
+        <v>5000000</v>
       </c>
       <c r="J7">
-        <v>20000</v>
+        <v>2000</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -864,10 +867,10 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D8" t="s">
         <v>15</v>
@@ -876,19 +879,19 @@
         <v>15</v>
       </c>
       <c r="F8" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="G8" t="s">
-        <v>28</v>
+        <v>64</v>
       </c>
       <c r="H8">
-        <v>6000</v>
+        <v>39400</v>
       </c>
       <c r="I8">
-        <v>3000000</v>
+        <v>1970000</v>
       </c>
       <c r="J8">
-        <v>2000</v>
+        <v>20000</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -902,10 +905,10 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D9" t="s">
         <v>16</v>
@@ -914,19 +917,19 @@
         <v>16</v>
       </c>
       <c r="F9" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="G9" t="s">
-        <v>68</v>
+        <v>31</v>
       </c>
       <c r="H9">
-        <v>20768</v>
+        <v>6000</v>
       </c>
       <c r="I9">
-        <v>1298000</v>
+        <v>3000000</v>
       </c>
       <c r="J9">
-        <v>16000</v>
+        <v>2000</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -937,25 +940,25 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D10" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E10" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G10" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H10">
         <v>18556.5</v>
@@ -978,10 +981,10 @@
         <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D11" t="s">
         <v>17</v>
@@ -990,19 +993,19 @@
         <v>17</v>
       </c>
       <c r="F11" t="s">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="G11" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H11">
-        <v>13300</v>
+        <v>20768</v>
       </c>
       <c r="I11">
-        <v>6650000</v>
+        <v>1298000</v>
       </c>
       <c r="J11">
-        <v>2000</v>
+        <v>16000</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -1013,31 +1016,31 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F12" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G12" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="H12">
-        <v>9500</v>
+        <v>12900</v>
       </c>
       <c r="I12">
-        <v>4750000</v>
+        <v>6450000</v>
       </c>
       <c r="J12">
         <v>2000</v>
@@ -1054,10 +1057,10 @@
         <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D13" t="s">
         <v>18</v>
@@ -1066,19 +1069,19 @@
         <v>18</v>
       </c>
       <c r="F13" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="G13" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="H13">
-        <v>56000</v>
+        <v>9500</v>
       </c>
       <c r="I13">
-        <v>1400000</v>
+        <v>4750000</v>
       </c>
       <c r="J13">
-        <v>40000</v>
+        <v>2000</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1095,7 +1098,7 @@
         <v>33</v>
       </c>
       <c r="C14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D14" t="s">
         <v>18</v>
@@ -1107,16 +1110,16 @@
         <v>62</v>
       </c>
       <c r="G14" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="H14">
-        <v>16800</v>
+        <v>13300</v>
       </c>
       <c r="I14">
-        <v>1200000</v>
+        <v>6650000</v>
       </c>
       <c r="J14">
-        <v>14000</v>
+        <v>2000</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1127,40 +1130,40 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C15" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="D15" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="E15" t="s">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="F15" t="s">
+        <v>63</v>
+      </c>
+      <c r="G15" t="s">
         <v>58</v>
       </c>
-      <c r="G15" t="s">
-        <v>67</v>
-      </c>
       <c r="H15">
-        <v>18556.5</v>
+        <v>56000</v>
       </c>
       <c r="I15">
-        <v>8900000</v>
+        <v>1400000</v>
       </c>
       <c r="J15">
-        <v>83400</v>
+        <v>40000</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>2.5</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -1168,25 +1171,25 @@
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C16" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D16" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E16" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F16" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G16" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H16">
-        <v>74226</v>
+        <v>18556.5</v>
       </c>
       <c r="I16">
         <v>8900000</v>
@@ -1198,106 +1201,106 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>10</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="17" spans="1:12">
       <c r="A17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C17" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D17" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="E17" t="s">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="F17" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="G17" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="H17">
-        <v>170719.8</v>
+        <v>16800</v>
       </c>
       <c r="I17">
-        <v>8900000</v>
+        <v>1200000</v>
       </c>
       <c r="J17">
-        <v>83400</v>
+        <v>14000</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>23</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:12">
       <c r="A18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C18" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="E18" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="F18" t="s">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="G18" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H18">
-        <v>10300</v>
+        <v>74226</v>
       </c>
       <c r="I18">
-        <v>5150000</v>
+        <v>8900000</v>
       </c>
       <c r="J18">
-        <v>2000</v>
+        <v>83400</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>100</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C19" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D19" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E19" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F19" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G19" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H19">
         <v>170719.8</v>
@@ -1317,28 +1320,28 @@
     </row>
     <row r="20" spans="1:12">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C20" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D20" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E20" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F20" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G20" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H20">
-        <v>74226</v>
+        <v>170719.8</v>
       </c>
       <c r="I20">
         <v>8900000</v>
@@ -1350,45 +1353,45 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>10</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:12">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C21" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="D21" t="s">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="E21" t="s">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="F21" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="G21" t="s">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="H21">
-        <v>27000</v>
+        <v>74226</v>
       </c>
       <c r="I21">
-        <v>1500000</v>
+        <v>8900000</v>
       </c>
       <c r="J21">
-        <v>18000</v>
+        <v>83400</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>100</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1396,10 +1399,10 @@
         <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C22" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D22" t="s">
         <v>24</v>
@@ -1408,19 +1411,19 @@
         <v>24</v>
       </c>
       <c r="F22" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G22" t="s">
         <v>71</v>
       </c>
       <c r="H22">
-        <v>36300</v>
+        <v>22100</v>
       </c>
       <c r="I22">
-        <v>1100000</v>
+        <v>1300000</v>
       </c>
       <c r="J22">
-        <v>33000</v>
+        <v>17000</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1434,10 +1437,10 @@
         <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C23" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D23" t="s">
         <v>24</v>
@@ -1446,10 +1449,10 @@
         <v>24</v>
       </c>
       <c r="F23" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="G23" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H23">
         <v>8000</v>
@@ -1472,10 +1475,10 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C24" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D24" t="s">
         <v>24</v>
@@ -1484,24 +1487,62 @@
         <v>24</v>
       </c>
       <c r="F24" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="G24" t="s">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="H24">
-        <v>22100</v>
+        <v>27000</v>
       </c>
       <c r="I24">
-        <v>1300000</v>
+        <v>1500000</v>
       </c>
       <c r="J24">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" t="s">
+        <v>54</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25" t="s">
+        <v>25</v>
+      </c>
+      <c r="F25" t="s">
+        <v>58</v>
+      </c>
+      <c r="G25" t="s">
+        <v>66</v>
+      </c>
+      <c r="H25">
+        <v>14000</v>
+      </c>
+      <c r="I25">
+        <v>7000000</v>
+      </c>
+      <c r="J25">
+        <v>2000</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
         <v>100</v>
       </c>
     </row>

--- a/datasets/form3.xlsx
+++ b/datasets/form3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="71">
   <si>
     <t>인수기관</t>
   </si>
@@ -52,6 +52,9 @@
     <t>인수비율</t>
   </si>
   <si>
+    <t>BNK</t>
+  </si>
+  <si>
     <t>DB</t>
   </si>
   <si>
@@ -64,9 +67,6 @@
     <t>NH</t>
   </si>
   <si>
-    <t>SK</t>
-  </si>
-  <si>
     <t>대신</t>
   </si>
   <si>
@@ -94,15 +94,15 @@
     <t>현대차</t>
   </si>
   <si>
+    <t>2024-06-14</t>
+  </si>
+  <si>
     <t>2024-06-05</t>
   </si>
   <si>
     <t>2024-06-10</t>
   </si>
   <si>
-    <t>2024-04-23</t>
-  </si>
-  <si>
     <t>2024-06-11</t>
   </si>
   <si>
@@ -118,24 +118,24 @@
     <t>2024-05-20</t>
   </si>
   <si>
+    <t>2024-05-13</t>
+  </si>
+  <si>
     <t>2024-06-03</t>
   </si>
   <si>
-    <t>2024-05-13</t>
-  </si>
-  <si>
     <t>2024-04-24</t>
   </si>
   <si>
+    <t>에스오에스랩</t>
+  </si>
+  <si>
     <t>디비금융스팩12호</t>
   </si>
   <si>
     <t>한중엔시에스</t>
   </si>
   <si>
-    <t>민테크</t>
-  </si>
-  <si>
     <t>KB제29호스팩</t>
   </si>
   <si>
@@ -148,9 +148,6 @@
     <t>아이씨티케이</t>
   </si>
   <si>
-    <t>SK증권제12호스팩</t>
-  </si>
-  <si>
     <t>라메디텍</t>
   </si>
   <si>
@@ -163,18 +160,18 @@
     <t>미래에셋비전스팩4호</t>
   </si>
   <si>
+    <t>노브랜드</t>
+  </si>
+  <si>
     <t>그리드위즈</t>
   </si>
   <si>
-    <t>노브랜드</t>
+    <t>한국제14호스팩</t>
   </si>
   <si>
     <t>씨어스테크놀로지</t>
   </si>
   <si>
-    <t>한국제14호스팩</t>
-  </si>
-  <si>
     <t>코칩</t>
   </si>
   <si>
@@ -184,13 +181,13 @@
     <t>KB, 유비에스리미티드(영업소), 제이피모간회사 서울지점</t>
   </si>
   <si>
+    <t>한국, BNK</t>
+  </si>
+  <si>
     <t>KB, 유비에스리미티드(영업소), 제이피모간회사 서울지점, 신한, 하나, 대신, 삼성</t>
   </si>
   <si>
-    <t>2024-04-26</t>
-  </si>
-  <si>
-    <t>2024-06-14</t>
+    <t>2024-06-19</t>
   </si>
   <si>
     <t>2024-04-30</t>
@@ -205,21 +202,21 @@
     <t>2024-05-23</t>
   </si>
   <si>
+    <t>2024-05-17</t>
+  </si>
+  <si>
     <t>2024-06-07</t>
   </si>
   <si>
-    <t>2024-05-17</t>
-  </si>
-  <si>
     <t>2024-04-29</t>
   </si>
   <si>
+    <t>2024-06-25</t>
+  </si>
+  <si>
     <t>2024-06-24</t>
   </si>
   <si>
-    <t>2024-05-03</t>
-  </si>
-  <si>
     <t>2024-06-21</t>
   </si>
   <si>
@@ -227,9 +224,6 @@
   </si>
   <si>
     <t>2024-06-17</t>
-  </si>
-  <si>
-    <t>2024-06-19</t>
   </si>
   <si>
     <t>2024-05-29</t>
@@ -645,31 +639,31 @@
         <v>37</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="F2" t="s">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="G2" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="H2">
-        <v>10000</v>
+        <v>1150</v>
       </c>
       <c r="I2">
-        <v>5000000</v>
+        <v>2000000</v>
       </c>
       <c r="J2">
-        <v>2000</v>
+        <v>11500</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>100</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -689,19 +683,19 @@
         <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G3" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="H3">
-        <v>48000</v>
+        <v>10000</v>
       </c>
       <c r="I3">
-        <v>1600000</v>
+        <v>5000000</v>
       </c>
       <c r="J3">
-        <v>30000</v>
+        <v>2000</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -727,19 +721,19 @@
         <v>14</v>
       </c>
       <c r="F4" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="G4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H4">
-        <v>31500</v>
+        <v>48000</v>
       </c>
       <c r="I4">
-        <v>3000000</v>
+        <v>1600000</v>
       </c>
       <c r="J4">
-        <v>10500</v>
+        <v>30000</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -750,7 +744,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
         <v>29</v>
@@ -759,16 +753,16 @@
         <v>40</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F5" t="s">
-        <v>58</v>
+        <v>26</v>
       </c>
       <c r="G5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H5">
         <v>12000</v>
@@ -788,7 +782,7 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
         <v>30</v>
@@ -797,16 +791,16 @@
         <v>41</v>
       </c>
       <c r="D6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E6" t="s">
         <v>56</v>
       </c>
       <c r="F6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H6">
         <v>215255.4</v>
@@ -826,7 +820,7 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
         <v>31</v>
@@ -835,16 +829,16 @@
         <v>42</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H7">
         <v>10000</v>
@@ -864,7 +858,7 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
         <v>31</v>
@@ -873,16 +867,16 @@
         <v>43</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H8">
         <v>39400</v>
@@ -902,34 +896,34 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C9" t="s">
         <v>44</v>
       </c>
       <c r="D9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F9" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="G9" t="s">
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="H9">
-        <v>6000</v>
+        <v>20768</v>
       </c>
       <c r="I9">
-        <v>3000000</v>
+        <v>1298000</v>
       </c>
       <c r="J9">
-        <v>2000</v>
+        <v>16000</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -949,16 +943,16 @@
         <v>41</v>
       </c>
       <c r="D10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E10" t="s">
         <v>56</v>
       </c>
       <c r="F10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H10">
         <v>18556.5</v>
@@ -978,34 +972,34 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C11" t="s">
         <v>45</v>
       </c>
       <c r="D11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F11" t="s">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="G11" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="H11">
-        <v>20768</v>
+        <v>12900</v>
       </c>
       <c r="I11">
-        <v>1298000</v>
+        <v>6450000</v>
       </c>
       <c r="J11">
-        <v>16000</v>
+        <v>2000</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -1019,7 +1013,7 @@
         <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C12" t="s">
         <v>46</v>
@@ -1031,16 +1025,16 @@
         <v>18</v>
       </c>
       <c r="F12" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="G12" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="H12">
-        <v>12900</v>
+        <v>9500</v>
       </c>
       <c r="I12">
-        <v>6450000</v>
+        <v>4750000</v>
       </c>
       <c r="J12">
         <v>2000</v>
@@ -1057,7 +1051,7 @@
         <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C13" t="s">
         <v>47</v>
@@ -1069,16 +1063,16 @@
         <v>18</v>
       </c>
       <c r="F13" t="s">
-        <v>32</v>
+        <v>61</v>
       </c>
       <c r="G13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H13">
-        <v>9500</v>
+        <v>13300</v>
       </c>
       <c r="I13">
-        <v>4750000</v>
+        <v>6650000</v>
       </c>
       <c r="J13">
         <v>2000</v>
@@ -1092,34 +1086,34 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B14" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C14" t="s">
         <v>48</v>
       </c>
       <c r="D14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F14" t="s">
         <v>62</v>
       </c>
       <c r="G14" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="H14">
-        <v>13300</v>
+        <v>16800</v>
       </c>
       <c r="I14">
-        <v>6650000</v>
+        <v>1200000</v>
       </c>
       <c r="J14">
-        <v>2000</v>
+        <v>14000</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1133,7 +1127,7 @@
         <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C15" t="s">
         <v>49</v>
@@ -1148,7 +1142,7 @@
         <v>63</v>
       </c>
       <c r="G15" t="s">
-        <v>58</v>
+        <v>26</v>
       </c>
       <c r="H15">
         <v>56000</v>
@@ -1177,16 +1171,16 @@
         <v>41</v>
       </c>
       <c r="D16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E16" t="s">
         <v>56</v>
       </c>
       <c r="F16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H16">
         <v>18556.5</v>
@@ -1206,45 +1200,45 @@
     </row>
     <row r="17" spans="1:12">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C17" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="D17" t="s">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="E17" t="s">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="F17" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="G17" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="H17">
-        <v>16800</v>
+        <v>74226</v>
       </c>
       <c r="I17">
-        <v>1200000</v>
+        <v>8900000</v>
       </c>
       <c r="J17">
-        <v>14000</v>
+        <v>83400</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>100</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:12">
       <c r="A18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B18" t="s">
         <v>30</v>
@@ -1253,19 +1247,19 @@
         <v>41</v>
       </c>
       <c r="D18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E18" t="s">
         <v>56</v>
       </c>
       <c r="F18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G18" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H18">
-        <v>74226</v>
+        <v>170719.8</v>
       </c>
       <c r="I18">
         <v>8900000</v>
@@ -1277,12 +1271,12 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>10</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
         <v>30</v>
@@ -1291,16 +1285,16 @@
         <v>41</v>
       </c>
       <c r="D19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E19" t="s">
         <v>56</v>
       </c>
       <c r="F19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H19">
         <v>170719.8</v>
@@ -1320,7 +1314,7 @@
     </row>
     <row r="20" spans="1:12">
       <c r="A20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
         <v>30</v>
@@ -1329,19 +1323,19 @@
         <v>41</v>
       </c>
       <c r="D20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E20" t="s">
         <v>56</v>
       </c>
       <c r="F20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H20">
-        <v>170719.8</v>
+        <v>74226</v>
       </c>
       <c r="I20">
         <v>8900000</v>
@@ -1353,45 +1347,45 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>23</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:12">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" t="s">
         <v>55</v>
       </c>
-      <c r="E21" t="s">
-        <v>56</v>
-      </c>
       <c r="F21" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G21" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="H21">
-        <v>74226</v>
+        <v>21850</v>
       </c>
       <c r="I21">
-        <v>8900000</v>
+        <v>2000000</v>
       </c>
       <c r="J21">
-        <v>83400</v>
+        <v>11500</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>10</v>
+        <v>95</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1399,10 +1393,10 @@
         <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C22" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D22" t="s">
         <v>24</v>
@@ -1414,16 +1408,16 @@
         <v>32</v>
       </c>
       <c r="G22" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="H22">
-        <v>22100</v>
+        <v>8000</v>
       </c>
       <c r="I22">
-        <v>1300000</v>
+        <v>4000000</v>
       </c>
       <c r="J22">
-        <v>17000</v>
+        <v>2000</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1437,10 +1431,10 @@
         <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D23" t="s">
         <v>24</v>
@@ -1452,16 +1446,16 @@
         <v>32</v>
       </c>
       <c r="G23" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="H23">
-        <v>8000</v>
+        <v>22100</v>
       </c>
       <c r="I23">
-        <v>4000000</v>
+        <v>1300000</v>
       </c>
       <c r="J23">
-        <v>2000</v>
+        <v>17000</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1478,7 +1472,7 @@
         <v>36</v>
       </c>
       <c r="C24" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D24" t="s">
         <v>24</v>
@@ -1487,7 +1481,7 @@
         <v>24</v>
       </c>
       <c r="F24" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G24" t="s">
         <v>31</v>
@@ -1516,7 +1510,7 @@
         <v>29</v>
       </c>
       <c r="C25" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D25" t="s">
         <v>25</v>
@@ -1525,7 +1519,7 @@
         <v>25</v>
       </c>
       <c r="F25" t="s">
-        <v>58</v>
+        <v>26</v>
       </c>
       <c r="G25" t="s">
         <v>66</v>

--- a/datasets/form3.xlsx
+++ b/datasets/form3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="76">
   <si>
     <t>인수기관</t>
   </si>
@@ -103,25 +103,31 @@
     <t>2024-06-10</t>
   </si>
   <si>
+    <t>2024-05-07</t>
+  </si>
+  <si>
     <t>2024-06-11</t>
   </si>
   <si>
     <t>2024-04-25</t>
   </si>
   <si>
-    <t>2024-05-07</t>
+    <t>2024-05-20</t>
   </si>
   <si>
     <t>2024-06-13</t>
   </si>
   <si>
-    <t>2024-05-20</t>
+    <t>2024-06-03</t>
   </si>
   <si>
     <t>2024-05-13</t>
   </si>
   <si>
-    <t>2024-06-03</t>
+    <t>2024-06-18</t>
+  </si>
+  <si>
+    <t>2024-06-17</t>
   </si>
   <si>
     <t>2024-04-24</t>
@@ -136,39 +142,45 @@
     <t>한중엔시에스</t>
   </si>
   <si>
+    <t>KB제28호스팩</t>
+  </si>
+  <si>
     <t>KB제29호스팩</t>
   </si>
   <si>
     <t>HD현대마린솔루션</t>
   </si>
   <si>
-    <t>KB제28호스팩</t>
-  </si>
-  <si>
     <t>아이씨티케이</t>
   </si>
   <si>
     <t>라메디텍</t>
   </si>
   <si>
+    <t>미래에셋비전스팩5호</t>
+  </si>
+  <si>
+    <t>미래에셋비전스팩4호</t>
+  </si>
+  <si>
     <t>미래에셋비전스팩6호</t>
   </si>
   <si>
-    <t>미래에셋비전스팩5호</t>
-  </si>
-  <si>
-    <t>미래에셋비전스팩4호</t>
+    <t>그리드위즈</t>
   </si>
   <si>
     <t>노브랜드</t>
   </si>
   <si>
-    <t>그리드위즈</t>
+    <t>하이젠알앤엠</t>
   </si>
   <si>
     <t>한국제14호스팩</t>
   </si>
   <si>
+    <t>한국제15호스팩</t>
+  </si>
+  <si>
     <t>씨어스테크놀로지</t>
   </si>
   <si>
@@ -190,22 +202,25 @@
     <t>2024-06-19</t>
   </si>
   <si>
+    <t>2024-05-10</t>
+  </si>
+  <si>
     <t>2024-04-30</t>
   </si>
   <si>
-    <t>2024-05-10</t>
-  </si>
-  <si>
-    <t>2024-06-18</t>
-  </si>
-  <si>
     <t>2024-05-23</t>
   </si>
   <si>
+    <t>2024-06-07</t>
+  </si>
+  <si>
     <t>2024-05-17</t>
   </si>
   <si>
-    <t>2024-06-07</t>
+    <t>2024-06-21</t>
+  </si>
+  <si>
+    <t>2024-06-20</t>
   </si>
   <si>
     <t>2024-04-29</t>
@@ -217,16 +232,16 @@
     <t>2024-06-24</t>
   </si>
   <si>
-    <t>2024-06-21</t>
-  </si>
-  <si>
     <t>2024-05-08</t>
   </si>
   <si>
-    <t>2024-06-17</t>
-  </si>
-  <si>
     <t>2024-05-29</t>
+  </si>
+  <si>
+    <t>2024-06-27</t>
+  </si>
+  <si>
+    <t>2024-06-26</t>
   </si>
 </sst>
 </file>
@@ -584,7 +599,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -636,19 +651,19 @@
         <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D2" t="s">
         <v>24</v>
       </c>
       <c r="E2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F2" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="G2" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="H2">
         <v>1150</v>
@@ -674,7 +689,7 @@
         <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D3" t="s">
         <v>13</v>
@@ -683,10 +698,10 @@
         <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="H3">
         <v>10000</v>
@@ -712,7 +727,7 @@
         <v>28</v>
       </c>
       <c r="C4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D4" t="s">
         <v>14</v>
@@ -721,10 +736,10 @@
         <v>14</v>
       </c>
       <c r="F4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G4" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="H4">
         <v>48000</v>
@@ -750,7 +765,7 @@
         <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D5" t="s">
         <v>15</v>
@@ -759,16 +774,16 @@
         <v>15</v>
       </c>
       <c r="F5" t="s">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="G5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H5">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="I5">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="J5">
         <v>2000</v>
@@ -788,34 +803,34 @@
         <v>30</v>
       </c>
       <c r="C6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D6" t="s">
-        <v>54</v>
+        <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>56</v>
+        <v>15</v>
       </c>
       <c r="F6" t="s">
-        <v>58</v>
+        <v>26</v>
       </c>
       <c r="G6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H6">
-        <v>215255.4</v>
+        <v>12000</v>
       </c>
       <c r="I6">
-        <v>8900000</v>
+        <v>6000000</v>
       </c>
       <c r="J6">
-        <v>83400</v>
+        <v>2000</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>29</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -826,34 +841,34 @@
         <v>31</v>
       </c>
       <c r="C7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="E7" t="s">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="F7" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="G7" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="H7">
-        <v>10000</v>
+        <v>215255.4</v>
       </c>
       <c r="I7">
-        <v>5000000</v>
+        <v>8900000</v>
       </c>
       <c r="J7">
-        <v>2000</v>
+        <v>83400</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>100</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -861,10 +876,10 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C8" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D8" t="s">
         <v>16</v>
@@ -873,10 +888,10 @@
         <v>16</v>
       </c>
       <c r="F8" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="G8" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="H8">
         <v>39400</v>
@@ -902,7 +917,7 @@
         <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D9" t="s">
         <v>17</v>
@@ -911,10 +926,10 @@
         <v>17</v>
       </c>
       <c r="F9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G9" t="s">
-        <v>69</v>
+        <v>37</v>
       </c>
       <c r="H9">
         <v>20768</v>
@@ -937,22 +952,22 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C10" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D10" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E10" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="F10" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="G10" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="H10">
         <v>18556.5</v>
@@ -975,10 +990,10 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C11" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D11" t="s">
         <v>18</v>
@@ -987,16 +1002,16 @@
         <v>18</v>
       </c>
       <c r="F11" t="s">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="G11" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="H11">
-        <v>12900</v>
+        <v>9500</v>
       </c>
       <c r="I11">
-        <v>6450000</v>
+        <v>4750000</v>
       </c>
       <c r="J11">
         <v>2000</v>
@@ -1013,10 +1028,10 @@
         <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C12" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D12" t="s">
         <v>18</v>
@@ -1025,16 +1040,16 @@
         <v>18</v>
       </c>
       <c r="F12" t="s">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="G12" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="H12">
-        <v>9500</v>
+        <v>13300</v>
       </c>
       <c r="I12">
-        <v>4750000</v>
+        <v>6650000</v>
       </c>
       <c r="J12">
         <v>2000</v>
@@ -1054,7 +1069,7 @@
         <v>33</v>
       </c>
       <c r="C13" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D13" t="s">
         <v>18</v>
@@ -1063,16 +1078,16 @@
         <v>18</v>
       </c>
       <c r="F13" t="s">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="G13" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H13">
-        <v>13300</v>
+        <v>12900</v>
       </c>
       <c r="I13">
-        <v>6650000</v>
+        <v>6450000</v>
       </c>
       <c r="J13">
         <v>2000</v>
@@ -1089,37 +1104,37 @@
         <v>19</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C14" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D14" t="s">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="E14" t="s">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="F14" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G14" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="H14">
-        <v>16800</v>
+        <v>18556.5</v>
       </c>
       <c r="I14">
-        <v>1200000</v>
+        <v>8900000</v>
       </c>
       <c r="J14">
-        <v>14000</v>
+        <v>83400</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>100</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -1127,10 +1142,10 @@
         <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C15" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D15" t="s">
         <v>19</v>
@@ -1139,7 +1154,7 @@
         <v>19</v>
       </c>
       <c r="F15" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G15" t="s">
         <v>26</v>
@@ -1165,37 +1180,37 @@
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C16" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="D16" t="s">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="E16" t="s">
-        <v>56</v>
+        <v>19</v>
       </c>
       <c r="F16" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="G16" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H16">
-        <v>18556.5</v>
+        <v>16800</v>
       </c>
       <c r="I16">
-        <v>8900000</v>
+        <v>1200000</v>
       </c>
       <c r="J16">
-        <v>83400</v>
+        <v>14000</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>2.5</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -1203,22 +1218,22 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C17" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D17" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E17" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="F17" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="G17" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="H17">
         <v>74226</v>
@@ -1241,22 +1256,22 @@
         <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C18" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D18" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E18" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="F18" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="G18" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="H18">
         <v>170719.8</v>
@@ -1279,22 +1294,22 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C19" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D19" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E19" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="F19" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="G19" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="H19">
         <v>170719.8</v>
@@ -1317,22 +1332,22 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C20" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D20" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E20" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="F20" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="G20" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="H20">
         <v>74226</v>
@@ -1355,37 +1370,37 @@
         <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C21" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="D21" t="s">
         <v>24</v>
       </c>
       <c r="E21" t="s">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="F21" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="G21" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="H21">
-        <v>21850</v>
+        <v>23800</v>
       </c>
       <c r="I21">
-        <v>2000000</v>
+        <v>3400000</v>
       </c>
       <c r="J21">
-        <v>11500</v>
+        <v>7000</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>95</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1396,7 +1411,7 @@
         <v>28</v>
       </c>
       <c r="C22" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D22" t="s">
         <v>24</v>
@@ -1405,10 +1420,10 @@
         <v>24</v>
       </c>
       <c r="F22" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G22" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="H22">
         <v>8000</v>
@@ -1431,37 +1446,37 @@
         <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="D23" t="s">
         <v>24</v>
       </c>
       <c r="E23" t="s">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="F23" t="s">
-        <v>32</v>
+        <v>61</v>
       </c>
       <c r="G23" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="H23">
-        <v>22100</v>
+        <v>21850</v>
       </c>
       <c r="I23">
-        <v>1300000</v>
+        <v>2000000</v>
       </c>
       <c r="J23">
-        <v>17000</v>
+        <v>11500</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1469,10 +1484,10 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C24" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D24" t="s">
         <v>24</v>
@@ -1481,19 +1496,19 @@
         <v>24</v>
       </c>
       <c r="F24" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="G24" t="s">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="H24">
-        <v>27000</v>
+        <v>12500</v>
       </c>
       <c r="I24">
-        <v>1500000</v>
+        <v>6250000</v>
       </c>
       <c r="J24">
-        <v>18000</v>
+        <v>2000</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1504,39 +1519,115 @@
     </row>
     <row r="25" spans="1:12">
       <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" t="s">
+        <v>55</v>
+      </c>
+      <c r="D25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>24</v>
+      </c>
+      <c r="F25" t="s">
+        <v>33</v>
+      </c>
+      <c r="G25" t="s">
+        <v>61</v>
+      </c>
+      <c r="H25">
+        <v>22100</v>
+      </c>
+      <c r="I25">
+        <v>1300000</v>
+      </c>
+      <c r="J25">
+        <v>17000</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>38</v>
+      </c>
+      <c r="C26" t="s">
+        <v>56</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26" t="s">
+        <v>24</v>
+      </c>
+      <c r="F26" t="s">
+        <v>69</v>
+      </c>
+      <c r="G26" t="s">
+        <v>29</v>
+      </c>
+      <c r="H26">
+        <v>27000</v>
+      </c>
+      <c r="I26">
+        <v>1500000</v>
+      </c>
+      <c r="J26">
+        <v>18000</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" t="s">
         <v>25</v>
       </c>
-      <c r="B25" t="s">
-        <v>29</v>
-      </c>
-      <c r="C25" t="s">
-        <v>53</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="B27" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27" t="s">
+        <v>57</v>
+      </c>
+      <c r="D27" t="s">
         <v>25</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E27" t="s">
         <v>25</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F27" t="s">
         <v>26</v>
       </c>
-      <c r="G25" t="s">
-        <v>66</v>
-      </c>
-      <c r="H25">
+      <c r="G27" t="s">
+        <v>71</v>
+      </c>
+      <c r="H27">
         <v>14000</v>
       </c>
-      <c r="I25">
+      <c r="I27">
         <v>7000000</v>
       </c>
-      <c r="J25">
+      <c r="J27">
         <v>2000</v>
       </c>
-      <c r="K25">
-        <v>0</v>
-      </c>
-      <c r="L25">
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
         <v>100</v>
       </c>
     </row>

--- a/datasets/form3.xlsx
+++ b/datasets/form3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="65">
   <si>
     <t>인수기관</t>
   </si>
@@ -76,18 +76,6 @@
     <t>삼성</t>
   </si>
   <si>
-    <t>신한</t>
-  </si>
-  <si>
-    <t>유비에스</t>
-  </si>
-  <si>
-    <t>제이피모간회사</t>
-  </si>
-  <si>
-    <t>하나</t>
-  </si>
-  <si>
     <t>한국</t>
   </si>
   <si>
@@ -109,7 +97,7 @@
     <t>2024-06-11</t>
   </si>
   <si>
-    <t>2024-04-25</t>
+    <t>2024-06-19</t>
   </si>
   <si>
     <t>2024-05-20</t>
@@ -124,15 +112,12 @@
     <t>2024-05-13</t>
   </si>
   <si>
+    <t>2024-06-17</t>
+  </si>
+  <si>
     <t>2024-06-18</t>
   </si>
   <si>
-    <t>2024-06-17</t>
-  </si>
-  <si>
-    <t>2024-04-24</t>
-  </si>
-  <si>
     <t>에스오에스랩</t>
   </si>
   <si>
@@ -148,7 +133,7 @@
     <t>KB제29호스팩</t>
   </si>
   <si>
-    <t>HD현대마린솔루션</t>
+    <t>에이치브이엠</t>
   </si>
   <si>
     <t>아이씨티케이</t>
@@ -157,55 +142,43 @@
     <t>라메디텍</t>
   </si>
   <si>
+    <t>미래에셋비전스팩4호</t>
+  </si>
+  <si>
+    <t>미래에셋비전스팩6호</t>
+  </si>
+  <si>
     <t>미래에셋비전스팩5호</t>
   </si>
   <si>
-    <t>미래에셋비전스팩4호</t>
-  </si>
-  <si>
-    <t>미래에셋비전스팩6호</t>
-  </si>
-  <si>
     <t>그리드위즈</t>
   </si>
   <si>
     <t>노브랜드</t>
   </si>
   <si>
+    <t>한국제14호스팩</t>
+  </si>
+  <si>
+    <t>씨어스테크놀로지</t>
+  </si>
+  <si>
+    <t>한국제15호스팩</t>
+  </si>
+  <si>
     <t>하이젠알앤엠</t>
   </si>
   <si>
-    <t>한국제14호스팩</t>
-  </si>
-  <si>
-    <t>한국제15호스팩</t>
-  </si>
-  <si>
-    <t>씨어스테크놀로지</t>
-  </si>
-  <si>
-    <t>코칩</t>
-  </si>
-  <si>
     <t>에이치엠씨제7호스팩</t>
   </si>
   <si>
-    <t>KB, 유비에스리미티드(영업소), 제이피모간회사 서울지점</t>
-  </si>
-  <si>
     <t>한국, BNK</t>
   </si>
   <si>
-    <t>KB, 유비에스리미티드(영업소), 제이피모간회사 서울지점, 신한, 하나, 대신, 삼성</t>
-  </si>
-  <si>
-    <t>2024-06-19</t>
-  </si>
-  <si>
     <t>2024-05-10</t>
   </si>
   <si>
-    <t>2024-04-30</t>
+    <t>2024-06-24</t>
   </si>
   <si>
     <t>2024-05-23</t>
@@ -217,31 +190,25 @@
     <t>2024-05-17</t>
   </si>
   <si>
+    <t>2024-06-20</t>
+  </si>
+  <si>
     <t>2024-06-21</t>
   </si>
   <si>
-    <t>2024-06-20</t>
-  </si>
-  <si>
-    <t>2024-04-29</t>
-  </si>
-  <si>
     <t>2024-06-25</t>
   </si>
   <si>
-    <t>2024-06-24</t>
-  </si>
-  <si>
-    <t>2024-05-08</t>
+    <t>2024-06-28</t>
   </si>
   <si>
     <t>2024-05-29</t>
   </si>
   <si>
+    <t>2024-06-26</t>
+  </si>
+  <si>
     <t>2024-06-27</t>
-  </si>
-  <si>
-    <t>2024-06-26</t>
   </si>
 </sst>
 </file>
@@ -599,7 +566,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L27"/>
+  <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -648,22 +615,22 @@
         <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="F2" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="G2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="H2">
         <v>1150</v>
@@ -686,10 +653,10 @@
         <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D3" t="s">
         <v>13</v>
@@ -698,10 +665,10 @@
         <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H3">
         <v>10000</v>
@@ -724,10 +691,10 @@
         <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D4" t="s">
         <v>14</v>
@@ -736,10 +703,10 @@
         <v>14</v>
       </c>
       <c r="F4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G4" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="H4">
         <v>48000</v>
@@ -762,10 +729,10 @@
         <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D5" t="s">
         <v>15</v>
@@ -774,10 +741,10 @@
         <v>15</v>
       </c>
       <c r="F5" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="G5" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="H5">
         <v>10000</v>
@@ -800,10 +767,10 @@
         <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D6" t="s">
         <v>15</v>
@@ -812,10 +779,10 @@
         <v>15</v>
       </c>
       <c r="F6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G6" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="H6">
         <v>12000</v>
@@ -835,40 +802,40 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D7" t="s">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="E7" t="s">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="F7" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="G7" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="H7">
-        <v>215255.4</v>
+        <v>43200</v>
       </c>
       <c r="I7">
-        <v>8900000</v>
+        <v>2400000</v>
       </c>
       <c r="J7">
-        <v>83400</v>
+        <v>18000</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>29</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -876,10 +843,10 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D8" t="s">
         <v>16</v>
@@ -888,10 +855,10 @@
         <v>16</v>
       </c>
       <c r="F8" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="G8" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="H8">
         <v>39400</v>
@@ -914,10 +881,10 @@
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D9" t="s">
         <v>17</v>
@@ -926,10 +893,10 @@
         <v>17</v>
       </c>
       <c r="F9" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G9" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H9">
         <v>20768</v>
@@ -949,40 +916,40 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D10" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="E10" t="s">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="F10" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="G10" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="H10">
-        <v>18556.5</v>
+        <v>13300</v>
       </c>
       <c r="I10">
-        <v>8900000</v>
+        <v>6650000</v>
       </c>
       <c r="J10">
-        <v>83400</v>
+        <v>2000</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>2.5</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -990,10 +957,10 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C11" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D11" t="s">
         <v>18</v>
@@ -1005,13 +972,13 @@
         <v>33</v>
       </c>
       <c r="G11" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="H11">
-        <v>9500</v>
+        <v>12900</v>
       </c>
       <c r="I11">
-        <v>4750000</v>
+        <v>6450000</v>
       </c>
       <c r="J11">
         <v>2000</v>
@@ -1028,10 +995,10 @@
         <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D12" t="s">
         <v>18</v>
@@ -1040,16 +1007,16 @@
         <v>18</v>
       </c>
       <c r="F12" t="s">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="G12" t="s">
-        <v>73</v>
+        <v>27</v>
       </c>
       <c r="H12">
-        <v>13300</v>
+        <v>9500</v>
       </c>
       <c r="I12">
-        <v>6650000</v>
+        <v>4750000</v>
       </c>
       <c r="J12">
         <v>2000</v>
@@ -1063,34 +1030,34 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C13" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F13" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="G13" t="s">
-        <v>71</v>
+        <v>22</v>
       </c>
       <c r="H13">
-        <v>12900</v>
+        <v>56000</v>
       </c>
       <c r="I13">
-        <v>6450000</v>
+        <v>1400000</v>
       </c>
       <c r="J13">
-        <v>2000</v>
+        <v>40000</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1107,66 +1074,66 @@
         <v>31</v>
       </c>
       <c r="C14" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D14" t="s">
-        <v>58</v>
+        <v>19</v>
       </c>
       <c r="E14" t="s">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="F14" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="G14" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="H14">
-        <v>18556.5</v>
+        <v>16800</v>
       </c>
       <c r="I14">
-        <v>8900000</v>
+        <v>1200000</v>
       </c>
       <c r="J14">
-        <v>83400</v>
+        <v>14000</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>2.5</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D15" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E15" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F15" t="s">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="G15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H15">
-        <v>56000</v>
+        <v>8000</v>
       </c>
       <c r="I15">
-        <v>1400000</v>
+        <v>4000000</v>
       </c>
       <c r="J15">
-        <v>40000</v>
+        <v>2000</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1177,40 +1144,40 @@
     </row>
     <row r="16" spans="1:12">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="C16" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="D16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E16" t="s">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="F16" t="s">
-        <v>66</v>
+        <v>27</v>
       </c>
       <c r="G16" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="H16">
-        <v>16800</v>
+        <v>21850</v>
       </c>
       <c r="I16">
-        <v>1200000</v>
+        <v>2000000</v>
       </c>
       <c r="J16">
-        <v>14000</v>
+        <v>11500</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -1218,416 +1185,150 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D17" t="s">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="E17" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="F17" t="s">
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="G17" t="s">
-        <v>72</v>
+        <v>27</v>
       </c>
       <c r="H17">
-        <v>74226</v>
+        <v>22100</v>
       </c>
       <c r="I17">
-        <v>8900000</v>
+        <v>1300000</v>
       </c>
       <c r="J17">
-        <v>83400</v>
+        <v>17000</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:12">
       <c r="A18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C18" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" t="s">
+        <v>20</v>
+      </c>
+      <c r="F18" t="s">
         <v>58</v>
       </c>
-      <c r="E18" t="s">
-        <v>60</v>
-      </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>63</v>
       </c>
-      <c r="G18" t="s">
-        <v>72</v>
-      </c>
       <c r="H18">
-        <v>170719.8</v>
+        <v>12500</v>
       </c>
       <c r="I18">
-        <v>8900000</v>
+        <v>6250000</v>
       </c>
       <c r="J18">
-        <v>83400</v>
+        <v>2000</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>23</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C19" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D19" t="s">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="E19" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="F19" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="G19" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="H19">
-        <v>170719.8</v>
+        <v>23800</v>
       </c>
       <c r="I19">
-        <v>8900000</v>
+        <v>3400000</v>
       </c>
       <c r="J19">
-        <v>83400</v>
+        <v>7000</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>23</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="D20" t="s">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="E20" t="s">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="F20" t="s">
-        <v>63</v>
+        <v>22</v>
       </c>
       <c r="G20" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="H20">
-        <v>74226</v>
+        <v>14000</v>
       </c>
       <c r="I20">
-        <v>8900000</v>
+        <v>7000000</v>
       </c>
       <c r="J20">
-        <v>83400</v>
+        <v>2000</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
-      <c r="A21" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" t="s">
-        <v>36</v>
-      </c>
-      <c r="C21" t="s">
-        <v>52</v>
-      </c>
-      <c r="D21" t="s">
-        <v>24</v>
-      </c>
-      <c r="E21" t="s">
-        <v>24</v>
-      </c>
-      <c r="F21" t="s">
-        <v>67</v>
-      </c>
-      <c r="G21" t="s">
-        <v>74</v>
-      </c>
-      <c r="H21">
-        <v>23800</v>
-      </c>
-      <c r="I21">
-        <v>3400000</v>
-      </c>
-      <c r="J21">
-        <v>7000</v>
-      </c>
-      <c r="K21">
-        <v>0</v>
-      </c>
-      <c r="L21">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
-      <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" t="s">
-        <v>28</v>
-      </c>
-      <c r="C22" t="s">
-        <v>53</v>
-      </c>
-      <c r="D22" t="s">
-        <v>24</v>
-      </c>
-      <c r="E22" t="s">
-        <v>24</v>
-      </c>
-      <c r="F22" t="s">
-        <v>33</v>
-      </c>
-      <c r="G22" t="s">
-        <v>61</v>
-      </c>
-      <c r="H22">
-        <v>8000</v>
-      </c>
-      <c r="I22">
-        <v>4000000</v>
-      </c>
-      <c r="J22">
-        <v>2000</v>
-      </c>
-      <c r="K22">
-        <v>0</v>
-      </c>
-      <c r="L22">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" t="s">
-        <v>26</v>
-      </c>
-      <c r="C23" t="s">
-        <v>39</v>
-      </c>
-      <c r="D23" t="s">
-        <v>24</v>
-      </c>
-      <c r="E23" t="s">
-        <v>59</v>
-      </c>
-      <c r="F23" t="s">
-        <v>61</v>
-      </c>
-      <c r="G23" t="s">
-        <v>70</v>
-      </c>
-      <c r="H23">
-        <v>21850</v>
-      </c>
-      <c r="I23">
-        <v>2000000</v>
-      </c>
-      <c r="J23">
-        <v>11500</v>
-      </c>
-      <c r="K23">
-        <v>0</v>
-      </c>
-      <c r="L23">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>37</v>
-      </c>
-      <c r="C24" t="s">
-        <v>54</v>
-      </c>
-      <c r="D24" t="s">
-        <v>24</v>
-      </c>
-      <c r="E24" t="s">
-        <v>24</v>
-      </c>
-      <c r="F24" t="s">
-        <v>68</v>
-      </c>
-      <c r="G24" t="s">
-        <v>75</v>
-      </c>
-      <c r="H24">
-        <v>12500</v>
-      </c>
-      <c r="I24">
-        <v>6250000</v>
-      </c>
-      <c r="J24">
-        <v>2000</v>
-      </c>
-      <c r="K24">
-        <v>0</v>
-      </c>
-      <c r="L24">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>28</v>
-      </c>
-      <c r="C25" t="s">
-        <v>55</v>
-      </c>
-      <c r="D25" t="s">
-        <v>24</v>
-      </c>
-      <c r="E25" t="s">
-        <v>24</v>
-      </c>
-      <c r="F25" t="s">
-        <v>33</v>
-      </c>
-      <c r="G25" t="s">
-        <v>61</v>
-      </c>
-      <c r="H25">
-        <v>22100</v>
-      </c>
-      <c r="I25">
-        <v>1300000</v>
-      </c>
-      <c r="J25">
-        <v>17000</v>
-      </c>
-      <c r="K25">
-        <v>0</v>
-      </c>
-      <c r="L25">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>38</v>
-      </c>
-      <c r="C26" t="s">
-        <v>56</v>
-      </c>
-      <c r="D26" t="s">
-        <v>24</v>
-      </c>
-      <c r="E26" t="s">
-        <v>24</v>
-      </c>
-      <c r="F26" t="s">
-        <v>69</v>
-      </c>
-      <c r="G26" t="s">
-        <v>29</v>
-      </c>
-      <c r="H26">
-        <v>27000</v>
-      </c>
-      <c r="I26">
-        <v>1500000</v>
-      </c>
-      <c r="J26">
-        <v>18000</v>
-      </c>
-      <c r="K26">
-        <v>0</v>
-      </c>
-      <c r="L26">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12">
-      <c r="A27" t="s">
-        <v>25</v>
-      </c>
-      <c r="B27" t="s">
-        <v>30</v>
-      </c>
-      <c r="C27" t="s">
-        <v>57</v>
-      </c>
-      <c r="D27" t="s">
-        <v>25</v>
-      </c>
-      <c r="E27" t="s">
-        <v>25</v>
-      </c>
-      <c r="F27" t="s">
-        <v>26</v>
-      </c>
-      <c r="G27" t="s">
-        <v>71</v>
-      </c>
-      <c r="H27">
-        <v>14000</v>
-      </c>
-      <c r="I27">
-        <v>7000000</v>
-      </c>
-      <c r="J27">
-        <v>2000</v>
-      </c>
-      <c r="K27">
-        <v>0</v>
-      </c>
-      <c r="L27">
         <v>100</v>
       </c>
     </row>

--- a/datasets/form3.xlsx
+++ b/datasets/form3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="69">
   <si>
     <t>인수기관</t>
   </si>
@@ -76,6 +76,9 @@
     <t>삼성</t>
   </si>
   <si>
+    <t>신한</t>
+  </si>
+  <si>
     <t>한국</t>
   </si>
   <si>
@@ -100,18 +103,18 @@
     <t>2024-06-19</t>
   </si>
   <si>
+    <t>2024-06-13</t>
+  </si>
+  <si>
     <t>2024-05-20</t>
   </si>
   <si>
-    <t>2024-06-13</t>
+    <t>2024-05-13</t>
   </si>
   <si>
     <t>2024-06-03</t>
   </si>
   <si>
-    <t>2024-05-13</t>
-  </si>
-  <si>
     <t>2024-06-17</t>
   </si>
   <si>
@@ -142,36 +145,42 @@
     <t>라메디텍</t>
   </si>
   <si>
+    <t>미래에셋비전스팩6호</t>
+  </si>
+  <si>
     <t>미래에셋비전스팩4호</t>
   </si>
   <si>
-    <t>미래에셋비전스팩6호</t>
-  </si>
-  <si>
     <t>미래에셋비전스팩5호</t>
   </si>
   <si>
+    <t>노브랜드</t>
+  </si>
+  <si>
     <t>그리드위즈</t>
   </si>
   <si>
-    <t>노브랜드</t>
+    <t>신한글로벌액티브리츠</t>
+  </si>
+  <si>
+    <t>씨어스테크놀로지</t>
+  </si>
+  <si>
+    <t>한국제15호스팩</t>
+  </si>
+  <si>
+    <t>하이젠알앤엠</t>
   </si>
   <si>
     <t>한국제14호스팩</t>
   </si>
   <si>
-    <t>씨어스테크놀로지</t>
-  </si>
-  <si>
-    <t>한국제15호스팩</t>
-  </si>
-  <si>
-    <t>하이젠알앤엠</t>
-  </si>
-  <si>
     <t>에이치엠씨제7호스팩</t>
   </si>
   <si>
+    <t>신한, 한국</t>
+  </si>
+  <si>
     <t>한국, BNK</t>
   </si>
   <si>
@@ -184,12 +193,12 @@
     <t>2024-05-23</t>
   </si>
   <si>
+    <t>2024-05-17</t>
+  </si>
+  <si>
     <t>2024-06-07</t>
   </si>
   <si>
-    <t>2024-05-17</t>
-  </si>
-  <si>
     <t>2024-06-20</t>
   </si>
   <si>
@@ -203,6 +212,9 @@
   </si>
   <si>
     <t>2024-05-29</t>
+  </si>
+  <si>
+    <t>2024-07-01</t>
   </si>
   <si>
     <t>2024-06-26</t>
@@ -566,7 +578,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L20"/>
+  <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -615,22 +627,22 @@
         <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="H2">
         <v>1150</v>
@@ -653,10 +665,10 @@
         <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D3" t="s">
         <v>13</v>
@@ -665,10 +677,10 @@
         <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H3">
         <v>10000</v>
@@ -691,10 +703,10 @@
         <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D4" t="s">
         <v>14</v>
@@ -706,7 +718,7 @@
         <v>29</v>
       </c>
       <c r="G4" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="H4">
         <v>48000</v>
@@ -729,10 +741,10 @@
         <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D5" t="s">
         <v>15</v>
@@ -741,10 +753,10 @@
         <v>15</v>
       </c>
       <c r="F5" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H5">
         <v>10000</v>
@@ -767,10 +779,10 @@
         <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D6" t="s">
         <v>15</v>
@@ -779,10 +791,10 @@
         <v>15</v>
       </c>
       <c r="F6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G6" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="H6">
         <v>12000</v>
@@ -805,10 +817,10 @@
         <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D7" t="s">
         <v>16</v>
@@ -817,10 +829,10 @@
         <v>16</v>
       </c>
       <c r="F7" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="G7" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="H7">
         <v>43200</v>
@@ -843,10 +855,10 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D8" t="s">
         <v>16</v>
@@ -855,10 +867,10 @@
         <v>16</v>
       </c>
       <c r="F8" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G8" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H8">
         <v>39400</v>
@@ -881,10 +893,10 @@
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D9" t="s">
         <v>17</v>
@@ -893,10 +905,10 @@
         <v>17</v>
       </c>
       <c r="F9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H9">
         <v>20768</v>
@@ -919,10 +931,10 @@
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D10" t="s">
         <v>18</v>
@@ -931,16 +943,16 @@
         <v>18</v>
       </c>
       <c r="F10" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="G10" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="H10">
-        <v>13300</v>
+        <v>12900</v>
       </c>
       <c r="I10">
-        <v>6650000</v>
+        <v>6450000</v>
       </c>
       <c r="J10">
         <v>2000</v>
@@ -957,10 +969,10 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D11" t="s">
         <v>18</v>
@@ -969,16 +981,16 @@
         <v>18</v>
       </c>
       <c r="F11" t="s">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="G11" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="H11">
-        <v>12900</v>
+        <v>13300</v>
       </c>
       <c r="I11">
-        <v>6450000</v>
+        <v>6650000</v>
       </c>
       <c r="J11">
         <v>2000</v>
@@ -995,10 +1007,10 @@
         <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D12" t="s">
         <v>18</v>
@@ -1010,7 +1022,7 @@
         <v>29</v>
       </c>
       <c r="G12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H12">
         <v>9500</v>
@@ -1033,10 +1045,10 @@
         <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D13" t="s">
         <v>19</v>
@@ -1045,19 +1057,19 @@
         <v>19</v>
       </c>
       <c r="F13" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="G13" t="s">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="H13">
-        <v>56000</v>
+        <v>16800</v>
       </c>
       <c r="I13">
-        <v>1400000</v>
+        <v>1200000</v>
       </c>
       <c r="J13">
-        <v>40000</v>
+        <v>14000</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1071,10 +1083,10 @@
         <v>19</v>
       </c>
       <c r="B14" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D14" t="s">
         <v>19</v>
@@ -1083,19 +1095,19 @@
         <v>19</v>
       </c>
       <c r="F14" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G14" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="H14">
-        <v>16800</v>
+        <v>56000</v>
       </c>
       <c r="I14">
-        <v>1200000</v>
+        <v>1400000</v>
       </c>
       <c r="J14">
-        <v>14000</v>
+        <v>40000</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1109,136 +1121,136 @@
         <v>20</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D15" t="s">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="E15" t="s">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="F15" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G15" t="s">
-        <v>27</v>
+        <v>66</v>
       </c>
       <c r="H15">
-        <v>8000</v>
+        <v>35000.001</v>
       </c>
       <c r="I15">
-        <v>4000000</v>
+        <v>23333334</v>
       </c>
       <c r="J15">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="D16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E16" t="s">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="F16" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G16" t="s">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="H16">
-        <v>21850</v>
+        <v>22100</v>
       </c>
       <c r="I16">
-        <v>2000000</v>
+        <v>1300000</v>
       </c>
       <c r="J16">
-        <v>11500</v>
+        <v>17000</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>95</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:12">
       <c r="A17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="D17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E17" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="F17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G17" t="s">
-        <v>27</v>
+        <v>63</v>
       </c>
       <c r="H17">
-        <v>22100</v>
+        <v>21850</v>
       </c>
       <c r="I17">
-        <v>1300000</v>
+        <v>2000000</v>
       </c>
       <c r="J17">
-        <v>17000</v>
+        <v>11500</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18" spans="1:12">
       <c r="A18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C18" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F18" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G18" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="H18">
         <v>12500</v>
@@ -1258,25 +1270,25 @@
     </row>
     <row r="19" spans="1:12">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C19" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F19" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="G19" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="H19">
         <v>23800</v>
@@ -1299,10 +1311,10 @@
         <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D20" t="s">
         <v>21</v>
@@ -1311,16 +1323,16 @@
         <v>21</v>
       </c>
       <c r="F20" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="G20" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="H20">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="I20">
-        <v>7000000</v>
+        <v>4000000</v>
       </c>
       <c r="J20">
         <v>2000</v>
@@ -1329,6 +1341,82 @@
         <v>0</v>
       </c>
       <c r="L20">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" t="s">
+        <v>54</v>
+      </c>
+      <c r="E21" t="s">
+        <v>54</v>
+      </c>
+      <c r="F21" t="s">
+        <v>34</v>
+      </c>
+      <c r="G21" t="s">
+        <v>66</v>
+      </c>
+      <c r="H21">
+        <v>35000.001</v>
+      </c>
+      <c r="I21">
+        <v>23333334</v>
+      </c>
+      <c r="J21">
+        <v>3000</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" t="s">
+        <v>53</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22" t="s">
+        <v>22</v>
+      </c>
+      <c r="F22" t="s">
+        <v>23</v>
+      </c>
+      <c r="G22" t="s">
+        <v>57</v>
+      </c>
+      <c r="H22">
+        <v>14000</v>
+      </c>
+      <c r="I22">
+        <v>7000000</v>
+      </c>
+      <c r="J22">
+        <v>2000</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
         <v>100</v>
       </c>
     </row>

--- a/datasets/form3.xlsx
+++ b/datasets/form3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="72">
   <si>
     <t>인수기관</t>
   </si>
@@ -103,18 +103,21 @@
     <t>2024-06-19</t>
   </si>
   <si>
+    <t>2024-06-20</t>
+  </si>
+  <si>
+    <t>2024-05-20</t>
+  </si>
+  <si>
     <t>2024-06-13</t>
   </si>
   <si>
-    <t>2024-05-20</t>
+    <t>2024-06-03</t>
   </si>
   <si>
     <t>2024-05-13</t>
   </si>
   <si>
-    <t>2024-06-03</t>
-  </si>
-  <si>
     <t>2024-06-17</t>
   </si>
   <si>
@@ -136,30 +139,33 @@
     <t>KB제29호스팩</t>
   </si>
   <si>
+    <t>아이씨티케이</t>
+  </si>
+  <si>
     <t>에이치브이엠</t>
   </si>
   <si>
-    <t>아이씨티케이</t>
-  </si>
-  <si>
     <t>라메디텍</t>
   </si>
   <si>
+    <t>이노스페이스</t>
+  </si>
+  <si>
+    <t>미래에셋비전스팩4호</t>
+  </si>
+  <si>
+    <t>미래에셋비전스팩5호</t>
+  </si>
+  <si>
     <t>미래에셋비전스팩6호</t>
   </si>
   <si>
-    <t>미래에셋비전스팩4호</t>
-  </si>
-  <si>
-    <t>미래에셋비전스팩5호</t>
+    <t>그리드위즈</t>
   </si>
   <si>
     <t>노브랜드</t>
   </si>
   <si>
-    <t>그리드위즈</t>
-  </si>
-  <si>
     <t>신한글로벌액티브리츠</t>
   </si>
   <si>
@@ -184,31 +190,34 @@
     <t>한국, BNK</t>
   </si>
   <si>
+    <t>미래, 신한</t>
+  </si>
+  <si>
     <t>2024-05-10</t>
   </si>
   <si>
     <t>2024-06-24</t>
   </si>
   <si>
+    <t>2024-06-25</t>
+  </si>
+  <si>
     <t>2024-05-23</t>
   </si>
   <si>
+    <t>2024-06-07</t>
+  </si>
+  <si>
     <t>2024-05-17</t>
   </si>
   <si>
-    <t>2024-06-07</t>
-  </si>
-  <si>
-    <t>2024-06-20</t>
-  </si>
-  <si>
     <t>2024-06-21</t>
   </si>
   <si>
-    <t>2024-06-25</t>
-  </si>
-  <si>
     <t>2024-06-28</t>
+  </si>
+  <si>
+    <t>2024-07-02</t>
   </si>
   <si>
     <t>2024-05-29</t>
@@ -578,7 +587,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L22"/>
+  <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -630,19 +639,19 @@
         <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D2" t="s">
         <v>21</v>
       </c>
       <c r="E2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F2" t="s">
         <v>28</v>
       </c>
       <c r="G2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H2">
         <v>1150</v>
@@ -668,7 +677,7 @@
         <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D3" t="s">
         <v>13</v>
@@ -680,7 +689,7 @@
         <v>27</v>
       </c>
       <c r="G3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H3">
         <v>10000</v>
@@ -706,7 +715,7 @@
         <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D4" t="s">
         <v>14</v>
@@ -715,10 +724,10 @@
         <v>14</v>
       </c>
       <c r="F4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="H4">
         <v>48000</v>
@@ -744,7 +753,7 @@
         <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D5" t="s">
         <v>15</v>
@@ -753,10 +762,10 @@
         <v>15</v>
       </c>
       <c r="F5" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="G5" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="H5">
         <v>10000</v>
@@ -782,7 +791,7 @@
         <v>27</v>
       </c>
       <c r="C6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D6" t="s">
         <v>15</v>
@@ -794,7 +803,7 @@
         <v>23</v>
       </c>
       <c r="G6" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="H6">
         <v>12000</v>
@@ -817,10 +826,10 @@
         <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D7" t="s">
         <v>16</v>
@@ -829,19 +838,19 @@
         <v>16</v>
       </c>
       <c r="F7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G7" t="s">
         <v>64</v>
       </c>
       <c r="H7">
-        <v>43200</v>
+        <v>39400</v>
       </c>
       <c r="I7">
-        <v>2400000</v>
+        <v>1970000</v>
       </c>
       <c r="J7">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -855,10 +864,10 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D8" t="s">
         <v>16</v>
@@ -867,19 +876,19 @@
         <v>16</v>
       </c>
       <c r="F8" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="G8" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="H8">
-        <v>39400</v>
+        <v>43200</v>
       </c>
       <c r="I8">
-        <v>1970000</v>
+        <v>2400000</v>
       </c>
       <c r="J8">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -896,7 +905,7 @@
         <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D9" t="s">
         <v>17</v>
@@ -908,7 +917,7 @@
         <v>27</v>
       </c>
       <c r="G9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H9">
         <v>20768</v>
@@ -934,34 +943,34 @@
         <v>29</v>
       </c>
       <c r="C10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D10" t="s">
         <v>18</v>
       </c>
       <c r="E10" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="F10" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="G10" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="H10">
-        <v>12900</v>
+        <v>54133.66</v>
       </c>
       <c r="I10">
-        <v>6450000</v>
+        <v>1330000</v>
       </c>
       <c r="J10">
-        <v>2000</v>
+        <v>43300</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -972,7 +981,7 @@
         <v>30</v>
       </c>
       <c r="C11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D11" t="s">
         <v>18</v>
@@ -981,10 +990,10 @@
         <v>18</v>
       </c>
       <c r="F11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G11" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="H11">
         <v>13300</v>
@@ -1010,7 +1019,7 @@
         <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D12" t="s">
         <v>18</v>
@@ -1019,7 +1028,7 @@
         <v>18</v>
       </c>
       <c r="F12" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G12" t="s">
         <v>28</v>
@@ -1042,34 +1051,34 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B13" t="s">
         <v>31</v>
       </c>
       <c r="C13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F13" t="s">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="G13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H13">
-        <v>16800</v>
+        <v>12900</v>
       </c>
       <c r="I13">
-        <v>1200000</v>
+        <v>6450000</v>
       </c>
       <c r="J13">
-        <v>14000</v>
+        <v>2000</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1086,7 +1095,7 @@
         <v>32</v>
       </c>
       <c r="C14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D14" t="s">
         <v>19</v>
@@ -1095,7 +1104,7 @@
         <v>19</v>
       </c>
       <c r="F14" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G14" t="s">
         <v>23</v>
@@ -1118,116 +1127,116 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D15" t="s">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="E15" t="s">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="F15" t="s">
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="G15" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="H15">
-        <v>35000.001</v>
+        <v>16800</v>
       </c>
       <c r="I15">
-        <v>23333334</v>
+        <v>1200000</v>
       </c>
       <c r="J15">
-        <v>3000</v>
+        <v>14000</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D16" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="E16" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="F16" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G16" t="s">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="H16">
-        <v>22100</v>
+        <v>35000.001</v>
       </c>
       <c r="I16">
-        <v>1300000</v>
+        <v>23333334</v>
       </c>
       <c r="J16">
-        <v>17000</v>
+        <v>3000</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:12">
       <c r="A17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C17" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="D17" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E17" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F17" t="s">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="G17" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="H17">
-        <v>21850</v>
+        <v>3455.34</v>
       </c>
       <c r="I17">
-        <v>2000000</v>
+        <v>1330000</v>
       </c>
       <c r="J17">
-        <v>11500</v>
+        <v>43300</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>95</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1235,10 +1244,10 @@
         <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D18" t="s">
         <v>21</v>
@@ -1247,19 +1256,19 @@
         <v>21</v>
       </c>
       <c r="F18" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="G18" t="s">
-        <v>67</v>
+        <v>28</v>
       </c>
       <c r="H18">
-        <v>12500</v>
+        <v>22100</v>
       </c>
       <c r="I18">
-        <v>6250000</v>
+        <v>1300000</v>
       </c>
       <c r="J18">
-        <v>2000</v>
+        <v>17000</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1273,37 +1282,37 @@
         <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="D19" t="s">
         <v>21</v>
       </c>
       <c r="E19" t="s">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="F19" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="G19" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="H19">
-        <v>23800</v>
+        <v>21850</v>
       </c>
       <c r="I19">
-        <v>3400000</v>
+        <v>2000000</v>
       </c>
       <c r="J19">
-        <v>7000</v>
+        <v>11500</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1311,7 +1320,7 @@
         <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="C20" t="s">
         <v>52</v>
@@ -1326,13 +1335,13 @@
         <v>29</v>
       </c>
       <c r="G20" t="s">
-        <v>28</v>
+        <v>70</v>
       </c>
       <c r="H20">
-        <v>8000</v>
+        <v>12500</v>
       </c>
       <c r="I20">
-        <v>4000000</v>
+        <v>6250000</v>
       </c>
       <c r="J20">
         <v>2000</v>
@@ -1349,66 +1358,66 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C21" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D21" t="s">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="E21" t="s">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="F21" t="s">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="G21" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="H21">
-        <v>35000.001</v>
+        <v>23800</v>
       </c>
       <c r="I21">
-        <v>23333334</v>
+        <v>3400000</v>
       </c>
       <c r="J21">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:12">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F22" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="G22" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="H22">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="I22">
-        <v>7000000</v>
+        <v>4000000</v>
       </c>
       <c r="J22">
         <v>2000</v>
@@ -1417,6 +1426,82 @@
         <v>0</v>
       </c>
       <c r="L22">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" t="s">
+        <v>50</v>
+      </c>
+      <c r="D23" t="s">
+        <v>56</v>
+      </c>
+      <c r="E23" t="s">
+        <v>56</v>
+      </c>
+      <c r="F23" t="s">
+        <v>35</v>
+      </c>
+      <c r="G23" t="s">
+        <v>69</v>
+      </c>
+      <c r="H23">
+        <v>35000.001</v>
+      </c>
+      <c r="I23">
+        <v>23333334</v>
+      </c>
+      <c r="J23">
+        <v>3000</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" t="s">
+        <v>55</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F24" t="s">
+        <v>23</v>
+      </c>
+      <c r="G24" t="s">
+        <v>60</v>
+      </c>
+      <c r="H24">
+        <v>14000</v>
+      </c>
+      <c r="I24">
+        <v>7000000</v>
+      </c>
+      <c r="J24">
+        <v>2000</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
         <v>100</v>
       </c>
     </row>

--- a/datasets/form3.xlsx
+++ b/datasets/form3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="74">
   <si>
     <t>인수기관</t>
   </si>
@@ -103,21 +103,24 @@
     <t>2024-06-19</t>
   </si>
   <si>
+    <t>2024-05-20</t>
+  </si>
+  <si>
+    <t>2024-06-13</t>
+  </si>
+  <si>
     <t>2024-06-20</t>
   </si>
   <si>
-    <t>2024-05-20</t>
-  </si>
-  <si>
-    <t>2024-06-13</t>
-  </si>
-  <si>
     <t>2024-06-03</t>
   </si>
   <si>
     <t>2024-05-13</t>
   </si>
   <si>
+    <t>2024-06-24</t>
+  </si>
+  <si>
     <t>2024-06-17</t>
   </si>
   <si>
@@ -139,48 +142,51 @@
     <t>KB제29호스팩</t>
   </si>
   <si>
+    <t>에이치브이엠</t>
+  </si>
+  <si>
     <t>아이씨티케이</t>
   </si>
   <si>
-    <t>에이치브이엠</t>
-  </si>
-  <si>
     <t>라메디텍</t>
   </si>
   <si>
+    <t>미래에셋비전스팩5호</t>
+  </si>
+  <si>
+    <t>미래에셋비전스팩4호</t>
+  </si>
+  <si>
+    <t>미래에셋비전스팩6호</t>
+  </si>
+  <si>
     <t>이노스페이스</t>
   </si>
   <si>
-    <t>미래에셋비전스팩4호</t>
-  </si>
-  <si>
-    <t>미래에셋비전스팩5호</t>
-  </si>
-  <si>
-    <t>미래에셋비전스팩6호</t>
-  </si>
-  <si>
     <t>그리드위즈</t>
   </si>
   <si>
     <t>노브랜드</t>
   </si>
   <si>
+    <t>하스</t>
+  </si>
+  <si>
     <t>신한글로벌액티브리츠</t>
   </si>
   <si>
+    <t>한국제14호스팩</t>
+  </si>
+  <si>
+    <t>한국제15호스팩</t>
+  </si>
+  <si>
+    <t>하이젠알앤엠</t>
+  </si>
+  <si>
     <t>씨어스테크놀로지</t>
   </si>
   <si>
-    <t>한국제15호스팩</t>
-  </si>
-  <si>
-    <t>하이젠알앤엠</t>
-  </si>
-  <si>
-    <t>한국제14호스팩</t>
-  </si>
-  <si>
     <t>에이치엠씨제7호스팩</t>
   </si>
   <si>
@@ -196,40 +202,40 @@
     <t>2024-05-10</t>
   </si>
   <si>
-    <t>2024-06-24</t>
+    <t>2024-05-23</t>
   </si>
   <si>
     <t>2024-06-25</t>
   </si>
   <si>
-    <t>2024-05-23</t>
-  </si>
-  <si>
     <t>2024-06-07</t>
   </si>
   <si>
     <t>2024-05-17</t>
   </si>
   <si>
+    <t>2024-06-27</t>
+  </si>
+  <si>
     <t>2024-06-21</t>
   </si>
   <si>
     <t>2024-06-28</t>
   </si>
   <si>
+    <t>2024-05-29</t>
+  </si>
+  <si>
     <t>2024-07-02</t>
   </si>
   <si>
-    <t>2024-05-29</t>
+    <t>2024-07-03</t>
   </si>
   <si>
     <t>2024-07-01</t>
   </si>
   <si>
     <t>2024-06-26</t>
-  </si>
-  <si>
-    <t>2024-06-27</t>
   </si>
 </sst>
 </file>
@@ -587,7 +593,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L24"/>
+  <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -639,19 +645,19 @@
         <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D2" t="s">
         <v>21</v>
       </c>
       <c r="E2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F2" t="s">
         <v>28</v>
       </c>
       <c r="G2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H2">
         <v>1150</v>
@@ -677,7 +683,7 @@
         <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D3" t="s">
         <v>13</v>
@@ -689,7 +695,7 @@
         <v>27</v>
       </c>
       <c r="G3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H3">
         <v>10000</v>
@@ -715,7 +721,7 @@
         <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D4" t="s">
         <v>14</v>
@@ -724,10 +730,10 @@
         <v>14</v>
       </c>
       <c r="F4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G4" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="H4">
         <v>48000</v>
@@ -753,7 +759,7 @@
         <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D5" t="s">
         <v>15</v>
@@ -762,10 +768,10 @@
         <v>15</v>
       </c>
       <c r="F5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H5">
         <v>10000</v>
@@ -791,7 +797,7 @@
         <v>27</v>
       </c>
       <c r="C6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D6" t="s">
         <v>15</v>
@@ -803,7 +809,7 @@
         <v>23</v>
       </c>
       <c r="G6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H6">
         <v>12000</v>
@@ -826,10 +832,10 @@
         <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D7" t="s">
         <v>16</v>
@@ -838,19 +844,19 @@
         <v>16</v>
       </c>
       <c r="F7" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="H7">
-        <v>39400</v>
+        <v>43200</v>
       </c>
       <c r="I7">
-        <v>1970000</v>
+        <v>2400000</v>
       </c>
       <c r="J7">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -864,10 +870,10 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D8" t="s">
         <v>16</v>
@@ -876,19 +882,19 @@
         <v>16</v>
       </c>
       <c r="F8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H8">
-        <v>43200</v>
+        <v>39400</v>
       </c>
       <c r="I8">
-        <v>2400000</v>
+        <v>1970000</v>
       </c>
       <c r="J8">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -905,7 +911,7 @@
         <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D9" t="s">
         <v>17</v>
@@ -917,7 +923,7 @@
         <v>27</v>
       </c>
       <c r="G9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H9">
         <v>20768</v>
@@ -940,37 +946,37 @@
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D10" t="s">
         <v>18</v>
       </c>
       <c r="E10" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="F10" t="s">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="G10" t="s">
-        <v>67</v>
+        <v>28</v>
       </c>
       <c r="H10">
-        <v>54133.66</v>
+        <v>9500</v>
       </c>
       <c r="I10">
-        <v>1330000</v>
+        <v>4750000</v>
       </c>
       <c r="J10">
-        <v>43300</v>
+        <v>2000</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>94</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -978,10 +984,10 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D11" t="s">
         <v>18</v>
@@ -993,7 +999,7 @@
         <v>62</v>
       </c>
       <c r="G11" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H11">
         <v>13300</v>
@@ -1016,10 +1022,10 @@
         <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D12" t="s">
         <v>18</v>
@@ -1028,16 +1034,16 @@
         <v>18</v>
       </c>
       <c r="F12" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G12" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="H12">
-        <v>9500</v>
+        <v>12900</v>
       </c>
       <c r="I12">
-        <v>4750000</v>
+        <v>6450000</v>
       </c>
       <c r="J12">
         <v>2000</v>
@@ -1057,34 +1063,34 @@
         <v>31</v>
       </c>
       <c r="C13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D13" t="s">
         <v>18</v>
       </c>
       <c r="E13" t="s">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="F13" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="G13" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="H13">
-        <v>12900</v>
+        <v>54133.66</v>
       </c>
       <c r="I13">
-        <v>6450000</v>
+        <v>1330000</v>
       </c>
       <c r="J13">
-        <v>2000</v>
+        <v>43300</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -1095,7 +1101,7 @@
         <v>32</v>
       </c>
       <c r="C14" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D14" t="s">
         <v>19</v>
@@ -1104,7 +1110,7 @@
         <v>19</v>
       </c>
       <c r="F14" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G14" t="s">
         <v>23</v>
@@ -1133,7 +1139,7 @@
         <v>33</v>
       </c>
       <c r="C15" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D15" t="s">
         <v>19</v>
@@ -1142,7 +1148,7 @@
         <v>19</v>
       </c>
       <c r="F15" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G15" t="s">
         <v>62</v>
@@ -1165,40 +1171,40 @@
     </row>
     <row r="16" spans="1:12">
       <c r="A16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C16" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D16" t="s">
-        <v>56</v>
+        <v>19</v>
       </c>
       <c r="E16" t="s">
-        <v>56</v>
+        <v>19</v>
       </c>
       <c r="F16" t="s">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="G16" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H16">
-        <v>35000.001</v>
+        <v>28960</v>
       </c>
       <c r="I16">
-        <v>23333334</v>
+        <v>1810000</v>
       </c>
       <c r="J16">
-        <v>3000</v>
+        <v>16000</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -1206,75 +1212,75 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C17" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="D17" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="E17" t="s">
         <v>58</v>
       </c>
       <c r="F17" t="s">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="G17" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="H17">
-        <v>3455.34</v>
+        <v>35000.001</v>
       </c>
       <c r="I17">
-        <v>1330000</v>
+        <v>23333334</v>
       </c>
       <c r="J17">
-        <v>43300</v>
+        <v>3000</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>6</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:12">
       <c r="A18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C18" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E18" t="s">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="F18" t="s">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="G18" t="s">
-        <v>28</v>
+        <v>70</v>
       </c>
       <c r="H18">
-        <v>22100</v>
+        <v>3455.34</v>
       </c>
       <c r="I18">
-        <v>1300000</v>
+        <v>1330000</v>
       </c>
       <c r="J18">
-        <v>17000</v>
+        <v>43300</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>100</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1282,37 +1288,37 @@
         <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="D19" t="s">
         <v>21</v>
       </c>
       <c r="E19" t="s">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="F19" t="s">
+        <v>30</v>
+      </c>
+      <c r="G19" t="s">
         <v>28</v>
       </c>
-      <c r="G19" t="s">
-        <v>61</v>
-      </c>
       <c r="H19">
-        <v>21850</v>
+        <v>8000</v>
       </c>
       <c r="I19">
-        <v>2000000</v>
+        <v>4000000</v>
       </c>
       <c r="J19">
-        <v>11500</v>
+        <v>2000</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>95</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1320,37 +1326,37 @@
         <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="C20" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="D20" t="s">
         <v>21</v>
       </c>
       <c r="E20" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="F20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G20" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="H20">
-        <v>12500</v>
+        <v>21850</v>
       </c>
       <c r="I20">
-        <v>6250000</v>
+        <v>2000000</v>
       </c>
       <c r="J20">
-        <v>2000</v>
+        <v>11500</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1361,7 +1367,7 @@
         <v>35</v>
       </c>
       <c r="C21" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
@@ -1370,19 +1376,19 @@
         <v>21</v>
       </c>
       <c r="F21" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="G21" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H21">
-        <v>23800</v>
+        <v>12500</v>
       </c>
       <c r="I21">
-        <v>3400000</v>
+        <v>6250000</v>
       </c>
       <c r="J21">
-        <v>7000</v>
+        <v>2000</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1396,10 +1402,10 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="C22" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D22" t="s">
         <v>21</v>
@@ -1408,19 +1414,19 @@
         <v>21</v>
       </c>
       <c r="F22" t="s">
-        <v>31</v>
+        <v>67</v>
       </c>
       <c r="G22" t="s">
-        <v>28</v>
+        <v>66</v>
       </c>
       <c r="H22">
-        <v>8000</v>
+        <v>23800</v>
       </c>
       <c r="I22">
-        <v>4000000</v>
+        <v>3400000</v>
       </c>
       <c r="J22">
-        <v>2000</v>
+        <v>7000</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1434,74 +1440,112 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="D23" t="s">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="E23" t="s">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="F23" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G23" t="s">
-        <v>69</v>
+        <v>28</v>
       </c>
       <c r="H23">
-        <v>35000.001</v>
+        <v>22100</v>
       </c>
       <c r="I23">
-        <v>23333334</v>
+        <v>1300000</v>
       </c>
       <c r="J23">
-        <v>3000</v>
+        <v>17000</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="24" spans="1:12">
       <c r="A24" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" t="s">
+        <v>52</v>
+      </c>
+      <c r="D24" t="s">
+        <v>58</v>
+      </c>
+      <c r="E24" t="s">
+        <v>58</v>
+      </c>
+      <c r="F24" t="s">
+        <v>36</v>
+      </c>
+      <c r="G24" t="s">
+        <v>72</v>
+      </c>
+      <c r="H24">
+        <v>35000.001</v>
+      </c>
+      <c r="I24">
+        <v>23333334</v>
+      </c>
+      <c r="J24">
+        <v>3000</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" t="s">
         <v>22</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B25" t="s">
         <v>27</v>
       </c>
-      <c r="C24" t="s">
-        <v>55</v>
-      </c>
-      <c r="D24" t="s">
+      <c r="C25" t="s">
+        <v>57</v>
+      </c>
+      <c r="D25" t="s">
         <v>22</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E25" t="s">
         <v>22</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F25" t="s">
         <v>23</v>
       </c>
-      <c r="G24" t="s">
-        <v>60</v>
-      </c>
-      <c r="H24">
+      <c r="G25" t="s">
+        <v>34</v>
+      </c>
+      <c r="H25">
         <v>14000</v>
       </c>
-      <c r="I24">
+      <c r="I25">
         <v>7000000</v>
       </c>
-      <c r="J24">
+      <c r="J25">
         <v>2000</v>
       </c>
-      <c r="K24">
-        <v>0</v>
-      </c>
-      <c r="L24">
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
         <v>100</v>
       </c>
     </row>

--- a/datasets/form3.xlsx
+++ b/datasets/form3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="70">
   <si>
     <t>인수기관</t>
   </si>
@@ -94,33 +94,30 @@
     <t>2024-06-10</t>
   </si>
   <si>
-    <t>2024-05-07</t>
-  </si>
-  <si>
     <t>2024-06-11</t>
   </si>
   <si>
     <t>2024-06-19</t>
   </si>
   <si>
+    <t>2024-06-20</t>
+  </si>
+  <si>
     <t>2024-05-20</t>
   </si>
   <si>
     <t>2024-06-13</t>
   </si>
   <si>
-    <t>2024-06-20</t>
+    <t>2024-06-24</t>
+  </si>
+  <si>
+    <t>2024-05-13</t>
   </si>
   <si>
     <t>2024-06-03</t>
   </si>
   <si>
-    <t>2024-05-13</t>
-  </si>
-  <si>
-    <t>2024-06-24</t>
-  </si>
-  <si>
     <t>2024-06-17</t>
   </si>
   <si>
@@ -136,42 +133,36 @@
     <t>한중엔시에스</t>
   </si>
   <si>
-    <t>KB제28호스팩</t>
-  </si>
-  <si>
     <t>KB제29호스팩</t>
   </si>
   <si>
     <t>에이치브이엠</t>
   </si>
   <si>
-    <t>아이씨티케이</t>
-  </si>
-  <si>
     <t>라메디텍</t>
   </si>
   <si>
+    <t>이노스페이스</t>
+  </si>
+  <si>
+    <t>미래에셋비전스팩4호</t>
+  </si>
+  <si>
+    <t>미래에셋비전스팩6호</t>
+  </si>
+  <si>
     <t>미래에셋비전스팩5호</t>
   </si>
   <si>
-    <t>미래에셋비전스팩4호</t>
-  </si>
-  <si>
-    <t>미래에셋비전스팩6호</t>
-  </si>
-  <si>
-    <t>이노스페이스</t>
+    <t>하스</t>
+  </si>
+  <si>
+    <t>노브랜드</t>
   </si>
   <si>
     <t>그리드위즈</t>
   </si>
   <si>
-    <t>노브랜드</t>
-  </si>
-  <si>
-    <t>하스</t>
-  </si>
-  <si>
     <t>신한글로벌액티브리츠</t>
   </si>
   <si>
@@ -199,34 +190,31 @@
     <t>미래, 신한</t>
   </si>
   <si>
-    <t>2024-05-10</t>
+    <t>2024-06-25</t>
   </si>
   <si>
     <t>2024-05-23</t>
   </si>
   <si>
-    <t>2024-06-25</t>
+    <t>2024-06-27</t>
+  </si>
+  <si>
+    <t>2024-05-17</t>
   </si>
   <si>
     <t>2024-06-07</t>
   </si>
   <si>
-    <t>2024-05-17</t>
-  </si>
-  <si>
-    <t>2024-06-27</t>
-  </si>
-  <si>
     <t>2024-06-21</t>
   </si>
   <si>
     <t>2024-06-28</t>
   </si>
   <si>
+    <t>2024-07-02</t>
+  </si>
+  <si>
     <t>2024-05-29</t>
-  </si>
-  <si>
-    <t>2024-07-02</t>
   </si>
   <si>
     <t>2024-07-03</t>
@@ -593,7 +581,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -645,19 +633,19 @@
         <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D2" t="s">
         <v>21</v>
       </c>
       <c r="E2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G2" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="H2">
         <v>1150</v>
@@ -683,7 +671,7 @@
         <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D3" t="s">
         <v>13</v>
@@ -692,10 +680,10 @@
         <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H3">
         <v>10000</v>
@@ -721,7 +709,7 @@
         <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D4" t="s">
         <v>14</v>
@@ -733,7 +721,7 @@
         <v>30</v>
       </c>
       <c r="G4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H4">
         <v>48000</v>
@@ -759,7 +747,7 @@
         <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D5" t="s">
         <v>15</v>
@@ -768,16 +756,16 @@
         <v>15</v>
       </c>
       <c r="F5" t="s">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="G5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H5">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="I5">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="J5">
         <v>2000</v>
@@ -791,34 +779,34 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
         <v>27</v>
       </c>
       <c r="C6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F6" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="G6" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="H6">
-        <v>12000</v>
+        <v>43200</v>
       </c>
       <c r="I6">
-        <v>6000000</v>
+        <v>2400000</v>
       </c>
       <c r="J6">
-        <v>2000</v>
+        <v>18000</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -829,34 +817,34 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" t="s">
         <v>34</v>
       </c>
-      <c r="G7" t="s">
-        <v>68</v>
-      </c>
       <c r="H7">
-        <v>43200</v>
+        <v>20768</v>
       </c>
       <c r="I7">
-        <v>2400000</v>
+        <v>1298000</v>
       </c>
       <c r="J7">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -867,72 +855,72 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E8" t="s">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="F8" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G8" t="s">
         <v>65</v>
       </c>
       <c r="H8">
-        <v>39400</v>
+        <v>54133.66</v>
       </c>
       <c r="I8">
-        <v>1970000</v>
+        <v>1330000</v>
       </c>
       <c r="J8">
-        <v>20000</v>
+        <v>43300</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F9" t="s">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="G9" t="s">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="H9">
-        <v>20768</v>
+        <v>13300</v>
       </c>
       <c r="I9">
-        <v>1298000</v>
+        <v>6650000</v>
       </c>
       <c r="J9">
-        <v>16000</v>
+        <v>2000</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -946,10 +934,10 @@
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D10" t="s">
         <v>18</v>
@@ -958,16 +946,16 @@
         <v>18</v>
       </c>
       <c r="F10" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G10" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="H10">
-        <v>9500</v>
+        <v>12900</v>
       </c>
       <c r="I10">
-        <v>4750000</v>
+        <v>6450000</v>
       </c>
       <c r="J10">
         <v>2000</v>
@@ -984,10 +972,10 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D11" t="s">
         <v>18</v>
@@ -996,16 +984,16 @@
         <v>18</v>
       </c>
       <c r="F11" t="s">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="G11" t="s">
-        <v>69</v>
+        <v>27</v>
       </c>
       <c r="H11">
-        <v>13300</v>
+        <v>9500</v>
       </c>
       <c r="I11">
-        <v>6650000</v>
+        <v>4750000</v>
       </c>
       <c r="J11">
         <v>2000</v>
@@ -1019,34 +1007,34 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F12" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="G12" t="s">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="H12">
-        <v>12900</v>
+        <v>28960</v>
       </c>
       <c r="I12">
-        <v>6450000</v>
+        <v>1810000</v>
       </c>
       <c r="J12">
-        <v>2000</v>
+        <v>16000</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -1057,40 +1045,40 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E13" t="s">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="F13" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G13" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="H13">
-        <v>54133.66</v>
+        <v>16800</v>
       </c>
       <c r="I13">
-        <v>1330000</v>
+        <v>1200000</v>
       </c>
       <c r="J13">
-        <v>43300</v>
+        <v>14000</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>94</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -1098,10 +1086,10 @@
         <v>19</v>
       </c>
       <c r="B14" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D14" t="s">
         <v>19</v>
@@ -1110,7 +1098,7 @@
         <v>19</v>
       </c>
       <c r="F14" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G14" t="s">
         <v>23</v>
@@ -1133,101 +1121,101 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B15" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C15" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="D15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E15" t="s">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="F15" t="s">
+        <v>58</v>
+      </c>
+      <c r="G15" t="s">
         <v>65</v>
       </c>
-      <c r="G15" t="s">
-        <v>62</v>
-      </c>
       <c r="H15">
-        <v>16800</v>
+        <v>3455.34</v>
       </c>
       <c r="I15">
-        <v>1200000</v>
+        <v>1330000</v>
       </c>
       <c r="J15">
-        <v>14000</v>
+        <v>43300</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>100</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C16" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D16" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="E16" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="F16" t="s">
-        <v>66</v>
+        <v>35</v>
       </c>
       <c r="G16" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H16">
-        <v>28960</v>
+        <v>35000.001</v>
       </c>
       <c r="I16">
-        <v>1810000</v>
+        <v>23333334</v>
       </c>
       <c r="J16">
-        <v>16000</v>
+        <v>3000</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:12">
       <c r="A17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B17" t="s">
         <v>30</v>
       </c>
       <c r="C17" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D17" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E17" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G17" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="H17">
         <v>35000.001</v>
@@ -1247,40 +1235,40 @@
     </row>
     <row r="18" spans="1:12">
       <c r="A18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D18" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E18" t="s">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="F18" t="s">
-        <v>63</v>
+        <v>30</v>
       </c>
       <c r="G18" t="s">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="H18">
-        <v>3455.34</v>
+        <v>8000</v>
       </c>
       <c r="I18">
-        <v>1330000</v>
+        <v>4000000</v>
       </c>
       <c r="J18">
-        <v>43300</v>
+        <v>2000</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>6</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1288,37 +1276,37 @@
         <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="D19" t="s">
         <v>21</v>
       </c>
       <c r="E19" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="F19" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G19" t="s">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="H19">
-        <v>8000</v>
+        <v>21850</v>
       </c>
       <c r="I19">
-        <v>4000000</v>
+        <v>2000000</v>
       </c>
       <c r="J19">
-        <v>2000</v>
+        <v>11500</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1326,37 +1314,37 @@
         <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="C20" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="D20" t="s">
         <v>21</v>
       </c>
       <c r="E20" t="s">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="F20" t="s">
         <v>28</v>
       </c>
       <c r="G20" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="H20">
-        <v>21850</v>
+        <v>12500</v>
       </c>
       <c r="I20">
-        <v>2000000</v>
+        <v>6250000</v>
       </c>
       <c r="J20">
-        <v>11500</v>
+        <v>2000</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>95</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1367,7 +1355,7 @@
         <v>35</v>
       </c>
       <c r="C21" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
@@ -1376,19 +1364,19 @@
         <v>21</v>
       </c>
       <c r="F21" t="s">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="G21" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="H21">
-        <v>12500</v>
+        <v>23800</v>
       </c>
       <c r="I21">
-        <v>6250000</v>
+        <v>3400000</v>
       </c>
       <c r="J21">
-        <v>2000</v>
+        <v>7000</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1402,10 +1390,10 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D22" t="s">
         <v>21</v>
@@ -1414,19 +1402,19 @@
         <v>21</v>
       </c>
       <c r="F22" t="s">
-        <v>67</v>
+        <v>30</v>
       </c>
       <c r="G22" t="s">
-        <v>66</v>
+        <v>27</v>
       </c>
       <c r="H22">
-        <v>23800</v>
+        <v>22100</v>
       </c>
       <c r="I22">
-        <v>3400000</v>
+        <v>1300000</v>
       </c>
       <c r="J22">
-        <v>7000</v>
+        <v>17000</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1437,115 +1425,39 @@
     </row>
     <row r="23" spans="1:12">
       <c r="A23" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D23" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F23" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="G23" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="H23">
-        <v>22100</v>
+        <v>14000</v>
       </c>
       <c r="I23">
-        <v>1300000</v>
+        <v>7000000</v>
       </c>
       <c r="J23">
-        <v>17000</v>
+        <v>2000</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
-      <c r="A24" t="s">
-        <v>21</v>
-      </c>
-      <c r="B24" t="s">
-        <v>30</v>
-      </c>
-      <c r="C24" t="s">
-        <v>52</v>
-      </c>
-      <c r="D24" t="s">
-        <v>58</v>
-      </c>
-      <c r="E24" t="s">
-        <v>58</v>
-      </c>
-      <c r="F24" t="s">
-        <v>36</v>
-      </c>
-      <c r="G24" t="s">
-        <v>72</v>
-      </c>
-      <c r="H24">
-        <v>35000.001</v>
-      </c>
-      <c r="I24">
-        <v>23333334</v>
-      </c>
-      <c r="J24">
-        <v>3000</v>
-      </c>
-      <c r="K24">
-        <v>0</v>
-      </c>
-      <c r="L24">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
-      <c r="A25" t="s">
-        <v>22</v>
-      </c>
-      <c r="B25" t="s">
-        <v>27</v>
-      </c>
-      <c r="C25" t="s">
-        <v>57</v>
-      </c>
-      <c r="D25" t="s">
-        <v>22</v>
-      </c>
-      <c r="E25" t="s">
-        <v>22</v>
-      </c>
-      <c r="F25" t="s">
-        <v>23</v>
-      </c>
-      <c r="G25" t="s">
-        <v>34</v>
-      </c>
-      <c r="H25">
-        <v>14000</v>
-      </c>
-      <c r="I25">
-        <v>7000000</v>
-      </c>
-      <c r="J25">
-        <v>2000</v>
-      </c>
-      <c r="K25">
-        <v>0</v>
-      </c>
-      <c r="L25">
         <v>100</v>
       </c>
     </row>

--- a/datasets/form3.xlsx
+++ b/datasets/form3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="76">
   <si>
     <t>인수기관</t>
   </si>
@@ -79,6 +79,9 @@
     <t>신한</t>
   </si>
   <si>
+    <t>제이피모간회사</t>
+  </si>
+  <si>
     <t>한국</t>
   </si>
   <si>
@@ -97,16 +100,22 @@
     <t>2024-06-11</t>
   </si>
   <si>
+    <t>2024-07-02</t>
+  </si>
+  <si>
     <t>2024-06-19</t>
   </si>
   <si>
+    <t>2024-05-20</t>
+  </si>
+  <si>
+    <t>2024-06-13</t>
+  </si>
+  <si>
     <t>2024-06-20</t>
   </si>
   <si>
-    <t>2024-05-20</t>
-  </si>
-  <si>
-    <t>2024-06-13</t>
+    <t>2024-06-03</t>
   </si>
   <si>
     <t>2024-06-24</t>
@@ -115,9 +124,6 @@
     <t>2024-05-13</t>
   </si>
   <si>
-    <t>2024-06-03</t>
-  </si>
-  <si>
     <t>2024-06-17</t>
   </si>
   <si>
@@ -136,33 +142,36 @@
     <t>KB제29호스팩</t>
   </si>
   <si>
+    <t>시프트업</t>
+  </si>
+  <si>
     <t>에이치브이엠</t>
   </si>
   <si>
     <t>라메디텍</t>
   </si>
   <si>
+    <t>미래에셋비전스팩4호</t>
+  </si>
+  <si>
+    <t>미래에셋비전스팩6호</t>
+  </si>
+  <si>
     <t>이노스페이스</t>
   </si>
   <si>
-    <t>미래에셋비전스팩4호</t>
-  </si>
-  <si>
-    <t>미래에셋비전스팩6호</t>
-  </si>
-  <si>
     <t>미래에셋비전스팩5호</t>
   </si>
   <si>
+    <t>그리드위즈</t>
+  </si>
+  <si>
     <t>하스</t>
   </si>
   <si>
     <t>노브랜드</t>
   </si>
   <si>
-    <t>그리드위즈</t>
-  </si>
-  <si>
     <t>신한글로벌액티브리츠</t>
   </si>
   <si>
@@ -181,19 +190,31 @@
     <t>에이치엠씨제7호스팩</t>
   </si>
   <si>
+    <t>한국, 제이피모간회사 서울지점, NH</t>
+  </si>
+  <si>
     <t>신한, 한국</t>
   </si>
   <si>
     <t>한국, BNK</t>
   </si>
   <si>
+    <t>한국, 제이피모간회사 서울지점, NH, 신한</t>
+  </si>
+  <si>
     <t>미래, 신한</t>
   </si>
   <si>
+    <t>2024-07-05</t>
+  </si>
+  <si>
+    <t>2024-05-23</t>
+  </si>
+  <si>
     <t>2024-06-25</t>
   </si>
   <si>
-    <t>2024-05-23</t>
+    <t>2024-06-07</t>
   </si>
   <si>
     <t>2024-06-27</t>
@@ -202,16 +223,13 @@
     <t>2024-05-17</t>
   </si>
   <si>
-    <t>2024-06-07</t>
-  </si>
-  <si>
     <t>2024-06-21</t>
   </si>
   <si>
+    <t>2024-07-11</t>
+  </si>
+  <si>
     <t>2024-06-28</t>
-  </si>
-  <si>
-    <t>2024-07-02</t>
   </si>
   <si>
     <t>2024-05-29</t>
@@ -581,7 +599,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L23"/>
+  <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -630,22 +648,22 @@
         <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="F2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="H2">
         <v>1150</v>
@@ -668,10 +686,10 @@
         <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D3" t="s">
         <v>13</v>
@@ -680,10 +698,10 @@
         <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H3">
         <v>10000</v>
@@ -706,10 +724,10 @@
         <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D4" t="s">
         <v>14</v>
@@ -718,10 +736,10 @@
         <v>14</v>
       </c>
       <c r="F4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H4">
         <v>48000</v>
@@ -744,10 +762,10 @@
         <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D5" t="s">
         <v>15</v>
@@ -756,10 +774,10 @@
         <v>15</v>
       </c>
       <c r="F5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G5" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="H5">
         <v>12000</v>
@@ -782,69 +800,69 @@
         <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="E6" t="s">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="F6" t="s">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="G6" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="H6">
-        <v>43200</v>
+        <v>130500</v>
       </c>
       <c r="I6">
-        <v>2400000</v>
+        <v>7250000</v>
       </c>
       <c r="J6">
-        <v>18000</v>
+        <v>60000</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>100</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F7" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="H7">
-        <v>20768</v>
+        <v>43200</v>
       </c>
       <c r="I7">
-        <v>1298000</v>
+        <v>2400000</v>
       </c>
       <c r="J7">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -855,40 +873,40 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E8" t="s">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="F8" t="s">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="G8" t="s">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="H8">
-        <v>54133.66</v>
+        <v>20768</v>
       </c>
       <c r="I8">
-        <v>1330000</v>
+        <v>1298000</v>
       </c>
       <c r="J8">
-        <v>43300</v>
+        <v>16000</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>94</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -896,10 +914,10 @@
         <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C9" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D9" t="s">
         <v>18</v>
@@ -908,10 +926,10 @@
         <v>18</v>
       </c>
       <c r="F9" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="G9" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="H9">
         <v>13300</v>
@@ -934,10 +952,10 @@
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C10" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D10" t="s">
         <v>18</v>
@@ -946,10 +964,10 @@
         <v>18</v>
       </c>
       <c r="F10" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H10">
         <v>12900</v>
@@ -972,69 +990,69 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C11" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D11" t="s">
         <v>18</v>
       </c>
       <c r="E11" t="s">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="F11" t="s">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="G11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H11">
-        <v>9500</v>
+        <v>54133.66</v>
       </c>
       <c r="I11">
-        <v>4750000</v>
+        <v>1330000</v>
       </c>
       <c r="J11">
-        <v>2000</v>
+        <v>43300</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" t="s">
         <v>31</v>
       </c>
-      <c r="C12" t="s">
-        <v>46</v>
-      </c>
-      <c r="D12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" t="s">
-        <v>60</v>
-      </c>
       <c r="G12" t="s">
-        <v>67</v>
+        <v>29</v>
       </c>
       <c r="H12">
-        <v>28960</v>
+        <v>9500</v>
       </c>
       <c r="I12">
-        <v>1810000</v>
+        <v>4750000</v>
       </c>
       <c r="J12">
-        <v>16000</v>
+        <v>2000</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -1048,10 +1066,10 @@
         <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C13" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D13" t="s">
         <v>19</v>
@@ -1060,19 +1078,19 @@
         <v>19</v>
       </c>
       <c r="F13" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="G13" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="H13">
-        <v>16800</v>
+        <v>56000</v>
       </c>
       <c r="I13">
-        <v>1200000</v>
+        <v>1400000</v>
       </c>
       <c r="J13">
-        <v>14000</v>
+        <v>40000</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1086,10 +1104,10 @@
         <v>19</v>
       </c>
       <c r="B14" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C14" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D14" t="s">
         <v>19</v>
@@ -1098,19 +1116,19 @@
         <v>19</v>
       </c>
       <c r="F14" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="G14" t="s">
-        <v>23</v>
+        <v>73</v>
       </c>
       <c r="H14">
-        <v>56000</v>
+        <v>28960</v>
       </c>
       <c r="I14">
-        <v>1400000</v>
+        <v>1810000</v>
       </c>
       <c r="J14">
-        <v>40000</v>
+        <v>16000</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1121,40 +1139,40 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C15" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="D15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E15" t="s">
-        <v>57</v>
+        <v>19</v>
       </c>
       <c r="F15" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="G15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H15">
-        <v>3455.34</v>
+        <v>16800</v>
       </c>
       <c r="I15">
-        <v>1330000</v>
+        <v>1200000</v>
       </c>
       <c r="J15">
-        <v>43300</v>
+        <v>14000</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>6</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -1162,60 +1180,60 @@
         <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C16" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D16" t="s">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="E16" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="F16" t="s">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="G16" t="s">
-        <v>68</v>
+        <v>28</v>
       </c>
       <c r="H16">
-        <v>35000.001</v>
+        <v>3455.34</v>
       </c>
       <c r="I16">
-        <v>23333334</v>
+        <v>1330000</v>
       </c>
       <c r="J16">
-        <v>3000</v>
+        <v>43300</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>50</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:12">
       <c r="A17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C17" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D17" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E17" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F17" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G17" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="H17">
         <v>35000.001</v>
@@ -1235,40 +1253,40 @@
     </row>
     <row r="18" spans="1:12">
       <c r="A18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C18" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="E18" t="s">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="F18" t="s">
-        <v>30</v>
+        <v>63</v>
       </c>
       <c r="G18" t="s">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="H18">
-        <v>8000</v>
+        <v>17400</v>
       </c>
       <c r="I18">
-        <v>4000000</v>
+        <v>7250000</v>
       </c>
       <c r="J18">
-        <v>2000</v>
+        <v>60000</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>100</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1276,107 +1294,107 @@
         <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C19" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="E19" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="F19" t="s">
-        <v>27</v>
+        <v>63</v>
       </c>
       <c r="G19" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="H19">
-        <v>21850</v>
+        <v>143550</v>
       </c>
       <c r="I19">
-        <v>2000000</v>
+        <v>7250000</v>
       </c>
       <c r="J19">
-        <v>11500</v>
+        <v>60000</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>95</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C20" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="D20" t="s">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="E20" t="s">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="F20" t="s">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="G20" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H20">
-        <v>12500</v>
+        <v>143550</v>
       </c>
       <c r="I20">
-        <v>6250000</v>
+        <v>7250000</v>
       </c>
       <c r="J20">
-        <v>2000</v>
+        <v>60000</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>100</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:12">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D21" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E21" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F21" t="s">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="G21" t="s">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="H21">
-        <v>23800</v>
+        <v>8000</v>
       </c>
       <c r="I21">
-        <v>3400000</v>
+        <v>4000000</v>
       </c>
       <c r="J21">
-        <v>7000</v>
+        <v>2000</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1387,40 +1405,40 @@
     </row>
     <row r="22" spans="1:12">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C22" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="D22" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E22" t="s">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="F22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G22" t="s">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="H22">
-        <v>22100</v>
+        <v>21850</v>
       </c>
       <c r="I22">
-        <v>1300000</v>
+        <v>2000000</v>
       </c>
       <c r="J22">
-        <v>17000</v>
+        <v>11500</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1428,7 +1446,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C23" t="s">
         <v>54</v>
@@ -1440,16 +1458,16 @@
         <v>22</v>
       </c>
       <c r="F23" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="G23" t="s">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="H23">
-        <v>14000</v>
+        <v>12500</v>
       </c>
       <c r="I23">
-        <v>7000000</v>
+        <v>6250000</v>
       </c>
       <c r="J23">
         <v>2000</v>
@@ -1458,6 +1476,158 @@
         <v>0</v>
       </c>
       <c r="L23">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24" t="s">
+        <v>55</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F24" t="s">
+        <v>69</v>
+      </c>
+      <c r="G24" t="s">
+        <v>67</v>
+      </c>
+      <c r="H24">
+        <v>23800</v>
+      </c>
+      <c r="I24">
+        <v>3400000</v>
+      </c>
+      <c r="J24">
+        <v>7000</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>56</v>
+      </c>
+      <c r="D25" t="s">
+        <v>22</v>
+      </c>
+      <c r="E25" t="s">
+        <v>22</v>
+      </c>
+      <c r="F25" t="s">
+        <v>31</v>
+      </c>
+      <c r="G25" t="s">
+        <v>29</v>
+      </c>
+      <c r="H25">
+        <v>22100</v>
+      </c>
+      <c r="I25">
+        <v>1300000</v>
+      </c>
+      <c r="J25">
+        <v>17000</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" t="s">
+        <v>22</v>
+      </c>
+      <c r="B26" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" t="s">
+        <v>52</v>
+      </c>
+      <c r="D26" t="s">
+        <v>59</v>
+      </c>
+      <c r="E26" t="s">
+        <v>59</v>
+      </c>
+      <c r="F26" t="s">
+        <v>37</v>
+      </c>
+      <c r="G26" t="s">
+        <v>74</v>
+      </c>
+      <c r="H26">
+        <v>35000.001</v>
+      </c>
+      <c r="I26">
+        <v>23333334</v>
+      </c>
+      <c r="J26">
+        <v>3000</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" t="s">
+        <v>23</v>
+      </c>
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" t="s">
+        <v>57</v>
+      </c>
+      <c r="D27" t="s">
+        <v>23</v>
+      </c>
+      <c r="E27" t="s">
+        <v>23</v>
+      </c>
+      <c r="F27" t="s">
+        <v>24</v>
+      </c>
+      <c r="G27" t="s">
+        <v>34</v>
+      </c>
+      <c r="H27">
+        <v>14000</v>
+      </c>
+      <c r="I27">
+        <v>7000000</v>
+      </c>
+      <c r="J27">
+        <v>2000</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
         <v>100</v>
       </c>
     </row>

--- a/datasets/form3.xlsx
+++ b/datasets/form3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="80">
   <si>
     <t>인수기관</t>
   </si>
@@ -64,6 +64,9 @@
     <t>KB</t>
   </si>
   <si>
+    <t>LS</t>
+  </si>
+  <si>
     <t>NH</t>
   </si>
   <si>
@@ -142,6 +145,9 @@
     <t>KB제29호스팩</t>
   </si>
   <si>
+    <t>이베스트스팩6호</t>
+  </si>
+  <si>
     <t>시프트업</t>
   </si>
   <si>
@@ -190,6 +196,9 @@
     <t>에이치엠씨제7호스팩</t>
   </si>
   <si>
+    <t>엘에스</t>
+  </si>
+  <si>
     <t>한국, 제이피모간회사 서울지점, NH</t>
   </si>
   <si>
@@ -224,6 +233,9 @@
   </si>
   <si>
     <t>2024-06-21</t>
+  </si>
+  <si>
+    <t>2024-07-12</t>
   </si>
   <si>
     <t>2024-07-11</t>
@@ -599,7 +611,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L27"/>
+  <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -648,22 +660,22 @@
         <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="H2">
         <v>1150</v>
@@ -686,10 +698,10 @@
         <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D3" t="s">
         <v>13</v>
@@ -698,10 +710,10 @@
         <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H3">
         <v>10000</v>
@@ -724,10 +736,10 @@
         <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D4" t="s">
         <v>14</v>
@@ -736,10 +748,10 @@
         <v>14</v>
       </c>
       <c r="F4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H4">
         <v>48000</v>
@@ -762,10 +774,10 @@
         <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D5" t="s">
         <v>15</v>
@@ -774,10 +786,10 @@
         <v>15</v>
       </c>
       <c r="F5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G5" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="H5">
         <v>12000</v>
@@ -800,75 +812,75 @@
         <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F6" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="G6" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="H6">
-        <v>130500</v>
+        <v>8000</v>
       </c>
       <c r="I6">
-        <v>7250000</v>
+        <v>4000000</v>
       </c>
       <c r="J6">
-        <v>60000</v>
+        <v>2000</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>30</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
         <v>29</v>
       </c>
       <c r="C7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="E7" t="s">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="F7" t="s">
-        <v>34</v>
+        <v>66</v>
       </c>
       <c r="G7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H7">
-        <v>43200</v>
+        <v>130500</v>
       </c>
       <c r="I7">
-        <v>2400000</v>
+        <v>7250000</v>
       </c>
       <c r="J7">
-        <v>18000</v>
+        <v>60000</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>100</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -876,10 +888,10 @@
         <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D8" t="s">
         <v>17</v>
@@ -888,19 +900,19 @@
         <v>17</v>
       </c>
       <c r="F8" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="H8">
-        <v>20768</v>
+        <v>43200</v>
       </c>
       <c r="I8">
-        <v>1298000</v>
+        <v>2400000</v>
       </c>
       <c r="J8">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -914,10 +926,10 @@
         <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D9" t="s">
         <v>18</v>
@@ -926,19 +938,19 @@
         <v>18</v>
       </c>
       <c r="F9" t="s">
-        <v>64</v>
+        <v>28</v>
       </c>
       <c r="G9" t="s">
-        <v>72</v>
+        <v>37</v>
       </c>
       <c r="H9">
-        <v>13300</v>
+        <v>20768</v>
       </c>
       <c r="I9">
-        <v>6650000</v>
+        <v>1298000</v>
       </c>
       <c r="J9">
-        <v>2000</v>
+        <v>16000</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -949,31 +961,31 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B10" t="s">
         <v>31</v>
       </c>
       <c r="C10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F10" t="s">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="G10" t="s">
-        <v>34</v>
+        <v>76</v>
       </c>
       <c r="H10">
-        <v>12900</v>
+        <v>13300</v>
       </c>
       <c r="I10">
-        <v>6450000</v>
+        <v>6650000</v>
       </c>
       <c r="J10">
         <v>2000</v>
@@ -987,78 +999,78 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s">
         <v>32</v>
       </c>
       <c r="C11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E11" t="s">
-        <v>62</v>
+        <v>19</v>
       </c>
       <c r="F11" t="s">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="H11">
-        <v>54133.66</v>
+        <v>12900</v>
       </c>
       <c r="I11">
-        <v>1330000</v>
+        <v>6450000</v>
       </c>
       <c r="J11">
-        <v>43300</v>
+        <v>2000</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>94</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C12" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E12" t="s">
-        <v>18</v>
+        <v>65</v>
       </c>
       <c r="F12" t="s">
-        <v>31</v>
+        <v>68</v>
       </c>
       <c r="G12" t="s">
         <v>29</v>
       </c>
       <c r="H12">
-        <v>9500</v>
+        <v>54133.66</v>
       </c>
       <c r="I12">
-        <v>4750000</v>
+        <v>1330000</v>
       </c>
       <c r="J12">
-        <v>2000</v>
+        <v>43300</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -1066,10 +1078,10 @@
         <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C13" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D13" t="s">
         <v>19</v>
@@ -1078,19 +1090,19 @@
         <v>19</v>
       </c>
       <c r="F13" t="s">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="G13" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="H13">
-        <v>56000</v>
+        <v>9500</v>
       </c>
       <c r="I13">
-        <v>1400000</v>
+        <v>4750000</v>
       </c>
       <c r="J13">
-        <v>40000</v>
+        <v>2000</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1101,34 +1113,34 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B14" t="s">
         <v>34</v>
       </c>
       <c r="C14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F14" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G14" t="s">
-        <v>73</v>
+        <v>25</v>
       </c>
       <c r="H14">
-        <v>28960</v>
+        <v>56000</v>
       </c>
       <c r="I14">
-        <v>1810000</v>
+        <v>1400000</v>
       </c>
       <c r="J14">
-        <v>16000</v>
+        <v>40000</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1139,34 +1151,34 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B15" t="s">
         <v>35</v>
       </c>
       <c r="C15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D15" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E15" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F15" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G15" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="H15">
-        <v>16800</v>
+        <v>28960</v>
       </c>
       <c r="I15">
-        <v>1200000</v>
+        <v>1810000</v>
       </c>
       <c r="J15">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1180,113 +1192,113 @@
         <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C16" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D16" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E16" t="s">
-        <v>62</v>
+        <v>20</v>
       </c>
       <c r="F16" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="G16" t="s">
-        <v>28</v>
+        <v>67</v>
       </c>
       <c r="H16">
-        <v>3455.34</v>
+        <v>16800</v>
       </c>
       <c r="I16">
-        <v>1330000</v>
+        <v>1200000</v>
       </c>
       <c r="J16">
-        <v>43300</v>
+        <v>14000</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>6</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:12">
       <c r="A17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C17" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D17" t="s">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="E17" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="F17" t="s">
-        <v>37</v>
+        <v>68</v>
       </c>
       <c r="G17" t="s">
-        <v>74</v>
+        <v>29</v>
       </c>
       <c r="H17">
-        <v>35000.001</v>
+        <v>3455.34</v>
       </c>
       <c r="I17">
-        <v>23333334</v>
+        <v>1330000</v>
       </c>
       <c r="J17">
-        <v>3000</v>
+        <v>43300</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>50</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:12">
       <c r="A18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C18" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="D18" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E18" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F18" t="s">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="G18" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="H18">
-        <v>17400</v>
+        <v>35000.001</v>
       </c>
       <c r="I18">
-        <v>7250000</v>
+        <v>23333334</v>
       </c>
       <c r="J18">
-        <v>60000</v>
+        <v>3000</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>4</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1294,25 +1306,25 @@
         <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C19" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D19" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E19" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F19" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="G19" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="H19">
-        <v>143550</v>
+        <v>17400</v>
       </c>
       <c r="I19">
         <v>7250000</v>
@@ -1324,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>33</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1332,22 +1344,22 @@
         <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C20" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D20" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E20" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F20" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="G20" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="H20">
         <v>143550</v>
@@ -1367,148 +1379,148 @@
     </row>
     <row r="21" spans="1:12">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C21" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="D21" t="s">
-        <v>22</v>
+        <v>61</v>
       </c>
       <c r="E21" t="s">
-        <v>22</v>
+        <v>64</v>
       </c>
       <c r="F21" t="s">
-        <v>31</v>
+        <v>66</v>
       </c>
       <c r="G21" t="s">
-        <v>29</v>
+        <v>74</v>
       </c>
       <c r="H21">
-        <v>8000</v>
+        <v>143550</v>
       </c>
       <c r="I21">
-        <v>4000000</v>
+        <v>7250000</v>
       </c>
       <c r="J21">
-        <v>2000</v>
+        <v>60000</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>100</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:12">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C22" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="D22" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E22" t="s">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="F22" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G22" t="s">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="H22">
-        <v>21850</v>
+        <v>8000</v>
       </c>
       <c r="I22">
-        <v>2000000</v>
+        <v>4000000</v>
       </c>
       <c r="J22">
-        <v>11500</v>
+        <v>2000</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>95</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:12">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E23" t="s">
-        <v>22</v>
+        <v>63</v>
       </c>
       <c r="F23" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G23" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="H23">
-        <v>12500</v>
+        <v>21850</v>
       </c>
       <c r="I23">
-        <v>6250000</v>
+        <v>2000000</v>
       </c>
       <c r="J23">
-        <v>2000</v>
+        <v>11500</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="24" spans="1:12">
       <c r="A24" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
         <v>37</v>
       </c>
       <c r="C24" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D24" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F24" t="s">
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="G24" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="H24">
-        <v>23800</v>
+        <v>12500</v>
       </c>
       <c r="I24">
-        <v>3400000</v>
+        <v>6250000</v>
       </c>
       <c r="J24">
-        <v>7000</v>
+        <v>2000</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1519,34 +1531,34 @@
     </row>
     <row r="25" spans="1:12">
       <c r="A25" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="C25" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D25" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E25" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F25" t="s">
-        <v>31</v>
+        <v>72</v>
       </c>
       <c r="G25" t="s">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="H25">
-        <v>22100</v>
+        <v>23800</v>
       </c>
       <c r="I25">
-        <v>1300000</v>
+        <v>3400000</v>
       </c>
       <c r="J25">
-        <v>17000</v>
+        <v>7000</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1557,40 +1569,40 @@
     </row>
     <row r="26" spans="1:12">
       <c r="A26" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B26" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C26" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="D26" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="E26" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="F26" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G26" t="s">
-        <v>74</v>
+        <v>30</v>
       </c>
       <c r="H26">
-        <v>35000.001</v>
+        <v>22100</v>
       </c>
       <c r="I26">
-        <v>23333334</v>
+        <v>1300000</v>
       </c>
       <c r="J26">
-        <v>3000</v>
+        <v>17000</v>
       </c>
       <c r="K26">
         <v>0</v>
       </c>
       <c r="L26">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -1598,36 +1610,74 @@
         <v>23</v>
       </c>
       <c r="B27" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C27" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D27" t="s">
-        <v>23</v>
+        <v>62</v>
       </c>
       <c r="E27" t="s">
-        <v>23</v>
+        <v>62</v>
       </c>
       <c r="F27" t="s">
+        <v>38</v>
+      </c>
+      <c r="G27" t="s">
+        <v>78</v>
+      </c>
+      <c r="H27">
+        <v>35000.001</v>
+      </c>
+      <c r="I27">
+        <v>23333334</v>
+      </c>
+      <c r="J27">
+        <v>3000</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" t="s">
         <v>24</v>
       </c>
-      <c r="G27" t="s">
-        <v>34</v>
-      </c>
-      <c r="H27">
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" t="s">
+        <v>59</v>
+      </c>
+      <c r="D28" t="s">
+        <v>24</v>
+      </c>
+      <c r="E28" t="s">
+        <v>24</v>
+      </c>
+      <c r="F28" t="s">
+        <v>25</v>
+      </c>
+      <c r="G28" t="s">
+        <v>35</v>
+      </c>
+      <c r="H28">
         <v>14000</v>
       </c>
-      <c r="I27">
+      <c r="I28">
         <v>7000000</v>
       </c>
-      <c r="J27">
+      <c r="J28">
         <v>2000</v>
       </c>
-      <c r="K27">
-        <v>0</v>
-      </c>
-      <c r="L27">
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
         <v>100</v>
       </c>
     </row>

--- a/datasets/form3.xlsx
+++ b/datasets/form3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="83">
   <si>
     <t>인수기관</t>
   </si>
@@ -109,21 +109,24 @@
     <t>2024-06-19</t>
   </si>
   <si>
+    <t>2024-07-03</t>
+  </si>
+  <si>
+    <t>2024-06-20</t>
+  </si>
+  <si>
     <t>2024-05-20</t>
   </si>
   <si>
     <t>2024-06-13</t>
   </si>
   <si>
-    <t>2024-06-20</t>
+    <t>2024-06-24</t>
   </si>
   <si>
     <t>2024-06-03</t>
   </si>
   <si>
-    <t>2024-06-24</t>
-  </si>
-  <si>
     <t>2024-05-13</t>
   </si>
   <si>
@@ -157,42 +160,45 @@
     <t>라메디텍</t>
   </si>
   <si>
+    <t>엑셀세라퓨틱스</t>
+  </si>
+  <si>
+    <t>이노스페이스</t>
+  </si>
+  <si>
     <t>미래에셋비전스팩4호</t>
   </si>
   <si>
     <t>미래에셋비전스팩6호</t>
   </si>
   <si>
-    <t>이노스페이스</t>
-  </si>
-  <si>
     <t>미래에셋비전스팩5호</t>
   </si>
   <si>
+    <t>하스</t>
+  </si>
+  <si>
     <t>그리드위즈</t>
   </si>
   <si>
-    <t>하스</t>
-  </si>
-  <si>
     <t>노브랜드</t>
   </si>
   <si>
     <t>신한글로벌액티브리츠</t>
   </si>
   <si>
+    <t>한국제15호스팩</t>
+  </si>
+  <si>
     <t>한국제14호스팩</t>
   </si>
   <si>
-    <t>한국제15호스팩</t>
+    <t>씨어스테크놀로지</t>
   </si>
   <si>
     <t>하이젠알앤엠</t>
   </si>
   <si>
-    <t>씨어스테크놀로지</t>
-  </si>
-  <si>
     <t>에이치엠씨제7호스팩</t>
   </si>
   <si>
@@ -217,18 +223,21 @@
     <t>2024-07-05</t>
   </si>
   <si>
+    <t>2024-07-08</t>
+  </si>
+  <si>
+    <t>2024-06-25</t>
+  </si>
+  <si>
     <t>2024-05-23</t>
   </si>
   <si>
-    <t>2024-06-25</t>
+    <t>2024-06-27</t>
   </si>
   <si>
     <t>2024-06-07</t>
   </si>
   <si>
-    <t>2024-06-27</t>
-  </si>
-  <si>
     <t>2024-05-17</t>
   </si>
   <si>
@@ -244,10 +253,10 @@
     <t>2024-06-28</t>
   </si>
   <si>
+    <t>2024-07-15</t>
+  </si>
+  <si>
     <t>2024-05-29</t>
-  </si>
-  <si>
-    <t>2024-07-03</t>
   </si>
   <si>
     <t>2024-07-01</t>
@@ -611,7 +620,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L28"/>
+  <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -663,19 +672,19 @@
         <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D2" t="s">
         <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F2" t="s">
         <v>30</v>
       </c>
       <c r="G2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H2">
         <v>1150</v>
@@ -701,7 +710,7 @@
         <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D3" t="s">
         <v>13</v>
@@ -713,7 +722,7 @@
         <v>28</v>
       </c>
       <c r="G3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H3">
         <v>10000</v>
@@ -739,7 +748,7 @@
         <v>27</v>
       </c>
       <c r="C4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D4" t="s">
         <v>14</v>
@@ -748,7 +757,7 @@
         <v>14</v>
       </c>
       <c r="F4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G4" t="s">
         <v>35</v>
@@ -777,7 +786,7 @@
         <v>28</v>
       </c>
       <c r="C5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D5" t="s">
         <v>15</v>
@@ -789,7 +798,7 @@
         <v>25</v>
       </c>
       <c r="G5" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="H5">
         <v>12000</v>
@@ -815,19 +824,19 @@
         <v>29</v>
       </c>
       <c r="C6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D6" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E6" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G6" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="H6">
         <v>8000</v>
@@ -853,19 +862,19 @@
         <v>29</v>
       </c>
       <c r="C7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H7">
         <v>130500</v>
@@ -891,7 +900,7 @@
         <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D8" t="s">
         <v>17</v>
@@ -903,7 +912,7 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H8">
         <v>43200</v>
@@ -929,7 +938,7 @@
         <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D9" t="s">
         <v>18</v>
@@ -941,7 +950,7 @@
         <v>28</v>
       </c>
       <c r="G9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H9">
         <v>20768</v>
@@ -961,34 +970,34 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
         <v>31</v>
       </c>
       <c r="C10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F10" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G10" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H10">
-        <v>13300</v>
+        <v>16180</v>
       </c>
       <c r="I10">
-        <v>6650000</v>
+        <v>1618000</v>
       </c>
       <c r="J10">
-        <v>2000</v>
+        <v>10000</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1005,34 +1014,34 @@
         <v>32</v>
       </c>
       <c r="C11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D11" t="s">
         <v>19</v>
       </c>
       <c r="E11" t="s">
-        <v>19</v>
+        <v>67</v>
       </c>
       <c r="F11" t="s">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="G11" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H11">
-        <v>12900</v>
+        <v>54133.66</v>
       </c>
       <c r="I11">
-        <v>6450000</v>
+        <v>1330000</v>
       </c>
       <c r="J11">
-        <v>2000</v>
+        <v>43300</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -1043,34 +1052,34 @@
         <v>33</v>
       </c>
       <c r="C12" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D12" t="s">
         <v>19</v>
       </c>
       <c r="E12" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="F12" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="G12" t="s">
-        <v>29</v>
+        <v>80</v>
       </c>
       <c r="H12">
-        <v>54133.66</v>
+        <v>13300</v>
       </c>
       <c r="I12">
-        <v>1330000</v>
+        <v>6650000</v>
       </c>
       <c r="J12">
-        <v>43300</v>
+        <v>2000</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>94</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -1078,10 +1087,10 @@
         <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C13" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D13" t="s">
         <v>19</v>
@@ -1090,16 +1099,16 @@
         <v>19</v>
       </c>
       <c r="F13" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G13" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H13">
-        <v>9500</v>
+        <v>12900</v>
       </c>
       <c r="I13">
-        <v>4750000</v>
+        <v>6450000</v>
       </c>
       <c r="J13">
         <v>2000</v>
@@ -1113,34 +1122,34 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" t="s">
         <v>34</v>
       </c>
-      <c r="C14" t="s">
-        <v>51</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F14" t="s">
-        <v>69</v>
-      </c>
       <c r="G14" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H14">
-        <v>56000</v>
+        <v>9500</v>
       </c>
       <c r="I14">
-        <v>1400000</v>
+        <v>4750000</v>
       </c>
       <c r="J14">
-        <v>40000</v>
+        <v>2000</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1157,7 +1166,7 @@
         <v>35</v>
       </c>
       <c r="C15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D15" t="s">
         <v>20</v>
@@ -1166,10 +1175,10 @@
         <v>20</v>
       </c>
       <c r="F15" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G15" t="s">
-        <v>77</v>
+        <v>31</v>
       </c>
       <c r="H15">
         <v>28960</v>
@@ -1195,7 +1204,7 @@
         <v>36</v>
       </c>
       <c r="C16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D16" t="s">
         <v>20</v>
@@ -1204,19 +1213,19 @@
         <v>20</v>
       </c>
       <c r="F16" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G16" t="s">
-        <v>67</v>
+        <v>25</v>
       </c>
       <c r="H16">
-        <v>16800</v>
+        <v>56000</v>
       </c>
       <c r="I16">
-        <v>1200000</v>
+        <v>1400000</v>
       </c>
       <c r="J16">
-        <v>14000</v>
+        <v>40000</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1227,40 +1236,40 @@
     </row>
     <row r="17" spans="1:12">
       <c r="A17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C17" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="D17" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E17" t="s">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="F17" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="G17" t="s">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="H17">
-        <v>3455.34</v>
+        <v>16800</v>
       </c>
       <c r="I17">
-        <v>1330000</v>
+        <v>1200000</v>
       </c>
       <c r="J17">
-        <v>43300</v>
+        <v>14000</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>6</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1268,22 +1277,22 @@
         <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C18" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D18" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E18" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F18" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G18" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="H18">
         <v>35000.001</v>
@@ -1306,63 +1315,63 @@
         <v>21</v>
       </c>
       <c r="B19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19" t="s">
+        <v>67</v>
+      </c>
+      <c r="F19" t="s">
+        <v>70</v>
+      </c>
+      <c r="G19" t="s">
         <v>29</v>
       </c>
-      <c r="C19" t="s">
-        <v>44</v>
-      </c>
-      <c r="D19" t="s">
-        <v>61</v>
-      </c>
-      <c r="E19" t="s">
-        <v>64</v>
-      </c>
-      <c r="F19" t="s">
-        <v>66</v>
-      </c>
-      <c r="G19" t="s">
-        <v>74</v>
-      </c>
       <c r="H19">
-        <v>17400</v>
+        <v>3455.34</v>
       </c>
       <c r="I19">
-        <v>7250000</v>
+        <v>1330000</v>
       </c>
       <c r="J19">
-        <v>60000</v>
+        <v>43300</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B20" t="s">
         <v>29</v>
       </c>
       <c r="C20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D20" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E20" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F20" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G20" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H20">
-        <v>143550</v>
+        <v>17400</v>
       </c>
       <c r="I20">
         <v>7250000</v>
@@ -1374,30 +1383,30 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>33</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:12">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B21" t="s">
         <v>29</v>
       </c>
       <c r="C21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D21" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E21" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F21" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G21" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H21">
         <v>143550</v>
@@ -1420,10 +1429,10 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="C22" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D22" t="s">
         <v>23</v>
@@ -1435,13 +1444,13 @@
         <v>32</v>
       </c>
       <c r="G22" t="s">
-        <v>30</v>
+        <v>82</v>
       </c>
       <c r="H22">
-        <v>8000</v>
+        <v>12500</v>
       </c>
       <c r="I22">
-        <v>4000000</v>
+        <v>6250000</v>
       </c>
       <c r="J22">
         <v>2000</v>
@@ -1458,37 +1467,37 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C23" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="D23" t="s">
         <v>23</v>
       </c>
       <c r="E23" t="s">
-        <v>63</v>
+        <v>23</v>
       </c>
       <c r="F23" t="s">
+        <v>34</v>
+      </c>
+      <c r="G23" t="s">
         <v>30</v>
       </c>
-      <c r="G23" t="s">
-        <v>68</v>
-      </c>
       <c r="H23">
-        <v>21850</v>
+        <v>8000</v>
       </c>
       <c r="I23">
-        <v>2000000</v>
+        <v>4000000</v>
       </c>
       <c r="J23">
-        <v>11500</v>
+        <v>2000</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>95</v>
+        <v>100</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1496,10 +1505,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C24" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D24" t="s">
         <v>23</v>
@@ -1508,19 +1517,19 @@
         <v>23</v>
       </c>
       <c r="F24" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G24" t="s">
-        <v>79</v>
+        <v>30</v>
       </c>
       <c r="H24">
-        <v>12500</v>
+        <v>22100</v>
       </c>
       <c r="I24">
-        <v>6250000</v>
+        <v>1300000</v>
       </c>
       <c r="J24">
-        <v>2000</v>
+        <v>17000</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1534,37 +1543,37 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C25" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="D25" t="s">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="E25" t="s">
-        <v>23</v>
+        <v>66</v>
       </c>
       <c r="F25" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="G25" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="H25">
-        <v>23800</v>
+        <v>143550</v>
       </c>
       <c r="I25">
-        <v>3400000</v>
+        <v>7250000</v>
       </c>
       <c r="J25">
-        <v>7000</v>
+        <v>60000</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>100</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -1572,10 +1581,10 @@
         <v>23</v>
       </c>
       <c r="B26" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="C26" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D26" t="s">
         <v>23</v>
@@ -1584,19 +1593,19 @@
         <v>23</v>
       </c>
       <c r="F26" t="s">
-        <v>32</v>
+        <v>75</v>
       </c>
       <c r="G26" t="s">
-        <v>30</v>
+        <v>72</v>
       </c>
       <c r="H26">
-        <v>22100</v>
+        <v>23800</v>
       </c>
       <c r="I26">
-        <v>1300000</v>
+        <v>3400000</v>
       </c>
       <c r="J26">
-        <v>17000</v>
+        <v>7000</v>
       </c>
       <c r="K26">
         <v>0</v>
@@ -1610,74 +1619,112 @@
         <v>23</v>
       </c>
       <c r="B27" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C27" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="D27" t="s">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="E27" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="F27" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G27" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="H27">
-        <v>35000.001</v>
+        <v>21850</v>
       </c>
       <c r="I27">
-        <v>23333334</v>
+        <v>2000000</v>
       </c>
       <c r="J27">
-        <v>3000</v>
+        <v>11500</v>
       </c>
       <c r="K27">
         <v>0</v>
       </c>
       <c r="L27">
-        <v>50</v>
+        <v>95</v>
       </c>
     </row>
     <row r="28" spans="1:12">
       <c r="A28" t="s">
+        <v>23</v>
+      </c>
+      <c r="B28" t="s">
+        <v>34</v>
+      </c>
+      <c r="C28" t="s">
+        <v>56</v>
+      </c>
+      <c r="D28" t="s">
+        <v>64</v>
+      </c>
+      <c r="E28" t="s">
+        <v>64</v>
+      </c>
+      <c r="F28" t="s">
+        <v>39</v>
+      </c>
+      <c r="G28" t="s">
+        <v>81</v>
+      </c>
+      <c r="H28">
+        <v>35000.001</v>
+      </c>
+      <c r="I28">
+        <v>23333334</v>
+      </c>
+      <c r="J28">
+        <v>3000</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" t="s">
         <v>24</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B29" t="s">
         <v>28</v>
       </c>
-      <c r="C28" t="s">
-        <v>59</v>
-      </c>
-      <c r="D28" t="s">
+      <c r="C29" t="s">
+        <v>61</v>
+      </c>
+      <c r="D29" t="s">
         <v>24</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E29" t="s">
         <v>24</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F29" t="s">
         <v>25</v>
       </c>
-      <c r="G28" t="s">
+      <c r="G29" t="s">
         <v>35</v>
       </c>
-      <c r="H28">
+      <c r="H29">
         <v>14000</v>
       </c>
-      <c r="I28">
+      <c r="I29">
         <v>7000000</v>
       </c>
-      <c r="J28">
+      <c r="J29">
         <v>2000</v>
       </c>
-      <c r="K28">
-        <v>0</v>
-      </c>
-      <c r="L28">
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
         <v>100</v>
       </c>
     </row>

--- a/datasets/form3.xlsx
+++ b/datasets/form3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="80">
   <si>
     <t>인수기관</t>
   </si>
@@ -121,15 +121,12 @@
     <t>2024-06-13</t>
   </si>
   <si>
+    <t>2024-06-03</t>
+  </si>
+  <si>
     <t>2024-06-24</t>
   </si>
   <si>
-    <t>2024-06-03</t>
-  </si>
-  <si>
-    <t>2024-05-13</t>
-  </si>
-  <si>
     <t>2024-06-17</t>
   </si>
   <si>
@@ -175,30 +172,27 @@
     <t>미래에셋비전스팩5호</t>
   </si>
   <si>
+    <t>그리드위즈</t>
+  </si>
+  <si>
     <t>하스</t>
   </si>
   <si>
-    <t>그리드위즈</t>
-  </si>
-  <si>
-    <t>노브랜드</t>
-  </si>
-  <si>
     <t>신한글로벌액티브리츠</t>
   </si>
   <si>
+    <t>한국제14호스팩</t>
+  </si>
+  <si>
     <t>한국제15호스팩</t>
   </si>
   <si>
-    <t>한국제14호스팩</t>
+    <t>하이젠알앤엠</t>
   </si>
   <si>
     <t>씨어스테크놀로지</t>
   </si>
   <si>
-    <t>하이젠알앤엠</t>
-  </si>
-  <si>
     <t>에이치엠씨제7호스팩</t>
   </si>
   <si>
@@ -232,13 +226,10 @@
     <t>2024-05-23</t>
   </si>
   <si>
+    <t>2024-06-07</t>
+  </si>
+  <si>
     <t>2024-06-27</t>
-  </si>
-  <si>
-    <t>2024-06-07</t>
-  </si>
-  <si>
-    <t>2024-05-17</t>
   </si>
   <si>
     <t>2024-06-21</t>
@@ -620,7 +611,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L29"/>
+  <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -672,19 +663,19 @@
         <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D2" t="s">
         <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F2" t="s">
         <v>30</v>
       </c>
       <c r="G2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H2">
         <v>1150</v>
@@ -710,7 +701,7 @@
         <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D3" t="s">
         <v>13</v>
@@ -722,7 +713,7 @@
         <v>28</v>
       </c>
       <c r="G3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H3">
         <v>10000</v>
@@ -748,7 +739,7 @@
         <v>27</v>
       </c>
       <c r="C4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D4" t="s">
         <v>14</v>
@@ -760,7 +751,7 @@
         <v>34</v>
       </c>
       <c r="G4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H4">
         <v>48000</v>
@@ -786,7 +777,7 @@
         <v>28</v>
       </c>
       <c r="C5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D5" t="s">
         <v>15</v>
@@ -798,7 +789,7 @@
         <v>25</v>
       </c>
       <c r="G5" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="H5">
         <v>12000</v>
@@ -824,19 +815,19 @@
         <v>29</v>
       </c>
       <c r="C6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G6" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="H6">
         <v>8000</v>
@@ -862,19 +853,19 @@
         <v>29</v>
       </c>
       <c r="C7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F7" t="s">
         <v>66</v>
       </c>
-      <c r="F7" t="s">
-        <v>68</v>
-      </c>
       <c r="G7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="H7">
         <v>130500</v>
@@ -900,7 +891,7 @@
         <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D8" t="s">
         <v>17</v>
@@ -909,10 +900,10 @@
         <v>17</v>
       </c>
       <c r="F8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G8" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="H8">
         <v>43200</v>
@@ -938,7 +929,7 @@
         <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D9" t="s">
         <v>18</v>
@@ -950,7 +941,7 @@
         <v>28</v>
       </c>
       <c r="G9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H9">
         <v>20768</v>
@@ -976,7 +967,7 @@
         <v>31</v>
       </c>
       <c r="C10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D10" t="s">
         <v>18</v>
@@ -985,10 +976,10 @@
         <v>18</v>
       </c>
       <c r="F10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G10" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="H10">
         <v>16180</v>
@@ -1014,16 +1005,16 @@
         <v>32</v>
       </c>
       <c r="C11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D11" t="s">
         <v>19</v>
       </c>
       <c r="E11" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F11" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G11" t="s">
         <v>29</v>
@@ -1052,7 +1043,7 @@
         <v>33</v>
       </c>
       <c r="C12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D12" t="s">
         <v>19</v>
@@ -1061,10 +1052,10 @@
         <v>19</v>
       </c>
       <c r="F12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G12" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="H12">
         <v>13300</v>
@@ -1090,7 +1081,7 @@
         <v>34</v>
       </c>
       <c r="C13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D13" t="s">
         <v>19</v>
@@ -1099,10 +1090,10 @@
         <v>19</v>
       </c>
       <c r="F13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H13">
         <v>12900</v>
@@ -1128,7 +1119,7 @@
         <v>27</v>
       </c>
       <c r="C14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D14" t="s">
         <v>19</v>
@@ -1166,7 +1157,7 @@
         <v>35</v>
       </c>
       <c r="C15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D15" t="s">
         <v>20</v>
@@ -1175,19 +1166,19 @@
         <v>20</v>
       </c>
       <c r="F15" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G15" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="H15">
-        <v>28960</v>
+        <v>56000</v>
       </c>
       <c r="I15">
-        <v>1810000</v>
+        <v>1400000</v>
       </c>
       <c r="J15">
-        <v>16000</v>
+        <v>40000</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1204,7 +1195,7 @@
         <v>36</v>
       </c>
       <c r="C16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D16" t="s">
         <v>20</v>
@@ -1213,19 +1204,19 @@
         <v>20</v>
       </c>
       <c r="F16" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G16" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="H16">
-        <v>56000</v>
+        <v>28960</v>
       </c>
       <c r="I16">
-        <v>1400000</v>
+        <v>1810000</v>
       </c>
       <c r="J16">
-        <v>40000</v>
+        <v>16000</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1236,40 +1227,40 @@
     </row>
     <row r="17" spans="1:12">
       <c r="A17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D17" t="s">
-        <v>20</v>
+        <v>62</v>
       </c>
       <c r="E17" t="s">
-        <v>20</v>
+        <v>62</v>
       </c>
       <c r="F17" t="s">
-        <v>74</v>
+        <v>38</v>
       </c>
       <c r="G17" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="H17">
-        <v>16800</v>
+        <v>35000.001</v>
       </c>
       <c r="I17">
-        <v>1200000</v>
+        <v>23333334</v>
       </c>
       <c r="J17">
-        <v>14000</v>
+        <v>3000</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1277,37 +1268,37 @@
         <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C18" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="D18" t="s">
-        <v>64</v>
+        <v>19</v>
       </c>
       <c r="E18" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F18" t="s">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="G18" t="s">
-        <v>81</v>
+        <v>29</v>
       </c>
       <c r="H18">
-        <v>35000.001</v>
+        <v>3455.34</v>
       </c>
       <c r="I18">
-        <v>23333334</v>
+        <v>1330000</v>
       </c>
       <c r="J18">
-        <v>3000</v>
+        <v>43300</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>50</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1315,63 +1306,63 @@
         <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C19" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D19" t="s">
-        <v>19</v>
+        <v>61</v>
       </c>
       <c r="E19" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F19" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G19" t="s">
-        <v>29</v>
+        <v>74</v>
       </c>
       <c r="H19">
-        <v>3455.34</v>
+        <v>17400</v>
       </c>
       <c r="I19">
-        <v>1330000</v>
+        <v>7250000</v>
       </c>
       <c r="J19">
-        <v>43300</v>
+        <v>60000</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B20" t="s">
         <v>29</v>
       </c>
       <c r="C20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E20" t="s">
+        <v>64</v>
+      </c>
+      <c r="F20" t="s">
         <v>66</v>
       </c>
-      <c r="F20" t="s">
-        <v>68</v>
-      </c>
       <c r="G20" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="H20">
-        <v>17400</v>
+        <v>143550</v>
       </c>
       <c r="I20">
         <v>7250000</v>
@@ -1383,30 +1374,30 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>4</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:12">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
         <v>29</v>
       </c>
       <c r="C21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D21" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E21" t="s">
+        <v>64</v>
+      </c>
+      <c r="F21" t="s">
         <v>66</v>
       </c>
-      <c r="F21" t="s">
-        <v>68</v>
-      </c>
       <c r="G21" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="H21">
         <v>143550</v>
@@ -1429,10 +1420,10 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="C22" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D22" t="s">
         <v>23</v>
@@ -1441,16 +1432,16 @@
         <v>23</v>
       </c>
       <c r="F22" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G22" t="s">
-        <v>82</v>
+        <v>30</v>
       </c>
       <c r="H22">
-        <v>12500</v>
+        <v>8000</v>
       </c>
       <c r="I22">
-        <v>6250000</v>
+        <v>4000000</v>
       </c>
       <c r="J22">
         <v>2000</v>
@@ -1467,37 +1458,37 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="D23" t="s">
         <v>23</v>
       </c>
       <c r="E23" t="s">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="F23" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G23" t="s">
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="H23">
-        <v>8000</v>
+        <v>21850</v>
       </c>
       <c r="I23">
-        <v>4000000</v>
+        <v>2000000</v>
       </c>
       <c r="J23">
-        <v>2000</v>
+        <v>11500</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1505,10 +1496,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="C24" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D24" t="s">
         <v>23</v>
@@ -1517,19 +1508,19 @@
         <v>23</v>
       </c>
       <c r="F24" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G24" t="s">
-        <v>30</v>
+        <v>79</v>
       </c>
       <c r="H24">
-        <v>22100</v>
+        <v>12500</v>
       </c>
       <c r="I24">
-        <v>1300000</v>
+        <v>6250000</v>
       </c>
       <c r="J24">
-        <v>17000</v>
+        <v>2000</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1543,37 +1534,37 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C25" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="D25" t="s">
-        <v>63</v>
+        <v>23</v>
       </c>
       <c r="E25" t="s">
-        <v>66</v>
+        <v>23</v>
       </c>
       <c r="F25" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G25" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="H25">
-        <v>143550</v>
+        <v>23800</v>
       </c>
       <c r="I25">
-        <v>7250000</v>
+        <v>3400000</v>
       </c>
       <c r="J25">
-        <v>60000</v>
+        <v>7000</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>33</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -1581,10 +1572,10 @@
         <v>23</v>
       </c>
       <c r="B26" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="C26" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D26" t="s">
         <v>23</v>
@@ -1593,19 +1584,19 @@
         <v>23</v>
       </c>
       <c r="F26" t="s">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="G26" t="s">
-        <v>72</v>
+        <v>30</v>
       </c>
       <c r="H26">
-        <v>23800</v>
+        <v>22100</v>
       </c>
       <c r="I26">
-        <v>3400000</v>
+        <v>1300000</v>
       </c>
       <c r="J26">
-        <v>7000</v>
+        <v>17000</v>
       </c>
       <c r="K26">
         <v>0</v>
@@ -1619,112 +1610,74 @@
         <v>23</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="C27" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="D27" t="s">
-        <v>23</v>
+        <v>62</v>
       </c>
       <c r="E27" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F27" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G27" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="H27">
-        <v>21850</v>
+        <v>35000.001</v>
       </c>
       <c r="I27">
-        <v>2000000</v>
+        <v>23333334</v>
       </c>
       <c r="J27">
-        <v>11500</v>
+        <v>3000</v>
       </c>
       <c r="K27">
         <v>0</v>
       </c>
       <c r="L27">
-        <v>95</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:12">
       <c r="A28" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C28" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D28" t="s">
-        <v>64</v>
+        <v>24</v>
       </c>
       <c r="E28" t="s">
-        <v>64</v>
+        <v>24</v>
       </c>
       <c r="F28" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="G28" t="s">
-        <v>81</v>
+        <v>36</v>
       </c>
       <c r="H28">
-        <v>35000.001</v>
+        <v>14000</v>
       </c>
       <c r="I28">
-        <v>23333334</v>
+        <v>7000000</v>
       </c>
       <c r="J28">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="K28">
         <v>0</v>
       </c>
       <c r="L28">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12">
-      <c r="A29" t="s">
-        <v>24</v>
-      </c>
-      <c r="B29" t="s">
-        <v>28</v>
-      </c>
-      <c r="C29" t="s">
-        <v>61</v>
-      </c>
-      <c r="D29" t="s">
-        <v>24</v>
-      </c>
-      <c r="E29" t="s">
-        <v>24</v>
-      </c>
-      <c r="F29" t="s">
-        <v>25</v>
-      </c>
-      <c r="G29" t="s">
-        <v>35</v>
-      </c>
-      <c r="H29">
-        <v>14000</v>
-      </c>
-      <c r="I29">
-        <v>7000000</v>
-      </c>
-      <c r="J29">
-        <v>2000</v>
-      </c>
-      <c r="K29">
-        <v>0</v>
-      </c>
-      <c r="L29">
         <v>100</v>
       </c>
     </row>

--- a/datasets/form3.xlsx
+++ b/datasets/form3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="80">
   <si>
     <t>인수기관</t>
   </si>
@@ -70,6 +70,9 @@
     <t>NH</t>
   </si>
   <si>
+    <t>SK</t>
+  </si>
+  <si>
     <t>대신</t>
   </si>
   <si>
@@ -109,15 +112,18 @@
     <t>2024-06-19</t>
   </si>
   <si>
+    <t>2024-07-15</t>
+  </si>
+  <si>
     <t>2024-07-03</t>
   </si>
   <si>
+    <t>2024-06-13</t>
+  </si>
+  <si>
     <t>2024-06-20</t>
   </si>
   <si>
-    <t>2024-06-13</t>
-  </si>
-  <si>
     <t>2024-06-24</t>
   </si>
   <si>
@@ -145,27 +151,30 @@
     <t>이베스트스팩6호</t>
   </si>
   <si>
+    <t>시프트업</t>
+  </si>
+  <si>
     <t>에이치브이엠</t>
   </si>
   <si>
-    <t>시프트업</t>
+    <t>SK증권제13호스팩</t>
+  </si>
+  <si>
+    <t>엑셀세라퓨틱스</t>
   </si>
   <si>
     <t>라메디텍</t>
   </si>
   <si>
-    <t>엑셀세라퓨틱스</t>
+    <t>미래에셋비전스팩6호</t>
+  </si>
+  <si>
+    <t>미래에셋비전스팩5호</t>
   </si>
   <si>
     <t>이노스페이스</t>
   </si>
   <si>
-    <t>미래에셋비전스팩6호</t>
-  </si>
-  <si>
-    <t>미래에셋비전스팩5호</t>
-  </si>
-  <si>
     <t>하스</t>
   </si>
   <si>
@@ -211,6 +220,9 @@
     <t>2024-07-05</t>
   </si>
   <si>
+    <t>2024-07-18</t>
+  </si>
+  <si>
     <t>2024-07-08</t>
   </si>
   <si>
@@ -229,13 +241,13 @@
     <t>2024-07-12</t>
   </si>
   <si>
+    <t>2024-07-11</t>
+  </si>
+  <si>
     <t>2024-06-28</t>
   </si>
   <si>
-    <t>2024-07-11</t>
-  </si>
-  <si>
-    <t>2024-07-15</t>
+    <t>2024-07-25</t>
   </si>
   <si>
     <t>2024-07-01</t>
@@ -599,7 +611,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L27"/>
+  <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -648,22 +660,22 @@
         <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="H2">
         <v>1150</v>
@@ -686,10 +698,10 @@
         <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D3" t="s">
         <v>13</v>
@@ -698,10 +710,10 @@
         <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H3">
         <v>10000</v>
@@ -724,10 +736,10 @@
         <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D4" t="s">
         <v>14</v>
@@ -736,10 +748,10 @@
         <v>14</v>
       </c>
       <c r="F4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H4">
         <v>48000</v>
@@ -762,10 +774,10 @@
         <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D5" t="s">
         <v>15</v>
@@ -774,10 +786,10 @@
         <v>15</v>
       </c>
       <c r="F5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="H5">
         <v>12000</v>
@@ -800,22 +812,22 @@
         <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F6" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="G6" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="H6">
         <v>8000</v>
@@ -841,34 +853,34 @@
         <v>30</v>
       </c>
       <c r="C7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>62</v>
       </c>
       <c r="E7" t="s">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="F7" t="s">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="G7" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="H7">
-        <v>43200</v>
+        <v>130500</v>
       </c>
       <c r="I7">
-        <v>2400000</v>
+        <v>7250000</v>
       </c>
       <c r="J7">
-        <v>18000</v>
+        <v>60000</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>100</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -876,37 +888,37 @@
         <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D8" t="s">
-        <v>59</v>
+        <v>17</v>
       </c>
       <c r="E8" t="s">
-        <v>62</v>
+        <v>17</v>
       </c>
       <c r="F8" t="s">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="G8" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="H8">
-        <v>130500</v>
+        <v>43200</v>
       </c>
       <c r="I8">
-        <v>7250000</v>
+        <v>2400000</v>
       </c>
       <c r="J8">
-        <v>60000</v>
+        <v>18000</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>30</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -914,10 +926,10 @@
         <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C9" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D9" t="s">
         <v>18</v>
@@ -926,19 +938,19 @@
         <v>18</v>
       </c>
       <c r="F9" t="s">
-        <v>28</v>
+        <v>68</v>
       </c>
       <c r="G9" t="s">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="H9">
-        <v>20768</v>
+        <v>8000</v>
       </c>
       <c r="I9">
-        <v>1298000</v>
+        <v>4000000</v>
       </c>
       <c r="J9">
-        <v>16000</v>
+        <v>2000</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -949,25 +961,25 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C10" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F10" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="G10" t="s">
-        <v>73</v>
+        <v>32</v>
       </c>
       <c r="H10">
         <v>16180</v>
@@ -990,60 +1002,60 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C11" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D11" t="s">
         <v>19</v>
       </c>
       <c r="E11" t="s">
-        <v>63</v>
+        <v>19</v>
       </c>
       <c r="F11" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="G11" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H11">
-        <v>54133.66</v>
+        <v>20768</v>
       </c>
       <c r="I11">
-        <v>1330000</v>
+        <v>1298000</v>
       </c>
       <c r="J11">
-        <v>43300</v>
+        <v>16000</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>94</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C12" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F12" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H12">
         <v>12900</v>
@@ -1063,25 +1075,25 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C13" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G13" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H13">
         <v>9500</v>
@@ -1104,69 +1116,69 @@
         <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C14" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14" t="s">
-        <v>20</v>
+        <v>66</v>
       </c>
       <c r="F14" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H14">
-        <v>28960</v>
+        <v>54133.66</v>
       </c>
       <c r="I14">
-        <v>1810000</v>
+        <v>1330000</v>
       </c>
       <c r="J14">
-        <v>16000</v>
+        <v>43300</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C15" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F15" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="G15" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="H15">
-        <v>56000</v>
+        <v>28960</v>
       </c>
       <c r="I15">
-        <v>1400000</v>
+        <v>1810000</v>
       </c>
       <c r="J15">
-        <v>40000</v>
+        <v>16000</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1180,113 +1192,113 @@
         <v>21</v>
       </c>
       <c r="B16" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C16" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D16" t="s">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="E16" t="s">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="F16" t="s">
-        <v>37</v>
+        <v>72</v>
       </c>
       <c r="G16" t="s">
-        <v>74</v>
+        <v>26</v>
       </c>
       <c r="H16">
-        <v>35000.001</v>
+        <v>56000</v>
       </c>
       <c r="I16">
-        <v>23333334</v>
+        <v>1400000</v>
       </c>
       <c r="J16">
-        <v>3000</v>
+        <v>40000</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:12">
       <c r="A17" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C17" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="D17" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="E17" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F17" t="s">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="G17" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="H17">
-        <v>17400</v>
+        <v>35000.001</v>
       </c>
       <c r="I17">
-        <v>7250000</v>
+        <v>23333334</v>
       </c>
       <c r="J17">
-        <v>60000</v>
+        <v>3000</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>4</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:12">
       <c r="A18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C18" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D18" t="s">
-        <v>19</v>
+        <v>62</v>
       </c>
       <c r="E18" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F18" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G18" t="s">
-        <v>29</v>
+        <v>75</v>
       </c>
       <c r="H18">
-        <v>3455.34</v>
+        <v>17400</v>
       </c>
       <c r="I18">
-        <v>1330000</v>
+        <v>7250000</v>
       </c>
       <c r="J18">
-        <v>43300</v>
+        <v>60000</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1294,37 +1306,37 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C19" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="D19" t="s">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="E19" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="F19" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="G19" t="s">
-        <v>72</v>
+        <v>30</v>
       </c>
       <c r="H19">
-        <v>143550</v>
+        <v>3455.34</v>
       </c>
       <c r="I19">
-        <v>7250000</v>
+        <v>1330000</v>
       </c>
       <c r="J19">
-        <v>60000</v>
+        <v>43300</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>33</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1332,145 +1344,145 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C20" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="D20" t="s">
-        <v>23</v>
+        <v>62</v>
       </c>
       <c r="E20" t="s">
-        <v>23</v>
+        <v>65</v>
       </c>
       <c r="F20" t="s">
+        <v>67</v>
+      </c>
+      <c r="G20" t="s">
+        <v>75</v>
+      </c>
+      <c r="H20">
+        <v>143550</v>
+      </c>
+      <c r="I20">
+        <v>7250000</v>
+      </c>
+      <c r="J20">
+        <v>60000</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
         <v>33</v>
-      </c>
-      <c r="G20" t="s">
-        <v>30</v>
-      </c>
-      <c r="H20">
-        <v>22100</v>
-      </c>
-      <c r="I20">
-        <v>1300000</v>
-      </c>
-      <c r="J20">
-        <v>17000</v>
-      </c>
-      <c r="K20">
-        <v>0</v>
-      </c>
-      <c r="L20">
-        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:12">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C21" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="D21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E21" t="s">
-        <v>61</v>
+        <v>24</v>
       </c>
       <c r="F21" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G21" t="s">
-        <v>66</v>
+        <v>31</v>
       </c>
       <c r="H21">
-        <v>21850</v>
+        <v>22100</v>
       </c>
       <c r="I21">
-        <v>2000000</v>
+        <v>1300000</v>
       </c>
       <c r="J21">
-        <v>11500</v>
+        <v>17000</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>95</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:12">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="D22" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E22" t="s">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="F22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G22" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="H22">
-        <v>12500</v>
+        <v>21850</v>
       </c>
       <c r="I22">
-        <v>6250000</v>
+        <v>2000000</v>
       </c>
       <c r="J22">
-        <v>2000</v>
+        <v>11500</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="23" spans="1:12">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C23" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D23" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E23" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F23" t="s">
-        <v>69</v>
+        <v>35</v>
       </c>
       <c r="G23" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="H23">
-        <v>23800</v>
+        <v>12500</v>
       </c>
       <c r="I23">
-        <v>3400000</v>
+        <v>6250000</v>
       </c>
       <c r="J23">
-        <v>7000</v>
+        <v>2000</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1481,116 +1493,116 @@
     </row>
     <row r="24" spans="1:12">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C24" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="D24" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="E24" t="s">
-        <v>62</v>
+        <v>24</v>
       </c>
       <c r="F24" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="G24" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H24">
-        <v>143550</v>
+        <v>23800</v>
       </c>
       <c r="I24">
-        <v>7250000</v>
+        <v>3400000</v>
       </c>
       <c r="J24">
-        <v>60000</v>
+        <v>7000</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>33</v>
+        <v>100</v>
       </c>
     </row>
     <row r="25" spans="1:12">
       <c r="A25" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C25" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="D25" t="s">
-        <v>23</v>
+        <v>62</v>
       </c>
       <c r="E25" t="s">
-        <v>23</v>
+        <v>65</v>
       </c>
       <c r="F25" t="s">
+        <v>67</v>
+      </c>
+      <c r="G25" t="s">
+        <v>75</v>
+      </c>
+      <c r="H25">
+        <v>143550</v>
+      </c>
+      <c r="I25">
+        <v>7250000</v>
+      </c>
+      <c r="J25">
+        <v>60000</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
         <v>33</v>
-      </c>
-      <c r="G25" t="s">
-        <v>30</v>
-      </c>
-      <c r="H25">
-        <v>8000</v>
-      </c>
-      <c r="I25">
-        <v>4000000</v>
-      </c>
-      <c r="J25">
-        <v>2000</v>
-      </c>
-      <c r="K25">
-        <v>0</v>
-      </c>
-      <c r="L25">
-        <v>100</v>
       </c>
     </row>
     <row r="26" spans="1:12">
       <c r="A26" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C26" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="D26" t="s">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="E26" t="s">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="F26" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G26" t="s">
-        <v>74</v>
+        <v>31</v>
       </c>
       <c r="H26">
-        <v>35000.001</v>
+        <v>8000</v>
       </c>
       <c r="I26">
-        <v>23333334</v>
+        <v>4000000</v>
       </c>
       <c r="J26">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="K26">
         <v>0</v>
       </c>
       <c r="L26">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -1598,36 +1610,74 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C27" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D27" t="s">
-        <v>24</v>
+        <v>63</v>
       </c>
       <c r="E27" t="s">
-        <v>24</v>
+        <v>63</v>
       </c>
       <c r="F27" t="s">
+        <v>39</v>
+      </c>
+      <c r="G27" t="s">
+        <v>78</v>
+      </c>
+      <c r="H27">
+        <v>35000.001</v>
+      </c>
+      <c r="I27">
+        <v>23333334</v>
+      </c>
+      <c r="J27">
+        <v>3000</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" t="s">
         <v>25</v>
       </c>
-      <c r="G27" t="s">
-        <v>34</v>
-      </c>
-      <c r="H27">
+      <c r="B28" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28" t="s">
+        <v>60</v>
+      </c>
+      <c r="D28" t="s">
+        <v>25</v>
+      </c>
+      <c r="E28" t="s">
+        <v>25</v>
+      </c>
+      <c r="F28" t="s">
+        <v>26</v>
+      </c>
+      <c r="G28" t="s">
+        <v>36</v>
+      </c>
+      <c r="H28">
         <v>14000</v>
       </c>
-      <c r="I27">
+      <c r="I28">
         <v>7000000</v>
       </c>
-      <c r="J27">
+      <c r="J28">
         <v>2000</v>
       </c>
-      <c r="K27">
-        <v>0</v>
-      </c>
-      <c r="L27">
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
         <v>100</v>
       </c>
     </row>

--- a/datasets/form3.xlsx
+++ b/datasets/form3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="84">
   <si>
     <t>인수기관</t>
   </si>
@@ -109,6 +109,9 @@
     <t>2024-07-02</t>
   </si>
   <si>
+    <t>2024-07-16</t>
+  </si>
+  <si>
     <t>2024-06-19</t>
   </si>
   <si>
@@ -151,6 +154,9 @@
     <t>이베스트스팩6호</t>
   </si>
   <si>
+    <t>엔에이치스팩31호</t>
+  </si>
+  <si>
     <t>시프트업</t>
   </si>
   <si>
@@ -220,6 +226,9 @@
     <t>2024-07-05</t>
   </si>
   <si>
+    <t>2024-07-19</t>
+  </si>
+  <si>
     <t>2024-07-18</t>
   </si>
   <si>
@@ -239,6 +248,9 @@
   </si>
   <si>
     <t>2024-07-12</t>
+  </si>
+  <si>
+    <t>2024-07-26</t>
   </si>
   <si>
     <t>2024-07-11</t>
@@ -611,7 +623,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L28"/>
+  <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -663,19 +675,19 @@
         <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
         <v>24</v>
       </c>
       <c r="E2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="H2">
         <v>1150</v>
@@ -701,7 +713,7 @@
         <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D3" t="s">
         <v>13</v>
@@ -713,7 +725,7 @@
         <v>29</v>
       </c>
       <c r="G3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H3">
         <v>10000</v>
@@ -739,7 +751,7 @@
         <v>28</v>
       </c>
       <c r="C4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D4" t="s">
         <v>14</v>
@@ -748,10 +760,10 @@
         <v>14</v>
       </c>
       <c r="F4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H4">
         <v>48000</v>
@@ -777,7 +789,7 @@
         <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D5" t="s">
         <v>15</v>
@@ -789,7 +801,7 @@
         <v>26</v>
       </c>
       <c r="G5" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="H5">
         <v>12000</v>
@@ -815,19 +827,19 @@
         <v>30</v>
       </c>
       <c r="C6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D6" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E6" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F6" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G6" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H6">
         <v>8000</v>
@@ -850,37 +862,37 @@
         <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D7" t="s">
-        <v>62</v>
+        <v>17</v>
       </c>
       <c r="E7" t="s">
-        <v>65</v>
+        <v>17</v>
       </c>
       <c r="F7" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G7" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H7">
-        <v>130500</v>
+        <v>12000</v>
       </c>
       <c r="I7">
-        <v>7250000</v>
+        <v>6000000</v>
       </c>
       <c r="J7">
-        <v>60000</v>
+        <v>2000</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>30</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -888,69 +900,69 @@
         <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D8" t="s">
-        <v>17</v>
+        <v>64</v>
       </c>
       <c r="E8" t="s">
-        <v>17</v>
+        <v>67</v>
       </c>
       <c r="F8" t="s">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="G8" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H8">
-        <v>43200</v>
+        <v>130500</v>
       </c>
       <c r="I8">
-        <v>2400000</v>
+        <v>7250000</v>
       </c>
       <c r="J8">
-        <v>18000</v>
+        <v>60000</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>100</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B9" t="s">
         <v>32</v>
       </c>
       <c r="C9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F9" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="G9" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H9">
-        <v>8000</v>
+        <v>43200</v>
       </c>
       <c r="I9">
-        <v>4000000</v>
+        <v>2400000</v>
       </c>
       <c r="J9">
-        <v>2000</v>
+        <v>18000</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -961,34 +973,34 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
         <v>33</v>
       </c>
       <c r="C10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F10" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G10" t="s">
-        <v>32</v>
+        <v>81</v>
       </c>
       <c r="H10">
-        <v>16180</v>
+        <v>8000</v>
       </c>
       <c r="I10">
-        <v>1618000</v>
+        <v>4000000</v>
       </c>
       <c r="J10">
-        <v>10000</v>
+        <v>2000</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1002,10 +1014,10 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D11" t="s">
         <v>19</v>
@@ -1014,19 +1026,19 @@
         <v>19</v>
       </c>
       <c r="F11" t="s">
-        <v>29</v>
+        <v>72</v>
       </c>
       <c r="G11" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H11">
-        <v>20768</v>
+        <v>16180</v>
       </c>
       <c r="I11">
-        <v>1298000</v>
+        <v>1618000</v>
       </c>
       <c r="J11">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -1037,34 +1049,34 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F12" t="s">
+        <v>29</v>
+      </c>
+      <c r="G12" t="s">
         <v>39</v>
       </c>
-      <c r="G12" t="s">
-        <v>36</v>
-      </c>
       <c r="H12">
-        <v>12900</v>
+        <v>20768</v>
       </c>
       <c r="I12">
-        <v>6450000</v>
+        <v>1298000</v>
       </c>
       <c r="J12">
-        <v>2000</v>
+        <v>16000</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -1078,10 +1090,10 @@
         <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C13" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D13" t="s">
         <v>20</v>
@@ -1090,16 +1102,16 @@
         <v>20</v>
       </c>
       <c r="F13" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G13" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H13">
-        <v>9500</v>
+        <v>12900</v>
       </c>
       <c r="I13">
-        <v>4750000</v>
+        <v>6450000</v>
       </c>
       <c r="J13">
         <v>2000</v>
@@ -1116,75 +1128,75 @@
         <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14" t="s">
-        <v>66</v>
+        <v>20</v>
       </c>
       <c r="F14" t="s">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="G14" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H14">
-        <v>54133.66</v>
+        <v>9500</v>
       </c>
       <c r="I14">
-        <v>1330000</v>
+        <v>4750000</v>
       </c>
       <c r="J14">
-        <v>43300</v>
+        <v>2000</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>94</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B15" t="s">
         <v>36</v>
       </c>
       <c r="C15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E15" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="F15" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G15" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H15">
-        <v>28960</v>
+        <v>54133.66</v>
       </c>
       <c r="I15">
-        <v>1810000</v>
+        <v>1330000</v>
       </c>
       <c r="J15">
-        <v>16000</v>
+        <v>43300</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -1195,7 +1207,7 @@
         <v>37</v>
       </c>
       <c r="C16" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D16" t="s">
         <v>21</v>
@@ -1204,19 +1216,19 @@
         <v>21</v>
       </c>
       <c r="F16" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G16" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="H16">
-        <v>56000</v>
+        <v>28960</v>
       </c>
       <c r="I16">
-        <v>1400000</v>
+        <v>1810000</v>
       </c>
       <c r="J16">
-        <v>40000</v>
+        <v>16000</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1227,40 +1239,40 @@
     </row>
     <row r="17" spans="1:12">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C17" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D17" t="s">
-        <v>63</v>
+        <v>21</v>
       </c>
       <c r="E17" t="s">
-        <v>63</v>
+        <v>21</v>
       </c>
       <c r="F17" t="s">
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="G17" t="s">
-        <v>78</v>
+        <v>26</v>
       </c>
       <c r="H17">
-        <v>35000.001</v>
+        <v>56000</v>
       </c>
       <c r="I17">
-        <v>23333334</v>
+        <v>1400000</v>
       </c>
       <c r="J17">
-        <v>3000</v>
+        <v>40000</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1268,37 +1280,37 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C18" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="D18" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E18" t="s">
         <v>65</v>
       </c>
       <c r="F18" t="s">
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="G18" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="H18">
-        <v>17400</v>
+        <v>35000.001</v>
       </c>
       <c r="I18">
-        <v>7250000</v>
+        <v>23333334</v>
       </c>
       <c r="J18">
-        <v>60000</v>
+        <v>3000</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>4</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1306,113 +1318,113 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C19" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D19" t="s">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="E19" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G19" t="s">
-        <v>30</v>
+        <v>79</v>
       </c>
       <c r="H19">
-        <v>3455.34</v>
+        <v>17400</v>
       </c>
       <c r="I19">
-        <v>1330000</v>
+        <v>7250000</v>
       </c>
       <c r="J19">
-        <v>43300</v>
+        <v>60000</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B20" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" t="s">
+        <v>54</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20" t="s">
+        <v>68</v>
+      </c>
+      <c r="F20" t="s">
+        <v>73</v>
+      </c>
+      <c r="G20" t="s">
         <v>30</v>
       </c>
-      <c r="C20" t="s">
-        <v>45</v>
-      </c>
-      <c r="D20" t="s">
-        <v>62</v>
-      </c>
-      <c r="E20" t="s">
-        <v>65</v>
-      </c>
-      <c r="F20" t="s">
-        <v>67</v>
-      </c>
-      <c r="G20" t="s">
-        <v>75</v>
-      </c>
       <c r="H20">
-        <v>143550</v>
+        <v>3455.34</v>
       </c>
       <c r="I20">
-        <v>7250000</v>
+        <v>1330000</v>
       </c>
       <c r="J20">
-        <v>60000</v>
+        <v>43300</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>33</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:12">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C21" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="D21" t="s">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="E21" t="s">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="F21" t="s">
-        <v>34</v>
+        <v>69</v>
       </c>
       <c r="G21" t="s">
-        <v>31</v>
+        <v>79</v>
       </c>
       <c r="H21">
-        <v>22100</v>
+        <v>143550</v>
       </c>
       <c r="I21">
-        <v>1300000</v>
+        <v>7250000</v>
       </c>
       <c r="J21">
-        <v>17000</v>
+        <v>60000</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>100</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1420,37 +1432,37 @@
         <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C22" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="D22" t="s">
         <v>24</v>
       </c>
       <c r="E22" t="s">
-        <v>64</v>
+        <v>24</v>
       </c>
       <c r="F22" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G22" t="s">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="H22">
-        <v>21850</v>
+        <v>22100</v>
       </c>
       <c r="I22">
-        <v>2000000</v>
+        <v>1300000</v>
       </c>
       <c r="J22">
-        <v>11500</v>
+        <v>17000</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>95</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1458,10 +1470,10 @@
         <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C23" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D23" t="s">
         <v>24</v>
@@ -1470,10 +1482,10 @@
         <v>24</v>
       </c>
       <c r="F23" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G23" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="H23">
         <v>12500</v>
@@ -1496,37 +1508,37 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="D24" t="s">
         <v>24</v>
       </c>
       <c r="E24" t="s">
-        <v>24</v>
+        <v>66</v>
       </c>
       <c r="F24" t="s">
+        <v>32</v>
+      </c>
+      <c r="G24" t="s">
         <v>73</v>
       </c>
-      <c r="G24" t="s">
-        <v>71</v>
-      </c>
       <c r="H24">
-        <v>23800</v>
+        <v>21850</v>
       </c>
       <c r="I24">
-        <v>3400000</v>
+        <v>2000000</v>
       </c>
       <c r="J24">
-        <v>7000</v>
+        <v>11500</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1534,37 +1546,37 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C25" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="D25" t="s">
-        <v>62</v>
+        <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>65</v>
+        <v>24</v>
       </c>
       <c r="F25" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="G25" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H25">
-        <v>143550</v>
+        <v>23800</v>
       </c>
       <c r="I25">
-        <v>7250000</v>
+        <v>3400000</v>
       </c>
       <c r="J25">
-        <v>60000</v>
+        <v>7000</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>33</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -1572,37 +1584,37 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C26" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="D26" t="s">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="E26" t="s">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="F26" t="s">
-        <v>34</v>
+        <v>69</v>
       </c>
       <c r="G26" t="s">
-        <v>31</v>
+        <v>79</v>
       </c>
       <c r="H26">
-        <v>8000</v>
+        <v>143550</v>
       </c>
       <c r="I26">
-        <v>4000000</v>
+        <v>7250000</v>
       </c>
       <c r="J26">
-        <v>2000</v>
+        <v>60000</v>
       </c>
       <c r="K26">
         <v>0</v>
       </c>
       <c r="L26">
-        <v>100</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -1610,74 +1622,112 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C27" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="D27" t="s">
-        <v>63</v>
+        <v>24</v>
       </c>
       <c r="E27" t="s">
-        <v>63</v>
+        <v>24</v>
       </c>
       <c r="F27" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G27" t="s">
-        <v>78</v>
+        <v>32</v>
       </c>
       <c r="H27">
-        <v>35000.001</v>
+        <v>8000</v>
       </c>
       <c r="I27">
-        <v>23333334</v>
+        <v>4000000</v>
       </c>
       <c r="J27">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="K27">
         <v>0</v>
       </c>
       <c r="L27">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="28" spans="1:12">
       <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>35</v>
+      </c>
+      <c r="C28" t="s">
+        <v>57</v>
+      </c>
+      <c r="D28" t="s">
+        <v>65</v>
+      </c>
+      <c r="E28" t="s">
+        <v>65</v>
+      </c>
+      <c r="F28" t="s">
+        <v>40</v>
+      </c>
+      <c r="G28" t="s">
+        <v>82</v>
+      </c>
+      <c r="H28">
+        <v>35000.001</v>
+      </c>
+      <c r="I28">
+        <v>23333334</v>
+      </c>
+      <c r="J28">
+        <v>3000</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" t="s">
         <v>25</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B29" t="s">
         <v>29</v>
       </c>
-      <c r="C28" t="s">
-        <v>60</v>
-      </c>
-      <c r="D28" t="s">
+      <c r="C29" t="s">
+        <v>62</v>
+      </c>
+      <c r="D29" t="s">
         <v>25</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E29" t="s">
         <v>25</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F29" t="s">
         <v>26</v>
       </c>
-      <c r="G28" t="s">
-        <v>36</v>
-      </c>
-      <c r="H28">
+      <c r="G29" t="s">
+        <v>37</v>
+      </c>
+      <c r="H29">
         <v>14000</v>
       </c>
-      <c r="I28">
+      <c r="I29">
         <v>7000000</v>
       </c>
-      <c r="J28">
+      <c r="J29">
         <v>2000</v>
       </c>
-      <c r="K28">
-        <v>0</v>
-      </c>
-      <c r="L28">
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
         <v>100</v>
       </c>
     </row>

--- a/datasets/form3.xlsx
+++ b/datasets/form3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="88">
   <si>
     <t>인수기관</t>
   </si>
@@ -121,6 +121,9 @@
     <t>2024-07-03</t>
   </si>
   <si>
+    <t>2024-07-18</t>
+  </si>
+  <si>
     <t>2024-06-13</t>
   </si>
   <si>
@@ -133,12 +136,12 @@
     <t>2024-06-03</t>
   </si>
   <si>
+    <t>2024-06-18</t>
+  </si>
+  <si>
     <t>2024-06-17</t>
   </si>
   <si>
-    <t>2024-06-18</t>
-  </si>
-  <si>
     <t>에스오에스랩</t>
   </si>
   <si>
@@ -172,15 +175,18 @@
     <t>라메디텍</t>
   </si>
   <si>
+    <t>산일전기</t>
+  </si>
+  <si>
     <t>미래에셋비전스팩6호</t>
   </si>
   <si>
+    <t>이노스페이스</t>
+  </si>
+  <si>
     <t>미래에셋비전스팩5호</t>
   </si>
   <si>
-    <t>이노스페이스</t>
-  </si>
-  <si>
     <t>하스</t>
   </si>
   <si>
@@ -193,12 +199,12 @@
     <t>씨어스테크놀로지</t>
   </si>
   <si>
+    <t>하이젠알앤엠</t>
+  </si>
+  <si>
     <t>한국제15호스팩</t>
   </si>
   <si>
-    <t>하이젠알앤엠</t>
-  </si>
-  <si>
     <t>한국제14호스팩</t>
   </si>
   <si>
@@ -220,6 +226,9 @@
     <t>한국, 제이피모간회사 서울지점, NH, 신한</t>
   </si>
   <si>
+    <t>미래, 삼성</t>
+  </si>
+  <si>
     <t>미래, 신한</t>
   </si>
   <si>
@@ -229,12 +238,12 @@
     <t>2024-07-19</t>
   </si>
   <si>
-    <t>2024-07-18</t>
-  </si>
-  <si>
     <t>2024-07-08</t>
   </si>
   <si>
+    <t>2024-07-23</t>
+  </si>
+  <si>
     <t>2024-06-25</t>
   </si>
   <si>
@@ -260,6 +269,9 @@
   </si>
   <si>
     <t>2024-07-25</t>
+  </si>
+  <si>
+    <t>2024-07-29</t>
   </si>
   <si>
     <t>2024-07-01</t>
@@ -623,7 +635,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L29"/>
+  <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -675,19 +687,19 @@
         <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D2" t="s">
         <v>24</v>
       </c>
       <c r="E2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F2" t="s">
         <v>32</v>
       </c>
       <c r="G2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="H2">
         <v>1150</v>
@@ -713,7 +725,7 @@
         <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D3" t="s">
         <v>13</v>
@@ -751,7 +763,7 @@
         <v>28</v>
       </c>
       <c r="C4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D4" t="s">
         <v>14</v>
@@ -760,10 +772,10 @@
         <v>14</v>
       </c>
       <c r="F4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H4">
         <v>48000</v>
@@ -789,7 +801,7 @@
         <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D5" t="s">
         <v>15</v>
@@ -801,7 +813,7 @@
         <v>26</v>
       </c>
       <c r="G5" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H5">
         <v>12000</v>
@@ -827,19 +839,19 @@
         <v>30</v>
       </c>
       <c r="C6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F6" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G6" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H6">
         <v>8000</v>
@@ -865,7 +877,7 @@
         <v>31</v>
       </c>
       <c r="C7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D7" t="s">
         <v>17</v>
@@ -874,10 +886,10 @@
         <v>17</v>
       </c>
       <c r="F7" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="G7" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="H7">
         <v>12000</v>
@@ -903,19 +915,19 @@
         <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D8" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E8" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F8" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G8" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="H8">
         <v>130500</v>
@@ -941,7 +953,7 @@
         <v>32</v>
       </c>
       <c r="C9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D9" t="s">
         <v>17</v>
@@ -950,10 +962,10 @@
         <v>17</v>
       </c>
       <c r="F9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G9" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="H9">
         <v>43200</v>
@@ -979,7 +991,7 @@
         <v>33</v>
       </c>
       <c r="C10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D10" t="s">
         <v>18</v>
@@ -988,10 +1000,10 @@
         <v>18</v>
       </c>
       <c r="F10" t="s">
-        <v>71</v>
+        <v>35</v>
       </c>
       <c r="G10" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H10">
         <v>8000</v>
@@ -1017,7 +1029,7 @@
         <v>34</v>
       </c>
       <c r="C11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D11" t="s">
         <v>19</v>
@@ -1026,7 +1038,7 @@
         <v>19</v>
       </c>
       <c r="F11" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G11" t="s">
         <v>33</v>
@@ -1055,7 +1067,7 @@
         <v>27</v>
       </c>
       <c r="C12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D12" t="s">
         <v>19</v>
@@ -1067,7 +1079,7 @@
         <v>29</v>
       </c>
       <c r="G12" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H12">
         <v>20768</v>
@@ -1093,34 +1105,34 @@
         <v>35</v>
       </c>
       <c r="C13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D13" t="s">
         <v>20</v>
       </c>
       <c r="E13" t="s">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="F13" t="s">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="G13" t="s">
-        <v>37</v>
+        <v>85</v>
       </c>
       <c r="H13">
-        <v>12900</v>
+        <v>255360</v>
       </c>
       <c r="I13">
-        <v>6450000</v>
+        <v>7600000</v>
       </c>
       <c r="J13">
-        <v>2000</v>
+        <v>35000</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -1128,10 +1140,10 @@
         <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="C14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1140,16 +1152,16 @@
         <v>20</v>
       </c>
       <c r="F14" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G14" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H14">
-        <v>9500</v>
+        <v>12900</v>
       </c>
       <c r="I14">
-        <v>4750000</v>
+        <v>6450000</v>
       </c>
       <c r="J14">
         <v>2000</v>
@@ -1166,19 +1178,19 @@
         <v>20</v>
       </c>
       <c r="B15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D15" t="s">
         <v>20</v>
       </c>
       <c r="E15" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F15" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G15" t="s">
         <v>30</v>
@@ -1201,34 +1213,34 @@
     </row>
     <row r="16" spans="1:12">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="C16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F16" t="s">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="G16" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H16">
-        <v>28960</v>
+        <v>9500</v>
       </c>
       <c r="I16">
-        <v>1810000</v>
+        <v>4750000</v>
       </c>
       <c r="J16">
-        <v>16000</v>
+        <v>2000</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1245,7 +1257,7 @@
         <v>38</v>
       </c>
       <c r="C17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D17" t="s">
         <v>21</v>
@@ -1254,19 +1266,19 @@
         <v>21</v>
       </c>
       <c r="F17" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G17" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="H17">
-        <v>56000</v>
+        <v>28960</v>
       </c>
       <c r="I17">
-        <v>1400000</v>
+        <v>1810000</v>
       </c>
       <c r="J17">
-        <v>40000</v>
+        <v>16000</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1277,72 +1289,72 @@
     </row>
     <row r="18" spans="1:12">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C18" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D18" t="s">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="E18" t="s">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="F18" t="s">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="G18" t="s">
-        <v>82</v>
+        <v>26</v>
       </c>
       <c r="H18">
-        <v>35000.001</v>
+        <v>56000</v>
       </c>
       <c r="I18">
-        <v>23333334</v>
+        <v>1400000</v>
       </c>
       <c r="J18">
-        <v>3000</v>
+        <v>40000</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C19" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D19" t="s">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="E19" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F19" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="G19" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="H19">
-        <v>17400</v>
+        <v>10640</v>
       </c>
       <c r="I19">
-        <v>7250000</v>
+        <v>7600000</v>
       </c>
       <c r="J19">
-        <v>60000</v>
+        <v>35000</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1359,60 +1371,60 @@
         <v>36</v>
       </c>
       <c r="C20" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D20" t="s">
-        <v>20</v>
+        <v>67</v>
       </c>
       <c r="E20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F20" t="s">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="G20" t="s">
-        <v>30</v>
+        <v>86</v>
       </c>
       <c r="H20">
-        <v>3455.34</v>
+        <v>35000.001</v>
       </c>
       <c r="I20">
-        <v>1330000</v>
+        <v>23333334</v>
       </c>
       <c r="J20">
-        <v>43300</v>
+        <v>3000</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>6</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:12">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B21" t="s">
         <v>30</v>
       </c>
       <c r="C21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D21" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E21" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F21" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G21" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="H21">
-        <v>143550</v>
+        <v>17400</v>
       </c>
       <c r="I21">
         <v>7250000</v>
@@ -1424,83 +1436,83 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>33</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:12">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C22" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D22" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E22" t="s">
-        <v>24</v>
+        <v>71</v>
       </c>
       <c r="F22" t="s">
-        <v>35</v>
+        <v>76</v>
       </c>
       <c r="G22" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H22">
-        <v>22100</v>
+        <v>3455.34</v>
       </c>
       <c r="I22">
-        <v>1300000</v>
+        <v>1330000</v>
       </c>
       <c r="J22">
-        <v>17000</v>
+        <v>43300</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>100</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:12">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="C23" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="D23" t="s">
-        <v>24</v>
+        <v>66</v>
       </c>
       <c r="E23" t="s">
-        <v>24</v>
+        <v>69</v>
       </c>
       <c r="F23" t="s">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="G23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H23">
-        <v>12500</v>
+        <v>143550</v>
       </c>
       <c r="I23">
-        <v>6250000</v>
+        <v>7250000</v>
       </c>
       <c r="J23">
-        <v>2000</v>
+        <v>60000</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>100</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1508,37 +1520,37 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C24" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="D24" t="s">
         <v>24</v>
       </c>
       <c r="E24" t="s">
-        <v>66</v>
+        <v>24</v>
       </c>
       <c r="F24" t="s">
+        <v>36</v>
+      </c>
+      <c r="G24" t="s">
         <v>32</v>
       </c>
-      <c r="G24" t="s">
-        <v>73</v>
-      </c>
       <c r="H24">
-        <v>21850</v>
+        <v>22100</v>
       </c>
       <c r="I24">
-        <v>2000000</v>
+        <v>1300000</v>
       </c>
       <c r="J24">
-        <v>11500</v>
+        <v>17000</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>95</v>
+        <v>100</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1549,7 +1561,7 @@
         <v>40</v>
       </c>
       <c r="C25" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D25" t="s">
         <v>24</v>
@@ -1558,10 +1570,10 @@
         <v>24</v>
       </c>
       <c r="F25" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G25" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H25">
         <v>23800</v>
@@ -1584,37 +1596,37 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D26" t="s">
-        <v>64</v>
+        <v>24</v>
       </c>
       <c r="E26" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F26" t="s">
-        <v>69</v>
+        <v>32</v>
       </c>
       <c r="G26" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="H26">
-        <v>143550</v>
+        <v>21850</v>
       </c>
       <c r="I26">
-        <v>7250000</v>
+        <v>2000000</v>
       </c>
       <c r="J26">
-        <v>60000</v>
+        <v>11500</v>
       </c>
       <c r="K26">
         <v>0</v>
       </c>
       <c r="L26">
-        <v>33</v>
+        <v>95</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -1622,10 +1634,10 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="C27" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D27" t="s">
         <v>24</v>
@@ -1634,16 +1646,16 @@
         <v>24</v>
       </c>
       <c r="F27" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G27" t="s">
-        <v>32</v>
+        <v>87</v>
       </c>
       <c r="H27">
-        <v>8000</v>
+        <v>12500</v>
       </c>
       <c r="I27">
-        <v>4000000</v>
+        <v>6250000</v>
       </c>
       <c r="J27">
         <v>2000</v>
@@ -1660,66 +1672,66 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C28" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="D28" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E28" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="F28" t="s">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="G28" t="s">
         <v>82</v>
       </c>
       <c r="H28">
-        <v>35000.001</v>
+        <v>143550</v>
       </c>
       <c r="I28">
-        <v>23333334</v>
+        <v>7250000</v>
       </c>
       <c r="J28">
-        <v>3000</v>
+        <v>60000</v>
       </c>
       <c r="K28">
         <v>0</v>
       </c>
       <c r="L28">
-        <v>50</v>
+        <v>33</v>
       </c>
     </row>
     <row r="29" spans="1:12">
       <c r="A29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C29" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F29" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="G29" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H29">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="I29">
-        <v>7000000</v>
+        <v>4000000</v>
       </c>
       <c r="J29">
         <v>2000</v>
@@ -1728,6 +1740,82 @@
         <v>0</v>
       </c>
       <c r="L29">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>36</v>
+      </c>
+      <c r="C30" t="s">
+        <v>59</v>
+      </c>
+      <c r="D30" t="s">
+        <v>67</v>
+      </c>
+      <c r="E30" t="s">
+        <v>67</v>
+      </c>
+      <c r="F30" t="s">
+        <v>40</v>
+      </c>
+      <c r="G30" t="s">
+        <v>86</v>
+      </c>
+      <c r="H30">
+        <v>35000.001</v>
+      </c>
+      <c r="I30">
+        <v>23333334</v>
+      </c>
+      <c r="J30">
+        <v>3000</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31" t="s">
+        <v>64</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31" t="s">
+        <v>25</v>
+      </c>
+      <c r="F31" t="s">
+        <v>26</v>
+      </c>
+      <c r="G31" t="s">
+        <v>38</v>
+      </c>
+      <c r="H31">
+        <v>14000</v>
+      </c>
+      <c r="I31">
+        <v>7000000</v>
+      </c>
+      <c r="J31">
+        <v>2000</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
         <v>100</v>
       </c>
     </row>

--- a/datasets/form3.xlsx
+++ b/datasets/form3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="92">
   <si>
     <t>인수기관</t>
   </si>
@@ -88,6 +88,9 @@
     <t>제이피모간회사</t>
   </si>
   <si>
+    <t>키움</t>
+  </si>
+  <si>
     <t>한국</t>
   </si>
   <si>
@@ -136,6 +139,9 @@
     <t>2024-06-03</t>
   </si>
   <si>
+    <t>2024-07-22</t>
+  </si>
+  <si>
     <t>2024-06-18</t>
   </si>
   <si>
@@ -175,6 +181,9 @@
     <t>라메디텍</t>
   </si>
   <si>
+    <t>미래에셋비전스팩5호</t>
+  </si>
+  <si>
     <t>산일전기</t>
   </si>
   <si>
@@ -184,9 +193,6 @@
     <t>이노스페이스</t>
   </si>
   <si>
-    <t>미래에셋비전스팩5호</t>
-  </si>
-  <si>
     <t>하스</t>
   </si>
   <si>
@@ -196,6 +202,9 @@
     <t>신한글로벌액티브리츠</t>
   </si>
   <si>
+    <t>피앤에스미캐닉스</t>
+  </si>
+  <si>
     <t>씨어스테크놀로지</t>
   </si>
   <si>
@@ -253,6 +262,9 @@
     <t>2024-06-07</t>
   </si>
   <si>
+    <t>2024-07-25</t>
+  </si>
+  <si>
     <t>2024-06-21</t>
   </si>
   <si>
@@ -268,13 +280,13 @@
     <t>2024-06-28</t>
   </si>
   <si>
-    <t>2024-07-25</t>
-  </si>
-  <si>
     <t>2024-07-29</t>
   </si>
   <si>
     <t>2024-07-01</t>
+  </si>
+  <si>
+    <t>2024-07-31</t>
   </si>
   <si>
     <t>2024-06-26</t>
@@ -635,7 +647,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L31"/>
+  <dimension ref="A1:L32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -684,22 +696,22 @@
         <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H2">
         <v>1150</v>
@@ -722,10 +734,10 @@
         <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D3" t="s">
         <v>13</v>
@@ -734,10 +746,10 @@
         <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H3">
         <v>10000</v>
@@ -760,10 +772,10 @@
         <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D4" t="s">
         <v>14</v>
@@ -772,10 +784,10 @@
         <v>14</v>
       </c>
       <c r="F4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H4">
         <v>48000</v>
@@ -798,10 +810,10 @@
         <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D5" t="s">
         <v>15</v>
@@ -810,10 +822,10 @@
         <v>15</v>
       </c>
       <c r="F5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G5" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="H5">
         <v>12000</v>
@@ -836,22 +848,22 @@
         <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C6" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D6" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E6" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F6" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G6" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="H6">
         <v>8000</v>
@@ -874,10 +886,10 @@
         <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D7" t="s">
         <v>17</v>
@@ -886,10 +898,10 @@
         <v>17</v>
       </c>
       <c r="F7" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G7" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="H7">
         <v>12000</v>
@@ -912,22 +924,22 @@
         <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D8" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E8" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F8" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G8" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="H8">
         <v>130500</v>
@@ -950,10 +962,10 @@
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C9" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D9" t="s">
         <v>17</v>
@@ -962,10 +974,10 @@
         <v>17</v>
       </c>
       <c r="F9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G9" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="H9">
         <v>43200</v>
@@ -988,10 +1000,10 @@
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C10" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D10" t="s">
         <v>18</v>
@@ -1000,10 +1012,10 @@
         <v>18</v>
       </c>
       <c r="F10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G10" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H10">
         <v>8000</v>
@@ -1026,10 +1038,10 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C11" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D11" t="s">
         <v>19</v>
@@ -1038,10 +1050,10 @@
         <v>19</v>
       </c>
       <c r="F11" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H11">
         <v>16180</v>
@@ -1064,10 +1076,10 @@
         <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C12" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D12" t="s">
         <v>19</v>
@@ -1076,10 +1088,10 @@
         <v>19</v>
       </c>
       <c r="F12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G12" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H12">
         <v>20768</v>
@@ -1102,37 +1114,37 @@
         <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C13" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D13" t="s">
         <v>20</v>
       </c>
       <c r="E13" t="s">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="F13" t="s">
-        <v>75</v>
+        <v>37</v>
       </c>
       <c r="G13" t="s">
-        <v>85</v>
+        <v>33</v>
       </c>
       <c r="H13">
-        <v>255360</v>
+        <v>9500</v>
       </c>
       <c r="I13">
-        <v>7600000</v>
+        <v>4750000</v>
       </c>
       <c r="J13">
-        <v>35000</v>
+        <v>2000</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -1143,34 +1155,34 @@
         <v>36</v>
       </c>
       <c r="C14" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14" t="s">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="F14" t="s">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="G14" t="s">
-        <v>38</v>
+        <v>88</v>
       </c>
       <c r="H14">
-        <v>12900</v>
+        <v>255360</v>
       </c>
       <c r="I14">
-        <v>6450000</v>
+        <v>7600000</v>
       </c>
       <c r="J14">
-        <v>2000</v>
+        <v>35000</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -1181,34 +1193,34 @@
         <v>37</v>
       </c>
       <c r="C15" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D15" t="s">
         <v>20</v>
       </c>
       <c r="E15" t="s">
-        <v>71</v>
+        <v>20</v>
       </c>
       <c r="F15" t="s">
-        <v>76</v>
+        <v>42</v>
       </c>
       <c r="G15" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H15">
-        <v>54133.66</v>
+        <v>12900</v>
       </c>
       <c r="I15">
-        <v>1330000</v>
+        <v>6450000</v>
       </c>
       <c r="J15">
-        <v>43300</v>
+        <v>2000</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>94</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -1216,37 +1228,37 @@
         <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C16" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D16" t="s">
         <v>20</v>
       </c>
       <c r="E16" t="s">
-        <v>20</v>
+        <v>74</v>
       </c>
       <c r="F16" t="s">
-        <v>36</v>
+        <v>79</v>
       </c>
       <c r="G16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H16">
-        <v>9500</v>
+        <v>54133.66</v>
       </c>
       <c r="I16">
-        <v>4750000</v>
+        <v>1330000</v>
       </c>
       <c r="J16">
-        <v>2000</v>
+        <v>43300</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -1254,10 +1266,10 @@
         <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C17" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D17" t="s">
         <v>21</v>
@@ -1266,10 +1278,10 @@
         <v>21</v>
       </c>
       <c r="F17" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H17">
         <v>28960</v>
@@ -1292,10 +1304,10 @@
         <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C18" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D18" t="s">
         <v>21</v>
@@ -1304,10 +1316,10 @@
         <v>21</v>
       </c>
       <c r="F18" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="G18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H18">
         <v>56000</v>
@@ -1330,22 +1342,22 @@
         <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C19" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D19" t="s">
         <v>20</v>
       </c>
       <c r="E19" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="F19" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="G19" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="H19">
         <v>10640</v>
@@ -1368,37 +1380,37 @@
         <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D20" t="s">
-        <v>67</v>
+        <v>20</v>
       </c>
       <c r="E20" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="F20" t="s">
-        <v>40</v>
+        <v>79</v>
       </c>
       <c r="G20" t="s">
-        <v>86</v>
+        <v>31</v>
       </c>
       <c r="H20">
-        <v>35000.001</v>
+        <v>3455.34</v>
       </c>
       <c r="I20">
-        <v>23333334</v>
+        <v>1330000</v>
       </c>
       <c r="J20">
-        <v>3000</v>
+        <v>43300</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>50</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1406,22 +1418,22 @@
         <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C21" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D21" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E21" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F21" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G21" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="H21">
         <v>17400</v>
@@ -1447,34 +1459,34 @@
         <v>37</v>
       </c>
       <c r="C22" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="D22" t="s">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="E22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F22" t="s">
-        <v>76</v>
+        <v>42</v>
       </c>
       <c r="G22" t="s">
-        <v>30</v>
+        <v>89</v>
       </c>
       <c r="H22">
-        <v>3455.34</v>
+        <v>35000.001</v>
       </c>
       <c r="I22">
-        <v>1330000</v>
+        <v>23333334</v>
       </c>
       <c r="J22">
-        <v>43300</v>
+        <v>3000</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>6</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1482,22 +1494,22 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C23" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D23" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E23" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F23" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G23" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="H23">
         <v>143550</v>
@@ -1520,10 +1532,10 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="C24" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D24" t="s">
         <v>24</v>
@@ -1532,19 +1544,19 @@
         <v>24</v>
       </c>
       <c r="F24" t="s">
-        <v>36</v>
+        <v>82</v>
       </c>
       <c r="G24" t="s">
-        <v>32</v>
+        <v>90</v>
       </c>
       <c r="H24">
-        <v>22100</v>
+        <v>29700</v>
       </c>
       <c r="I24">
-        <v>1300000</v>
+        <v>1350000</v>
       </c>
       <c r="J24">
-        <v>17000</v>
+        <v>22000</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1555,34 +1567,34 @@
     </row>
     <row r="25" spans="1:12">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="C25" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D25" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E25" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F25" t="s">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="G25" t="s">
-        <v>77</v>
+        <v>33</v>
       </c>
       <c r="H25">
-        <v>23800</v>
+        <v>22100</v>
       </c>
       <c r="I25">
-        <v>3400000</v>
+        <v>1300000</v>
       </c>
       <c r="J25">
-        <v>7000</v>
+        <v>17000</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1593,192 +1605,192 @@
     </row>
     <row r="26" spans="1:12">
       <c r="A26" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="C26" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="D26" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>68</v>
+        <v>25</v>
       </c>
       <c r="F26" t="s">
-        <v>32</v>
+        <v>83</v>
       </c>
       <c r="G26" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="H26">
-        <v>21850</v>
+        <v>23800</v>
       </c>
       <c r="I26">
-        <v>2000000</v>
+        <v>3400000</v>
       </c>
       <c r="J26">
-        <v>11500</v>
+        <v>7000</v>
       </c>
       <c r="K26">
         <v>0</v>
       </c>
       <c r="L26">
-        <v>95</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:12">
       <c r="A27" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="C27" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="D27" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E27" t="s">
-        <v>24</v>
+        <v>71</v>
       </c>
       <c r="F27" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G27" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H27">
-        <v>12500</v>
+        <v>21850</v>
       </c>
       <c r="I27">
-        <v>6250000</v>
+        <v>2000000</v>
       </c>
       <c r="J27">
-        <v>2000</v>
+        <v>11500</v>
       </c>
       <c r="K27">
         <v>0</v>
       </c>
       <c r="L27">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="28" spans="1:12">
       <c r="A28" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B28" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="C28" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="D28" t="s">
-        <v>66</v>
+        <v>25</v>
       </c>
       <c r="E28" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="F28" t="s">
-        <v>72</v>
+        <v>38</v>
       </c>
       <c r="G28" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="H28">
-        <v>143550</v>
+        <v>12500</v>
       </c>
       <c r="I28">
-        <v>7250000</v>
+        <v>6250000</v>
       </c>
       <c r="J28">
-        <v>60000</v>
+        <v>2000</v>
       </c>
       <c r="K28">
         <v>0</v>
       </c>
       <c r="L28">
-        <v>33</v>
+        <v>100</v>
       </c>
     </row>
     <row r="29" spans="1:12">
       <c r="A29" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B29" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C29" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="D29" t="s">
-        <v>24</v>
+        <v>69</v>
       </c>
       <c r="E29" t="s">
-        <v>24</v>
+        <v>72</v>
       </c>
       <c r="F29" t="s">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="G29" t="s">
-        <v>32</v>
+        <v>86</v>
       </c>
       <c r="H29">
-        <v>8000</v>
+        <v>143550</v>
       </c>
       <c r="I29">
-        <v>4000000</v>
+        <v>7250000</v>
       </c>
       <c r="J29">
-        <v>2000</v>
+        <v>60000</v>
       </c>
       <c r="K29">
         <v>0</v>
       </c>
       <c r="L29">
-        <v>100</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30" spans="1:12">
       <c r="A30" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B30" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C30" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="D30" t="s">
-        <v>67</v>
+        <v>25</v>
       </c>
       <c r="E30" t="s">
-        <v>67</v>
+        <v>25</v>
       </c>
       <c r="F30" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G30" t="s">
-        <v>86</v>
+        <v>33</v>
       </c>
       <c r="H30">
-        <v>35000.001</v>
+        <v>8000</v>
       </c>
       <c r="I30">
-        <v>23333334</v>
+        <v>4000000</v>
       </c>
       <c r="J30">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="K30">
         <v>0</v>
       </c>
       <c r="L30">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -1786,36 +1798,74 @@
         <v>25</v>
       </c>
       <c r="B31" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C31" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D31" t="s">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="E31" t="s">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="F31" t="s">
+        <v>42</v>
+      </c>
+      <c r="G31" t="s">
+        <v>89</v>
+      </c>
+      <c r="H31">
+        <v>35000.001</v>
+      </c>
+      <c r="I31">
+        <v>23333334</v>
+      </c>
+      <c r="J31">
+        <v>3000</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" t="s">
         <v>26</v>
       </c>
-      <c r="G31" t="s">
-        <v>38</v>
-      </c>
-      <c r="H31">
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32" t="s">
+        <v>67</v>
+      </c>
+      <c r="D32" t="s">
+        <v>26</v>
+      </c>
+      <c r="E32" t="s">
+        <v>26</v>
+      </c>
+      <c r="F32" t="s">
+        <v>27</v>
+      </c>
+      <c r="G32" t="s">
+        <v>39</v>
+      </c>
+      <c r="H32">
         <v>14000</v>
       </c>
-      <c r="I31">
+      <c r="I32">
         <v>7000000</v>
       </c>
-      <c r="J31">
+      <c r="J32">
         <v>2000</v>
       </c>
-      <c r="K31">
-        <v>0</v>
-      </c>
-      <c r="L31">
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
         <v>100</v>
       </c>
     </row>

--- a/datasets/form3.xlsx
+++ b/datasets/form3.xlsx
@@ -112,12 +112,12 @@
     <t>2024-07-02</t>
   </si>
   <si>
+    <t>2024-06-19</t>
+  </si>
+  <si>
     <t>2024-07-16</t>
   </si>
   <si>
-    <t>2024-06-19</t>
-  </si>
-  <si>
     <t>2024-07-15</t>
   </si>
   <si>
@@ -133,12 +133,12 @@
     <t>2024-06-20</t>
   </si>
   <si>
+    <t>2024-07-25</t>
+  </si>
+  <si>
     <t>2024-06-24</t>
   </si>
   <si>
-    <t>2024-06-03</t>
-  </si>
-  <si>
     <t>2024-07-22</t>
   </si>
   <si>
@@ -163,60 +163,60 @@
     <t>이베스트스팩6호</t>
   </si>
   <si>
+    <t>에이치브이엠</t>
+  </si>
+  <si>
     <t>엔에이치스팩31호</t>
   </si>
   <si>
     <t>시프트업</t>
   </si>
   <si>
-    <t>에이치브이엠</t>
-  </si>
-  <si>
     <t>SK증권제13호스팩</t>
   </si>
   <si>
+    <t>라메디텍</t>
+  </si>
+  <si>
     <t>엑셀세라퓨틱스</t>
   </si>
   <si>
-    <t>라메디텍</t>
+    <t>산일전기</t>
   </si>
   <si>
     <t>미래에셋비전스팩5호</t>
   </si>
   <si>
-    <t>산일전기</t>
-  </si>
-  <si>
     <t>미래에셋비전스팩6호</t>
   </si>
   <si>
     <t>이노스페이스</t>
   </si>
   <si>
+    <t>아이빔테크놀로지</t>
+  </si>
+  <si>
     <t>하스</t>
   </si>
   <si>
-    <t>그리드위즈</t>
-  </si>
-  <si>
     <t>신한글로벌액티브리츠</t>
   </si>
   <si>
     <t>피앤에스미캐닉스</t>
   </si>
   <si>
+    <t>하이젠알앤엠</t>
+  </si>
+  <si>
+    <t>한국제15호스팩</t>
+  </si>
+  <si>
+    <t>한국제14호스팩</t>
+  </si>
+  <si>
     <t>씨어스테크놀로지</t>
   </si>
   <si>
-    <t>하이젠알앤엠</t>
-  </si>
-  <si>
-    <t>한국제15호스팩</t>
-  </si>
-  <si>
-    <t>한국제14호스팩</t>
-  </si>
-  <si>
     <t>에이치엠씨제7호스팩</t>
   </si>
   <si>
@@ -256,31 +256,31 @@
     <t>2024-06-25</t>
   </si>
   <si>
+    <t>2024-07-30</t>
+  </si>
+  <si>
     <t>2024-06-27</t>
   </si>
   <si>
-    <t>2024-06-07</t>
-  </si>
-  <si>
-    <t>2024-07-25</t>
-  </si>
-  <si>
     <t>2024-06-21</t>
   </si>
   <si>
     <t>2024-07-12</t>
   </si>
   <si>
+    <t>2024-06-28</t>
+  </si>
+  <si>
     <t>2024-07-26</t>
   </si>
   <si>
     <t>2024-07-11</t>
   </si>
   <si>
-    <t>2024-06-28</t>
-  </si>
-  <si>
     <t>2024-07-29</t>
+  </si>
+  <si>
+    <t>2024-08-06</t>
   </si>
   <si>
     <t>2024-07-01</t>
@@ -708,7 +708,7 @@
         <v>71</v>
       </c>
       <c r="F2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G2" t="s">
         <v>79</v>
@@ -787,7 +787,7 @@
         <v>37</v>
       </c>
       <c r="G4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H4">
         <v>48000</v>
@@ -825,7 +825,7 @@
         <v>27</v>
       </c>
       <c r="G5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H5">
         <v>12000</v>
@@ -863,7 +863,7 @@
         <v>75</v>
       </c>
       <c r="G6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H6">
         <v>8000</v>
@@ -898,19 +898,19 @@
         <v>17</v>
       </c>
       <c r="F7" t="s">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="G7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H7">
-        <v>12000</v>
+        <v>43200</v>
       </c>
       <c r="I7">
-        <v>6000000</v>
+        <v>2400000</v>
       </c>
       <c r="J7">
-        <v>2000</v>
+        <v>18000</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -924,37 +924,37 @@
         <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C8" t="s">
         <v>50</v>
       </c>
       <c r="D8" t="s">
-        <v>69</v>
+        <v>17</v>
       </c>
       <c r="E8" t="s">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="F8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H8">
-        <v>130500</v>
+        <v>12000</v>
       </c>
       <c r="I8">
-        <v>7250000</v>
+        <v>6000000</v>
       </c>
       <c r="J8">
-        <v>60000</v>
+        <v>2000</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>30</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -962,37 +962,37 @@
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C9" t="s">
         <v>51</v>
       </c>
       <c r="D9" t="s">
-        <v>17</v>
+        <v>69</v>
       </c>
       <c r="E9" t="s">
-        <v>17</v>
+        <v>72</v>
       </c>
       <c r="F9" t="s">
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="G9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H9">
-        <v>43200</v>
+        <v>130500</v>
       </c>
       <c r="I9">
-        <v>2400000</v>
+        <v>7250000</v>
       </c>
       <c r="J9">
-        <v>18000</v>
+        <v>60000</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>100</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -1015,7 +1015,7 @@
         <v>36</v>
       </c>
       <c r="G10" t="s">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="H10">
         <v>8000</v>
@@ -1038,7 +1038,7 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C11" t="s">
         <v>53</v>
@@ -1050,19 +1050,19 @@
         <v>19</v>
       </c>
       <c r="F11" t="s">
-        <v>77</v>
+        <v>30</v>
       </c>
       <c r="G11" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="H11">
-        <v>16180</v>
+        <v>20768</v>
       </c>
       <c r="I11">
-        <v>1618000</v>
+        <v>1298000</v>
       </c>
       <c r="J11">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -1076,7 +1076,7 @@
         <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C12" t="s">
         <v>54</v>
@@ -1088,19 +1088,19 @@
         <v>19</v>
       </c>
       <c r="F12" t="s">
-        <v>30</v>
+        <v>77</v>
       </c>
       <c r="G12" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="H12">
-        <v>20768</v>
+        <v>16180</v>
       </c>
       <c r="I12">
-        <v>1298000</v>
+        <v>1618000</v>
       </c>
       <c r="J12">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -1114,7 +1114,7 @@
         <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C13" t="s">
         <v>55</v>
@@ -1123,28 +1123,28 @@
         <v>20</v>
       </c>
       <c r="E13" t="s">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="F13" t="s">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="G13" t="s">
-        <v>33</v>
+        <v>87</v>
       </c>
       <c r="H13">
-        <v>9500</v>
+        <v>255360</v>
       </c>
       <c r="I13">
-        <v>4750000</v>
+        <v>7600000</v>
       </c>
       <c r="J13">
-        <v>2000</v>
+        <v>35000</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -1152,7 +1152,7 @@
         <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C14" t="s">
         <v>56</v>
@@ -1161,28 +1161,28 @@
         <v>20</v>
       </c>
       <c r="E14" t="s">
-        <v>73</v>
+        <v>20</v>
       </c>
       <c r="F14" t="s">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="G14" t="s">
-        <v>88</v>
+        <v>32</v>
       </c>
       <c r="H14">
-        <v>255360</v>
+        <v>9500</v>
       </c>
       <c r="I14">
-        <v>7600000</v>
+        <v>4750000</v>
       </c>
       <c r="J14">
-        <v>35000</v>
+        <v>2000</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -1205,7 +1205,7 @@
         <v>42</v>
       </c>
       <c r="G15" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H15">
         <v>12900</v>
@@ -1281,16 +1281,16 @@
         <v>80</v>
       </c>
       <c r="G17" t="s">
-        <v>35</v>
+        <v>88</v>
       </c>
       <c r="H17">
-        <v>28960</v>
+        <v>22340</v>
       </c>
       <c r="I17">
-        <v>1810000</v>
+        <v>2234000</v>
       </c>
       <c r="J17">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1319,16 +1319,16 @@
         <v>81</v>
       </c>
       <c r="G18" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="H18">
-        <v>56000</v>
+        <v>28960</v>
       </c>
       <c r="I18">
-        <v>1400000</v>
+        <v>1810000</v>
       </c>
       <c r="J18">
-        <v>40000</v>
+        <v>16000</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1345,7 +1345,7 @@
         <v>36</v>
       </c>
       <c r="C19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D19" t="s">
         <v>20</v>
@@ -1357,7 +1357,7 @@
         <v>78</v>
       </c>
       <c r="G19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H19">
         <v>10640</v>
@@ -1421,7 +1421,7 @@
         <v>31</v>
       </c>
       <c r="C21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D21" t="s">
         <v>69</v>
@@ -1497,7 +1497,7 @@
         <v>31</v>
       </c>
       <c r="C23" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D23" t="s">
         <v>69</v>
@@ -1544,7 +1544,7 @@
         <v>24</v>
       </c>
       <c r="F24" t="s">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="G24" t="s">
         <v>90</v>
@@ -1570,7 +1570,7 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="C25" t="s">
         <v>63</v>
@@ -1582,19 +1582,19 @@
         <v>25</v>
       </c>
       <c r="F25" t="s">
-        <v>37</v>
+        <v>82</v>
       </c>
       <c r="G25" t="s">
-        <v>33</v>
+        <v>81</v>
       </c>
       <c r="H25">
-        <v>22100</v>
+        <v>23800</v>
       </c>
       <c r="I25">
-        <v>1300000</v>
+        <v>3400000</v>
       </c>
       <c r="J25">
-        <v>17000</v>
+        <v>7000</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1608,7 +1608,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C26" t="s">
         <v>64</v>
@@ -1620,19 +1620,19 @@
         <v>25</v>
       </c>
       <c r="F26" t="s">
-        <v>83</v>
+        <v>38</v>
       </c>
       <c r="G26" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="H26">
-        <v>23800</v>
+        <v>12500</v>
       </c>
       <c r="I26">
-        <v>3400000</v>
+        <v>6250000</v>
       </c>
       <c r="J26">
-        <v>7000</v>
+        <v>2000</v>
       </c>
       <c r="K26">
         <v>0</v>
@@ -1658,7 +1658,7 @@
         <v>71</v>
       </c>
       <c r="F27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G27" t="s">
         <v>79</v>
@@ -1684,7 +1684,7 @@
         <v>25</v>
       </c>
       <c r="B28" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="C28" t="s">
         <v>65</v>
@@ -1696,16 +1696,16 @@
         <v>25</v>
       </c>
       <c r="F28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G28" t="s">
-        <v>91</v>
+        <v>32</v>
       </c>
       <c r="H28">
-        <v>12500</v>
+        <v>8000</v>
       </c>
       <c r="I28">
-        <v>6250000</v>
+        <v>4000000</v>
       </c>
       <c r="J28">
         <v>2000</v>
@@ -1722,37 +1722,37 @@
         <v>25</v>
       </c>
       <c r="B29" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C29" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="D29" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="E29" t="s">
-        <v>72</v>
+        <v>25</v>
       </c>
       <c r="F29" t="s">
-        <v>75</v>
+        <v>37</v>
       </c>
       <c r="G29" t="s">
-        <v>86</v>
+        <v>32</v>
       </c>
       <c r="H29">
-        <v>143550</v>
+        <v>22100</v>
       </c>
       <c r="I29">
-        <v>7250000</v>
+        <v>1300000</v>
       </c>
       <c r="J29">
-        <v>60000</v>
+        <v>17000</v>
       </c>
       <c r="K29">
         <v>0</v>
       </c>
       <c r="L29">
-        <v>33</v>
+        <v>100</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -1760,37 +1760,37 @@
         <v>25</v>
       </c>
       <c r="B30" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C30" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="D30" t="s">
-        <v>25</v>
+        <v>69</v>
       </c>
       <c r="E30" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
       <c r="F30" t="s">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="G30" t="s">
+        <v>86</v>
+      </c>
+      <c r="H30">
+        <v>143550</v>
+      </c>
+      <c r="I30">
+        <v>7250000</v>
+      </c>
+      <c r="J30">
+        <v>60000</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
         <v>33</v>
-      </c>
-      <c r="H30">
-        <v>8000</v>
-      </c>
-      <c r="I30">
-        <v>4000000</v>
-      </c>
-      <c r="J30">
-        <v>2000</v>
-      </c>
-      <c r="K30">
-        <v>0</v>
-      </c>
-      <c r="L30">
-        <v>100</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -1851,7 +1851,7 @@
         <v>27</v>
       </c>
       <c r="G32" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H32">
         <v>14000</v>
